--- a/table.xlsx
+++ b/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannibal\Desktop\cau_cats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{703473FA-17A3-4A4E-9A67-8465B5F246D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB722B0-5037-44AC-8EE3-95436E978F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5470" yWindow="-21710" windowWidth="38620" windowHeight="21100" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
   <si>
     <t>모델</t>
   </si>
@@ -191,6 +191,22 @@
   </si>
   <si>
     <t>Ours (56)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1epoch당 학습시간</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>분</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>30+</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>10+</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -199,7 +215,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="184" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -294,7 +310,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -310,19 +326,13 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="184" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
@@ -663,95 +673,101 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A623D5-CCB0-4793-B626-CA6A042C8AFE}">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.4140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="102.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="E1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="F1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="G2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="I2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>34.9</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>9159681</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F3" s="1">
         <v>1.43</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>2.87</v>
       </c>
-      <c r="G3" s="6">
+      <c r="H3" s="5">
         <v>0.2</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>65.77</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -759,199 +775,207 @@
         <v>36</v>
       </c>
       <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
         <v>44.8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>11177538</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="1">
         <v>1.82</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>3.65</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>0.65</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>203.42</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D5" s="1">
         <v>16.3</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>4010110</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="1">
         <v>0.41</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>0.83</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1.57</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>89.51</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>10.199999999999999</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>2495586</v>
       </c>
-      <c r="E6" s="5">
+      <c r="F6" s="1">
         <v>0.18</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G6" s="1">
         <v>0.37</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1.0900000000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>60.28</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="5">
         <v>0.16500000000000001</v>
       </c>
-      <c r="D7" s="7">
+      <c r="E7" s="6">
         <v>29691</v>
       </c>
-      <c r="E7" s="8">
+      <c r="F7" s="5">
         <v>0.09</v>
       </c>
-      <c r="F7" s="6">
+      <c r="G7" s="5">
         <v>0.18</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>0.71</v>
       </c>
-      <c r="H7" s="6">
+      <c r="I7" s="5">
         <v>19.38</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C8" s="1">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="D8" s="2">
+      <c r="C8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E8" s="2">
         <v>29691</v>
       </c>
-      <c r="E8" s="5">
-        <v>0.09</v>
-      </c>
       <c r="F8" s="1">
-        <v>0.18</v>
+        <v>0.42</v>
       </c>
       <c r="G8" s="1">
-        <v>0.71</v>
+        <v>0.84</v>
       </c>
       <c r="H8" s="1">
-        <v>19.38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A14" s="10" t="s">
+        <v>0.7</v>
+      </c>
+      <c r="I8" s="1">
+        <v>61.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>1040129</v>
       </c>
-      <c r="C15" s="9">
+      <c r="C15" s="7">
         <v>130046</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="7">
         <v>130046</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16" s="7">
         <v>367</v>
       </c>
-      <c r="C16" s="9">
+      <c r="C16" s="7">
         <v>92</v>
       </c>
-      <c r="D16" s="9">
+      <c r="D16" s="7">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="9">
+      <c r="B17" s="7">
         <v>1353</v>
       </c>
-      <c r="C17" s="9">
+      <c r="C17" s="7">
         <v>339</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="7">
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
-      <c r="G22" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -964,18 +988,18 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:B6"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.4140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="61.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1010,7 +1034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1045,7 +1069,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1056,7 +1080,7 @@
         <v>3244244</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1067,7 +1091,7 @@
         <v>3244244</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1078,7 +1102,7 @@
         <v>3244244</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1097,7 +1121,7 @@
       <c r="F6" s="1">
         <v>0.92259999999999998</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <v>0.90800000000000003</v>
       </c>
       <c r="H6" s="1">
@@ -1113,14 +1137,14 @@
         <v>0.90669999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
     </row>
@@ -1138,15 +1162,15 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.4140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="61.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1181,7 +1205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1192,7 +1216,7 @@
         <v>3244244</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1227,7 +1251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1262,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1297,7 +1321,7 @@
         <v>0.9778</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1316,7 +1340,7 @@
       <c r="F6" s="1">
         <v>0.97829999999999995</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <v>0.97829999999999995</v>
       </c>
       <c r="H6" s="1">
@@ -1332,14 +1356,14 @@
         <v>0.97829999999999995</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="B7" s="6"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6"/>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="B7" s="5"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
     </row>
@@ -1357,15 +1381,15 @@
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.4140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="61.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1400,7 +1424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1411,7 +1435,7 @@
         <v>3244244</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1446,7 +1470,7 @@
         <v>0.91339999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1481,7 +1505,7 @@
         <v>0.91080000000000005</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1516,7 +1540,7 @@
         <v>0.89629999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1535,7 +1559,7 @@
       <c r="F6" s="1">
         <v>0.87709999999999999</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G6" s="1">
         <v>0.88700000000000001</v>
       </c>
       <c r="H6" s="1">
@@ -1551,7 +1575,7 @@
         <v>0.86960000000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
     </row>

--- a/table.xlsx
+++ b/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB722B0-5037-44AC-8EE3-95436E978F49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12685B39-6A80-4EB4-ABC4-88A55F4C436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="-5470" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
   <si>
     <t>모델</t>
   </si>
@@ -208,6 +208,42 @@
   <si>
     <t>10+</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_resnet18_20251108_122247_54</t>
+  </si>
+  <si>
+    <t>run_efficientnet_b0_20251108_122449_55</t>
+  </si>
+  <si>
+    <t>run_mobilenet_v4_20251108_122605_56</t>
+  </si>
+  <si>
+    <t>run_resnet18_20251108_122924_57</t>
+  </si>
+  <si>
+    <t>run_efficientnet_b0_20251108_123359_58</t>
+  </si>
+  <si>
+    <t>run_mobilenet_v4_20251108_123828</t>
+  </si>
+  <si>
+    <t>run_resnet18_20251108_125319</t>
+  </si>
+  <si>
+    <t>run_efficientnet_b0_20251108_135948</t>
+  </si>
+  <si>
+    <t>run_mobilenet_v4_20251108_163343</t>
+  </si>
+  <si>
+    <t>log/Sewer-ML/run_20251109_162437</t>
+  </si>
+  <si>
+    <t>run_20251108_120255_52</t>
+  </si>
+  <si>
+    <t>run_20251108_121006_53</t>
   </si>
 </sst>
 </file>
@@ -310,7 +346,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -337,6 +373,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -675,19 +714,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A623D5-CCB0-4793-B626-CA6A042C8AFE}">
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="8" width="20.1640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.4140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" ht="102.5" x14ac:dyDescent="0.45">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -716,7 +755,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -741,13 +780,16 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="1">
         <v>34.9</v>
       </c>
@@ -767,15 +809,15 @@
         <v>65.77</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="1">
-        <v>10</v>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="D4" s="1">
         <v>44.8</v>
@@ -796,13 +838,16 @@
         <v>203.42</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D5" s="1">
         <v>16.3</v>
       </c>
@@ -822,13 +867,16 @@
         <v>89.51</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>36</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
       <c r="D6" s="1">
         <v>10.199999999999999</v>
       </c>
@@ -848,8 +896,8 @@
         <v>60.28</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="5" t="s">
         <v>39</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -877,7 +925,7 @@
         <v>19.38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>38</v>
       </c>
@@ -906,7 +954,7 @@
         <v>61.07</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A14" s="8" t="s">
         <v>27</v>
       </c>
@@ -920,7 +968,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -934,7 +982,7 @@
         <v>130046</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>29</v>
       </c>
@@ -948,7 +996,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
@@ -962,19 +1010,19 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="C22" s="2"/>
     </row>
   </sheetData>
@@ -985,21 +1033,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED2E3D2-ADA8-4356-BFE1-6111EA273D35}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="8" width="20.1640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.4140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="40.75" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="61.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1034,7 +1083,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1118,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1079,8 +1128,35 @@
       <c r="C3" s="2">
         <v>3244244</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D3" s="1">
+        <v>99.93</v>
+      </c>
+      <c r="E3" s="1">
+        <v>91.42</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.92210000000000003</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.91469999999999996</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0.91839999999999999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="K3" s="1">
+        <v>0.90949999999999998</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1090,8 +1166,35 @@
       <c r="C4" s="2">
         <v>3244244</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D4" s="1">
+        <v>99.09</v>
+      </c>
+      <c r="E4" s="5">
+        <v>92.83</v>
+      </c>
+      <c r="F4" s="5">
+        <v>0.93620000000000003</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.92730000000000001</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.93179999999999996</v>
+      </c>
+      <c r="I4" s="5">
+        <v>0.91949999999999998</v>
+      </c>
+      <c r="J4" s="5">
+        <v>0.92930000000000001</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.9244</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1101,8 +1204,35 @@
       <c r="C5" s="2">
         <v>3244244</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D5" s="1">
+        <v>96.86</v>
+      </c>
+      <c r="E5" s="1">
+        <v>92.18</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.93120000000000003</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.92</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0.92549999999999999</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.91159999999999997</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0.92390000000000005</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1112,39 +1242,42 @@
       <c r="C6" s="2">
         <v>3244244</v>
       </c>
-      <c r="D6" s="1">
-        <v>90.82</v>
-      </c>
-      <c r="E6" s="1">
-        <v>91.54</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0.92259999999999998</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.91520000000000001</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.89880000000000004</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.91469999999999996</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.90669999999999995</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D6" s="9">
+        <v>90.93</v>
+      </c>
+      <c r="E6" s="9">
+        <v>91.34</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0.91010000000000002</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.91739999999999999</v>
+      </c>
+      <c r="I6" s="9">
+        <v>0.9012</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.91710000000000003</v>
+      </c>
+      <c r="K6" s="9">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
     </row>
@@ -1156,21 +1289,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083EF1A-8817-41A5-B7D4-F7B8AC6BEDDD}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="8" width="20.1640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.4140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="41.6640625" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="61.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1205,7 +1339,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1215,8 +1349,32 @@
       <c r="C2" s="2">
         <v>3244244</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1250,8 +1408,11 @@
       <c r="K3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1285,8 +1446,11 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1320,8 +1484,11 @@
       <c r="K5" s="1">
         <v>0.9778</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1355,15 +1522,18 @@
       <c r="K6" s="1">
         <v>0.97829999999999995</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
     </row>
@@ -1375,21 +1545,22 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2157F87-0085-4DC7-93EF-26EFA2000176}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="8" width="20.1640625" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.4140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="41.5" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="61.2" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="61.5" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1424,7 +1595,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1434,8 +1605,32 @@
       <c r="C2" s="2">
         <v>3244244</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="D2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1445,13 +1640,13 @@
       <c r="C3" s="2">
         <v>3244244</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="5">
         <v>99.85</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>91.45</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>0.94579999999999997</v>
       </c>
       <c r="G3" s="1">
@@ -1463,14 +1658,17 @@
       <c r="I3" s="1">
         <v>0.88439999999999996</v>
       </c>
-      <c r="J3" s="1">
+      <c r="J3" s="5">
         <v>0.94440000000000002</v>
       </c>
-      <c r="K3" s="1">
+      <c r="K3" s="5">
         <v>0.91339999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L3" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1480,22 +1678,22 @@
       <c r="C4" s="2">
         <v>3244244</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>99.85</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" s="5">
         <v>91.45</v>
       </c>
       <c r="F4" s="1">
         <v>0.92049999999999998</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4" s="5">
         <v>0.9153</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4" s="5">
         <v>0.91779999999999995</v>
       </c>
-      <c r="I4" s="1">
+      <c r="I4" s="5">
         <v>0.90800000000000003</v>
       </c>
       <c r="J4" s="1">
@@ -1504,8 +1702,11 @@
       <c r="K4" s="1">
         <v>0.91080000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L4" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1539,8 +1740,11 @@
       <c r="K5" s="1">
         <v>0.89629999999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L5" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1574,8 +1778,11 @@
       <c r="K6" s="1">
         <v>0.86960000000000004</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="L6" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
     </row>

--- a/table.xlsx
+++ b/table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hannibal\Desktop\cau_cats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12685B39-6A80-4EB4-ABC4-88A55F4C436B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8782AAC6-2A65-4003-99C5-502B040B45B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5470" yWindow="-21710" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
   <si>
     <t>모델</t>
   </si>
@@ -138,10 +138,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>샘플당 평균 Forward Pass 시간 (gpu 캐시 비우고,1장을 100번 반복측정 후 평균)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>데이터셋</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -244,6 +240,30 @@
   </si>
   <si>
     <t>run_20251108_121006_53</t>
+  </si>
+  <si>
+    <t>샘플당 평균 CPU Forward Pass 시간 (더미1장을 100번 반복측정 후 평균)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>샘플당 평균 GPU Forward Pass 시간 (gpu 캐시 비우고, 더미 1장을 100번 반복측정 후 평균)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/Sewer-ML/run_20251110_194054</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/Sewer-ML/run_efficientnet_b0_20251110_194550</t>
+  </si>
+  <si>
+    <t>log/Sewer-ML/run_mobilenet_v4_20251110_194752</t>
+  </si>
+  <si>
+    <t>log/Sewer-ML/run_resnet18_20251110_194424</t>
+  </si>
+  <si>
+    <t>inference_results</t>
   </si>
 </sst>
 </file>
@@ -712,29 +732,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A623D5-CCB0-4793-B626-CA6A042C8AFE}">
-  <dimension ref="A1:I22"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.4140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.296875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="61.796875" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="102.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="102" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
@@ -749,19 +770,22 @@
         <v>21</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>26</v>
+        <v>56</v>
       </c>
       <c r="I1" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>8</v>
@@ -777,15 +801,18 @@
         <v>11</v>
       </c>
       <c r="I2" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>23</v>
@@ -806,15 +833,21 @@
         <v>0.2</v>
       </c>
       <c r="I3" s="1">
+        <v>10.06</v>
+      </c>
+      <c r="J3" s="1">
         <v>65.77</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>23</v>
@@ -835,15 +868,21 @@
         <v>0.65</v>
       </c>
       <c r="I4" s="1">
+        <v>10.51</v>
+      </c>
+      <c r="J4" s="1">
         <v>203.42</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K4" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
@@ -864,15 +903,21 @@
         <v>1.57</v>
       </c>
       <c r="I5" s="1">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="J5" s="1">
         <v>89.51</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="K5" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>23</v>
@@ -893,84 +938,102 @@
         <v>1.0900000000000001</v>
       </c>
       <c r="I6" s="1">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="J6" s="1">
         <v>60.28</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A7" s="5" t="s">
-        <v>39</v>
+      <c r="K6" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" s="5">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E7" s="6">
+        <v>41</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E7" s="2">
         <v>29691</v>
       </c>
-      <c r="F7" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.18</v>
+      <c r="F7" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.84</v>
       </c>
       <c r="H7" s="1">
-        <v>0.71</v>
-      </c>
-      <c r="I7" s="5">
-        <v>19.38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A8" s="1" t="s">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="1">
+        <v>21.07</v>
+      </c>
+      <c r="J7" s="1">
+        <v>61.07</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="5" t="s">
         <v>38</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="1">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E8" s="2">
+      <c r="D8" s="5">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E8" s="6">
         <v>29691</v>
       </c>
-      <c r="F8" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0.84</v>
+      <c r="F8" s="5">
+        <v>0.09</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.18</v>
       </c>
       <c r="H8" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="I8" s="1">
-        <v>61.07</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+        <v>0.71</v>
+      </c>
+      <c r="I8" s="5">
+        <v>3.61</v>
+      </c>
+      <c r="J8" s="5">
+        <v>19.38</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15" s="1" t="s">
-        <v>28</v>
       </c>
       <c r="B15" s="7">
         <v>1040129</v>
@@ -982,9 +1045,9 @@
         <v>130046</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="7">
         <v>367</v>
@@ -996,9 +1059,9 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B17" s="7">
         <v>1353</v>
@@ -1010,19 +1073,19 @@
         <v>339</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C18" s="2"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C19" s="2"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C20" s="2"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C21" s="2"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="C22" s="2"/>
     </row>
   </sheetData>
@@ -1035,20 +1098,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED2E3D2-ADA8-4356-BFE1-6111EA273D35}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="C1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.4140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="40.75" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="40.69921875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="61.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1062,7 +1125,7 @@
         <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>13</v>
@@ -1083,7 +1146,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1118,7 +1181,7 @@
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1153,10 +1216,10 @@
         <v>0.90949999999999998</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1191,10 +1254,10 @@
         <v>0.9244</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1229,10 +1292,10 @@
         <v>0.91769999999999996</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1267,17 +1330,17 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
     </row>
@@ -1291,20 +1354,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083EF1A-8817-41A5-B7D4-F7B8AC6BEDDD}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.4140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="41.6640625" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="41.69921875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="61.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1318,7 +1381,7 @@
         <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>13</v>
@@ -1339,7 +1402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1374,7 +1437,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="20.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1409,10 +1472,10 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1447,10 +1510,10 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1485,10 +1548,10 @@
         <v>0.9778</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1523,17 +1586,17 @@
         <v>0.97829999999999995</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
     </row>
@@ -1547,20 +1610,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2157F87-0085-4DC7-93EF-26EFA2000176}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection sqref="A1:K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="20.5" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.1640625" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.4140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.1640625" style="1" customWidth="1"/>
+    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
     <col min="12" max="12" width="41.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.6640625" style="1"/>
+    <col min="13" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="61.5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:12" ht="61.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1574,7 +1637,7 @@
         <v>25</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>13</v>
@@ -1595,7 +1658,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1630,7 +1693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1665,10 +1728,10 @@
         <v>0.91339999999999999</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -1703,10 +1766,10 @@
         <v>0.91080000000000005</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -1741,10 +1804,10 @@
         <v>0.89629999999999999</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -1779,10 +1842,10 @@
         <v>0.86960000000000004</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C8" s="2"/>
       <c r="D8" s="3"/>
     </row>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8782AAC6-2A65-4003-99C5-502B040B45B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD27020-14AB-4806-948F-7CBDEC8E402A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
@@ -190,10 +190,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>1epoch당 학습시간</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>분</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -264,6 +260,10 @@
   </si>
   <si>
     <t>inference_results</t>
+  </si>
+  <si>
+    <t>1epoch당 학습시간 (GPU 사용 기준)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -734,8 +734,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A623D5-CCB0-4793-B626-CA6A042C8AFE}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -755,7 +755,7 @@
         <v>34</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>19</v>
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="J1" s="8" t="s">
         <v>22</v>
@@ -785,7 +785,7 @@
       </c>
       <c r="B2" s="8"/>
       <c r="C2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>8</v>
@@ -839,7 +839,7 @@
         <v>65.77</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
@@ -874,7 +874,7 @@
         <v>203.42</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
@@ -909,7 +909,7 @@
         <v>89.51</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
@@ -944,7 +944,7 @@
         <v>60.28</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.4">
@@ -955,7 +955,7 @@
         <v>36</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="1">
         <v>0.16900000000000001</v>
@@ -979,7 +979,7 @@
         <v>61.07</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.4">
@@ -990,7 +990,7 @@
         <v>35</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="5">
         <v>0.16500000000000001</v>
@@ -1014,7 +1014,7 @@
         <v>19.38</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
@@ -1216,7 +1216,7 @@
         <v>0.90949999999999998</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1254,7 +1254,7 @@
         <v>0.9244</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -1292,7 +1292,7 @@
         <v>0.91769999999999996</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1330,7 +1330,7 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1472,7 +1472,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1510,7 +1510,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -1548,7 +1548,7 @@
         <v>0.9778</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1586,7 +1586,7 @@
         <v>0.97829999999999995</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.4">
@@ -1728,7 +1728,7 @@
         <v>0.91339999999999999</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.4">
@@ -1766,7 +1766,7 @@
         <v>0.91080000000000005</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.4">
@@ -1804,7 +1804,7 @@
         <v>0.89629999999999999</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.4">
@@ -1842,7 +1842,7 @@
         <v>0.86960000000000004</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.4">

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFD27020-14AB-4806-948F-7CBDEC8E402A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967EE962-94DD-4873-B838-628236CF726C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
-    <sheet name="Sewer-ML" sheetId="1" r:id="rId2"/>
-    <sheet name="Sewer-TAP" sheetId="2" r:id="rId3"/>
-    <sheet name="Sewer-TAPNEW" sheetId="3" r:id="rId4"/>
+    <sheet name="학습 레시피" sheetId="5" r:id="rId2"/>
+    <sheet name="Sewer-ML" sheetId="1" r:id="rId3"/>
+    <sheet name="Sewer-TAP" sheetId="2" r:id="rId4"/>
+    <sheet name="Sewer-TAPNEW" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
   <si>
     <t>모델</t>
   </si>
@@ -263,6 +264,52 @@
   </si>
   <si>
     <t>1epoch당 학습시간 (GPU 사용 기준)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모델</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resize, RandomHorizontalFlip, ColorJitter, Norm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre_trained</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimizer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>SGD Momentum</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdamW</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scheduler</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multisteplr</t>
+  </si>
+  <si>
+    <t>CosineAnnealingLR</t>
+  </si>
+  <si>
+    <t>batch_size</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>preprocess</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Model</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -273,7 +320,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -314,6 +361,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -334,7 +398,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -357,6 +421,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -366,7 +445,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -396,6 +475,30 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -734,8 +837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37A623D5-CCB0-4793-B626-CA6A042C8AFE}">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="93" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScale="93" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1095,11 +1198,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2844C75D-B20C-4DF4-8D50-5B6ECD2343AB}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.19921875" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="11.796875" style="11" customWidth="1"/>
+    <col min="4" max="4" width="43.69921875" style="11" customWidth="1"/>
+    <col min="5" max="5" width="18.69921875" style="11" customWidth="1"/>
+    <col min="6" max="6" width="23.296875" style="11" customWidth="1"/>
+    <col min="7" max="7" width="18.296875" style="11" customWidth="1"/>
+    <col min="8" max="8" width="18.19921875" style="11" customWidth="1"/>
+    <col min="9" max="16384" width="8.796875" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A1" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10">
+        <v>90</v>
+      </c>
+      <c r="C2" s="12">
+        <v>3244244</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" s="13">
+        <v>256</v>
+      </c>
+      <c r="F2" s="13" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="15">
+        <v>90</v>
+      </c>
+      <c r="C3" s="16">
+        <v>3244244</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="17">
+        <v>256</v>
+      </c>
+      <c r="F3" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="15">
+        <v>90</v>
+      </c>
+      <c r="C4" s="16">
+        <v>3244244</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="17">
+        <v>256</v>
+      </c>
+      <c r="F4" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A5" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="15">
+        <v>90</v>
+      </c>
+      <c r="C5" s="16">
+        <v>3244244</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E5" s="17">
+        <v>256</v>
+      </c>
+      <c r="F5" s="17" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A6" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="15">
+        <v>90</v>
+      </c>
+      <c r="C6" s="16">
+        <v>3244244</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="17">
+        <v>256</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED2E3D2-ADA8-4356-BFE1-6111EA273D35}">
   <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="77" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="77" workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1113,7 +1397,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="61.2" x14ac:dyDescent="0.4">
       <c r="A1" s="4" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>12</v>
@@ -1150,8 +1434,8 @@
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
+      <c r="B2" s="1">
+        <v>90</v>
       </c>
       <c r="C2" s="2">
         <v>3244244</v>
@@ -1350,7 +1634,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083EF1A-8817-41A5-B7D4-F7B8AC6BEDDD}">
   <dimension ref="A1:L8"/>
   <sheetViews>
@@ -1606,7 +1890,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2157F87-0085-4DC7-93EF-26EFA2000176}">
   <dimension ref="A1:L8"/>
   <sheetViews>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{967EE962-94DD-4873-B838-628236CF726C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73EDCBD-2DA1-4D0B-8906-D7B8260F7000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="124">
   <si>
     <t>모델</t>
   </si>
@@ -218,21 +218,6 @@
     <t>run_efficientnet_b0_20251108_123359_58</t>
   </si>
   <si>
-    <t>run_mobilenet_v4_20251108_123828</t>
-  </si>
-  <si>
-    <t>run_resnet18_20251108_125319</t>
-  </si>
-  <si>
-    <t>run_efficientnet_b0_20251108_135948</t>
-  </si>
-  <si>
-    <t>run_mobilenet_v4_20251108_163343</t>
-  </si>
-  <si>
-    <t>log/Sewer-ML/run_20251109_162437</t>
-  </si>
-  <si>
     <t>run_20251108_120255_52</t>
   </si>
   <si>
@@ -267,10 +252,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>모델</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Resize, RandomHorizontalFlip, ColorJitter, Norm</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -310,6 +291,214 @@
   </si>
   <si>
     <t>Model</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.10</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.18</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final epoch’s Loss (train mode)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Xie2019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3, 244, 244</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2183</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8735</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8690</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8647</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8305</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8249</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8464</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8187</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8642</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8408</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8192</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8455</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8150</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8704</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8418</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8473</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8225</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8580</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8399</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1755</t>
+  </si>
+  <si>
+    <t>92.81</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>85.25</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8223</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9153</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8663</t>
+  </si>
+  <si>
+    <t>0.8944</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.7840</t>
+  </si>
+  <si>
+    <t>0.8355</t>
+  </si>
+  <si>
+    <t>True</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run_resnet18_20251108_125319_60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0023</t>
+  </si>
+  <si>
+    <t>run_efficientnet_b0_20251108_135948_61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0232</t>
+  </si>
+  <si>
+    <t>run_mobilenet_v4_20251108_163343_62</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0811</t>
+  </si>
+  <si>
+    <t>log/Sewer-ML/run_20251109_162437_63</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2312</t>
+  </si>
+  <si>
+    <t>0.0479</t>
+  </si>
+  <si>
+    <t>0.0001</t>
+  </si>
+  <si>
+    <t>0.0002</t>
+  </si>
+  <si>
+    <t>0.0020</t>
+  </si>
+  <si>
+    <t>0.0022</t>
+  </si>
+  <si>
+    <t>0.0048</t>
+  </si>
+  <si>
+    <t>0.0464</t>
+  </si>
+  <si>
+    <t>run_mobilenet_v4_20251108_123828_59</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2055</t>
+  </si>
+  <si>
+    <t>loss function</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CrossEntropyLoss()</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCEWithLogitsLoss(pos_weight = neg_count/pos_count)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -320,7 +509,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,6 +567,15 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -398,7 +596,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -421,21 +619,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -445,60 +628,72 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -838,358 +1033,358 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.296875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="61.796875" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="8" width="20.19921875" style="15" customWidth="1"/>
+    <col min="9" max="9" width="20.296875" style="15" customWidth="1"/>
+    <col min="10" max="10" width="16.3984375" style="15" customWidth="1"/>
+    <col min="11" max="11" width="61.796875" style="15" customWidth="1"/>
+    <col min="12" max="16384" width="8.69921875" style="15"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="102" x14ac:dyDescent="0.4">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="D1" s="8" t="s">
+      <c r="C1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A3" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="15">
+        <v>34.9</v>
+      </c>
+      <c r="E3" s="16">
+        <v>9159681</v>
+      </c>
+      <c r="F3" s="15">
+        <v>1.43</v>
+      </c>
+      <c r="G3" s="15">
+        <v>2.87</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.2</v>
+      </c>
+      <c r="I3" s="15">
+        <v>10.06</v>
+      </c>
+      <c r="J3" s="15">
+        <v>65.77</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>55</v>
       </c>
-      <c r="I1" s="8" t="s">
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="15">
+        <v>44.8</v>
+      </c>
+      <c r="E4" s="16">
+        <v>11177538</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1.82</v>
+      </c>
+      <c r="G4" s="15">
+        <v>3.65</v>
+      </c>
+      <c r="H4" s="15">
+        <v>0.65</v>
+      </c>
+      <c r="I4" s="15">
+        <v>10.51</v>
+      </c>
+      <c r="J4" s="15">
+        <v>203.42</v>
+      </c>
+      <c r="K4" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J2" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1">
-        <v>34.9</v>
-      </c>
-      <c r="E3" s="2">
-        <v>9159681</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1.43</v>
-      </c>
-      <c r="G3" s="1">
-        <v>2.87</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.2</v>
-      </c>
-      <c r="I3" s="1">
-        <v>10.06</v>
-      </c>
-      <c r="J3" s="1">
-        <v>65.77</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="15">
+        <v>16.3</v>
+      </c>
+      <c r="E5" s="16">
+        <v>4010110</v>
+      </c>
+      <c r="F5" s="15">
+        <v>0.41</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0.83</v>
+      </c>
+      <c r="H5" s="15">
+        <v>1.57</v>
+      </c>
+      <c r="I5" s="15">
+        <v>17.559999999999999</v>
+      </c>
+      <c r="J5" s="15">
+        <v>89.51</v>
+      </c>
+      <c r="K5" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="1">
-        <v>44.8</v>
-      </c>
-      <c r="E4" s="2">
-        <v>11177538</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1.82</v>
-      </c>
-      <c r="G4" s="1">
-        <v>3.65</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0.65</v>
-      </c>
-      <c r="I4" s="1">
-        <v>10.51</v>
-      </c>
-      <c r="J4" s="1">
-        <v>203.42</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="C6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E6" s="16">
+        <v>2495586</v>
+      </c>
+      <c r="F6" s="15">
+        <v>0.18</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0.37</v>
+      </c>
+      <c r="H6" s="15">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="I6" s="15">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="J6" s="15">
+        <v>60.28</v>
+      </c>
+      <c r="K6" s="15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.16900000000000001</v>
+      </c>
+      <c r="E7" s="16">
+        <v>29691</v>
+      </c>
+      <c r="F7" s="15">
+        <v>0.42</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0.84</v>
+      </c>
+      <c r="H7" s="15">
+        <v>0.7</v>
+      </c>
+      <c r="I7" s="15">
+        <v>21.07</v>
+      </c>
+      <c r="J7" s="15">
+        <v>61.07</v>
+      </c>
+      <c r="K7" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1">
-        <v>16.3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>4010110</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.41</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.83</v>
-      </c>
-      <c r="H5" s="1">
-        <v>1.57</v>
-      </c>
-      <c r="I5" s="1">
-        <v>17.559999999999999</v>
-      </c>
-      <c r="J5" s="1">
-        <v>89.51</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="1">
-        <v>10.199999999999999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>2495586</v>
-      </c>
-      <c r="F6" s="1">
+      <c r="C8" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="17">
+        <v>0.16500000000000001</v>
+      </c>
+      <c r="E8" s="18">
+        <v>29691</v>
+      </c>
+      <c r="F8" s="17">
+        <v>0.09</v>
+      </c>
+      <c r="G8" s="17">
         <v>0.18</v>
       </c>
-      <c r="G6" s="1">
-        <v>0.37</v>
-      </c>
-      <c r="H6" s="1">
-        <v>1.0900000000000001</v>
-      </c>
-      <c r="I6" s="1">
-        <v>8.9600000000000009</v>
-      </c>
-      <c r="J6" s="1">
-        <v>60.28</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0.16900000000000001</v>
-      </c>
-      <c r="E7" s="2">
-        <v>29691</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0.42</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.84</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0.7</v>
-      </c>
-      <c r="I7" s="1">
-        <v>21.07</v>
-      </c>
-      <c r="J7" s="1">
-        <v>61.07</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0.16500000000000001</v>
-      </c>
-      <c r="E8" s="6">
-        <v>29691</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.09</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.18</v>
-      </c>
-      <c r="H8" s="1">
+      <c r="H8" s="15">
         <v>0.71</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="17">
         <v>3.61</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="17">
         <v>19.38</v>
       </c>
-      <c r="K8" s="1" t="s">
-        <v>56</v>
+      <c r="K8" s="15" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="C14" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D14" s="14" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="19">
         <v>1040129</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="19">
         <v>130046</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="19">
         <v>130046</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="19">
         <v>367</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="19">
         <v>92</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="19">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="19">
         <v>1353</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="19">
         <v>339</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="19">
         <v>339</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C18" s="2"/>
+      <c r="C18" s="16"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C19" s="2"/>
+      <c r="C19" s="16"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C20" s="2"/>
+      <c r="C20" s="16"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C21" s="2"/>
+      <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="C22" s="2"/>
+      <c r="C22" s="16"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1199,177 +1394,376 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2844C75D-B20C-4DF4-8D50-5B6ECD2343AB}">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.19921875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="10.3984375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="11.796875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="43.69921875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="18.69921875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="23.296875" style="11" customWidth="1"/>
-    <col min="7" max="7" width="18.296875" style="11" customWidth="1"/>
-    <col min="8" max="8" width="18.19921875" style="11" customWidth="1"/>
-    <col min="9" max="16384" width="8.796875" style="11"/>
+    <col min="1" max="1" width="20.19921875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.796875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="43.69921875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="18.69921875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="48.09765625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="23.296875" style="2" customWidth="1"/>
+    <col min="8" max="8" width="18.296875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="18.19921875" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="8.796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A1" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" s="14" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A1" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="G2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D3" s="8">
+        <v>256</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3" s="7">
+        <v>90</v>
+      </c>
+      <c r="G3" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A4" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F4" s="9">
+        <v>90</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A5" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F5" s="9">
+        <v>90</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A6" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="9">
+        <v>90</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A7" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F7" s="9">
+        <v>90</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A10" s="2">
+        <v>11.18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="C11" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A12" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="B12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D12" s="8">
+        <v>256</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F12" s="7">
+        <v>90</v>
+      </c>
+      <c r="G12" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A13" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="10">
+        <v>256</v>
+      </c>
+      <c r="E13" s="10"/>
+      <c r="F13" s="9">
+        <v>90</v>
+      </c>
+      <c r="G13" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A14" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D14" s="10">
+        <v>256</v>
+      </c>
+      <c r="E14" s="10"/>
+      <c r="F14" s="9">
+        <v>90</v>
+      </c>
+      <c r="G14" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A15" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="10">
+        <v>256</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="9">
+        <v>90</v>
+      </c>
+      <c r="G15" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A16" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="10">
+        <v>256</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="9">
+        <v>90</v>
+      </c>
+      <c r="G16" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10">
-        <v>90</v>
-      </c>
-      <c r="C2" s="12">
-        <v>3244244</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="13">
-        <v>256</v>
-      </c>
-      <c r="F2" s="13" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" s="15">
-        <v>90</v>
-      </c>
-      <c r="C3" s="16">
-        <v>3244244</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="17">
-        <v>256</v>
-      </c>
-      <c r="F3" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H3" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="15">
-        <v>90</v>
-      </c>
-      <c r="C4" s="16">
-        <v>3244244</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E4" s="17">
-        <v>256</v>
-      </c>
-      <c r="F4" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A5" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="15">
-        <v>90</v>
-      </c>
-      <c r="C5" s="16">
-        <v>3244244</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E5" s="17">
-        <v>256</v>
-      </c>
-      <c r="F5" s="17" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A6" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="15">
-        <v>90</v>
-      </c>
-      <c r="C6" s="16">
-        <v>3244244</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" s="17">
-        <v>256</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="17" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1380,253 +1774,414 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED2E3D2-ADA8-4356-BFE1-6111EA273D35}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView zoomScale="77" workbookViewId="0">
-      <selection activeCell="C6" sqref="A1:C6"/>
+    <sheetView zoomScale="81" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="40.69921875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="9" width="20.19921875" style="11" customWidth="1"/>
+    <col min="10" max="10" width="17.59765625" style="11" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" style="11" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" style="11" customWidth="1"/>
+    <col min="13" max="13" width="49.3984375" style="11" customWidth="1"/>
+    <col min="14" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="61.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="12" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F2" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G2" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H2" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I2" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J2" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K2" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L2" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B3" s="20">
         <v>90</v>
       </c>
-      <c r="C2" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C3" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="20">
         <v>90.71</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G3" s="20">
         <v>0.92359999999999998</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H3" s="20">
         <v>0.8982</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I3" s="20">
         <v>0.91080000000000005</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J3" s="20">
         <v>0.88949999999999996</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K3" s="20">
         <v>0.91690000000000005</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L3" s="20">
         <v>0.90300000000000002</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B4" s="11">
         <v>60</v>
       </c>
-      <c r="C3" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D3" s="1">
+      <c r="C4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="E4" s="11">
         <v>99.93</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="11">
         <v>91.42</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G4" s="11">
         <v>0.92210000000000003</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H4" s="11">
         <v>0.91469999999999996</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I4" s="11">
         <v>0.91839999999999999</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J4" s="11">
         <v>0.90539999999999998</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K4" s="11">
         <v>0.91359999999999997</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L4" s="11">
         <v>0.90949999999999998</v>
       </c>
-      <c r="L3" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
+      <c r="M4" s="11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B5" s="11">
         <v>60</v>
       </c>
-      <c r="C4" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D4" s="1">
+      <c r="C5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="11">
         <v>99.09</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F5" s="12">
         <v>92.83</v>
       </c>
-      <c r="F4" s="5">
+      <c r="G5" s="12">
         <v>0.93620000000000003</v>
       </c>
-      <c r="G4" s="5">
+      <c r="H5" s="12">
         <v>0.92730000000000001</v>
       </c>
-      <c r="H4" s="5">
+      <c r="I5" s="12">
         <v>0.93179999999999996</v>
       </c>
-      <c r="I4" s="5">
+      <c r="J5" s="12">
         <v>0.91949999999999998</v>
       </c>
-      <c r="J4" s="5">
+      <c r="K5" s="12">
         <v>0.92930000000000001</v>
       </c>
-      <c r="K4" s="5">
+      <c r="L5" s="12">
         <v>0.9244</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="M5" s="11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B6" s="11">
         <v>60</v>
       </c>
-      <c r="C5" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" s="11">
         <v>96.86</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="11">
         <v>92.18</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G6" s="11">
         <v>0.93120000000000003</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H6" s="11">
         <v>0.92</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I6" s="11">
         <v>0.92549999999999999</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J6" s="11">
         <v>0.91159999999999997</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K6" s="11">
         <v>0.92390000000000005</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L6" s="11">
         <v>0.91769999999999996</v>
       </c>
-      <c r="L5" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
+      <c r="M6" s="11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B7" s="11">
         <v>60</v>
       </c>
-      <c r="C6" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" s="13">
         <v>90.93</v>
       </c>
-      <c r="E6" s="9">
+      <c r="F7" s="13">
         <v>91.34</v>
       </c>
-      <c r="F6" s="9">
+      <c r="G7" s="13">
         <v>0.92469999999999997</v>
       </c>
-      <c r="G6" s="9">
+      <c r="H7" s="13">
         <v>0.91010000000000002</v>
       </c>
-      <c r="H6" s="9">
+      <c r="I7" s="13">
         <v>0.91739999999999999</v>
       </c>
-      <c r="I6" s="9">
+      <c r="J7" s="13">
         <v>0.9012</v>
       </c>
-      <c r="J6" s="9">
+      <c r="K7" s="13">
         <v>0.91710000000000003</v>
       </c>
-      <c r="K6" s="9">
+      <c r="L7" s="13">
         <v>0.90900000000000003</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="M7" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="H8" s="12"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="12" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="20">
+        <v>90</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="20">
+        <v>90.71</v>
+      </c>
+      <c r="G13" s="20">
+        <v>0.92359999999999998</v>
+      </c>
+      <c r="H13" s="20">
+        <v>0.8982</v>
+      </c>
+      <c r="I13" s="20">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="J13" s="20">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="K13" s="20">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="L13" s="20">
+        <v>0.90300000000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13"/>
+      <c r="L17" s="13"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1636,147 +2191,120 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083EF1A-8817-41A5-B7D4-F7B8AC6BEDDD}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:K6"/>
+    <sheetView zoomScale="83" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="41.69921875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="9" width="20.19921875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="16.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.69921875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="61.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L2" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D3" s="1">
-        <v>100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>100</v>
-      </c>
-      <c r="F3" s="1">
-        <v>1</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>1</v>
-      </c>
-      <c r="I3" s="1">
-        <v>1</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>60</v>
       </c>
-      <c r="C4" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D4" s="1">
-        <v>100</v>
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>113</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
       </c>
       <c r="F4" s="1">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1793,96 +2321,263 @@
       <c r="K4" s="1">
         <v>1</v>
       </c>
-      <c r="L4" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D5" s="1">
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="1">
         <v>100</v>
       </c>
-      <c r="E5" s="1">
-        <v>97.83</v>
-      </c>
       <c r="F5" s="1">
-        <v>0.95830000000000004</v>
+        <v>100</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1">
-        <v>0.97870000000000001</v>
+        <v>1</v>
       </c>
       <c r="I5" s="1">
         <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0.95650000000000002</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>0.9778</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>60</v>
       </c>
-      <c r="C6" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E6" s="1">
+        <v>100</v>
+      </c>
+      <c r="F6" s="1">
+        <v>97.83</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.95830000000000004</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.97870000000000001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.95650000000000002</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.9778</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="1">
         <v>98.64</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="1">
         <v>97.83</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G7" s="1">
         <v>0.97829999999999995</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H7" s="1">
         <v>0.97829999999999995</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I7" s="1">
         <v>0.97829999999999995</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J7" s="1">
         <v>0.97829999999999995</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K7" s="1">
         <v>0.97829999999999995</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L7" s="1">
         <v>0.97829999999999995</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="M7" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1892,249 +2587,504 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2157F87-0085-4DC7-93EF-26EFA2000176}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection sqref="A1:K6"/>
+    <sheetView zoomScale="87" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="8" width="20.19921875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="16.3984375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="15.19921875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="41.5" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.69921875" style="1"/>
+    <col min="1" max="9" width="20.19921875" style="1" customWidth="1"/>
+    <col min="10" max="11" width="16.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="54.8984375" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="61.2" x14ac:dyDescent="0.4">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D2" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F2" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G2" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H2" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I2" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J2" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K2" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="L2" s="21" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B3" s="1">
-        <v>60</v>
-      </c>
-      <c r="C3" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D3" s="5">
-        <v>99.85</v>
-      </c>
-      <c r="E3" s="5">
-        <v>91.45</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0.91549999999999998</v>
-      </c>
-      <c r="I3" s="1">
-        <v>0.88439999999999996</v>
-      </c>
-      <c r="J3" s="5">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="K3" s="5">
-        <v>0.91339999999999999</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="B4" s="1">
         <v>60</v>
       </c>
-      <c r="C4" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D4" s="5">
+      <c r="C4" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="5">
         <v>99.85</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5">
         <v>91.45</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.92049999999999998</v>
-      </c>
       <c r="G4" s="5">
-        <v>0.9153</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.91779999999999995</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0.90800000000000003</v>
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.91549999999999998</v>
       </c>
       <c r="J4" s="1">
-        <v>0.91359999999999997</v>
-      </c>
-      <c r="K4" s="1">
-        <v>0.91080000000000005</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>60</v>
       </c>
-      <c r="C5" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D5" s="1">
-        <v>98.3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>89.97</v>
-      </c>
-      <c r="F5" s="1">
-        <v>0.9133</v>
+      <c r="C5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E5" s="5">
+        <v>99.85</v>
+      </c>
+      <c r="F5" s="5">
+        <v>91.45</v>
       </c>
       <c r="G5" s="1">
-        <v>0.89270000000000005</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0.90290000000000004</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0.88549999999999995</v>
-      </c>
-      <c r="J5" s="1">
-        <v>0.90739999999999998</v>
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.9153</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.90800000000000003</v>
       </c>
       <c r="K5" s="1">
-        <v>0.89629999999999999</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
         <v>60</v>
       </c>
-      <c r="C6" s="2">
-        <v>3244244</v>
-      </c>
-      <c r="D6" s="1">
+      <c r="C6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E6" s="1">
+        <v>98.3</v>
+      </c>
+      <c r="F6" s="1">
+        <v>89.97</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.9133</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="1">
         <v>91.65</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="1">
         <v>87.61</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G7" s="1">
         <v>0.87709999999999999</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H7" s="1">
         <v>0.88700000000000001</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I7" s="1">
         <v>0.88200000000000001</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J7" s="1">
         <v>0.875</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K7" s="1">
         <v>0.86419999999999997</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L7" s="1">
         <v>0.86960000000000004</v>
       </c>
-      <c r="L6" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="C8" s="2"/>
-      <c r="D8" s="3"/>
+      <c r="M7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A12" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J12" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="1">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="E14" s="1">
+        <v>88.67</v>
+      </c>
+      <c r="F14" s="1">
+        <v>84.37</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="E15" s="1">
+        <v>90.94</v>
+      </c>
+      <c r="F15" s="1">
+        <v>84.37</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="1">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E16" s="1">
+        <v>91.09</v>
+      </c>
+      <c r="F16" s="1">
+        <v>84.37</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
+        <v>90</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="J16 I17" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73EDCBD-2DA1-4D0B-8906-D7B8260F7000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF59F236-C3C6-4FCE-AA9D-E2FEFB6347FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
-    <sheet name="학습 레시피" sheetId="5" r:id="rId2"/>
+    <sheet name="recipe" sheetId="5" r:id="rId2"/>
     <sheet name="Sewer-ML" sheetId="1" r:id="rId3"/>
     <sheet name="Sewer-TAP" sheetId="2" r:id="rId4"/>
     <sheet name="Sewer-TAPNEW" sheetId="3" r:id="rId5"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="149">
   <si>
     <t>모델</t>
   </si>
@@ -298,10 +298,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11.18</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Final epoch’s Loss (train mode)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -426,32 +422,16 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>64</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>90</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>run_resnet18_20251108_125319_60</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0.0023</t>
   </si>
   <si>
-    <t>run_efficientnet_b0_20251108_135948_61</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0.0232</t>
   </si>
   <si>
-    <t>run_mobilenet_v4_20251108_163343_62</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0.0811</t>
   </si>
   <si>
@@ -499,6 +479,124 @@
   </si>
   <si>
     <t>BCEWithLogitsLoss(pos_weight = neg_count/pos_count)</t>
+  </si>
+  <si>
+    <t>BCEWithLogitsLoss(pos_weight = neg_count/pos_count)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.97</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0019</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.90</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9351</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9098</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9020</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9293</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9154</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8870</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8820</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8750</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.30</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/Sewer-ML/baseline_resnet18_20251111_153058</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/Sewer-ML/baseline_efficientnet_b0_20251111_153240</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/Sewer-ML/baseline_mobilenet_v4_20251112_113929</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sewer-TAPNEW log</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Normal/Defect</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>normal/abnormal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>552820 / 487309</t>
+  </si>
+  <si>
+    <t>log/run_resnet18_20251108_125319_60</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/run_efficientnet_b0_20251108_135948_61</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/run_mobilenet_v4_20251108_163343_62</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CosineAnnealingLR</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.12-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>AdamW, Cosine 이것도 각각 수정하고 변형 필요</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -509,7 +607,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -576,6 +674,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -628,7 +743,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -694,6 +809,33 @@
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1033,7 +1175,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1133,7 +1275,7 @@
       <c r="I3" s="15">
         <v>10.06</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="28">
         <v>65.77</v>
       </c>
       <c r="K3" s="15" t="s">
@@ -1168,7 +1310,7 @@
       <c r="I4" s="15">
         <v>10.51</v>
       </c>
-      <c r="J4" s="15">
+      <c r="J4" s="28">
         <v>203.42</v>
       </c>
       <c r="K4" s="15" t="s">
@@ -1203,7 +1345,7 @@
       <c r="I5" s="15">
         <v>17.559999999999999</v>
       </c>
-      <c r="J5" s="15">
+      <c r="J5" s="28">
         <v>89.51</v>
       </c>
       <c r="K5" s="15" t="s">
@@ -1238,7 +1380,7 @@
       <c r="I6" s="15">
         <v>8.9600000000000009</v>
       </c>
-      <c r="J6" s="15">
+      <c r="J6" s="28">
         <v>60.28</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -1273,7 +1415,7 @@
       <c r="I7" s="15">
         <v>21.07</v>
       </c>
-      <c r="J7" s="15">
+      <c r="J7" s="28">
         <v>61.07</v>
       </c>
       <c r="K7" s="15" t="s">
@@ -1308,7 +1450,7 @@
       <c r="I8" s="17">
         <v>3.61</v>
       </c>
-      <c r="J8" s="17">
+      <c r="J8" s="29">
         <v>19.38</v>
       </c>
       <c r="K8" s="15" t="s">
@@ -1328,6 +1470,12 @@
       <c r="D14" s="14" t="s">
         <v>32</v>
       </c>
+      <c r="E14" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="15" t="s">
@@ -1342,6 +1490,12 @@
       <c r="D15" s="19">
         <v>130046</v>
       </c>
+      <c r="E15" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="27" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" s="15" t="s">
@@ -1356,8 +1510,11 @@
       <c r="D16" s="19">
         <v>92</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E16" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="15" t="s">
         <v>29</v>
       </c>
@@ -1370,20 +1527,23 @@
       <c r="D17" s="19">
         <v>339</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="E17" s="15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C18" s="16"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C19" s="16"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C20" s="16"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C21" s="16"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="C22" s="16"/>
     </row>
   </sheetData>
@@ -1394,10 +1554,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2844C75D-B20C-4DF4-8D50-5B6ECD2343AB}">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1406,7 +1566,7 @@
     <col min="2" max="2" width="11.796875" style="2" customWidth="1"/>
     <col min="3" max="3" width="43.69921875" style="2" customWidth="1"/>
     <col min="4" max="4" width="18.69921875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="48.09765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="51.8984375" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.3984375" style="2" customWidth="1"/>
     <col min="7" max="7" width="23.296875" style="2" customWidth="1"/>
     <col min="8" max="8" width="18.296875" style="2" customWidth="1"/>
@@ -1433,7 +1593,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
@@ -1450,10 +1610,10 @@
     </row>
     <row r="3" spans="1:9" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>57</v>
@@ -1462,7 +1622,7 @@
         <v>256</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F3" s="7">
         <v>90</v>
@@ -1482,22 +1642,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>102</v>
+      <c r="D4" s="30">
+        <v>64</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F4" s="9">
         <v>90</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>61</v>
@@ -1511,22 +1671,22 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="10" t="s">
-        <v>102</v>
+      <c r="D5" s="30">
+        <v>64</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F5" s="9">
         <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>61</v>
@@ -1540,22 +1700,22 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>102</v>
+      <c r="D6" s="30">
+        <v>64</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F6" s="9">
         <v>90</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>61</v>
@@ -1569,22 +1729,22 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>102</v>
+      <c r="D7" s="30">
+        <v>64</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F7" s="9">
         <v>90</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>61</v>
@@ -1594,8 +1754,8 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="2">
-        <v>11.18</v>
+      <c r="A10" s="2" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -1612,7 +1772,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
@@ -1629,10 +1789,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>57</v>
@@ -1641,7 +1801,7 @@
         <v>256</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="F12" s="7">
         <v>90</v>
@@ -1661,7 +1821,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>57</v>
@@ -1669,7 +1829,9 @@
       <c r="D13" s="10">
         <v>256</v>
       </c>
-      <c r="E13" s="10"/>
+      <c r="E13" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="F13" s="9">
         <v>90</v>
       </c>
@@ -1688,7 +1850,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>57</v>
@@ -1696,7 +1858,9 @@
       <c r="D14" s="10">
         <v>256</v>
       </c>
-      <c r="E14" s="10"/>
+      <c r="E14" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="F14" s="9">
         <v>90</v>
       </c>
@@ -1715,7 +1879,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>57</v>
@@ -1723,7 +1887,9 @@
       <c r="D15" s="10">
         <v>256</v>
       </c>
-      <c r="E15" s="10"/>
+      <c r="E15" s="10" t="s">
+        <v>117</v>
+      </c>
       <c r="F15" s="9">
         <v>90</v>
       </c>
@@ -1742,7 +1908,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>57</v>
@@ -1751,7 +1917,7 @@
         <v>256</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F16" s="9">
         <v>90</v>
@@ -1763,7 +1929,202 @@
         <v>61</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>64</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="9"/>
+      <c r="B17" s="9"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A21" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="8">
+        <v>256</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F21" s="7">
+        <v>90</v>
+      </c>
+      <c r="G21" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A22" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="10">
+        <v>256</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F22" s="9">
+        <v>90</v>
+      </c>
+      <c r="G22" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A23" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="10">
+        <v>256</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="9">
+        <v>90</v>
+      </c>
+      <c r="G23" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A24" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="10">
+        <v>256</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F24" s="9">
+        <v>90</v>
+      </c>
+      <c r="G24" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A25" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" s="10">
+        <v>256</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="F25" s="9">
+        <v>90</v>
+      </c>
+      <c r="G25" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="E29" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -1774,19 +2135,19 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED2E3D2-ADA8-4356-BFE1-6111EA273D35}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="9" width="20.19921875" style="11" customWidth="1"/>
-    <col min="10" max="10" width="17.59765625" style="11" customWidth="1"/>
+    <col min="10" max="10" width="19.09765625" style="11" customWidth="1"/>
     <col min="11" max="11" width="16.3984375" style="11" customWidth="1"/>
     <col min="12" max="12" width="15.19921875" style="11" customWidth="1"/>
-    <col min="13" max="13" width="49.3984375" style="11" customWidth="1"/>
+    <col min="13" max="13" width="19.09765625" style="22" customWidth="1"/>
     <col min="14" max="16384" width="8.69921875" style="11"/>
   </cols>
   <sheetData>
@@ -1806,7 +2167,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>25</v>
@@ -1832,6 +2193,7 @@
       <c r="L2" s="20" t="s">
         <v>18</v>
       </c>
+      <c r="M2" s="23"/>
     </row>
     <row r="3" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="20" t="s">
@@ -1841,7 +2203,7 @@
         <v>90</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>23</v>
@@ -1870,6 +2232,7 @@
       <c r="L3" s="20">
         <v>0.90300000000000002</v>
       </c>
+      <c r="M3" s="23"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="11" t="s">
@@ -1879,10 +2242,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E4" s="11">
         <v>99.93</v>
@@ -1908,8 +2271,8 @@
       <c r="L4" s="11">
         <v>0.90949999999999998</v>
       </c>
-      <c r="M4" s="11" t="s">
-        <v>104</v>
+      <c r="M4" s="22" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -1920,10 +2283,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E5" s="11">
         <v>99.09</v>
@@ -1949,8 +2312,8 @@
       <c r="L5" s="12">
         <v>0.9244</v>
       </c>
-      <c r="M5" s="11" t="s">
-        <v>106</v>
+      <c r="M5" s="22" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -1961,10 +2324,10 @@
         <v>60</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E6" s="11">
         <v>96.86</v>
@@ -1990,8 +2353,8 @@
       <c r="L6" s="11">
         <v>0.91769999999999996</v>
       </c>
-      <c r="M6" s="11" t="s">
-        <v>108</v>
+      <c r="M6" s="22" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -2002,10 +2365,10 @@
         <v>60</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E7" s="13">
         <v>90.93</v>
@@ -2031,157 +2394,195 @@
       <c r="L7" s="13">
         <v>0.90900000000000003</v>
       </c>
-      <c r="M7" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
-      <c r="H8" s="12"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="11" t="s">
+      <c r="M7" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="12" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" s="20" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" s="12" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="E11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="K11" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="L11" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="20">
+        <v>90</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>24</v>
+        <v>71</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="20">
-        <v>90</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="20">
+        <v>23</v>
+      </c>
+      <c r="F12" s="20">
         <v>90.71</v>
       </c>
-      <c r="G13" s="20">
+      <c r="G12" s="20">
         <v>0.92359999999999998</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H12" s="20">
         <v>0.8982</v>
       </c>
-      <c r="I13" s="20">
+      <c r="I12" s="20">
         <v>0.91080000000000005</v>
       </c>
-      <c r="J13" s="20">
+      <c r="J12" s="20">
         <v>0.88949999999999996</v>
       </c>
-      <c r="K13" s="20">
+      <c r="K12" s="20">
         <v>0.91690000000000005</v>
       </c>
-      <c r="L13" s="20">
+      <c r="L12" s="20">
         <v>0.90300000000000002</v>
+      </c>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M13" s="22" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
+      </c>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="22" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="F15" s="12"/>
-      <c r="G15" s="12"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
-      <c r="L15" s="12"/>
+        <v>71</v>
+      </c>
+      <c r="M15" s="22" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
+        <v>71</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13"/>
+      <c r="L16" s="13"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.4">
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+      <c r="H20" s="12"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2191,10 +2592,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083EF1A-8817-41A5-B7D4-F7B8AC6BEDDD}">
-  <dimension ref="A1:M18"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2202,7 +2603,7 @@
     <col min="1" max="9" width="20.19921875" style="1" customWidth="1"/>
     <col min="10" max="11" width="16.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="41.69921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="18.59765625" style="24" customWidth="1"/>
     <col min="14" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -2222,7 +2623,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>25</v>
@@ -2248,6 +2649,7 @@
       <c r="L2" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -2295,10 +2697,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
@@ -2324,7 +2726,7 @@
       <c r="L4" s="1">
         <v>1</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="24" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2336,10 +2738,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -2365,7 +2767,7 @@
       <c r="L5" s="1">
         <v>1</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="24" t="s">
         <v>43</v>
       </c>
     </row>
@@ -2377,10 +2779,10 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -2406,7 +2808,7 @@
       <c r="L6" s="1">
         <v>0.9778</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="24" t="s">
         <v>44</v>
       </c>
     </row>
@@ -2418,10 +2820,10 @@
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1">
         <v>98.64</v>
@@ -2447,137 +2849,134 @@
       <c r="L7" s="1">
         <v>0.97829999999999995</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="24" t="s">
         <v>47</v>
       </c>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>101</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="6" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="D18" s="1"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="D16" s="1"/>
+      <c r="M16" s="26"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -2587,18 +2986,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2157F87-0085-4DC7-93EF-26EFA2000176}">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="9" width="20.19921875" style="1" customWidth="1"/>
-    <col min="10" max="11" width="16.3984375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="54.8984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="24" customWidth="1"/>
     <col min="14" max="16384" width="8.69921875" style="1"/>
   </cols>
   <sheetData>
@@ -2618,7 +3018,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>25</v>
@@ -2644,6 +3044,7 @@
       <c r="L2" s="21" t="s">
         <v>18</v>
       </c>
+      <c r="M2" s="25"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
@@ -2691,10 +3092,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E4" s="5">
         <v>99.85</v>
@@ -2705,8 +3106,8 @@
       <c r="G4" s="5">
         <v>0.94579999999999997</v>
       </c>
-      <c r="H4" s="1">
-        <v>0.88700000000000001</v>
+      <c r="H4" s="1" t="s">
+        <v>130</v>
       </c>
       <c r="I4" s="1">
         <v>0.91549999999999998</v>
@@ -2720,7 +3121,7 @@
       <c r="L4" s="5">
         <v>0.91339999999999999</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="24" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2732,10 +3133,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E5" s="5">
         <v>99.85</v>
@@ -2761,7 +3162,7 @@
       <c r="L5" s="1">
         <v>0.91080000000000005</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="24" t="s">
         <v>46</v>
       </c>
     </row>
@@ -2773,13 +3174,13 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E6" s="1">
-        <v>98.3</v>
+        <v>113</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>133</v>
       </c>
       <c r="F6" s="1">
         <v>89.97</v>
@@ -2802,8 +3203,8 @@
       <c r="L6" s="1">
         <v>0.89629999999999999</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>119</v>
+      <c r="M6" s="24" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -2814,10 +3215,10 @@
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1">
         <v>91.65</v>
@@ -2828,14 +3229,14 @@
       <c r="G7" s="1">
         <v>0.87709999999999999</v>
       </c>
-      <c r="H7" s="1">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="J7" s="1">
-        <v>0.875</v>
+      <c r="H7" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="K7" s="1">
         <v>0.86419999999999997</v>
@@ -2843,248 +3244,396 @@
       <c r="L7" s="1">
         <v>0.86960000000000004</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="24" t="s">
         <v>48</v>
       </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="25"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
-      <c r="A12" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B12" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H12" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K12" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L12" s="21" t="s">
-        <v>18</v>
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>88.67</v>
+      </c>
+      <c r="F12" s="1">
+        <v>84.37</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>23</v>
+        <v>71</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>90.94</v>
+      </c>
+      <c r="F13" s="1">
+        <v>84.37</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>79</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>23</v>
+        <v>80</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>23</v>
+        <v>81</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" s="1">
         <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D14" s="1">
-        <v>0.30220000000000002</v>
-      </c>
       <c r="E14" s="1">
-        <v>88.67</v>
+        <v>91.09</v>
       </c>
       <c r="F14" s="1">
         <v>84.37</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>74</v>
+      <c r="G14" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>87</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="L14" s="5" t="s">
-        <v>87</v>
+        <v>88</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B15" s="1">
         <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.21440000000000001</v>
-      </c>
-      <c r="E15" s="1">
-        <v>90.94</v>
-      </c>
-      <c r="F15" s="1">
-        <v>84.37</v>
+        <v>71</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>93</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>80</v>
+        <v>94</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>97</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A16" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A19" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H19" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I19" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J19" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="25"/>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="1">
+        <v>90</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="1">
+        <v>90</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B23" s="1">
         <v>90</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="E16" s="1">
-        <v>91.09</v>
-      </c>
-      <c r="F16" s="1">
-        <v>84.37</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="K16" s="1" t="s">
+      <c r="C23" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" s="1">
         <v>90</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B17" s="1">
-        <v>90</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="I17" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="J17" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="1" t="s">
-        <v>100</v>
-      </c>
+      <c r="C24" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="J16 I17" numberStoredAsText="1"/>
+    <ignoredError sqref="J14 I15" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF59F236-C3C6-4FCE-AA9D-E2FEFB6347FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C7C58F-AE50-43BB-84B0-DEAA328F1C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="11028" yWindow="25812" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
     <sheet name="recipe" sheetId="5" r:id="rId2"/>
-    <sheet name="Sewer-ML" sheetId="1" r:id="rId3"/>
-    <sheet name="Sewer-TAP" sheetId="2" r:id="rId4"/>
-    <sheet name="Sewer-TAPNEW" sheetId="3" r:id="rId5"/>
+    <sheet name="Sewer-TAPNEW" sheetId="3" r:id="rId3"/>
+    <sheet name="Sewer-ML" sheetId="1" r:id="rId4"/>
+    <sheet name="Sewer-TAP" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="199">
   <si>
     <t>모델</t>
   </si>
@@ -294,10 +294,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11.10</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Final epoch’s Loss (train mode)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -386,38 +382,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.1755</t>
-  </si>
-  <si>
-    <t>92.81</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>85.25</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8223</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9153</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8663</t>
-  </si>
-  <si>
-    <t>0.8944</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.7840</t>
-  </si>
-  <si>
-    <t>0.8355</t>
-  </si>
-  <si>
     <t>True</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -485,10 +449,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11.12</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>99.97</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -592,11 +552,233 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>11.12-2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>AdamW, Cosine 이것도 각각 수정하고 변형 필요</t>
+    <t>86.14</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>프리트레인드를 끄니까 베이스라인 성능이 감소했다.</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8333</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8765</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2142</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8927</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8869</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8638</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8363</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8827</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8589</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1616</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>92.89</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>86.73</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8367</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9266</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8794</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9091</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8525</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (t_max90)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251112_120819</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_mobilenet_v4_20251112_120835</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251112_120810</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251112_111331</t>
+  </si>
+  <si>
+    <t>0.371</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.83</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>89.38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8876</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8901</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8793</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1970</t>
+  </si>
+  <si>
+    <t>92.66</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>87.91</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8644</t>
+  </si>
+  <si>
+    <t>0.8644</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8519</t>
+  </si>
+  <si>
+    <t>0.3726</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>81.56</t>
+  </si>
+  <si>
+    <t>82.30</t>
+  </si>
+  <si>
+    <t>0.8383</t>
+  </si>
+  <si>
+    <t>0.7910</t>
+  </si>
+  <si>
+    <t>0.8140</t>
+  </si>
+  <si>
+    <t>0.7849</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8084</t>
+  </si>
+  <si>
+    <t>0.1681</t>
+  </si>
+  <si>
+    <t>93.43</t>
+  </si>
+  <si>
+    <t>92.19</t>
+  </si>
+  <si>
+    <t>0.9313</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9199</t>
+  </si>
+  <si>
+    <t>0.9256</t>
+  </si>
+  <si>
+    <t>0.9116</t>
+  </si>
+  <si>
+    <t>0.9241</t>
+  </si>
+  <si>
+    <t>0.9178</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251112_134302</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251112_134706</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_mobilenet_v4_20251112_134313</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1175,7 +1357,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView zoomScale="93" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1471,10 +1653,10 @@
         <v>32</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>138</v>
+        <v>127</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1491,10 +1673,10 @@
         <v>130046</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1511,7 +1693,7 @@
         <v>92</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1528,7 +1710,7 @@
         <v>339</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1554,10 +1736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2844C75D-B20C-4DF4-8D50-5B6ECD2343AB}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView topLeftCell="A12" zoomScale="86" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1576,7 +1758,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -1593,7 +1775,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
@@ -1610,10 +1792,10 @@
     </row>
     <row r="3" spans="1:9" ht="20.55" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>57</v>
@@ -1622,7 +1804,7 @@
         <v>256</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F3" s="7">
         <v>90</v>
@@ -1642,7 +1824,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>57</v>
@@ -1651,13 +1833,13 @@
         <v>64</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F4" s="9">
         <v>90</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>61</v>
@@ -1671,7 +1853,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>57</v>
@@ -1680,13 +1862,13 @@
         <v>64</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F5" s="9">
         <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>61</v>
@@ -1700,7 +1882,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>57</v>
@@ -1709,13 +1891,13 @@
         <v>64</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F6" s="9">
         <v>90</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>61</v>
@@ -1729,7 +1911,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>57</v>
@@ -1738,13 +1920,13 @@
         <v>64</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F7" s="9">
         <v>90</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>61</v>
@@ -1755,7 +1937,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
@@ -1772,7 +1954,7 @@
         <v>65</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>12</v>
@@ -1789,10 +1971,10 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C12" s="8" t="s">
         <v>57</v>
@@ -1801,7 +1983,7 @@
         <v>256</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F12" s="7">
         <v>90</v>
@@ -1821,7 +2003,7 @@
         <v>3</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>57</v>
@@ -1830,7 +2012,7 @@
         <v>256</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F13" s="9">
         <v>90</v>
@@ -1850,7 +2032,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>57</v>
@@ -1859,7 +2041,7 @@
         <v>256</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F14" s="9">
         <v>90</v>
@@ -1879,7 +2061,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>57</v>
@@ -1888,7 +2070,7 @@
         <v>256</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F15" s="9">
         <v>90</v>
@@ -1908,7 +2090,7 @@
         <v>5</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>57</v>
@@ -1917,7 +2099,7 @@
         <v>256</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="F16" s="9">
         <v>90</v>
@@ -1929,7 +2111,7 @@
         <v>61</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
@@ -1945,7 +2127,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19" s="2" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.4">
@@ -1962,7 +2144,7 @@
         <v>65</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>12</v>
@@ -1979,10 +2161,10 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>57</v>
@@ -1991,7 +2173,7 @@
         <v>256</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="F21" s="7">
         <v>90</v>
@@ -2011,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>57</v>
@@ -2020,7 +2202,7 @@
         <v>256</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F22" s="9">
         <v>90</v>
@@ -2040,7 +2222,7 @@
         <v>4</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>57</v>
@@ -2049,7 +2231,7 @@
         <v>256</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F23" s="9">
         <v>90</v>
@@ -2069,7 +2251,7 @@
         <v>6</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C24" s="10" t="s">
         <v>57</v>
@@ -2078,7 +2260,7 @@
         <v>256</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F24" s="9">
         <v>90</v>
@@ -2098,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="10" t="s">
         <v>57</v>
@@ -2107,7 +2289,7 @@
         <v>256</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="F25" s="9">
         <v>90</v>
@@ -2119,12 +2301,365 @@
         <v>61</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>146</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="E29" s="2" t="s">
-        <v>148</v>
+      <c r="A29" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A30" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="8">
+        <v>256</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F30" s="7">
+        <v>90</v>
+      </c>
+      <c r="G30" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I30" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A31" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" s="10">
+        <v>256</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="9">
+        <v>90</v>
+      </c>
+      <c r="G31" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A32" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" s="10">
+        <v>256</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="9">
+        <v>90</v>
+      </c>
+      <c r="G32" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A33" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" s="10">
+        <v>256</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="9">
+        <v>90</v>
+      </c>
+      <c r="G33" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A34" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" s="10">
+        <v>256</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="9">
+        <v>90</v>
+      </c>
+      <c r="G34" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A37" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A38" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A39" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="8">
+        <v>256</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="7">
+        <v>90</v>
+      </c>
+      <c r="G39" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A40" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" s="10">
+        <v>256</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" s="9">
+        <v>90</v>
+      </c>
+      <c r="G40" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A41" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="10">
+        <v>256</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" s="9">
+        <v>90</v>
+      </c>
+      <c r="G41" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A42" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" s="10">
+        <v>256</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" s="9">
+        <v>90</v>
+      </c>
+      <c r="G42" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I42" s="10" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="10">
+        <v>256</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" s="9">
+        <v>90</v>
+      </c>
+      <c r="G43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -2134,11 +2669,1190 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2157F87-0085-4DC7-93EF-26EFA2000176}">
+  <dimension ref="A1:M44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="9" width="20.19921875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.3984375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="15.19921875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="20" style="24" customWidth="1"/>
+    <col min="14" max="16384" width="8.69921875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A2" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="25"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>60</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="5">
+        <v>99.85</v>
+      </c>
+      <c r="F4" s="5">
+        <v>91.45</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.94579999999999997</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.91549999999999998</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="K4" s="5">
+        <v>0.94440000000000002</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0.91339999999999999</v>
+      </c>
+      <c r="M4" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>60</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E5" s="5">
+        <v>99.85</v>
+      </c>
+      <c r="F5" s="5">
+        <v>91.45</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.92049999999999998</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.9153</v>
+      </c>
+      <c r="I5" s="5">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="J5" s="5">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.91359999999999997</v>
+      </c>
+      <c r="L5" s="1">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="M5" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1">
+        <v>60</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="1">
+        <v>89.97</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.9133</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="M6" s="24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1">
+        <v>60</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" s="1">
+        <v>91.65</v>
+      </c>
+      <c r="F7" s="1">
+        <v>87.61</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A10" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G10" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I10" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="25"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="1">
+        <v>90</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="E12" s="1">
+        <v>88.67</v>
+      </c>
+      <c r="F12" s="1">
+        <v>84.37</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M12" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="1">
+        <v>90</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="E13" s="1">
+        <v>90.94</v>
+      </c>
+      <c r="F13" s="1">
+        <v>84.37</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="M13" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" s="1">
+        <v>90</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="1">
+        <v>91.09</v>
+      </c>
+      <c r="F14" s="1">
+        <v>84.37</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="M14" s="24" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B15" s="1">
+        <v>90</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M15" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="D16" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A21" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L21" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M21" s="25"/>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="1">
+        <v>90</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M23" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" s="1">
+        <v>90</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M24" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25" s="1">
+        <v>90</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M25" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>90</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A30" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G30" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H30" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I30" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J30" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M30" s="25"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="1">
+        <v>90</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="M32" s="24" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B33" s="1">
+        <v>90</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="M33" s="24" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="1">
+        <v>90</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="M34" s="24" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B35" s="1">
+        <v>90</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M35" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A39" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="G39" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="H39" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="I39" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="J39" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="L39" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="25"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B41" s="1">
+        <v>90</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M41" s="24" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B42" s="1">
+        <v>90</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M42" s="24" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="1">
+        <v>90</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="M43" s="24" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B44" s="1">
+        <v>90</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="M44" s="24" t="s">
+        <v>161</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="J14" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED2E3D2-ADA8-4356-BFE1-6111EA273D35}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScale="81" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2153,7 +3867,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="12" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -2167,7 +3881,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>25</v>
@@ -2203,7 +3917,7 @@
         <v>90</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>23</v>
@@ -2242,10 +3956,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="E4" s="11">
         <v>99.93</v>
@@ -2272,7 +3986,7 @@
         <v>0.90949999999999998</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -2283,10 +3997,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="E5" s="11">
         <v>99.09</v>
@@ -2313,7 +4027,7 @@
         <v>0.9244</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -2324,10 +4038,10 @@
         <v>60</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="E6" s="11">
         <v>96.86</v>
@@ -2354,7 +4068,7 @@
         <v>0.91769999999999996</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -2365,10 +4079,10 @@
         <v>60</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="E7" s="13">
         <v>90.93</v>
@@ -2395,12 +4109,12 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>120</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="12" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -2414,7 +4128,7 @@
         <v>24</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E11" s="20" t="s">
         <v>25</v>
@@ -2450,7 +4164,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>23</v>
@@ -2486,40 +4200,40 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="F13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="J13" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="K13" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="L13" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="M13" s="22" t="s">
         <v>123</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="M13" s="22" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -2527,20 +4241,40 @@
         <v>4</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="12"/>
-      <c r="G14" s="12"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
+        <v>70</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>182</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="J14" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>190</v>
+      </c>
       <c r="M14" s="22" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -2548,13 +4282,13 @@
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="M15" s="22" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
@@ -2562,10 +4296,10 @@
         <v>5</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
@@ -2590,12 +4324,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083EF1A-8817-41A5-B7D4-F7B8AC6BEDDD}">
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView zoomScale="83" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2609,7 +4343,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>68</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -2623,7 +4357,7 @@
         <v>24</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E2" s="21" t="s">
         <v>25</v>
@@ -2697,10 +4431,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
@@ -2738,10 +4472,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -2779,10 +4513,10 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -2820,10 +4554,10 @@
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="E7" s="1">
         <v>98.64</v>
@@ -2864,7 +4598,7 @@
         <v>24</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E10" s="21" t="s">
         <v>25</v>
@@ -2935,10 +4669,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -2946,10 +4680,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -2957,10 +4691,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -2968,10 +4702,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">
@@ -2982,658 +4716,4 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2157F87-0085-4DC7-93EF-26EFA2000176}">
-  <dimension ref="A1:M24"/>
-  <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="9" width="20.19921875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.3984375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.19921875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="20" style="24" customWidth="1"/>
-    <col min="14" max="16384" width="8.69921875" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
-      <c r="A2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="25"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1">
-        <v>60</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E4" s="5">
-        <v>99.85</v>
-      </c>
-      <c r="F4" s="5">
-        <v>91.45</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.94579999999999997</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" s="1">
-        <v>0.91549999999999998</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.88439999999999996</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0.94440000000000002</v>
-      </c>
-      <c r="L4" s="5">
-        <v>0.91339999999999999</v>
-      </c>
-      <c r="M4" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1">
-        <v>60</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="E5" s="5">
-        <v>99.85</v>
-      </c>
-      <c r="F5" s="5">
-        <v>91.45</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.92049999999999998</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.9153</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0.91779999999999995</v>
-      </c>
-      <c r="J5" s="5">
-        <v>0.90800000000000003</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0.91359999999999997</v>
-      </c>
-      <c r="L5" s="1">
-        <v>0.91080000000000005</v>
-      </c>
-      <c r="M5" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1">
-        <v>60</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="F6" s="1">
-        <v>89.97</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0.9133</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0.89270000000000005</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0.90290000000000004</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0.88549999999999995</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0.90739999999999998</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0.89629999999999999</v>
-      </c>
-      <c r="M6" s="24" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1">
-        <v>60</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E7" s="1">
-        <v>91.65</v>
-      </c>
-      <c r="F7" s="1">
-        <v>87.61</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0.87709999999999999</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="K7" s="1">
-        <v>0.86419999999999997</v>
-      </c>
-      <c r="L7" s="1">
-        <v>0.86960000000000004</v>
-      </c>
-      <c r="M7" s="24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K10" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>90</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.30220000000000002</v>
-      </c>
-      <c r="E12" s="1">
-        <v>88.67</v>
-      </c>
-      <c r="F12" s="1">
-        <v>84.37</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B13" s="1">
-        <v>90</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D13" s="1">
-        <v>0.21440000000000001</v>
-      </c>
-      <c r="E13" s="1">
-        <v>90.94</v>
-      </c>
-      <c r="F13" s="1">
-        <v>84.37</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="M13" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A14" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="1">
-        <v>90</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="E14" s="1">
-        <v>91.09</v>
-      </c>
-      <c r="F14" s="1">
-        <v>84.37</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="M14" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B15" s="1">
-        <v>90</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A18" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
-      <c r="A19" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F19" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H19" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I19" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K19" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L19" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M19" s="25"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B21" s="1">
-        <v>90</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="G21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="1">
-        <v>90</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A23" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="1">
-        <v>90</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B24" s="1">
-        <v>90</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <ignoredErrors>
-    <ignoredError sqref="J14 I15" numberStoredAsText="1"/>
-  </ignoredErrors>
-</worksheet>
 </file>
--- a/table.xlsx
+++ b/table.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16C7C58F-AE50-43BB-84B0-DEAA328F1C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA36E763-7755-4E60-9BED-ACC9FCC9010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11028" yWindow="25812" windowWidth="23256" windowHeight="13896" activeTab="2" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
     <sheet name="recipe" sheetId="5" r:id="rId2"/>
-    <sheet name="Sewer-TAPNEW" sheetId="3" r:id="rId3"/>
-    <sheet name="Sewer-ML" sheetId="1" r:id="rId4"/>
-    <sheet name="Sewer-TAP" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
+    <sheet name="Sewer-TAPNEW" sheetId="3" r:id="rId4"/>
+    <sheet name="Sewer-ML" sheetId="1" r:id="rId5"/>
+    <sheet name="Sewer-TAP" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="239">
   <si>
     <t>모델</t>
   </si>
@@ -339,6 +340,9 @@
   </si>
   <si>
     <t>0.8642</t>
+  </si>
+  <si>
+    <t>0.8642</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -449,42 +453,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>99.97</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.0019</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>91.90</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9351</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9098</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9222</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9020</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9293</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9154</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0.8870</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -501,18 +469,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>log/Sewer-ML/baseline_resnet18_20251111_153058</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>log/Sewer-ML/baseline_efficientnet_b0_20251111_153240</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>log/Sewer-ML/baseline_mobilenet_v4_20251112_113929</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Sewer-TAPNEW log</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -552,11 +508,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>86.14</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>프리트레인드를 끄니까 베이스라인 성능이 감소했다.</t>
+    <t>0.8916</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8757</t>
+  </si>
+  <si>
+    <t>0.8757</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -568,74 +527,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.2142</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>91.56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0.8927</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.8869</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8638</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8363</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8827</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8589</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1616</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>92.89</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>86.73</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8367</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9266</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8794</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9091</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8025</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8525</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Ours (t_max90)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -649,9 +544,6 @@
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251112_120810</t>
   </si>
   <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251112_111331</t>
-  </si>
-  <si>
     <t>0.371</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -723,45 +615,6 @@
     <t>0.8084</t>
   </si>
   <si>
-    <t>0.1681</t>
-  </si>
-  <si>
-    <t>93.43</t>
-  </si>
-  <si>
-    <t>92.19</t>
-  </si>
-  <si>
-    <t>0.9313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.9199</t>
-  </si>
-  <si>
-    <t>0.9256</t>
-  </si>
-  <si>
-    <t>0.9116</t>
-  </si>
-  <si>
-    <t>0.9241</t>
-  </si>
-  <si>
-    <t>0.9178</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251112_134302</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251112_134706</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_mobilenet_v4_20251112_134313</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -778,8 +631,291 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>log/Sewer-ML/run_20251113_002452</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251112_150032</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_mobilenet_v4_20251112_150108</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251112_150047</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251112_152742</t>
+  </si>
+  <si>
+    <t>0.0463</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>98.52</t>
+  </si>
+  <si>
+    <t>88.20</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9006</t>
+  </si>
+  <si>
+    <t>0.8701</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8851</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8631</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8951</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8788</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0025</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.92</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9172</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8960</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8706</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9136</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.0178</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>99.38</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>86.43</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9119</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8222</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8655</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1657</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>93.12</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>87.02</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251112_160430</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251112_160457</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251112_160546</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251112_160603</t>
+  </si>
+  <si>
+    <t>  dropout: 0.01</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251112_235548</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>  dropout: 0.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>  dropout: 0.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_002239</t>
+  </si>
+  <si>
+    <t>  decoder_ff_ratio: 3</t>
+  </si>
+  <si>
+    <t>run  lr: 0.1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>run  lr: 0.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>원본 (run  lr: 0.001, dropout0.1, ff_ratio:2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>  dropout: 0.01 2차 시도</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>  decoder_ff_ratio: 1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_005207</t>
+  </si>
+  <si>
+    <t>  dropout: 0.005</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_005347</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_012808</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_012839</t>
+  </si>
+  <si>
+    <t>ff_ratio3,  dropout: 0.01, run  lr: 0.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff_ratio3, dropout: 0.01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout: 0.01, run  lr: 0.01</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_015857</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_021519</t>
+  </si>
+  <si>
+    <t>  decoder_ff_ratio: 4</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>  dropout: 0.05</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_033000</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_033014</t>
+  </si>
+  <si>
+    <t>  dropout: 0.05, res_attn</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위는 eta_min: 0.000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>  dropout: 0.01, eta_min: 0.00001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_040357</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_040442</t>
+  </si>
+  <si>
+    <t>  dropout: 0.01, eta_min: 0.0001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout: 0.01. head3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_043630</t>
+  </si>
+  <si>
+    <t>dropout: 0.01. head1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_043740</t>
+  </si>
+  <si>
+    <t>0.2280</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90.99</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>91.29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9093</t>
+  </si>
+  <si>
+    <t>0.9169</t>
+  </si>
+  <si>
+    <t>0.9246</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.9170</t>
+  </si>
+  <si>
+    <t>0.9086</t>
+  </si>
+  <si>
+    <t>0.9003</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (lr 0.001)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/Sewer-ML/baseline_resnet18_20251113_134637</t>
+  </si>
+  <si>
+    <t>log/Sewer-ML/baseline_efficientnet_b0_20251113_134832</t>
   </si>
 </sst>
 </file>
@@ -789,7 +925,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -848,6 +984,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="13"/>
       <color theme="1"/>
@@ -873,8 +1017,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -889,6 +1041,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,7 +1083,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -944,7 +1102,7 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1004,20 +1162,35 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1457,7 +1630,7 @@
       <c r="I3" s="15">
         <v>10.06</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="30">
         <v>65.77</v>
       </c>
       <c r="K3" s="15" t="s">
@@ -1492,7 +1665,7 @@
       <c r="I4" s="15">
         <v>10.51</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="30">
         <v>203.42</v>
       </c>
       <c r="K4" s="15" t="s">
@@ -1527,7 +1700,7 @@
       <c r="I5" s="15">
         <v>17.559999999999999</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="30">
         <v>89.51</v>
       </c>
       <c r="K5" s="15" t="s">
@@ -1562,7 +1735,7 @@
       <c r="I6" s="15">
         <v>8.9600000000000009</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="30">
         <v>60.28</v>
       </c>
       <c r="K6" s="15" t="s">
@@ -1597,7 +1770,7 @@
       <c r="I7" s="15">
         <v>21.07</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="30">
         <v>61.07</v>
       </c>
       <c r="K7" s="15" t="s">
@@ -1632,7 +1805,7 @@
       <c r="I8" s="17">
         <v>3.61</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="31">
         <v>19.38</v>
       </c>
       <c r="K8" s="15" t="s">
@@ -1653,10 +1826,10 @@
         <v>32</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1673,10 +1846,10 @@
         <v>130046</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="27" t="s">
-        <v>131</v>
+        <v>117</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1693,7 +1866,7 @@
         <v>92</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1710,7 +1883,7 @@
         <v>339</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1736,10 +1909,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2844C75D-B20C-4DF4-8D50-5B6ECD2343AB}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="86" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView topLeftCell="A15" zoomScale="86" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1758,7 +1931,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -1775,7 +1948,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
@@ -1804,7 +1977,7 @@
         <v>256</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F3" s="7">
         <v>90</v>
@@ -1829,17 +2002,17 @@
       <c r="C4" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="32">
         <v>64</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F4" s="9">
         <v>90</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>61</v>
@@ -1858,17 +2031,17 @@
       <c r="C5" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="32">
         <v>64</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F5" s="9">
         <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>61</v>
@@ -1887,17 +2060,17 @@
       <c r="C6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="32">
         <v>64</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F6" s="9">
         <v>90</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>61</v>
@@ -1916,17 +2089,17 @@
       <c r="C7" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="32">
         <v>64</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F7" s="9">
         <v>90</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>61</v>
@@ -1935,72 +2108,101 @@
         <v>64</v>
       </c>
     </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A9" s="33" t="s">
+        <v>156</v>
+      </c>
+    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A10" s="2" t="s">
-        <v>195</v>
+      <c r="A10" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A11" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>62</v>
+      <c r="A11" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="8">
+        <v>256</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="7">
+        <v>90</v>
+      </c>
+      <c r="G11" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="8" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A12" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" s="8" t="s">
+      <c r="A12" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="10">
         <v>256</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F12" s="7">
+      <c r="E12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" s="9">
         <v>90</v>
       </c>
-      <c r="G12" s="8" t="b">
+      <c r="G12" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I12" s="8" t="s">
-        <v>63</v>
+      <c r="H12" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13" s="9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>70</v>
@@ -2012,7 +2214,7 @@
         <v>256</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F13" s="9">
         <v>90</v>
@@ -2021,15 +2223,15 @@
         <v>0</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14" s="9" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
         <v>70</v>
@@ -2041,7 +2243,7 @@
         <v>256</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F14" s="9">
         <v>90</v>
@@ -2050,15 +2252,15 @@
         <v>0</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>70</v>
@@ -2070,7 +2272,7 @@
         <v>256</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F15" s="9">
         <v>90</v>
@@ -2079,118 +2281,136 @@
         <v>0</v>
       </c>
       <c r="H15" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A19" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="8">
+        <v>256</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="F19" s="7">
+        <v>90</v>
+      </c>
+      <c r="G19" s="8" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="I15" s="10" t="s">
+      <c r="I19" s="8" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A16" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C16" s="10" t="s">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A20" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D20" s="10">
         <v>256</v>
       </c>
-      <c r="E16" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F16" s="9">
+      <c r="E20" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="9">
         <v>90</v>
       </c>
-      <c r="G16" s="10" t="b">
+      <c r="G20" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H16" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A20" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>62</v>
+      <c r="H20" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A21" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="8" t="s">
+      <c r="A21" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="10">
         <v>256</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F21" s="7">
+      <c r="E21" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F21" s="9">
         <v>90</v>
       </c>
-      <c r="G21" s="8" t="b">
+      <c r="G21" s="10" t="b">
         <v>0</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="10" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22" s="9" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>70</v>
@@ -2219,7 +2439,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23" s="9" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>70</v>
@@ -2240,73 +2460,26 @@
         <v>0</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>63</v>
+        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A24" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="10">
-        <v>256</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="9">
-        <v>90</v>
-      </c>
-      <c r="G24" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="I24" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A25" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="10">
-        <v>256</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="9">
-        <v>90</v>
-      </c>
-      <c r="G25" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I25" s="10" t="s">
-        <v>135</v>
-      </c>
+      <c r="A24" s="9"/>
+      <c r="B24" s="9"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="2" t="s">
-        <v>197</v>
+      <c r="A28" s="33" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -2323,7 +2496,7 @@
         <v>65</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
@@ -2352,7 +2525,7 @@
         <v>256</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F30" s="7">
         <v>90</v>
@@ -2381,7 +2554,7 @@
         <v>256</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F31" s="9">
         <v>90</v>
@@ -2410,7 +2583,7 @@
         <v>256</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F32" s="9">
         <v>90</v>
@@ -2439,7 +2612,7 @@
         <v>256</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F33" s="9">
         <v>90</v>
@@ -2468,7 +2641,7 @@
         <v>256</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F34" s="9">
         <v>90</v>
@@ -2480,186 +2653,7 @@
         <v>61</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A37" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A38" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A39" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="B39" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D39" s="8">
-        <v>256</v>
-      </c>
-      <c r="E39" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="7">
-        <v>90</v>
-      </c>
-      <c r="G39" s="8" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="I39" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A40" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D40" s="10">
-        <v>256</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F40" s="9">
-        <v>90</v>
-      </c>
-      <c r="G40" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A41" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B41" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D41" s="10">
-        <v>256</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F41" s="9">
-        <v>90</v>
-      </c>
-      <c r="G41" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I41" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A42" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B42" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="10">
-        <v>256</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F42" s="9">
-        <v>90</v>
-      </c>
-      <c r="G42" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I42" s="10" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A43" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B43" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="D43" s="10">
-        <v>256</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="F43" s="9">
-        <v>90</v>
-      </c>
-      <c r="G43" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="I43" s="10" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2669,16 +2663,680 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBD9A2C-CB81-4D62-8BA0-232368B53911}">
+  <dimension ref="A2:K25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K25" sqref="K25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="13.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="102" x14ac:dyDescent="0.4">
+      <c r="B2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>200</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.6925</v>
+      </c>
+      <c r="C4">
+        <v>51.8</v>
+      </c>
+      <c r="D4">
+        <v>52.21</v>
+      </c>
+      <c r="E4">
+        <v>5221</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>6860</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="C5">
+        <v>92.81</v>
+      </c>
+      <c r="D5" s="27">
+        <v>87.61</v>
+      </c>
+      <c r="E5" s="27">
+        <v>9141</v>
+      </c>
+      <c r="F5">
+        <v>8418</v>
+      </c>
+      <c r="G5" s="27">
+        <v>8765</v>
+      </c>
+      <c r="H5">
+        <v>8409</v>
+      </c>
+      <c r="I5" s="27">
+        <v>9136</v>
+      </c>
+      <c r="J5">
+        <v>8757</v>
+      </c>
+      <c r="K5" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" s="27">
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="C6">
+        <v>94.45</v>
+      </c>
+      <c r="D6">
+        <v>87.02</v>
+      </c>
+      <c r="E6">
+        <v>8935</v>
+      </c>
+      <c r="F6">
+        <v>8531</v>
+      </c>
+      <c r="G6">
+        <v>8728</v>
+      </c>
+      <c r="H6">
+        <v>8471</v>
+      </c>
+      <c r="I6">
+        <v>8889</v>
+      </c>
+      <c r="J6">
+        <v>8675</v>
+      </c>
+      <c r="K6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="B7" s="27">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="C7">
+        <v>94.84</v>
+      </c>
+      <c r="D7" s="27">
+        <v>88.2</v>
+      </c>
+      <c r="E7">
+        <v>8914</v>
+      </c>
+      <c r="F7" s="27">
+        <v>8814</v>
+      </c>
+      <c r="G7" s="27">
+        <v>8864</v>
+      </c>
+      <c r="H7">
+        <v>8720</v>
+      </c>
+      <c r="I7">
+        <v>8827</v>
+      </c>
+      <c r="J7">
+        <v>8773</v>
+      </c>
+      <c r="K7" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>201</v>
+      </c>
+      <c r="B8" s="27">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="C8">
+        <v>95</v>
+      </c>
+      <c r="D8" s="27">
+        <v>87.91</v>
+      </c>
+      <c r="E8">
+        <v>8908</v>
+      </c>
+      <c r="F8">
+        <v>8757</v>
+      </c>
+      <c r="G8" s="27">
+        <v>8832</v>
+      </c>
+      <c r="H8">
+        <v>8667</v>
+      </c>
+      <c r="I8">
+        <v>8827</v>
+      </c>
+      <c r="J8">
+        <v>8746</v>
+      </c>
+      <c r="K8" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9" s="27">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="C9">
+        <v>94.53</v>
+      </c>
+      <c r="D9" s="27">
+        <v>87.32</v>
+      </c>
+      <c r="E9">
+        <v>8722</v>
+      </c>
+      <c r="F9" s="27">
+        <v>8870</v>
+      </c>
+      <c r="G9" s="27">
+        <v>8796</v>
+      </c>
+      <c r="H9">
+        <v>8742</v>
+      </c>
+      <c r="I9">
+        <v>8580</v>
+      </c>
+      <c r="J9">
+        <v>8660</v>
+      </c>
+      <c r="K9" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="34" t="s">
+        <v>202</v>
+      </c>
+      <c r="B10" s="35">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="C10">
+        <v>89.92</v>
+      </c>
+      <c r="D10">
+        <v>87.02</v>
+      </c>
+      <c r="E10">
+        <v>8889</v>
+      </c>
+      <c r="F10">
+        <v>8588</v>
+      </c>
+      <c r="G10">
+        <v>8736</v>
+      </c>
+      <c r="H10">
+        <v>8512</v>
+      </c>
+      <c r="I10">
+        <v>8827</v>
+      </c>
+      <c r="J10">
+        <v>8667</v>
+      </c>
+      <c r="K10" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="C11">
+        <v>91.72</v>
+      </c>
+      <c r="D11" s="27">
+        <v>87.61</v>
+      </c>
+      <c r="E11">
+        <v>8729</v>
+      </c>
+      <c r="F11" s="27">
+        <v>8927</v>
+      </c>
+      <c r="G11" s="27">
+        <v>8827</v>
+      </c>
+      <c r="H11">
+        <v>8797</v>
+      </c>
+      <c r="I11">
+        <v>8580</v>
+      </c>
+      <c r="J11">
+        <v>8688</v>
+      </c>
+      <c r="K11" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>209</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="C12">
+        <v>93.91</v>
+      </c>
+      <c r="D12" s="27">
+        <v>86.43</v>
+      </c>
+      <c r="E12">
+        <v>8830</v>
+      </c>
+      <c r="F12">
+        <v>8531</v>
+      </c>
+      <c r="G12">
+        <v>8678</v>
+      </c>
+      <c r="H12">
+        <v>8452</v>
+      </c>
+      <c r="I12">
+        <v>8765</v>
+      </c>
+      <c r="J12">
+        <v>8606</v>
+      </c>
+      <c r="K12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="34" t="s">
+        <v>208</v>
+      </c>
+      <c r="B13">
+        <v>0.1178</v>
+      </c>
+      <c r="C13">
+        <v>95</v>
+      </c>
+      <c r="D13" s="28">
+        <v>85.55</v>
+      </c>
+      <c r="E13">
+        <v>8596</v>
+      </c>
+      <c r="F13">
+        <v>8644</v>
+      </c>
+      <c r="G13">
+        <v>8620</v>
+      </c>
+      <c r="H13">
+        <v>8509</v>
+      </c>
+      <c r="I13">
+        <v>8457</v>
+      </c>
+      <c r="J13">
+        <v>8483</v>
+      </c>
+      <c r="K13" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>210</v>
+      </c>
+      <c r="B14">
+        <v>0.1173</v>
+      </c>
+      <c r="C14">
+        <v>95</v>
+      </c>
+      <c r="D14" s="27">
+        <v>87.32</v>
+      </c>
+      <c r="E14">
+        <v>8941</v>
+      </c>
+      <c r="F14">
+        <v>8588</v>
+      </c>
+      <c r="G14">
+        <v>8761</v>
+      </c>
+      <c r="H14">
+        <v>8521</v>
+      </c>
+      <c r="I14">
+        <v>8889</v>
+      </c>
+      <c r="J14">
+        <v>8701</v>
+      </c>
+      <c r="K14" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="28" t="s">
+        <v>213</v>
+      </c>
+      <c r="B15">
+        <v>0.20810000000000001</v>
+      </c>
+      <c r="C15">
+        <v>91.72</v>
+      </c>
+      <c r="D15" s="27">
+        <v>87.32</v>
+      </c>
+      <c r="E15">
+        <v>9036</v>
+      </c>
+      <c r="F15">
+        <v>8475</v>
+      </c>
+      <c r="G15">
+        <v>8746</v>
+      </c>
+      <c r="H15">
+        <v>8439</v>
+      </c>
+      <c r="I15">
+        <v>9012</v>
+      </c>
+      <c r="J15">
+        <v>8716</v>
+      </c>
+      <c r="K15" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>214</v>
+      </c>
+      <c r="B16">
+        <v>0.1578</v>
+      </c>
+      <c r="C16">
+        <v>94.69</v>
+      </c>
+      <c r="D16" s="27">
+        <v>86.73</v>
+      </c>
+      <c r="E16">
+        <v>8438</v>
+      </c>
+      <c r="F16">
+        <v>9153</v>
+      </c>
+      <c r="G16">
+        <v>8780</v>
+      </c>
+      <c r="H16">
+        <v>8980</v>
+      </c>
+      <c r="I16">
+        <v>8148</v>
+      </c>
+      <c r="J16">
+        <v>8544</v>
+      </c>
+      <c r="K16" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="C17">
+        <v>94.38</v>
+      </c>
+      <c r="D17" s="27">
+        <v>86.73</v>
+      </c>
+      <c r="E17">
+        <v>8587</v>
+      </c>
+      <c r="F17">
+        <v>8927</v>
+      </c>
+      <c r="G17">
+        <v>8753</v>
+      </c>
+      <c r="H17">
+        <v>8774</v>
+      </c>
+      <c r="I17">
+        <v>8395</v>
+      </c>
+      <c r="J17">
+        <v>8580</v>
+      </c>
+      <c r="K17" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>219</v>
+      </c>
+      <c r="B21">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="C21">
+        <v>94.77</v>
+      </c>
+      <c r="D21">
+        <v>88.2</v>
+      </c>
+      <c r="E21">
+        <v>8914</v>
+      </c>
+      <c r="F21">
+        <v>8814</v>
+      </c>
+      <c r="G21">
+        <v>8864</v>
+      </c>
+      <c r="H21">
+        <v>8720</v>
+      </c>
+      <c r="I21">
+        <v>8827</v>
+      </c>
+      <c r="J21">
+        <v>8773</v>
+      </c>
+      <c r="K21" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22">
+        <v>0.1239</v>
+      </c>
+      <c r="C22">
+        <v>95.47</v>
+      </c>
+      <c r="D22">
+        <v>87.61</v>
+      </c>
+      <c r="E22">
+        <v>8994</v>
+      </c>
+      <c r="F22">
+        <v>8588</v>
+      </c>
+      <c r="G22">
+        <v>8786</v>
+      </c>
+      <c r="H22">
+        <v>8529</v>
+      </c>
+      <c r="I22">
+        <v>8951</v>
+      </c>
+      <c r="J22">
+        <v>8735</v>
+      </c>
+      <c r="K22" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>223</v>
+      </c>
+      <c r="K24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>225</v>
+      </c>
+      <c r="K25" t="s">
+        <v>226</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2157F87-0085-4DC7-93EF-26EFA2000176}">
-  <dimension ref="A1:M44"/>
+  <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I40" sqref="I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="9" width="20.19921875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.19921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.796875" style="1" customWidth="1"/>
+    <col min="3" max="9" width="20.19921875" style="1" customWidth="1"/>
     <col min="10" max="10" width="19.5" style="1" customWidth="1"/>
     <col min="11" max="11" width="16.3984375" style="1" customWidth="1"/>
     <col min="12" max="12" width="15.19921875" style="1" customWidth="1"/>
@@ -2688,7 +3346,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -2778,8 +3439,8 @@
       <c r="C4" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>101</v>
+      <c r="D4" s="5" t="s">
+        <v>102</v>
       </c>
       <c r="E4" s="5">
         <v>99.85</v>
@@ -2791,7 +3452,7 @@
         <v>0.94579999999999997</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I4" s="1">
         <v>0.91549999999999998</v>
@@ -2820,7 +3481,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E5" s="5">
         <v>99.85</v>
@@ -2861,10 +3522,10 @@
         <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="F6" s="1">
         <v>89.97</v>
@@ -2888,7 +3549,7 @@
         <v>0.89629999999999999</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -2902,7 +3563,7 @@
         <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E7" s="1">
         <v>91.65</v>
@@ -2914,13 +3575,13 @@
         <v>0.87709999999999999</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="K7" s="1">
         <v>0.86419999999999997</v>
@@ -2932,132 +3593,94 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
-      <c r="A10" s="21" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A11" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B11" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C11" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D10" s="21" t="s">
+      <c r="D11" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E10" s="21" t="s">
+      <c r="E11" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F10" s="21" t="s">
+      <c r="F11" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="21" t="s">
+      <c r="G11" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="21" t="s">
+      <c r="H11" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I10" s="21" t="s">
+      <c r="I11" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J10" s="21" t="s">
+      <c r="J11" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K10" s="21" t="s">
+      <c r="K11" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L10" s="21" t="s">
+      <c r="L11" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M10" s="25"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>23</v>
-      </c>
+      <c r="M11" s="25"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="1">
-        <v>90</v>
+        <v>2</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D12" s="1">
-        <v>0.30220000000000002</v>
-      </c>
-      <c r="E12" s="1">
-        <v>88.67</v>
-      </c>
-      <c r="F12" s="1">
-        <v>84.37</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>72</v>
+        <v>23</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>82</v>
+        <v>23</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="24" t="s">
-        <v>126</v>
+        <v>23</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="1">
         <v>90</v>
@@ -3065,40 +3688,40 @@
       <c r="C13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="1">
-        <v>0.21440000000000001</v>
-      </c>
-      <c r="E13" s="1">
-        <v>90.94</v>
-      </c>
-      <c r="F13" s="1">
-        <v>84.37</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="K13" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>80</v>
+      <c r="D13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>125</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B14" s="1">
         <v>90</v>
@@ -3107,39 +3730,39 @@
         <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="1">
-        <v>91.09</v>
-      </c>
-      <c r="F14" s="1">
-        <v>84.37</v>
+        <v>179</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>74</v>
+        <v>182</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>86</v>
+        <v>170</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>88</v>
+        <v>183</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>178</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>89</v>
+        <v>184</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B15" s="1">
         <v>90</v>
@@ -3148,126 +3771,241 @@
         <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>148</v>
+        <v>164</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="M15" s="24" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="61.2" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B16" s="1">
+        <v>90</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="D16" s="1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A20" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
-      <c r="A21" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="M16" s="24" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C18" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="E18" s="1">
+        <v>94.84</v>
+      </c>
+      <c r="F18" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="G18" s="1">
+        <v>8914</v>
+      </c>
+      <c r="H18" s="1">
+        <v>8814</v>
+      </c>
+      <c r="I18" s="1">
+        <v>8864</v>
+      </c>
+      <c r="J18" s="1">
+        <v>8720</v>
+      </c>
+      <c r="K18" s="1">
+        <v>8827</v>
+      </c>
+      <c r="L18" s="1">
+        <v>8773</v>
+      </c>
+      <c r="M18" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A20" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B20" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="21" t="s">
+      <c r="C20" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="21" t="s">
+      <c r="D20" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="21" t="s">
+      <c r="E20" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F21" s="21" t="s">
+      <c r="F20" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G20" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H21" s="21" t="s">
+      <c r="H20" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I21" s="21" t="s">
+      <c r="I20" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J21" s="21" t="s">
+      <c r="J20" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K21" s="21" t="s">
+      <c r="K20" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L21" s="21" t="s">
+      <c r="L20" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M21" s="25"/>
+      <c r="M20" s="25"/>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="B22" s="1">
+        <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="E22" s="1">
+        <v>88.67</v>
+      </c>
+      <c r="F22" s="1">
+        <v>84.37</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>23</v>
+        <v>83</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>23</v>
+        <v>84</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>85</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>23</v>
+        <v>86</v>
+      </c>
+      <c r="M22" s="24" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B23" s="1">
         <v>90</v>
@@ -3275,40 +4013,40 @@
       <c r="C23" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>170</v>
+      <c r="D23" s="1">
+        <v>0.21440000000000001</v>
+      </c>
+      <c r="E23" s="1">
+        <v>90.94</v>
+      </c>
+      <c r="F23" s="1">
+        <v>84.37</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>171</v>
+        <v>73</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>172</v>
+        <v>76</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>171</v>
+        <v>77</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>173</v>
+        <v>78</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>173</v>
+        <v>80</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>173</v>
+        <v>81</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>160</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B24" s="1">
         <v>90</v>
@@ -3317,39 +4055,39 @@
         <v>70</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F24" s="1" t="s">
-        <v>164</v>
+        <v>71</v>
+      </c>
+      <c r="E24" s="1">
+        <v>91.09</v>
+      </c>
+      <c r="F24" s="1">
+        <v>84.37</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>142</v>
+        <v>75</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>120</v>
+        <v>88</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>167</v>
+        <v>90</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B25" s="1">
         <v>90</v>
@@ -3358,159 +4096,200 @@
         <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="F25" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>180</v>
+        <v>186</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
+      </c>
+      <c r="L25" s="5" t="s">
+        <v>79</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" s="1">
-        <v>90</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G26" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J26" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="K26" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="L26" s="1" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A29" s="1" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C27" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="E27" s="1">
+        <v>94.84</v>
+      </c>
+      <c r="F27" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="G27" s="1">
+        <v>8914</v>
+      </c>
+      <c r="H27" s="1">
+        <v>8814</v>
+      </c>
+      <c r="I27" s="1">
+        <v>8864</v>
+      </c>
+      <c r="J27" s="1">
+        <v>8720</v>
+      </c>
+      <c r="K27" s="1">
+        <v>8827</v>
+      </c>
+      <c r="L27" s="1">
+        <v>8773</v>
+      </c>
+      <c r="M27" s="24" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
+      <c r="A29" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B29" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="D30" s="21" t="s">
+      <c r="D29" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="E30" s="21" t="s">
+      <c r="E29" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="F30" s="21" t="s">
+      <c r="F29" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="G30" s="21" t="s">
+      <c r="G29" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="H30" s="21" t="s">
+      <c r="H29" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="I30" s="21" t="s">
+      <c r="I29" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="J30" s="21" t="s">
+      <c r="J29" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="K30" s="21" t="s">
+      <c r="K29" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="L30" s="21" t="s">
+      <c r="L29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="M30" s="25"/>
+      <c r="M29" s="25"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>23</v>
+        <v>3</v>
+      </c>
+      <c r="B31" s="1">
+        <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>23</v>
+        <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>23</v>
+        <v>141</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>23</v>
+        <v>143</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>23</v>
+        <v>145</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>23</v>
+        <v>144</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>23</v>
+        <v>146</v>
+      </c>
+      <c r="M31" s="24" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B32" s="1">
         <v>90</v>
@@ -3519,39 +4298,39 @@
         <v>70</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="J32" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="K32" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>173</v>
+        <v>135</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="K32" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>140</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>160</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
         <v>90</v>
@@ -3560,39 +4339,39 @@
         <v>70</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>120</v>
+        <v>153</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>158</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>6</v>
+        <v>131</v>
       </c>
       <c r="B34" s="1">
         <v>90</v>
@@ -3601,240 +4380,69 @@
         <v>70</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>178</v>
+        <v>126</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>179</v>
+        <v>126</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>138</v>
+        <v>79</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>181</v>
+        <v>79</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A35" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B35" s="1">
-        <v>90</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L35" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M35" s="24" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A38" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
-      <c r="A39" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="C39" s="21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F39" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H39" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="I39" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="J39" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="K39" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="L39" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="M39" s="25"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A40" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A41" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B41" s="1">
-        <v>90</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M41" s="24" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A42" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B42" s="1">
-        <v>90</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M42" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A43" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B43" s="1">
-        <v>90</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="M43" s="24" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
-      <c r="A44" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="B44" s="1">
-        <v>90</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="L44" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="M44" s="24" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C36" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="E36" s="1">
+        <v>94.84</v>
+      </c>
+      <c r="F36" s="1">
+        <v>88.2</v>
+      </c>
+      <c r="G36" s="1">
+        <v>8914</v>
+      </c>
+      <c r="H36" s="1">
+        <v>8814</v>
+      </c>
+      <c r="I36" s="1">
+        <v>8864</v>
+      </c>
+      <c r="J36" s="1">
+        <v>8720</v>
+      </c>
+      <c r="K36" s="1">
+        <v>8827</v>
+      </c>
+      <c r="L36" s="1">
+        <v>8773</v>
+      </c>
+      <c r="M36" s="24" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3842,17 +4450,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="J14" numberStoredAsText="1"/>
+    <ignoredError sqref="J24" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED2E3D2-ADA8-4356-BFE1-6111EA273D35}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3867,7 +4475,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="12" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -3959,7 +4567,7 @@
         <v>70</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E4" s="11">
         <v>99.93</v>
@@ -3986,7 +4594,7 @@
         <v>0.90949999999999998</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -4000,7 +4608,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E5" s="11">
         <v>99.09</v>
@@ -4027,7 +4635,7 @@
         <v>0.9244</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -4041,7 +4649,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E6" s="11">
         <v>96.86</v>
@@ -4068,7 +4676,7 @@
         <v>0.91769999999999996</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -4082,7 +4690,7 @@
         <v>70</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E7" s="13">
         <v>90.93</v>
@@ -4109,12 +4717,12 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>195</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="12" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -4200,40 +4808,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H13" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I13" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="J13" s="11" t="s">
-        <v>116</v>
-      </c>
-      <c r="K13" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="L13" s="11" t="s">
-        <v>118</v>
-      </c>
       <c r="M13" s="22" t="s">
-        <v>123</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -4241,40 +4822,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="D14" s="11" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>183</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="I14" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="K14" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="L14" s="11" t="s">
-        <v>190</v>
-      </c>
       <c r="M14" s="22" t="s">
-        <v>124</v>
+        <v>238</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -4282,33 +4836,52 @@
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="M15" s="22" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>5</v>
+        <v>236</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
+      <c r="D16" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="M16" s="22" t="s">
+        <v>159</v>
+      </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
       <c r="B20" s="12"/>
@@ -4324,7 +4897,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083EF1A-8817-41A5-B7D4-F7B8AC6BEDDD}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -4343,7 +4916,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>194</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -4434,7 +5007,7 @@
         <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
@@ -4475,7 +5048,7 @@
         <v>70</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -4516,7 +5089,7 @@
         <v>70</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -4557,7 +5130,7 @@
         <v>70</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" s="1">
         <v>98.64</v>
@@ -4669,7 +5242,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>70</v>
@@ -4680,7 +5253,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>70</v>
@@ -4691,7 +5264,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>70</v>
@@ -4702,7 +5275,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>70</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA36E763-7755-4E60-9BED-ACC9FCC9010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8F4B56-3DC0-49B8-80CE-DB5449F5E992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="4" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="256">
   <si>
     <t>모델</t>
   </si>
@@ -523,51 +523,23 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.8765</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8927</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>8765</t>
   </si>
   <si>
     <t>Ours (t_max90)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251112_120819</t>
-  </si>
-  <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_mobilenet_v4_20251112_120835</t>
   </si>
   <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251112_120810</t>
   </si>
   <si>
-    <t>0.371</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>98.83</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>89.38</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>0.8876</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8901</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.8793</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>0.1970</t>
   </si>
   <si>
@@ -631,6 +603,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>log/Sewer-ML/run_20251113_002452</t>
   </si>
   <si>
@@ -916,6 +892,87 @@
   </si>
   <si>
     <t>log/Sewer-ML/baseline_efficientnet_b0_20251113_134832</t>
+  </si>
+  <si>
+    <t>8914</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_051940</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_052151</t>
+  </si>
+  <si>
+    <t>dropout: 0.01, 5</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout: 0.01, 6</t>
+  </si>
+  <si>
+    <t>dropout: 0.01, 6</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>adamaW, cosine만 쓴다면, 로스함수가 CE, BCE인지는 상관 없구나</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout 0.01, bs64</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_060046</t>
+  </si>
+  <si>
+    <t>0.2257</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>90.94</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>89.09</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>8889</t>
+  </si>
+  <si>
+    <t>9040</t>
+  </si>
+  <si>
+    <t>8964</t>
+  </si>
+  <si>
+    <t>8931</t>
+  </si>
+  <si>
+    <t>8847</t>
+  </si>
+  <si>
+    <t>log/Sewer-TAPNEW/baseline_efficientnet_b0_20251113_061720</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_070503</t>
+  </si>
+  <si>
+    <t>dropout: 0.01, 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에는 다 run.py에 로스는 CE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -925,7 +982,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,6 +1082,23 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1083,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1190,6 +1264,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1909,10 +1989,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2844C75D-B20C-4DF4-8D50-5B6ECD2343AB}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="86" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A16" zoomScale="86" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1931,7 +2011,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -2110,7 +2190,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="33" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -2289,7 +2369,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -2479,7 +2559,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="33" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -2598,7 +2678,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A33" s="9" t="s">
         <v>6</v>
       </c>
@@ -2627,7 +2707,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A34" s="9" t="s">
         <v>5</v>
       </c>
@@ -2654,6 +2734,117 @@
       </c>
       <c r="I34" s="10" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" s="10">
+        <v>256</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" s="9">
+        <v>90</v>
+      </c>
+      <c r="G39" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="10">
+        <v>256</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="9">
+        <v>90</v>
+      </c>
+      <c r="G43" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I43" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="D46" s="10">
+        <v>256</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46" s="9">
+        <v>90</v>
+      </c>
+      <c r="G46" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H46" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I46" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -2664,10 +2855,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBD9A2C-CB81-4D62-8BA0-232368B53911}">
-  <dimension ref="A2:K25"/>
+  <dimension ref="A2:K33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2707,16 +2898,16 @@
     </row>
     <row r="3" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>126</v>
@@ -2739,7 +2930,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A4" s="34" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B4" s="35">
         <v>0.6925</v>
@@ -2769,12 +2960,12 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B5" s="27">
         <v>0.16339999999999999</v>
@@ -2804,12 +2995,12 @@
         <v>8757</v>
       </c>
       <c r="K5" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B6" s="27">
         <v>0.15110000000000001</v>
@@ -2839,82 +3030,82 @@
         <v>8675</v>
       </c>
       <c r="K6" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>192</v>
-      </c>
-      <c r="B7" s="27">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="36" t="s">
+        <v>186</v>
+      </c>
+      <c r="B7" s="37">
         <v>0.14729999999999999</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="36">
         <v>94.84</v>
       </c>
-      <c r="D7" s="27">
+      <c r="D7" s="37">
         <v>88.2</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="36">
         <v>8914</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="37">
         <v>8814</v>
       </c>
-      <c r="G7" s="27">
+      <c r="G7" s="37">
         <v>8864</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="36">
         <v>8720</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="36">
         <v>8827</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="36">
         <v>8773</v>
       </c>
-      <c r="K7" s="27" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>201</v>
-      </c>
-      <c r="B8" s="27">
+      <c r="K7" s="37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B8" s="37">
         <v>0.14319999999999999</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="36">
         <v>95</v>
       </c>
-      <c r="D8" s="27">
+      <c r="D8" s="37">
         <v>87.91</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="36">
         <v>8908</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="36">
         <v>8757</v>
       </c>
-      <c r="G8" s="27">
+      <c r="G8" s="37">
         <v>8832</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="36">
         <v>8667</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="36">
         <v>8827</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="36">
         <v>8746</v>
       </c>
-      <c r="K8" t="s">
-        <v>196</v>
+      <c r="K8" s="36" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B9" s="27">
         <v>0.13719999999999999</v>
@@ -2944,12 +3135,12 @@
         <v>8660</v>
       </c>
       <c r="K9" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A10" s="34" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B10" s="35">
         <v>0.24879999999999999</v>
@@ -2979,12 +3170,12 @@
         <v>8667</v>
       </c>
       <c r="K10" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B11" s="28">
         <v>0.19850000000000001</v>
@@ -3014,12 +3205,12 @@
         <v>8688</v>
       </c>
       <c r="K11" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B12" s="27">
         <v>0.15859999999999999</v>
@@ -3049,12 +3240,12 @@
         <v>8606</v>
       </c>
       <c r="K12" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A13" s="34" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B13">
         <v>0.1178</v>
@@ -3084,12 +3275,12 @@
         <v>8483</v>
       </c>
       <c r="K13" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B14">
         <v>0.1173</v>
@@ -3119,12 +3310,12 @@
         <v>8701</v>
       </c>
       <c r="K14" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A15" s="28" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B15">
         <v>0.20810000000000001</v>
@@ -3154,12 +3345,12 @@
         <v>8716</v>
       </c>
       <c r="K15" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="B16">
         <v>0.1578</v>
@@ -3189,12 +3380,12 @@
         <v>8544</v>
       </c>
       <c r="K16" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B17">
         <v>0.16109999999999999</v>
@@ -3224,17 +3415,17 @@
         <v>8580</v>
       </c>
       <c r="K17" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B21">
         <v>0.14449999999999999</v>
@@ -3264,12 +3455,12 @@
         <v>8773</v>
       </c>
       <c r="K21" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B22">
         <v>0.1239</v>
@@ -3299,23 +3490,221 @@
         <v>8735</v>
       </c>
       <c r="K22" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
-        <v>223</v>
+        <v>217</v>
+      </c>
+      <c r="B24">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="C24">
+        <v>94.69</v>
+      </c>
+      <c r="D24">
+        <v>86.14</v>
+      </c>
+      <c r="E24">
+        <v>8571</v>
+      </c>
+      <c r="F24">
+        <v>8814</v>
+      </c>
+      <c r="G24">
+        <v>8691</v>
+      </c>
+      <c r="H24">
+        <v>8662</v>
+      </c>
+      <c r="I24">
+        <v>8395</v>
+      </c>
+      <c r="J24">
+        <v>8527</v>
       </c>
       <c r="K24" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>219</v>
+      </c>
+      <c r="B25">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="C25">
+        <v>94.84</v>
+      </c>
+      <c r="D25">
+        <v>87.61</v>
+      </c>
+      <c r="E25">
+        <v>9193</v>
+      </c>
+      <c r="F25">
+        <v>8362</v>
+      </c>
+      <c r="G25">
+        <v>8757</v>
+      </c>
+      <c r="H25">
+        <v>8371</v>
+      </c>
+      <c r="I25">
+        <v>9198</v>
+      </c>
+      <c r="J25">
+        <v>8765</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>237</v>
+      </c>
+      <c r="B27">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="C27">
+        <v>88.44</v>
+      </c>
+      <c r="D27">
+        <v>87.32</v>
+      </c>
+      <c r="E27">
+        <v>8941</v>
+      </c>
+      <c r="F27">
+        <v>8588</v>
+      </c>
+      <c r="G27">
+        <v>8761</v>
+      </c>
+      <c r="H27">
+        <v>8521</v>
+      </c>
+      <c r="I27">
+        <v>8889</v>
+      </c>
+      <c r="J27">
+        <v>8701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>239</v>
+      </c>
+      <c r="B28">
+        <v>0.1196</v>
+      </c>
+      <c r="C28">
+        <v>95.55</v>
+      </c>
+      <c r="D28">
+        <v>87.91</v>
+      </c>
+      <c r="E28">
+        <v>8696</v>
+      </c>
+      <c r="F28">
+        <v>9040</v>
+      </c>
+      <c r="G28" s="27">
+        <v>8864</v>
+      </c>
+      <c r="H28">
+        <v>8903</v>
+      </c>
+      <c r="I28">
+        <v>8519</v>
+      </c>
+      <c r="J28">
+        <v>8707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G29" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B31">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="C31">
+        <v>97.1</v>
+      </c>
+      <c r="D31">
+        <v>86.73</v>
+      </c>
+      <c r="E31">
+        <v>8667</v>
+      </c>
+      <c r="F31">
+        <v>8814</v>
+      </c>
+      <c r="G31">
+        <v>8739</v>
+      </c>
+      <c r="H31">
+        <v>8679</v>
+      </c>
+      <c r="I31">
+        <v>8519</v>
+      </c>
+      <c r="J31">
+        <v>8598</v>
+      </c>
+      <c r="K31" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>254</v>
+      </c>
+      <c r="B33">
+        <v>0.2666</v>
+      </c>
+      <c r="C33">
+        <v>87.66</v>
+      </c>
+      <c r="D33">
+        <v>87.02</v>
+      </c>
+      <c r="E33">
+        <v>8982</v>
+      </c>
+      <c r="F33">
+        <v>8475</v>
+      </c>
+      <c r="G33">
+        <v>8721</v>
+      </c>
+      <c r="H33">
+        <v>8430</v>
+      </c>
+      <c r="I33">
+        <v>8951</v>
+      </c>
+      <c r="J33">
+        <v>8683</v>
+      </c>
+      <c r="K33" t="s">
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -3326,10 +3715,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2157F87-0085-4DC7-93EF-26EFA2000176}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3346,10 +3735,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -3595,10 +3984,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -3689,34 +4078,34 @@
         <v>70</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>127</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>125</v>
       </c>
       <c r="M13" s="24" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -3730,34 +4119,34 @@
         <v>70</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>82</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="K14" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="L14" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="M14" s="24" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -3771,39 +4160,39 @@
         <v>70</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="J15" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="K15" s="1" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="G15" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="J15" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="K15" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>172</v>
-      </c>
       <c r="M15" s="24" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B16" s="1">
         <v>90</v>
@@ -3812,13 +4201,13 @@
         <v>70</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>126</v>
@@ -3839,12 +4228,12 @@
         <v>79</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D18" s="1">
         <v>0.14729999999999999</v>
@@ -3874,15 +4263,15 @@
         <v>8773</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -4087,7 +4476,7 @@
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B25" s="1">
         <v>90</v>
@@ -4096,13 +4485,13 @@
         <v>70</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>126</v>
@@ -4123,12 +4512,12 @@
         <v>79</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C27" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D27" s="1">
         <v>0.14729999999999999</v>
@@ -4158,15 +4547,15 @@
         <v>8773</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -4257,34 +4646,34 @@
         <v>70</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="K31" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="M31" s="24" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -4298,34 +4687,34 @@
         <v>70</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>136</v>
+        <v>243</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>244</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>137</v>
+        <v>245</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>130</v>
+        <v>247</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>112</v>
+        <v>249</v>
       </c>
       <c r="K32" s="5" t="s">
         <v>129</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>132</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -4339,39 +4728,39 @@
         <v>70</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="K33" s="1" t="s">
         <v>128</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B34" s="1">
         <v>90</v>
@@ -4380,13 +4769,13 @@
         <v>70</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>126</v>
@@ -4407,12 +4796,12 @@
         <v>79</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C36" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D36" s="1">
         <v>0.14729999999999999</v>
@@ -4423,8 +4812,8 @@
       <c r="F36" s="1">
         <v>88.2</v>
       </c>
-      <c r="G36" s="1">
-        <v>8914</v>
+      <c r="G36" s="5" t="s">
+        <v>233</v>
       </c>
       <c r="H36" s="1">
         <v>8814</v>
@@ -4442,7 +4831,39 @@
         <v>8773</v>
       </c>
       <c r="M36" s="24" t="s">
-        <v>189</v>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+      <c r="C39" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0.1196</v>
+      </c>
+      <c r="E39" s="1">
+        <v>95.55</v>
+      </c>
+      <c r="F39" s="1">
+        <v>87.91</v>
+      </c>
+      <c r="G39" s="1">
+        <v>8696</v>
+      </c>
+      <c r="H39" s="1">
+        <v>9040</v>
+      </c>
+      <c r="I39" s="1">
+        <v>8864</v>
+      </c>
+      <c r="J39" s="1">
+        <v>8903</v>
+      </c>
+      <c r="K39" s="1">
+        <v>8519</v>
+      </c>
+      <c r="L39" s="1">
+        <v>8707</v>
       </c>
     </row>
   </sheetData>
@@ -4459,7 +4880,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED2E3D2-ADA8-4356-BFE1-6111EA273D35}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
@@ -4475,7 +4896,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="12" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -4722,7 +5143,7 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="12" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -4814,7 +5235,7 @@
         <v>70</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -4828,7 +5249,7 @@
         <v>70</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -4844,7 +5265,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B16" s="11" t="s">
         <v>92</v>
@@ -4853,34 +5274,34 @@
         <v>70</v>
       </c>
       <c r="D16" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>223</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="K16" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="L16" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="F16" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>230</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>231</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>235</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>234</v>
-      </c>
       <c r="M16" s="22" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
@@ -4916,7 +5337,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,17 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B8F4B56-3DC0-49B8-80CE-DB5449F5E992}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC540BB-ADC6-4F46-B350-925EBD6B3F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="38580" windowHeight="21060" tabRatio="486" activeTab="1" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
-    <sheet name="recipe" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId3"/>
-    <sheet name="Sewer-TAPNEW" sheetId="3" r:id="rId4"/>
-    <sheet name="Sewer-ML" sheetId="1" r:id="rId5"/>
-    <sheet name="Sewer-TAP" sheetId="2" r:id="rId6"/>
+    <sheet name="real (Sewer-TAPNEW)" sheetId="7" r:id="rId2"/>
+    <sheet name="real2 (Sewer-ML)" sheetId="8" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId4"/>
+    <sheet name="recipe" sheetId="5" r:id="rId5"/>
+    <sheet name="Sewer-TAPNEW" sheetId="3" r:id="rId6"/>
+    <sheet name="Sewer-ML" sheetId="1" r:id="rId7"/>
+    <sheet name="Sewer-TAP" sheetId="2" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="950" uniqueCount="331">
   <si>
     <t>모델</t>
   </si>
@@ -304,6 +306,9 @@
   </si>
   <si>
     <t>3, 244, 244</t>
+  </si>
+  <si>
+    <t>3, 244, 244</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -443,6 +448,9 @@
   </si>
   <si>
     <t>CrossEntropyLoss()</t>
+  </si>
+  <si>
+    <t>CrossEntropyLoss()</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -948,31 +956,271 @@
     <t>9040</t>
   </si>
   <si>
+    <t>8931</t>
+  </si>
+  <si>
+    <t>8847</t>
+  </si>
+  <si>
+    <t>log/Sewer-TAPNEW/baseline_efficientnet_b0_20251113_061720</t>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_070503</t>
+  </si>
+  <si>
+    <t>dropout: 0.01, 7</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위에는 다 run.py에 로스는 CE</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>8964</t>
-  </si>
-  <si>
-    <t>8931</t>
-  </si>
-  <si>
-    <t>8847</t>
-  </si>
-  <si>
-    <t>log/Sewer-TAPNEW/baseline_efficientnet_b0_20251113_061720</t>
-  </si>
-  <si>
-    <t>7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_070503</t>
-  </si>
-  <si>
-    <t>dropout: 0.01, 7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>위에는 다 run.py에 로스는 CE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>dropout 0.01, emb_dim 과 featured_patch_dim 36</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_075958</t>
+  </si>
+  <si>
+    <t>위 옵션으로 베이스라인 세 가지 각각 학습 중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이걸로 run.py 학습 중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>eta_mi 0.0000001,          0.0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Best model's Test ACC (inference mode)</t>
+  </si>
+  <si>
+    <t>Precision_normal</t>
+  </si>
+  <si>
+    <t>Recall_normal</t>
+  </si>
+  <si>
+    <t>F1_normal</t>
+  </si>
+  <si>
+    <t>Precision_defect</t>
+  </si>
+  <si>
+    <t>Recall_defect</t>
+  </si>
+  <si>
+    <t>F1_defect</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251113_081849</t>
+  </si>
+  <si>
+    <t>path</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_mobilenet_v4_20251113_081904</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251113_081834</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_111829</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_111908</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251113_114034</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251113_114131</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_115016</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_115047</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_mobilenet_v4_20251113_121318</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_122306</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_122308</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_124224</t>
+  </si>
+  <si>
+    <t>Resize, RandomHorizontalFlip, ColorJitter, Norm</t>
+  </si>
+  <si>
+    <t>AdamW</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.001)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_130653</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_130657</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_131250</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_131312</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_134513</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_134514</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0, feat3)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_134948</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_134949</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0, drop0.0)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_141856</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_141857</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0, drop0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_142348</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_142349</t>
+  </si>
+  <si>
+    <t>Ours</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_150236</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_150318</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0, ps112)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_152208</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_154852</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_155225</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_155301</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251113_155412</t>
+  </si>
+  <si>
+    <t>Ours (ps112)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0, ps112, drop0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_162922</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_162925</t>
+  </si>
+  <si>
+    <t>weight_decay: adamW의 억제기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0, ps112, drop0.2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_163208</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_163211</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_170826</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_170827</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_170828</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_170830</t>
+  </si>
+  <si>
+    <t>log/Sewer-ML/baseline_resnet18_20251114_023329</t>
+  </si>
+  <si>
+    <t>log/Sewer-ML/baseline_efficientnet_b0_20251114_023410</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251113_174523</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251113_174529</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251113_174542</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251113_174536</t>
   </si>
 </sst>
 </file>
@@ -1125,7 +1373,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1148,6 +1396,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1157,7 +1414,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1270,6 +1527,51 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1906,10 +2208,10 @@
         <v>32</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
@@ -1926,10 +2228,10 @@
         <v>130046</v>
       </c>
       <c r="E15" s="15" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F15" s="29" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.4">
@@ -1946,7 +2248,7 @@
         <v>92</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.4">
@@ -1963,7 +2265,7 @@
         <v>339</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.4">
@@ -1988,11 +2290,3201 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BF4E89-56A3-4502-BA89-E13C3B2DF54B}">
+  <dimension ref="A1:S54"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="42.3984375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="38" customWidth="1"/>
+    <col min="4" max="17" width="18.59765625" style="38" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="38"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A1" s="38" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q3" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="R3" s="44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A4" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="45">
+        <v>256</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="45">
+        <v>90</v>
+      </c>
+      <c r="G4" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="41">
+        <v>256</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="41">
+        <v>90</v>
+      </c>
+      <c r="G5" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="43">
+        <v>0.18079999999999999</v>
+      </c>
+      <c r="K5" s="43">
+        <v>86.14</v>
+      </c>
+      <c r="L5" s="43">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="M5" s="43">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="N5" s="43">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="O5" s="43">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="P5" s="43">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="Q5" s="43">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="R5" s="43" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A6" s="41"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="43">
+        <v>0.1424</v>
+      </c>
+      <c r="K6" s="43">
+        <v>86.43</v>
+      </c>
+      <c r="L6" s="43">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="M6" s="43">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="N6" s="43">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="O6" s="43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="P6" s="43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="R6" s="43" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A8" s="41"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="41"/>
+      <c r="F8" s="41"/>
+      <c r="G8" s="41"/>
+      <c r="H8" s="41"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="M8" s="43"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="43"/>
+      <c r="P8" s="43"/>
+      <c r="Q8" s="43"/>
+      <c r="R8" s="43" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A10" s="41"/>
+      <c r="B10" s="41"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="41"/>
+      <c r="F10" s="41"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="43"/>
+      <c r="K10" s="43"/>
+      <c r="L10" s="43"/>
+      <c r="M10" s="43"/>
+      <c r="N10" s="43"/>
+      <c r="O10" s="43"/>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="43"/>
+      <c r="R10" s="43" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A11" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="41">
+        <v>256</v>
+      </c>
+      <c r="E11" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F11" s="41">
+        <v>90</v>
+      </c>
+      <c r="G11" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11" s="49">
+        <v>2.98E-2</v>
+      </c>
+      <c r="K11" s="49">
+        <v>86.43</v>
+      </c>
+      <c r="L11" s="49">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="M11" s="49">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="N11" s="49">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="O11" s="49">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="P11" s="49">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="Q11" s="49">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="R11" s="49" t="s">
+        <v>270</v>
+      </c>
+      <c r="S11" s="40"/>
+    </row>
+    <row r="12" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="42"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="49">
+        <v>0.06</v>
+      </c>
+      <c r="K12" s="49">
+        <v>89.68</v>
+      </c>
+      <c r="L12" s="49">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="M12" s="49">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N12" s="49">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="O12" s="49">
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="P12" s="49">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q12" s="49">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="R12" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="S12" s="40"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="49">
+        <v>4.6600000000000003E-2</v>
+      </c>
+      <c r="K13" s="49">
+        <v>89.09</v>
+      </c>
+      <c r="L13" s="49">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="M13" s="49">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N13" s="49">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="O13" s="49">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="P13" s="49">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q13" s="49">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="R13" s="49" t="s">
+        <v>312</v>
+      </c>
+      <c r="S13" s="40"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A16" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B16" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="41">
+        <v>256</v>
+      </c>
+      <c r="E16" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="41">
+        <v>90</v>
+      </c>
+      <c r="G16" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H16" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16" s="43">
+        <v>0.22720000000000001</v>
+      </c>
+      <c r="K16" s="43">
+        <v>85.55</v>
+      </c>
+      <c r="L16" s="43">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="M16" s="43">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="N16" s="43">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="O16" s="43">
+        <v>0.83430000000000004</v>
+      </c>
+      <c r="P16" s="43">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="Q16" s="43">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="R16" s="43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A17" s="43"/>
+      <c r="B17" s="43"/>
+      <c r="C17" s="43"/>
+      <c r="D17" s="43"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="43">
+        <v>0.22559999999999999</v>
+      </c>
+      <c r="K17" s="43">
+        <v>86.43</v>
+      </c>
+      <c r="L17" s="43">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="M17" s="43">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="N17" s="43">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="O17" s="43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="P17" s="43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Q17" s="43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="R17" s="43" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="1:18" s="52" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="50" t="s">
+        <v>304</v>
+      </c>
+      <c r="B22" s="50" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="50" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="50">
+        <v>256</v>
+      </c>
+      <c r="E22" s="50" t="s">
+        <v>111</v>
+      </c>
+      <c r="F22" s="50">
+        <v>90</v>
+      </c>
+      <c r="G22" s="50" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="I22" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="J22" s="51">
+        <v>0.28770000000000001</v>
+      </c>
+      <c r="K22" s="51">
+        <v>86.14</v>
+      </c>
+      <c r="L22" s="51">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="M22" s="51">
+        <v>0.83050000000000002</v>
+      </c>
+      <c r="N22" s="51">
+        <v>0.86219999999999997</v>
+      </c>
+      <c r="O22" s="51">
+        <v>0.8286</v>
+      </c>
+      <c r="P22" s="51">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q22" s="51">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="R22" s="51" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A23" s="43"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="43">
+        <v>0.27810000000000001</v>
+      </c>
+      <c r="K23" s="43">
+        <v>85.55</v>
+      </c>
+      <c r="L23" s="43">
+        <v>0.8478</v>
+      </c>
+      <c r="M23" s="43">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N23" s="43">
+        <v>0.86429999999999996</v>
+      </c>
+      <c r="O23" s="43">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="P23" s="43">
+        <v>0.82720000000000005</v>
+      </c>
+      <c r="Q23" s="43">
+        <v>0.84540000000000004</v>
+      </c>
+      <c r="R23" s="43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A24" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="B24" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="41">
+        <v>256</v>
+      </c>
+      <c r="E24" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" s="41">
+        <v>90</v>
+      </c>
+      <c r="G24" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I24" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="J24" s="43">
+        <v>0.14430000000000001</v>
+      </c>
+      <c r="K24" s="43">
+        <v>87.91</v>
+      </c>
+      <c r="L24" s="43">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="M24" s="43">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N24" s="43">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="O24" s="43">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="P24" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q24" s="43">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="R24" s="43" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A25" s="43"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+      <c r="I25" s="43"/>
+      <c r="J25" s="43">
+        <v>0.1482</v>
+      </c>
+      <c r="K25" s="43">
+        <v>88.2</v>
+      </c>
+      <c r="L25" s="43">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="M25" s="43">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N25" s="43">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="O25" s="43">
+        <v>0.872</v>
+      </c>
+      <c r="P25" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q25" s="43">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="R25" s="43" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A26" s="43"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+      <c r="I26" s="43"/>
+      <c r="J26" s="43">
+        <v>0.14680000000000001</v>
+      </c>
+      <c r="K26" s="43">
+        <v>87.61</v>
+      </c>
+      <c r="L26" s="43">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="M26" s="43">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="N26" s="43">
+        <v>0.88</v>
+      </c>
+      <c r="O26" s="43">
+        <v>0.86140000000000005</v>
+      </c>
+      <c r="P26" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q26" s="43">
+        <v>0.872</v>
+      </c>
+      <c r="R26" s="43" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A27" s="43"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43">
+        <v>0.14280000000000001</v>
+      </c>
+      <c r="K27" s="43">
+        <v>87.91</v>
+      </c>
+      <c r="L27" s="43">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="M27" s="43">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N27" s="43">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="O27" s="43">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="P27" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q27" s="43">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="R27" s="43" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" s="43"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+      <c r="I28" s="43"/>
+      <c r="J28" s="43">
+        <v>0.14510000000000001</v>
+      </c>
+      <c r="K28" s="43">
+        <v>87.91</v>
+      </c>
+      <c r="L28" s="43">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="M28" s="43">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N28" s="43">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="O28" s="43">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="P28" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q28" s="43">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="R28" s="43" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A29" s="43" t="s">
+        <v>286</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D29" s="43">
+        <v>256</v>
+      </c>
+      <c r="E29" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="43">
+        <v>90</v>
+      </c>
+      <c r="G29" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="I29" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J29" s="43">
+        <v>0.14580000000000001</v>
+      </c>
+      <c r="K29" s="43">
+        <v>88.2</v>
+      </c>
+      <c r="L29" s="43">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="M29" s="43">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N29" s="43">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="O29" s="43">
+        <v>0.872</v>
+      </c>
+      <c r="P29" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q29" s="43">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="R29" s="43" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A30" s="43"/>
+      <c r="B30" s="43"/>
+      <c r="C30" s="43"/>
+      <c r="D30" s="43"/>
+      <c r="E30" s="43"/>
+      <c r="F30" s="43"/>
+      <c r="G30" s="43"/>
+      <c r="H30" s="43"/>
+      <c r="I30" s="43"/>
+      <c r="J30" s="43">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="K30" s="43">
+        <v>88.2</v>
+      </c>
+      <c r="L30" s="43">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="M30" s="43">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N30" s="43">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="O30" s="43">
+        <v>0.872</v>
+      </c>
+      <c r="P30" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q30" s="43">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="R30" s="43" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="49" t="s">
+        <v>289</v>
+      </c>
+      <c r="B31" s="49" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="49" t="s">
+        <v>284</v>
+      </c>
+      <c r="D31" s="49">
+        <v>256</v>
+      </c>
+      <c r="E31" s="49" t="s">
+        <v>109</v>
+      </c>
+      <c r="F31" s="49">
+        <v>90</v>
+      </c>
+      <c r="G31" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31" s="49" t="s">
+        <v>285</v>
+      </c>
+      <c r="I31" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="J31" s="49">
+        <v>0.14749999999999999</v>
+      </c>
+      <c r="K31" s="49">
+        <v>88.2</v>
+      </c>
+      <c r="L31" s="49">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="M31" s="49">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N31" s="49">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="O31" s="49">
+        <v>0.872</v>
+      </c>
+      <c r="P31" s="49">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q31" s="49">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="R31" s="49" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A32" s="43"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="43"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="43"/>
+      <c r="G32" s="43"/>
+      <c r="H32" s="43"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="43">
+        <v>0.1462</v>
+      </c>
+      <c r="K32" s="43">
+        <v>88.2</v>
+      </c>
+      <c r="L32" s="43">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="M32" s="43">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N32" s="43">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="O32" s="43">
+        <v>0.872</v>
+      </c>
+      <c r="P32" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q32" s="43">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="R32" s="43" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A33" s="43" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C33" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D33" s="43">
+        <v>256</v>
+      </c>
+      <c r="E33" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F33" s="43">
+        <v>90</v>
+      </c>
+      <c r="G33" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="I33" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J33" s="43">
+        <v>0.1454</v>
+      </c>
+      <c r="K33" s="43">
+        <v>87.91</v>
+      </c>
+      <c r="L33" s="43">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="M33" s="43">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N33" s="43">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="O33" s="43">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="P33" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q33" s="43">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="R33" s="43" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A34" s="43"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="43"/>
+      <c r="D34" s="43"/>
+      <c r="E34" s="43"/>
+      <c r="F34" s="43"/>
+      <c r="G34" s="43"/>
+      <c r="H34" s="43"/>
+      <c r="I34" s="43"/>
+      <c r="J34" s="43">
+        <v>0.14480000000000001</v>
+      </c>
+      <c r="K34" s="43">
+        <v>87.91</v>
+      </c>
+      <c r="L34" s="43">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="M34" s="43">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N34" s="43">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="O34" s="43">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="P34" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q34" s="43">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="R34" s="43" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A35" s="43" t="s">
+        <v>295</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D35" s="43">
+        <v>256</v>
+      </c>
+      <c r="E35" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F35" s="43">
+        <v>90</v>
+      </c>
+      <c r="G35" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="I35" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J35" s="43">
+        <v>2.9600000000000001E-2</v>
+      </c>
+      <c r="K35" s="43">
+        <v>87.02</v>
+      </c>
+      <c r="L35" s="43">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="M35" s="43">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N35" s="43">
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="O35" s="43">
+        <v>0.85540000000000005</v>
+      </c>
+      <c r="P35" s="43">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="Q35" s="43">
+        <v>0.8659</v>
+      </c>
+      <c r="R35" s="43" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A36" s="43"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+      <c r="I36" s="43"/>
+      <c r="J36" s="43">
+        <v>2.6800000000000001E-2</v>
+      </c>
+      <c r="K36" s="43">
+        <v>87.61</v>
+      </c>
+      <c r="L36" s="43">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="M36" s="43">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N36" s="43">
+        <v>0.88070000000000004</v>
+      </c>
+      <c r="O36" s="43">
+        <v>0.8659</v>
+      </c>
+      <c r="P36" s="43">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="Q36" s="43">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="R36" s="43" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A37" s="43" t="s">
+        <v>298</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D37" s="43">
+        <v>256</v>
+      </c>
+      <c r="E37" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F37" s="43">
+        <v>90</v>
+      </c>
+      <c r="G37" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="I37" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" s="43">
+        <v>0.1459</v>
+      </c>
+      <c r="K37" s="43">
+        <v>86.43</v>
+      </c>
+      <c r="L37" s="43">
+        <v>0.8619</v>
+      </c>
+      <c r="M37" s="43">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N37" s="43">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="O37" s="43">
+        <v>0.86709999999999998</v>
+      </c>
+      <c r="P37" s="43">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="Q37" s="43">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="R37" s="43" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A38" s="43"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="43">
+        <v>0.15160000000000001</v>
+      </c>
+      <c r="K38" s="43">
+        <v>87.02</v>
+      </c>
+      <c r="L38" s="43">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="M38" s="43">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="N38" s="43">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="O38" s="43">
+        <v>0.85119999999999996</v>
+      </c>
+      <c r="P38" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q38" s="43">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="R38" s="43" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A39" s="43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D39" s="43">
+        <v>256</v>
+      </c>
+      <c r="E39" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F39" s="43">
+        <v>90</v>
+      </c>
+      <c r="G39" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="I39" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J39" s="43">
+        <v>0.16520000000000001</v>
+      </c>
+      <c r="K39" s="43">
+        <v>87.32</v>
+      </c>
+      <c r="L39" s="43">
+        <v>0.86809999999999998</v>
+      </c>
+      <c r="M39" s="43">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="N39" s="43">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="O39" s="43">
+        <v>0.879</v>
+      </c>
+      <c r="P39" s="43">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="Q39" s="43">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="R39" s="43" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A40" s="43"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="43"/>
+      <c r="D40" s="43"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="43"/>
+      <c r="G40" s="43"/>
+      <c r="H40" s="43"/>
+      <c r="I40" s="43"/>
+      <c r="J40" s="43">
+        <v>0.17</v>
+      </c>
+      <c r="K40" s="43">
+        <v>87.91</v>
+      </c>
+      <c r="L40" s="43">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="M40" s="43">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="N40" s="43">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="O40" s="43">
+        <v>0.84970000000000001</v>
+      </c>
+      <c r="P40" s="43">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="Q40" s="43">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="R40" s="43" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A41" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C41" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D41" s="43">
+        <v>256</v>
+      </c>
+      <c r="E41" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F41" s="43">
+        <v>90</v>
+      </c>
+      <c r="G41" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I41" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J41" s="43">
+        <v>0.29870000000000002</v>
+      </c>
+      <c r="K41" s="43">
+        <v>86.43</v>
+      </c>
+      <c r="L41" s="43">
+        <v>0.8579</v>
+      </c>
+      <c r="M41" s="43">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N41" s="43">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="O41" s="43">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="P41" s="43">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="Q41" s="43">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="R41" s="43" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A42" s="43" t="s">
+        <v>304</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C42" s="43" t="s">
+        <v>284</v>
+      </c>
+      <c r="D42" s="43">
+        <v>256</v>
+      </c>
+      <c r="E42" s="43" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" s="43">
+        <v>90</v>
+      </c>
+      <c r="G42" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J42" s="43">
+        <v>0.2177</v>
+      </c>
+      <c r="K42" s="43">
+        <v>87.61</v>
+      </c>
+      <c r="L42" s="43">
+        <v>0.87290000000000001</v>
+      </c>
+      <c r="M42" s="43">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="N42" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="O42" s="43">
+        <v>0.87970000000000004</v>
+      </c>
+      <c r="P42" s="43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Q42" s="43">
+        <v>0.86880000000000002</v>
+      </c>
+      <c r="R42" s="43" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A43" s="41" t="s">
+        <v>313</v>
+      </c>
+      <c r="B43" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C43" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D43" s="43">
+        <v>256</v>
+      </c>
+      <c r="E43" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" s="43">
+        <v>90</v>
+      </c>
+      <c r="G43" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I43" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J43" s="43">
+        <v>0.2601</v>
+      </c>
+      <c r="K43" s="43">
+        <v>88.2</v>
+      </c>
+      <c r="L43" s="43">
+        <v>0.87849999999999995</v>
+      </c>
+      <c r="M43" s="43">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N43" s="43">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="O43" s="43">
+        <v>0.8861</v>
+      </c>
+      <c r="P43" s="43">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q43" s="43">
+        <v>0.875</v>
+      </c>
+      <c r="R43" s="43" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A44" s="43"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="43"/>
+      <c r="D44" s="43"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="43"/>
+      <c r="G44" s="43"/>
+      <c r="H44" s="43"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43">
+        <v>0.2611</v>
+      </c>
+      <c r="K44" s="43">
+        <v>87.32</v>
+      </c>
+      <c r="L44" s="43">
+        <v>0.8851</v>
+      </c>
+      <c r="M44" s="43">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="N44" s="43">
+        <v>0.87749999999999995</v>
+      </c>
+      <c r="O44" s="43">
+        <v>0.86060000000000003</v>
+      </c>
+      <c r="P44" s="43">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="Q44" s="43">
+        <v>0.86850000000000005</v>
+      </c>
+      <c r="R44" s="43" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="40" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A45" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C45" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D45" s="49">
+        <v>256</v>
+      </c>
+      <c r="E45" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F45" s="49">
+        <v>90</v>
+      </c>
+      <c r="G45" s="49" t="b">
+        <v>0</v>
+      </c>
+      <c r="H45" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="I45" s="41" t="s">
+        <v>126</v>
+      </c>
+      <c r="J45" s="49">
+        <v>0.19059999999999999</v>
+      </c>
+      <c r="K45" s="49">
+        <v>89.09</v>
+      </c>
+      <c r="L45" s="49">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="M45" s="49">
+        <v>0.9153</v>
+      </c>
+      <c r="N45" s="49">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="O45" s="49">
+        <v>0.9032</v>
+      </c>
+      <c r="P45" s="49">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q45" s="49">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="R45" s="49" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A46" s="43"/>
+      <c r="B46" s="43"/>
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="43"/>
+      <c r="F46" s="43"/>
+      <c r="G46" s="43"/>
+      <c r="H46" s="43"/>
+      <c r="I46" s="43"/>
+      <c r="J46" s="43">
+        <v>0.18870000000000001</v>
+      </c>
+      <c r="K46" s="43">
+        <v>88.79</v>
+      </c>
+      <c r="L46" s="43">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="M46" s="43">
+        <v>0.9153</v>
+      </c>
+      <c r="N46" s="43">
+        <v>0.89500000000000002</v>
+      </c>
+      <c r="O46" s="43">
+        <v>0.90259999999999996</v>
+      </c>
+      <c r="P46" s="43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Q46" s="43">
+        <v>0.87970000000000004</v>
+      </c>
+      <c r="R46" s="43" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A47" s="42" t="s">
+        <v>314</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D47" s="48">
+        <v>256</v>
+      </c>
+      <c r="E47" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="F47" s="48">
+        <v>90</v>
+      </c>
+      <c r="G47" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="H47" s="48" t="s">
+        <v>285</v>
+      </c>
+      <c r="I47" s="48" t="s">
+        <v>64</v>
+      </c>
+      <c r="J47" s="43">
+        <v>0.2271</v>
+      </c>
+      <c r="K47" s="43">
+        <v>89.68</v>
+      </c>
+      <c r="L47" s="43">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="M47" s="43">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N47" s="43">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="O47" s="43">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="P47" s="43">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="Q47" s="43">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="R47" s="43" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A48" s="48"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="48"/>
+      <c r="D48" s="48"/>
+      <c r="E48" s="48"/>
+      <c r="F48" s="48"/>
+      <c r="G48" s="49"/>
+      <c r="H48" s="49"/>
+      <c r="I48" s="49"/>
+      <c r="J48" s="49">
+        <v>0.2298</v>
+      </c>
+      <c r="K48" s="49">
+        <v>89.97</v>
+      </c>
+      <c r="L48" s="49">
+        <v>0.9133</v>
+      </c>
+      <c r="M48" s="49">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="N48" s="48">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="O48" s="49">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="P48" s="49">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="Q48" s="49">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="R48" s="48" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J49" s="49">
+        <v>0.22839999999999999</v>
+      </c>
+      <c r="K49" s="49">
+        <v>89.68</v>
+      </c>
+      <c r="L49" s="38">
+        <v>0.91279999999999994</v>
+      </c>
+      <c r="M49" s="38">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N49" s="38">
+        <v>0.89970000000000006</v>
+      </c>
+      <c r="O49" s="38">
+        <v>0.88019999999999998</v>
+      </c>
+      <c r="P49" s="38">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="Q49" s="38">
+        <v>0.89359999999999995</v>
+      </c>
+      <c r="R49" s="38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J50" s="49">
+        <v>0.23019999999999999</v>
+      </c>
+      <c r="K50" s="49">
+        <v>89.68</v>
+      </c>
+      <c r="L50" s="38">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="M50" s="38">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="N50" s="38">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="O50" s="38">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="P50">
+        <v>0.9012</v>
+      </c>
+      <c r="Q50" s="38">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="R50" s="38" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J51" s="49">
+        <v>0.23</v>
+      </c>
+      <c r="K51" s="49">
+        <v>89.97</v>
+      </c>
+      <c r="L51" s="38">
+        <v>0.9133</v>
+      </c>
+      <c r="M51" s="38">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="N51" s="38">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="O51" s="38">
+        <v>0.88549999999999995</v>
+      </c>
+      <c r="P51" s="38">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="Q51" s="38">
+        <v>0.89629999999999999</v>
+      </c>
+      <c r="R51" s="38" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J52" s="49">
+        <v>0.22889999999999999</v>
+      </c>
+      <c r="K52" s="49">
+        <v>89.68</v>
+      </c>
+      <c r="L52" s="38">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="M52" s="38">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="N52" s="38">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="O52" s="38">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="P52" s="38">
+        <v>0.93830000000000002</v>
+      </c>
+      <c r="Q52" s="38">
+        <v>0.89680000000000004</v>
+      </c>
+      <c r="R52" s="38" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A53" s="41" t="s">
+        <v>318</v>
+      </c>
+      <c r="B53" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C53" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" s="43">
+        <v>256</v>
+      </c>
+      <c r="E53" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F53" s="43">
+        <v>90</v>
+      </c>
+      <c r="G53" s="43" t="b">
+        <v>0</v>
+      </c>
+      <c r="H53" s="43" t="s">
+        <v>285</v>
+      </c>
+      <c r="I53" s="43" t="s">
+        <v>64</v>
+      </c>
+      <c r="J53" s="43">
+        <v>0.2465</v>
+      </c>
+      <c r="K53" s="43">
+        <v>88.5</v>
+      </c>
+      <c r="L53" s="43">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="M53" s="43">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N53" s="43">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="O53" s="43">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="P53" s="43">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q53" s="43">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="R53" s="43" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A54" s="43"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="43"/>
+      <c r="F54" s="43"/>
+      <c r="G54" s="43"/>
+      <c r="H54" s="43"/>
+      <c r="I54" s="43"/>
+      <c r="J54" s="43">
+        <v>0.24579999999999999</v>
+      </c>
+      <c r="K54" s="43">
+        <v>89.09</v>
+      </c>
+      <c r="L54" s="43">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="M54" s="43">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N54" s="43">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="O54" s="43">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="P54" s="43">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q54" s="43">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="R54" s="43" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817035C0-14C9-45B2-BCCA-0F6EE4603826}">
+  <dimension ref="A3:S11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.59765625" customWidth="1"/>
+    <col min="2" max="9" width="14.296875" customWidth="1"/>
+    <col min="10" max="18" width="17.796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="44" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" s="44" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="H3" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="I3" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="K3" s="44" t="s">
+        <v>263</v>
+      </c>
+      <c r="L3" s="44" t="s">
+        <v>264</v>
+      </c>
+      <c r="M3" s="44" t="s">
+        <v>265</v>
+      </c>
+      <c r="N3" s="44" t="s">
+        <v>266</v>
+      </c>
+      <c r="O3" s="44" t="s">
+        <v>267</v>
+      </c>
+      <c r="P3" s="44" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q3" s="44" t="s">
+        <v>269</v>
+      </c>
+      <c r="R3" s="44" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="45" t="s">
+        <v>69</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="D4" s="45">
+        <v>256</v>
+      </c>
+      <c r="E4" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="45">
+        <v>90</v>
+      </c>
+      <c r="G4" s="45" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="I4" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="47"/>
+      <c r="K4" s="47"/>
+      <c r="L4" s="47"/>
+      <c r="M4" s="47"/>
+      <c r="N4" s="47"/>
+      <c r="O4" s="47"/>
+      <c r="P4" s="47"/>
+      <c r="Q4" s="47"/>
+      <c r="R4" s="47"/>
+    </row>
+    <row r="5" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C5" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="41">
+        <v>256</v>
+      </c>
+      <c r="E5" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="41">
+        <v>90</v>
+      </c>
+      <c r="G5" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J5" s="43"/>
+      <c r="K5" s="43"/>
+      <c r="L5" s="43"/>
+      <c r="M5" s="43"/>
+      <c r="N5" s="43"/>
+      <c r="O5" s="43"/>
+      <c r="P5" s="43"/>
+      <c r="Q5" s="43"/>
+      <c r="R5" s="43" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="41">
+        <v>256</v>
+      </c>
+      <c r="E6" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="F6" s="41">
+        <v>90</v>
+      </c>
+      <c r="G6" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
+      <c r="O6" s="49"/>
+      <c r="P6" s="49"/>
+      <c r="Q6" s="49"/>
+      <c r="R6" s="49" t="s">
+        <v>326</v>
+      </c>
+      <c r="S6" s="40"/>
+    </row>
+    <row r="7" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="C7" s="41" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="41">
+        <v>256</v>
+      </c>
+      <c r="E7" s="41" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="41">
+        <v>90</v>
+      </c>
+      <c r="G7" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>60</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+      <c r="M7" s="43"/>
+      <c r="N7" s="43"/>
+      <c r="O7" s="43"/>
+      <c r="P7" s="43"/>
+      <c r="Q7" s="43"/>
+      <c r="R7" s="43"/>
+    </row>
+    <row r="9" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="41"/>
+      <c r="B9" s="41"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="43"/>
+      <c r="L9" s="43"/>
+      <c r="M9" s="43"/>
+      <c r="N9" s="43"/>
+      <c r="O9" s="43"/>
+      <c r="P9" s="43"/>
+      <c r="Q9" s="43"/>
+      <c r="R9" s="43"/>
+    </row>
+    <row r="10" spans="1:19" s="39" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="42"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
+      <c r="M10" s="49"/>
+      <c r="N10" s="49"/>
+      <c r="O10" s="49"/>
+      <c r="P10" s="49"/>
+      <c r="Q10" s="49"/>
+      <c r="R10" s="49"/>
+      <c r="S10" s="40"/>
+    </row>
+    <row r="11" spans="1:19" s="38" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
+      <c r="O11" s="49"/>
+      <c r="P11" s="49"/>
+      <c r="Q11" s="49"/>
+      <c r="R11" s="49"/>
+      <c r="S11" s="40"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="N3:N7 N9:N11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color theme="2"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBD9A2C-CB81-4D62-8BA0-232368B53911}">
+  <dimension ref="A2:K36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="10" width="13.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" ht="102" x14ac:dyDescent="0.4">
+      <c r="B2" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A4" s="34" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="35">
+        <v>0.6925</v>
+      </c>
+      <c r="C4">
+        <v>51.8</v>
+      </c>
+      <c r="D4">
+        <v>52.21</v>
+      </c>
+      <c r="E4">
+        <v>5221</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>6860</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B5" s="27">
+        <v>0.16339999999999999</v>
+      </c>
+      <c r="C5">
+        <v>92.81</v>
+      </c>
+      <c r="D5" s="27">
+        <v>87.61</v>
+      </c>
+      <c r="E5" s="27">
+        <v>9141</v>
+      </c>
+      <c r="F5">
+        <v>8418</v>
+      </c>
+      <c r="G5" s="27">
+        <v>8765</v>
+      </c>
+      <c r="H5">
+        <v>8409</v>
+      </c>
+      <c r="I5" s="27">
+        <v>9136</v>
+      </c>
+      <c r="J5">
+        <v>8757</v>
+      </c>
+      <c r="K5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="27">
+        <v>0.15110000000000001</v>
+      </c>
+      <c r="C6">
+        <v>94.45</v>
+      </c>
+      <c r="D6">
+        <v>87.02</v>
+      </c>
+      <c r="E6">
+        <v>8935</v>
+      </c>
+      <c r="F6">
+        <v>8531</v>
+      </c>
+      <c r="G6">
+        <v>8728</v>
+      </c>
+      <c r="H6">
+        <v>8471</v>
+      </c>
+      <c r="I6">
+        <v>8889</v>
+      </c>
+      <c r="J6">
+        <v>8675</v>
+      </c>
+      <c r="K6" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="36" t="s">
+        <v>188</v>
+      </c>
+      <c r="B7" s="37">
+        <v>0.14729999999999999</v>
+      </c>
+      <c r="C7" s="36">
+        <v>94.84</v>
+      </c>
+      <c r="D7" s="37">
+        <v>88.2</v>
+      </c>
+      <c r="E7" s="36">
+        <v>8914</v>
+      </c>
+      <c r="F7" s="37">
+        <v>8814</v>
+      </c>
+      <c r="G7" s="37">
+        <v>8864</v>
+      </c>
+      <c r="H7" s="36">
+        <v>8720</v>
+      </c>
+      <c r="I7" s="36">
+        <v>8827</v>
+      </c>
+      <c r="J7" s="36">
+        <v>8773</v>
+      </c>
+      <c r="K7" s="37" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="36" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="37">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="C8" s="36">
+        <v>95</v>
+      </c>
+      <c r="D8" s="37">
+        <v>87.91</v>
+      </c>
+      <c r="E8" s="36">
+        <v>8908</v>
+      </c>
+      <c r="F8" s="36">
+        <v>8757</v>
+      </c>
+      <c r="G8" s="37">
+        <v>8832</v>
+      </c>
+      <c r="H8" s="36">
+        <v>8667</v>
+      </c>
+      <c r="I8" s="36">
+        <v>8827</v>
+      </c>
+      <c r="J8" s="36">
+        <v>8746</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>200</v>
+      </c>
+      <c r="B9" s="27">
+        <v>0.13719999999999999</v>
+      </c>
+      <c r="C9">
+        <v>94.53</v>
+      </c>
+      <c r="D9" s="27">
+        <v>87.32</v>
+      </c>
+      <c r="E9">
+        <v>8722</v>
+      </c>
+      <c r="F9" s="27">
+        <v>8870</v>
+      </c>
+      <c r="G9" s="27">
+        <v>8796</v>
+      </c>
+      <c r="H9">
+        <v>8742</v>
+      </c>
+      <c r="I9">
+        <v>8580</v>
+      </c>
+      <c r="J9">
+        <v>8660</v>
+      </c>
+      <c r="K9" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A10" s="34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B10" s="35">
+        <v>0.24879999999999999</v>
+      </c>
+      <c r="C10">
+        <v>89.92</v>
+      </c>
+      <c r="D10">
+        <v>87.02</v>
+      </c>
+      <c r="E10">
+        <v>8889</v>
+      </c>
+      <c r="F10">
+        <v>8588</v>
+      </c>
+      <c r="G10">
+        <v>8736</v>
+      </c>
+      <c r="H10">
+        <v>8512</v>
+      </c>
+      <c r="I10">
+        <v>8827</v>
+      </c>
+      <c r="J10">
+        <v>8667</v>
+      </c>
+      <c r="K10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A11" s="28" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" s="28">
+        <v>0.19850000000000001</v>
+      </c>
+      <c r="C11">
+        <v>91.72</v>
+      </c>
+      <c r="D11" s="27">
+        <v>87.61</v>
+      </c>
+      <c r="E11">
+        <v>8729</v>
+      </c>
+      <c r="F11" s="27">
+        <v>8927</v>
+      </c>
+      <c r="G11" s="27">
+        <v>8827</v>
+      </c>
+      <c r="H11">
+        <v>8797</v>
+      </c>
+      <c r="I11">
+        <v>8580</v>
+      </c>
+      <c r="J11">
+        <v>8688</v>
+      </c>
+      <c r="K11" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>205</v>
+      </c>
+      <c r="B12" s="27">
+        <v>0.15859999999999999</v>
+      </c>
+      <c r="C12">
+        <v>93.91</v>
+      </c>
+      <c r="D12" s="27">
+        <v>86.43</v>
+      </c>
+      <c r="E12">
+        <v>8830</v>
+      </c>
+      <c r="F12">
+        <v>8531</v>
+      </c>
+      <c r="G12">
+        <v>8678</v>
+      </c>
+      <c r="H12">
+        <v>8452</v>
+      </c>
+      <c r="I12">
+        <v>8765</v>
+      </c>
+      <c r="J12">
+        <v>8606</v>
+      </c>
+      <c r="K12" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A13" s="34" t="s">
+        <v>204</v>
+      </c>
+      <c r="B13">
+        <v>0.1178</v>
+      </c>
+      <c r="C13">
+        <v>95</v>
+      </c>
+      <c r="D13" s="28">
+        <v>85.55</v>
+      </c>
+      <c r="E13">
+        <v>8596</v>
+      </c>
+      <c r="F13">
+        <v>8644</v>
+      </c>
+      <c r="G13">
+        <v>8620</v>
+      </c>
+      <c r="H13">
+        <v>8509</v>
+      </c>
+      <c r="I13">
+        <v>8457</v>
+      </c>
+      <c r="J13">
+        <v>8483</v>
+      </c>
+      <c r="K13" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>206</v>
+      </c>
+      <c r="B14">
+        <v>0.1173</v>
+      </c>
+      <c r="C14">
+        <v>95</v>
+      </c>
+      <c r="D14" s="27">
+        <v>87.32</v>
+      </c>
+      <c r="E14">
+        <v>8941</v>
+      </c>
+      <c r="F14">
+        <v>8588</v>
+      </c>
+      <c r="G14">
+        <v>8761</v>
+      </c>
+      <c r="H14">
+        <v>8521</v>
+      </c>
+      <c r="I14">
+        <v>8889</v>
+      </c>
+      <c r="J14">
+        <v>8701</v>
+      </c>
+      <c r="K14" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A15" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="B15">
+        <v>0.20810000000000001</v>
+      </c>
+      <c r="C15">
+        <v>91.72</v>
+      </c>
+      <c r="D15" s="27">
+        <v>87.32</v>
+      </c>
+      <c r="E15">
+        <v>9036</v>
+      </c>
+      <c r="F15">
+        <v>8475</v>
+      </c>
+      <c r="G15">
+        <v>8746</v>
+      </c>
+      <c r="H15">
+        <v>8439</v>
+      </c>
+      <c r="I15">
+        <v>9012</v>
+      </c>
+      <c r="J15">
+        <v>8716</v>
+      </c>
+      <c r="K15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>210</v>
+      </c>
+      <c r="B16">
+        <v>0.1578</v>
+      </c>
+      <c r="C16">
+        <v>94.69</v>
+      </c>
+      <c r="D16" s="27">
+        <v>86.73</v>
+      </c>
+      <c r="E16">
+        <v>8438</v>
+      </c>
+      <c r="F16">
+        <v>9153</v>
+      </c>
+      <c r="G16">
+        <v>8780</v>
+      </c>
+      <c r="H16">
+        <v>8980</v>
+      </c>
+      <c r="I16">
+        <v>8148</v>
+      </c>
+      <c r="J16">
+        <v>8544</v>
+      </c>
+      <c r="K16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17">
+        <v>0.16109999999999999</v>
+      </c>
+      <c r="C17">
+        <v>94.38</v>
+      </c>
+      <c r="D17" s="27">
+        <v>86.73</v>
+      </c>
+      <c r="E17">
+        <v>8587</v>
+      </c>
+      <c r="F17">
+        <v>8927</v>
+      </c>
+      <c r="G17">
+        <v>8753</v>
+      </c>
+      <c r="H17">
+        <v>8774</v>
+      </c>
+      <c r="I17">
+        <v>8395</v>
+      </c>
+      <c r="J17">
+        <v>8580</v>
+      </c>
+      <c r="K17" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>215</v>
+      </c>
+      <c r="B21">
+        <v>0.14449999999999999</v>
+      </c>
+      <c r="C21">
+        <v>94.77</v>
+      </c>
+      <c r="D21">
+        <v>88.2</v>
+      </c>
+      <c r="E21">
+        <v>8914</v>
+      </c>
+      <c r="F21">
+        <v>8814</v>
+      </c>
+      <c r="G21">
+        <v>8864</v>
+      </c>
+      <c r="H21">
+        <v>8720</v>
+      </c>
+      <c r="I21">
+        <v>8827</v>
+      </c>
+      <c r="J21">
+        <v>8773</v>
+      </c>
+      <c r="K21" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>218</v>
+      </c>
+      <c r="B22">
+        <v>0.1239</v>
+      </c>
+      <c r="C22">
+        <v>95.47</v>
+      </c>
+      <c r="D22">
+        <v>87.61</v>
+      </c>
+      <c r="E22">
+        <v>8994</v>
+      </c>
+      <c r="F22">
+        <v>8588</v>
+      </c>
+      <c r="G22">
+        <v>8786</v>
+      </c>
+      <c r="H22">
+        <v>8529</v>
+      </c>
+      <c r="I22">
+        <v>8951</v>
+      </c>
+      <c r="J22">
+        <v>8735</v>
+      </c>
+      <c r="K22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>219</v>
+      </c>
+      <c r="B24">
+        <v>0.14319999999999999</v>
+      </c>
+      <c r="C24">
+        <v>94.69</v>
+      </c>
+      <c r="D24">
+        <v>86.14</v>
+      </c>
+      <c r="E24">
+        <v>8571</v>
+      </c>
+      <c r="F24">
+        <v>8814</v>
+      </c>
+      <c r="G24">
+        <v>8691</v>
+      </c>
+      <c r="H24">
+        <v>8662</v>
+      </c>
+      <c r="I24">
+        <v>8395</v>
+      </c>
+      <c r="J24">
+        <v>8527</v>
+      </c>
+      <c r="K24" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>221</v>
+      </c>
+      <c r="B25">
+        <v>0.14560000000000001</v>
+      </c>
+      <c r="C25">
+        <v>94.84</v>
+      </c>
+      <c r="D25">
+        <v>87.61</v>
+      </c>
+      <c r="E25">
+        <v>9193</v>
+      </c>
+      <c r="F25">
+        <v>8362</v>
+      </c>
+      <c r="G25">
+        <v>8757</v>
+      </c>
+      <c r="H25">
+        <v>8371</v>
+      </c>
+      <c r="I25">
+        <v>9198</v>
+      </c>
+      <c r="J25">
+        <v>8765</v>
+      </c>
+      <c r="K25" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>239</v>
+      </c>
+      <c r="B27">
+        <v>0.28820000000000001</v>
+      </c>
+      <c r="C27">
+        <v>88.44</v>
+      </c>
+      <c r="D27">
+        <v>87.32</v>
+      </c>
+      <c r="E27">
+        <v>8941</v>
+      </c>
+      <c r="F27">
+        <v>8588</v>
+      </c>
+      <c r="G27">
+        <v>8761</v>
+      </c>
+      <c r="H27">
+        <v>8521</v>
+      </c>
+      <c r="I27">
+        <v>8889</v>
+      </c>
+      <c r="J27">
+        <v>8701</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>241</v>
+      </c>
+      <c r="B28">
+        <v>0.1196</v>
+      </c>
+      <c r="C28">
+        <v>95.55</v>
+      </c>
+      <c r="D28">
+        <v>87.91</v>
+      </c>
+      <c r="E28">
+        <v>8696</v>
+      </c>
+      <c r="F28">
+        <v>9040</v>
+      </c>
+      <c r="G28" s="27">
+        <v>8864</v>
+      </c>
+      <c r="H28">
+        <v>8903</v>
+      </c>
+      <c r="I28">
+        <v>8519</v>
+      </c>
+      <c r="J28">
+        <v>8707</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="G29" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>243</v>
+      </c>
+      <c r="B31">
+        <v>7.0800000000000002E-2</v>
+      </c>
+      <c r="C31">
+        <v>97.1</v>
+      </c>
+      <c r="D31">
+        <v>86.73</v>
+      </c>
+      <c r="E31">
+        <v>8667</v>
+      </c>
+      <c r="F31">
+        <v>8814</v>
+      </c>
+      <c r="G31">
+        <v>8739</v>
+      </c>
+      <c r="H31">
+        <v>8679</v>
+      </c>
+      <c r="I31">
+        <v>8519</v>
+      </c>
+      <c r="J31">
+        <v>8598</v>
+      </c>
+      <c r="K31" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>255</v>
+      </c>
+      <c r="B33">
+        <v>0.2666</v>
+      </c>
+      <c r="C33">
+        <v>87.66</v>
+      </c>
+      <c r="D33">
+        <v>87.02</v>
+      </c>
+      <c r="E33">
+        <v>8982</v>
+      </c>
+      <c r="F33">
+        <v>8475</v>
+      </c>
+      <c r="G33">
+        <v>8721</v>
+      </c>
+      <c r="H33">
+        <v>8430</v>
+      </c>
+      <c r="I33">
+        <v>8951</v>
+      </c>
+      <c r="J33">
+        <v>8683</v>
+      </c>
+      <c r="K33" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>258</v>
+      </c>
+      <c r="K36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2844C75D-B20C-4DF4-8D50-5B6ECD2343AB}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="86" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView zoomScale="86" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2011,7 +5503,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
@@ -2028,7 +5520,7 @@
         <v>65</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>12</v>
@@ -2048,7 +5540,7 @@
         <v>69</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>57</v>
@@ -2057,7 +5549,7 @@
         <v>256</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F3" s="7">
         <v>90</v>
@@ -2077,7 +5569,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>57</v>
@@ -2086,13 +5578,13 @@
         <v>64</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F4" s="9">
         <v>90</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H4" s="10" t="s">
         <v>61</v>
@@ -2106,7 +5598,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C5" s="10" t="s">
         <v>57</v>
@@ -2115,13 +5607,13 @@
         <v>64</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F5" s="9">
         <v>90</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H5" s="10" t="s">
         <v>61</v>
@@ -2135,7 +5627,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>57</v>
@@ -2144,13 +5636,13 @@
         <v>64</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F6" s="9">
         <v>90</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>61</v>
@@ -2164,7 +5656,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>57</v>
@@ -2173,13 +5665,13 @@
         <v>64</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F7" s="9">
         <v>90</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>61</v>
@@ -2190,7 +5682,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9" s="33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.4">
@@ -2207,7 +5699,7 @@
         <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>12</v>
@@ -2227,7 +5719,7 @@
         <v>69</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>57</v>
@@ -2236,7 +5728,7 @@
         <v>256</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F11" s="7">
         <v>90</v>
@@ -2256,7 +5748,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>57</v>
@@ -2265,7 +5757,7 @@
         <v>256</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F12" s="9">
         <v>90</v>
@@ -2277,7 +5769,7 @@
         <v>61</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.4">
@@ -2285,7 +5777,7 @@
         <v>4</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C13" s="10" t="s">
         <v>57</v>
@@ -2294,7 +5786,7 @@
         <v>256</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F13" s="9">
         <v>90</v>
@@ -2306,7 +5798,7 @@
         <v>61</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.4">
@@ -2314,7 +5806,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C14" s="10" t="s">
         <v>57</v>
@@ -2323,7 +5815,7 @@
         <v>256</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F14" s="9">
         <v>90</v>
@@ -2335,7 +5827,7 @@
         <v>61</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.4">
@@ -2343,7 +5835,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>57</v>
@@ -2352,7 +5844,7 @@
         <v>256</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F15" s="9">
         <v>90</v>
@@ -2364,12 +5856,12 @@
         <v>61</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.4">
@@ -2386,7 +5878,7 @@
         <v>65</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>12</v>
@@ -2406,7 +5898,7 @@
         <v>69</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C19" s="8" t="s">
         <v>57</v>
@@ -2415,7 +5907,7 @@
         <v>256</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F19" s="7">
         <v>90</v>
@@ -2435,7 +5927,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>57</v>
@@ -2444,7 +5936,7 @@
         <v>256</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F20" s="9">
         <v>90</v>
@@ -2464,7 +5956,7 @@
         <v>4</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>57</v>
@@ -2473,7 +5965,7 @@
         <v>256</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F21" s="9">
         <v>90</v>
@@ -2493,7 +5985,7 @@
         <v>6</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C22" s="10" t="s">
         <v>57</v>
@@ -2502,7 +5994,7 @@
         <v>256</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F22" s="9">
         <v>90</v>
@@ -2522,7 +6014,7 @@
         <v>5</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C23" s="10" t="s">
         <v>57</v>
@@ -2531,7 +6023,7 @@
         <v>256</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F23" s="9">
         <v>90</v>
@@ -2543,7 +6035,7 @@
         <v>61</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.4">
@@ -2559,7 +6051,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28" s="33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.4">
@@ -2576,7 +6068,7 @@
         <v>65</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>12</v>
@@ -2596,7 +6088,7 @@
         <v>69</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C30" s="8" t="s">
         <v>57</v>
@@ -2605,7 +6097,7 @@
         <v>256</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F30" s="7">
         <v>90</v>
@@ -2625,7 +6117,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C31" s="10" t="s">
         <v>57</v>
@@ -2634,7 +6126,7 @@
         <v>256</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F31" s="9">
         <v>90</v>
@@ -2654,7 +6146,7 @@
         <v>4</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" s="10" t="s">
         <v>57</v>
@@ -2663,7 +6155,7 @@
         <v>256</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F32" s="9">
         <v>90</v>
@@ -2683,7 +6175,7 @@
         <v>6</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C33" s="10" t="s">
         <v>57</v>
@@ -2692,7 +6184,7 @@
         <v>256</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F33" s="9">
         <v>90</v>
@@ -2712,7 +6204,7 @@
         <v>5</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>57</v>
@@ -2721,7 +6213,7 @@
         <v>256</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F34" s="9">
         <v>90</v>
@@ -2733,12 +6225,12 @@
         <v>61</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.4">
@@ -2746,7 +6238,7 @@
         <v>5</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C39" s="10" t="s">
         <v>57</v>
@@ -2755,7 +6247,7 @@
         <v>256</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F39" s="9">
         <v>90</v>
@@ -2770,12 +6262,12 @@
         <v>63</v>
       </c>
       <c r="J39" s="2" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A42" s="2" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.4">
@@ -2783,7 +6275,7 @@
         <v>5</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>57</v>
@@ -2792,7 +6284,7 @@
         <v>256</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F43" s="9">
         <v>90</v>
@@ -2804,15 +6296,15 @@
         <v>61</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="J43" s="2" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.4">
       <c r="A45" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.4">
@@ -2820,7 +6312,7 @@
         <v>5</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>57</v>
@@ -2829,7 +6321,7 @@
         <v>256</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F46" s="9">
         <v>90</v>
@@ -2844,881 +6336,54 @@
         <v>63</v>
       </c>
       <c r="J46" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
+      </c>
+    </row>
+    <row r="52" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E52" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="9">
+        <v>90</v>
+      </c>
+      <c r="G52" s="10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="I52" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="53" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E53" s="2" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="56" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E56" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="57" spans="5:9" x14ac:dyDescent="0.4">
+      <c r="E57" s="2" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBD9A2C-CB81-4D62-8BA0-232368B53911}">
-  <dimension ref="A2:K33"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="1" max="1" width="36.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="10" width="13.8984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:11" ht="102" x14ac:dyDescent="0.4">
-      <c r="B2" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="20.399999999999999" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="34" t="s">
-        <v>192</v>
-      </c>
-      <c r="B4" s="35">
-        <v>0.6925</v>
-      </c>
-      <c r="C4">
-        <v>51.8</v>
-      </c>
-      <c r="D4">
-        <v>52.21</v>
-      </c>
-      <c r="E4">
-        <v>5221</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>6860</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>193</v>
-      </c>
-      <c r="B5" s="27">
-        <v>0.16339999999999999</v>
-      </c>
-      <c r="C5">
-        <v>92.81</v>
-      </c>
-      <c r="D5" s="27">
-        <v>87.61</v>
-      </c>
-      <c r="E5" s="27">
-        <v>9141</v>
-      </c>
-      <c r="F5">
-        <v>8418</v>
-      </c>
-      <c r="G5" s="27">
-        <v>8765</v>
-      </c>
-      <c r="H5">
-        <v>8409</v>
-      </c>
-      <c r="I5" s="27">
-        <v>9136</v>
-      </c>
-      <c r="J5">
-        <v>8757</v>
-      </c>
-      <c r="K5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>189</v>
-      </c>
-      <c r="B6" s="27">
-        <v>0.15110000000000001</v>
-      </c>
-      <c r="C6">
-        <v>94.45</v>
-      </c>
-      <c r="D6">
-        <v>87.02</v>
-      </c>
-      <c r="E6">
-        <v>8935</v>
-      </c>
-      <c r="F6">
-        <v>8531</v>
-      </c>
-      <c r="G6">
-        <v>8728</v>
-      </c>
-      <c r="H6">
-        <v>8471</v>
-      </c>
-      <c r="I6">
-        <v>8889</v>
-      </c>
-      <c r="J6">
-        <v>8675</v>
-      </c>
-      <c r="K6" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B7" s="37">
-        <v>0.14729999999999999</v>
-      </c>
-      <c r="C7" s="36">
-        <v>94.84</v>
-      </c>
-      <c r="D7" s="37">
-        <v>88.2</v>
-      </c>
-      <c r="E7" s="36">
-        <v>8914</v>
-      </c>
-      <c r="F7" s="37">
-        <v>8814</v>
-      </c>
-      <c r="G7" s="37">
-        <v>8864</v>
-      </c>
-      <c r="H7" s="36">
-        <v>8720</v>
-      </c>
-      <c r="I7" s="36">
-        <v>8827</v>
-      </c>
-      <c r="J7" s="36">
-        <v>8773</v>
-      </c>
-      <c r="K7" s="37" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="B8" s="37">
-        <v>0.14319999999999999</v>
-      </c>
-      <c r="C8" s="36">
-        <v>95</v>
-      </c>
-      <c r="D8" s="37">
-        <v>87.91</v>
-      </c>
-      <c r="E8" s="36">
-        <v>8908</v>
-      </c>
-      <c r="F8" s="36">
-        <v>8757</v>
-      </c>
-      <c r="G8" s="37">
-        <v>8832</v>
-      </c>
-      <c r="H8" s="36">
-        <v>8667</v>
-      </c>
-      <c r="I8" s="36">
-        <v>8827</v>
-      </c>
-      <c r="J8" s="36">
-        <v>8746</v>
-      </c>
-      <c r="K8" s="36" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>198</v>
-      </c>
-      <c r="B9" s="27">
-        <v>0.13719999999999999</v>
-      </c>
-      <c r="C9">
-        <v>94.53</v>
-      </c>
-      <c r="D9" s="27">
-        <v>87.32</v>
-      </c>
-      <c r="E9">
-        <v>8722</v>
-      </c>
-      <c r="F9" s="27">
-        <v>8870</v>
-      </c>
-      <c r="G9" s="27">
-        <v>8796</v>
-      </c>
-      <c r="H9">
-        <v>8742</v>
-      </c>
-      <c r="I9">
-        <v>8580</v>
-      </c>
-      <c r="J9">
-        <v>8660</v>
-      </c>
-      <c r="K9" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="34" t="s">
-        <v>196</v>
-      </c>
-      <c r="B10" s="35">
-        <v>0.24879999999999999</v>
-      </c>
-      <c r="C10">
-        <v>89.92</v>
-      </c>
-      <c r="D10">
-        <v>87.02</v>
-      </c>
-      <c r="E10">
-        <v>8889</v>
-      </c>
-      <c r="F10">
-        <v>8588</v>
-      </c>
-      <c r="G10">
-        <v>8736</v>
-      </c>
-      <c r="H10">
-        <v>8512</v>
-      </c>
-      <c r="I10">
-        <v>8827</v>
-      </c>
-      <c r="J10">
-        <v>8667</v>
-      </c>
-      <c r="K10" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="28" t="s">
-        <v>191</v>
-      </c>
-      <c r="B11" s="28">
-        <v>0.19850000000000001</v>
-      </c>
-      <c r="C11">
-        <v>91.72</v>
-      </c>
-      <c r="D11" s="27">
-        <v>87.61</v>
-      </c>
-      <c r="E11">
-        <v>8729</v>
-      </c>
-      <c r="F11" s="27">
-        <v>8927</v>
-      </c>
-      <c r="G11" s="27">
-        <v>8827</v>
-      </c>
-      <c r="H11">
-        <v>8797</v>
-      </c>
-      <c r="I11">
-        <v>8580</v>
-      </c>
-      <c r="J11">
-        <v>8688</v>
-      </c>
-      <c r="K11" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="27">
-        <v>0.15859999999999999</v>
-      </c>
-      <c r="C12">
-        <v>93.91</v>
-      </c>
-      <c r="D12" s="27">
-        <v>86.43</v>
-      </c>
-      <c r="E12">
-        <v>8830</v>
-      </c>
-      <c r="F12">
-        <v>8531</v>
-      </c>
-      <c r="G12">
-        <v>8678</v>
-      </c>
-      <c r="H12">
-        <v>8452</v>
-      </c>
-      <c r="I12">
-        <v>8765</v>
-      </c>
-      <c r="J12">
-        <v>8606</v>
-      </c>
-      <c r="K12" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="B13">
-        <v>0.1178</v>
-      </c>
-      <c r="C13">
-        <v>95</v>
-      </c>
-      <c r="D13" s="28">
-        <v>85.55</v>
-      </c>
-      <c r="E13">
-        <v>8596</v>
-      </c>
-      <c r="F13">
-        <v>8644</v>
-      </c>
-      <c r="G13">
-        <v>8620</v>
-      </c>
-      <c r="H13">
-        <v>8509</v>
-      </c>
-      <c r="I13">
-        <v>8457</v>
-      </c>
-      <c r="J13">
-        <v>8483</v>
-      </c>
-      <c r="K13" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>204</v>
-      </c>
-      <c r="B14">
-        <v>0.1173</v>
-      </c>
-      <c r="C14">
-        <v>95</v>
-      </c>
-      <c r="D14" s="27">
-        <v>87.32</v>
-      </c>
-      <c r="E14">
-        <v>8941</v>
-      </c>
-      <c r="F14">
-        <v>8588</v>
-      </c>
-      <c r="G14">
-        <v>8761</v>
-      </c>
-      <c r="H14">
-        <v>8521</v>
-      </c>
-      <c r="I14">
-        <v>8889</v>
-      </c>
-      <c r="J14">
-        <v>8701</v>
-      </c>
-      <c r="K14" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="28" t="s">
-        <v>207</v>
-      </c>
-      <c r="B15">
-        <v>0.20810000000000001</v>
-      </c>
-      <c r="C15">
-        <v>91.72</v>
-      </c>
-      <c r="D15" s="27">
-        <v>87.32</v>
-      </c>
-      <c r="E15">
-        <v>9036</v>
-      </c>
-      <c r="F15">
-        <v>8475</v>
-      </c>
-      <c r="G15">
-        <v>8746</v>
-      </c>
-      <c r="H15">
-        <v>8439</v>
-      </c>
-      <c r="I15">
-        <v>9012</v>
-      </c>
-      <c r="J15">
-        <v>8716</v>
-      </c>
-      <c r="K15" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>208</v>
-      </c>
-      <c r="B16">
-        <v>0.1578</v>
-      </c>
-      <c r="C16">
-        <v>94.69</v>
-      </c>
-      <c r="D16" s="27">
-        <v>86.73</v>
-      </c>
-      <c r="E16">
-        <v>8438</v>
-      </c>
-      <c r="F16">
-        <v>9153</v>
-      </c>
-      <c r="G16">
-        <v>8780</v>
-      </c>
-      <c r="H16">
-        <v>8980</v>
-      </c>
-      <c r="I16">
-        <v>8148</v>
-      </c>
-      <c r="J16">
-        <v>8544</v>
-      </c>
-      <c r="K16" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>211</v>
-      </c>
-      <c r="B17">
-        <v>0.16109999999999999</v>
-      </c>
-      <c r="C17">
-        <v>94.38</v>
-      </c>
-      <c r="D17" s="27">
-        <v>86.73</v>
-      </c>
-      <c r="E17">
-        <v>8587</v>
-      </c>
-      <c r="F17">
-        <v>8927</v>
-      </c>
-      <c r="G17">
-        <v>8753</v>
-      </c>
-      <c r="H17">
-        <v>8774</v>
-      </c>
-      <c r="I17">
-        <v>8395</v>
-      </c>
-      <c r="J17">
-        <v>8580</v>
-      </c>
-      <c r="K17" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>213</v>
-      </c>
-      <c r="B21">
-        <v>0.14449999999999999</v>
-      </c>
-      <c r="C21">
-        <v>94.77</v>
-      </c>
-      <c r="D21">
-        <v>88.2</v>
-      </c>
-      <c r="E21">
-        <v>8914</v>
-      </c>
-      <c r="F21">
-        <v>8814</v>
-      </c>
-      <c r="G21">
-        <v>8864</v>
-      </c>
-      <c r="H21">
-        <v>8720</v>
-      </c>
-      <c r="I21">
-        <v>8827</v>
-      </c>
-      <c r="J21">
-        <v>8773</v>
-      </c>
-      <c r="K21" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>216</v>
-      </c>
-      <c r="B22">
-        <v>0.1239</v>
-      </c>
-      <c r="C22">
-        <v>95.47</v>
-      </c>
-      <c r="D22">
-        <v>87.61</v>
-      </c>
-      <c r="E22">
-        <v>8994</v>
-      </c>
-      <c r="F22">
-        <v>8588</v>
-      </c>
-      <c r="G22">
-        <v>8786</v>
-      </c>
-      <c r="H22">
-        <v>8529</v>
-      </c>
-      <c r="I22">
-        <v>8951</v>
-      </c>
-      <c r="J22">
-        <v>8735</v>
-      </c>
-      <c r="K22" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>217</v>
-      </c>
-      <c r="B24">
-        <v>0.14319999999999999</v>
-      </c>
-      <c r="C24">
-        <v>94.69</v>
-      </c>
-      <c r="D24">
-        <v>86.14</v>
-      </c>
-      <c r="E24">
-        <v>8571</v>
-      </c>
-      <c r="F24">
-        <v>8814</v>
-      </c>
-      <c r="G24">
-        <v>8691</v>
-      </c>
-      <c r="H24">
-        <v>8662</v>
-      </c>
-      <c r="I24">
-        <v>8395</v>
-      </c>
-      <c r="J24">
-        <v>8527</v>
-      </c>
-      <c r="K24" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>219</v>
-      </c>
-      <c r="B25">
-        <v>0.14560000000000001</v>
-      </c>
-      <c r="C25">
-        <v>94.84</v>
-      </c>
-      <c r="D25">
-        <v>87.61</v>
-      </c>
-      <c r="E25">
-        <v>9193</v>
-      </c>
-      <c r="F25">
-        <v>8362</v>
-      </c>
-      <c r="G25">
-        <v>8757</v>
-      </c>
-      <c r="H25">
-        <v>8371</v>
-      </c>
-      <c r="I25">
-        <v>9198</v>
-      </c>
-      <c r="J25">
-        <v>8765</v>
-      </c>
-      <c r="K25" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>237</v>
-      </c>
-      <c r="B27">
-        <v>0.28820000000000001</v>
-      </c>
-      <c r="C27">
-        <v>88.44</v>
-      </c>
-      <c r="D27">
-        <v>87.32</v>
-      </c>
-      <c r="E27">
-        <v>8941</v>
-      </c>
-      <c r="F27">
-        <v>8588</v>
-      </c>
-      <c r="G27">
-        <v>8761</v>
-      </c>
-      <c r="H27">
-        <v>8521</v>
-      </c>
-      <c r="I27">
-        <v>8889</v>
-      </c>
-      <c r="J27">
-        <v>8701</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>239</v>
-      </c>
-      <c r="B28">
-        <v>0.1196</v>
-      </c>
-      <c r="C28">
-        <v>95.55</v>
-      </c>
-      <c r="D28">
-        <v>87.91</v>
-      </c>
-      <c r="E28">
-        <v>8696</v>
-      </c>
-      <c r="F28">
-        <v>9040</v>
-      </c>
-      <c r="G28" s="27">
-        <v>8864</v>
-      </c>
-      <c r="H28">
-        <v>8903</v>
-      </c>
-      <c r="I28">
-        <v>8519</v>
-      </c>
-      <c r="J28">
-        <v>8707</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="G29" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>241</v>
-      </c>
-      <c r="B31">
-        <v>7.0800000000000002E-2</v>
-      </c>
-      <c r="C31">
-        <v>97.1</v>
-      </c>
-      <c r="D31">
-        <v>86.73</v>
-      </c>
-      <c r="E31">
-        <v>8667</v>
-      </c>
-      <c r="F31">
-        <v>8814</v>
-      </c>
-      <c r="G31">
-        <v>8739</v>
-      </c>
-      <c r="H31">
-        <v>8679</v>
-      </c>
-      <c r="I31">
-        <v>8519</v>
-      </c>
-      <c r="J31">
-        <v>8598</v>
-      </c>
-      <c r="K31" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>254</v>
-      </c>
-      <c r="B33">
-        <v>0.2666</v>
-      </c>
-      <c r="C33">
-        <v>87.66</v>
-      </c>
-      <c r="D33">
-        <v>87.02</v>
-      </c>
-      <c r="E33">
-        <v>8982</v>
-      </c>
-      <c r="F33">
-        <v>8475</v>
-      </c>
-      <c r="G33">
-        <v>8721</v>
-      </c>
-      <c r="H33">
-        <v>8430</v>
-      </c>
-      <c r="I33">
-        <v>8951</v>
-      </c>
-      <c r="J33">
-        <v>8683</v>
-      </c>
-      <c r="K33" t="s">
-        <v>253</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2157F87-0085-4DC7-93EF-26EFA2000176}">
   <dimension ref="A1:M39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31:L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3735,10 +6400,10 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -3826,10 +6491,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E4" s="5">
         <v>99.85</v>
@@ -3841,7 +6506,7 @@
         <v>0.94579999999999997</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I4" s="1">
         <v>0.91549999999999998</v>
@@ -3867,10 +6532,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E5" s="5">
         <v>99.85</v>
@@ -3908,13 +6573,13 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F6" s="1">
         <v>89.97</v>
@@ -3938,7 +6603,7 @@
         <v>0.89629999999999999</v>
       </c>
       <c r="M6" s="24" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -3949,10 +6614,10 @@
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E7" s="1">
         <v>91.65</v>
@@ -3964,13 +6629,13 @@
         <v>0.87709999999999999</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K7" s="1">
         <v>0.86419999999999997</v>
@@ -3984,10 +6649,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -4075,37 +6740,37 @@
         <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="H13" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="I13" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="L13" s="5" t="s">
-        <v>125</v>
-      </c>
       <c r="M13" s="24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -4116,37 +6781,37 @@
         <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E14" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="K14" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="F14" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="J14" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>172</v>
-      </c>
       <c r="L14" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="M14" s="24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -4157,83 +6822,83 @@
         <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="M15" s="24" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B16" s="1">
         <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>128</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M16" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C18" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D18" s="1">
         <v>0.14729999999999999</v>
@@ -4247,13 +6912,13 @@
       <c r="G18" s="1">
         <v>8914</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H18" s="5">
         <v>8814</v>
       </c>
       <c r="I18" s="1">
         <v>8864</v>
       </c>
-      <c r="J18" s="1">
+      <c r="J18" s="5">
         <v>8720</v>
       </c>
       <c r="K18" s="1">
@@ -4263,15 +6928,15 @@
         <v>8773</v>
       </c>
       <c r="M18" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -4359,7 +7024,7 @@
         <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1">
         <v>0.30220000000000002</v>
@@ -4371,25 +7036,25 @@
         <v>84.37</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K22" s="5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M22" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.4">
@@ -4400,7 +7065,7 @@
         <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="1">
         <v>0.21440000000000001</v>
@@ -4412,25 +7077,25 @@
         <v>84.37</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M23" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.4">
@@ -4441,10 +7106,10 @@
         <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E24" s="1">
         <v>91.09</v>
@@ -4453,71 +7118,71 @@
         <v>84.37</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M24" s="24" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B25" s="1">
         <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M25" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C27" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D27" s="1">
         <v>0.14729999999999999</v>
@@ -4547,15 +7212,15 @@
         <v>8773</v>
       </c>
       <c r="M27" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -4643,37 +7308,37 @@
         <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D31" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="M31" s="24" t="s">
         <v>134</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="F31" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="G31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="K31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="M31" s="24" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.4">
@@ -4684,37 +7349,37 @@
         <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="H32" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="I32" s="5" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="K32" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L32" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M32" s="24" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.4">
@@ -4725,83 +7390,83 @@
         <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="M33" s="24" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B34" s="1">
         <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M34" s="24" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C36" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D36" s="1">
         <v>0.14729999999999999</v>
@@ -4813,7 +7478,7 @@
         <v>88.2</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="H36" s="1">
         <v>8814</v>
@@ -4831,12 +7496,12 @@
         <v>8773</v>
       </c>
       <c r="M36" s="24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="C39" s="1" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D39" s="1">
         <v>0.1196</v>
@@ -4876,12 +7541,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED2E3D2-ADA8-4356-BFE1-6111EA273D35}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4896,7 +7561,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="12" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -4946,7 +7611,7 @@
         <v>90</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D3" s="20" t="s">
         <v>23</v>
@@ -4985,10 +7650,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E4" s="11">
         <v>99.93</v>
@@ -5015,7 +7680,7 @@
         <v>0.90949999999999998</v>
       </c>
       <c r="M4" s="22" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
@@ -5026,10 +7691,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E5" s="11">
         <v>99.09</v>
@@ -5056,7 +7721,7 @@
         <v>0.9244</v>
       </c>
       <c r="M5" s="22" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.4">
@@ -5067,10 +7732,10 @@
         <v>60</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E6" s="11">
         <v>96.86</v>
@@ -5097,7 +7762,7 @@
         <v>0.91769999999999996</v>
       </c>
       <c r="M6" s="22" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.4">
@@ -5108,10 +7773,10 @@
         <v>60</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E7" s="13">
         <v>90.93</v>
@@ -5138,12 +7803,12 @@
         <v>0.90900000000000003</v>
       </c>
       <c r="M7" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="12" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -5193,7 +7858,7 @@
         <v>90</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D12" s="20" t="s">
         <v>23</v>
@@ -5229,13 +7894,13 @@
         <v>3</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M13" s="22" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -5243,13 +7908,13 @@
         <v>4</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="M14" s="22" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -5257,51 +7922,51 @@
         <v>6</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>229</v>
+      </c>
+      <c r="L16" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="B16" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="F16" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="H16" s="13" t="s">
-        <v>224</v>
-      </c>
-      <c r="I16" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="J16" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="K16" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="L16" s="13" t="s">
-        <v>228</v>
-      </c>
       <c r="M16" s="22" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.4">
@@ -5318,7 +7983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D083EF1A-8817-41A5-B7D4-F7B8AC6BEDDD}">
   <dimension ref="A1:M16"/>
   <sheetViews>
@@ -5337,7 +8002,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" ht="61.2" x14ac:dyDescent="0.4">
@@ -5425,10 +8090,10 @@
         <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E4" s="1">
         <v>100</v>
@@ -5466,10 +8131,10 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E5" s="1">
         <v>100</v>
@@ -5507,10 +8172,10 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E6" s="1">
         <v>100</v>
@@ -5548,10 +8213,10 @@
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1">
         <v>98.64</v>
@@ -5663,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.4">
@@ -5674,10 +8339,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.4">
@@ -5685,10 +8350,10 @@
         <v>6</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.4">
@@ -5696,10 +8361,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="6" customFormat="1" x14ac:dyDescent="0.4">

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9357D2C7-1F2A-4E76-A3C8-6E834DFBD341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319DAB58-875A-4CEF-AA9D-196AAB91C0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-132" yWindow="-132" windowWidth="23304" windowHeight="13944" tabRatio="486" firstSheet="1" activeTab="1" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="660" firstSheet="1" activeTab="2" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="364">
   <si>
     <t>모델</t>
   </si>
@@ -1223,10 +1223,6 @@
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251113_235659</t>
   </si>
   <si>
-    <t>Ours 초기값: adamaWweight_decay 0.01, drop 0.01, feat2, ps 56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_003228</t>
   </si>
   <si>
@@ -1244,14 +1240,106 @@
   </si>
   <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_xie2019_20251114_020734</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_xie2019_20251114_023940</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_xie2019_20251114_023943</t>
+  </si>
+  <si>
+    <t>nan(Grad Exploding)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0, ps112, drop0.1, res_attn)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_032415</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_032423</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0, ps112, drop0.1, layers5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_042859</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_042902</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_044732</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_044735</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0, ps112, drop0.1, patch2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0, ps112, drop0.1, ff_ratio4)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_050317</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_050319</t>
+  </si>
+  <si>
+    <t>Ours 초기값: adamaWweight_decay 0.01, drop 0.01, feat2, ps56, res_attn false, layers2, patch1, ff_ratio2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_051934</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_053413</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_051937</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_053533</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_055325</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_055328</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0, ps112, drop0.1, res_attn, patch2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_061035</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_061038</t>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>xie2019_binary.json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
+    <numFmt numFmtId="185" formatCode="#,##0.0000;[Red]#,##0.0000"/>
+    <numFmt numFmtId="186" formatCode="0.0000_ "/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1393,7 +1481,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -1425,6 +1513,45 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thick">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1434,7 +1561,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1543,12 +1670,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1556,21 +1677,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1582,22 +1688,67 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="185" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="186" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="186" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="5" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2317,506 +2468,629 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BF4E89-56A3-4502-BA89-E13C3B2DF54B}">
-  <dimension ref="A1:S61"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="90" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView zoomScale="84" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N63" sqref="K63:N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="42.3984375" style="36" customWidth="1"/>
+    <col min="1" max="1" width="57.3984375" style="36" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="36" customWidth="1"/>
     <col min="3" max="3" width="18.19921875" style="36" customWidth="1"/>
     <col min="4" max="5" width="18.59765625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="11.296875" style="36" customWidth="1"/>
-    <col min="7" max="17" width="18.59765625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="8" style="36" customWidth="1"/>
+    <col min="7" max="7" width="13" style="36" customWidth="1"/>
+    <col min="8" max="9" width="18.59765625" style="36" customWidth="1"/>
+    <col min="10" max="10" width="18.59765625" style="44" customWidth="1"/>
+    <col min="11" max="11" width="18.59765625" style="36" customWidth="1"/>
+    <col min="12" max="17" width="18.59765625" style="44" customWidth="1"/>
     <col min="18" max="16384" width="8.796875" style="36"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A1" s="36" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="36" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="42" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="60" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="60" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="61" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="61" t="s">
         <v>256</v>
       </c>
-      <c r="M3" s="42" t="s">
+      <c r="M3" s="61" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="42" t="s">
+      <c r="N3" s="61" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="42" t="s">
+      <c r="O3" s="61" t="s">
         <v>259</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="61" t="s">
         <v>260</v>
       </c>
-      <c r="Q3" s="42" t="s">
+      <c r="Q3" s="61" t="s">
         <v>261</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="R3" s="60" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="54" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:18" s="50" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="48" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="52" t="s">
+      <c r="B4" s="48" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="52">
+      <c r="D4" s="48">
         <v>256</v>
       </c>
-      <c r="E4" s="52" t="s">
+      <c r="E4" s="48" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="52">
+      <c r="F4" s="48">
         <v>90</v>
       </c>
-      <c r="G4" s="52" t="b">
+      <c r="G4" s="48" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="48" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="52" t="s">
+      <c r="I4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53" t="s">
+      <c r="J4" s="49">
+        <v>0.35470000000000002</v>
+      </c>
+      <c r="K4" s="48">
+        <v>86.14</v>
+      </c>
+      <c r="L4" s="49">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="M4" s="49">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="N4" s="49">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="O4" s="49">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="P4" s="49">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="Q4" s="49">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J5" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="K5" s="36">
+        <v>78.17</v>
+      </c>
+      <c r="L5" s="44">
+        <v>0.72689999999999999</v>
+      </c>
+      <c r="M5" s="44">
+        <v>0.93220000000000003</v>
+      </c>
+      <c r="N5" s="44">
+        <v>0.81679999999999997</v>
+      </c>
+      <c r="O5" s="44">
+        <v>0.89290000000000003</v>
+      </c>
+      <c r="P5" s="44">
+        <v>0.61729999999999996</v>
+      </c>
+      <c r="Q5" s="44">
+        <v>0.72989999999999999</v>
+      </c>
+      <c r="R5" s="36" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="R5" s="36" t="s">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J6" s="44">
+        <v>0.3639</v>
+      </c>
+      <c r="K6" s="36">
+        <v>84.96</v>
+      </c>
+      <c r="L6" s="44">
+        <v>0.8841</v>
+      </c>
+      <c r="M6" s="44">
+        <v>0.81920000000000004</v>
+      </c>
+      <c r="N6" s="44">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="O6" s="44">
+        <v>0.81710000000000005</v>
+      </c>
+      <c r="P6" s="44">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q6" s="44">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="R6" s="36" t="s">
         <v>336</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="R6" s="36" t="s">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J7" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="K7" s="36">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="L7" s="44">
+        <v>0.7389</v>
+      </c>
+      <c r="M7" s="44">
+        <v>0.94350000000000001</v>
+      </c>
+      <c r="N7" s="44">
+        <v>0.82879999999999998</v>
+      </c>
+      <c r="O7" s="44">
+        <v>0.91149999999999998</v>
+      </c>
+      <c r="P7" s="44">
+        <v>0.63580000000000003</v>
+      </c>
+      <c r="Q7" s="44">
+        <v>0.74909999999999999</v>
+      </c>
+      <c r="R7" s="36" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
-    <row r="9" spans="1:19" s="50" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="48" t="s">
+    <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="J8" s="44">
+        <v>0.33939999999999998</v>
+      </c>
+      <c r="K8" s="36">
+        <v>84.96</v>
+      </c>
+      <c r="L8" s="44">
+        <v>0.85</v>
+      </c>
+      <c r="M8" s="44">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N8" s="44">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="O8" s="44">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="P8" s="44">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="Q8" s="44">
+        <v>0.84109999999999996</v>
+      </c>
+      <c r="R8" s="36" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="42" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="48" t="s">
+      <c r="B9" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="48" t="s">
+      <c r="C9" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="48">
+      <c r="D9" s="41">
         <v>256</v>
       </c>
-      <c r="E9" s="48" t="s">
+      <c r="E9" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="48">
+      <c r="F9" s="41">
         <v>90</v>
       </c>
-      <c r="G9" s="48" t="b">
+      <c r="G9" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="48" t="s">
+      <c r="H9" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="48" t="s">
+      <c r="I9" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="49">
+      <c r="J9" s="45">
         <v>0.18079999999999999</v>
       </c>
-      <c r="K9" s="49">
+      <c r="K9" s="41">
         <v>86.14</v>
       </c>
-      <c r="L9" s="49">
+      <c r="L9" s="45">
         <v>0.86519999999999997</v>
       </c>
-      <c r="M9" s="49">
+      <c r="M9" s="45">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N9" s="49">
+      <c r="N9" s="45">
         <v>0.86760000000000004</v>
       </c>
-      <c r="O9" s="49">
+      <c r="O9" s="45">
         <v>0.85709999999999997</v>
       </c>
-      <c r="P9" s="49">
+      <c r="P9" s="45">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q9" s="49">
+      <c r="Q9" s="45">
         <v>0.85450000000000004</v>
       </c>
-      <c r="R9" s="49" t="s">
+      <c r="R9" s="41" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A10" s="39"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="39"/>
-      <c r="D10" s="39"/>
-      <c r="E10" s="39"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="41">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="46">
         <v>0.1424</v>
       </c>
-      <c r="K10" s="41">
+      <c r="K10" s="40">
         <v>86.43</v>
       </c>
-      <c r="L10" s="41">
+      <c r="L10" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="M10" s="41">
+      <c r="M10" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N10" s="41">
+      <c r="N10" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="O10" s="41">
+      <c r="O10" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="P10" s="41">
+      <c r="P10" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q10" s="41">
+      <c r="Q10" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="R10" s="41" t="s">
+      <c r="R10" s="40" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="41">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="46">
         <v>0.1152</v>
       </c>
-      <c r="K11" s="41">
+      <c r="K11" s="40">
         <v>87.02</v>
       </c>
-      <c r="L11" s="41">
+      <c r="L11" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="M11" s="41">
+      <c r="M11" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N11" s="41">
+      <c r="N11" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="O11" s="41">
+      <c r="O11" s="46">
         <v>0.86419999999999997</v>
       </c>
-      <c r="P11" s="41">
+      <c r="P11" s="46">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q11" s="41">
+      <c r="Q11" s="46">
         <v>0.86419999999999997</v>
       </c>
-      <c r="R11" s="41" t="s">
+      <c r="R11" s="40" t="s">
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A12" s="39"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="39"/>
-      <c r="J12" s="41">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="46">
         <v>5.0299999999999997E-2</v>
       </c>
-      <c r="K12" s="41">
+      <c r="K12" s="40">
         <v>87.02</v>
       </c>
-      <c r="L12" s="41">
+      <c r="L12" s="46">
         <v>0.86739999999999995</v>
       </c>
-      <c r="M12" s="41">
+      <c r="M12" s="46">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N12" s="41">
+      <c r="N12" s="46">
         <v>0.87709999999999999</v>
       </c>
-      <c r="O12" s="41">
+      <c r="O12" s="46">
         <v>0.87339999999999995</v>
       </c>
-      <c r="P12" s="41">
+      <c r="P12" s="46">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q12" s="41">
+      <c r="Q12" s="46">
         <v>0.86250000000000004</v>
       </c>
-      <c r="R12" s="41" t="s">
+      <c r="R12" s="40" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="39"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="41">
+    <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="46">
         <v>0.2276</v>
       </c>
-      <c r="K13" s="41">
+      <c r="K13" s="40">
         <v>85.84</v>
       </c>
-      <c r="L13" s="41">
+      <c r="L13" s="46">
         <v>0.88170000000000004</v>
       </c>
-      <c r="M13" s="41">
+      <c r="M13" s="46">
         <v>0.84179999999999999</v>
       </c>
-      <c r="N13" s="41">
+      <c r="N13" s="46">
         <v>0.86129999999999995</v>
       </c>
-      <c r="O13" s="41">
+      <c r="O13" s="46">
         <v>0.83530000000000004</v>
       </c>
-      <c r="P13" s="41">
+      <c r="P13" s="46">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q13" s="41">
+      <c r="Q13" s="46">
         <v>0.85540000000000005</v>
       </c>
-      <c r="R13" s="41" t="s">
+      <c r="R13" s="40" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:19" s="50" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="48" t="s">
+    <row r="14" spans="1:18" s="42" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="48" t="s">
+      <c r="B14" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="48" t="s">
+      <c r="C14" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="48">
+      <c r="D14" s="41">
         <v>256</v>
       </c>
-      <c r="E14" s="48" t="s">
+      <c r="E14" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="48">
+      <c r="F14" s="41">
         <v>90</v>
       </c>
-      <c r="G14" s="48" t="b">
+      <c r="G14" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="48" t="s">
+      <c r="H14" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="48" t="s">
+      <c r="I14" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="48">
+      <c r="J14" s="45">
         <v>2.98E-2</v>
       </c>
-      <c r="K14" s="48">
+      <c r="K14" s="41">
         <v>86.43</v>
       </c>
-      <c r="L14" s="48">
+      <c r="L14" s="45">
         <v>0.87860000000000005</v>
       </c>
-      <c r="M14" s="48">
+      <c r="M14" s="45">
         <v>0.85880000000000001</v>
       </c>
-      <c r="N14" s="48">
+      <c r="N14" s="45">
         <v>0.86860000000000004</v>
       </c>
-      <c r="O14" s="48">
+      <c r="O14" s="45">
         <v>0.84940000000000004</v>
       </c>
-      <c r="P14" s="48">
+      <c r="P14" s="45">
         <v>0.87039999999999995</v>
       </c>
-      <c r="Q14" s="48">
+      <c r="Q14" s="45">
         <v>0.85980000000000001</v>
       </c>
-      <c r="R14" s="48" t="s">
+      <c r="R14" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="S14" s="51"/>
-    </row>
-    <row r="15" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="40"/>
-      <c r="B15" s="40"/>
-      <c r="C15" s="40"/>
-      <c r="D15" s="40"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="40"/>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40"/>
-      <c r="I15" s="40"/>
-      <c r="J15" s="47">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="46">
         <v>0.06</v>
       </c>
-      <c r="K15" s="47">
+      <c r="K15" s="40">
         <v>89.68</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="46">
         <v>0.90339999999999998</v>
       </c>
-      <c r="M15" s="47">
+      <c r="M15" s="46">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N15" s="47">
+      <c r="N15" s="46">
         <v>0.90080000000000005</v>
       </c>
-      <c r="O15" s="47">
+      <c r="O15" s="46">
         <v>0.88959999999999995</v>
       </c>
-      <c r="P15" s="47">
+      <c r="P15" s="46">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q15" s="47">
+      <c r="Q15" s="46">
         <v>0.89229999999999998</v>
       </c>
-      <c r="R15" s="47" t="s">
+      <c r="R15" s="40" t="s">
         <v>269</v>
       </c>
-      <c r="S15" s="38"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A16" s="39"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="47">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="46">
         <v>4.6600000000000003E-2</v>
       </c>
-      <c r="K16" s="47">
+      <c r="K16" s="40">
         <v>89.09</v>
       </c>
-      <c r="L16" s="47">
+      <c r="L16" s="46">
         <v>0.90229999999999999</v>
       </c>
-      <c r="M16" s="47">
+      <c r="M16" s="46">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N16" s="47">
+      <c r="N16" s="46">
         <v>0.89459999999999995</v>
       </c>
-      <c r="O16" s="47">
+      <c r="O16" s="46">
         <v>0.87880000000000003</v>
       </c>
-      <c r="P16" s="47">
+      <c r="P16" s="46">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q16" s="47">
+      <c r="Q16" s="46">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R16" s="47" t="s">
+      <c r="R16" s="40" t="s">
         <v>304</v>
       </c>
-      <c r="S16" s="38"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J17" s="47">
+      <c r="J17" s="46">
         <v>6.8400000000000002E-2</v>
       </c>
-      <c r="K17" s="47">
+      <c r="K17" s="40">
         <v>87.61</v>
       </c>
-      <c r="L17" s="36">
+      <c r="L17" s="44">
         <v>0.89470000000000005</v>
       </c>
-      <c r="M17" s="36">
+      <c r="M17" s="44">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N17" s="36">
+      <c r="N17" s="44">
         <v>0.87929999999999997</v>
       </c>
-      <c r="O17" s="36">
+      <c r="O17" s="44">
         <v>0.85709999999999997</v>
       </c>
-      <c r="P17" s="36">
+      <c r="P17" s="44">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q17" s="36">
+      <c r="Q17" s="44">
         <v>0.87270000000000003</v>
       </c>
       <c r="R17" s="36" t="s">
@@ -2824,151 +3098,151 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J18" s="47">
+      <c r="J18" s="46">
         <v>5.5599999999999997E-2</v>
       </c>
-      <c r="K18" s="47">
+      <c r="K18" s="40">
         <v>87.91</v>
       </c>
-      <c r="L18" s="36">
+      <c r="L18" s="44">
         <v>0.92500000000000004</v>
       </c>
-      <c r="M18" s="36">
+      <c r="M18" s="44">
         <v>0.83620000000000005</v>
       </c>
-      <c r="N18" s="36">
+      <c r="N18" s="44">
         <v>0.87829999999999997</v>
       </c>
-      <c r="O18" s="36">
+      <c r="O18" s="44">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P18" s="36">
+      <c r="P18" s="44">
         <v>0.92589999999999995</v>
       </c>
-      <c r="Q18" s="36">
+      <c r="Q18" s="44">
         <v>0.87980000000000003</v>
       </c>
       <c r="R18" s="36" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="50" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="48" t="s">
+    <row r="19" spans="1:18" s="42" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="48" t="s">
+      <c r="B19" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="48">
+      <c r="D19" s="41">
         <v>256</v>
       </c>
-      <c r="E19" s="48" t="s">
+      <c r="E19" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="48">
+      <c r="F19" s="41">
         <v>90</v>
       </c>
-      <c r="G19" s="48" t="b">
+      <c r="G19" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="48" t="s">
+      <c r="H19" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="48" t="s">
+      <c r="I19" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="49">
+      <c r="J19" s="45">
         <v>0.22720000000000001</v>
       </c>
-      <c r="K19" s="49">
+      <c r="K19" s="41">
         <v>85.55</v>
       </c>
-      <c r="L19" s="49">
+      <c r="L19" s="45">
         <v>0.87649999999999995</v>
       </c>
-      <c r="M19" s="49">
+      <c r="M19" s="45">
         <v>0.84179999999999999</v>
       </c>
-      <c r="N19" s="49">
+      <c r="N19" s="45">
         <v>0.85880000000000001</v>
       </c>
-      <c r="O19" s="49">
+      <c r="O19" s="45">
         <v>0.83430000000000004</v>
       </c>
-      <c r="P19" s="49">
+      <c r="P19" s="45">
         <v>0.87039999999999995</v>
       </c>
-      <c r="Q19" s="49">
+      <c r="Q19" s="45">
         <v>0.85199999999999998</v>
       </c>
-      <c r="R19" s="49" t="s">
+      <c r="R19" s="41" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="41"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="41"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="41"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="46">
         <v>0.22559999999999999</v>
       </c>
-      <c r="K20" s="41">
+      <c r="K20" s="40">
         <v>86.43</v>
       </c>
-      <c r="L20" s="41">
+      <c r="L20" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="M20" s="41">
+      <c r="M20" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N20" s="41">
+      <c r="N20" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="O20" s="41">
+      <c r="O20" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="P20" s="41">
+      <c r="P20" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q20" s="41">
+      <c r="Q20" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="R20" s="41" t="s">
+      <c r="R20" s="40" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J21" s="41">
+      <c r="J21" s="46">
         <v>0.32279999999999998</v>
       </c>
-      <c r="K21" s="41">
+      <c r="K21" s="40">
         <v>86.73</v>
       </c>
-      <c r="L21" s="36">
+      <c r="L21" s="44">
         <v>0.84740000000000004</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="44">
         <v>0.90959999999999996</v>
       </c>
-      <c r="N21" s="36">
+      <c r="N21" s="44">
         <v>0.87739999999999996</v>
       </c>
-      <c r="O21" s="36">
+      <c r="O21" s="44">
         <v>0.89259999999999995</v>
       </c>
-      <c r="P21" s="36">
+      <c r="P21" s="44">
         <v>0.82099999999999995</v>
       </c>
-      <c r="Q21" s="36">
+      <c r="Q21" s="44">
         <v>0.85529999999999995</v>
       </c>
       <c r="R21" s="36" t="s">
@@ -2976,28 +3250,28 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J22" s="41">
+      <c r="J22" s="46">
         <v>0.32429999999999998</v>
       </c>
-      <c r="K22" s="41">
+      <c r="K22" s="40">
         <v>82.01</v>
       </c>
-      <c r="L22" s="36">
+      <c r="L22" s="44">
         <v>0.87660000000000005</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="44">
         <v>0.76270000000000004</v>
       </c>
-      <c r="N22" s="36">
+      <c r="N22" s="44">
         <v>0.81569999999999998</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22" s="44">
         <v>0.77300000000000002</v>
       </c>
-      <c r="P22" s="36">
+      <c r="P22" s="44">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q22" s="36">
+      <c r="Q22" s="44">
         <v>0.82420000000000004</v>
       </c>
       <c r="R22" s="36" t="s">
@@ -3005,1317 +3279,1317 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J23" s="41">
+      <c r="J23" s="46">
         <v>0.35299999999999998</v>
       </c>
-      <c r="K23" s="41">
+      <c r="K23" s="40">
         <v>84.66</v>
       </c>
-      <c r="L23" s="36">
+      <c r="L23" s="44">
         <v>0.84919999999999995</v>
       </c>
-      <c r="M23" s="36">
+      <c r="M23" s="44">
         <v>0.85880000000000001</v>
       </c>
-      <c r="N23" s="36">
+      <c r="N23" s="44">
         <v>0.85389999999999999</v>
       </c>
-      <c r="O23" s="36">
+      <c r="O23" s="44">
         <v>0.84379999999999999</v>
       </c>
-      <c r="P23" s="36">
+      <c r="P23" s="44">
         <v>0.83330000000000004</v>
       </c>
-      <c r="Q23" s="36">
+      <c r="Q23" s="44">
         <v>0.83850000000000002</v>
       </c>
       <c r="R23" s="36" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="50" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="48" t="s">
+    <row r="24" spans="1:18" s="42" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="B24" s="48" t="s">
+      <c r="B24" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="48">
+      <c r="D24" s="41">
         <v>256</v>
       </c>
-      <c r="E24" s="48" t="s">
+      <c r="E24" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="48">
+      <c r="F24" s="41">
         <v>90</v>
       </c>
-      <c r="G24" s="48" t="b">
+      <c r="G24" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="48" t="s">
+      <c r="H24" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="48" t="s">
+      <c r="I24" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="49">
+      <c r="J24" s="45">
         <v>0.28770000000000001</v>
       </c>
-      <c r="K24" s="49">
+      <c r="K24" s="41">
         <v>86.14</v>
       </c>
-      <c r="L24" s="49">
+      <c r="L24" s="45">
         <v>0.89629999999999999</v>
       </c>
-      <c r="M24" s="49">
+      <c r="M24" s="45">
         <v>0.83050000000000002</v>
       </c>
-      <c r="N24" s="49">
+      <c r="N24" s="45">
         <v>0.86219999999999997</v>
       </c>
-      <c r="O24" s="49">
+      <c r="O24" s="45">
         <v>0.8286</v>
       </c>
-      <c r="P24" s="49">
+      <c r="P24" s="45">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q24" s="49">
+      <c r="Q24" s="45">
         <v>0.86050000000000004</v>
       </c>
-      <c r="R24" s="49" t="s">
+      <c r="R24" s="41" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="41"/>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="41">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="46">
         <v>0.27810000000000001</v>
       </c>
-      <c r="K25" s="41">
+      <c r="K25" s="40">
         <v>85.55</v>
       </c>
-      <c r="L25" s="41">
+      <c r="L25" s="46">
         <v>0.8478</v>
       </c>
-      <c r="M25" s="41">
+      <c r="M25" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N25" s="41">
+      <c r="N25" s="46">
         <v>0.86429999999999996</v>
       </c>
-      <c r="O25" s="41">
+      <c r="O25" s="46">
         <v>0.86450000000000005</v>
       </c>
-      <c r="P25" s="41">
+      <c r="P25" s="46">
         <v>0.82720000000000005</v>
       </c>
-      <c r="Q25" s="41">
+      <c r="Q25" s="46">
         <v>0.84540000000000004</v>
       </c>
-      <c r="R25" s="41" t="s">
+      <c r="R25" s="40" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B26" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="37">
         <v>256</v>
       </c>
-      <c r="E26" s="39" t="s">
+      <c r="E26" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="39">
+      <c r="F26" s="37">
         <v>90</v>
       </c>
-      <c r="G26" s="39" t="b">
+      <c r="G26" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="39" t="s">
+      <c r="H26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="39" t="s">
+      <c r="I26" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="J26" s="41">
+      <c r="J26" s="46">
         <v>0.14430000000000001</v>
       </c>
-      <c r="K26" s="41">
+      <c r="K26" s="40">
         <v>87.91</v>
       </c>
-      <c r="L26" s="41">
+      <c r="L26" s="46">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M26" s="41">
+      <c r="M26" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N26" s="41">
+      <c r="N26" s="46">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O26" s="41">
+      <c r="O26" s="46">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P26" s="41">
+      <c r="P26" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q26" s="41">
+      <c r="Q26" s="46">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R26" s="41" t="s">
+      <c r="R26" s="40" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="46">
         <v>0.1482</v>
       </c>
-      <c r="K27" s="41">
+      <c r="K27" s="40">
         <v>88.2</v>
       </c>
-      <c r="L27" s="41">
+      <c r="L27" s="46">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M27" s="41">
+      <c r="M27" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N27" s="41">
+      <c r="N27" s="46">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O27" s="41">
+      <c r="O27" s="46">
         <v>0.872</v>
       </c>
-      <c r="P27" s="41">
+      <c r="P27" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q27" s="41">
+      <c r="Q27" s="46">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R27" s="41" t="s">
+      <c r="R27" s="40" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A28" s="41"/>
-      <c r="B28" s="41"/>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="46">
         <v>0.14680000000000001</v>
       </c>
-      <c r="K28" s="41">
+      <c r="K28" s="40">
         <v>87.61</v>
       </c>
-      <c r="L28" s="41">
+      <c r="L28" s="46">
         <v>0.89019999999999999</v>
       </c>
-      <c r="M28" s="41">
+      <c r="M28" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N28" s="41">
+      <c r="N28" s="46">
         <v>0.88</v>
       </c>
-      <c r="O28" s="41">
+      <c r="O28" s="46">
         <v>0.86140000000000005</v>
       </c>
-      <c r="P28" s="41">
+      <c r="P28" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q28" s="41">
+      <c r="Q28" s="46">
         <v>0.872</v>
       </c>
-      <c r="R28" s="41" t="s">
+      <c r="R28" s="40" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="46">
         <v>0.14280000000000001</v>
       </c>
-      <c r="K29" s="41">
+      <c r="K29" s="40">
         <v>87.91</v>
       </c>
-      <c r="L29" s="41">
+      <c r="L29" s="46">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M29" s="41">
+      <c r="M29" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N29" s="41">
+      <c r="N29" s="46">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O29" s="41">
+      <c r="O29" s="46">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P29" s="41">
+      <c r="P29" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q29" s="41">
+      <c r="Q29" s="46">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R29" s="41" t="s">
+      <c r="R29" s="40" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A30" s="41"/>
-      <c r="B30" s="41"/>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="41">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="46">
         <v>0.14510000000000001</v>
       </c>
-      <c r="K30" s="41">
+      <c r="K30" s="40">
         <v>87.91</v>
       </c>
-      <c r="L30" s="41">
+      <c r="L30" s="46">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M30" s="41">
+      <c r="M30" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N30" s="41">
+      <c r="N30" s="46">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O30" s="41">
+      <c r="O30" s="46">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P30" s="41">
+      <c r="P30" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q30" s="41">
+      <c r="Q30" s="46">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R30" s="41" t="s">
+      <c r="R30" s="40" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A31" s="41" t="s">
+      <c r="A31" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="41" t="s">
+      <c r="C31" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="41">
+      <c r="D31" s="40">
         <v>256</v>
       </c>
-      <c r="E31" s="41" t="s">
+      <c r="E31" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="41">
+      <c r="F31" s="40">
         <v>90</v>
       </c>
-      <c r="G31" s="41" t="b">
+      <c r="G31" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I31" s="41" t="s">
+      <c r="I31" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="41">
+      <c r="J31" s="46">
         <v>0.14580000000000001</v>
       </c>
-      <c r="K31" s="41">
+      <c r="K31" s="40">
         <v>88.2</v>
       </c>
-      <c r="L31" s="41">
+      <c r="L31" s="46">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M31" s="41">
+      <c r="M31" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N31" s="41">
+      <c r="N31" s="46">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O31" s="41">
+      <c r="O31" s="46">
         <v>0.872</v>
       </c>
-      <c r="P31" s="41">
+      <c r="P31" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q31" s="41">
+      <c r="Q31" s="46">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R31" s="41" t="s">
+      <c r="R31" s="40" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A32" s="41"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="41"/>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="41">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="46">
         <v>0.14560000000000001</v>
       </c>
-      <c r="K32" s="41">
+      <c r="K32" s="40">
         <v>88.2</v>
       </c>
-      <c r="L32" s="41">
+      <c r="L32" s="46">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M32" s="41">
+      <c r="M32" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N32" s="41">
+      <c r="N32" s="46">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O32" s="41">
+      <c r="O32" s="46">
         <v>0.872</v>
       </c>
-      <c r="P32" s="41">
+      <c r="P32" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q32" s="41">
+      <c r="Q32" s="46">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R32" s="41" t="s">
+      <c r="R32" s="40" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A33" s="47" t="s">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A33" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="B33" s="47" t="s">
+      <c r="B33" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="47">
+      <c r="D33" s="40">
         <v>256</v>
       </c>
-      <c r="E33" s="47" t="s">
+      <c r="E33" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="47">
+      <c r="F33" s="40">
         <v>90</v>
       </c>
-      <c r="G33" s="47" t="b">
+      <c r="G33" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="47" t="s">
+      <c r="H33" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I33" s="47" t="s">
+      <c r="I33" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="47">
+      <c r="J33" s="46">
         <v>0.14749999999999999</v>
       </c>
-      <c r="K33" s="47">
+      <c r="K33" s="40">
         <v>88.2</v>
       </c>
-      <c r="L33" s="47">
+      <c r="L33" s="46">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M33" s="47">
+      <c r="M33" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N33" s="47">
+      <c r="N33" s="46">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O33" s="47">
+      <c r="O33" s="46">
         <v>0.872</v>
       </c>
-      <c r="P33" s="47">
+      <c r="P33" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q33" s="47">
+      <c r="Q33" s="46">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R33" s="47" t="s">
+      <c r="R33" s="40" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A34" s="41"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="46">
         <v>0.1462</v>
       </c>
-      <c r="K34" s="41">
+      <c r="K34" s="40">
         <v>88.2</v>
       </c>
-      <c r="L34" s="41">
+      <c r="L34" s="46">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M34" s="41">
+      <c r="M34" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N34" s="41">
+      <c r="N34" s="46">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O34" s="41">
+      <c r="O34" s="46">
         <v>0.872</v>
       </c>
-      <c r="P34" s="41">
+      <c r="P34" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q34" s="41">
+      <c r="Q34" s="46">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R34" s="41" t="s">
+      <c r="R34" s="40" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A35" s="41" t="s">
+      <c r="A35" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="41" t="s">
+      <c r="C35" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="41">
+      <c r="D35" s="40">
         <v>256</v>
       </c>
-      <c r="E35" s="41" t="s">
+      <c r="E35" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="41">
+      <c r="F35" s="40">
         <v>90</v>
       </c>
-      <c r="G35" s="41" t="b">
+      <c r="G35" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="41" t="s">
+      <c r="H35" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I35" s="41" t="s">
+      <c r="I35" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="41">
+      <c r="J35" s="46">
         <v>0.1454</v>
       </c>
-      <c r="K35" s="41">
+      <c r="K35" s="40">
         <v>87.91</v>
       </c>
-      <c r="L35" s="41">
+      <c r="L35" s="46">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M35" s="41">
+      <c r="M35" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N35" s="41">
+      <c r="N35" s="46">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O35" s="41">
+      <c r="O35" s="46">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P35" s="41">
+      <c r="P35" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q35" s="41">
+      <c r="Q35" s="46">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R35" s="41" t="s">
+      <c r="R35" s="40" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A36" s="41"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="41"/>
-      <c r="J36" s="41">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="46">
         <v>0.14480000000000001</v>
       </c>
-      <c r="K36" s="41">
+      <c r="K36" s="40">
         <v>87.91</v>
       </c>
-      <c r="L36" s="41">
+      <c r="L36" s="46">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M36" s="41">
+      <c r="M36" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N36" s="41">
+      <c r="N36" s="46">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O36" s="41">
+      <c r="O36" s="46">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P36" s="41">
+      <c r="P36" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q36" s="41">
+      <c r="Q36" s="46">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R36" s="41" t="s">
+      <c r="R36" s="40" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A37" s="41" t="s">
+      <c r="A37" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D37" s="41">
+      <c r="D37" s="40">
         <v>256</v>
       </c>
-      <c r="E37" s="41" t="s">
+      <c r="E37" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="41">
+      <c r="F37" s="40">
         <v>90</v>
       </c>
-      <c r="G37" s="41" t="b">
+      <c r="G37" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="41" t="s">
+      <c r="H37" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I37" s="41" t="s">
+      <c r="I37" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="41">
+      <c r="J37" s="46">
         <v>2.9600000000000001E-2</v>
       </c>
-      <c r="K37" s="41">
+      <c r="K37" s="40">
         <v>87.02</v>
       </c>
-      <c r="L37" s="41">
+      <c r="L37" s="46">
         <v>0.88439999999999996</v>
       </c>
-      <c r="M37" s="41">
+      <c r="M37" s="46">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N37" s="41">
+      <c r="N37" s="46">
         <v>0.87429999999999997</v>
       </c>
-      <c r="O37" s="41">
+      <c r="O37" s="46">
         <v>0.85540000000000005</v>
       </c>
-      <c r="P37" s="41">
+      <c r="P37" s="46">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q37" s="41">
+      <c r="Q37" s="46">
         <v>0.8659</v>
       </c>
-      <c r="R37" s="41" t="s">
+      <c r="R37" s="40" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A38" s="41"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="46">
         <v>2.6800000000000001E-2</v>
       </c>
-      <c r="K38" s="41">
+      <c r="K38" s="40">
         <v>87.61</v>
       </c>
-      <c r="L38" s="41">
+      <c r="L38" s="46">
         <v>0.88570000000000004</v>
       </c>
-      <c r="M38" s="41">
+      <c r="M38" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N38" s="41">
+      <c r="N38" s="46">
         <v>0.88070000000000004</v>
       </c>
-      <c r="O38" s="41">
+      <c r="O38" s="46">
         <v>0.8659</v>
       </c>
-      <c r="P38" s="41">
+      <c r="P38" s="46">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q38" s="41">
+      <c r="Q38" s="46">
         <v>0.87119999999999997</v>
       </c>
-      <c r="R38" s="41" t="s">
+      <c r="R38" s="40" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="B39" s="41" t="s">
+      <c r="B39" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C39" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D39" s="41">
+      <c r="D39" s="40">
         <v>256</v>
       </c>
-      <c r="E39" s="41" t="s">
+      <c r="E39" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="41">
+      <c r="F39" s="40">
         <v>90</v>
       </c>
-      <c r="G39" s="41" t="b">
+      <c r="G39" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="41" t="s">
+      <c r="H39" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I39" s="41" t="s">
+      <c r="I39" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J39" s="41">
+      <c r="J39" s="46">
         <v>0.1459</v>
       </c>
-      <c r="K39" s="41">
+      <c r="K39" s="40">
         <v>86.43</v>
       </c>
-      <c r="L39" s="41">
+      <c r="L39" s="46">
         <v>0.8619</v>
       </c>
-      <c r="M39" s="41">
+      <c r="M39" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N39" s="41">
+      <c r="N39" s="46">
         <v>0.87150000000000005</v>
       </c>
-      <c r="O39" s="41">
+      <c r="O39" s="46">
         <v>0.86709999999999998</v>
       </c>
-      <c r="P39" s="41">
+      <c r="P39" s="46">
         <v>0.84570000000000001</v>
       </c>
-      <c r="Q39" s="41">
+      <c r="Q39" s="46">
         <v>0.85619999999999996</v>
       </c>
-      <c r="R39" s="41" t="s">
+      <c r="R39" s="40" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A40" s="41"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="41"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="41"/>
-      <c r="J40" s="41">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="46">
         <v>0.15160000000000001</v>
       </c>
-      <c r="K40" s="41">
+      <c r="K40" s="40">
         <v>87.02</v>
       </c>
-      <c r="L40" s="41">
+      <c r="L40" s="46">
         <v>0.88890000000000002</v>
       </c>
-      <c r="M40" s="41">
+      <c r="M40" s="46">
         <v>0.85880000000000001</v>
       </c>
-      <c r="N40" s="41">
+      <c r="N40" s="46">
         <v>0.87360000000000004</v>
       </c>
-      <c r="O40" s="41">
+      <c r="O40" s="46">
         <v>0.85119999999999996</v>
       </c>
-      <c r="P40" s="41">
+      <c r="P40" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q40" s="41">
+      <c r="Q40" s="46">
         <v>0.86670000000000003</v>
       </c>
-      <c r="R40" s="41" t="s">
+      <c r="R40" s="40" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A41" s="41" t="s">
+      <c r="A41" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="B41" s="41" t="s">
+      <c r="B41" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="41" t="s">
+      <c r="C41" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D41" s="41">
+      <c r="D41" s="40">
         <v>256</v>
       </c>
-      <c r="E41" s="41" t="s">
+      <c r="E41" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="41">
+      <c r="F41" s="40">
         <v>90</v>
       </c>
-      <c r="G41" s="41" t="b">
+      <c r="G41" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="41" t="s">
+      <c r="H41" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I41" s="41" t="s">
+      <c r="I41" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J41" s="41">
+      <c r="J41" s="46">
         <v>0.16520000000000001</v>
       </c>
-      <c r="K41" s="41">
+      <c r="K41" s="40">
         <v>87.32</v>
       </c>
-      <c r="L41" s="41">
+      <c r="L41" s="46">
         <v>0.86809999999999998</v>
       </c>
-      <c r="M41" s="41">
+      <c r="M41" s="46">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N41" s="41">
+      <c r="N41" s="46">
         <v>0.88019999999999998</v>
       </c>
-      <c r="O41" s="41">
+      <c r="O41" s="46">
         <v>0.879</v>
       </c>
-      <c r="P41" s="41">
+      <c r="P41" s="46">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q41" s="41">
+      <c r="Q41" s="46">
         <v>0.86519999999999997</v>
       </c>
-      <c r="R41" s="41" t="s">
+      <c r="R41" s="40" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A42" s="41"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="41"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="41"/>
-      <c r="J42" s="41">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="46">
         <v>0.17</v>
       </c>
-      <c r="K42" s="41">
+      <c r="K42" s="40">
         <v>87.91</v>
       </c>
-      <c r="L42" s="41">
+      <c r="L42" s="46">
         <v>0.90959999999999996</v>
       </c>
-      <c r="M42" s="41">
+      <c r="M42" s="46">
         <v>0.85309999999999997</v>
       </c>
-      <c r="N42" s="41">
+      <c r="N42" s="46">
         <v>0.88049999999999995</v>
       </c>
-      <c r="O42" s="41">
+      <c r="O42" s="46">
         <v>0.84970000000000001</v>
       </c>
-      <c r="P42" s="41">
+      <c r="P42" s="46">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q42" s="41">
+      <c r="Q42" s="46">
         <v>0.87760000000000005</v>
       </c>
-      <c r="R42" s="41" t="s">
+      <c r="R42" s="40" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A43" s="41" t="s">
+      <c r="A43" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B43" s="41" t="s">
+      <c r="B43" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="41" t="s">
+      <c r="C43" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D43" s="41">
+      <c r="D43" s="40">
         <v>256</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="41">
+      <c r="F43" s="40">
         <v>90</v>
       </c>
-      <c r="G43" s="41" t="b">
+      <c r="G43" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="39" t="s">
+      <c r="H43" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="39" t="s">
+      <c r="I43" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J43" s="41">
+      <c r="J43" s="46">
         <v>0.29870000000000002</v>
       </c>
-      <c r="K43" s="41">
+      <c r="K43" s="40">
         <v>86.43</v>
       </c>
-      <c r="L43" s="41">
+      <c r="L43" s="46">
         <v>0.8579</v>
       </c>
-      <c r="M43" s="41">
+      <c r="M43" s="46">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N43" s="41">
+      <c r="N43" s="46">
         <v>0.87219999999999998</v>
       </c>
-      <c r="O43" s="41">
+      <c r="O43" s="46">
         <v>0.87180000000000002</v>
       </c>
-      <c r="P43" s="41">
+      <c r="P43" s="46">
         <v>0.83950000000000002</v>
       </c>
-      <c r="Q43" s="41">
+      <c r="Q43" s="46">
         <v>0.85529999999999995</v>
       </c>
-      <c r="R43" s="41" t="s">
+      <c r="R43" s="40" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A44" s="41" t="s">
+      <c r="A44" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B44" s="41" t="s">
+      <c r="B44" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="41" t="s">
+      <c r="C44" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D44" s="41">
+      <c r="D44" s="40">
         <v>256</v>
       </c>
-      <c r="E44" s="41" t="s">
+      <c r="E44" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="41">
+      <c r="F44" s="40">
         <v>90</v>
       </c>
-      <c r="G44" s="41" t="b">
+      <c r="G44" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="39" t="s">
+      <c r="H44" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="41" t="s">
+      <c r="I44" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J44" s="41">
+      <c r="J44" s="46">
         <v>0.2177</v>
       </c>
-      <c r="K44" s="41">
+      <c r="K44" s="40">
         <v>87.61</v>
       </c>
-      <c r="L44" s="41">
+      <c r="L44" s="46">
         <v>0.87290000000000001</v>
       </c>
-      <c r="M44" s="41">
+      <c r="M44" s="46">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N44" s="41">
+      <c r="N44" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="O44" s="41">
+      <c r="O44" s="46">
         <v>0.87970000000000004</v>
       </c>
-      <c r="P44" s="41">
+      <c r="P44" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q44" s="41">
+      <c r="Q44" s="46">
         <v>0.86880000000000002</v>
       </c>
-      <c r="R44" s="41" t="s">
+      <c r="R44" s="40" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="B45" s="39" t="s">
+      <c r="B45" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="39" t="s">
+      <c r="C45" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="41">
+      <c r="D45" s="40">
         <v>256</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="41">
+      <c r="F45" s="40">
         <v>90</v>
       </c>
-      <c r="G45" s="41" t="b">
+      <c r="G45" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="H45" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="39" t="s">
+      <c r="I45" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="41">
+      <c r="J45" s="46">
         <v>0.2601</v>
       </c>
-      <c r="K45" s="41">
+      <c r="K45" s="40">
         <v>88.2</v>
       </c>
-      <c r="L45" s="41">
+      <c r="L45" s="46">
         <v>0.87849999999999995</v>
       </c>
-      <c r="M45" s="41">
+      <c r="M45" s="46">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N45" s="41">
+      <c r="N45" s="46">
         <v>0.88829999999999998</v>
       </c>
-      <c r="O45" s="41">
+      <c r="O45" s="46">
         <v>0.8861</v>
       </c>
-      <c r="P45" s="41">
+      <c r="P45" s="46">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q45" s="41">
+      <c r="Q45" s="46">
         <v>0.875</v>
       </c>
-      <c r="R45" s="41" t="s">
+      <c r="R45" s="40" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A46" s="41"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="46">
         <v>0.2611</v>
       </c>
-      <c r="K46" s="41">
+      <c r="K46" s="40">
         <v>87.32</v>
       </c>
-      <c r="L46" s="41">
+      <c r="L46" s="46">
         <v>0.8851</v>
       </c>
-      <c r="M46" s="41">
+      <c r="M46" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N46" s="41">
+      <c r="N46" s="46">
         <v>0.87749999999999995</v>
       </c>
-      <c r="O46" s="41">
+      <c r="O46" s="46">
         <v>0.86060000000000003</v>
       </c>
-      <c r="P46" s="41">
+      <c r="P46" s="46">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q46" s="41">
+      <c r="Q46" s="46">
         <v>0.86850000000000005</v>
       </c>
-      <c r="R46" s="41" t="s">
+      <c r="R46" s="40" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="38" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A47" s="39" t="s">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A47" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="B47" s="39" t="s">
+      <c r="B47" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="39" t="s">
+      <c r="C47" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="47">
+      <c r="D47" s="40">
         <v>256</v>
       </c>
-      <c r="E47" s="39" t="s">
+      <c r="E47" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="47">
+      <c r="F47" s="40">
         <v>90</v>
       </c>
-      <c r="G47" s="47" t="b">
+      <c r="G47" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H47" s="39" t="s">
+      <c r="H47" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="39" t="s">
+      <c r="I47" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="47">
+      <c r="J47" s="46">
         <v>0.19059999999999999</v>
       </c>
-      <c r="K47" s="47">
+      <c r="K47" s="40">
         <v>89.09</v>
       </c>
-      <c r="L47" s="47">
+      <c r="L47" s="46">
         <v>0.88039999999999996</v>
       </c>
-      <c r="M47" s="47">
+      <c r="M47" s="46">
         <v>0.9153</v>
       </c>
-      <c r="N47" s="47">
+      <c r="N47" s="46">
         <v>0.89749999999999996</v>
       </c>
-      <c r="O47" s="47">
+      <c r="O47" s="46">
         <v>0.9032</v>
       </c>
-      <c r="P47" s="47">
+      <c r="P47" s="46">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q47" s="47">
+      <c r="Q47" s="46">
         <v>0.88329999999999997</v>
       </c>
-      <c r="R47" s="47" t="s">
+      <c r="R47" s="40" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A48" s="41"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="41"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="41"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="41"/>
-      <c r="J48" s="41">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="46">
         <v>0.18870000000000001</v>
       </c>
-      <c r="K48" s="41">
+      <c r="K48" s="40">
         <v>88.79</v>
       </c>
-      <c r="L48" s="41">
+      <c r="L48" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="M48" s="41">
+      <c r="M48" s="46">
         <v>0.9153</v>
       </c>
-      <c r="N48" s="41">
+      <c r="N48" s="46">
         <v>0.89500000000000002</v>
       </c>
-      <c r="O48" s="41">
+      <c r="O48" s="46">
         <v>0.90259999999999996</v>
       </c>
-      <c r="P48" s="41">
+      <c r="P48" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q48" s="41">
+      <c r="Q48" s="46">
         <v>0.87970000000000004</v>
       </c>
-      <c r="R48" s="41" t="s">
+      <c r="R48" s="40" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A49" s="40" t="s">
+      <c r="A49" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="B49" s="40" t="s">
+      <c r="B49" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="40" t="s">
+      <c r="C49" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="46">
+      <c r="D49" s="40">
         <v>256</v>
       </c>
-      <c r="E49" s="40" t="s">
+      <c r="E49" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="46">
+      <c r="F49" s="40">
         <v>90</v>
       </c>
-      <c r="G49" s="46" t="b">
+      <c r="G49" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="46" t="s">
+      <c r="H49" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I49" s="46" t="s">
+      <c r="I49" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J49" s="41">
+      <c r="J49" s="46">
         <v>0.2271</v>
       </c>
-      <c r="K49" s="41">
+      <c r="K49" s="40">
         <v>89.68</v>
       </c>
-      <c r="L49" s="41">
+      <c r="L49" s="46">
         <v>0.91279999999999994</v>
       </c>
-      <c r="M49" s="41">
+      <c r="M49" s="46">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N49" s="41">
+      <c r="N49" s="46">
         <v>0.89970000000000006</v>
       </c>
-      <c r="O49" s="41">
+      <c r="O49" s="46">
         <v>0.88019999999999998</v>
       </c>
-      <c r="P49" s="41">
+      <c r="P49" s="46">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q49" s="41">
+      <c r="Q49" s="46">
         <v>0.89359999999999995</v>
       </c>
-      <c r="R49" s="41" t="s">
+      <c r="R49" s="40" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A50" s="46"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="46"/>
-      <c r="D50" s="46"/>
-      <c r="E50" s="46"/>
-      <c r="F50" s="46"/>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="47">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="46">
         <v>0.2298</v>
       </c>
-      <c r="K50" s="47">
+      <c r="K50" s="40">
         <v>89.97</v>
       </c>
-      <c r="L50" s="47">
+      <c r="L50" s="46">
         <v>0.9133</v>
       </c>
-      <c r="M50" s="47">
+      <c r="M50" s="46">
         <v>0.89270000000000005</v>
       </c>
       <c r="N50" s="46">
         <v>0.90290000000000004</v>
       </c>
-      <c r="O50" s="47">
+      <c r="O50" s="46">
         <v>0.88549999999999995</v>
       </c>
-      <c r="P50" s="47">
+      <c r="P50" s="46">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q50" s="47">
+      <c r="Q50" s="46">
         <v>0.89629999999999999</v>
       </c>
-      <c r="R50" s="47" t="s">
+      <c r="R50" s="40" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J51" s="47">
+      <c r="J51" s="46">
         <v>0.22839999999999999</v>
       </c>
-      <c r="K51" s="47">
+      <c r="K51" s="40">
         <v>89.68</v>
       </c>
-      <c r="L51" s="36">
+      <c r="L51" s="44">
         <v>0.91279999999999994</v>
       </c>
-      <c r="M51" s="36">
+      <c r="M51" s="44">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N51" s="36">
+      <c r="N51" s="44">
         <v>0.89970000000000006</v>
       </c>
-      <c r="O51" s="36">
+      <c r="O51" s="44">
         <v>0.88019999999999998</v>
       </c>
-      <c r="P51" s="36">
+      <c r="P51" s="44">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q51" s="36">
+      <c r="Q51" s="44">
         <v>0.89359999999999995</v>
       </c>
       <c r="R51" s="36" t="s">
@@ -4323,28 +4597,28 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J52" s="47">
+      <c r="J52" s="46">
         <v>0.23019999999999999</v>
       </c>
-      <c r="K52" s="47">
+      <c r="K52" s="40">
         <v>89.68</v>
       </c>
-      <c r="L52" s="36">
+      <c r="L52" s="44">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M52" s="36">
+      <c r="M52" s="44">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N52" s="36">
+      <c r="N52" s="44">
         <v>0.90029999999999999</v>
       </c>
-      <c r="O52" s="36">
+      <c r="O52" s="44">
         <v>0.88480000000000003</v>
       </c>
-      <c r="P52">
+      <c r="P52" s="44">
         <v>0.9012</v>
       </c>
-      <c r="Q52" s="36">
+      <c r="Q52" s="44">
         <v>0.89300000000000002</v>
       </c>
       <c r="R52" s="36" t="s">
@@ -4352,178 +4626,178 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J53" s="47">
+      <c r="J53" s="46">
         <v>0.23</v>
       </c>
-      <c r="K53" s="47">
+      <c r="K53" s="40">
         <v>89.97</v>
       </c>
-      <c r="L53" s="36">
+      <c r="L53" s="44">
         <v>0.9133</v>
       </c>
-      <c r="M53" s="36">
+      <c r="M53" s="44">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N53" s="37">
+      <c r="N53" s="44">
         <v>0.90290000000000004</v>
       </c>
-      <c r="O53" s="36">
+      <c r="O53" s="44">
         <v>0.88549999999999995</v>
       </c>
-      <c r="P53" s="36">
+      <c r="P53" s="44">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q53" s="36">
+      <c r="Q53" s="44">
         <v>0.89629999999999999</v>
       </c>
-      <c r="R53" s="38" t="s">
+      <c r="R53" s="36" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="B54" s="39" t="s">
+      <c r="B54" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="39" t="s">
+      <c r="C54" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="41">
+      <c r="D54" s="40">
         <v>256</v>
       </c>
-      <c r="E54" s="39" t="s">
+      <c r="E54" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F54" s="41">
+      <c r="F54" s="40">
         <v>90</v>
       </c>
-      <c r="G54" s="41" t="b">
+      <c r="G54" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="41" t="s">
+      <c r="H54" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I54" s="41" t="s">
+      <c r="I54" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J54" s="41">
+      <c r="J54" s="46">
         <v>0.2465</v>
       </c>
-      <c r="K54" s="41">
+      <c r="K54" s="40">
         <v>88.5</v>
       </c>
-      <c r="L54" s="41">
+      <c r="L54" s="46">
         <v>0.87909999999999999</v>
       </c>
-      <c r="M54" s="41">
+      <c r="M54" s="46">
         <v>0.90400000000000003</v>
       </c>
-      <c r="N54" s="41">
+      <c r="N54" s="46">
         <v>0.89139999999999997</v>
       </c>
-      <c r="O54" s="41">
+      <c r="O54" s="46">
         <v>0.89170000000000005</v>
       </c>
-      <c r="P54" s="41">
+      <c r="P54" s="46">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q54" s="41">
+      <c r="Q54" s="46">
         <v>0.87770000000000004</v>
       </c>
-      <c r="R54" s="41" t="s">
+      <c r="R54" s="40" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A55" s="41"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="46">
         <v>0.24579999999999999</v>
       </c>
-      <c r="K55" s="41">
+      <c r="K55" s="40">
         <v>89.09</v>
       </c>
-      <c r="L55" s="41">
+      <c r="L55" s="46">
         <v>0.90229999999999999</v>
       </c>
-      <c r="M55" s="41">
+      <c r="M55" s="46">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N55" s="41">
+      <c r="N55" s="46">
         <v>0.89459999999999995</v>
       </c>
-      <c r="O55" s="41">
+      <c r="O55" s="46">
         <v>0.87880000000000003</v>
       </c>
-      <c r="P55" s="41">
+      <c r="P55" s="46">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q55" s="41">
+      <c r="Q55" s="46">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R55" s="41" t="s">
+      <c r="R55" s="40" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="B56" s="39" t="s">
+      <c r="B56" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="39" t="s">
+      <c r="C56" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="47">
+      <c r="D56" s="40">
         <v>256</v>
       </c>
-      <c r="E56" s="39" t="s">
+      <c r="E56" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="47">
+      <c r="F56" s="40">
         <v>90</v>
       </c>
-      <c r="G56" s="47" t="b">
+      <c r="G56" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="39" t="s">
+      <c r="H56" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="39" t="s">
+      <c r="I56" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="41">
+      <c r="J56" s="46">
         <v>0.27179999999999999</v>
       </c>
-      <c r="K56" s="41">
+      <c r="K56" s="40">
         <v>87.02</v>
       </c>
-      <c r="L56" s="41">
+      <c r="L56" s="46">
         <v>0.88</v>
       </c>
-      <c r="M56" s="41">
+      <c r="M56" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N56" s="41">
+      <c r="N56" s="46">
         <v>0.875</v>
       </c>
-      <c r="O56" s="41">
+      <c r="O56" s="46">
         <v>0.85980000000000001</v>
       </c>
-      <c r="P56" s="41">
+      <c r="P56" s="46">
         <v>0.87039999999999995</v>
       </c>
-      <c r="Q56" s="41">
+      <c r="Q56" s="46">
         <v>0.86499999999999999</v>
       </c>
       <c r="R56" s="36" t="s">
@@ -4531,28 +4805,28 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J57" s="41">
+      <c r="J57" s="46">
         <v>0.2954</v>
       </c>
-      <c r="K57" s="41">
+      <c r="K57" s="40">
         <v>87.32</v>
       </c>
-      <c r="L57" s="41">
+      <c r="L57" s="46">
         <v>0.8851</v>
       </c>
-      <c r="M57" s="41">
+      <c r="M57" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N57" s="41">
+      <c r="N57" s="46">
         <v>0.87749999999999995</v>
       </c>
-      <c r="O57" s="41">
+      <c r="O57" s="46">
         <v>0.86060000000000003</v>
       </c>
-      <c r="P57" s="41">
+      <c r="P57" s="46">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q57" s="41">
+      <c r="Q57" s="46">
         <v>0.86850000000000005</v>
       </c>
       <c r="R57" s="36" t="s">
@@ -4560,55 +4834,55 @@
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="B58" s="39" t="s">
+      <c r="B58" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="39" t="s">
+      <c r="C58" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="47">
+      <c r="D58" s="40">
         <v>256</v>
       </c>
-      <c r="E58" s="39" t="s">
+      <c r="E58" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F58" s="47">
+      <c r="F58" s="40">
         <v>90</v>
       </c>
-      <c r="G58" s="47" t="b">
+      <c r="G58" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="39" t="s">
+      <c r="H58" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="39" t="s">
+      <c r="I58" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J58" s="41">
+      <c r="J58" s="46">
         <v>0.26540000000000002</v>
       </c>
-      <c r="K58" s="41">
+      <c r="K58" s="40">
         <v>85.25</v>
       </c>
-      <c r="L58" s="41">
+      <c r="L58" s="46">
         <v>0.84319999999999995</v>
       </c>
-      <c r="M58" s="41">
+      <c r="M58" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N58" s="41">
+      <c r="N58" s="46">
         <v>0.8619</v>
       </c>
-      <c r="O58" s="41">
+      <c r="O58" s="46">
         <v>0.86360000000000003</v>
       </c>
-      <c r="P58" s="41">
+      <c r="P58" s="46">
         <v>0.82099999999999995</v>
       </c>
-      <c r="Q58" s="41">
+      <c r="Q58" s="46">
         <v>0.84179999999999999</v>
       </c>
       <c r="R58" s="36" t="s">
@@ -4616,28 +4890,28 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J59" s="41">
+      <c r="J59" s="46">
         <v>0.2656</v>
       </c>
-      <c r="K59" s="41">
+      <c r="K59" s="40">
         <v>87.32</v>
       </c>
-      <c r="L59" s="41">
+      <c r="L59" s="46">
         <v>0.86809999999999998</v>
       </c>
-      <c r="M59" s="41">
+      <c r="M59" s="46">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N59" s="41">
+      <c r="N59" s="46">
         <v>0.88019999999999998</v>
       </c>
-      <c r="O59" s="41">
+      <c r="O59" s="46">
         <v>0.879</v>
       </c>
-      <c r="P59" s="41">
+      <c r="P59" s="46">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q59" s="41">
+      <c r="Q59" s="46">
         <v>0.86519999999999997</v>
       </c>
       <c r="R59" s="36" t="s">
@@ -4646,7 +4920,7 @@
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A60" s="36" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B60" s="36" t="s">
         <v>66</v>
@@ -4672,72 +4946,684 @@
       <c r="I60" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J60" s="41">
+      <c r="J60" s="46">
         <v>0.22989999999999999</v>
       </c>
       <c r="K60" s="36">
         <v>89.68</v>
       </c>
-      <c r="L60" s="41">
+      <c r="L60" s="46">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M60" s="41">
+      <c r="M60" s="46">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N60" s="41">
+      <c r="N60" s="46">
         <v>0.90029999999999999</v>
       </c>
-      <c r="O60" s="41">
+      <c r="O60" s="46">
         <v>0.88480000000000003</v>
       </c>
-      <c r="P60" s="41">
+      <c r="P60" s="46">
         <v>0.9012</v>
       </c>
-      <c r="Q60" s="41">
+      <c r="Q60" s="46">
         <v>0.89300000000000002</v>
       </c>
       <c r="R60" s="36" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J61" s="36">
+      <c r="J61" s="44">
         <v>0.22989999999999999</v>
       </c>
       <c r="K61" s="36">
         <v>89.68</v>
       </c>
-      <c r="L61" s="41">
+      <c r="L61" s="46">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M61" s="41">
+      <c r="M61" s="46">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N61" s="41">
+      <c r="N61" s="46">
         <v>0.90029999999999999</v>
       </c>
-      <c r="O61" s="41">
+      <c r="O61" s="46">
         <v>0.88480000000000003</v>
       </c>
-      <c r="P61" s="41">
+      <c r="P61" s="46">
         <v>0.9012</v>
       </c>
-      <c r="Q61" s="41">
+      <c r="Q61" s="46">
         <v>0.89300000000000002</v>
       </c>
       <c r="R61" s="36" t="s">
-        <v>333</v>
+        <v>332</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A62" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="B62" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C62" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D62" s="39">
+        <v>256</v>
+      </c>
+      <c r="E62" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F62" s="39">
+        <v>90</v>
+      </c>
+      <c r="G62" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H62" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="I62" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J62" s="44">
+        <v>0.22570000000000001</v>
+      </c>
+      <c r="K62" s="36">
+        <v>89.68</v>
+      </c>
+      <c r="L62" s="44">
+        <v>0.90800000000000003</v>
+      </c>
+      <c r="M62" s="44">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="N62" s="44">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="O62" s="44">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="P62" s="44">
+        <v>0.9012</v>
+      </c>
+      <c r="Q62" s="44">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="R62" s="36" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J63" s="44">
+        <v>0.22420000000000001</v>
+      </c>
+      <c r="K63" s="36">
+        <v>90.27</v>
+      </c>
+      <c r="L63" s="44">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="M63" s="44">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N63" s="44">
+        <v>0.90600000000000003</v>
+      </c>
+      <c r="O63" s="44">
+        <v>0.89090000000000003</v>
+      </c>
+      <c r="P63" s="44">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="Q63" s="44">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="R63" s="36" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="J64" s="44">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="K64" s="36">
+        <v>89.68</v>
+      </c>
+      <c r="L64" s="44">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="M64" s="44">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N64" s="44">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="O64" s="44">
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="P64" s="44">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q64" s="44">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="R64" s="36" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J65" s="44">
+        <v>0.22600000000000001</v>
+      </c>
+      <c r="K65" s="36">
+        <v>89.97</v>
+      </c>
+      <c r="L65" s="44">
+        <v>0.90859999999999996</v>
+      </c>
+      <c r="M65" s="44">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N65" s="44">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="O65" s="44">
+        <v>0.89019999999999999</v>
+      </c>
+      <c r="P65" s="44">
+        <v>0.9012</v>
+      </c>
+      <c r="Q65" s="44">
+        <v>0.89570000000000005</v>
+      </c>
+      <c r="R65" s="36" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J66" s="44">
+        <v>0.2238</v>
+      </c>
+      <c r="K66" s="36">
+        <v>89.68</v>
+      </c>
+      <c r="L66" s="44">
+        <v>0.90339999999999998</v>
+      </c>
+      <c r="M66" s="44">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N66" s="44">
+        <v>0.90080000000000005</v>
+      </c>
+      <c r="O66" s="44">
+        <v>0.88959999999999995</v>
+      </c>
+      <c r="P66" s="44">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q66" s="44">
+        <v>0.89229999999999998</v>
+      </c>
+      <c r="R66" s="36" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A67" s="36" t="s">
+        <v>343</v>
+      </c>
+      <c r="B67" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D67" s="36">
+        <v>256</v>
+      </c>
+      <c r="E67" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F67" s="36">
+        <v>90</v>
+      </c>
+      <c r="G67" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H67" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="I67" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J67" s="44">
+        <v>0.19919999999999999</v>
+      </c>
+      <c r="K67" s="36">
+        <v>88.2</v>
+      </c>
+      <c r="L67" s="44">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="M67" s="44">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N67" s="44">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="O67" s="44">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="P67" s="44">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="Q67" s="44">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="R67" s="36" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J68" s="44">
+        <v>0.19550000000000001</v>
+      </c>
+      <c r="K68" s="36">
+        <v>88.5</v>
+      </c>
+      <c r="L68" s="44">
+        <v>0.9012</v>
+      </c>
+      <c r="M68" s="44">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N68" s="44">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="O68" s="44">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="P68" s="44">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q68" s="44">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="R68" s="36" t="s">
+        <v>345</v>
+      </c>
+      <c r="S68" s="43"/>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A69" s="36" t="s">
+        <v>348</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" s="36">
+        <v>256</v>
+      </c>
+      <c r="E69" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="36">
+        <v>90</v>
+      </c>
+      <c r="G69" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="I69" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J69" s="44">
+        <v>0.19170000000000001</v>
+      </c>
+      <c r="K69" s="36">
+        <v>89.09</v>
+      </c>
+      <c r="L69" s="44">
+        <v>0.89770000000000005</v>
+      </c>
+      <c r="M69" s="44">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="N69" s="44">
+        <v>0.8952</v>
+      </c>
+      <c r="O69" s="44">
+        <v>0.88339999999999996</v>
+      </c>
+      <c r="P69" s="44">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="Q69" s="44">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="R69" s="36" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J70" s="44">
+        <v>0.1913</v>
+      </c>
+      <c r="K70" s="36">
+        <v>90.27</v>
+      </c>
+      <c r="L70" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="M70" s="44">
+        <v>0.9153</v>
+      </c>
+      <c r="N70" s="44">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="O70" s="44">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="P70" s="44">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="Q70" s="44">
+        <v>0.8972</v>
+      </c>
+      <c r="R70" s="36" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J71" s="44">
+        <v>0.191</v>
+      </c>
+      <c r="K71" s="36">
+        <v>90.27</v>
+      </c>
+      <c r="L71" s="44">
+        <v>0.9</v>
+      </c>
+      <c r="M71" s="44">
+        <v>0.9153</v>
+      </c>
+      <c r="N71" s="44">
+        <v>0.90759999999999996</v>
+      </c>
+      <c r="O71" s="44">
+        <v>0.90569999999999995</v>
+      </c>
+      <c r="P71" s="44">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="Q71" s="44">
+        <v>0.8972</v>
+      </c>
+      <c r="R71" s="36" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J72" s="44">
+        <v>0.1908</v>
+      </c>
+      <c r="K72" s="36">
+        <v>89.09</v>
+      </c>
+      <c r="L72" s="44">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="M72" s="44">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N72" s="44">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="O72" s="44">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="P72" s="44">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q72" s="44">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="R72" s="36" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J73" s="44">
+        <v>0.19189999999999999</v>
+      </c>
+      <c r="K73" s="36">
+        <v>89.38</v>
+      </c>
+      <c r="L73" s="44">
+        <v>0.89390000000000003</v>
+      </c>
+      <c r="M73" s="44">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N73" s="44">
+        <v>0.89890000000000003</v>
+      </c>
+      <c r="O73" s="44">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="P73" s="44">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q73" s="44">
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="R73" s="36" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A74" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C74" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D74" s="36">
+        <v>256</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F74" s="36">
+        <v>90</v>
+      </c>
+      <c r="G74" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H74" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="I74" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J74" s="44">
+        <v>0.2165</v>
+      </c>
+      <c r="K74" s="36">
+        <v>88.5</v>
+      </c>
+      <c r="L74" s="44">
+        <v>0.9012</v>
+      </c>
+      <c r="M74" s="44">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N74" s="44">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="O74" s="44">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="P74" s="44">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q74" s="44">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="R74" s="36" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J75" s="44">
+        <v>0.2195</v>
+      </c>
+      <c r="K75" s="36">
+        <v>88.2</v>
+      </c>
+      <c r="L75" s="44">
+        <v>0.89600000000000002</v>
+      </c>
+      <c r="M75" s="44">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N75" s="44">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="O75" s="44">
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="P75" s="44">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="Q75" s="44">
+        <v>0.878</v>
+      </c>
+      <c r="R75" s="36" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A76" s="37" t="s">
+        <v>359</v>
+      </c>
+      <c r="B76" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76" s="36">
+        <v>256</v>
+      </c>
+      <c r="E76" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="36">
+        <v>90</v>
+      </c>
+      <c r="G76" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="I76" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J76" s="44">
+        <v>0.19350000000000001</v>
+      </c>
+      <c r="K76" s="36">
+        <v>88.79</v>
+      </c>
+      <c r="L76" s="44">
+        <v>0.87980000000000003</v>
+      </c>
+      <c r="M76" s="44">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="N76" s="44">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="O76" s="44">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="P76" s="44">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q76" s="44">
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="R76" s="36" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="J77" s="44">
+        <v>0.1938</v>
+      </c>
+      <c r="K77" s="36">
+        <v>89.09</v>
+      </c>
+      <c r="L77" s="44">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="M77" s="44">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N77" s="44">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="O77" s="44">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="P77" s="44">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q77" s="44">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="R77" s="36" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="2"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FFFF0000"/>
       </colorScale>
@@ -4749,304 +5635,379 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817035C0-14C9-45B2-BCCA-0F6EE4603826}">
-  <dimension ref="A3:S11"/>
+  <dimension ref="A3:W11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="1"/>
-    <col min="2" max="5" width="14.296875" customWidth="1"/>
-    <col min="6" max="6" width="11.19921875" customWidth="1"/>
-    <col min="7" max="9" width="14.296875" customWidth="1"/>
-    <col min="10" max="18" width="17.796875" customWidth="1"/>
+    <col min="1" max="1" width="19.59765625" style="53" customWidth="1"/>
+    <col min="2" max="3" width="14.296875" style="53" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="53" customWidth="1"/>
+    <col min="5" max="5" width="19.296875" style="53" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="53" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" style="53" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" style="53" customWidth="1"/>
+    <col min="9" max="9" width="17.296875" style="53" customWidth="1"/>
+    <col min="10" max="18" width="17.796875" style="53" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="53"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="42" t="s">
+    <row r="3" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="42" t="s">
+      <c r="C3" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="42" t="s">
+      <c r="D3" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="42" t="s">
+      <c r="E3" s="51" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="42" t="s">
+      <c r="F3" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="42" t="s">
+      <c r="G3" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="42" t="s">
+      <c r="H3" s="51" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="42" t="s">
+      <c r="I3" s="51" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="K3" s="42" t="s">
+      <c r="K3" s="51" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="51" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="51" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="51" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="51" t="s">
+        <v>259</v>
+      </c>
+      <c r="P3" s="51" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>261</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="55" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="53" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="54">
         <v>256</v>
       </c>
-      <c r="M3" s="42" t="s">
-        <v>257</v>
-      </c>
-      <c r="N3" s="42" t="s">
-        <v>258</v>
-      </c>
-      <c r="O3" s="42" t="s">
-        <v>259</v>
-      </c>
-      <c r="P3" s="42" t="s">
-        <v>260</v>
-      </c>
-      <c r="Q3" s="42" t="s">
-        <v>261</v>
-      </c>
-      <c r="R3" s="42" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="43" t="s">
+      <c r="E4" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="54">
+        <v>90</v>
+      </c>
+      <c r="G4" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="53">
+        <v>90.71</v>
+      </c>
+      <c r="L4" s="53">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="M4" s="53">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N4" s="53">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="O4" s="53">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="P4" s="53">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="Q4" s="53">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="R4" s="53" t="s">
+        <v>363</v>
+      </c>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="53"/>
+      <c r="V4" s="53"/>
+      <c r="W4" s="53"/>
+    </row>
+    <row r="5" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="54" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="43" t="s">
+      <c r="C5" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="43">
+      <c r="D5" s="54">
         <v>256</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E5" s="54" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="54">
+        <v>90</v>
+      </c>
+      <c r="G5" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="54" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="54" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="56">
+        <v>2.2000000000000001E-3</v>
+      </c>
+      <c r="K5" s="56">
+        <v>91.98</v>
+      </c>
+      <c r="L5" s="56">
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="M5" s="56">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="N5" s="56">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="O5" s="56">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="P5" s="56">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="Q5" s="56">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="R5" s="56" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="54" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="54">
+        <v>256</v>
+      </c>
+      <c r="E6" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="43">
+      <c r="F6" s="54">
         <v>90</v>
       </c>
-      <c r="G4" s="43" t="b">
+      <c r="G6" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="H6" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="I6" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-    </row>
-    <row r="5" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="39" t="s">
+      <c r="J6" s="54"/>
+      <c r="K6" s="54"/>
+      <c r="L6" s="54"/>
+      <c r="M6" s="54"/>
+      <c r="N6" s="54"/>
+      <c r="O6" s="54"/>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="54"/>
+      <c r="R6" s="54" t="s">
+        <v>316</v>
+      </c>
+      <c r="S6" s="47"/>
+    </row>
+    <row r="7" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="54" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C7" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="39">
+      <c r="D7" s="54">
         <v>256</v>
       </c>
-      <c r="E5" s="39" t="s">
+      <c r="E7" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F7" s="54">
         <v>90</v>
       </c>
-      <c r="G5" s="39" t="b">
+      <c r="G7" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="39" t="s">
+      <c r="H7" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="39" t="s">
+      <c r="I7" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
-      <c r="O5" s="41"/>
-      <c r="P5" s="41"/>
-      <c r="Q5" s="41"/>
-      <c r="R5" s="41" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="39" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="39" t="s">
+      <c r="J7" s="56"/>
+      <c r="K7" s="56"/>
+      <c r="L7" s="56"/>
+      <c r="M7" s="56"/>
+      <c r="N7" s="56"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" s="57" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="54" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C8" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D8" s="54">
         <v>256</v>
       </c>
-      <c r="E6" s="39" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="39">
+      <c r="E8" s="53" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="53">
         <v>90</v>
       </c>
-      <c r="G6" s="39" t="b">
+      <c r="G8" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47" t="s">
-        <v>316</v>
-      </c>
-      <c r="S6" s="38"/>
-    </row>
-    <row r="7" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="39" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="39">
-        <v>256</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="39">
-        <v>90</v>
-      </c>
-      <c r="G7" s="39" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="39" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
-      <c r="O7" s="41"/>
-      <c r="P7" s="41"/>
-      <c r="Q7" s="41"/>
-      <c r="R7" s="41"/>
-    </row>
-    <row r="9" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="39"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="39"/>
-      <c r="E9" s="39"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="41"/>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
-      <c r="P9" s="41"/>
-      <c r="Q9" s="41"/>
-      <c r="R9" s="41"/>
-    </row>
-    <row r="10" spans="1:19" s="37" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="40"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="47"/>
-      <c r="K10" s="47"/>
-      <c r="L10" s="47"/>
-      <c r="M10" s="47"/>
-      <c r="N10" s="47"/>
-      <c r="O10" s="47"/>
-      <c r="P10" s="47"/>
-      <c r="Q10" s="47"/>
-      <c r="R10" s="47"/>
-      <c r="S10" s="38"/>
-    </row>
-    <row r="11" spans="1:19" s="36" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="39"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="39"/>
-      <c r="D11" s="39"/>
-      <c r="E11" s="39"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="47"/>
-      <c r="K11" s="47"/>
-      <c r="L11" s="47"/>
-      <c r="M11" s="47"/>
-      <c r="N11" s="47"/>
-      <c r="O11" s="47"/>
-      <c r="P11" s="47"/>
-      <c r="Q11" s="47"/>
-      <c r="R11" s="47"/>
-      <c r="S11" s="38"/>
+      <c r="H8" s="53" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="56"/>
+      <c r="K9" s="56"/>
+      <c r="L9" s="56"/>
+      <c r="M9" s="56"/>
+      <c r="N9" s="56"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+    </row>
+    <row r="10" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="58"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="58"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="54"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="54"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="54"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="47"/>
+    </row>
+    <row r="11" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N3:N7 N9:N11">
+  <conditionalFormatting sqref="N1:N1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="2"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFFEB84"/>
         <color rgb="FFFF0000"/>
       </colorScale>
     </cfRule>
@@ -7990,7 +8951,7 @@
   <dimension ref="A1:M20"/>
   <sheetViews>
     <sheetView zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="F3" sqref="F3:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8234,8 +9195,8 @@
       <c r="H7" s="12">
         <v>0.91010000000000002</v>
       </c>
-      <c r="I7" s="12">
-        <v>0.91739999999999999</v>
+      <c r="I7" s="12" t="s">
+        <v>362</v>
       </c>
       <c r="J7" s="12">
         <v>0.9012</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{319DAB58-875A-4CEF-AA9D-196AAB91C0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1488A-307B-4394-9A33-7CFC717E999D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="660" firstSheet="1" activeTab="2" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="367">
   <si>
     <t>모델</t>
   </si>
@@ -1248,11 +1248,10 @@
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_xie2019_20251114_023943</t>
   </si>
   <si>
-    <t>nan(Grad Exploding)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Ours (weight_decay 0.0, ps112, drop0.1, res_attn)</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0, ps112, drop0.1, res_attn)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1292,10 +1291,6 @@
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_050319</t>
   </si>
   <si>
-    <t>Ours 초기값: adamaWweight_decay 0.01, drop 0.01, feat2, ps56, res_attn false, layers2, patch1, ff_ratio2</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_051934</t>
   </si>
   <si>
@@ -1330,6 +1325,21 @@
   </si>
   <si>
     <t>xie2019_binary.json</t>
+  </si>
+  <si>
+    <t>Ours 초기값: adamaWweight_decay 0.01, drop 0.01, feat2, ps56, res_attn false, layers2, patch1, ff_ratio2,</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> best_model_criteria</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> best_model_criteria</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>val_loss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2468,11 +2478,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BF4E89-56A3-4502-BA89-E13C3B2DF54B}">
-  <dimension ref="A1:S77"/>
+  <dimension ref="A1:S78"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N63" sqref="K63:N63"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -2483,9 +2493,7 @@
     <col min="4" max="5" width="18.59765625" style="36" customWidth="1"/>
     <col min="6" max="6" width="8" style="36" customWidth="1"/>
     <col min="7" max="7" width="13" style="36" customWidth="1"/>
-    <col min="8" max="9" width="18.59765625" style="36" customWidth="1"/>
-    <col min="10" max="10" width="18.59765625" style="44" customWidth="1"/>
-    <col min="11" max="11" width="18.59765625" style="36" customWidth="1"/>
+    <col min="8" max="11" width="18.59765625" style="36" customWidth="1"/>
     <col min="12" max="17" width="18.59765625" style="44" customWidth="1"/>
     <col min="18" max="16384" width="8.796875" style="36"/>
   </cols>
@@ -2497,7 +2505,7 @@
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
       <c r="A2" s="36" t="s">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:18" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
@@ -2528,8 +2536,8 @@
       <c r="I3" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="61" t="s">
-        <v>64</v>
+      <c r="J3" s="60" t="s">
+        <v>365</v>
       </c>
       <c r="K3" s="60" t="s">
         <v>255</v>
@@ -2584,8 +2592,8 @@
       <c r="I4" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="49">
-        <v>0.35470000000000002</v>
+      <c r="J4" s="48" t="s">
+        <v>15</v>
       </c>
       <c r="K4" s="48">
         <v>86.14</v>
@@ -2613,9 +2621,6 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J5" s="44" t="s">
-        <v>339</v>
-      </c>
       <c r="K5" s="36">
         <v>78.17</v>
       </c>
@@ -2642,9 +2647,6 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J6" s="44">
-        <v>0.3639</v>
-      </c>
       <c r="K6" s="36">
         <v>84.96</v>
       </c>
@@ -2671,9 +2673,6 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J7" s="44" t="s">
-        <v>339</v>
-      </c>
       <c r="K7" s="36">
         <v>79.650000000000006</v>
       </c>
@@ -2700,9 +2699,6 @@
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J8" s="44">
-        <v>0.33939999999999998</v>
-      </c>
       <c r="K8" s="36">
         <v>84.96</v>
       </c>
@@ -2756,8 +2752,8 @@
       <c r="I9" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="45">
-        <v>0.18079999999999999</v>
+      <c r="J9" s="41" t="s">
+        <v>258</v>
       </c>
       <c r="K9" s="41">
         <v>86.14</v>
@@ -2794,9 +2790,7 @@
       <c r="G10" s="37"/>
       <c r="H10" s="37"/>
       <c r="I10" s="37"/>
-      <c r="J10" s="46">
-        <v>0.1424</v>
-      </c>
+      <c r="J10" s="37"/>
       <c r="K10" s="40">
         <v>86.43</v>
       </c>
@@ -2832,9 +2826,7 @@
       <c r="G11" s="37"/>
       <c r="H11" s="37"/>
       <c r="I11" s="37"/>
-      <c r="J11" s="46">
-        <v>0.1152</v>
-      </c>
+      <c r="J11" s="37"/>
       <c r="K11" s="40">
         <v>87.02</v>
       </c>
@@ -2870,9 +2862,7 @@
       <c r="G12" s="37"/>
       <c r="H12" s="37"/>
       <c r="I12" s="37"/>
-      <c r="J12" s="46">
-        <v>5.0299999999999997E-2</v>
-      </c>
+      <c r="J12" s="37"/>
       <c r="K12" s="40">
         <v>87.02</v>
       </c>
@@ -2908,9 +2898,7 @@
       <c r="G13" s="37"/>
       <c r="H13" s="37"/>
       <c r="I13" s="37"/>
-      <c r="J13" s="46">
-        <v>0.2276</v>
-      </c>
+      <c r="J13" s="37"/>
       <c r="K13" s="40">
         <v>85.84</v>
       </c>
@@ -2964,8 +2952,8 @@
       <c r="I14" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="45">
-        <v>2.98E-2</v>
+      <c r="J14" s="41" t="s">
+        <v>258</v>
       </c>
       <c r="K14" s="41">
         <v>86.43</v>
@@ -3002,9 +2990,7 @@
       <c r="G15" s="37"/>
       <c r="H15" s="37"/>
       <c r="I15" s="37"/>
-      <c r="J15" s="46">
-        <v>0.06</v>
-      </c>
+      <c r="J15" s="37"/>
       <c r="K15" s="40">
         <v>89.68</v>
       </c>
@@ -3040,9 +3026,7 @@
       <c r="G16" s="37"/>
       <c r="H16" s="37"/>
       <c r="I16" s="37"/>
-      <c r="J16" s="46">
-        <v>4.6600000000000003E-2</v>
-      </c>
+      <c r="J16" s="37"/>
       <c r="K16" s="40">
         <v>89.09</v>
       </c>
@@ -3069,9 +3053,6 @@
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J17" s="46">
-        <v>6.8400000000000002E-2</v>
-      </c>
       <c r="K17" s="40">
         <v>87.61</v>
       </c>
@@ -3098,9 +3079,6 @@
       </c>
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J18" s="46">
-        <v>5.5599999999999997E-2</v>
-      </c>
       <c r="K18" s="40">
         <v>87.91</v>
       </c>
@@ -3154,8 +3132,8 @@
       <c r="I19" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="45">
-        <v>0.22720000000000001</v>
+      <c r="J19" s="41" t="s">
+        <v>258</v>
       </c>
       <c r="K19" s="41">
         <v>85.55</v>
@@ -3192,9 +3170,7 @@
       <c r="G20" s="40"/>
       <c r="H20" s="40"/>
       <c r="I20" s="40"/>
-      <c r="J20" s="46">
-        <v>0.22559999999999999</v>
-      </c>
+      <c r="J20" s="40"/>
       <c r="K20" s="40">
         <v>86.43</v>
       </c>
@@ -3221,9 +3197,6 @@
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J21" s="46">
-        <v>0.32279999999999998</v>
-      </c>
       <c r="K21" s="40">
         <v>86.73</v>
       </c>
@@ -3250,9 +3223,6 @@
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J22" s="46">
-        <v>0.32429999999999998</v>
-      </c>
       <c r="K22" s="40">
         <v>82.01</v>
       </c>
@@ -3279,9 +3249,6 @@
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="J23" s="46">
-        <v>0.35299999999999998</v>
-      </c>
       <c r="K23" s="40">
         <v>84.66</v>
       </c>
@@ -3335,8 +3302,8 @@
       <c r="I24" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="45">
-        <v>0.28770000000000001</v>
+      <c r="J24" s="41" t="s">
+        <v>258</v>
       </c>
       <c r="K24" s="41">
         <v>86.14</v>
@@ -3373,9 +3340,7 @@
       <c r="G25" s="40"/>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
-      <c r="J25" s="46">
-        <v>0.27810000000000001</v>
-      </c>
+      <c r="J25" s="40"/>
       <c r="K25" s="40">
         <v>85.55</v>
       </c>
@@ -3429,8 +3394,8 @@
       <c r="I26" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="J26" s="46">
-        <v>0.14430000000000001</v>
+      <c r="J26" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="K26" s="40">
         <v>87.91</v>
@@ -3467,9 +3432,7 @@
       <c r="G27" s="40"/>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
-      <c r="J27" s="46">
-        <v>0.1482</v>
-      </c>
+      <c r="J27" s="40"/>
       <c r="K27" s="40">
         <v>88.2</v>
       </c>
@@ -3505,9 +3468,7 @@
       <c r="G28" s="40"/>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
-      <c r="J28" s="46">
-        <v>0.14680000000000001</v>
-      </c>
+      <c r="J28" s="40"/>
       <c r="K28" s="40">
         <v>87.61</v>
       </c>
@@ -3543,9 +3504,7 @@
       <c r="G29" s="40"/>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
-      <c r="J29" s="46">
-        <v>0.14280000000000001</v>
-      </c>
+      <c r="J29" s="40"/>
       <c r="K29" s="40">
         <v>87.91</v>
       </c>
@@ -3581,9 +3540,7 @@
       <c r="G30" s="40"/>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
-      <c r="J30" s="46">
-        <v>0.14510000000000001</v>
-      </c>
+      <c r="J30" s="40"/>
       <c r="K30" s="40">
         <v>87.91</v>
       </c>
@@ -3637,8 +3594,8 @@
       <c r="I31" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="46">
-        <v>0.14580000000000001</v>
+      <c r="J31" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="K31" s="40">
         <v>88.2</v>
@@ -3675,9 +3632,7 @@
       <c r="G32" s="40"/>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
-      <c r="J32" s="46">
-        <v>0.14560000000000001</v>
-      </c>
+      <c r="J32" s="40"/>
       <c r="K32" s="40">
         <v>88.2</v>
       </c>
@@ -3731,8 +3686,8 @@
       <c r="I33" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="46">
-        <v>0.14749999999999999</v>
+      <c r="J33" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="K33" s="40">
         <v>88.2</v>
@@ -3769,9 +3724,7 @@
       <c r="G34" s="40"/>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
-      <c r="J34" s="46">
-        <v>0.1462</v>
-      </c>
+      <c r="J34" s="40"/>
       <c r="K34" s="40">
         <v>88.2</v>
       </c>
@@ -3825,8 +3778,8 @@
       <c r="I35" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="46">
-        <v>0.1454</v>
+      <c r="J35" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="K35" s="40">
         <v>87.91</v>
@@ -3863,9 +3816,7 @@
       <c r="G36" s="40"/>
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
-      <c r="J36" s="46">
-        <v>0.14480000000000001</v>
-      </c>
+      <c r="J36" s="40"/>
       <c r="K36" s="40">
         <v>87.91</v>
       </c>
@@ -3919,8 +3870,8 @@
       <c r="I37" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="46">
-        <v>2.9600000000000001E-2</v>
+      <c r="J37" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="K37" s="40">
         <v>87.02</v>
@@ -3957,9 +3908,7 @@
       <c r="G38" s="40"/>
       <c r="H38" s="40"/>
       <c r="I38" s="40"/>
-      <c r="J38" s="46">
-        <v>2.6800000000000001E-2</v>
-      </c>
+      <c r="J38" s="40"/>
       <c r="K38" s="40">
         <v>87.61</v>
       </c>
@@ -4013,8 +3962,8 @@
       <c r="I39" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J39" s="46">
-        <v>0.1459</v>
+      <c r="J39" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="K39" s="40">
         <v>86.43</v>
@@ -4051,9 +4000,7 @@
       <c r="G40" s="40"/>
       <c r="H40" s="40"/>
       <c r="I40" s="40"/>
-      <c r="J40" s="46">
-        <v>0.15160000000000001</v>
-      </c>
+      <c r="J40" s="40"/>
       <c r="K40" s="40">
         <v>87.02</v>
       </c>
@@ -4107,8 +4054,8 @@
       <c r="I41" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J41" s="46">
-        <v>0.16520000000000001</v>
+      <c r="J41" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="K41" s="40">
         <v>87.32</v>
@@ -4145,9 +4092,7 @@
       <c r="G42" s="40"/>
       <c r="H42" s="40"/>
       <c r="I42" s="40"/>
-      <c r="J42" s="46">
-        <v>0.17</v>
-      </c>
+      <c r="J42" s="40"/>
       <c r="K42" s="40">
         <v>87.91</v>
       </c>
@@ -4201,8 +4146,8 @@
       <c r="I43" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J43" s="46">
-        <v>0.29870000000000002</v>
+      <c r="J43" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="K43" s="40">
         <v>86.43</v>
@@ -4257,8 +4202,8 @@
       <c r="I44" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J44" s="46">
-        <v>0.2177</v>
+      <c r="J44" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="K44" s="40">
         <v>87.61</v>
@@ -4313,8 +4258,8 @@
       <c r="I45" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="46">
-        <v>0.2601</v>
+      <c r="J45" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="K45" s="40">
         <v>88.2</v>
@@ -4351,9 +4296,7 @@
       <c r="G46" s="40"/>
       <c r="H46" s="40"/>
       <c r="I46" s="40"/>
-      <c r="J46" s="46">
-        <v>0.2611</v>
-      </c>
+      <c r="J46" s="40"/>
       <c r="K46" s="40">
         <v>87.32</v>
       </c>
@@ -4407,8 +4350,8 @@
       <c r="I47" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="46">
-        <v>0.19059999999999999</v>
+      <c r="J47" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="K47" s="40">
         <v>89.09</v>
@@ -4445,9 +4388,7 @@
       <c r="G48" s="40"/>
       <c r="H48" s="40"/>
       <c r="I48" s="40"/>
-      <c r="J48" s="46">
-        <v>0.18870000000000001</v>
-      </c>
+      <c r="J48" s="40"/>
       <c r="K48" s="40">
         <v>88.79</v>
       </c>
@@ -4501,8 +4442,8 @@
       <c r="I49" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J49" s="46">
-        <v>0.2271</v>
+      <c r="J49" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="K49" s="40">
         <v>89.68</v>
@@ -4539,9 +4480,7 @@
       <c r="G50" s="40"/>
       <c r="H50" s="40"/>
       <c r="I50" s="40"/>
-      <c r="J50" s="46">
-        <v>0.2298</v>
-      </c>
+      <c r="J50" s="40"/>
       <c r="K50" s="40">
         <v>89.97</v>
       </c>
@@ -4568,9 +4507,6 @@
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J51" s="46">
-        <v>0.22839999999999999</v>
-      </c>
       <c r="K51" s="40">
         <v>89.68</v>
       </c>
@@ -4597,9 +4533,6 @@
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J52" s="46">
-        <v>0.23019999999999999</v>
-      </c>
       <c r="K52" s="40">
         <v>89.68</v>
       </c>
@@ -4626,9 +4559,6 @@
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J53" s="46">
-        <v>0.23</v>
-      </c>
       <c r="K53" s="40">
         <v>89.97</v>
       </c>
@@ -4682,8 +4612,8 @@
       <c r="I54" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J54" s="46">
-        <v>0.2465</v>
+      <c r="J54" s="40" t="s">
+        <v>258</v>
       </c>
       <c r="K54" s="40">
         <v>88.5</v>
@@ -4720,9 +4650,7 @@
       <c r="G55" s="40"/>
       <c r="H55" s="40"/>
       <c r="I55" s="40"/>
-      <c r="J55" s="46">
-        <v>0.24579999999999999</v>
-      </c>
+      <c r="J55" s="40"/>
       <c r="K55" s="40">
         <v>89.09</v>
       </c>
@@ -4776,8 +4704,8 @@
       <c r="I56" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="46">
-        <v>0.27179999999999999</v>
+      <c r="J56" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="K56" s="40">
         <v>87.02</v>
@@ -4805,9 +4733,6 @@
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J57" s="46">
-        <v>0.2954</v>
-      </c>
       <c r="K57" s="40">
         <v>87.32</v>
       </c>
@@ -4861,8 +4786,8 @@
       <c r="I58" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J58" s="46">
-        <v>0.26540000000000002</v>
+      <c r="J58" s="37" t="s">
+        <v>258</v>
       </c>
       <c r="K58" s="40">
         <v>85.25</v>
@@ -4890,9 +4815,6 @@
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J59" s="46">
-        <v>0.2656</v>
-      </c>
       <c r="K59" s="40">
         <v>87.32</v>
       </c>
@@ -4946,8 +4868,8 @@
       <c r="I60" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J60" s="46">
-        <v>0.22989999999999999</v>
+      <c r="J60" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="K60" s="36">
         <v>89.68</v>
@@ -4975,9 +4897,6 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J61" s="44">
-        <v>0.22989999999999999</v>
-      </c>
       <c r="K61" s="36">
         <v>89.68</v>
       </c>
@@ -5031,8 +4950,8 @@
       <c r="I62" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J62" s="44">
-        <v>0.22570000000000001</v>
+      <c r="J62" s="39" t="s">
+        <v>258</v>
       </c>
       <c r="K62" s="36">
         <v>89.68</v>
@@ -5060,9 +4979,6 @@
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J63" s="44">
-        <v>0.22420000000000001</v>
-      </c>
       <c r="K63" s="36">
         <v>90.27</v>
       </c>
@@ -5089,9 +5005,6 @@
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="J64" s="44">
-        <v>0.22500000000000001</v>
-      </c>
       <c r="K64" s="36">
         <v>89.68</v>
       </c>
@@ -5114,13 +5027,10 @@
         <v>0.89229999999999998</v>
       </c>
       <c r="R64" s="36" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="J65" s="44">
-        <v>0.22600000000000001</v>
-      </c>
       <c r="K65" s="36">
         <v>89.97</v>
       </c>
@@ -5143,13 +5053,10 @@
         <v>0.89570000000000005</v>
       </c>
       <c r="R65" s="36" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="J66" s="44">
-        <v>0.2238</v>
-      </c>
       <c r="K66" s="36">
         <v>89.68</v>
       </c>
@@ -5172,7 +5079,7 @@
         <v>0.89229999999999998</v>
       </c>
       <c r="R66" s="36" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.4">
@@ -5203,8 +5110,8 @@
       <c r="I67" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J67" s="44">
-        <v>0.19919999999999999</v>
+      <c r="J67" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="K67" s="36">
         <v>88.2</v>
@@ -5232,9 +5139,6 @@
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="J68" s="44">
-        <v>0.19550000000000001</v>
-      </c>
       <c r="K68" s="36">
         <v>88.5</v>
       </c>
@@ -5289,8 +5193,8 @@
       <c r="I69" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J69" s="44">
-        <v>0.19170000000000001</v>
+      <c r="J69" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="K69" s="36">
         <v>89.09</v>
@@ -5318,9 +5222,6 @@
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="J70" s="44">
-        <v>0.1913</v>
-      </c>
       <c r="K70" s="36">
         <v>90.27</v>
       </c>
@@ -5347,9 +5248,6 @@
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="J71" s="44">
-        <v>0.191</v>
-      </c>
       <c r="K71" s="36">
         <v>90.27</v>
       </c>
@@ -5372,13 +5270,10 @@
         <v>0.8972</v>
       </c>
       <c r="R71" s="36" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="J72" s="44">
-        <v>0.1908</v>
-      </c>
       <c r="K72" s="36">
         <v>89.09</v>
       </c>
@@ -5401,13 +5296,10 @@
         <v>0.88690000000000002</v>
       </c>
       <c r="R72" s="36" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="J73" s="44">
-        <v>0.19189999999999999</v>
-      </c>
       <c r="K73" s="36">
         <v>89.38</v>
       </c>
@@ -5430,7 +5322,7 @@
         <v>0.88819999999999999</v>
       </c>
       <c r="R73" s="36" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.4">
@@ -5461,8 +5353,8 @@
       <c r="I74" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J74" s="44">
-        <v>0.2165</v>
+      <c r="J74" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="K74" s="36">
         <v>88.5</v>
@@ -5490,9 +5382,6 @@
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="J75" s="44">
-        <v>0.2195</v>
-      </c>
       <c r="K75" s="36">
         <v>88.2</v>
       </c>
@@ -5520,7 +5409,7 @@
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A76" s="37" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B76" s="36" t="s">
         <v>66</v>
@@ -5546,8 +5435,8 @@
       <c r="I76" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J76" s="44">
-        <v>0.19350000000000001</v>
+      <c r="J76" s="36" t="s">
+        <v>258</v>
       </c>
       <c r="K76" s="36">
         <v>88.79</v>
@@ -5571,13 +5460,10 @@
         <v>0.88049999999999995</v>
       </c>
       <c r="R76" s="36" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="J77" s="44">
-        <v>0.1938</v>
-      </c>
       <c r="K77" s="36">
         <v>89.09</v>
       </c>
@@ -5600,7 +5486,39 @@
         <v>0.88690000000000002</v>
       </c>
       <c r="R77" s="36" t="s">
-        <v>361</v>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A78" s="36" t="s">
+        <v>339</v>
+      </c>
+      <c r="B78" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="C78" s="36" t="s">
+        <v>276</v>
+      </c>
+      <c r="D78" s="36">
+        <v>256</v>
+      </c>
+      <c r="E78" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="F78" s="36">
+        <v>90</v>
+      </c>
+      <c r="G78" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H78" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="I78" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="J78" s="36" t="s">
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5638,7 +5556,7 @@
   <dimension ref="A3:W11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -5651,7 +5569,8 @@
     <col min="7" max="7" width="14.296875" style="53" customWidth="1"/>
     <col min="8" max="8" width="16.59765625" style="53" customWidth="1"/>
     <col min="9" max="9" width="17.296875" style="53" customWidth="1"/>
-    <col min="10" max="18" width="17.796875" style="53" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" style="53" customWidth="1"/>
+    <col min="11" max="18" width="17.796875" style="53" customWidth="1"/>
     <col min="19" max="16384" width="8.796875" style="53"/>
   </cols>
   <sheetData>
@@ -5684,7 +5603,7 @@
         <v>58</v>
       </c>
       <c r="J3" s="51" t="s">
-        <v>64</v>
+        <v>364</v>
       </c>
       <c r="K3" s="51" t="s">
         <v>255</v>
@@ -5740,7 +5659,7 @@
         <v>59</v>
       </c>
       <c r="J4" s="54" t="s">
-        <v>23</v>
+        <v>366</v>
       </c>
       <c r="K4" s="53">
         <v>90.71</v>
@@ -5764,7 +5683,7 @@
         <v>0.90300000000000002</v>
       </c>
       <c r="R4" s="53" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="S4" s="53"/>
       <c r="T4" s="53"/>
@@ -5800,8 +5719,8 @@
       <c r="I5" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="56">
-        <v>2.2000000000000001E-3</v>
+      <c r="J5" s="54" t="s">
+        <v>15</v>
       </c>
       <c r="K5" s="56">
         <v>91.98</v>
@@ -5897,7 +5816,7 @@
       <c r="I7" s="54" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="56"/>
+      <c r="J7" s="54"/>
       <c r="K7" s="56"/>
       <c r="L7" s="56"/>
       <c r="M7" s="56"/>
@@ -5946,7 +5865,7 @@
       <c r="G9" s="54"/>
       <c r="H9" s="54"/>
       <c r="I9" s="54"/>
-      <c r="J9" s="56"/>
+      <c r="J9" s="54"/>
       <c r="K9" s="56"/>
       <c r="L9" s="56"/>
       <c r="M9" s="56"/>
@@ -5966,7 +5885,7 @@
       <c r="G10" s="58"/>
       <c r="H10" s="58"/>
       <c r="I10" s="58"/>
-      <c r="J10" s="54"/>
+      <c r="J10" s="58"/>
       <c r="K10" s="54"/>
       <c r="L10" s="54"/>
       <c r="M10" s="54"/>
@@ -9196,7 +9115,7 @@
         <v>0.91010000000000002</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="J7" s="12">
         <v>0.9012</v>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,18 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1488A-307B-4394-9A33-7CFC717E999D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13F9A6C-FE78-4129-8FC9-1905F235C177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" tabRatio="660" firstSheet="1" activeTab="2" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="11004" yWindow="25788" windowWidth="23304" windowHeight="13944" tabRatio="660" firstSheet="1" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
-    <sheet name="real (Sewer-TAPNEW)" sheetId="7" r:id="rId2"/>
-    <sheet name="real2 (Sewer-ML)" sheetId="8" r:id="rId3"/>
-    <sheet name="Sewer-TAPNEW" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="6" r:id="rId5"/>
-    <sheet name="recipe" sheetId="5" r:id="rId6"/>
-    <sheet name="Sewer-ML" sheetId="1" r:id="rId7"/>
+    <sheet name="f1 (Sewer-TAPNEW)" sheetId="7" r:id="rId2"/>
+    <sheet name="f1 (Sewer-ML)" sheetId="10" r:id="rId3"/>
+    <sheet name="valloss (Sewer-TAPNEW)" sheetId="9" r:id="rId4"/>
+    <sheet name="valloss (Sewer-ML)" sheetId="8" r:id="rId5"/>
+    <sheet name="Sewer-TAPNEW" sheetId="3" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId7"/>
+    <sheet name="recipe" sheetId="5" r:id="rId8"/>
+    <sheet name="Sewer-ML" sheetId="1" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="367">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="412">
   <si>
     <t>모델</t>
   </si>
@@ -1339,7 +1341,147 @@
   </si>
   <si>
     <t>val_loss</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>val_loss</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_165007</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_165010</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_165103</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_165106</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_172252</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_172253</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_172359</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_172405</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_175631</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.001, ps112, drop0.2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_180006</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_182758</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.01, ps112, drop0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_183042</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251114_183043</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251114_230634</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251114_230649</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251114_230706</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251114_230657</t>
+  </si>
+  <si>
+    <t>SGD Momentum</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251115_043509</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251115_043520</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251115_043537</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251115_043545</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_mobilenet_v4_20251115_053416</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_mobilenet_v4_20251115_053417</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_mobilenet_v4_20251115_053418</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_mobilenet_v4_20251115_053419</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_xie2019_20251115_060858</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_xie2019_20251115_060859</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_xie2019_20251115_060900</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_xie2019_20251115_060901</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_resnet18_20251115_064509</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_efficientnet_b0_20251115_064518</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/baseline_mobilenet_v4_20251115_064527</t>
+  </si>
+  <si>
+    <t>log/Sewer-ML/baseline_resnet18_20251115_022740</t>
+  </si>
+  <si>
+    <t>log/Sewer-ML/baseline_efficientnet_b0_20251115_154854</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_071914</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_071915</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_071918</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_072026</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.01, ps56, drop0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_075111</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_095755</t>
   </si>
 </sst>
 </file>
@@ -1491,7 +1633,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1562,6 +1704,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1571,7 +1722,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1680,16 +1831,13 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1759,6 +1907,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="186" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2478,2447 +2632,2447 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BF4E89-56A3-4502-BA89-E13C3B2DF54B}">
-  <dimension ref="A1:S78"/>
+  <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <pane ySplit="3" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="57.3984375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="36" customWidth="1"/>
-    <col min="4" max="5" width="18.59765625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="8" style="36" customWidth="1"/>
-    <col min="7" max="7" width="13" style="36" customWidth="1"/>
-    <col min="8" max="11" width="18.59765625" style="36" customWidth="1"/>
-    <col min="12" max="17" width="18.59765625" style="44" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="36"/>
+    <col min="1" max="1" width="57.3984375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="37" customWidth="1"/>
+    <col min="4" max="5" width="18.59765625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="8" style="37" customWidth="1"/>
+    <col min="7" max="7" width="13" style="37" customWidth="1"/>
+    <col min="8" max="11" width="18.59765625" style="37" customWidth="1"/>
+    <col min="12" max="17" width="18.59765625" style="43" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="62" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="60" t="s">
+    <row r="3" spans="1:18" s="61" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="59" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="59" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="60" t="s">
+      <c r="D3" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="60" t="s">
+      <c r="E3" s="59" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="60" t="s">
+      <c r="F3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="60" t="s">
+      <c r="G3" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="60" t="s">
+      <c r="H3" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="60" t="s">
+      <c r="I3" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="60" t="s">
+      <c r="J3" s="59" t="s">
         <v>365</v>
       </c>
-      <c r="K3" s="60" t="s">
+      <c r="K3" s="59" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="61" t="s">
+      <c r="L3" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="M3" s="61" t="s">
+      <c r="M3" s="60" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="61" t="s">
+      <c r="N3" s="60" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="61" t="s">
+      <c r="O3" s="60" t="s">
         <v>259</v>
       </c>
-      <c r="P3" s="61" t="s">
+      <c r="P3" s="60" t="s">
         <v>260</v>
       </c>
-      <c r="Q3" s="61" t="s">
+      <c r="Q3" s="60" t="s">
         <v>261</v>
       </c>
-      <c r="R3" s="60" t="s">
+      <c r="R3" s="59" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="50" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="48" t="s">
+    <row r="4" spans="1:18" s="49" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="47" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="48" t="s">
+      <c r="B4" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="47" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="48">
+      <c r="D4" s="47">
         <v>256</v>
       </c>
-      <c r="E4" s="48" t="s">
+      <c r="E4" s="47" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="48">
+      <c r="F4" s="47">
         <v>90</v>
       </c>
-      <c r="G4" s="48" t="b">
+      <c r="G4" s="47" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="48" t="s">
+      <c r="J4" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="48">
+      <c r="K4" s="47">
         <v>86.14</v>
       </c>
-      <c r="L4" s="49">
+      <c r="L4" s="48">
         <v>0.86519999999999997</v>
       </c>
-      <c r="M4" s="49">
+      <c r="M4" s="48">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N4" s="49">
+      <c r="N4" s="48">
         <v>0.86760000000000004</v>
       </c>
-      <c r="O4" s="49">
+      <c r="O4" s="48">
         <v>0.85709999999999997</v>
       </c>
-      <c r="P4" s="49">
+      <c r="P4" s="48">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q4" s="49">
+      <c r="Q4" s="48">
         <v>0.85450000000000004</v>
       </c>
-      <c r="R4" s="48" t="s">
+      <c r="R4" s="47" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K5" s="36">
+      <c r="K5" s="37">
         <v>78.17</v>
       </c>
-      <c r="L5" s="44">
+      <c r="L5" s="43">
         <v>0.72689999999999999</v>
       </c>
-      <c r="M5" s="44">
+      <c r="M5" s="43">
         <v>0.93220000000000003</v>
       </c>
-      <c r="N5" s="44">
+      <c r="N5" s="43">
         <v>0.81679999999999997</v>
       </c>
-      <c r="O5" s="44">
+      <c r="O5" s="43">
         <v>0.89290000000000003</v>
       </c>
-      <c r="P5" s="44">
+      <c r="P5" s="43">
         <v>0.61729999999999996</v>
       </c>
-      <c r="Q5" s="44">
+      <c r="Q5" s="43">
         <v>0.72989999999999999</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="37" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K6" s="36">
+      <c r="K6" s="37">
         <v>84.96</v>
       </c>
-      <c r="L6" s="44">
+      <c r="L6" s="43">
         <v>0.8841</v>
       </c>
-      <c r="M6" s="44">
+      <c r="M6" s="43">
         <v>0.81920000000000004</v>
       </c>
-      <c r="N6" s="44">
+      <c r="N6" s="43">
         <v>0.85040000000000004</v>
       </c>
-      <c r="O6" s="44">
+      <c r="O6" s="43">
         <v>0.81710000000000005</v>
       </c>
-      <c r="P6" s="44">
+      <c r="P6" s="43">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q6" s="44">
+      <c r="Q6" s="43">
         <v>0.84870000000000001</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="37" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K7" s="36">
+      <c r="K7" s="37">
         <v>79.650000000000006</v>
       </c>
-      <c r="L7" s="44">
+      <c r="L7" s="43">
         <v>0.7389</v>
       </c>
-      <c r="M7" s="44">
+      <c r="M7" s="43">
         <v>0.94350000000000001</v>
       </c>
-      <c r="N7" s="44">
+      <c r="N7" s="43">
         <v>0.82879999999999998</v>
       </c>
-      <c r="O7" s="44">
+      <c r="O7" s="43">
         <v>0.91149999999999998</v>
       </c>
-      <c r="P7" s="44">
+      <c r="P7" s="43">
         <v>0.63580000000000003</v>
       </c>
-      <c r="Q7" s="44">
+      <c r="Q7" s="43">
         <v>0.74909999999999999</v>
       </c>
-      <c r="R7" s="36" t="s">
+      <c r="R7" s="37" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K8" s="36">
+      <c r="K8" s="37">
         <v>84.96</v>
       </c>
-      <c r="L8" s="44">
+      <c r="L8" s="43">
         <v>0.85</v>
       </c>
-      <c r="M8" s="44">
+      <c r="M8" s="43">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N8" s="44">
+      <c r="N8" s="43">
         <v>0.85709999999999997</v>
       </c>
-      <c r="O8" s="44">
+      <c r="O8" s="43">
         <v>0.84909999999999997</v>
       </c>
-      <c r="P8" s="44">
+      <c r="P8" s="43">
         <v>0.83330000000000004</v>
       </c>
-      <c r="Q8" s="44">
+      <c r="Q8" s="43">
         <v>0.84109999999999996</v>
       </c>
-      <c r="R8" s="36" t="s">
+      <c r="R8" s="37" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="42" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="41" t="s">
+    <row r="9" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="40">
         <v>256</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="40">
         <v>90</v>
       </c>
-      <c r="G9" s="41" t="b">
+      <c r="G9" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="41" t="s">
+      <c r="H9" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="41" t="s">
+      <c r="I9" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="41" t="s">
+      <c r="J9" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K9" s="41">
+      <c r="K9" s="40">
         <v>86.14</v>
       </c>
-      <c r="L9" s="45">
+      <c r="L9" s="44">
         <v>0.86519999999999997</v>
       </c>
-      <c r="M9" s="45">
+      <c r="M9" s="44">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N9" s="45">
+      <c r="N9" s="44">
         <v>0.86760000000000004</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="44">
         <v>0.85709999999999997</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="44">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q9" s="45">
+      <c r="Q9" s="44">
         <v>0.85450000000000004</v>
       </c>
-      <c r="R9" s="41" t="s">
+      <c r="R9" s="40" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
-      <c r="K10" s="40">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39">
         <v>86.43</v>
       </c>
-      <c r="L10" s="46">
+      <c r="L10" s="45">
         <v>0.87009999999999998</v>
       </c>
-      <c r="M10" s="46">
+      <c r="M10" s="45">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="45">
         <v>0.87009999999999998</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="45">
         <v>0.85799999999999998</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="45">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q10" s="46">
+      <c r="Q10" s="45">
         <v>0.85799999999999998</v>
       </c>
-      <c r="R10" s="40" t="s">
+      <c r="R10" s="39" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="40">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39">
         <v>87.02</v>
       </c>
-      <c r="L11" s="46">
+      <c r="L11" s="45">
         <v>0.87570000000000003</v>
       </c>
-      <c r="M11" s="46">
+      <c r="M11" s="45">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="45">
         <v>0.87570000000000003</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="45">
         <v>0.86419999999999997</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="45">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q11" s="46">
+      <c r="Q11" s="45">
         <v>0.86419999999999997</v>
       </c>
-      <c r="R11" s="40" t="s">
+      <c r="R11" s="39" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-      <c r="K12" s="40">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39">
         <v>87.02</v>
       </c>
-      <c r="L12" s="46">
+      <c r="L12" s="45">
         <v>0.86739999999999995</v>
       </c>
-      <c r="M12" s="46">
+      <c r="M12" s="45">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="45">
         <v>0.87709999999999999</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="45">
         <v>0.87339999999999995</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="45">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q12" s="46">
+      <c r="Q12" s="45">
         <v>0.86250000000000004</v>
       </c>
-      <c r="R12" s="40" t="s">
+      <c r="R12" s="39" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="40">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39">
         <v>85.84</v>
       </c>
-      <c r="L13" s="46">
+      <c r="L13" s="45">
         <v>0.88170000000000004</v>
       </c>
-      <c r="M13" s="46">
+      <c r="M13" s="45">
         <v>0.84179999999999999</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="45">
         <v>0.86129999999999995</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="45">
         <v>0.83530000000000004</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="45">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q13" s="46">
+      <c r="Q13" s="45">
         <v>0.85540000000000005</v>
       </c>
-      <c r="R13" s="40" t="s">
+      <c r="R13" s="39" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="42" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="41" t="s">
+    <row r="14" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="41">
+      <c r="D14" s="40">
         <v>256</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="41">
+      <c r="F14" s="40">
         <v>90</v>
       </c>
-      <c r="G14" s="41" t="b">
+      <c r="G14" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="41" t="s">
+      <c r="H14" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="41" t="s">
+      <c r="I14" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="41" t="s">
+      <c r="J14" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K14" s="41">
+      <c r="K14" s="40">
         <v>86.43</v>
       </c>
-      <c r="L14" s="45">
+      <c r="L14" s="44">
         <v>0.87860000000000005</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="44">
         <v>0.85880000000000001</v>
       </c>
-      <c r="N14" s="45">
+      <c r="N14" s="44">
         <v>0.86860000000000004</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="44">
         <v>0.84940000000000004</v>
       </c>
-      <c r="P14" s="45">
+      <c r="P14" s="44">
         <v>0.87039999999999995</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="44">
         <v>0.85980000000000001</v>
       </c>
-      <c r="R14" s="41" t="s">
+      <c r="R14" s="40" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="40">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39">
         <v>89.68</v>
       </c>
-      <c r="L15" s="46">
+      <c r="L15" s="45">
         <v>0.90339999999999998</v>
       </c>
-      <c r="M15" s="46">
+      <c r="M15" s="45">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N15" s="46">
+      <c r="N15" s="45">
         <v>0.90080000000000005</v>
       </c>
-      <c r="O15" s="46">
+      <c r="O15" s="45">
         <v>0.88959999999999995</v>
       </c>
-      <c r="P15" s="46">
+      <c r="P15" s="45">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q15" s="46">
+      <c r="Q15" s="45">
         <v>0.89229999999999998</v>
       </c>
-      <c r="R15" s="40" t="s">
+      <c r="R15" s="39" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
-      <c r="K16" s="40">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39">
         <v>89.09</v>
       </c>
-      <c r="L16" s="46">
+      <c r="L16" s="45">
         <v>0.90229999999999999</v>
       </c>
-      <c r="M16" s="46">
+      <c r="M16" s="45">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N16" s="46">
+      <c r="N16" s="45">
         <v>0.89459999999999995</v>
       </c>
-      <c r="O16" s="46">
+      <c r="O16" s="45">
         <v>0.87880000000000003</v>
       </c>
-      <c r="P16" s="46">
+      <c r="P16" s="45">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q16" s="46">
+      <c r="Q16" s="45">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R16" s="40" t="s">
+      <c r="R16" s="39" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K17" s="40">
+      <c r="K17" s="39">
         <v>87.61</v>
       </c>
-      <c r="L17" s="44">
+      <c r="L17" s="43">
         <v>0.89470000000000005</v>
       </c>
-      <c r="M17" s="44">
+      <c r="M17" s="43">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N17" s="44">
+      <c r="N17" s="43">
         <v>0.87929999999999997</v>
       </c>
-      <c r="O17" s="44">
+      <c r="O17" s="43">
         <v>0.85709999999999997</v>
       </c>
-      <c r="P17" s="44">
+      <c r="P17" s="43">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q17" s="44">
+      <c r="Q17" s="43">
         <v>0.87270000000000003</v>
       </c>
-      <c r="R17" s="36" t="s">
+      <c r="R17" s="37" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K18" s="40">
+      <c r="K18" s="39">
         <v>87.91</v>
       </c>
-      <c r="L18" s="44">
+      <c r="L18" s="43">
         <v>0.92500000000000004</v>
       </c>
-      <c r="M18" s="44">
+      <c r="M18" s="43">
         <v>0.83620000000000005</v>
       </c>
-      <c r="N18" s="44">
+      <c r="N18" s="43">
         <v>0.87829999999999997</v>
       </c>
-      <c r="O18" s="44">
+      <c r="O18" s="43">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P18" s="44">
+      <c r="P18" s="43">
         <v>0.92589999999999995</v>
       </c>
-      <c r="Q18" s="44">
+      <c r="Q18" s="43">
         <v>0.87980000000000003</v>
       </c>
-      <c r="R18" s="36" t="s">
+      <c r="R18" s="37" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="42" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="41" t="s">
+    <row r="19" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="41">
+      <c r="D19" s="40">
         <v>256</v>
       </c>
-      <c r="E19" s="41" t="s">
+      <c r="E19" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="41">
+      <c r="F19" s="40">
         <v>90</v>
       </c>
-      <c r="G19" s="41" t="b">
+      <c r="G19" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="41" t="s">
+      <c r="H19" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="41" t="s">
+      <c r="I19" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="41" t="s">
+      <c r="J19" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K19" s="41">
+      <c r="K19" s="40">
         <v>85.55</v>
       </c>
-      <c r="L19" s="45">
+      <c r="L19" s="44">
         <v>0.87649999999999995</v>
       </c>
-      <c r="M19" s="45">
+      <c r="M19" s="44">
         <v>0.84179999999999999</v>
       </c>
-      <c r="N19" s="45">
+      <c r="N19" s="44">
         <v>0.85880000000000001</v>
       </c>
-      <c r="O19" s="45">
+      <c r="O19" s="44">
         <v>0.83430000000000004</v>
       </c>
-      <c r="P19" s="45">
+      <c r="P19" s="44">
         <v>0.87039999999999995</v>
       </c>
-      <c r="Q19" s="45">
+      <c r="Q19" s="44">
         <v>0.85199999999999998</v>
       </c>
-      <c r="R19" s="41" t="s">
+      <c r="R19" s="40" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A20" s="40"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="40"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="40"/>
-      <c r="I20" s="40"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="40">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39">
         <v>86.43</v>
       </c>
-      <c r="L20" s="46">
+      <c r="L20" s="45">
         <v>0.87009999999999998</v>
       </c>
-      <c r="M20" s="46">
+      <c r="M20" s="45">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N20" s="46">
+      <c r="N20" s="45">
         <v>0.87009999999999998</v>
       </c>
-      <c r="O20" s="46">
+      <c r="O20" s="45">
         <v>0.85799999999999998</v>
       </c>
-      <c r="P20" s="46">
+      <c r="P20" s="45">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q20" s="46">
+      <c r="Q20" s="45">
         <v>0.85799999999999998</v>
       </c>
-      <c r="R20" s="40" t="s">
+      <c r="R20" s="39" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K21" s="40">
+      <c r="K21" s="39">
         <v>86.73</v>
       </c>
-      <c r="L21" s="44">
+      <c r="L21" s="43">
         <v>0.84740000000000004</v>
       </c>
-      <c r="M21" s="44">
+      <c r="M21" s="43">
         <v>0.90959999999999996</v>
       </c>
-      <c r="N21" s="44">
+      <c r="N21" s="43">
         <v>0.87739999999999996</v>
       </c>
-      <c r="O21" s="44">
+      <c r="O21" s="43">
         <v>0.89259999999999995</v>
       </c>
-      <c r="P21" s="44">
+      <c r="P21" s="43">
         <v>0.82099999999999995</v>
       </c>
-      <c r="Q21" s="44">
+      <c r="Q21" s="43">
         <v>0.85529999999999995</v>
       </c>
-      <c r="R21" s="36" t="s">
+      <c r="R21" s="37" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K22" s="40">
+      <c r="K22" s="39">
         <v>82.01</v>
       </c>
-      <c r="L22" s="44">
+      <c r="L22" s="43">
         <v>0.87660000000000005</v>
       </c>
-      <c r="M22" s="44">
+      <c r="M22" s="43">
         <v>0.76270000000000004</v>
       </c>
-      <c r="N22" s="44">
+      <c r="N22" s="43">
         <v>0.81569999999999998</v>
       </c>
-      <c r="O22" s="44">
+      <c r="O22" s="43">
         <v>0.77300000000000002</v>
       </c>
-      <c r="P22" s="44">
+      <c r="P22" s="43">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q22" s="44">
+      <c r="Q22" s="43">
         <v>0.82420000000000004</v>
       </c>
-      <c r="R22" s="36" t="s">
+      <c r="R22" s="37" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K23" s="40">
+      <c r="K23" s="39">
         <v>84.66</v>
       </c>
-      <c r="L23" s="44">
+      <c r="L23" s="43">
         <v>0.84919999999999995</v>
       </c>
-      <c r="M23" s="44">
+      <c r="M23" s="43">
         <v>0.85880000000000001</v>
       </c>
-      <c r="N23" s="44">
+      <c r="N23" s="43">
         <v>0.85389999999999999</v>
       </c>
-      <c r="O23" s="44">
+      <c r="O23" s="43">
         <v>0.84379999999999999</v>
       </c>
-      <c r="P23" s="44">
+      <c r="P23" s="43">
         <v>0.83330000000000004</v>
       </c>
-      <c r="Q23" s="44">
+      <c r="Q23" s="43">
         <v>0.83850000000000002</v>
       </c>
-      <c r="R23" s="36" t="s">
+      <c r="R23" s="37" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="42" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B24" s="41" t="s">
+      <c r="B24" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="41">
+      <c r="D24" s="40">
         <v>256</v>
       </c>
-      <c r="E24" s="41" t="s">
+      <c r="E24" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="41">
+      <c r="F24" s="40">
         <v>90</v>
       </c>
-      <c r="G24" s="41" t="b">
+      <c r="G24" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="41" t="s">
+      <c r="H24" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="41" t="s">
+      <c r="I24" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="41" t="s">
+      <c r="J24" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K24" s="41">
+      <c r="K24" s="40">
         <v>86.14</v>
       </c>
-      <c r="L24" s="45">
+      <c r="L24" s="44">
         <v>0.89629999999999999</v>
       </c>
-      <c r="M24" s="45">
+      <c r="M24" s="44">
         <v>0.83050000000000002</v>
       </c>
-      <c r="N24" s="45">
+      <c r="N24" s="44">
         <v>0.86219999999999997</v>
       </c>
-      <c r="O24" s="45">
+      <c r="O24" s="44">
         <v>0.8286</v>
       </c>
-      <c r="P24" s="45">
+      <c r="P24" s="44">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q24" s="45">
+      <c r="Q24" s="44">
         <v>0.86050000000000004</v>
       </c>
-      <c r="R24" s="41" t="s">
+      <c r="R24" s="40" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A25" s="40"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="40"/>
-      <c r="D25" s="40"/>
-      <c r="E25" s="40"/>
-      <c r="F25" s="40"/>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40"/>
-      <c r="I25" s="40"/>
-      <c r="J25" s="40"/>
-      <c r="K25" s="40">
+      <c r="A25" s="39"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+      <c r="G25" s="39"/>
+      <c r="H25" s="39"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="39"/>
+      <c r="K25" s="39">
         <v>85.55</v>
       </c>
-      <c r="L25" s="46">
+      <c r="L25" s="45">
         <v>0.8478</v>
       </c>
-      <c r="M25" s="46">
+      <c r="M25" s="45">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N25" s="46">
+      <c r="N25" s="45">
         <v>0.86429999999999996</v>
       </c>
-      <c r="O25" s="46">
+      <c r="O25" s="45">
         <v>0.86450000000000005</v>
       </c>
-      <c r="P25" s="46">
+      <c r="P25" s="45">
         <v>0.82720000000000005</v>
       </c>
-      <c r="Q25" s="46">
+      <c r="Q25" s="45">
         <v>0.84540000000000004</v>
       </c>
-      <c r="R25" s="40" t="s">
+      <c r="R25" s="39" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="38">
         <v>256</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="38">
         <v>90</v>
       </c>
-      <c r="G26" s="37" t="b">
+      <c r="G26" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="J26" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="K26" s="40">
+      <c r="K26" s="39">
         <v>87.91</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="45">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M26" s="46">
+      <c r="M26" s="45">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N26" s="46">
+      <c r="N26" s="45">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O26" s="46">
+      <c r="O26" s="45">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P26" s="46">
+      <c r="P26" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q26" s="46">
+      <c r="Q26" s="45">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R26" s="40" t="s">
+      <c r="R26" s="39" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A27" s="40"/>
-      <c r="B27" s="40"/>
-      <c r="C27" s="40"/>
-      <c r="D27" s="40"/>
-      <c r="E27" s="40"/>
-      <c r="F27" s="40"/>
-      <c r="G27" s="40"/>
-      <c r="H27" s="40"/>
-      <c r="I27" s="40"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="40">
+      <c r="A27" s="39"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="39"/>
+      <c r="H27" s="39"/>
+      <c r="I27" s="39"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="39">
         <v>88.2</v>
       </c>
-      <c r="L27" s="46">
+      <c r="L27" s="45">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M27" s="46">
+      <c r="M27" s="45">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N27" s="46">
+      <c r="N27" s="45">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O27" s="46">
+      <c r="O27" s="45">
         <v>0.872</v>
       </c>
-      <c r="P27" s="46">
+      <c r="P27" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q27" s="46">
+      <c r="Q27" s="45">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R27" s="40" t="s">
+      <c r="R27" s="39" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A28" s="40"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="40"/>
-      <c r="D28" s="40"/>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40">
+      <c r="A28" s="39"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
+      <c r="F28" s="39"/>
+      <c r="G28" s="39"/>
+      <c r="H28" s="39"/>
+      <c r="I28" s="39"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="39">
         <v>87.61</v>
       </c>
-      <c r="L28" s="46">
+      <c r="L28" s="45">
         <v>0.89019999999999999</v>
       </c>
-      <c r="M28" s="46">
+      <c r="M28" s="45">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N28" s="46">
+      <c r="N28" s="45">
         <v>0.88</v>
       </c>
-      <c r="O28" s="46">
+      <c r="O28" s="45">
         <v>0.86140000000000005</v>
       </c>
-      <c r="P28" s="46">
+      <c r="P28" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q28" s="46">
+      <c r="Q28" s="45">
         <v>0.872</v>
       </c>
-      <c r="R28" s="40" t="s">
+      <c r="R28" s="39" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A29" s="40"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="40"/>
-      <c r="D29" s="40"/>
-      <c r="E29" s="40"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="40"/>
-      <c r="I29" s="40"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="40">
+      <c r="A29" s="39"/>
+      <c r="B29" s="39"/>
+      <c r="C29" s="39"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
+      <c r="F29" s="39"/>
+      <c r="G29" s="39"/>
+      <c r="H29" s="39"/>
+      <c r="I29" s="39"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="39">
         <v>87.91</v>
       </c>
-      <c r="L29" s="46">
+      <c r="L29" s="45">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M29" s="46">
+      <c r="M29" s="45">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N29" s="46">
+      <c r="N29" s="45">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O29" s="46">
+      <c r="O29" s="45">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P29" s="46">
+      <c r="P29" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q29" s="46">
+      <c r="Q29" s="45">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R29" s="40" t="s">
+      <c r="R29" s="39" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A30" s="40"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="40">
+      <c r="A30" s="39"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="39"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
+      <c r="F30" s="39"/>
+      <c r="G30" s="39"/>
+      <c r="H30" s="39"/>
+      <c r="I30" s="39"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="39">
         <v>87.91</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="45">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M30" s="46">
+      <c r="M30" s="45">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N30" s="46">
+      <c r="N30" s="45">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O30" s="46">
+      <c r="O30" s="45">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P30" s="46">
+      <c r="P30" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q30" s="46">
+      <c r="Q30" s="45">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R30" s="40" t="s">
+      <c r="R30" s="39" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A31" s="40" t="s">
+      <c r="A31" s="39" t="s">
         <v>278</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="40">
+      <c r="D31" s="39">
         <v>256</v>
       </c>
-      <c r="E31" s="40" t="s">
+      <c r="E31" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="40">
+      <c r="F31" s="39">
         <v>90</v>
       </c>
-      <c r="G31" s="40" t="b">
+      <c r="G31" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="40" t="s">
+      <c r="H31" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="I31" s="40" t="s">
+      <c r="I31" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="40" t="s">
+      <c r="J31" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="K31" s="40">
+      <c r="K31" s="39">
         <v>88.2</v>
       </c>
-      <c r="L31" s="46">
+      <c r="L31" s="45">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M31" s="46">
+      <c r="M31" s="45">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N31" s="46">
+      <c r="N31" s="45">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O31" s="46">
+      <c r="O31" s="45">
         <v>0.872</v>
       </c>
-      <c r="P31" s="46">
+      <c r="P31" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q31" s="46">
+      <c r="Q31" s="45">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R31" s="40" t="s">
+      <c r="R31" s="39" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A32" s="40"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="40"/>
-      <c r="D32" s="40"/>
-      <c r="E32" s="40"/>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-      <c r="I32" s="40"/>
-      <c r="J32" s="40"/>
-      <c r="K32" s="40">
+      <c r="A32" s="39"/>
+      <c r="B32" s="39"/>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
+      <c r="F32" s="39"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="39"/>
+      <c r="I32" s="39"/>
+      <c r="J32" s="39"/>
+      <c r="K32" s="39">
         <v>88.2</v>
       </c>
-      <c r="L32" s="46">
+      <c r="L32" s="45">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M32" s="46">
+      <c r="M32" s="45">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N32" s="46">
+      <c r="N32" s="45">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O32" s="46">
+      <c r="O32" s="45">
         <v>0.872</v>
       </c>
-      <c r="P32" s="46">
+      <c r="P32" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q32" s="46">
+      <c r="Q32" s="45">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R32" s="40" t="s">
+      <c r="R32" s="39" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A33" s="40" t="s">
+      <c r="A33" s="39" t="s">
         <v>281</v>
       </c>
-      <c r="B33" s="40" t="s">
+      <c r="B33" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="40" t="s">
+      <c r="C33" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="40">
+      <c r="D33" s="39">
         <v>256</v>
       </c>
-      <c r="E33" s="40" t="s">
+      <c r="E33" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="40">
+      <c r="F33" s="39">
         <v>90</v>
       </c>
-      <c r="G33" s="40" t="b">
+      <c r="G33" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="40" t="s">
+      <c r="H33" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="I33" s="40" t="s">
+      <c r="I33" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="40" t="s">
+      <c r="J33" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="K33" s="40">
+      <c r="K33" s="39">
         <v>88.2</v>
       </c>
-      <c r="L33" s="46">
+      <c r="L33" s="45">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M33" s="46">
+      <c r="M33" s="45">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N33" s="46">
+      <c r="N33" s="45">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O33" s="46">
+      <c r="O33" s="45">
         <v>0.872</v>
       </c>
-      <c r="P33" s="46">
+      <c r="P33" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q33" s="46">
+      <c r="Q33" s="45">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R33" s="40" t="s">
+      <c r="R33" s="39" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A34" s="40"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="40"/>
-      <c r="D34" s="40"/>
-      <c r="E34" s="40"/>
-      <c r="F34" s="40"/>
-      <c r="G34" s="40"/>
-      <c r="H34" s="40"/>
-      <c r="I34" s="40"/>
-      <c r="J34" s="40"/>
-      <c r="K34" s="40">
+      <c r="A34" s="39"/>
+      <c r="B34" s="39"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
+      <c r="F34" s="39"/>
+      <c r="G34" s="39"/>
+      <c r="H34" s="39"/>
+      <c r="I34" s="39"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="39">
         <v>88.2</v>
       </c>
-      <c r="L34" s="46">
+      <c r="L34" s="45">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M34" s="46">
+      <c r="M34" s="45">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N34" s="46">
+      <c r="N34" s="45">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O34" s="46">
+      <c r="O34" s="45">
         <v>0.872</v>
       </c>
-      <c r="P34" s="46">
+      <c r="P34" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q34" s="46">
+      <c r="Q34" s="45">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R34" s="40" t="s">
+      <c r="R34" s="39" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A35" s="40" t="s">
+      <c r="A35" s="39" t="s">
         <v>284</v>
       </c>
-      <c r="B35" s="40" t="s">
+      <c r="B35" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="40" t="s">
+      <c r="C35" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="40">
+      <c r="D35" s="39">
         <v>256</v>
       </c>
-      <c r="E35" s="40" t="s">
+      <c r="E35" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="40">
+      <c r="F35" s="39">
         <v>90</v>
       </c>
-      <c r="G35" s="40" t="b">
+      <c r="G35" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="40" t="s">
+      <c r="H35" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="I35" s="40" t="s">
+      <c r="I35" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="40" t="s">
+      <c r="J35" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="K35" s="40">
+      <c r="K35" s="39">
         <v>87.91</v>
       </c>
-      <c r="L35" s="46">
+      <c r="L35" s="45">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M35" s="46">
+      <c r="M35" s="45">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N35" s="46">
+      <c r="N35" s="45">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O35" s="46">
+      <c r="O35" s="45">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P35" s="46">
+      <c r="P35" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q35" s="46">
+      <c r="Q35" s="45">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R35" s="40" t="s">
+      <c r="R35" s="39" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A36" s="40"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="40"/>
-      <c r="E36" s="40"/>
-      <c r="F36" s="40"/>
-      <c r="G36" s="40"/>
-      <c r="H36" s="40"/>
-      <c r="I36" s="40"/>
-      <c r="J36" s="40"/>
-      <c r="K36" s="40">
+      <c r="A36" s="39"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="39"/>
+      <c r="E36" s="39"/>
+      <c r="F36" s="39"/>
+      <c r="G36" s="39"/>
+      <c r="H36" s="39"/>
+      <c r="I36" s="39"/>
+      <c r="J36" s="39"/>
+      <c r="K36" s="39">
         <v>87.91</v>
       </c>
-      <c r="L36" s="46">
+      <c r="L36" s="45">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M36" s="46">
+      <c r="M36" s="45">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N36" s="46">
+      <c r="N36" s="45">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O36" s="46">
+      <c r="O36" s="45">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P36" s="46">
+      <c r="P36" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q36" s="46">
+      <c r="Q36" s="45">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R36" s="40" t="s">
+      <c r="R36" s="39" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A37" s="40" t="s">
+      <c r="A37" s="39" t="s">
         <v>287</v>
       </c>
-      <c r="B37" s="40" t="s">
+      <c r="B37" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="40" t="s">
+      <c r="C37" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D37" s="40">
+      <c r="D37" s="39">
         <v>256</v>
       </c>
-      <c r="E37" s="40" t="s">
+      <c r="E37" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="40">
+      <c r="F37" s="39">
         <v>90</v>
       </c>
-      <c r="G37" s="40" t="b">
+      <c r="G37" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="40" t="s">
+      <c r="H37" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="I37" s="40" t="s">
+      <c r="I37" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="40" t="s">
+      <c r="J37" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="K37" s="40">
+      <c r="K37" s="39">
         <v>87.02</v>
       </c>
-      <c r="L37" s="46">
+      <c r="L37" s="45">
         <v>0.88439999999999996</v>
       </c>
-      <c r="M37" s="46">
+      <c r="M37" s="45">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N37" s="46">
+      <c r="N37" s="45">
         <v>0.87429999999999997</v>
       </c>
-      <c r="O37" s="46">
+      <c r="O37" s="45">
         <v>0.85540000000000005</v>
       </c>
-      <c r="P37" s="46">
+      <c r="P37" s="45">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q37" s="46">
+      <c r="Q37" s="45">
         <v>0.8659</v>
       </c>
-      <c r="R37" s="40" t="s">
+      <c r="R37" s="39" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A38" s="40"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="40"/>
-      <c r="G38" s="40"/>
-      <c r="H38" s="40"/>
-      <c r="I38" s="40"/>
-      <c r="J38" s="40"/>
-      <c r="K38" s="40">
+      <c r="A38" s="39"/>
+      <c r="B38" s="39"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="39"/>
+      <c r="E38" s="39"/>
+      <c r="F38" s="39"/>
+      <c r="G38" s="39"/>
+      <c r="H38" s="39"/>
+      <c r="I38" s="39"/>
+      <c r="J38" s="39"/>
+      <c r="K38" s="39">
         <v>87.61</v>
       </c>
-      <c r="L38" s="46">
+      <c r="L38" s="45">
         <v>0.88570000000000004</v>
       </c>
-      <c r="M38" s="46">
+      <c r="M38" s="45">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N38" s="46">
+      <c r="N38" s="45">
         <v>0.88070000000000004</v>
       </c>
-      <c r="O38" s="46">
+      <c r="O38" s="45">
         <v>0.8659</v>
       </c>
-      <c r="P38" s="46">
+      <c r="P38" s="45">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q38" s="46">
+      <c r="Q38" s="45">
         <v>0.87119999999999997</v>
       </c>
-      <c r="R38" s="40" t="s">
+      <c r="R38" s="39" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A39" s="40" t="s">
+      <c r="A39" s="39" t="s">
         <v>290</v>
       </c>
-      <c r="B39" s="40" t="s">
+      <c r="B39" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="40" t="s">
+      <c r="C39" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D39" s="40">
+      <c r="D39" s="39">
         <v>256</v>
       </c>
-      <c r="E39" s="40" t="s">
+      <c r="E39" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="40">
+      <c r="F39" s="39">
         <v>90</v>
       </c>
-      <c r="G39" s="40" t="b">
+      <c r="G39" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="40" t="s">
+      <c r="H39" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="I39" s="40" t="s">
+      <c r="I39" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J39" s="40" t="s">
+      <c r="J39" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="K39" s="40">
+      <c r="K39" s="39">
         <v>86.43</v>
       </c>
-      <c r="L39" s="46">
+      <c r="L39" s="45">
         <v>0.8619</v>
       </c>
-      <c r="M39" s="46">
+      <c r="M39" s="45">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N39" s="46">
+      <c r="N39" s="45">
         <v>0.87150000000000005</v>
       </c>
-      <c r="O39" s="46">
+      <c r="O39" s="45">
         <v>0.86709999999999998</v>
       </c>
-      <c r="P39" s="46">
+      <c r="P39" s="45">
         <v>0.84570000000000001</v>
       </c>
-      <c r="Q39" s="46">
+      <c r="Q39" s="45">
         <v>0.85619999999999996</v>
       </c>
-      <c r="R39" s="40" t="s">
+      <c r="R39" s="39" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A40" s="40"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="40"/>
-      <c r="G40" s="40"/>
-      <c r="H40" s="40"/>
-      <c r="I40" s="40"/>
-      <c r="J40" s="40"/>
-      <c r="K40" s="40">
+      <c r="A40" s="39"/>
+      <c r="B40" s="39"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="39"/>
+      <c r="E40" s="39"/>
+      <c r="F40" s="39"/>
+      <c r="G40" s="39"/>
+      <c r="H40" s="39"/>
+      <c r="I40" s="39"/>
+      <c r="J40" s="39"/>
+      <c r="K40" s="39">
         <v>87.02</v>
       </c>
-      <c r="L40" s="46">
+      <c r="L40" s="45">
         <v>0.88890000000000002</v>
       </c>
-      <c r="M40" s="46">
+      <c r="M40" s="45">
         <v>0.85880000000000001</v>
       </c>
-      <c r="N40" s="46">
+      <c r="N40" s="45">
         <v>0.87360000000000004</v>
       </c>
-      <c r="O40" s="46">
+      <c r="O40" s="45">
         <v>0.85119999999999996</v>
       </c>
-      <c r="P40" s="46">
+      <c r="P40" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q40" s="46">
+      <c r="Q40" s="45">
         <v>0.86670000000000003</v>
       </c>
-      <c r="R40" s="40" t="s">
+      <c r="R40" s="39" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A41" s="40" t="s">
+      <c r="A41" s="39" t="s">
         <v>293</v>
       </c>
-      <c r="B41" s="40" t="s">
+      <c r="B41" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="40" t="s">
+      <c r="C41" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D41" s="40">
+      <c r="D41" s="39">
         <v>256</v>
       </c>
-      <c r="E41" s="40" t="s">
+      <c r="E41" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="40">
+      <c r="F41" s="39">
         <v>90</v>
       </c>
-      <c r="G41" s="40" t="b">
+      <c r="G41" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="40" t="s">
+      <c r="H41" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="I41" s="40" t="s">
+      <c r="I41" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J41" s="40" t="s">
+      <c r="J41" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="K41" s="40">
+      <c r="K41" s="39">
         <v>87.32</v>
       </c>
-      <c r="L41" s="46">
+      <c r="L41" s="45">
         <v>0.86809999999999998</v>
       </c>
-      <c r="M41" s="46">
+      <c r="M41" s="45">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N41" s="46">
+      <c r="N41" s="45">
         <v>0.88019999999999998</v>
       </c>
-      <c r="O41" s="46">
+      <c r="O41" s="45">
         <v>0.879</v>
       </c>
-      <c r="P41" s="46">
+      <c r="P41" s="45">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q41" s="46">
+      <c r="Q41" s="45">
         <v>0.86519999999999997</v>
       </c>
-      <c r="R41" s="40" t="s">
+      <c r="R41" s="39" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A42" s="40"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="40"/>
-      <c r="G42" s="40"/>
-      <c r="H42" s="40"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="40"/>
-      <c r="K42" s="40">
+      <c r="A42" s="39"/>
+      <c r="B42" s="39"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="39"/>
+      <c r="E42" s="39"/>
+      <c r="F42" s="39"/>
+      <c r="G42" s="39"/>
+      <c r="H42" s="39"/>
+      <c r="I42" s="39"/>
+      <c r="J42" s="39"/>
+      <c r="K42" s="39">
         <v>87.91</v>
       </c>
-      <c r="L42" s="46">
+      <c r="L42" s="45">
         <v>0.90959999999999996</v>
       </c>
-      <c r="M42" s="46">
+      <c r="M42" s="45">
         <v>0.85309999999999997</v>
       </c>
-      <c r="N42" s="46">
+      <c r="N42" s="45">
         <v>0.88049999999999995</v>
       </c>
-      <c r="O42" s="46">
+      <c r="O42" s="45">
         <v>0.84970000000000001</v>
       </c>
-      <c r="P42" s="46">
+      <c r="P42" s="45">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q42" s="46">
+      <c r="Q42" s="45">
         <v>0.87760000000000005</v>
       </c>
-      <c r="R42" s="40" t="s">
+      <c r="R42" s="39" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A43" s="40" t="s">
+      <c r="A43" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="B43" s="40" t="s">
+      <c r="B43" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="40" t="s">
+      <c r="C43" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D43" s="40">
+      <c r="D43" s="39">
         <v>256</v>
       </c>
-      <c r="E43" s="40" t="s">
+      <c r="E43" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="40">
+      <c r="F43" s="39">
         <v>90</v>
       </c>
-      <c r="G43" s="40" t="b">
+      <c r="G43" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J43" s="37" t="s">
+      <c r="J43" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="K43" s="40">
+      <c r="K43" s="39">
         <v>86.43</v>
       </c>
-      <c r="L43" s="46">
+      <c r="L43" s="45">
         <v>0.8579</v>
       </c>
-      <c r="M43" s="46">
+      <c r="M43" s="45">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N43" s="46">
+      <c r="N43" s="45">
         <v>0.87219999999999998</v>
       </c>
-      <c r="O43" s="46">
+      <c r="O43" s="45">
         <v>0.87180000000000002</v>
       </c>
-      <c r="P43" s="46">
+      <c r="P43" s="45">
         <v>0.83950000000000002</v>
       </c>
-      <c r="Q43" s="46">
+      <c r="Q43" s="45">
         <v>0.85529999999999995</v>
       </c>
-      <c r="R43" s="40" t="s">
+      <c r="R43" s="39" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A44" s="40" t="s">
+      <c r="A44" s="39" t="s">
         <v>296</v>
       </c>
-      <c r="B44" s="40" t="s">
+      <c r="B44" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="40" t="s">
+      <c r="C44" s="39" t="s">
         <v>276</v>
       </c>
-      <c r="D44" s="40">
+      <c r="D44" s="39">
         <v>256</v>
       </c>
-      <c r="E44" s="40" t="s">
+      <c r="E44" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="40">
+      <c r="F44" s="39">
         <v>90</v>
       </c>
-      <c r="G44" s="40" t="b">
+      <c r="G44" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="40" t="s">
+      <c r="I44" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="K44" s="40">
+      <c r="K44" s="39">
         <v>87.61</v>
       </c>
-      <c r="L44" s="46">
+      <c r="L44" s="45">
         <v>0.87290000000000001</v>
       </c>
-      <c r="M44" s="46">
+      <c r="M44" s="45">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="45">
         <v>0.88270000000000004</v>
       </c>
-      <c r="O44" s="46">
+      <c r="O44" s="45">
         <v>0.87970000000000004</v>
       </c>
-      <c r="P44" s="46">
+      <c r="P44" s="45">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q44" s="46">
+      <c r="Q44" s="45">
         <v>0.86880000000000002</v>
       </c>
-      <c r="R44" s="40" t="s">
+      <c r="R44" s="39" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="40">
+      <c r="D45" s="39">
         <v>256</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="40">
+      <c r="F45" s="39">
         <v>90</v>
       </c>
-      <c r="G45" s="40" t="b">
+      <c r="G45" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="37" t="s">
+      <c r="I45" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="37" t="s">
+      <c r="J45" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="K45" s="40">
+      <c r="K45" s="39">
         <v>88.2</v>
       </c>
-      <c r="L45" s="46">
+      <c r="L45" s="45">
         <v>0.87849999999999995</v>
       </c>
-      <c r="M45" s="46">
+      <c r="M45" s="45">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N45" s="46">
+      <c r="N45" s="45">
         <v>0.88829999999999998</v>
       </c>
-      <c r="O45" s="46">
+      <c r="O45" s="45">
         <v>0.8861</v>
       </c>
-      <c r="P45" s="46">
+      <c r="P45" s="45">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q45" s="46">
+      <c r="Q45" s="45">
         <v>0.875</v>
       </c>
-      <c r="R45" s="40" t="s">
+      <c r="R45" s="39" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A46" s="40"/>
-      <c r="B46" s="40"/>
-      <c r="C46" s="40"/>
-      <c r="D46" s="40"/>
-      <c r="E46" s="40"/>
-      <c r="F46" s="40"/>
-      <c r="G46" s="40"/>
-      <c r="H46" s="40"/>
-      <c r="I46" s="40"/>
-      <c r="J46" s="40"/>
-      <c r="K46" s="40">
+      <c r="A46" s="39"/>
+      <c r="B46" s="39"/>
+      <c r="C46" s="39"/>
+      <c r="D46" s="39"/>
+      <c r="E46" s="39"/>
+      <c r="F46" s="39"/>
+      <c r="G46" s="39"/>
+      <c r="H46" s="39"/>
+      <c r="I46" s="39"/>
+      <c r="J46" s="39"/>
+      <c r="K46" s="39">
         <v>87.32</v>
       </c>
-      <c r="L46" s="46">
+      <c r="L46" s="45">
         <v>0.8851</v>
       </c>
-      <c r="M46" s="46">
+      <c r="M46" s="45">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N46" s="46">
+      <c r="N46" s="45">
         <v>0.87749999999999995</v>
       </c>
-      <c r="O46" s="46">
+      <c r="O46" s="45">
         <v>0.86060000000000003</v>
       </c>
-      <c r="P46" s="46">
+      <c r="P46" s="45">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q46" s="46">
+      <c r="Q46" s="45">
         <v>0.86850000000000005</v>
       </c>
-      <c r="R46" s="40" t="s">
+      <c r="R46" s="39" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="40">
+      <c r="D47" s="39">
         <v>256</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="40">
+      <c r="F47" s="39">
         <v>90</v>
       </c>
-      <c r="G47" s="40" t="b">
+      <c r="G47" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H47" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="37" t="s">
+      <c r="I47" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="37" t="s">
+      <c r="J47" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="K47" s="40">
+      <c r="K47" s="39">
         <v>89.09</v>
       </c>
-      <c r="L47" s="46">
+      <c r="L47" s="45">
         <v>0.88039999999999996</v>
       </c>
-      <c r="M47" s="46">
+      <c r="M47" s="45">
         <v>0.9153</v>
       </c>
-      <c r="N47" s="46">
+      <c r="N47" s="45">
         <v>0.89749999999999996</v>
       </c>
-      <c r="O47" s="46">
+      <c r="O47" s="45">
         <v>0.9032</v>
       </c>
-      <c r="P47" s="46">
+      <c r="P47" s="45">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q47" s="46">
+      <c r="Q47" s="45">
         <v>0.88329999999999997</v>
       </c>
-      <c r="R47" s="40" t="s">
+      <c r="R47" s="39" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A48" s="40"/>
-      <c r="B48" s="40"/>
-      <c r="C48" s="40"/>
-      <c r="D48" s="40"/>
-      <c r="E48" s="40"/>
-      <c r="F48" s="40"/>
-      <c r="G48" s="40"/>
-      <c r="H48" s="40"/>
-      <c r="I48" s="40"/>
-      <c r="J48" s="40"/>
-      <c r="K48" s="40">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="39"/>
+      <c r="D48" s="39"/>
+      <c r="E48" s="39"/>
+      <c r="F48" s="39"/>
+      <c r="G48" s="39"/>
+      <c r="H48" s="39"/>
+      <c r="I48" s="39"/>
+      <c r="J48" s="39"/>
+      <c r="K48" s="39">
         <v>88.79</v>
       </c>
-      <c r="L48" s="46">
+      <c r="L48" s="45">
         <v>0.87570000000000003</v>
       </c>
-      <c r="M48" s="46">
+      <c r="M48" s="45">
         <v>0.9153</v>
       </c>
-      <c r="N48" s="46">
+      <c r="N48" s="45">
         <v>0.89500000000000002</v>
       </c>
-      <c r="O48" s="46">
+      <c r="O48" s="45">
         <v>0.90259999999999996</v>
       </c>
-      <c r="P48" s="46">
+      <c r="P48" s="45">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q48" s="46">
+      <c r="Q48" s="45">
         <v>0.87970000000000004</v>
       </c>
-      <c r="R48" s="40" t="s">
+      <c r="R48" s="39" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="40">
+      <c r="D49" s="39">
         <v>256</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="40">
+      <c r="F49" s="39">
         <v>90</v>
       </c>
-      <c r="G49" s="40" t="b">
+      <c r="G49" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="I49" s="40" t="s">
+      <c r="I49" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J49" s="40" t="s">
+      <c r="J49" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="K49" s="40">
+      <c r="K49" s="39">
         <v>89.68</v>
       </c>
-      <c r="L49" s="46">
+      <c r="L49" s="45">
         <v>0.91279999999999994</v>
       </c>
-      <c r="M49" s="46">
+      <c r="M49" s="45">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N49" s="46">
+      <c r="N49" s="45">
         <v>0.89970000000000006</v>
       </c>
-      <c r="O49" s="46">
+      <c r="O49" s="45">
         <v>0.88019999999999998</v>
       </c>
-      <c r="P49" s="46">
+      <c r="P49" s="45">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q49" s="46">
+      <c r="Q49" s="45">
         <v>0.89359999999999995</v>
       </c>
-      <c r="R49" s="40" t="s">
+      <c r="R49" s="39" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A50" s="40"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="40"/>
-      <c r="D50" s="40"/>
-      <c r="E50" s="40"/>
-      <c r="F50" s="40"/>
-      <c r="G50" s="40"/>
-      <c r="H50" s="40"/>
-      <c r="I50" s="40"/>
-      <c r="J50" s="40"/>
-      <c r="K50" s="40">
+      <c r="A50" s="39"/>
+      <c r="B50" s="39"/>
+      <c r="C50" s="39"/>
+      <c r="D50" s="39"/>
+      <c r="E50" s="39"/>
+      <c r="F50" s="39"/>
+      <c r="G50" s="39"/>
+      <c r="H50" s="39"/>
+      <c r="I50" s="39"/>
+      <c r="J50" s="39"/>
+      <c r="K50" s="39">
         <v>89.97</v>
       </c>
-      <c r="L50" s="46">
+      <c r="L50" s="45">
         <v>0.9133</v>
       </c>
-      <c r="M50" s="46">
+      <c r="M50" s="45">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N50" s="46">
+      <c r="N50" s="45">
         <v>0.90290000000000004</v>
       </c>
-      <c r="O50" s="46">
+      <c r="O50" s="45">
         <v>0.88549999999999995</v>
       </c>
-      <c r="P50" s="46">
+      <c r="P50" s="45">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q50" s="46">
+      <c r="Q50" s="45">
         <v>0.89629999999999999</v>
       </c>
-      <c r="R50" s="40" t="s">
+      <c r="R50" s="39" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K51" s="40">
+      <c r="K51" s="39">
         <v>89.68</v>
       </c>
-      <c r="L51" s="44">
+      <c r="L51" s="43">
         <v>0.91279999999999994</v>
       </c>
-      <c r="M51" s="44">
+      <c r="M51" s="43">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N51" s="44">
+      <c r="N51" s="43">
         <v>0.89970000000000006</v>
       </c>
-      <c r="O51" s="44">
+      <c r="O51" s="43">
         <v>0.88019999999999998</v>
       </c>
-      <c r="P51" s="44">
+      <c r="P51" s="43">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q51" s="44">
+      <c r="Q51" s="43">
         <v>0.89359999999999995</v>
       </c>
-      <c r="R51" s="36" t="s">
+      <c r="R51" s="37" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K52" s="40">
+      <c r="K52" s="39">
         <v>89.68</v>
       </c>
-      <c r="L52" s="44">
+      <c r="L52" s="43">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M52" s="44">
+      <c r="M52" s="43">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N52" s="44">
+      <c r="N52" s="43">
         <v>0.90029999999999999</v>
       </c>
-      <c r="O52" s="44">
+      <c r="O52" s="43">
         <v>0.88480000000000003</v>
       </c>
-      <c r="P52" s="44">
+      <c r="P52" s="43">
         <v>0.9012</v>
       </c>
-      <c r="Q52" s="44">
+      <c r="Q52" s="43">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R52" s="36" t="s">
+      <c r="R52" s="37" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K53" s="40">
+      <c r="K53" s="39">
         <v>89.97</v>
       </c>
-      <c r="L53" s="44">
+      <c r="L53" s="43">
         <v>0.9133</v>
       </c>
-      <c r="M53" s="44">
+      <c r="M53" s="43">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N53" s="44">
+      <c r="N53" s="43">
         <v>0.90290000000000004</v>
       </c>
-      <c r="O53" s="44">
+      <c r="O53" s="43">
         <v>0.88549999999999995</v>
       </c>
-      <c r="P53" s="44">
+      <c r="P53" s="43">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q53" s="44">
+      <c r="Q53" s="43">
         <v>0.89629999999999999</v>
       </c>
-      <c r="R53" s="36" t="s">
+      <c r="R53" s="37" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="40">
+      <c r="D54" s="39">
         <v>256</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F54" s="40">
+      <c r="F54" s="39">
         <v>90</v>
       </c>
-      <c r="G54" s="40" t="b">
+      <c r="G54" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="40" t="s">
+      <c r="H54" s="39" t="s">
         <v>277</v>
       </c>
-      <c r="I54" s="40" t="s">
+      <c r="I54" s="39" t="s">
         <v>60</v>
       </c>
-      <c r="J54" s="40" t="s">
+      <c r="J54" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="K54" s="40">
+      <c r="K54" s="39">
         <v>88.5</v>
       </c>
-      <c r="L54" s="46">
+      <c r="L54" s="45">
         <v>0.87909999999999999</v>
       </c>
-      <c r="M54" s="46">
+      <c r="M54" s="45">
         <v>0.90400000000000003</v>
       </c>
-      <c r="N54" s="46">
+      <c r="N54" s="45">
         <v>0.89139999999999997</v>
       </c>
-      <c r="O54" s="46">
+      <c r="O54" s="45">
         <v>0.89170000000000005</v>
       </c>
-      <c r="P54" s="46">
+      <c r="P54" s="45">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q54" s="46">
+      <c r="Q54" s="45">
         <v>0.87770000000000004</v>
       </c>
-      <c r="R54" s="40" t="s">
+      <c r="R54" s="39" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A55" s="40"/>
-      <c r="B55" s="40"/>
-      <c r="C55" s="40"/>
-      <c r="D55" s="40"/>
-      <c r="E55" s="40"/>
-      <c r="F55" s="40"/>
-      <c r="G55" s="40"/>
-      <c r="H55" s="40"/>
-      <c r="I55" s="40"/>
-      <c r="J55" s="40"/>
-      <c r="K55" s="40">
+      <c r="A55" s="39"/>
+      <c r="B55" s="39"/>
+      <c r="C55" s="39"/>
+      <c r="D55" s="39"/>
+      <c r="E55" s="39"/>
+      <c r="F55" s="39"/>
+      <c r="G55" s="39"/>
+      <c r="H55" s="39"/>
+      <c r="I55" s="39"/>
+      <c r="J55" s="39"/>
+      <c r="K55" s="39">
         <v>89.09</v>
       </c>
-      <c r="L55" s="46">
+      <c r="L55" s="45">
         <v>0.90229999999999999</v>
       </c>
-      <c r="M55" s="46">
+      <c r="M55" s="45">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N55" s="46">
+      <c r="N55" s="45">
         <v>0.89459999999999995</v>
       </c>
-      <c r="O55" s="46">
+      <c r="O55" s="45">
         <v>0.87880000000000003</v>
       </c>
-      <c r="P55" s="46">
+      <c r="P55" s="45">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q55" s="46">
+      <c r="Q55" s="45">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R55" s="40" t="s">
+      <c r="R55" s="39" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="40">
+      <c r="D56" s="39">
         <v>256</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="40">
+      <c r="F56" s="39">
         <v>90</v>
       </c>
-      <c r="G56" s="40" t="b">
+      <c r="G56" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="37" t="s">
+      <c r="H56" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="37" t="s">
+      <c r="I56" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="37" t="s">
+      <c r="J56" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="K56" s="40">
+      <c r="K56" s="39">
         <v>87.02</v>
       </c>
-      <c r="L56" s="46">
+      <c r="L56" s="45">
         <v>0.88</v>
       </c>
-      <c r="M56" s="46">
+      <c r="M56" s="45">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N56" s="46">
+      <c r="N56" s="45">
         <v>0.875</v>
       </c>
-      <c r="O56" s="46">
+      <c r="O56" s="45">
         <v>0.85980000000000001</v>
       </c>
-      <c r="P56" s="46">
+      <c r="P56" s="45">
         <v>0.87039999999999995</v>
       </c>
-      <c r="Q56" s="46">
+      <c r="Q56" s="45">
         <v>0.86499999999999999</v>
       </c>
-      <c r="R56" s="36" t="s">
+      <c r="R56" s="37" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K57" s="40">
+      <c r="K57" s="39">
         <v>87.32</v>
       </c>
-      <c r="L57" s="46">
+      <c r="L57" s="45">
         <v>0.8851</v>
       </c>
-      <c r="M57" s="46">
+      <c r="M57" s="45">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N57" s="46">
+      <c r="N57" s="45">
         <v>0.87749999999999995</v>
       </c>
-      <c r="O57" s="46">
+      <c r="O57" s="45">
         <v>0.86060000000000003</v>
       </c>
-      <c r="P57" s="46">
+      <c r="P57" s="45">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q57" s="46">
+      <c r="Q57" s="45">
         <v>0.86850000000000005</v>
       </c>
-      <c r="R57" s="36" t="s">
+      <c r="R57" s="37" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="40">
+      <c r="D58" s="39">
         <v>256</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F58" s="40">
+      <c r="F58" s="39">
         <v>90</v>
       </c>
-      <c r="G58" s="40" t="b">
+      <c r="G58" s="39" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="H58" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="37" t="s">
+      <c r="I58" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J58" s="37" t="s">
+      <c r="J58" s="38" t="s">
         <v>258</v>
       </c>
-      <c r="K58" s="40">
+      <c r="K58" s="39">
         <v>85.25</v>
       </c>
-      <c r="L58" s="46">
+      <c r="L58" s="45">
         <v>0.84319999999999995</v>
       </c>
-      <c r="M58" s="46">
+      <c r="M58" s="45">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N58" s="46">
+      <c r="N58" s="45">
         <v>0.8619</v>
       </c>
-      <c r="O58" s="46">
+      <c r="O58" s="45">
         <v>0.86360000000000003</v>
       </c>
-      <c r="P58" s="46">
+      <c r="P58" s="45">
         <v>0.82099999999999995</v>
       </c>
-      <c r="Q58" s="46">
+      <c r="Q58" s="45">
         <v>0.84179999999999999</v>
       </c>
-      <c r="R58" s="36" t="s">
+      <c r="R58" s="37" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K59" s="40">
+      <c r="K59" s="39">
         <v>87.32</v>
       </c>
-      <c r="L59" s="46">
+      <c r="L59" s="45">
         <v>0.86809999999999998</v>
       </c>
-      <c r="M59" s="46">
+      <c r="M59" s="45">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N59" s="46">
+      <c r="N59" s="45">
         <v>0.88019999999999998</v>
       </c>
-      <c r="O59" s="46">
+      <c r="O59" s="45">
         <v>0.879</v>
       </c>
-      <c r="P59" s="46">
+      <c r="P59" s="45">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q59" s="46">
+      <c r="Q59" s="45">
         <v>0.86519999999999997</v>
       </c>
-      <c r="R59" s="36" t="s">
+      <c r="R59" s="37" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D60" s="36">
+      <c r="D60" s="37">
         <v>256</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="36">
+      <c r="F60" s="37">
         <v>90</v>
       </c>
-      <c r="G60" s="36" t="b">
+      <c r="G60" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="H60" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="I60" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J60" s="36" t="s">
+      <c r="J60" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K60" s="36">
+      <c r="K60" s="37">
         <v>89.68</v>
       </c>
-      <c r="L60" s="46">
+      <c r="L60" s="45">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M60" s="46">
+      <c r="M60" s="45">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N60" s="46">
+      <c r="N60" s="45">
         <v>0.90029999999999999</v>
       </c>
-      <c r="O60" s="46">
+      <c r="O60" s="45">
         <v>0.88480000000000003</v>
       </c>
-      <c r="P60" s="46">
+      <c r="P60" s="45">
         <v>0.9012</v>
       </c>
-      <c r="Q60" s="46">
+      <c r="Q60" s="45">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R60" s="36" t="s">
+      <c r="R60" s="37" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K61" s="36">
+      <c r="K61" s="37">
         <v>89.68</v>
       </c>
-      <c r="L61" s="46">
+      <c r="L61" s="45">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M61" s="46">
+      <c r="M61" s="45">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N61" s="46">
+      <c r="N61" s="45">
         <v>0.90029999999999999</v>
       </c>
-      <c r="O61" s="46">
+      <c r="O61" s="45">
         <v>0.88480000000000003</v>
       </c>
-      <c r="P61" s="46">
+      <c r="P61" s="45">
         <v>0.9012</v>
       </c>
-      <c r="Q61" s="46">
+      <c r="Q61" s="45">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R61" s="36" t="s">
+      <c r="R61" s="37" t="s">
         <v>332</v>
       </c>
     </row>
@@ -4953,573 +5107,556 @@
       <c r="J62" s="39" t="s">
         <v>258</v>
       </c>
-      <c r="K62" s="36">
+      <c r="K62" s="37">
         <v>89.68</v>
       </c>
-      <c r="L62" s="44">
+      <c r="L62" s="43">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M62" s="44">
+      <c r="M62" s="43">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N62" s="44">
+      <c r="N62" s="43">
         <v>0.90029999999999999</v>
       </c>
-      <c r="O62" s="44">
+      <c r="O62" s="43">
         <v>0.88480000000000003</v>
       </c>
-      <c r="P62" s="44">
+      <c r="P62" s="43">
         <v>0.9012</v>
       </c>
-      <c r="Q62" s="44">
+      <c r="Q62" s="43">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R62" s="36" t="s">
+      <c r="R62" s="37" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K63" s="36">
+      <c r="K63" s="37">
         <v>90.27</v>
       </c>
-      <c r="L63" s="44">
+      <c r="L63" s="43">
         <v>0.91379999999999995</v>
       </c>
-      <c r="M63" s="44">
+      <c r="M63" s="43">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N63" s="44">
+      <c r="N63" s="43">
         <v>0.90600000000000003</v>
       </c>
-      <c r="O63" s="44">
+      <c r="O63" s="43">
         <v>0.89090000000000003</v>
       </c>
-      <c r="P63" s="44">
+      <c r="P63" s="43">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q63" s="44">
+      <c r="Q63" s="43">
         <v>0.89910000000000001</v>
       </c>
-      <c r="R63" s="36" t="s">
+      <c r="R63" s="37" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K64" s="36">
+      <c r="K64" s="37">
         <v>89.68</v>
       </c>
-      <c r="L64" s="44">
+      <c r="L64" s="43">
         <v>0.90339999999999998</v>
       </c>
-      <c r="M64" s="44">
+      <c r="M64" s="43">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N64" s="44">
+      <c r="N64" s="43">
         <v>0.90080000000000005</v>
       </c>
-      <c r="O64" s="44">
+      <c r="O64" s="43">
         <v>0.88959999999999995</v>
       </c>
-      <c r="P64" s="44">
+      <c r="P64" s="43">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q64" s="44">
+      <c r="Q64" s="43">
         <v>0.89229999999999998</v>
       </c>
-      <c r="R64" s="36" t="s">
+      <c r="R64" s="37" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K65" s="36">
+      <c r="K65" s="37">
         <v>89.97</v>
       </c>
-      <c r="L65" s="44">
+      <c r="L65" s="43">
         <v>0.90859999999999996</v>
       </c>
-      <c r="M65" s="44">
+      <c r="M65" s="43">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N65" s="44">
+      <c r="N65" s="43">
         <v>0.90339999999999998</v>
       </c>
-      <c r="O65" s="44">
+      <c r="O65" s="43">
         <v>0.89019999999999999</v>
       </c>
-      <c r="P65" s="44">
+      <c r="P65" s="43">
         <v>0.9012</v>
       </c>
-      <c r="Q65" s="44">
+      <c r="Q65" s="43">
         <v>0.89570000000000005</v>
       </c>
-      <c r="R65" s="36" t="s">
+      <c r="R65" s="37" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K66" s="36">
+      <c r="K66" s="37">
         <v>89.68</v>
       </c>
-      <c r="L66" s="44">
+      <c r="L66" s="43">
         <v>0.90339999999999998</v>
       </c>
-      <c r="M66" s="44">
+      <c r="M66" s="43">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N66" s="44">
+      <c r="N66" s="43">
         <v>0.90080000000000005</v>
       </c>
-      <c r="O66" s="44">
+      <c r="O66" s="43">
         <v>0.88959999999999995</v>
       </c>
-      <c r="P66" s="44">
+      <c r="P66" s="43">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q66" s="44">
+      <c r="Q66" s="43">
         <v>0.89229999999999998</v>
       </c>
-      <c r="R66" s="36" t="s">
+      <c r="R66" s="37" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D67" s="36">
+      <c r="D67" s="37">
         <v>256</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F67" s="36">
+      <c r="F67" s="37">
         <v>90</v>
       </c>
-      <c r="G67" s="36" t="b">
+      <c r="G67" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H67" s="36" t="s">
+      <c r="H67" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="I67" s="36" t="s">
+      <c r="I67" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J67" s="36" t="s">
+      <c r="J67" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K67" s="36">
+      <c r="K67" s="37">
         <v>88.2</v>
       </c>
-      <c r="L67" s="44">
+      <c r="L67" s="43">
         <v>0.88700000000000001</v>
       </c>
-      <c r="M67" s="44">
+      <c r="M67" s="43">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N67" s="44">
+      <c r="N67" s="43">
         <v>0.88700000000000001</v>
       </c>
-      <c r="O67" s="44">
+      <c r="O67" s="43">
         <v>0.87649999999999995</v>
       </c>
-      <c r="P67" s="44">
+      <c r="P67" s="43">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q67" s="44">
+      <c r="Q67" s="43">
         <v>0.87649999999999995</v>
       </c>
-      <c r="R67" s="36" t="s">
+      <c r="R67" s="37" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K68" s="36">
+      <c r="K68" s="37">
         <v>88.5</v>
       </c>
-      <c r="L68" s="44">
+      <c r="L68" s="43">
         <v>0.9012</v>
       </c>
-      <c r="M68" s="44">
+      <c r="M68" s="43">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N68" s="44">
+      <c r="N68" s="43">
         <v>0.88829999999999998</v>
       </c>
-      <c r="O68" s="44">
+      <c r="O68" s="43">
         <v>0.86829999999999996</v>
       </c>
-      <c r="P68" s="44">
+      <c r="P68" s="43">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q68" s="44">
+      <c r="Q68" s="43">
         <v>0.88149999999999995</v>
       </c>
-      <c r="R68" s="36" t="s">
+      <c r="R68" s="37" t="s">
         <v>345</v>
       </c>
-      <c r="S68" s="43"/>
+      <c r="S68" s="42"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D69" s="36">
+      <c r="D69" s="37">
         <v>256</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F69" s="36">
+      <c r="F69" s="37">
         <v>90</v>
       </c>
-      <c r="G69" s="36" t="b">
+      <c r="G69" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H69" s="36" t="s">
+      <c r="H69" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="I69" s="36" t="s">
+      <c r="I69" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J69" s="36" t="s">
+      <c r="J69" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K69" s="36">
+      <c r="K69" s="37">
         <v>89.09</v>
       </c>
-      <c r="L69" s="44">
+      <c r="L69" s="43">
         <v>0.89770000000000005</v>
       </c>
-      <c r="M69" s="44">
+      <c r="M69" s="43">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N69" s="44">
+      <c r="N69" s="43">
         <v>0.8952</v>
       </c>
-      <c r="O69" s="44">
+      <c r="O69" s="43">
         <v>0.88339999999999996</v>
       </c>
-      <c r="P69" s="44">
+      <c r="P69" s="43">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q69" s="44">
+      <c r="Q69" s="43">
         <v>0.88619999999999999</v>
       </c>
-      <c r="R69" s="36" t="s">
+      <c r="R69" s="37" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K70" s="36">
+      <c r="K70" s="37">
         <v>90.27</v>
       </c>
-      <c r="L70" s="44">
+      <c r="L70" s="43">
         <v>0.9</v>
       </c>
-      <c r="M70" s="44">
+      <c r="M70" s="43">
         <v>0.9153</v>
       </c>
-      <c r="N70" s="44">
+      <c r="N70" s="43">
         <v>0.90759999999999996</v>
       </c>
-      <c r="O70" s="44">
+      <c r="O70" s="43">
         <v>0.90569999999999995</v>
       </c>
-      <c r="P70" s="44">
+      <c r="P70" s="43">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q70" s="44">
+      <c r="Q70" s="43">
         <v>0.8972</v>
       </c>
-      <c r="R70" s="36" t="s">
+      <c r="R70" s="37" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K71" s="36">
+      <c r="K71" s="37">
         <v>90.27</v>
       </c>
-      <c r="L71" s="44">
+      <c r="L71" s="43">
         <v>0.9</v>
       </c>
-      <c r="M71" s="44">
+      <c r="M71" s="43">
         <v>0.9153</v>
       </c>
-      <c r="N71" s="44">
+      <c r="N71" s="43">
         <v>0.90759999999999996</v>
       </c>
-      <c r="O71" s="44">
+      <c r="O71" s="43">
         <v>0.90569999999999995</v>
       </c>
-      <c r="P71" s="44">
+      <c r="P71" s="43">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q71" s="44">
+      <c r="Q71" s="43">
         <v>0.8972</v>
       </c>
-      <c r="R71" s="36" t="s">
+      <c r="R71" s="37" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K72" s="36">
+      <c r="K72" s="37">
         <v>89.09</v>
       </c>
-      <c r="L72" s="44">
+      <c r="L72" s="43">
         <v>0.90229999999999999</v>
       </c>
-      <c r="M72" s="44">
+      <c r="M72" s="43">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N72" s="44">
+      <c r="N72" s="43">
         <v>0.89459999999999995</v>
       </c>
-      <c r="O72" s="44">
+      <c r="O72" s="43">
         <v>0.87880000000000003</v>
       </c>
-      <c r="P72" s="44">
+      <c r="P72" s="43">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q72" s="44">
+      <c r="Q72" s="43">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R72" s="36" t="s">
+      <c r="R72" s="37" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K73" s="36">
+      <c r="K73" s="37">
         <v>89.38</v>
       </c>
-      <c r="L73" s="44">
+      <c r="L73" s="43">
         <v>0.89390000000000003</v>
       </c>
-      <c r="M73" s="44">
+      <c r="M73" s="43">
         <v>0.90400000000000003</v>
       </c>
-      <c r="N73" s="44">
+      <c r="N73" s="43">
         <v>0.89890000000000003</v>
       </c>
-      <c r="O73" s="44">
+      <c r="O73" s="43">
         <v>0.89380000000000004</v>
       </c>
-      <c r="P73" s="44">
+      <c r="P73" s="43">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q73" s="44">
+      <c r="Q73" s="43">
         <v>0.88819999999999999</v>
       </c>
-      <c r="R73" s="36" t="s">
+      <c r="R73" s="37" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D74" s="36">
+      <c r="D74" s="37">
         <v>256</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F74" s="36">
+      <c r="F74" s="37">
         <v>90</v>
       </c>
-      <c r="G74" s="36" t="b">
+      <c r="G74" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H74" s="36" t="s">
+      <c r="H74" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="I74" s="36" t="s">
+      <c r="I74" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J74" s="36" t="s">
+      <c r="J74" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K74" s="36">
+      <c r="K74" s="37">
         <v>88.5</v>
       </c>
-      <c r="L74" s="44">
+      <c r="L74" s="43">
         <v>0.9012</v>
       </c>
-      <c r="M74" s="44">
+      <c r="M74" s="43">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N74" s="44">
+      <c r="N74" s="43">
         <v>0.88829999999999998</v>
       </c>
-      <c r="O74" s="44">
+      <c r="O74" s="43">
         <v>0.86829999999999996</v>
       </c>
-      <c r="P74" s="44">
+      <c r="P74" s="43">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q74" s="44">
+      <c r="Q74" s="43">
         <v>0.88149999999999995</v>
       </c>
-      <c r="R74" s="36" t="s">
+      <c r="R74" s="37" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K75" s="36">
+      <c r="K75" s="37">
         <v>88.2</v>
       </c>
-      <c r="L75" s="44">
+      <c r="L75" s="43">
         <v>0.89600000000000002</v>
       </c>
-      <c r="M75" s="44">
+      <c r="M75" s="43">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N75" s="44">
+      <c r="N75" s="43">
         <v>0.88570000000000004</v>
       </c>
-      <c r="O75" s="44">
+      <c r="O75" s="43">
         <v>0.86750000000000005</v>
       </c>
-      <c r="P75" s="44">
+      <c r="P75" s="43">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q75" s="44">
+      <c r="Q75" s="43">
         <v>0.878</v>
       </c>
-      <c r="R75" s="36" t="s">
+      <c r="R75" s="37" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D76" s="36">
+      <c r="D76" s="37">
         <v>256</v>
       </c>
-      <c r="E76" s="36" t="s">
+      <c r="E76" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F76" s="36">
+      <c r="F76" s="37">
         <v>90</v>
       </c>
-      <c r="G76" s="36" t="b">
+      <c r="G76" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H76" s="36" t="s">
+      <c r="H76" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="I76" s="36" t="s">
+      <c r="I76" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J76" s="36" t="s">
+      <c r="J76" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K76" s="36">
+      <c r="K76" s="37">
         <v>88.79</v>
       </c>
-      <c r="L76" s="44">
+      <c r="L76" s="43">
         <v>0.87980000000000003</v>
       </c>
-      <c r="M76" s="44">
+      <c r="M76" s="43">
         <v>0.90959999999999996</v>
       </c>
-      <c r="N76" s="44">
+      <c r="N76" s="43">
         <v>0.89439999999999997</v>
       </c>
-      <c r="O76" s="44">
+      <c r="O76" s="43">
         <v>0.89739999999999998</v>
       </c>
-      <c r="P76" s="44">
+      <c r="P76" s="43">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q76" s="44">
+      <c r="Q76" s="43">
         <v>0.88049999999999995</v>
       </c>
-      <c r="R76" s="36" t="s">
+      <c r="R76" s="37" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K77" s="36">
+      <c r="K77" s="37">
         <v>89.09</v>
       </c>
-      <c r="L77" s="44">
+      <c r="L77" s="43">
         <v>0.90229999999999999</v>
       </c>
-      <c r="M77" s="44">
+      <c r="M77" s="43">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N77" s="44">
+      <c r="N77" s="43">
         <v>0.89459999999999995</v>
       </c>
-      <c r="O77" s="44">
+      <c r="O77" s="43">
         <v>0.87880000000000003</v>
       </c>
-      <c r="P77" s="44">
+      <c r="P77" s="43">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q77" s="44">
+      <c r="Q77" s="43">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R77" s="36" t="s">
+      <c r="R77" s="37" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A78" s="36" t="s">
-        <v>339</v>
-      </c>
-      <c r="B78" s="36" t="s">
-        <v>66</v>
-      </c>
-      <c r="C78" s="36" t="s">
-        <v>276</v>
-      </c>
-      <c r="D78" s="36">
-        <v>256</v>
-      </c>
-      <c r="E78" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="F78" s="36">
-        <v>90</v>
-      </c>
-      <c r="G78" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="H78" s="36" t="s">
-        <v>277</v>
-      </c>
-      <c r="I78" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="J78" s="36" t="s">
-        <v>366</v>
-      </c>
+      <c r="K78" s="39"/>
+      <c r="R78" s="37" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K79" s="39"/>
+      <c r="R79" s="37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K80" s="39"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5548,374 +5685,400 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817035C0-14C9-45B2-BCCA-0F6EE4603826}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EEA507-0655-41FB-A354-688C9E608ED4}">
   <dimension ref="A3:W11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="53" customWidth="1"/>
-    <col min="2" max="3" width="14.296875" style="53" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="53" customWidth="1"/>
-    <col min="5" max="5" width="19.296875" style="53" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" style="53" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" style="53" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" style="53" customWidth="1"/>
-    <col min="9" max="9" width="17.296875" style="53" customWidth="1"/>
-    <col min="10" max="10" width="16.59765625" style="53" customWidth="1"/>
-    <col min="11" max="18" width="17.796875" style="53" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="53"/>
+    <col min="1" max="1" width="19.59765625" style="52" customWidth="1"/>
+    <col min="2" max="3" width="14.296875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="52" customWidth="1"/>
+    <col min="5" max="5" width="19.296875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="52" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" style="52" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" style="52" customWidth="1"/>
+    <col min="9" max="9" width="17.296875" style="52" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" style="52" customWidth="1"/>
+    <col min="11" max="18" width="17.796875" style="52" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="52"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="51" t="s">
+    <row r="3" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="50" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="50" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="51" t="s">
+      <c r="D3" s="50" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="50" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="50" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="50" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="50" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="50" t="s">
         <v>364</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="50" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="50" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="51" t="s">
+      <c r="N3" s="50" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="51" t="s">
+      <c r="O3" s="50" t="s">
         <v>259</v>
       </c>
-      <c r="P3" s="51" t="s">
+      <c r="P3" s="50" t="s">
         <v>260</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="50" t="s">
         <v>261</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="50" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="55" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="53" t="s">
+    <row r="4" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="54" t="s">
+      <c r="B4" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="54">
+      <c r="D4" s="53">
         <v>256</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="54">
+      <c r="F4" s="53">
         <v>90</v>
       </c>
-      <c r="G4" s="54" t="b">
+      <c r="G4" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="54" t="s">
+      <c r="H4" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="54" t="s">
+      <c r="I4" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="54" t="s">
-        <v>366</v>
-      </c>
-      <c r="K4" s="53">
+      <c r="J4" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="K4" s="52">
         <v>90.71</v>
       </c>
-      <c r="L4" s="53">
+      <c r="L4" s="52">
         <v>0.92369999999999997</v>
       </c>
-      <c r="M4" s="53">
+      <c r="M4" s="52">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N4" s="53">
+      <c r="N4" s="52">
         <v>0.91080000000000005</v>
       </c>
-      <c r="O4" s="53">
+      <c r="O4" s="52">
         <v>0.88949999999999996</v>
       </c>
-      <c r="P4" s="53">
+      <c r="P4" s="52">
         <v>0.91690000000000005</v>
       </c>
-      <c r="Q4" s="53">
+      <c r="Q4" s="52">
         <v>0.90300000000000002</v>
       </c>
-      <c r="R4" s="53" t="s">
+      <c r="R4" s="52" t="s">
         <v>362</v>
       </c>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="53"/>
-      <c r="V4" s="53"/>
-      <c r="W4" s="53"/>
-    </row>
-    <row r="5" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="54" t="s">
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+    </row>
+    <row r="5" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="D5" s="53">
+        <v>256</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="53">
+        <v>90</v>
+      </c>
+      <c r="G5" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>387</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" s="52">
+        <v>91.98</v>
+      </c>
+      <c r="L5" s="52">
+        <v>0.93689999999999996</v>
+      </c>
+      <c r="M5" s="52">
+        <v>0.90939999999999999</v>
+      </c>
+      <c r="N5" s="52">
+        <v>0.92290000000000005</v>
+      </c>
+      <c r="O5" s="52">
+        <v>0.90180000000000005</v>
+      </c>
+      <c r="P5" s="52">
+        <v>0.93149999999999999</v>
+      </c>
+      <c r="Q5" s="52">
+        <v>0.91639999999999999</v>
+      </c>
+      <c r="R5" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="S5" s="52"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="52"/>
+    </row>
+    <row r="6" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>276</v>
+      </c>
+      <c r="D6" s="53">
+        <v>256</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" s="53">
+        <v>90</v>
+      </c>
+      <c r="G6" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>387</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" s="55">
+        <v>92.12</v>
+      </c>
+      <c r="L6" s="55">
+        <v>0.93869999999999998</v>
+      </c>
+      <c r="M6" s="55">
+        <v>0.9103</v>
+      </c>
+      <c r="N6" s="55">
+        <v>0.92430000000000001</v>
+      </c>
+      <c r="O6" s="55">
+        <v>0.90290000000000004</v>
+      </c>
+      <c r="P6" s="55">
+        <v>0.9335</v>
+      </c>
+      <c r="Q6" s="55">
+        <v>0.91790000000000005</v>
+      </c>
+      <c r="R6" s="55" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C7" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="54">
+      <c r="D7" s="53">
         <v>256</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E7" s="53" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F7" s="53">
         <v>90</v>
       </c>
-      <c r="G5" s="54" t="b">
+      <c r="G7" s="53" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="54" t="s">
+      <c r="H7" s="53" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="54" t="s">
+      <c r="I7" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="54" t="s">
+      <c r="J7" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="56">
-        <v>91.98</v>
-      </c>
-      <c r="L5" s="56">
-        <v>0.93689999999999996</v>
-      </c>
-      <c r="M5" s="56">
-        <v>0.90939999999999999</v>
-      </c>
-      <c r="N5" s="56">
-        <v>0.92290000000000005</v>
-      </c>
-      <c r="O5" s="56">
-        <v>0.90180000000000005</v>
-      </c>
-      <c r="P5" s="56">
-        <v>0.93149999999999999</v>
-      </c>
-      <c r="Q5" s="56">
-        <v>0.91639999999999999</v>
-      </c>
-      <c r="R5" s="56" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="54" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="54" t="s">
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="53" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="54" t="s">
+      <c r="C8" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="54">
+      <c r="D8" s="53">
         <v>256</v>
       </c>
-      <c r="E6" s="54" t="s">
-        <v>104</v>
-      </c>
-      <c r="F6" s="54">
+      <c r="E8" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="52">
         <v>90</v>
       </c>
-      <c r="G6" s="54" t="b">
+      <c r="G8" s="52" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="J6" s="54"/>
-      <c r="K6" s="54"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="54"/>
-      <c r="N6" s="54"/>
-      <c r="O6" s="54"/>
-      <c r="P6" s="54"/>
-      <c r="Q6" s="54"/>
-      <c r="R6" s="54" t="s">
-        <v>316</v>
-      </c>
-      <c r="S6" s="47"/>
-    </row>
-    <row r="7" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="54" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C7" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D7" s="54">
-        <v>256</v>
-      </c>
-      <c r="E7" s="54" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="54">
-        <v>90</v>
-      </c>
-      <c r="G7" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="H7" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="54" t="s">
-        <v>59</v>
-      </c>
-      <c r="J7" s="54"/>
-      <c r="K7" s="56"/>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56"/>
-      <c r="N7" s="56"/>
-      <c r="O7" s="56"/>
-      <c r="P7" s="56"/>
-      <c r="Q7" s="56"/>
-      <c r="R7" s="56"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="57" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="54">
-        <v>256</v>
-      </c>
-      <c r="E8" s="53" t="s">
-        <v>101</v>
-      </c>
-      <c r="F8" s="53">
-        <v>90</v>
-      </c>
-      <c r="G8" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="52" t="s">
         <v>277</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="52" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
-      <c r="H9" s="54"/>
-      <c r="I9" s="54"/>
-      <c r="J9" s="54"/>
-      <c r="K9" s="56"/>
-      <c r="L9" s="56"/>
-      <c r="M9" s="56"/>
-      <c r="N9" s="56"/>
-      <c r="O9" s="56"/>
-      <c r="P9" s="56"/>
-      <c r="Q9" s="56"/>
-      <c r="R9" s="56"/>
-    </row>
-    <row r="10" spans="1:23" s="59" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="58"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="58"/>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="54"/>
-      <c r="L10" s="54"/>
-      <c r="M10" s="54"/>
-      <c r="N10" s="54"/>
-      <c r="O10" s="54"/>
-      <c r="P10" s="54"/>
-      <c r="Q10" s="54"/>
-      <c r="R10" s="54"/>
-      <c r="S10" s="47"/>
-    </row>
-    <row r="11" spans="1:23" s="52" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
-      <c r="H11" s="54"/>
-      <c r="I11" s="54"/>
-      <c r="J11" s="54"/>
-      <c r="K11" s="54"/>
-      <c r="L11" s="54"/>
-      <c r="M11" s="54"/>
-      <c r="N11" s="54"/>
-      <c r="O11" s="54"/>
-      <c r="P11" s="54"/>
-      <c r="Q11" s="54"/>
-      <c r="R11" s="54"/>
-      <c r="S11" s="47"/>
+      <c r="J8" s="53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+    </row>
+    <row r="10" spans="1:23" s="58" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="46"/>
+    </row>
+    <row r="11" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="53"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="53"/>
+      <c r="L11" s="53"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="53"/>
+      <c r="O11" s="53"/>
+      <c r="P11" s="53"/>
+      <c r="Q11" s="53"/>
+      <c r="R11" s="53"/>
+      <c r="S11" s="46"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5936,6 +6099,2006 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664B1BB-B301-4653-A064-1D07042E8051}">
+  <dimension ref="A1:R42"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="84" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q45" sqref="Q45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="44.296875" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="37" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="18.59765625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="8" style="37" customWidth="1"/>
+    <col min="7" max="7" width="13" style="37" customWidth="1"/>
+    <col min="8" max="11" width="18.59765625" style="37" customWidth="1"/>
+    <col min="12" max="17" width="18.59765625" style="43" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="37"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A1" s="37" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A2" s="37" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" s="61" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="59" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="59" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="59" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="59" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="59" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="59" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="59" t="s">
+        <v>365</v>
+      </c>
+      <c r="K3" s="59" t="s">
+        <v>255</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>256</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="60" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="P3" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q3" s="60" t="s">
+        <v>261</v>
+      </c>
+      <c r="R3" s="59" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" s="49" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="47" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="47">
+        <v>256</v>
+      </c>
+      <c r="E4" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="47">
+        <v>90</v>
+      </c>
+      <c r="G4" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>366</v>
+      </c>
+      <c r="K4" s="47">
+        <v>86.14</v>
+      </c>
+      <c r="L4" s="48">
+        <v>0.86519999999999997</v>
+      </c>
+      <c r="M4" s="48">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="N4" s="48">
+        <v>0.86760000000000004</v>
+      </c>
+      <c r="O4" s="48">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="P4" s="48">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="Q4" s="48">
+        <v>0.85450000000000004</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K5" s="37">
+        <v>82.3</v>
+      </c>
+      <c r="L5" s="43">
+        <v>0.82320000000000004</v>
+      </c>
+      <c r="M5" s="43">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="N5" s="43">
+        <v>0.83240000000000003</v>
+      </c>
+      <c r="O5" s="43">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="P5" s="43">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="Q5" s="43">
+        <v>0.8125</v>
+      </c>
+      <c r="R5" s="37" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K6" s="37">
+        <v>83.48</v>
+      </c>
+      <c r="L6" s="43">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M6" s="43">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N6" s="43">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="O6" s="43">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="P6" s="43">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="Q6" s="43">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="R6" s="37" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K7" s="37">
+        <v>75.52</v>
+      </c>
+      <c r="L7" s="43">
+        <v>0.69750000000000001</v>
+      </c>
+      <c r="M7" s="43">
+        <v>0.93789999999999996</v>
+      </c>
+      <c r="N7" s="43">
+        <v>0.8</v>
+      </c>
+      <c r="O7" s="43">
+        <v>0.8911</v>
+      </c>
+      <c r="P7" s="43">
+        <v>0.55559999999999998</v>
+      </c>
+      <c r="Q7" s="43">
+        <v>0.68440000000000001</v>
+      </c>
+      <c r="R7" s="37" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K8" s="37">
+        <v>83.19</v>
+      </c>
+      <c r="L8" s="43">
+        <v>0.81910000000000005</v>
+      </c>
+      <c r="M8" s="43">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="N8" s="43">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="O8" s="43">
+        <v>0.84770000000000001</v>
+      </c>
+      <c r="P8" s="43">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="Q8" s="43">
+        <v>0.81789999999999996</v>
+      </c>
+      <c r="R8" s="37" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="40">
+        <v>256</v>
+      </c>
+      <c r="E9" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="40">
+        <v>90</v>
+      </c>
+      <c r="G9" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K9" s="40">
+        <v>85.84</v>
+      </c>
+      <c r="L9" s="44">
+        <v>0.88619999999999999</v>
+      </c>
+      <c r="M9" s="44">
+        <v>0.83620000000000005</v>
+      </c>
+      <c r="N9" s="44">
+        <v>0.86050000000000004</v>
+      </c>
+      <c r="O9" s="44">
+        <v>0.83140000000000003</v>
+      </c>
+      <c r="P9" s="44">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q9" s="44">
+        <v>0.85629999999999995</v>
+      </c>
+      <c r="R9" s="40" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="39">
+        <v>86.43</v>
+      </c>
+      <c r="L10" s="45">
+        <v>0.84289999999999998</v>
+      </c>
+      <c r="M10" s="45">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="N10" s="45">
+        <v>0.875</v>
+      </c>
+      <c r="O10" s="45">
+        <v>0.89190000000000003</v>
+      </c>
+      <c r="P10" s="45">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="Q10" s="45">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="R10" s="39" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="39">
+        <v>86.14</v>
+      </c>
+      <c r="L11" s="45">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="M11" s="45">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N11" s="45">
+        <v>0.87119999999999997</v>
+      </c>
+      <c r="O11" s="45">
+        <v>0.88080000000000003</v>
+      </c>
+      <c r="P11" s="45">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="Q11" s="45">
+        <v>0.8498</v>
+      </c>
+      <c r="R11" s="39" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="39">
+        <v>84.37</v>
+      </c>
+      <c r="L12" s="45">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="M12" s="45">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N12" s="45">
+        <v>0.85399999999999998</v>
+      </c>
+      <c r="O12" s="45">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="P12" s="45">
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="Q12" s="45">
+        <v>0.83169999999999999</v>
+      </c>
+      <c r="R12" s="39" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="39">
+        <v>87.32</v>
+      </c>
+      <c r="L13" s="45">
+        <v>0.86019999999999996</v>
+      </c>
+      <c r="M13" s="45">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N13" s="45">
+        <v>0.88149999999999995</v>
+      </c>
+      <c r="O13" s="45">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="P13" s="45">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="Q13" s="45">
+        <v>0.86350000000000005</v>
+      </c>
+      <c r="R13" s="39" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="40" t="s">
+        <v>4</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="40">
+        <v>256</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F14" s="40">
+        <v>90</v>
+      </c>
+      <c r="G14" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I14" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J14" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K14" s="40">
+        <v>85.55</v>
+      </c>
+      <c r="L14" s="44">
+        <v>0.82989999999999997</v>
+      </c>
+      <c r="M14" s="44">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="N14" s="44">
+        <v>0.8679</v>
+      </c>
+      <c r="O14" s="44">
+        <v>0.88970000000000005</v>
+      </c>
+      <c r="P14" s="44">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="Q14" s="44">
+        <v>0.84040000000000004</v>
+      </c>
+      <c r="R14" s="40" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="39">
+        <v>85.25</v>
+      </c>
+      <c r="L15" s="45">
+        <v>0.89439999999999997</v>
+      </c>
+      <c r="M15" s="45">
+        <v>0.81359999999999999</v>
+      </c>
+      <c r="N15" s="45">
+        <v>0.85209999999999997</v>
+      </c>
+      <c r="O15" s="45">
+        <v>0.81459999999999999</v>
+      </c>
+      <c r="P15" s="45">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q15" s="45">
+        <v>0.85289999999999999</v>
+      </c>
+      <c r="R15" s="39" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
+      <c r="K16" s="39">
+        <v>87.61</v>
+      </c>
+      <c r="L16" s="45">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="M16" s="45">
+        <v>0.90959999999999996</v>
+      </c>
+      <c r="N16" s="45">
+        <v>0.88460000000000005</v>
+      </c>
+      <c r="O16" s="45">
+        <v>0.89470000000000005</v>
+      </c>
+      <c r="P16" s="45">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="Q16" s="45">
+        <v>0.86619999999999997</v>
+      </c>
+      <c r="R16" s="39" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K17" s="39">
+        <v>86.43</v>
+      </c>
+      <c r="L17" s="43">
+        <v>0.8579</v>
+      </c>
+      <c r="M17" s="43">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N17" s="43">
+        <v>0.87219999999999998</v>
+      </c>
+      <c r="O17" s="43">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="P17" s="43">
+        <v>0.83950000000000002</v>
+      </c>
+      <c r="Q17" s="43">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="R17" s="37" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K18" s="39">
+        <v>84.96</v>
+      </c>
+      <c r="L18" s="43">
+        <v>0.82809999999999995</v>
+      </c>
+      <c r="M18" s="43">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N18" s="43">
+        <v>0.86180000000000001</v>
+      </c>
+      <c r="O18" s="43">
+        <v>0.87760000000000005</v>
+      </c>
+      <c r="P18" s="43">
+        <v>0.79630000000000001</v>
+      </c>
+      <c r="Q18" s="43">
+        <v>0.83499999999999996</v>
+      </c>
+      <c r="R18" s="37" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="40">
+        <v>256</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="40">
+        <v>90</v>
+      </c>
+      <c r="G19" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="I19" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="J19" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="K19" s="40">
+        <v>83.19</v>
+      </c>
+      <c r="L19" s="44">
+        <v>0.83709999999999996</v>
+      </c>
+      <c r="M19" s="44">
+        <v>0.84179999999999999</v>
+      </c>
+      <c r="N19" s="44">
+        <v>0.83940000000000003</v>
+      </c>
+      <c r="O19" s="44">
+        <v>0.82609999999999995</v>
+      </c>
+      <c r="P19" s="44">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="Q19" s="44">
+        <v>0.82350000000000001</v>
+      </c>
+      <c r="R19" s="40" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A20" s="39"/>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
+      <c r="F20" s="39"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="39"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="39">
+        <v>83.48</v>
+      </c>
+      <c r="L20" s="45">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M20" s="45">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N20" s="45">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="O20" s="45">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="P20" s="45">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="Q20" s="45">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="R20" s="39" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K21" s="39">
+        <v>84.07</v>
+      </c>
+      <c r="L21" s="43">
+        <v>0.82889999999999997</v>
+      </c>
+      <c r="M21" s="43">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N21" s="43">
+        <v>0.85160000000000002</v>
+      </c>
+      <c r="O21" s="43">
+        <v>0.85529999999999995</v>
+      </c>
+      <c r="P21" s="43">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="Q21" s="43">
+        <v>0.82799999999999996</v>
+      </c>
+      <c r="R21" s="37" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K22" s="39">
+        <v>83.48</v>
+      </c>
+      <c r="L22" s="43">
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="M22" s="43">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N22" s="43">
+        <v>0.84530000000000005</v>
+      </c>
+      <c r="O22" s="43">
+        <v>0.84419999999999995</v>
+      </c>
+      <c r="P22" s="43">
+        <v>0.80249999999999999</v>
+      </c>
+      <c r="Q22" s="43">
+        <v>0.82279999999999998</v>
+      </c>
+      <c r="R22" s="37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K23" s="39">
+        <v>79.650000000000006</v>
+      </c>
+      <c r="L23" s="43">
+        <v>0.88570000000000004</v>
+      </c>
+      <c r="M23" s="43">
+        <v>0.7006</v>
+      </c>
+      <c r="N23" s="43">
+        <v>0.7823</v>
+      </c>
+      <c r="O23" s="43">
+        <v>0.73370000000000002</v>
+      </c>
+      <c r="P23" s="43">
+        <v>0.9012</v>
+      </c>
+      <c r="Q23" s="43">
+        <v>0.80889999999999995</v>
+      </c>
+      <c r="R23" s="37" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" s="62" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" s="62">
+        <v>256</v>
+      </c>
+      <c r="E24" s="62" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="62">
+        <v>90</v>
+      </c>
+      <c r="G24" s="62" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" s="62" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="K24" s="62">
+        <v>87.02</v>
+      </c>
+      <c r="L24" s="63">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="M24" s="63">
+        <v>0.92659999999999998</v>
+      </c>
+      <c r="N24" s="63">
+        <v>0.88170000000000004</v>
+      </c>
+      <c r="O24" s="63">
+        <v>0.90969999999999995</v>
+      </c>
+      <c r="P24" s="63">
+        <v>0.80859999999999999</v>
+      </c>
+      <c r="Q24" s="63">
+        <v>0.85619999999999996</v>
+      </c>
+      <c r="R24" s="62" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K25" s="37">
+        <v>88.2</v>
+      </c>
+      <c r="L25" s="43">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="M25" s="43">
+        <v>0.9153</v>
+      </c>
+      <c r="N25" s="43">
+        <v>0.8901</v>
+      </c>
+      <c r="O25" s="43">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="P25" s="43">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="Q25" s="43">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="R25" s="37" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K26" s="37">
+        <v>87.91</v>
+      </c>
+      <c r="L26" s="43">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="M26" s="43">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N26" s="43">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="O26" s="43">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="P26" s="43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Q26" s="43">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="R26" s="37" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K27" s="37">
+        <v>87.02</v>
+      </c>
+      <c r="L27" s="43">
+        <v>0.84460000000000002</v>
+      </c>
+      <c r="M27" s="43">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="N27" s="43">
+        <v>0.88109999999999999</v>
+      </c>
+      <c r="O27" s="43">
+        <v>0.90410000000000001</v>
+      </c>
+      <c r="P27" s="43">
+        <v>0.81479999999999997</v>
+      </c>
+      <c r="Q27" s="43">
+        <v>0.85709999999999997</v>
+      </c>
+      <c r="R27" s="37" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A28" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="B28" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C28" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D28" s="37">
+        <v>256</v>
+      </c>
+      <c r="E28" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F28" s="37">
+        <v>90</v>
+      </c>
+      <c r="G28" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J28" s="37" t="s">
+        <v>367</v>
+      </c>
+      <c r="K28" s="37">
+        <v>88.5</v>
+      </c>
+      <c r="L28" s="43">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="M28" s="43">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N28" s="43">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="O28" s="43">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="P28" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q28" s="43">
+        <v>0.88</v>
+      </c>
+      <c r="R28" s="37" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K29" s="37">
+        <v>87.91</v>
+      </c>
+      <c r="L29" s="43">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="M29" s="43">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N29" s="43">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="O29" s="43">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="P29" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q29" s="43">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="R29" s="37" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K30" s="37">
+        <v>87.91</v>
+      </c>
+      <c r="L30" s="43">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="M30" s="43">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N30" s="43">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="O30" s="43">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="P30" s="43">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="Q30" s="43">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="R30" s="37" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K31" s="37">
+        <v>88.79</v>
+      </c>
+      <c r="L31" s="43">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="M31" s="43">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N31" s="43">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="O31" s="43">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="P31" s="43">
+        <v>0.9012</v>
+      </c>
+      <c r="Q31" s="43">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="R31" s="37" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K32" s="37">
+        <v>88.5</v>
+      </c>
+      <c r="L32" s="43">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="M32" s="43">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N32" s="43">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="O32" s="43">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="P32" s="43">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q32" s="43">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="R32" s="37" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A33" s="37" t="s">
+        <v>309</v>
+      </c>
+      <c r="B33" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D33" s="37">
+        <v>256</v>
+      </c>
+      <c r="E33" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F33" s="37">
+        <v>90</v>
+      </c>
+      <c r="G33" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I33" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J33" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K33" s="37">
+        <v>86.73</v>
+      </c>
+      <c r="L33" s="43">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="M33" s="43">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N33" s="43">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="O33" s="43">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="P33" s="43">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="Q33" s="43">
+        <v>0.8589</v>
+      </c>
+      <c r="R33" s="37" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A34" s="37" t="s">
+        <v>333</v>
+      </c>
+      <c r="B34" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D34" s="37">
+        <v>256</v>
+      </c>
+      <c r="E34" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="37">
+        <v>90</v>
+      </c>
+      <c r="G34" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I34" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J34" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K34" s="37">
+        <v>88.2</v>
+      </c>
+      <c r="L34" s="43">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="M34" s="43">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="N34" s="43">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="O34" s="43">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="P34" s="43">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="Q34" s="43">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="R34" s="37" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A35" s="36" t="s">
+        <v>380</v>
+      </c>
+      <c r="B35" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D35" s="37">
+        <v>256</v>
+      </c>
+      <c r="E35" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F35" s="37">
+        <v>90</v>
+      </c>
+      <c r="G35" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I35" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J35" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K35" s="37">
+        <v>88.5</v>
+      </c>
+      <c r="L35" s="43">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="M35" s="43">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N35" s="43">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="O35" s="43">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="P35" s="43">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q35" s="43">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="R35" s="37" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K36" s="37">
+        <v>87.91</v>
+      </c>
+      <c r="L36" s="43">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="M36" s="43">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N36" s="43">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="O36" s="43">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="P36" s="43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Q36" s="43">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="R36" s="37" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K37" s="37">
+        <v>88.5</v>
+      </c>
+      <c r="L37" s="43">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="M37" s="43">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N37" s="43">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="O37" s="43">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="P37" s="43">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q37" s="43">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="R37" s="37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K38" s="37">
+        <v>88.2</v>
+      </c>
+      <c r="L38" s="43">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="M38" s="43">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N38" s="43">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="O38" s="43">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="P38" s="43">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="Q38" s="43">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="R38" s="37" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K39" s="37">
+        <v>88.5</v>
+      </c>
+      <c r="L39" s="43">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="M39" s="43">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N39" s="43">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="O39" s="43">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="P39" s="43">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q39" s="43">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="R39" s="37" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A40" s="37" t="s">
+        <v>377</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C40" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D40" s="37">
+        <v>256</v>
+      </c>
+      <c r="E40" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F40" s="37">
+        <v>90</v>
+      </c>
+      <c r="G40" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H40" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I40" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J40" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K40" s="37">
+        <v>86.73</v>
+      </c>
+      <c r="L40" s="43">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="M40" s="43">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N40" s="43">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="O40" s="43">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="P40" s="43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Q40" s="43">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="R40" s="37" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A41" s="37" t="s">
+        <v>409</v>
+      </c>
+      <c r="B41" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C41" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D41" s="37">
+        <v>256</v>
+      </c>
+      <c r="E41" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F41" s="37">
+        <v>90</v>
+      </c>
+      <c r="G41" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I41" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J41" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K41" s="37">
+        <v>86.43</v>
+      </c>
+      <c r="L41" s="43">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="M41" s="43">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="N41" s="43">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="O41" s="43">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="P41" s="43">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="Q41" s="43">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="R41" s="37" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A42" s="37" t="s">
+        <v>380</v>
+      </c>
+      <c r="B42" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C42" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D42" s="37">
+        <v>256</v>
+      </c>
+      <c r="E42" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F42" s="37">
+        <v>90</v>
+      </c>
+      <c r="G42" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I42" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J42" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K42" s="37">
+        <v>87.91</v>
+      </c>
+      <c r="L42" s="43">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="M42" s="43">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N42" s="43">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="O42" s="43">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="P42" s="43">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Q42" s="43">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="R42" s="37" t="s">
+        <v>411</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="0"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817035C0-14C9-45B2-BCCA-0F6EE4603826}">
+  <dimension ref="A3:W13"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L10" sqref="K10:L15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="19.59765625" style="52" customWidth="1"/>
+    <col min="2" max="3" width="14.296875" style="52" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="52" customWidth="1"/>
+    <col min="5" max="5" width="19.296875" style="52" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="52" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" style="52" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" style="52" customWidth="1"/>
+    <col min="9" max="9" width="17.296875" style="52" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" style="52" customWidth="1"/>
+    <col min="11" max="18" width="17.796875" style="52" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="52"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="50" t="s">
+        <v>61</v>
+      </c>
+      <c r="E3" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="F3" s="50" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="I3" s="50" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>364</v>
+      </c>
+      <c r="K3" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" s="50" t="s">
+        <v>257</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>258</v>
+      </c>
+      <c r="O3" s="50" t="s">
+        <v>259</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q3" s="50" t="s">
+        <v>261</v>
+      </c>
+      <c r="R3" s="50" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="53">
+        <v>256</v>
+      </c>
+      <c r="E4" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="53">
+        <v>90</v>
+      </c>
+      <c r="G4" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="K4" s="52">
+        <v>90.71</v>
+      </c>
+      <c r="L4" s="52">
+        <v>0.92369999999999997</v>
+      </c>
+      <c r="M4" s="52">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N4" s="52">
+        <v>0.91080000000000005</v>
+      </c>
+      <c r="O4" s="52">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="P4" s="52">
+        <v>0.91690000000000005</v>
+      </c>
+      <c r="Q4" s="52">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="R4" s="52" t="s">
+        <v>362</v>
+      </c>
+      <c r="S4" s="52"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="52"/>
+    </row>
+    <row r="5" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="53" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="53">
+        <v>256</v>
+      </c>
+      <c r="E5" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" s="53">
+        <v>90</v>
+      </c>
+      <c r="G5" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="K5" s="55">
+        <v>91.93</v>
+      </c>
+      <c r="L5" s="55">
+        <v>0.93169999999999997</v>
+      </c>
+      <c r="M5" s="55">
+        <v>0.91420000000000001</v>
+      </c>
+      <c r="N5" s="55">
+        <v>0.92279999999999995</v>
+      </c>
+      <c r="O5" s="55">
+        <v>0.90590000000000004</v>
+      </c>
+      <c r="P5" s="55">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="Q5" s="55">
+        <v>0.91539999999999999</v>
+      </c>
+      <c r="R5" s="55" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="53" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="53">
+        <v>256</v>
+      </c>
+      <c r="E6" s="53" t="s">
+        <v>104</v>
+      </c>
+      <c r="F6" s="53">
+        <v>90</v>
+      </c>
+      <c r="G6" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H6" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="K6" s="53"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="53"/>
+      <c r="P6" s="53"/>
+      <c r="Q6" s="53"/>
+      <c r="R6" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="S6" s="46"/>
+    </row>
+    <row r="7" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="53" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="53">
+        <v>256</v>
+      </c>
+      <c r="E7" s="53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F7" s="53">
+        <v>90</v>
+      </c>
+      <c r="G7" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="H7" s="53" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>59</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="K7" s="55"/>
+      <c r="L7" s="55"/>
+      <c r="M7" s="55"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="55"/>
+      <c r="Q7" s="55"/>
+      <c r="R7" s="55"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A8" s="56" t="s">
+        <v>296</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="53">
+        <v>256</v>
+      </c>
+      <c r="E8" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F8" s="52">
+        <v>90</v>
+      </c>
+      <c r="G8" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="52" t="s">
+        <v>277</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="55"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="55"/>
+      <c r="P9" s="55"/>
+      <c r="Q9" s="55"/>
+      <c r="R9" s="55"/>
+    </row>
+    <row r="10" spans="1:23" s="58" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="57"/>
+      <c r="B10" s="57"/>
+      <c r="C10" s="57"/>
+      <c r="D10" s="57"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="57"/>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+      <c r="K10" s="53"/>
+      <c r="L10" s="53"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="53"/>
+      <c r="O10" s="53"/>
+      <c r="P10" s="53"/>
+      <c r="Q10" s="53"/>
+      <c r="R10" s="53"/>
+      <c r="S10" s="46"/>
+    </row>
+    <row r="11" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="53"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
+      <c r="S11" s="52"/>
+      <c r="T11" s="52"/>
+      <c r="U11" s="52"/>
+      <c r="V11" s="52"/>
+      <c r="W11" s="52"/>
+    </row>
+    <row r="12" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="53"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="53"/>
+      <c r="K12" s="55"/>
+      <c r="L12" s="55"/>
+      <c r="M12" s="55"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="55"/>
+      <c r="P12" s="55"/>
+      <c r="Q12" s="55"/>
+      <c r="R12" s="55"/>
+    </row>
+    <row r="13" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="53"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="53"/>
+      <c r="K13" s="53"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="53"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="53"/>
+      <c r="Q13" s="53"/>
+      <c r="R13" s="53"/>
+      <c r="S13" s="46"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFFF00"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFFF0000"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2157F87-0085-4DC7-93EF-26EFA2000176}">
   <dimension ref="A1:M39"/>
   <sheetViews>
@@ -7098,7 +9261,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBD9A2C-CB81-4D62-8BA0-232368B53911}">
   <dimension ref="A2:K36"/>
   <sheetViews>
@@ -7966,7 +10129,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2844C75D-B20C-4DF4-8D50-5B6ECD2343AB}">
   <dimension ref="A1:J57"/>
   <sheetViews>
@@ -8865,7 +11028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CED2E3D2-ADA8-4356-BFE1-6111EA273D35}">
   <dimension ref="A1:M20"/>
   <sheetViews>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A13F9A6C-FE78-4129-8FC9-1905F235C177}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173982B8-E9A7-4F86-B126-3C6ABC646CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11004" yWindow="25788" windowWidth="23304" windowHeight="13944" tabRatio="660" firstSheet="1" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="660" firstSheet="1" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="416">
   <si>
     <t>모델</t>
   </si>
@@ -1482,6 +1482,20 @@
   </si>
   <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_095755</t>
+  </si>
+  <si>
+    <t>Ours 2 (weight_decay 0.01, ps112, drop0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_112923</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_115250</t>
+  </si>
+  <si>
+    <t>Ours 2 (weight_decay 0.1, ps112, drop0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -6100,11 +6114,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664B1BB-B301-4653-A064-1D07042E8051}">
-  <dimension ref="A1:R42"/>
+  <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O46" sqref="O46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7629,6 +7643,97 @@
       </c>
       <c r="R42" s="37" t="s">
         <v>411</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A43" s="37" t="s">
+        <v>412</v>
+      </c>
+      <c r="B43" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C43" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D43" s="37">
+        <v>256</v>
+      </c>
+      <c r="E43" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F43" s="37">
+        <v>90</v>
+      </c>
+      <c r="G43" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H43" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I43" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J43" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K43" s="37">
+        <v>85.84</v>
+      </c>
+      <c r="L43" s="43">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="M43" s="43">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="N43" s="43">
+        <v>0.8629</v>
+      </c>
+      <c r="O43" s="43">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="P43" s="43">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q43" s="43">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="R43" s="37" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A44" s="37" t="s">
+        <v>415</v>
+      </c>
+      <c r="B44" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="37">
+        <v>256</v>
+      </c>
+      <c r="E44" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="37">
+        <v>90</v>
+      </c>
+      <c r="G44" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I44" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="R44" s="37" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -7666,8 +7771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817035C0-14C9-45B2-BCCA-0F6EE4603826}">
   <dimension ref="A3:W13"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L10" sqref="K10:L15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8103,7 +8208,7 @@
   <dimension ref="A1:M39"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31:L34"/>
+      <selection activeCell="F22" sqref="F22:I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="20.399999999999999" x14ac:dyDescent="0.4"/>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{173982B8-E9A7-4F86-B126-3C6ABC646CD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F62E7C-A6B1-44F5-8860-B6ED680047F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="660" firstSheet="1" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1208" uniqueCount="416">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="438">
   <si>
     <t>모델</t>
   </si>
@@ -1496,16 +1496,89 @@
   <si>
     <t>Ours 2 (weight_decay 0.1, ps112, drop0.1)</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/Sewer-ML/baseline_mobilenet_v4_20251116_090355</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_112919</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_112927</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_112934</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_112503</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_115427</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.01, ps112, drop0.1, rest_attn)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.1, ps112, drop0.1, res_attn)</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.1, ps112, drop0.1, res_attn)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_120247</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_120248</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_120249</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_122527</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_123254</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_123335</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_123336</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_125631</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.01, ps224, drop0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_130420</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_130422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_130423</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/Sewer-ML/run_20251116_224104</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0_);[Red]\(#,##0\)"/>
     <numFmt numFmtId="185" formatCode="#,##0.0000;[Red]#,##0.0000"/>
     <numFmt numFmtId="186" formatCode="0.0000_ "/>
+    <numFmt numFmtId="187" formatCode="0.0000"/>
   </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
@@ -1616,7 +1689,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1643,6 +1716,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1736,7 +1815,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1845,13 +1924,16 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1873,6 +1955,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="186" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
@@ -1923,10 +2008,97 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="186" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2649,2444 +2821,2444 @@
   <dimension ref="A1:S80"/>
   <sheetViews>
     <sheetView zoomScale="84" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C87" sqref="C87"/>
+      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="57.3984375" style="37" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="37" customWidth="1"/>
-    <col min="4" max="5" width="18.59765625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="8" style="37" customWidth="1"/>
-    <col min="7" max="7" width="13" style="37" customWidth="1"/>
-    <col min="8" max="11" width="18.59765625" style="37" customWidth="1"/>
-    <col min="12" max="17" width="18.59765625" style="43" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="37"/>
+    <col min="1" max="1" width="57.3984375" style="36" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="36" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="36" customWidth="1"/>
+    <col min="4" max="5" width="18.59765625" style="36" customWidth="1"/>
+    <col min="6" max="6" width="8" style="36" customWidth="1"/>
+    <col min="7" max="7" width="13" style="36" customWidth="1"/>
+    <col min="8" max="11" width="18.59765625" style="36" customWidth="1"/>
+    <col min="12" max="17" width="18.59765625" style="44" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="36"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="36" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="61" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:18" s="63" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="61" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="61" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="61" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="61" t="s">
         <v>365</v>
       </c>
-      <c r="K3" s="59" t="s">
+      <c r="K3" s="61" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="60" t="s">
+      <c r="L3" s="62" t="s">
         <v>256</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="62" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="62" t="s">
         <v>259</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="62" t="s">
         <v>260</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="R3" s="59" t="s">
+      <c r="R3" s="61" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="49" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:18" s="51" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="49">
         <v>256</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="49" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="49">
         <v>90</v>
       </c>
-      <c r="G4" s="47" t="b">
+      <c r="G4" s="49" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="49" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="49">
         <v>86.14</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="50">
         <v>0.86519999999999997</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="50">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N4" s="48">
+      <c r="N4" s="50">
         <v>0.86760000000000004</v>
       </c>
-      <c r="O4" s="48">
+      <c r="O4" s="50">
         <v>0.85709999999999997</v>
       </c>
-      <c r="P4" s="48">
+      <c r="P4" s="50">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q4" s="48">
+      <c r="Q4" s="50">
         <v>0.85450000000000004</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="49" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K5" s="37">
+      <c r="K5" s="36">
         <v>78.17</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="44">
         <v>0.72689999999999999</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="44">
         <v>0.93220000000000003</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="44">
         <v>0.81679999999999997</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="44">
         <v>0.89290000000000003</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="44">
         <v>0.61729999999999996</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="44">
         <v>0.72989999999999999</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="36" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K6" s="37">
+      <c r="K6" s="36">
         <v>84.96</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="44">
         <v>0.8841</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="44">
         <v>0.81920000000000004</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="44">
         <v>0.85040000000000004</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="44">
         <v>0.81710000000000005</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="44">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="44">
         <v>0.84870000000000001</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="36" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K7" s="37">
+      <c r="K7" s="36">
         <v>79.650000000000006</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="44">
         <v>0.7389</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="44">
         <v>0.94350000000000001</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="44">
         <v>0.82879999999999998</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="44">
         <v>0.91149999999999998</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="44">
         <v>0.63580000000000003</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="44">
         <v>0.74909999999999999</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="R7" s="36" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K8" s="37">
+      <c r="K8" s="36">
         <v>84.96</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="44">
         <v>0.85</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="44">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="44">
         <v>0.85709999999999997</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="44">
         <v>0.84909999999999997</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="44">
         <v>0.83330000000000004</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="44">
         <v>0.84109999999999996</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="36" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:18" s="42" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="41">
         <v>256</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="41">
         <v>90</v>
       </c>
-      <c r="G9" s="40" t="b">
+      <c r="G9" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="41">
         <v>86.14</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="45">
         <v>0.86519999999999997</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="45">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N9" s="44">
+      <c r="N9" s="45">
         <v>0.86760000000000004</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="45">
         <v>0.85709999999999997</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="45">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="45">
         <v>0.85450000000000004</v>
       </c>
-      <c r="R9" s="40" t="s">
+      <c r="R9" s="41" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39">
+      <c r="A10" s="37"/>
+      <c r="B10" s="37"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+      <c r="H10" s="37"/>
+      <c r="I10" s="37"/>
+      <c r="J10" s="37"/>
+      <c r="K10" s="40">
         <v>86.43</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q10" s="45">
+      <c r="Q10" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="40" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="40">
         <v>87.02</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="46">
         <v>0.86419999999999997</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="46">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="46">
         <v>0.86419999999999997</v>
       </c>
-      <c r="R11" s="39" t="s">
+      <c r="R11" s="40" t="s">
         <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="40">
         <v>87.02</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="46">
         <v>0.86739999999999995</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="46">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="46">
         <v>0.87709999999999999</v>
       </c>
-      <c r="O12" s="45">
+      <c r="O12" s="46">
         <v>0.87339999999999995</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="46">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="46">
         <v>0.86250000000000004</v>
       </c>
-      <c r="R12" s="39" t="s">
+      <c r="R12" s="40" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="40">
         <v>85.84</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="46">
         <v>0.88170000000000004</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="46">
         <v>0.84179999999999999</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="46">
         <v>0.86129999999999995</v>
       </c>
-      <c r="O13" s="45">
+      <c r="O13" s="46">
         <v>0.83530000000000004</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="46">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="Q13" s="46">
         <v>0.85540000000000005</v>
       </c>
-      <c r="R13" s="39" t="s">
+      <c r="R13" s="40" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:18" s="42" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="41">
         <v>256</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="41">
         <v>90</v>
       </c>
-      <c r="G14" s="40" t="b">
+      <c r="G14" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="41">
         <v>86.43</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="45">
         <v>0.87860000000000005</v>
       </c>
-      <c r="M14" s="44">
+      <c r="M14" s="45">
         <v>0.85880000000000001</v>
       </c>
-      <c r="N14" s="44">
+      <c r="N14" s="45">
         <v>0.86860000000000004</v>
       </c>
-      <c r="O14" s="44">
+      <c r="O14" s="45">
         <v>0.84940000000000004</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="45">
         <v>0.87039999999999995</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="Q14" s="45">
         <v>0.85980000000000001</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="41" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39">
+      <c r="A15" s="37"/>
+      <c r="B15" s="37"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="40">
         <v>89.68</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="46">
         <v>0.90339999999999998</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="46">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="46">
         <v>0.90080000000000005</v>
       </c>
-      <c r="O15" s="45">
+      <c r="O15" s="46">
         <v>0.88959999999999995</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="46">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="Q15" s="46">
         <v>0.89229999999999998</v>
       </c>
-      <c r="R15" s="39" t="s">
+      <c r="R15" s="40" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39">
+      <c r="A16" s="37"/>
+      <c r="B16" s="37"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="37"/>
+      <c r="K16" s="40">
         <v>89.09</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="46">
         <v>0.90229999999999999</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="46">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="46">
         <v>0.89459999999999995</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="46">
         <v>0.87880000000000003</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="46">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="46">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R16" s="39" t="s">
+      <c r="R16" s="40" t="s">
         <v>304</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K17" s="39">
+      <c r="K17" s="40">
         <v>87.61</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="44">
         <v>0.89470000000000005</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="44">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="44">
         <v>0.87929999999999997</v>
       </c>
-      <c r="O17" s="43">
+      <c r="O17" s="44">
         <v>0.85709999999999997</v>
       </c>
-      <c r="P17" s="43">
+      <c r="P17" s="44">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="44">
         <v>0.87270000000000003</v>
       </c>
-      <c r="R17" s="37" t="s">
+      <c r="R17" s="36" t="s">
         <v>320</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K18" s="39">
+      <c r="K18" s="40">
         <v>87.91</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="44">
         <v>0.92500000000000004</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="44">
         <v>0.83620000000000005</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="44">
         <v>0.87829999999999997</v>
       </c>
-      <c r="O18" s="43">
+      <c r="O18" s="44">
         <v>0.83799999999999997</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="44">
         <v>0.92589999999999995</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="44">
         <v>0.87980000000000003</v>
       </c>
-      <c r="R18" s="37" t="s">
+      <c r="R18" s="36" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:18" s="42" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="41">
         <v>256</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="41">
         <v>90</v>
       </c>
-      <c r="G19" s="40" t="b">
+      <c r="G19" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="41">
         <v>85.55</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="45">
         <v>0.87649999999999995</v>
       </c>
-      <c r="M19" s="44">
+      <c r="M19" s="45">
         <v>0.84179999999999999</v>
       </c>
-      <c r="N19" s="44">
+      <c r="N19" s="45">
         <v>0.85880000000000001</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="45">
         <v>0.83430000000000004</v>
       </c>
-      <c r="P19" s="44">
+      <c r="P19" s="45">
         <v>0.87039999999999995</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q19" s="45">
         <v>0.85199999999999998</v>
       </c>
-      <c r="R19" s="40" t="s">
+      <c r="R19" s="41" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39">
+      <c r="A20" s="40"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="40"/>
+      <c r="J20" s="40"/>
+      <c r="K20" s="40">
         <v>86.43</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="Q20" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="R20" s="39" t="s">
+      <c r="R20" s="40" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K21" s="39">
+      <c r="K21" s="40">
         <v>86.73</v>
       </c>
-      <c r="L21" s="43">
+      <c r="L21" s="44">
         <v>0.84740000000000004</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="44">
         <v>0.90959999999999996</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="44">
         <v>0.87739999999999996</v>
       </c>
-      <c r="O21" s="43">
+      <c r="O21" s="44">
         <v>0.89259999999999995</v>
       </c>
-      <c r="P21" s="43">
+      <c r="P21" s="44">
         <v>0.82099999999999995</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="44">
         <v>0.85529999999999995</v>
       </c>
-      <c r="R21" s="37" t="s">
+      <c r="R21" s="36" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K22" s="39">
+      <c r="K22" s="40">
         <v>82.01</v>
       </c>
-      <c r="L22" s="43">
+      <c r="L22" s="44">
         <v>0.87660000000000005</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="44">
         <v>0.76270000000000004</v>
       </c>
-      <c r="N22" s="43">
+      <c r="N22" s="44">
         <v>0.81569999999999998</v>
       </c>
-      <c r="O22" s="43">
+      <c r="O22" s="44">
         <v>0.77300000000000002</v>
       </c>
-      <c r="P22" s="43">
+      <c r="P22" s="44">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q22" s="44">
         <v>0.82420000000000004</v>
       </c>
-      <c r="R22" s="37" t="s">
+      <c r="R22" s="36" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K23" s="39">
+      <c r="K23" s="40">
         <v>84.66</v>
       </c>
-      <c r="L23" s="43">
+      <c r="L23" s="44">
         <v>0.84919999999999995</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="44">
         <v>0.85880000000000001</v>
       </c>
-      <c r="N23" s="43">
+      <c r="N23" s="44">
         <v>0.85389999999999999</v>
       </c>
-      <c r="O23" s="43">
+      <c r="O23" s="44">
         <v>0.84379999999999999</v>
       </c>
-      <c r="P23" s="43">
+      <c r="P23" s="44">
         <v>0.83330000000000004</v>
       </c>
-      <c r="Q23" s="43">
+      <c r="Q23" s="44">
         <v>0.83850000000000002</v>
       </c>
-      <c r="R23" s="37" t="s">
+      <c r="R23" s="36" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="40" t="s">
+    <row r="24" spans="1:18" s="42" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="B24" s="40" t="s">
+      <c r="B24" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="D24" s="40">
+      <c r="D24" s="41">
         <v>256</v>
       </c>
-      <c r="E24" s="40" t="s">
+      <c r="E24" s="41" t="s">
         <v>103</v>
       </c>
-      <c r="F24" s="40">
+      <c r="F24" s="41">
         <v>90</v>
       </c>
-      <c r="G24" s="40" t="b">
+      <c r="G24" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="40" t="s">
+      <c r="H24" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I24" s="41" t="s">
         <v>59</v>
       </c>
-      <c r="J24" s="40" t="s">
+      <c r="J24" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="K24" s="40">
+      <c r="K24" s="41">
         <v>86.14</v>
       </c>
-      <c r="L24" s="44">
+      <c r="L24" s="45">
         <v>0.89629999999999999</v>
       </c>
-      <c r="M24" s="44">
+      <c r="M24" s="45">
         <v>0.83050000000000002</v>
       </c>
-      <c r="N24" s="44">
+      <c r="N24" s="45">
         <v>0.86219999999999997</v>
       </c>
-      <c r="O24" s="44">
+      <c r="O24" s="45">
         <v>0.8286</v>
       </c>
-      <c r="P24" s="44">
+      <c r="P24" s="45">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q24" s="44">
+      <c r="Q24" s="45">
         <v>0.86050000000000004</v>
       </c>
-      <c r="R24" s="40" t="s">
+      <c r="R24" s="41" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A25" s="39"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="39"/>
-      <c r="D25" s="39"/>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="39"/>
-      <c r="J25" s="39"/>
-      <c r="K25" s="39">
+      <c r="A25" s="40"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="40"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="40"/>
+      <c r="K25" s="40">
         <v>85.55</v>
       </c>
-      <c r="L25" s="45">
+      <c r="L25" s="46">
         <v>0.8478</v>
       </c>
-      <c r="M25" s="45">
+      <c r="M25" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N25" s="45">
+      <c r="N25" s="46">
         <v>0.86429999999999996</v>
       </c>
-      <c r="O25" s="45">
+      <c r="O25" s="46">
         <v>0.86450000000000005</v>
       </c>
-      <c r="P25" s="45">
+      <c r="P25" s="46">
         <v>0.82720000000000005</v>
       </c>
-      <c r="Q25" s="45">
+      <c r="Q25" s="46">
         <v>0.84540000000000004</v>
       </c>
-      <c r="R25" s="39" t="s">
+      <c r="R25" s="40" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="37" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="38">
+      <c r="D26" s="37">
         <v>256</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E26" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="37">
         <v>90</v>
       </c>
-      <c r="G26" s="38" t="b">
+      <c r="G26" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="38" t="s">
+      <c r="H26" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="38" t="s">
+      <c r="I26" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="J26" s="38" t="s">
+      <c r="J26" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K26" s="39">
+      <c r="K26" s="40">
         <v>87.91</v>
       </c>
-      <c r="L26" s="45">
+      <c r="L26" s="46">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M26" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N26" s="46">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O26" s="45">
+      <c r="O26" s="46">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P26" s="45">
+      <c r="P26" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q26" s="45">
+      <c r="Q26" s="46">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R26" s="39" t="s">
+      <c r="R26" s="40" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A27" s="39"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
-      <c r="D27" s="39"/>
-      <c r="E27" s="39"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="39"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="39">
+      <c r="A27" s="40"/>
+      <c r="B27" s="40"/>
+      <c r="C27" s="40"/>
+      <c r="D27" s="40"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="40"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="40"/>
+      <c r="J27" s="40"/>
+      <c r="K27" s="40">
         <v>88.2</v>
       </c>
-      <c r="L27" s="45">
+      <c r="L27" s="46">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M27" s="45">
+      <c r="M27" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N27" s="45">
+      <c r="N27" s="46">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O27" s="45">
+      <c r="O27" s="46">
         <v>0.872</v>
       </c>
-      <c r="P27" s="45">
+      <c r="P27" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q27" s="45">
+      <c r="Q27" s="46">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R27" s="39" t="s">
+      <c r="R27" s="40" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A28" s="39"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39">
+      <c r="A28" s="40"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="40"/>
+      <c r="D28" s="40"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40">
         <v>87.61</v>
       </c>
-      <c r="L28" s="45">
+      <c r="L28" s="46">
         <v>0.89019999999999999</v>
       </c>
-      <c r="M28" s="45">
+      <c r="M28" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N28" s="45">
+      <c r="N28" s="46">
         <v>0.88</v>
       </c>
-      <c r="O28" s="45">
+      <c r="O28" s="46">
         <v>0.86140000000000005</v>
       </c>
-      <c r="P28" s="45">
+      <c r="P28" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q28" s="45">
+      <c r="Q28" s="46">
         <v>0.872</v>
       </c>
-      <c r="R28" s="39" t="s">
+      <c r="R28" s="40" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
-      <c r="C29" s="39"/>
-      <c r="D29" s="39"/>
-      <c r="E29" s="39"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="39"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="39">
+      <c r="A29" s="40"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="40"/>
+      <c r="D29" s="40"/>
+      <c r="E29" s="40"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="40"/>
+      <c r="I29" s="40"/>
+      <c r="J29" s="40"/>
+      <c r="K29" s="40">
         <v>87.91</v>
       </c>
-      <c r="L29" s="45">
+      <c r="L29" s="46">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M29" s="45">
+      <c r="M29" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N29" s="45">
+      <c r="N29" s="46">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O29" s="45">
+      <c r="O29" s="46">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P29" s="45">
+      <c r="P29" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q29" s="45">
+      <c r="Q29" s="46">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R29" s="39" t="s">
+      <c r="R29" s="40" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A30" s="39"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="39"/>
-      <c r="D30" s="39"/>
-      <c r="E30" s="39"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="39"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="39">
+      <c r="A30" s="40"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="40">
         <v>87.91</v>
       </c>
-      <c r="L30" s="45">
+      <c r="L30" s="46">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M30" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N30" s="45">
+      <c r="N30" s="46">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O30" s="45">
+      <c r="O30" s="46">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P30" s="45">
+      <c r="P30" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q30" s="45">
+      <c r="Q30" s="46">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R30" s="39" t="s">
+      <c r="R30" s="40" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A31" s="39" t="s">
+      <c r="A31" s="40" t="s">
         <v>278</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="39" t="s">
+      <c r="C31" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D31" s="39">
+      <c r="D31" s="40">
         <v>256</v>
       </c>
-      <c r="E31" s="39" t="s">
+      <c r="E31" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F31" s="39">
+      <c r="F31" s="40">
         <v>90</v>
       </c>
-      <c r="G31" s="39" t="b">
+      <c r="G31" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H31" s="39" t="s">
+      <c r="H31" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I31" s="39" t="s">
+      <c r="I31" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J31" s="39" t="s">
+      <c r="J31" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K31" s="39">
+      <c r="K31" s="40">
         <v>88.2</v>
       </c>
-      <c r="L31" s="45">
+      <c r="L31" s="46">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M31" s="45">
+      <c r="M31" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N31" s="45">
+      <c r="N31" s="46">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O31" s="45">
+      <c r="O31" s="46">
         <v>0.872</v>
       </c>
-      <c r="P31" s="45">
+      <c r="P31" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q31" s="45">
+      <c r="Q31" s="46">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R31" s="39" t="s">
+      <c r="R31" s="40" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A32" s="39"/>
-      <c r="B32" s="39"/>
-      <c r="C32" s="39"/>
-      <c r="D32" s="39"/>
-      <c r="E32" s="39"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="39"/>
-      <c r="J32" s="39"/>
-      <c r="K32" s="39">
+      <c r="A32" s="40"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="40"/>
+      <c r="D32" s="40"/>
+      <c r="E32" s="40"/>
+      <c r="F32" s="40"/>
+      <c r="G32" s="40"/>
+      <c r="H32" s="40"/>
+      <c r="I32" s="40"/>
+      <c r="J32" s="40"/>
+      <c r="K32" s="40">
         <v>88.2</v>
       </c>
-      <c r="L32" s="45">
+      <c r="L32" s="46">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N32" s="45">
+      <c r="N32" s="46">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O32" s="45">
+      <c r="O32" s="46">
         <v>0.872</v>
       </c>
-      <c r="P32" s="45">
+      <c r="P32" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q32" s="45">
+      <c r="Q32" s="46">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R32" s="39" t="s">
+      <c r="R32" s="40" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A33" s="39" t="s">
+      <c r="A33" s="40" t="s">
         <v>281</v>
       </c>
-      <c r="B33" s="39" t="s">
+      <c r="B33" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="39" t="s">
+      <c r="C33" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="39">
+      <c r="D33" s="40">
         <v>256</v>
       </c>
-      <c r="E33" s="39" t="s">
+      <c r="E33" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="39">
+      <c r="F33" s="40">
         <v>90</v>
       </c>
-      <c r="G33" s="39" t="b">
+      <c r="G33" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="39" t="s">
+      <c r="H33" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I33" s="39" t="s">
+      <c r="I33" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="39" t="s">
+      <c r="J33" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K33" s="39">
+      <c r="K33" s="40">
         <v>88.2</v>
       </c>
-      <c r="L33" s="45">
+      <c r="L33" s="46">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M33" s="45">
+      <c r="M33" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N33" s="45">
+      <c r="N33" s="46">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O33" s="45">
+      <c r="O33" s="46">
         <v>0.872</v>
       </c>
-      <c r="P33" s="45">
+      <c r="P33" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q33" s="45">
+      <c r="Q33" s="46">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R33" s="39" t="s">
+      <c r="R33" s="40" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A34" s="39"/>
-      <c r="B34" s="39"/>
-      <c r="C34" s="39"/>
-      <c r="D34" s="39"/>
-      <c r="E34" s="39"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="39"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="39">
+      <c r="A34" s="40"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+      <c r="H34" s="40"/>
+      <c r="I34" s="40"/>
+      <c r="J34" s="40"/>
+      <c r="K34" s="40">
         <v>88.2</v>
       </c>
-      <c r="L34" s="45">
+      <c r="L34" s="46">
         <v>0.89139999999999997</v>
       </c>
-      <c r="M34" s="45">
+      <c r="M34" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N34" s="45">
+      <c r="N34" s="46">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O34" s="45">
+      <c r="O34" s="46">
         <v>0.872</v>
       </c>
-      <c r="P34" s="45">
+      <c r="P34" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q34" s="45">
+      <c r="Q34" s="46">
         <v>0.87729999999999997</v>
       </c>
-      <c r="R34" s="39" t="s">
+      <c r="R34" s="40" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A35" s="39" t="s">
+      <c r="A35" s="40" t="s">
         <v>284</v>
       </c>
-      <c r="B35" s="39" t="s">
+      <c r="B35" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C35" s="39" t="s">
+      <c r="C35" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D35" s="39">
+      <c r="D35" s="40">
         <v>256</v>
       </c>
-      <c r="E35" s="39" t="s">
+      <c r="E35" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F35" s="39">
+      <c r="F35" s="40">
         <v>90</v>
       </c>
-      <c r="G35" s="39" t="b">
+      <c r="G35" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H35" s="39" t="s">
+      <c r="H35" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I35" s="39" t="s">
+      <c r="I35" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J35" s="39" t="s">
+      <c r="J35" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K35" s="39">
+      <c r="K35" s="40">
         <v>87.91</v>
       </c>
-      <c r="L35" s="45">
+      <c r="L35" s="46">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M35" s="45">
+      <c r="M35" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N35" s="45">
+      <c r="N35" s="46">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O35" s="45">
+      <c r="O35" s="46">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P35" s="45">
+      <c r="P35" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q35" s="45">
+      <c r="Q35" s="46">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R35" s="39" t="s">
+      <c r="R35" s="40" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A36" s="39"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="39"/>
-      <c r="D36" s="39"/>
-      <c r="E36" s="39"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="39"/>
-      <c r="J36" s="39"/>
-      <c r="K36" s="39">
+      <c r="A36" s="40"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="40"/>
+      <c r="E36" s="40"/>
+      <c r="F36" s="40"/>
+      <c r="G36" s="40"/>
+      <c r="H36" s="40"/>
+      <c r="I36" s="40"/>
+      <c r="J36" s="40"/>
+      <c r="K36" s="40">
         <v>87.91</v>
       </c>
-      <c r="L36" s="45">
+      <c r="L36" s="46">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M36" s="45">
+      <c r="M36" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N36" s="45">
+      <c r="N36" s="46">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O36" s="45">
+      <c r="O36" s="46">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P36" s="45">
+      <c r="P36" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q36" s="45">
+      <c r="Q36" s="46">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R36" s="39" t="s">
+      <c r="R36" s="40" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A37" s="39" t="s">
+      <c r="A37" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="B37" s="39" t="s">
+      <c r="B37" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C37" s="39" t="s">
+      <c r="C37" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D37" s="39">
+      <c r="D37" s="40">
         <v>256</v>
       </c>
-      <c r="E37" s="39" t="s">
+      <c r="E37" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F37" s="39">
+      <c r="F37" s="40">
         <v>90</v>
       </c>
-      <c r="G37" s="39" t="b">
+      <c r="G37" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H37" s="39" t="s">
+      <c r="H37" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I37" s="39" t="s">
+      <c r="I37" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J37" s="39" t="s">
+      <c r="J37" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K37" s="39">
+      <c r="K37" s="40">
         <v>87.02</v>
       </c>
-      <c r="L37" s="45">
+      <c r="L37" s="46">
         <v>0.88439999999999996</v>
       </c>
-      <c r="M37" s="45">
+      <c r="M37" s="46">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N37" s="45">
+      <c r="N37" s="46">
         <v>0.87429999999999997</v>
       </c>
-      <c r="O37" s="45">
+      <c r="O37" s="46">
         <v>0.85540000000000005</v>
       </c>
-      <c r="P37" s="45">
+      <c r="P37" s="46">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q37" s="45">
+      <c r="Q37" s="46">
         <v>0.8659</v>
       </c>
-      <c r="R37" s="39" t="s">
+      <c r="R37" s="40" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A38" s="39"/>
-      <c r="B38" s="39"/>
-      <c r="C38" s="39"/>
-      <c r="D38" s="39"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="39"/>
-      <c r="J38" s="39"/>
-      <c r="K38" s="39">
+      <c r="A38" s="40"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="40"/>
+      <c r="D38" s="40"/>
+      <c r="E38" s="40"/>
+      <c r="F38" s="40"/>
+      <c r="G38" s="40"/>
+      <c r="H38" s="40"/>
+      <c r="I38" s="40"/>
+      <c r="J38" s="40"/>
+      <c r="K38" s="40">
         <v>87.61</v>
       </c>
-      <c r="L38" s="45">
+      <c r="L38" s="46">
         <v>0.88570000000000004</v>
       </c>
-      <c r="M38" s="45">
+      <c r="M38" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N38" s="45">
+      <c r="N38" s="46">
         <v>0.88070000000000004</v>
       </c>
-      <c r="O38" s="45">
+      <c r="O38" s="46">
         <v>0.8659</v>
       </c>
-      <c r="P38" s="45">
+      <c r="P38" s="46">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q38" s="45">
+      <c r="Q38" s="46">
         <v>0.87119999999999997</v>
       </c>
-      <c r="R38" s="39" t="s">
+      <c r="R38" s="40" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A39" s="39" t="s">
+      <c r="A39" s="40" t="s">
         <v>290</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C39" s="39" t="s">
+      <c r="C39" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D39" s="39">
+      <c r="D39" s="40">
         <v>256</v>
       </c>
-      <c r="E39" s="39" t="s">
+      <c r="E39" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="39">
+      <c r="F39" s="40">
         <v>90</v>
       </c>
-      <c r="G39" s="39" t="b">
+      <c r="G39" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H39" s="39" t="s">
+      <c r="H39" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I39" s="39" t="s">
+      <c r="I39" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J39" s="39" t="s">
+      <c r="J39" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K39" s="39">
+      <c r="K39" s="40">
         <v>86.43</v>
       </c>
-      <c r="L39" s="45">
+      <c r="L39" s="46">
         <v>0.8619</v>
       </c>
-      <c r="M39" s="45">
+      <c r="M39" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N39" s="45">
+      <c r="N39" s="46">
         <v>0.87150000000000005</v>
       </c>
-      <c r="O39" s="45">
+      <c r="O39" s="46">
         <v>0.86709999999999998</v>
       </c>
-      <c r="P39" s="45">
+      <c r="P39" s="46">
         <v>0.84570000000000001</v>
       </c>
-      <c r="Q39" s="45">
+      <c r="Q39" s="46">
         <v>0.85619999999999996</v>
       </c>
-      <c r="R39" s="39" t="s">
+      <c r="R39" s="40" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A40" s="39"/>
-      <c r="B40" s="39"/>
-      <c r="C40" s="39"/>
-      <c r="D40" s="39"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="39"/>
-      <c r="J40" s="39"/>
-      <c r="K40" s="39">
+      <c r="A40" s="40"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="40"/>
+      <c r="D40" s="40"/>
+      <c r="E40" s="40"/>
+      <c r="F40" s="40"/>
+      <c r="G40" s="40"/>
+      <c r="H40" s="40"/>
+      <c r="I40" s="40"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40">
         <v>87.02</v>
       </c>
-      <c r="L40" s="45">
+      <c r="L40" s="46">
         <v>0.88890000000000002</v>
       </c>
-      <c r="M40" s="45">
+      <c r="M40" s="46">
         <v>0.85880000000000001</v>
       </c>
-      <c r="N40" s="45">
+      <c r="N40" s="46">
         <v>0.87360000000000004</v>
       </c>
-      <c r="O40" s="45">
+      <c r="O40" s="46">
         <v>0.85119999999999996</v>
       </c>
-      <c r="P40" s="45">
+      <c r="P40" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q40" s="45">
+      <c r="Q40" s="46">
         <v>0.86670000000000003</v>
       </c>
-      <c r="R40" s="39" t="s">
+      <c r="R40" s="40" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="40" t="s">
         <v>293</v>
       </c>
-      <c r="B41" s="39" t="s">
+      <c r="B41" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="39" t="s">
+      <c r="C41" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D41" s="39">
+      <c r="D41" s="40">
         <v>256</v>
       </c>
-      <c r="E41" s="39" t="s">
+      <c r="E41" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F41" s="39">
+      <c r="F41" s="40">
         <v>90</v>
       </c>
-      <c r="G41" s="39" t="b">
+      <c r="G41" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H41" s="39" t="s">
+      <c r="H41" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I41" s="39" t="s">
+      <c r="I41" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J41" s="39" t="s">
+      <c r="J41" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K41" s="39">
+      <c r="K41" s="40">
         <v>87.32</v>
       </c>
-      <c r="L41" s="45">
+      <c r="L41" s="46">
         <v>0.86809999999999998</v>
       </c>
-      <c r="M41" s="45">
+      <c r="M41" s="46">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N41" s="45">
+      <c r="N41" s="46">
         <v>0.88019999999999998</v>
       </c>
-      <c r="O41" s="45">
+      <c r="O41" s="46">
         <v>0.879</v>
       </c>
-      <c r="P41" s="45">
+      <c r="P41" s="46">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q41" s="45">
+      <c r="Q41" s="46">
         <v>0.86519999999999997</v>
       </c>
-      <c r="R41" s="39" t="s">
+      <c r="R41" s="40" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A42" s="39"/>
-      <c r="B42" s="39"/>
-      <c r="C42" s="39"/>
-      <c r="D42" s="39"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="39"/>
-      <c r="J42" s="39"/>
-      <c r="K42" s="39">
+      <c r="A42" s="40"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="40"/>
+      <c r="D42" s="40"/>
+      <c r="E42" s="40"/>
+      <c r="F42" s="40"/>
+      <c r="G42" s="40"/>
+      <c r="H42" s="40"/>
+      <c r="I42" s="40"/>
+      <c r="J42" s="40"/>
+      <c r="K42" s="40">
         <v>87.91</v>
       </c>
-      <c r="L42" s="45">
+      <c r="L42" s="46">
         <v>0.90959999999999996</v>
       </c>
-      <c r="M42" s="45">
+      <c r="M42" s="46">
         <v>0.85309999999999997</v>
       </c>
-      <c r="N42" s="45">
+      <c r="N42" s="46">
         <v>0.88049999999999995</v>
       </c>
-      <c r="O42" s="45">
+      <c r="O42" s="46">
         <v>0.84970000000000001</v>
       </c>
-      <c r="P42" s="45">
+      <c r="P42" s="46">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q42" s="45">
+      <c r="Q42" s="46">
         <v>0.87760000000000005</v>
       </c>
-      <c r="R42" s="39" t="s">
+      <c r="R42" s="40" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B43" s="39" t="s">
+      <c r="B43" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="39" t="s">
+      <c r="C43" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D43" s="39">
+      <c r="D43" s="40">
         <v>256</v>
       </c>
-      <c r="E43" s="39" t="s">
+      <c r="E43" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F43" s="39">
+      <c r="F43" s="40">
         <v>90</v>
       </c>
-      <c r="G43" s="39" t="b">
+      <c r="G43" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="38" t="s">
+      <c r="H43" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="38" t="s">
+      <c r="I43" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J43" s="38" t="s">
+      <c r="J43" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K43" s="39">
+      <c r="K43" s="40">
         <v>86.43</v>
       </c>
-      <c r="L43" s="45">
+      <c r="L43" s="46">
         <v>0.8579</v>
       </c>
-      <c r="M43" s="45">
+      <c r="M43" s="46">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N43" s="45">
+      <c r="N43" s="46">
         <v>0.87219999999999998</v>
       </c>
-      <c r="O43" s="45">
+      <c r="O43" s="46">
         <v>0.87180000000000002</v>
       </c>
-      <c r="P43" s="45">
+      <c r="P43" s="46">
         <v>0.83950000000000002</v>
       </c>
-      <c r="Q43" s="45">
+      <c r="Q43" s="46">
         <v>0.85529999999999995</v>
       </c>
-      <c r="R43" s="39" t="s">
+      <c r="R43" s="40" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A44" s="39" t="s">
+      <c r="A44" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="B44" s="39" t="s">
+      <c r="B44" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="C44" s="39" t="s">
+      <c r="C44" s="40" t="s">
         <v>276</v>
       </c>
-      <c r="D44" s="39">
+      <c r="D44" s="40">
         <v>256</v>
       </c>
-      <c r="E44" s="39" t="s">
+      <c r="E44" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="F44" s="39">
+      <c r="F44" s="40">
         <v>90</v>
       </c>
-      <c r="G44" s="39" t="b">
+      <c r="G44" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="38" t="s">
+      <c r="H44" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I44" s="39" t="s">
+      <c r="I44" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J44" s="38" t="s">
+      <c r="J44" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K44" s="39">
+      <c r="K44" s="40">
         <v>87.61</v>
       </c>
-      <c r="L44" s="45">
+      <c r="L44" s="46">
         <v>0.87290000000000001</v>
       </c>
-      <c r="M44" s="45">
+      <c r="M44" s="46">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N44" s="45">
+      <c r="N44" s="46">
         <v>0.88270000000000004</v>
       </c>
-      <c r="O44" s="45">
+      <c r="O44" s="46">
         <v>0.87970000000000004</v>
       </c>
-      <c r="P44" s="45">
+      <c r="P44" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q44" s="45">
+      <c r="Q44" s="46">
         <v>0.86880000000000002</v>
       </c>
-      <c r="R44" s="39" t="s">
+      <c r="R44" s="40" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A45" s="38" t="s">
+      <c r="A45" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="38" t="s">
+      <c r="C45" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D45" s="39">
+      <c r="D45" s="40">
         <v>256</v>
       </c>
-      <c r="E45" s="38" t="s">
+      <c r="E45" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F45" s="39">
+      <c r="F45" s="40">
         <v>90</v>
       </c>
-      <c r="G45" s="39" t="b">
+      <c r="G45" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="38" t="s">
+      <c r="H45" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="38" t="s">
+      <c r="I45" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="38" t="s">
+      <c r="J45" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K45" s="39">
+      <c r="K45" s="40">
         <v>88.2</v>
       </c>
-      <c r="L45" s="45">
+      <c r="L45" s="46">
         <v>0.87849999999999995</v>
       </c>
-      <c r="M45" s="45">
+      <c r="M45" s="46">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N45" s="45">
+      <c r="N45" s="46">
         <v>0.88829999999999998</v>
       </c>
-      <c r="O45" s="45">
+      <c r="O45" s="46">
         <v>0.8861</v>
       </c>
-      <c r="P45" s="45">
+      <c r="P45" s="46">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q45" s="45">
+      <c r="Q45" s="46">
         <v>0.875</v>
       </c>
-      <c r="R45" s="39" t="s">
+      <c r="R45" s="40" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A46" s="39"/>
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-      <c r="J46" s="39"/>
-      <c r="K46" s="39">
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="40"/>
+      <c r="H46" s="40"/>
+      <c r="I46" s="40"/>
+      <c r="J46" s="40"/>
+      <c r="K46" s="40">
         <v>87.32</v>
       </c>
-      <c r="L46" s="45">
+      <c r="L46" s="46">
         <v>0.8851</v>
       </c>
-      <c r="M46" s="45">
+      <c r="M46" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N46" s="45">
+      <c r="N46" s="46">
         <v>0.87749999999999995</v>
       </c>
-      <c r="O46" s="45">
+      <c r="O46" s="46">
         <v>0.86060000000000003</v>
       </c>
-      <c r="P46" s="45">
+      <c r="P46" s="46">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q46" s="45">
+      <c r="Q46" s="46">
         <v>0.86850000000000005</v>
       </c>
-      <c r="R46" s="39" t="s">
+      <c r="R46" s="40" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A47" s="38" t="s">
+      <c r="A47" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="B47" s="38" t="s">
+      <c r="B47" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="38" t="s">
+      <c r="C47" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D47" s="39">
+      <c r="D47" s="40">
         <v>256</v>
       </c>
-      <c r="E47" s="38" t="s">
+      <c r="E47" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F47" s="39">
+      <c r="F47" s="40">
         <v>90</v>
       </c>
-      <c r="G47" s="39" t="b">
+      <c r="G47" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H47" s="38" t="s">
+      <c r="H47" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="38" t="s">
+      <c r="I47" s="37" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="38" t="s">
+      <c r="J47" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K47" s="39">
+      <c r="K47" s="40">
         <v>89.09</v>
       </c>
-      <c r="L47" s="45">
+      <c r="L47" s="46">
         <v>0.88039999999999996</v>
       </c>
-      <c r="M47" s="45">
+      <c r="M47" s="46">
         <v>0.9153</v>
       </c>
-      <c r="N47" s="45">
+      <c r="N47" s="46">
         <v>0.89749999999999996</v>
       </c>
-      <c r="O47" s="45">
+      <c r="O47" s="46">
         <v>0.9032</v>
       </c>
-      <c r="P47" s="45">
+      <c r="P47" s="46">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q47" s="45">
+      <c r="Q47" s="46">
         <v>0.88329999999999997</v>
       </c>
-      <c r="R47" s="39" t="s">
+      <c r="R47" s="40" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A48" s="39"/>
-      <c r="B48" s="39"/>
-      <c r="C48" s="39"/>
-      <c r="D48" s="39"/>
-      <c r="E48" s="39"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="39"/>
-      <c r="J48" s="39"/>
-      <c r="K48" s="39">
+      <c r="A48" s="40"/>
+      <c r="B48" s="40"/>
+      <c r="C48" s="40"/>
+      <c r="D48" s="40"/>
+      <c r="E48" s="40"/>
+      <c r="F48" s="40"/>
+      <c r="G48" s="40"/>
+      <c r="H48" s="40"/>
+      <c r="I48" s="40"/>
+      <c r="J48" s="40"/>
+      <c r="K48" s="40">
         <v>88.79</v>
       </c>
-      <c r="L48" s="45">
+      <c r="L48" s="46">
         <v>0.87570000000000003</v>
       </c>
-      <c r="M48" s="45">
+      <c r="M48" s="46">
         <v>0.9153</v>
       </c>
-      <c r="N48" s="45">
+      <c r="N48" s="46">
         <v>0.89500000000000002</v>
       </c>
-      <c r="O48" s="45">
+      <c r="O48" s="46">
         <v>0.90259999999999996</v>
       </c>
-      <c r="P48" s="45">
+      <c r="P48" s="46">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q48" s="45">
+      <c r="Q48" s="46">
         <v>0.87970000000000004</v>
       </c>
-      <c r="R48" s="39" t="s">
+      <c r="R48" s="40" t="s">
         <v>303</v>
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A49" s="38" t="s">
+      <c r="A49" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="B49" s="38" t="s">
+      <c r="B49" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="38" t="s">
+      <c r="C49" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D49" s="39">
+      <c r="D49" s="40">
         <v>256</v>
       </c>
-      <c r="E49" s="38" t="s">
+      <c r="E49" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F49" s="39">
+      <c r="F49" s="40">
         <v>90</v>
       </c>
-      <c r="G49" s="39" t="b">
+      <c r="G49" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H49" s="39" t="s">
+      <c r="H49" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I49" s="39" t="s">
+      <c r="I49" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J49" s="39" t="s">
+      <c r="J49" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K49" s="39">
+      <c r="K49" s="40">
         <v>89.68</v>
       </c>
-      <c r="L49" s="45">
+      <c r="L49" s="46">
         <v>0.91279999999999994</v>
       </c>
-      <c r="M49" s="45">
+      <c r="M49" s="46">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N49" s="45">
+      <c r="N49" s="46">
         <v>0.89970000000000006</v>
       </c>
-      <c r="O49" s="45">
+      <c r="O49" s="46">
         <v>0.88019999999999998</v>
       </c>
-      <c r="P49" s="45">
+      <c r="P49" s="46">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q49" s="45">
+      <c r="Q49" s="46">
         <v>0.89359999999999995</v>
       </c>
-      <c r="R49" s="39" t="s">
+      <c r="R49" s="40" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="50" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A50" s="39"/>
-      <c r="B50" s="39"/>
-      <c r="C50" s="39"/>
-      <c r="D50" s="39"/>
-      <c r="E50" s="39"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="39"/>
-      <c r="J50" s="39"/>
-      <c r="K50" s="39">
+      <c r="A50" s="40"/>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="40"/>
+      <c r="K50" s="40">
         <v>89.97</v>
       </c>
-      <c r="L50" s="45">
+      <c r="L50" s="46">
         <v>0.9133</v>
       </c>
-      <c r="M50" s="45">
+      <c r="M50" s="46">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N50" s="45">
+      <c r="N50" s="46">
         <v>0.90290000000000004</v>
       </c>
-      <c r="O50" s="45">
+      <c r="O50" s="46">
         <v>0.88549999999999995</v>
       </c>
-      <c r="P50" s="45">
+      <c r="P50" s="46">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q50" s="45">
+      <c r="Q50" s="46">
         <v>0.89629999999999999</v>
       </c>
-      <c r="R50" s="39" t="s">
+      <c r="R50" s="40" t="s">
         <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K51" s="39">
+      <c r="K51" s="40">
         <v>89.68</v>
       </c>
-      <c r="L51" s="43">
+      <c r="L51" s="44">
         <v>0.91279999999999994</v>
       </c>
-      <c r="M51" s="43">
+      <c r="M51" s="44">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N51" s="43">
+      <c r="N51" s="44">
         <v>0.89970000000000006</v>
       </c>
-      <c r="O51" s="43">
+      <c r="O51" s="44">
         <v>0.88019999999999998</v>
       </c>
-      <c r="P51" s="43">
+      <c r="P51" s="44">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q51" s="43">
+      <c r="Q51" s="44">
         <v>0.89359999999999995</v>
       </c>
-      <c r="R51" s="37" t="s">
+      <c r="R51" s="36" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="52" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K52" s="39">
+      <c r="K52" s="40">
         <v>89.68</v>
       </c>
-      <c r="L52" s="43">
+      <c r="L52" s="44">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M52" s="43">
+      <c r="M52" s="44">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N52" s="43">
+      <c r="N52" s="44">
         <v>0.90029999999999999</v>
       </c>
-      <c r="O52" s="43">
+      <c r="O52" s="44">
         <v>0.88480000000000003</v>
       </c>
-      <c r="P52" s="43">
+      <c r="P52" s="44">
         <v>0.9012</v>
       </c>
-      <c r="Q52" s="43">
+      <c r="Q52" s="44">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R52" s="37" t="s">
+      <c r="R52" s="36" t="s">
         <v>313</v>
       </c>
     </row>
     <row r="53" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K53" s="39">
+      <c r="K53" s="40">
         <v>89.97</v>
       </c>
-      <c r="L53" s="43">
+      <c r="L53" s="44">
         <v>0.9133</v>
       </c>
-      <c r="M53" s="43">
+      <c r="M53" s="44">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N53" s="43">
+      <c r="N53" s="44">
         <v>0.90290000000000004</v>
       </c>
-      <c r="O53" s="43">
+      <c r="O53" s="44">
         <v>0.88549999999999995</v>
       </c>
-      <c r="P53" s="43">
+      <c r="P53" s="44">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q53" s="43">
+      <c r="Q53" s="44">
         <v>0.89629999999999999</v>
       </c>
-      <c r="R53" s="37" t="s">
+      <c r="R53" s="36" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A54" s="38" t="s">
+      <c r="A54" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="B54" s="38" t="s">
+      <c r="B54" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="38" t="s">
+      <c r="C54" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D54" s="39">
+      <c r="D54" s="40">
         <v>256</v>
       </c>
-      <c r="E54" s="38" t="s">
+      <c r="E54" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F54" s="39">
+      <c r="F54" s="40">
         <v>90</v>
       </c>
-      <c r="G54" s="39" t="b">
+      <c r="G54" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H54" s="39" t="s">
+      <c r="H54" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I54" s="39" t="s">
+      <c r="I54" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J54" s="39" t="s">
+      <c r="J54" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K54" s="39">
+      <c r="K54" s="40">
         <v>88.5</v>
       </c>
-      <c r="L54" s="45">
+      <c r="L54" s="46">
         <v>0.87909999999999999</v>
       </c>
-      <c r="M54" s="45">
+      <c r="M54" s="46">
         <v>0.90400000000000003</v>
       </c>
-      <c r="N54" s="45">
+      <c r="N54" s="46">
         <v>0.89139999999999997</v>
       </c>
-      <c r="O54" s="45">
+      <c r="O54" s="46">
         <v>0.89170000000000005</v>
       </c>
-      <c r="P54" s="45">
+      <c r="P54" s="46">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q54" s="45">
+      <c r="Q54" s="46">
         <v>0.87770000000000004</v>
       </c>
-      <c r="R54" s="39" t="s">
+      <c r="R54" s="40" t="s">
         <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A55" s="39"/>
-      <c r="B55" s="39"/>
-      <c r="C55" s="39"/>
-      <c r="D55" s="39"/>
-      <c r="E55" s="39"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="39"/>
-      <c r="J55" s="39"/>
-      <c r="K55" s="39">
+      <c r="A55" s="40"/>
+      <c r="B55" s="40"/>
+      <c r="C55" s="40"/>
+      <c r="D55" s="40"/>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
+      <c r="H55" s="40"/>
+      <c r="I55" s="40"/>
+      <c r="J55" s="40"/>
+      <c r="K55" s="40">
         <v>89.09</v>
       </c>
-      <c r="L55" s="45">
+      <c r="L55" s="46">
         <v>0.90229999999999999</v>
       </c>
-      <c r="M55" s="45">
+      <c r="M55" s="46">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N55" s="45">
+      <c r="N55" s="46">
         <v>0.89459999999999995</v>
       </c>
-      <c r="O55" s="45">
+      <c r="O55" s="46">
         <v>0.87880000000000003</v>
       </c>
-      <c r="P55" s="45">
+      <c r="P55" s="46">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q55" s="45">
+      <c r="Q55" s="46">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R55" s="39" t="s">
+      <c r="R55" s="40" t="s">
         <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A56" s="38" t="s">
+      <c r="A56" s="37" t="s">
         <v>306</v>
       </c>
-      <c r="B56" s="38" t="s">
+      <c r="B56" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="38" t="s">
+      <c r="C56" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D56" s="39">
+      <c r="D56" s="40">
         <v>256</v>
       </c>
-      <c r="E56" s="38" t="s">
+      <c r="E56" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F56" s="39">
+      <c r="F56" s="40">
         <v>90</v>
       </c>
-      <c r="G56" s="39" t="b">
+      <c r="G56" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="38" t="s">
+      <c r="H56" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="38" t="s">
+      <c r="I56" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="38" t="s">
+      <c r="J56" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K56" s="39">
+      <c r="K56" s="40">
         <v>87.02</v>
       </c>
-      <c r="L56" s="45">
+      <c r="L56" s="46">
         <v>0.88</v>
       </c>
-      <c r="M56" s="45">
+      <c r="M56" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N56" s="45">
+      <c r="N56" s="46">
         <v>0.875</v>
       </c>
-      <c r="O56" s="45">
+      <c r="O56" s="46">
         <v>0.85980000000000001</v>
       </c>
-      <c r="P56" s="45">
+      <c r="P56" s="46">
         <v>0.87039999999999995</v>
       </c>
-      <c r="Q56" s="45">
+      <c r="Q56" s="46">
         <v>0.86499999999999999</v>
       </c>
-      <c r="R56" s="37" t="s">
+      <c r="R56" s="36" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="57" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K57" s="39">
+      <c r="K57" s="40">
         <v>87.32</v>
       </c>
-      <c r="L57" s="45">
+      <c r="L57" s="46">
         <v>0.8851</v>
       </c>
-      <c r="M57" s="45">
+      <c r="M57" s="46">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N57" s="45">
+      <c r="N57" s="46">
         <v>0.87749999999999995</v>
       </c>
-      <c r="O57" s="45">
+      <c r="O57" s="46">
         <v>0.86060000000000003</v>
       </c>
-      <c r="P57" s="45">
+      <c r="P57" s="46">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q57" s="45">
+      <c r="Q57" s="46">
         <v>0.86850000000000005</v>
       </c>
-      <c r="R57" s="37" t="s">
+      <c r="R57" s="36" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A58" s="38" t="s">
+      <c r="A58" s="37" t="s">
         <v>328</v>
       </c>
-      <c r="B58" s="38" t="s">
+      <c r="B58" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="38" t="s">
+      <c r="C58" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D58" s="39">
+      <c r="D58" s="40">
         <v>256</v>
       </c>
-      <c r="E58" s="38" t="s">
+      <c r="E58" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F58" s="39">
+      <c r="F58" s="40">
         <v>90</v>
       </c>
-      <c r="G58" s="39" t="b">
+      <c r="G58" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="38" t="s">
+      <c r="H58" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="38" t="s">
+      <c r="I58" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J58" s="38" t="s">
+      <c r="J58" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K58" s="39">
+      <c r="K58" s="40">
         <v>85.25</v>
       </c>
-      <c r="L58" s="45">
+      <c r="L58" s="46">
         <v>0.84319999999999995</v>
       </c>
-      <c r="M58" s="45">
+      <c r="M58" s="46">
         <v>0.88139999999999996</v>
       </c>
-      <c r="N58" s="45">
+      <c r="N58" s="46">
         <v>0.8619</v>
       </c>
-      <c r="O58" s="45">
+      <c r="O58" s="46">
         <v>0.86360000000000003</v>
       </c>
-      <c r="P58" s="45">
+      <c r="P58" s="46">
         <v>0.82099999999999995</v>
       </c>
-      <c r="Q58" s="45">
+      <c r="Q58" s="46">
         <v>0.84179999999999999</v>
       </c>
-      <c r="R58" s="37" t="s">
+      <c r="R58" s="36" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="59" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K59" s="39">
+      <c r="K59" s="40">
         <v>87.32</v>
       </c>
-      <c r="L59" s="45">
+      <c r="L59" s="46">
         <v>0.86809999999999998</v>
       </c>
-      <c r="M59" s="45">
+      <c r="M59" s="46">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N59" s="45">
+      <c r="N59" s="46">
         <v>0.88019999999999998</v>
       </c>
-      <c r="O59" s="45">
+      <c r="O59" s="46">
         <v>0.879</v>
       </c>
-      <c r="P59" s="45">
+      <c r="P59" s="46">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q59" s="45">
+      <c r="Q59" s="46">
         <v>0.86519999999999997</v>
       </c>
-      <c r="R59" s="37" t="s">
+      <c r="R59" s="36" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A60" s="37" t="s">
+      <c r="A60" s="36" t="s">
         <v>333</v>
       </c>
-      <c r="B60" s="37" t="s">
+      <c r="B60" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="37" t="s">
+      <c r="C60" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="D60" s="37">
+      <c r="D60" s="36">
         <v>256</v>
       </c>
-      <c r="E60" s="37" t="s">
+      <c r="E60" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="37">
+      <c r="F60" s="36">
         <v>90</v>
       </c>
-      <c r="G60" s="37" t="b">
+      <c r="G60" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="H60" s="37" t="s">
+      <c r="H60" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="I60" s="37" t="s">
+      <c r="I60" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J60" s="37" t="s">
+      <c r="J60" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="K60" s="37">
+      <c r="K60" s="36">
         <v>89.68</v>
       </c>
-      <c r="L60" s="45">
+      <c r="L60" s="46">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M60" s="45">
+      <c r="M60" s="46">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N60" s="45">
+      <c r="N60" s="46">
         <v>0.90029999999999999</v>
       </c>
-      <c r="O60" s="45">
+      <c r="O60" s="46">
         <v>0.88480000000000003</v>
       </c>
-      <c r="P60" s="45">
+      <c r="P60" s="46">
         <v>0.9012</v>
       </c>
-      <c r="Q60" s="45">
+      <c r="Q60" s="46">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R60" s="37" t="s">
+      <c r="R60" s="36" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K61" s="37">
+      <c r="K61" s="36">
         <v>89.68</v>
       </c>
-      <c r="L61" s="45">
+      <c r="L61" s="46">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M61" s="45">
+      <c r="M61" s="46">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N61" s="45">
+      <c r="N61" s="46">
         <v>0.90029999999999999</v>
       </c>
-      <c r="O61" s="45">
+      <c r="O61" s="46">
         <v>0.88480000000000003</v>
       </c>
-      <c r="P61" s="45">
+      <c r="P61" s="46">
         <v>0.9012</v>
       </c>
-      <c r="Q61" s="45">
+      <c r="Q61" s="46">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R61" s="37" t="s">
+      <c r="R61" s="36" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5094,583 +5266,583 @@
       <c r="A62" s="38" t="s">
         <v>340</v>
       </c>
-      <c r="B62" s="38" t="s">
+      <c r="B62" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="38" t="s">
+      <c r="C62" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D62" s="39">
+      <c r="D62" s="40">
         <v>256</v>
       </c>
-      <c r="E62" s="38" t="s">
+      <c r="E62" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="F62" s="39">
+      <c r="F62" s="40">
         <v>90</v>
       </c>
-      <c r="G62" s="39" t="b">
+      <c r="G62" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H62" s="39" t="s">
+      <c r="H62" s="40" t="s">
         <v>277</v>
       </c>
-      <c r="I62" s="39" t="s">
+      <c r="I62" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J62" s="39" t="s">
+      <c r="J62" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K62" s="37">
+      <c r="K62" s="36">
         <v>89.68</v>
       </c>
-      <c r="L62" s="43">
+      <c r="L62" s="44">
         <v>0.90800000000000003</v>
       </c>
-      <c r="M62" s="43">
+      <c r="M62" s="44">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N62" s="43">
+      <c r="N62" s="44">
         <v>0.90029999999999999</v>
       </c>
-      <c r="O62" s="43">
+      <c r="O62" s="44">
         <v>0.88480000000000003</v>
       </c>
-      <c r="P62" s="43">
+      <c r="P62" s="44">
         <v>0.9012</v>
       </c>
-      <c r="Q62" s="43">
+      <c r="Q62" s="44">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R62" s="37" t="s">
+      <c r="R62" s="36" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K63" s="37">
+      <c r="K63" s="36">
         <v>90.27</v>
       </c>
-      <c r="L63" s="43">
+      <c r="L63" s="44">
         <v>0.91379999999999995</v>
       </c>
-      <c r="M63" s="43">
+      <c r="M63" s="44">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N63" s="43">
+      <c r="N63" s="44">
         <v>0.90600000000000003</v>
       </c>
-      <c r="O63" s="43">
+      <c r="O63" s="44">
         <v>0.89090000000000003</v>
       </c>
-      <c r="P63" s="43">
+      <c r="P63" s="44">
         <v>0.90739999999999998</v>
       </c>
-      <c r="Q63" s="43">
+      <c r="Q63" s="44">
         <v>0.89910000000000001</v>
       </c>
-      <c r="R63" s="37" t="s">
+      <c r="R63" s="36" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K64" s="37">
+      <c r="K64" s="36">
         <v>89.68</v>
       </c>
-      <c r="L64" s="43">
+      <c r="L64" s="44">
         <v>0.90339999999999998</v>
       </c>
-      <c r="M64" s="43">
+      <c r="M64" s="44">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N64" s="43">
+      <c r="N64" s="44">
         <v>0.90080000000000005</v>
       </c>
-      <c r="O64" s="43">
+      <c r="O64" s="44">
         <v>0.88959999999999995</v>
       </c>
-      <c r="P64" s="43">
+      <c r="P64" s="44">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q64" s="43">
+      <c r="Q64" s="44">
         <v>0.89229999999999998</v>
       </c>
-      <c r="R64" s="37" t="s">
+      <c r="R64" s="36" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K65" s="37">
+      <c r="K65" s="36">
         <v>89.97</v>
       </c>
-      <c r="L65" s="43">
+      <c r="L65" s="44">
         <v>0.90859999999999996</v>
       </c>
-      <c r="M65" s="43">
+      <c r="M65" s="44">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N65" s="43">
+      <c r="N65" s="44">
         <v>0.90339999999999998</v>
       </c>
-      <c r="O65" s="43">
+      <c r="O65" s="44">
         <v>0.89019999999999999</v>
       </c>
-      <c r="P65" s="43">
+      <c r="P65" s="44">
         <v>0.9012</v>
       </c>
-      <c r="Q65" s="43">
+      <c r="Q65" s="44">
         <v>0.89570000000000005</v>
       </c>
-      <c r="R65" s="37" t="s">
+      <c r="R65" s="36" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K66" s="37">
+      <c r="K66" s="36">
         <v>89.68</v>
       </c>
-      <c r="L66" s="43">
+      <c r="L66" s="44">
         <v>0.90339999999999998</v>
       </c>
-      <c r="M66" s="43">
+      <c r="M66" s="44">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N66" s="43">
+      <c r="N66" s="44">
         <v>0.90080000000000005</v>
       </c>
-      <c r="O66" s="43">
+      <c r="O66" s="44">
         <v>0.88959999999999995</v>
       </c>
-      <c r="P66" s="43">
+      <c r="P66" s="44">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q66" s="43">
+      <c r="Q66" s="44">
         <v>0.89229999999999998</v>
       </c>
-      <c r="R66" s="37" t="s">
+      <c r="R66" s="36" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A67" s="37" t="s">
+      <c r="A67" s="36" t="s">
         <v>343</v>
       </c>
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="37" t="s">
+      <c r="C67" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="D67" s="37">
+      <c r="D67" s="36">
         <v>256</v>
       </c>
-      <c r="E67" s="37" t="s">
+      <c r="E67" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F67" s="37">
+      <c r="F67" s="36">
         <v>90</v>
       </c>
-      <c r="G67" s="37" t="b">
+      <c r="G67" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="H67" s="37" t="s">
+      <c r="H67" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="I67" s="37" t="s">
+      <c r="I67" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J67" s="37" t="s">
+      <c r="J67" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="K67" s="37">
+      <c r="K67" s="36">
         <v>88.2</v>
       </c>
-      <c r="L67" s="43">
+      <c r="L67" s="44">
         <v>0.88700000000000001</v>
       </c>
-      <c r="M67" s="43">
+      <c r="M67" s="44">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N67" s="43">
+      <c r="N67" s="44">
         <v>0.88700000000000001</v>
       </c>
-      <c r="O67" s="43">
+      <c r="O67" s="44">
         <v>0.87649999999999995</v>
       </c>
-      <c r="P67" s="43">
+      <c r="P67" s="44">
         <v>0.87649999999999995</v>
       </c>
-      <c r="Q67" s="43">
+      <c r="Q67" s="44">
         <v>0.87649999999999995</v>
       </c>
-      <c r="R67" s="37" t="s">
+      <c r="R67" s="36" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K68" s="37">
+      <c r="K68" s="36">
         <v>88.5</v>
       </c>
-      <c r="L68" s="43">
+      <c r="L68" s="44">
         <v>0.9012</v>
       </c>
-      <c r="M68" s="43">
+      <c r="M68" s="44">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N68" s="43">
+      <c r="N68" s="44">
         <v>0.88829999999999998</v>
       </c>
-      <c r="O68" s="43">
+      <c r="O68" s="44">
         <v>0.86829999999999996</v>
       </c>
-      <c r="P68" s="43">
+      <c r="P68" s="44">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q68" s="43">
+      <c r="Q68" s="44">
         <v>0.88149999999999995</v>
       </c>
-      <c r="R68" s="37" t="s">
+      <c r="R68" s="36" t="s">
         <v>345</v>
       </c>
-      <c r="S68" s="42"/>
+      <c r="S68" s="43"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A69" s="37" t="s">
+      <c r="A69" s="36" t="s">
         <v>348</v>
       </c>
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="37" t="s">
+      <c r="C69" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="D69" s="37">
+      <c r="D69" s="36">
         <v>256</v>
       </c>
-      <c r="E69" s="37" t="s">
+      <c r="E69" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F69" s="37">
+      <c r="F69" s="36">
         <v>90</v>
       </c>
-      <c r="G69" s="37" t="b">
+      <c r="G69" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="H69" s="37" t="s">
+      <c r="H69" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="I69" s="37" t="s">
+      <c r="I69" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J69" s="37" t="s">
+      <c r="J69" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="K69" s="37">
+      <c r="K69" s="36">
         <v>89.09</v>
       </c>
-      <c r="L69" s="43">
+      <c r="L69" s="44">
         <v>0.89770000000000005</v>
       </c>
-      <c r="M69" s="43">
+      <c r="M69" s="44">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N69" s="43">
+      <c r="N69" s="44">
         <v>0.8952</v>
       </c>
-      <c r="O69" s="43">
+      <c r="O69" s="44">
         <v>0.88339999999999996</v>
       </c>
-      <c r="P69" s="43">
+      <c r="P69" s="44">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q69" s="43">
+      <c r="Q69" s="44">
         <v>0.88619999999999999</v>
       </c>
-      <c r="R69" s="37" t="s">
+      <c r="R69" s="36" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K70" s="37">
+      <c r="K70" s="36">
         <v>90.27</v>
       </c>
-      <c r="L70" s="43">
+      <c r="L70" s="44">
         <v>0.9</v>
       </c>
-      <c r="M70" s="43">
+      <c r="M70" s="44">
         <v>0.9153</v>
       </c>
-      <c r="N70" s="43">
+      <c r="N70" s="44">
         <v>0.90759999999999996</v>
       </c>
-      <c r="O70" s="43">
+      <c r="O70" s="44">
         <v>0.90569999999999995</v>
       </c>
-      <c r="P70" s="43">
+      <c r="P70" s="44">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q70" s="43">
+      <c r="Q70" s="44">
         <v>0.8972</v>
       </c>
-      <c r="R70" s="37" t="s">
+      <c r="R70" s="36" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K71" s="37">
+      <c r="K71" s="36">
         <v>90.27</v>
       </c>
-      <c r="L71" s="43">
+      <c r="L71" s="44">
         <v>0.9</v>
       </c>
-      <c r="M71" s="43">
+      <c r="M71" s="44">
         <v>0.9153</v>
       </c>
-      <c r="N71" s="43">
+      <c r="N71" s="44">
         <v>0.90759999999999996</v>
       </c>
-      <c r="O71" s="43">
+      <c r="O71" s="44">
         <v>0.90569999999999995</v>
       </c>
-      <c r="P71" s="43">
+      <c r="P71" s="44">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q71" s="43">
+      <c r="Q71" s="44">
         <v>0.8972</v>
       </c>
-      <c r="R71" s="37" t="s">
+      <c r="R71" s="36" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K72" s="37">
+      <c r="K72" s="36">
         <v>89.09</v>
       </c>
-      <c r="L72" s="43">
+      <c r="L72" s="44">
         <v>0.90229999999999999</v>
       </c>
-      <c r="M72" s="43">
+      <c r="M72" s="44">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N72" s="43">
+      <c r="N72" s="44">
         <v>0.89459999999999995</v>
       </c>
-      <c r="O72" s="43">
+      <c r="O72" s="44">
         <v>0.87880000000000003</v>
       </c>
-      <c r="P72" s="43">
+      <c r="P72" s="44">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q72" s="43">
+      <c r="Q72" s="44">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R72" s="37" t="s">
+      <c r="R72" s="36" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K73" s="37">
+      <c r="K73" s="36">
         <v>89.38</v>
       </c>
-      <c r="L73" s="43">
+      <c r="L73" s="44">
         <v>0.89390000000000003</v>
       </c>
-      <c r="M73" s="43">
+      <c r="M73" s="44">
         <v>0.90400000000000003</v>
       </c>
-      <c r="N73" s="43">
+      <c r="N73" s="44">
         <v>0.89890000000000003</v>
       </c>
-      <c r="O73" s="43">
+      <c r="O73" s="44">
         <v>0.89380000000000004</v>
       </c>
-      <c r="P73" s="43">
+      <c r="P73" s="44">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q73" s="43">
+      <c r="Q73" s="44">
         <v>0.88819999999999999</v>
       </c>
-      <c r="R73" s="37" t="s">
+      <c r="R73" s="36" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A74" s="37" t="s">
+      <c r="A74" s="36" t="s">
         <v>349</v>
       </c>
-      <c r="B74" s="37" t="s">
+      <c r="B74" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="37" t="s">
+      <c r="C74" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="D74" s="37">
+      <c r="D74" s="36">
         <v>256</v>
       </c>
-      <c r="E74" s="37" t="s">
+      <c r="E74" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F74" s="37">
+      <c r="F74" s="36">
         <v>90</v>
       </c>
-      <c r="G74" s="37" t="b">
+      <c r="G74" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="H74" s="37" t="s">
+      <c r="H74" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="I74" s="37" t="s">
+      <c r="I74" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J74" s="37" t="s">
+      <c r="J74" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="K74" s="37">
+      <c r="K74" s="36">
         <v>88.5</v>
       </c>
-      <c r="L74" s="43">
+      <c r="L74" s="44">
         <v>0.9012</v>
       </c>
-      <c r="M74" s="43">
+      <c r="M74" s="44">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N74" s="43">
+      <c r="N74" s="44">
         <v>0.88829999999999998</v>
       </c>
-      <c r="O74" s="43">
+      <c r="O74" s="44">
         <v>0.86829999999999996</v>
       </c>
-      <c r="P74" s="43">
+      <c r="P74" s="44">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q74" s="43">
+      <c r="Q74" s="44">
         <v>0.88149999999999995</v>
       </c>
-      <c r="R74" s="37" t="s">
+      <c r="R74" s="36" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K75" s="37">
+      <c r="K75" s="36">
         <v>88.2</v>
       </c>
-      <c r="L75" s="43">
+      <c r="L75" s="44">
         <v>0.89600000000000002</v>
       </c>
-      <c r="M75" s="43">
+      <c r="M75" s="44">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N75" s="43">
+      <c r="N75" s="44">
         <v>0.88570000000000004</v>
       </c>
-      <c r="O75" s="43">
+      <c r="O75" s="44">
         <v>0.86750000000000005</v>
       </c>
-      <c r="P75" s="43">
+      <c r="P75" s="44">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q75" s="43">
+      <c r="Q75" s="44">
         <v>0.878</v>
       </c>
-      <c r="R75" s="37" t="s">
+      <c r="R75" s="36" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A76" s="38" t="s">
+      <c r="A76" s="37" t="s">
         <v>358</v>
       </c>
-      <c r="B76" s="37" t="s">
+      <c r="B76" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="37" t="s">
+      <c r="C76" s="36" t="s">
         <v>276</v>
       </c>
-      <c r="D76" s="37">
+      <c r="D76" s="36">
         <v>256</v>
       </c>
-      <c r="E76" s="37" t="s">
+      <c r="E76" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="F76" s="37">
+      <c r="F76" s="36">
         <v>90</v>
       </c>
-      <c r="G76" s="37" t="b">
+      <c r="G76" s="36" t="b">
         <v>0</v>
       </c>
-      <c r="H76" s="37" t="s">
+      <c r="H76" s="36" t="s">
         <v>277</v>
       </c>
-      <c r="I76" s="37" t="s">
+      <c r="I76" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="J76" s="37" t="s">
+      <c r="J76" s="36" t="s">
         <v>258</v>
       </c>
-      <c r="K76" s="37">
+      <c r="K76" s="36">
         <v>88.79</v>
       </c>
-      <c r="L76" s="43">
+      <c r="L76" s="44">
         <v>0.87980000000000003</v>
       </c>
-      <c r="M76" s="43">
+      <c r="M76" s="44">
         <v>0.90959999999999996</v>
       </c>
-      <c r="N76" s="43">
+      <c r="N76" s="44">
         <v>0.89439999999999997</v>
       </c>
-      <c r="O76" s="43">
+      <c r="O76" s="44">
         <v>0.89739999999999998</v>
       </c>
-      <c r="P76" s="43">
+      <c r="P76" s="44">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q76" s="43">
+      <c r="Q76" s="44">
         <v>0.88049999999999995</v>
       </c>
-      <c r="R76" s="37" t="s">
+      <c r="R76" s="36" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K77" s="37">
+      <c r="K77" s="36">
         <v>89.09</v>
       </c>
-      <c r="L77" s="43">
+      <c r="L77" s="44">
         <v>0.90229999999999999</v>
       </c>
-      <c r="M77" s="43">
+      <c r="M77" s="44">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N77" s="43">
+      <c r="N77" s="44">
         <v>0.89459999999999995</v>
       </c>
-      <c r="O77" s="43">
+      <c r="O77" s="44">
         <v>0.87880000000000003</v>
       </c>
-      <c r="P77" s="43">
+      <c r="P77" s="44">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q77" s="43">
+      <c r="Q77" s="44">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R77" s="37" t="s">
+      <c r="R77" s="36" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K78" s="39"/>
-      <c r="R78" s="37" t="s">
+      <c r="K78" s="40"/>
+      <c r="R78" s="36" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K79" s="39"/>
-      <c r="R79" s="37" t="s">
+      <c r="K79" s="40"/>
+      <c r="R79" s="36" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K80" s="39"/>
+      <c r="K80" s="40"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5713,386 +5885,386 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="52" customWidth="1"/>
-    <col min="2" max="3" width="14.296875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="52" customWidth="1"/>
-    <col min="5" max="5" width="19.296875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" style="52" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" style="52" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="17.296875" style="52" customWidth="1"/>
-    <col min="10" max="10" width="16.59765625" style="52" customWidth="1"/>
-    <col min="11" max="18" width="17.796875" style="52" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="52"/>
+    <col min="1" max="1" width="19.59765625" style="54" customWidth="1"/>
+    <col min="2" max="3" width="14.296875" style="54" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="54" customWidth="1"/>
+    <col min="5" max="5" width="19.296875" style="54" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="54" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" style="54" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" style="54" customWidth="1"/>
+    <col min="9" max="9" width="17.296875" style="54" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" style="54" customWidth="1"/>
+    <col min="11" max="18" width="17.796875" style="54" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="54"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="52" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="52" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="52" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="52" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="52" t="s">
         <v>364</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="52" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="52" t="s">
         <v>259</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="52" t="s">
         <v>260</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="52" t="s">
         <v>261</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="52" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="54" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="55">
         <v>256</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="55">
         <v>90</v>
       </c>
-      <c r="G4" s="53" t="b">
+      <c r="G4" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="55" t="s">
         <v>367</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="54">
         <v>90.71</v>
       </c>
-      <c r="L4" s="52">
+      <c r="L4" s="54">
         <v>0.92369999999999997</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="54">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N4" s="52">
+      <c r="N4" s="54">
         <v>0.91080000000000005</v>
       </c>
-      <c r="O4" s="52">
+      <c r="O4" s="54">
         <v>0.88949999999999996</v>
       </c>
-      <c r="P4" s="52">
+      <c r="P4" s="54">
         <v>0.91690000000000005</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="54">
         <v>0.90300000000000002</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="54" t="s">
         <v>362</v>
       </c>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-    </row>
-    <row r="5" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="52" t="s">
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="54"/>
+      <c r="V4" s="54"/>
+      <c r="W4" s="54"/>
+    </row>
+    <row r="5" spans="1:23" s="56" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="55">
         <v>256</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="55">
         <v>90</v>
       </c>
-      <c r="G5" s="53" t="b">
+      <c r="G5" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K5" s="52">
+      <c r="K5" s="54">
         <v>91.98</v>
       </c>
-      <c r="L5" s="52">
+      <c r="L5" s="54">
         <v>0.93689999999999996</v>
       </c>
-      <c r="M5" s="52">
+      <c r="M5" s="54">
         <v>0.90939999999999999</v>
       </c>
-      <c r="N5" s="52">
+      <c r="N5" s="54">
         <v>0.92290000000000005</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="54">
         <v>0.90180000000000005</v>
       </c>
-      <c r="P5" s="52">
+      <c r="P5" s="54">
         <v>0.93149999999999999</v>
       </c>
-      <c r="Q5" s="52">
+      <c r="Q5" s="54">
         <v>0.91639999999999999</v>
       </c>
-      <c r="R5" s="52" t="s">
+      <c r="R5" s="54" t="s">
         <v>315</v>
       </c>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-    </row>
-    <row r="6" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+      <c r="S5" s="54"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="54"/>
+      <c r="V5" s="54"/>
+      <c r="W5" s="54"/>
+    </row>
+    <row r="6" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="55" t="s">
         <v>276</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="55">
         <v>256</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="55">
         <v>90</v>
       </c>
-      <c r="G6" s="53" t="b">
+      <c r="G6" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="55" t="s">
         <v>387</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K6" s="55">
+      <c r="K6" s="57">
         <v>92.12</v>
       </c>
-      <c r="L6" s="55">
+      <c r="L6" s="57">
         <v>0.93869999999999998</v>
       </c>
-      <c r="M6" s="55">
+      <c r="M6" s="57">
         <v>0.9103</v>
       </c>
-      <c r="N6" s="55">
+      <c r="N6" s="57">
         <v>0.92430000000000001</v>
       </c>
-      <c r="O6" s="55">
+      <c r="O6" s="57">
         <v>0.90290000000000004</v>
       </c>
-      <c r="P6" s="55">
+      <c r="P6" s="57">
         <v>0.9335</v>
       </c>
-      <c r="Q6" s="55">
+      <c r="Q6" s="57">
         <v>0.91790000000000005</v>
       </c>
-      <c r="R6" s="55" t="s">
+      <c r="R6" s="57" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="7" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="53" t="s">
+    <row r="7" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="55">
         <v>256</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="55" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="55">
         <v>90</v>
       </c>
-      <c r="G7" s="53" t="b">
+      <c r="G7" s="55" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="55" t="s">
         <v>15</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
+      <c r="K7" s="57"/>
+      <c r="L7" s="57"/>
+      <c r="M7" s="57"/>
+      <c r="N7" s="57"/>
+      <c r="O7" s="57"/>
+      <c r="P7" s="57"/>
+      <c r="Q7" s="57"/>
+      <c r="R7" s="57"/>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="58" t="s">
         <v>296</v>
       </c>
-      <c r="B8" s="53" t="s">
+      <c r="B8" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="53" t="s">
+      <c r="C8" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="53">
+      <c r="D8" s="55">
         <v>256</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="54">
         <v>90</v>
       </c>
-      <c r="G8" s="52" t="b">
+      <c r="G8" s="54" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="54" t="s">
         <v>277</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="53" t="s">
+      <c r="J8" s="55" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-    </row>
-    <row r="10" spans="1:23" s="58" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="46"/>
-    </row>
-    <row r="11" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="53"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="53"/>
-      <c r="L11" s="53"/>
-      <c r="M11" s="53"/>
-      <c r="N11" s="53"/>
-      <c r="O11" s="53"/>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
-      <c r="S11" s="46"/>
+    <row r="9" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="55"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="57"/>
+      <c r="L9" s="57"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="57"/>
+      <c r="O9" s="57"/>
+      <c r="P9" s="57"/>
+      <c r="Q9" s="57"/>
+      <c r="R9" s="57"/>
+    </row>
+    <row r="10" spans="1:23" s="60" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="55"/>
+      <c r="L10" s="55"/>
+      <c r="M10" s="55"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="55"/>
+      <c r="Q10" s="55"/>
+      <c r="R10" s="55"/>
+      <c r="S10" s="48"/>
+    </row>
+    <row r="11" spans="1:23" s="53" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="55"/>
+      <c r="P11" s="55"/>
+      <c r="Q11" s="55"/>
+      <c r="R11" s="55"/>
+      <c r="S11" s="48"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -6114,1639 +6286,2317 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664B1BB-B301-4653-A064-1D07042E8051}">
-  <dimension ref="A1:R44"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O46" sqref="O46"/>
+      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="44.296875" style="37" customWidth="1"/>
+    <col min="1" max="1" width="48.296875" style="64" customWidth="1"/>
     <col min="2" max="2" width="13.3984375" style="37" customWidth="1"/>
     <col min="3" max="3" width="18.19921875" style="37" customWidth="1"/>
     <col min="4" max="4" width="11.59765625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="18.59765625" style="37" customWidth="1"/>
+    <col min="5" max="5" width="22.09765625" style="37" customWidth="1"/>
     <col min="6" max="6" width="8" style="37" customWidth="1"/>
     <col min="7" max="7" width="13" style="37" customWidth="1"/>
-    <col min="8" max="11" width="18.59765625" style="37" customWidth="1"/>
-    <col min="12" max="17" width="18.59765625" style="43" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="37"/>
+    <col min="8" max="10" width="18.59765625" style="37" customWidth="1"/>
+    <col min="11" max="11" width="18.59765625" style="87" customWidth="1"/>
+    <col min="12" max="17" width="18.59765625" style="82" customWidth="1"/>
+    <col min="18" max="16384" width="8.796875" style="64"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="64" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="64" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="61" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="59" t="s">
+    <row r="3" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="39" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="39" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="39" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="39" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="59" t="s">
+      <c r="F3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="59" t="s">
+      <c r="G3" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="59" t="s">
+      <c r="H3" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="59" t="s">
+      <c r="I3" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="59" t="s">
+      <c r="J3" s="39" t="s">
         <v>365</v>
       </c>
-      <c r="K3" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="L3" s="60" t="s">
+      <c r="K3" s="88" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="83" t="s">
         <v>256</v>
       </c>
-      <c r="M3" s="60" t="s">
+      <c r="M3" s="83" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="60" t="s">
+      <c r="N3" s="83" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="60" t="s">
+      <c r="O3" s="83" t="s">
         <v>259</v>
       </c>
-      <c r="P3" s="60" t="s">
+      <c r="P3" s="83" t="s">
         <v>260</v>
       </c>
-      <c r="Q3" s="60" t="s">
+      <c r="Q3" s="83" t="s">
         <v>261</v>
       </c>
-      <c r="R3" s="59" t="s">
+      <c r="R3" s="39" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="49" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="47" t="s">
+    <row r="4" spans="1:18" s="74" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="71" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="C4" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="47">
+      <c r="D4" s="71">
         <v>256</v>
       </c>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="F4" s="47">
+      <c r="F4" s="71">
         <v>90</v>
       </c>
-      <c r="G4" s="47" t="b">
+      <c r="G4" s="71" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="47" t="s">
+      <c r="H4" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="47" t="s">
+      <c r="I4" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="K4" s="47">
+      <c r="K4" s="89">
         <v>86.14</v>
       </c>
-      <c r="L4" s="48">
+      <c r="L4" s="84">
         <v>0.86519999999999997</v>
       </c>
-      <c r="M4" s="48">
+      <c r="M4" s="84">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N4" s="48">
+      <c r="N4" s="84">
         <v>0.86760000000000004</v>
       </c>
-      <c r="O4" s="48">
+      <c r="O4" s="84">
         <v>0.85709999999999997</v>
       </c>
-      <c r="P4" s="48">
+      <c r="P4" s="84">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q4" s="48">
+      <c r="Q4" s="84">
         <v>0.85450000000000004</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="73" t="s">
         <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K5" s="37">
+      <c r="A5" s="69"/>
+      <c r="B5" s="68"/>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="68"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="87">
         <v>82.3</v>
       </c>
-      <c r="L5" s="43">
+      <c r="L5" s="82">
         <v>0.82320000000000004</v>
       </c>
-      <c r="M5" s="43">
+      <c r="M5" s="82">
         <v>0.84179999999999999</v>
       </c>
-      <c r="N5" s="43">
+      <c r="N5" s="82">
         <v>0.83240000000000003</v>
       </c>
-      <c r="O5" s="43">
+      <c r="O5" s="82">
         <v>0.82279999999999998</v>
       </c>
-      <c r="P5" s="43">
+      <c r="P5" s="82">
         <v>0.80249999999999999</v>
       </c>
-      <c r="Q5" s="43">
+      <c r="Q5" s="82">
         <v>0.8125</v>
       </c>
-      <c r="R5" s="37" t="s">
+      <c r="R5" s="64" t="s">
         <v>396</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K6" s="37">
+      <c r="A6" s="69"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="68"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="68"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="87">
         <v>83.48</v>
       </c>
-      <c r="L6" s="43">
+      <c r="L6" s="82">
         <v>0.82699999999999996</v>
       </c>
-      <c r="M6" s="43">
+      <c r="M6" s="82">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N6" s="43">
+      <c r="N6" s="82">
         <v>0.84530000000000005</v>
       </c>
-      <c r="O6" s="43">
+      <c r="O6" s="82">
         <v>0.84419999999999995</v>
       </c>
-      <c r="P6" s="43">
+      <c r="P6" s="82">
         <v>0.80249999999999999</v>
       </c>
-      <c r="Q6" s="43">
+      <c r="Q6" s="82">
         <v>0.82279999999999998</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="64" t="s">
         <v>397</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K7" s="37">
+      <c r="A7" s="69"/>
+      <c r="B7" s="68"/>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="87">
         <v>75.52</v>
       </c>
-      <c r="L7" s="43">
+      <c r="L7" s="82">
         <v>0.69750000000000001</v>
       </c>
-      <c r="M7" s="43">
+      <c r="M7" s="82">
         <v>0.93789999999999996</v>
       </c>
-      <c r="N7" s="43">
+      <c r="N7" s="82">
         <v>0.8</v>
       </c>
-      <c r="O7" s="43">
+      <c r="O7" s="82">
         <v>0.8911</v>
       </c>
-      <c r="P7" s="43">
+      <c r="P7" s="82">
         <v>0.55559999999999998</v>
       </c>
-      <c r="Q7" s="43">
+      <c r="Q7" s="82">
         <v>0.68440000000000001</v>
       </c>
-      <c r="R7" s="37" t="s">
+      <c r="R7" s="64" t="s">
         <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K8" s="37">
+      <c r="A8" s="69"/>
+      <c r="B8" s="68"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="87">
         <v>83.19</v>
       </c>
-      <c r="L8" s="43">
+      <c r="L8" s="82">
         <v>0.81910000000000005</v>
       </c>
-      <c r="M8" s="43">
+      <c r="M8" s="82">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N8" s="43">
+      <c r="N8" s="82">
         <v>0.84379999999999999</v>
       </c>
-      <c r="O8" s="43">
+      <c r="O8" s="82">
         <v>0.84770000000000001</v>
       </c>
-      <c r="P8" s="43">
+      <c r="P8" s="82">
         <v>0.79010000000000002</v>
       </c>
-      <c r="Q8" s="43">
+      <c r="Q8" s="82">
         <v>0.81789999999999996</v>
       </c>
-      <c r="R8" s="37" t="s">
+      <c r="R8" s="64" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="71" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="40">
+      <c r="D9" s="71">
         <v>256</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="40">
+      <c r="F9" s="71">
         <v>90</v>
       </c>
-      <c r="G9" s="40" t="b">
+      <c r="G9" s="71" t="b">
         <v>0</v>
       </c>
-      <c r="H9" s="40" t="s">
+      <c r="H9" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="K9" s="40">
+      <c r="K9" s="90">
         <v>85.84</v>
       </c>
-      <c r="L9" s="44">
+      <c r="L9" s="85">
         <v>0.88619999999999999</v>
       </c>
-      <c r="M9" s="44">
+      <c r="M9" s="85">
         <v>0.83620000000000005</v>
       </c>
-      <c r="N9" s="44">
+      <c r="N9" s="85">
         <v>0.86050000000000004</v>
       </c>
-      <c r="O9" s="44">
+      <c r="O9" s="85">
         <v>0.83140000000000003</v>
       </c>
-      <c r="P9" s="44">
+      <c r="P9" s="85">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q9" s="44">
+      <c r="Q9" s="85">
         <v>0.85629999999999995</v>
       </c>
-      <c r="R9" s="40" t="s">
+      <c r="R9" s="72" t="s">
         <v>383</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="39">
+      <c r="A10" s="68"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="91">
         <v>86.43</v>
       </c>
-      <c r="L10" s="45">
+      <c r="L10" s="86">
         <v>0.84289999999999998</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M10" s="86">
         <v>0.90959999999999996</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N10" s="86">
         <v>0.875</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="86">
         <v>0.89190000000000003</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="86">
         <v>0.81479999999999997</v>
       </c>
-      <c r="Q10" s="45">
+      <c r="Q10" s="86">
         <v>0.85160000000000002</v>
       </c>
-      <c r="R10" s="39" t="s">
+      <c r="R10" s="37" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="39">
+      <c r="A11" s="68"/>
+      <c r="B11" s="68"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="91">
         <v>86.14</v>
       </c>
-      <c r="L11" s="45">
+      <c r="L11" s="86">
         <v>0.84570000000000001</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="86">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N11" s="45">
+      <c r="N11" s="86">
         <v>0.87119999999999997</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="86">
         <v>0.88080000000000003</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="86">
         <v>0.82099999999999995</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="86">
         <v>0.8498</v>
       </c>
-      <c r="R11" s="39" t="s">
+      <c r="R11" s="37" t="s">
         <v>386</v>
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="39">
+      <c r="A12" s="68"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="91">
         <v>84.37</v>
       </c>
-      <c r="L12" s="45">
+      <c r="L12" s="86">
         <v>0.83330000000000004</v>
       </c>
-      <c r="M12" s="45">
+      <c r="M12" s="86">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N12" s="45">
+      <c r="N12" s="86">
         <v>0.85399999999999998</v>
       </c>
-      <c r="O12" s="45">
+      <c r="O12" s="86">
         <v>0.85619999999999996</v>
       </c>
-      <c r="P12" s="45">
+      <c r="P12" s="86">
         <v>0.80859999999999999</v>
       </c>
-      <c r="Q12" s="45">
+      <c r="Q12" s="86">
         <v>0.83169999999999999</v>
       </c>
-      <c r="R12" s="39" t="s">
+      <c r="R12" s="37" t="s">
         <v>385</v>
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="39">
+      <c r="A13" s="68"/>
+      <c r="B13" s="68"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="91">
         <v>87.32</v>
       </c>
-      <c r="L13" s="45">
+      <c r="L13" s="86">
         <v>0.86019999999999996</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="86">
         <v>0.90400000000000003</v>
       </c>
-      <c r="N13" s="45">
+      <c r="N13" s="86">
         <v>0.88149999999999995</v>
       </c>
-      <c r="O13" s="45">
+      <c r="O13" s="86">
         <v>0.88890000000000002</v>
       </c>
-      <c r="P13" s="45">
+      <c r="P13" s="86">
         <v>0.83950000000000002</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="Q13" s="86">
         <v>0.86350000000000005</v>
       </c>
-      <c r="R13" s="39" t="s">
+      <c r="R13" s="37" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="71" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="71">
         <v>256</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="71">
         <v>90</v>
       </c>
-      <c r="G14" s="40" t="b">
+      <c r="G14" s="71" t="b">
         <v>0</v>
       </c>
-      <c r="H14" s="40" t="s">
+      <c r="H14" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="40" t="s">
+      <c r="I14" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="J14" s="40" t="s">
+      <c r="J14" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="K14" s="40">
+      <c r="K14" s="90">
         <v>85.55</v>
       </c>
-      <c r="L14" s="44">
+      <c r="L14" s="85">
         <v>0.82989999999999997</v>
       </c>
-      <c r="M14" s="44">
+      <c r="M14" s="85">
         <v>0.90959999999999996</v>
       </c>
-      <c r="N14" s="44">
+      <c r="N14" s="85">
         <v>0.8679</v>
       </c>
-      <c r="O14" s="44">
+      <c r="O14" s="85">
         <v>0.88970000000000005</v>
       </c>
-      <c r="P14" s="44">
+      <c r="P14" s="85">
         <v>0.79630000000000001</v>
       </c>
-      <c r="Q14" s="44">
+      <c r="Q14" s="85">
         <v>0.84040000000000004</v>
       </c>
-      <c r="R14" s="40" t="s">
+      <c r="R14" s="72" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="39">
+      <c r="A15" s="68"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="68"/>
+      <c r="D15" s="68"/>
+      <c r="E15" s="68"/>
+      <c r="F15" s="68"/>
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="68"/>
+      <c r="J15" s="68"/>
+      <c r="K15" s="91">
         <v>85.25</v>
       </c>
-      <c r="L15" s="45">
+      <c r="L15" s="86">
         <v>0.89439999999999997</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="86">
         <v>0.81359999999999999</v>
       </c>
-      <c r="N15" s="45">
+      <c r="N15" s="86">
         <v>0.85209999999999997</v>
       </c>
-      <c r="O15" s="45">
+      <c r="O15" s="86">
         <v>0.81459999999999999</v>
       </c>
-      <c r="P15" s="45">
+      <c r="P15" s="86">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="Q15" s="86">
         <v>0.85289999999999999</v>
       </c>
-      <c r="R15" s="39" t="s">
+      <c r="R15" s="37" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39">
+      <c r="A16" s="68"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="68"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="68"/>
+      <c r="F16" s="68"/>
+      <c r="G16" s="68"/>
+      <c r="H16" s="68"/>
+      <c r="I16" s="68"/>
+      <c r="J16" s="68"/>
+      <c r="K16" s="91">
         <v>87.61</v>
       </c>
-      <c r="L16" s="45">
+      <c r="L16" s="86">
         <v>0.86099999999999999</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="86">
         <v>0.90959999999999996</v>
       </c>
-      <c r="N16" s="45">
+      <c r="N16" s="86">
         <v>0.88460000000000005</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="86">
         <v>0.89470000000000005</v>
       </c>
-      <c r="P16" s="45">
+      <c r="P16" s="86">
         <v>0.83950000000000002</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="86">
         <v>0.86619999999999997</v>
       </c>
-      <c r="R16" s="39" t="s">
+      <c r="R16" s="37" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K17" s="39">
+      <c r="A17" s="69"/>
+      <c r="B17" s="68"/>
+      <c r="C17" s="68"/>
+      <c r="D17" s="68"/>
+      <c r="E17" s="68"/>
+      <c r="F17" s="68"/>
+      <c r="G17" s="68"/>
+      <c r="H17" s="68"/>
+      <c r="I17" s="68"/>
+      <c r="J17" s="68"/>
+      <c r="K17" s="91">
         <v>86.43</v>
       </c>
-      <c r="L17" s="43">
+      <c r="L17" s="82">
         <v>0.8579</v>
       </c>
-      <c r="M17" s="43">
+      <c r="M17" s="82">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N17" s="43">
+      <c r="N17" s="82">
         <v>0.87219999999999998</v>
       </c>
-      <c r="O17" s="43">
+      <c r="O17" s="82">
         <v>0.87180000000000002</v>
       </c>
-      <c r="P17" s="43">
+      <c r="P17" s="82">
         <v>0.83950000000000002</v>
       </c>
-      <c r="Q17" s="43">
+      <c r="Q17" s="82">
         <v>0.85529999999999995</v>
       </c>
-      <c r="R17" s="37" t="s">
+      <c r="R17" s="64" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="18" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K18" s="39">
+      <c r="A18" s="69"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
+      <c r="H18" s="68"/>
+      <c r="I18" s="68"/>
+      <c r="J18" s="68"/>
+      <c r="K18" s="91">
         <v>84.96</v>
       </c>
-      <c r="L18" s="43">
+      <c r="L18" s="82">
         <v>0.82809999999999995</v>
       </c>
-      <c r="M18" s="43">
+      <c r="M18" s="82">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N18" s="43">
+      <c r="N18" s="82">
         <v>0.86180000000000001</v>
       </c>
-      <c r="O18" s="43">
+      <c r="O18" s="82">
         <v>0.87760000000000005</v>
       </c>
-      <c r="P18" s="43">
+      <c r="P18" s="82">
         <v>0.79630000000000001</v>
       </c>
-      <c r="Q18" s="43">
+      <c r="Q18" s="82">
         <v>0.83499999999999996</v>
       </c>
-      <c r="R18" s="37" t="s">
+      <c r="R18" s="64" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="41" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="71">
         <v>256</v>
       </c>
-      <c r="E19" s="40" t="s">
+      <c r="E19" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="F19" s="40">
+      <c r="F19" s="71">
         <v>90</v>
       </c>
-      <c r="G19" s="40" t="b">
+      <c r="G19" s="71" t="b">
         <v>0</v>
       </c>
-      <c r="H19" s="40" t="s">
+      <c r="H19" s="71" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="40" t="s">
+      <c r="I19" s="71" t="s">
         <v>59</v>
       </c>
-      <c r="J19" s="40" t="s">
+      <c r="J19" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="K19" s="40">
+      <c r="K19" s="90">
         <v>83.19</v>
       </c>
-      <c r="L19" s="44">
+      <c r="L19" s="85">
         <v>0.83709999999999996</v>
       </c>
-      <c r="M19" s="44">
+      <c r="M19" s="85">
         <v>0.84179999999999999</v>
       </c>
-      <c r="N19" s="44">
+      <c r="N19" s="85">
         <v>0.83940000000000003</v>
       </c>
-      <c r="O19" s="44">
+      <c r="O19" s="85">
         <v>0.82609999999999995</v>
       </c>
-      <c r="P19" s="44">
+      <c r="P19" s="85">
         <v>0.82099999999999995</v>
       </c>
-      <c r="Q19" s="44">
+      <c r="Q19" s="85">
         <v>0.82350000000000001</v>
       </c>
-      <c r="R19" s="40" t="s">
+      <c r="R19" s="72" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A20" s="39"/>
-      <c r="B20" s="39"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="39"/>
-      <c r="E20" s="39"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="39">
+      <c r="A20" s="68"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="68"/>
+      <c r="D20" s="68"/>
+      <c r="E20" s="68"/>
+      <c r="F20" s="68"/>
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="68"/>
+      <c r="J20" s="68"/>
+      <c r="K20" s="91">
         <v>83.48</v>
       </c>
-      <c r="L20" s="45">
+      <c r="L20" s="86">
         <v>0.82699999999999996</v>
       </c>
-      <c r="M20" s="45">
+      <c r="M20" s="86">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N20" s="45">
+      <c r="N20" s="86">
         <v>0.84530000000000005</v>
       </c>
-      <c r="O20" s="45">
+      <c r="O20" s="86">
         <v>0.84419999999999995</v>
       </c>
-      <c r="P20" s="45">
+      <c r="P20" s="86">
         <v>0.80249999999999999</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="Q20" s="86">
         <v>0.82279999999999998</v>
       </c>
-      <c r="R20" s="39" t="s">
+      <c r="R20" s="37" t="s">
         <v>393</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K21" s="39">
+      <c r="A21" s="69"/>
+      <c r="B21" s="68"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
+      <c r="E21" s="68"/>
+      <c r="F21" s="68"/>
+      <c r="G21" s="68"/>
+      <c r="H21" s="68"/>
+      <c r="I21" s="68"/>
+      <c r="J21" s="68"/>
+      <c r="K21" s="91">
         <v>84.07</v>
       </c>
-      <c r="L21" s="43">
+      <c r="L21" s="82">
         <v>0.82889999999999997</v>
       </c>
-      <c r="M21" s="43">
+      <c r="M21" s="82">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N21" s="43">
+      <c r="N21" s="82">
         <v>0.85160000000000002</v>
       </c>
-      <c r="O21" s="43">
+      <c r="O21" s="82">
         <v>0.85529999999999995</v>
       </c>
-      <c r="P21" s="43">
+      <c r="P21" s="82">
         <v>0.80249999999999999</v>
       </c>
-      <c r="Q21" s="43">
+      <c r="Q21" s="82">
         <v>0.82799999999999996</v>
       </c>
-      <c r="R21" s="37" t="s">
+      <c r="R21" s="64" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K22" s="39">
+      <c r="A22" s="69"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="68"/>
+      <c r="D22" s="68"/>
+      <c r="E22" s="68"/>
+      <c r="F22" s="68"/>
+      <c r="G22" s="68"/>
+      <c r="H22" s="68"/>
+      <c r="I22" s="68"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="91">
         <v>83.48</v>
       </c>
-      <c r="L22" s="43">
+      <c r="L22" s="82">
         <v>0.82699999999999996</v>
       </c>
-      <c r="M22" s="43">
+      <c r="M22" s="82">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N22" s="43">
+      <c r="N22" s="82">
         <v>0.84530000000000005</v>
       </c>
-      <c r="O22" s="43">
+      <c r="O22" s="82">
         <v>0.84419999999999995</v>
       </c>
-      <c r="P22" s="43">
+      <c r="P22" s="82">
         <v>0.80249999999999999</v>
       </c>
-      <c r="Q22" s="43">
+      <c r="Q22" s="82">
         <v>0.82279999999999998</v>
       </c>
-      <c r="R22" s="37" t="s">
+      <c r="R22" s="64" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K23" s="39">
+      <c r="A23" s="69"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
+      <c r="D23" s="68"/>
+      <c r="E23" s="68"/>
+      <c r="F23" s="68"/>
+      <c r="G23" s="68"/>
+      <c r="H23" s="68"/>
+      <c r="I23" s="68"/>
+      <c r="J23" s="68"/>
+      <c r="K23" s="91">
         <v>79.650000000000006</v>
       </c>
-      <c r="L23" s="43">
+      <c r="L23" s="82">
         <v>0.88570000000000004</v>
       </c>
-      <c r="M23" s="43">
+      <c r="M23" s="82">
         <v>0.7006</v>
       </c>
-      <c r="N23" s="43">
+      <c r="N23" s="82">
         <v>0.7823</v>
       </c>
-      <c r="O23" s="43">
+      <c r="O23" s="82">
         <v>0.73370000000000002</v>
       </c>
-      <c r="P23" s="43">
+      <c r="P23" s="82">
         <v>0.9012</v>
       </c>
-      <c r="Q23" s="43">
+      <c r="Q23" s="82">
         <v>0.80889999999999995</v>
       </c>
-      <c r="R23" s="37" t="s">
+      <c r="R23" s="64" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="62" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="62" t="s">
+    <row r="24" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="65" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C24" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="D24" s="72">
+        <v>256</v>
+      </c>
+      <c r="E24" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="F24" s="72">
+        <v>90</v>
+      </c>
+      <c r="G24" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="I24" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="J24" s="72" t="s">
+        <v>367</v>
+      </c>
+      <c r="K24" s="66">
+        <v>88.5</v>
+      </c>
+      <c r="L24" s="67">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="M24" s="67">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N24" s="67">
+        <v>0.88949999999999996</v>
+      </c>
+      <c r="O24" s="67">
+        <v>0.87729999999999997</v>
+      </c>
+      <c r="P24" s="67">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q24" s="67">
+        <v>0.88</v>
+      </c>
+      <c r="R24" s="65" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K25" s="87">
+        <v>87.91</v>
+      </c>
+      <c r="L25" s="82">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="M25" s="82">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N25" s="82">
+        <v>0.88319999999999999</v>
+      </c>
+      <c r="O25" s="82">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="P25" s="82">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q25" s="82">
+        <v>0.87460000000000004</v>
+      </c>
+      <c r="R25" s="64" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K26" s="87">
+        <v>87.91</v>
+      </c>
+      <c r="L26" s="82">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="M26" s="82">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N26" s="82">
+        <v>0.88449999999999995</v>
+      </c>
+      <c r="O26" s="82">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="P26" s="82">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="Q26" s="82">
+        <v>0.87309999999999999</v>
+      </c>
+      <c r="R26" s="64" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K27" s="87">
+        <v>88.79</v>
+      </c>
+      <c r="L27" s="82">
+        <v>0.90639999999999998</v>
+      </c>
+      <c r="M27" s="82">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N27" s="82">
+        <v>0.89080000000000004</v>
+      </c>
+      <c r="O27" s="82">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="P27" s="82">
+        <v>0.9012</v>
+      </c>
+      <c r="Q27" s="82">
+        <v>0.88480000000000003</v>
+      </c>
+      <c r="R27" s="64" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K28" s="87">
+        <v>88.5</v>
+      </c>
+      <c r="L28" s="82">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="M28" s="82">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N28" s="82">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="O28" s="82">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="P28" s="82">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q28" s="82">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="R28" s="64" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="65" t="s">
         <v>339</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B29" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C29" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="D24" s="62">
+      <c r="D29" s="72">
         <v>256</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E29" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="F24" s="62">
+      <c r="F29" s="72">
         <v>90</v>
       </c>
-      <c r="G24" s="62" t="b">
+      <c r="G29" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="H24" s="62" t="s">
+      <c r="H29" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="I24" s="62" t="s">
+      <c r="I29" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="62" t="s">
+      <c r="J29" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="K24" s="62">
+      <c r="K29" s="66">
         <v>87.02</v>
       </c>
-      <c r="L24" s="63">
+      <c r="L29" s="67">
         <v>0.84099999999999997</v>
       </c>
-      <c r="M24" s="63">
+      <c r="M29" s="67">
         <v>0.92659999999999998</v>
       </c>
-      <c r="N24" s="63">
+      <c r="N29" s="67">
         <v>0.88170000000000004</v>
       </c>
-      <c r="O24" s="63">
+      <c r="O29" s="67">
         <v>0.90969999999999995</v>
       </c>
-      <c r="P24" s="63">
+      <c r="P29" s="67">
         <v>0.80859999999999999</v>
       </c>
-      <c r="Q24" s="63">
+      <c r="Q29" s="67">
         <v>0.85619999999999996</v>
       </c>
-      <c r="R24" s="62" t="s">
+      <c r="R29" s="65" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K25" s="37">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K30" s="87">
         <v>88.2</v>
       </c>
-      <c r="L25" s="43">
+      <c r="L30" s="82">
         <v>0.86629999999999996</v>
       </c>
-      <c r="M25" s="43">
+      <c r="M30" s="82">
         <v>0.9153</v>
       </c>
-      <c r="N25" s="43">
+      <c r="N30" s="82">
         <v>0.8901</v>
       </c>
-      <c r="O25" s="43">
+      <c r="O30" s="82">
         <v>0.90129999999999999</v>
       </c>
-      <c r="P25" s="43">
+      <c r="P30" s="82">
         <v>0.84570000000000001</v>
       </c>
-      <c r="Q25" s="43">
+      <c r="Q30" s="82">
         <v>0.87260000000000004</v>
       </c>
-      <c r="R25" s="37" t="s">
+      <c r="R30" s="64" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K26" s="37">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K31" s="87">
         <v>87.91</v>
       </c>
-      <c r="L26" s="43">
+      <c r="L31" s="82">
         <v>0.87360000000000004</v>
       </c>
-      <c r="M26" s="43">
+      <c r="M31" s="82">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N26" s="43">
+      <c r="N31" s="82">
         <v>0.88580000000000003</v>
       </c>
-      <c r="O26" s="43">
+      <c r="O31" s="82">
         <v>0.88539999999999996</v>
       </c>
-      <c r="P26" s="43">
+      <c r="P31" s="82">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q26" s="43">
+      <c r="Q31" s="82">
         <v>0.87150000000000005</v>
       </c>
-      <c r="R26" s="37" t="s">
+      <c r="R31" s="64" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K27" s="37">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K32" s="87">
         <v>87.02</v>
       </c>
-      <c r="L27" s="43">
+      <c r="L32" s="82">
         <v>0.84460000000000002</v>
       </c>
-      <c r="M27" s="43">
+      <c r="M32" s="82">
         <v>0.92090000000000005</v>
       </c>
-      <c r="N27" s="43">
+      <c r="N32" s="82">
         <v>0.88109999999999999</v>
       </c>
-      <c r="O27" s="43">
+      <c r="O32" s="82">
         <v>0.90410000000000001</v>
       </c>
-      <c r="P27" s="43">
+      <c r="P32" s="82">
         <v>0.81479999999999997</v>
       </c>
-      <c r="Q27" s="43">
+      <c r="Q32" s="82">
         <v>0.85709999999999997</v>
       </c>
-      <c r="R27" s="37" t="s">
+      <c r="R32" s="64" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A28" s="37" t="s">
-        <v>306</v>
-      </c>
-      <c r="B28" s="37" t="s">
+    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K33" s="87">
+        <v>89.09</v>
+      </c>
+      <c r="L33" s="82">
+        <v>0.90229999999999999</v>
+      </c>
+      <c r="M33" s="82">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N33" s="82">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="O33" s="82">
+        <v>0.87880000000000003</v>
+      </c>
+      <c r="P33" s="82">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q33" s="82">
+        <v>0.88690000000000002</v>
+      </c>
+      <c r="R33" s="64" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A34" s="65" t="s">
+        <v>380</v>
+      </c>
+      <c r="B34" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="37" t="s">
+      <c r="C34" s="72" t="s">
         <v>276</v>
       </c>
-      <c r="D28" s="37">
+      <c r="D34" s="72">
         <v>256</v>
       </c>
-      <c r="E28" s="37" t="s">
+      <c r="E34" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="F28" s="37">
+      <c r="F34" s="72">
         <v>90</v>
       </c>
-      <c r="G28" s="37" t="b">
+      <c r="G34" s="72" t="b">
         <v>0</v>
       </c>
-      <c r="H28" s="37" t="s">
+      <c r="H34" s="72" t="s">
         <v>277</v>
       </c>
-      <c r="I28" s="37" t="s">
+      <c r="I34" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="J28" s="37" t="s">
-        <v>367</v>
-      </c>
-      <c r="K28" s="37">
+      <c r="J34" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="K34" s="66">
         <v>88.5</v>
       </c>
-      <c r="L28" s="43">
+      <c r="L34" s="67">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="M34" s="67">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N34" s="67">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="O34" s="67">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="P34" s="67">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q34" s="67">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="R34" s="65" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K35" s="87">
+        <v>87.91</v>
+      </c>
+      <c r="L35" s="82">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="M35" s="82">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N35" s="82">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="O35" s="82">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="P35" s="82">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Q35" s="82">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="R35" s="64" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K36" s="87">
+        <v>88.5</v>
+      </c>
+      <c r="L36" s="82">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="M36" s="82">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N36" s="82">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="O36" s="82">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="P36" s="82">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q36" s="82">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="R36" s="64" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K37" s="87">
+        <v>88.2</v>
+      </c>
+      <c r="L37" s="82">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="M37" s="82">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N37" s="82">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="O37" s="82">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="P37" s="82">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="Q37" s="82">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="R37" s="64" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K38" s="87">
+        <v>88.5</v>
+      </c>
+      <c r="L38" s="82">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="M38" s="82">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N38" s="82">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="O38" s="82">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="P38" s="82">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q38" s="82">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="R38" s="64" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A39" s="65" t="s">
+        <v>422</v>
+      </c>
+      <c r="B39" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="D39" s="72">
+        <v>256</v>
+      </c>
+      <c r="E39" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="72">
+        <v>90</v>
+      </c>
+      <c r="G39" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="I39" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="J39" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="K39" s="66">
+        <v>87.02</v>
+      </c>
+      <c r="L39" s="67">
+        <v>0.84819999999999995</v>
+      </c>
+      <c r="M39" s="67">
+        <v>0.9153</v>
+      </c>
+      <c r="N39" s="67">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="O39" s="67">
+        <v>0.89859999999999995</v>
+      </c>
+      <c r="P39" s="67">
+        <v>0.82099999999999995</v>
+      </c>
+      <c r="Q39" s="67">
+        <v>0.85809999999999997</v>
+      </c>
+      <c r="R39" s="65" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K40" s="87">
+        <v>89.09</v>
+      </c>
+      <c r="L40" s="82">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="M40" s="82">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N40" s="82">
+        <v>0.89580000000000004</v>
+      </c>
+      <c r="O40" s="82">
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="P40" s="82">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q40" s="82">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="R40" s="64" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K41" s="87">
+        <v>87.91</v>
+      </c>
+      <c r="L41" s="82">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="M41" s="82">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N41" s="82">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="O41" s="82">
+        <v>0.89029999999999998</v>
+      </c>
+      <c r="P41" s="82">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="Q41" s="82">
+        <v>0.87070000000000003</v>
+      </c>
+      <c r="R41" s="64" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K42" s="87">
+        <v>88.79</v>
+      </c>
+      <c r="L42" s="82">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="M42" s="82">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="N42" s="82">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="O42" s="82">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="P42" s="82">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="Q42" s="82">
+        <v>0.879</v>
+      </c>
+      <c r="R42" s="64" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K43" s="87">
+        <v>88.79</v>
+      </c>
+      <c r="L43" s="82">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="M43" s="82">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="N43" s="82">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="O43" s="82">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="P43" s="82">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="Q43" s="82">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="R43" s="64" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A44" s="65" t="s">
+        <v>333</v>
+      </c>
+      <c r="B44" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="D44" s="72">
+        <v>256</v>
+      </c>
+      <c r="E44" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="F44" s="72">
+        <v>90</v>
+      </c>
+      <c r="G44" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="I44" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="J44" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="K44" s="66">
+        <v>88.2</v>
+      </c>
+      <c r="L44" s="67">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="M44" s="67">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="N44" s="67">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="O44" s="67">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="P44" s="67">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="Q44" s="67">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="R44" s="65" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K45" s="87">
+        <v>89.09</v>
+      </c>
+      <c r="L45" s="82">
+        <v>0.88039999999999996</v>
+      </c>
+      <c r="M45" s="82">
+        <v>0.9153</v>
+      </c>
+      <c r="N45" s="82">
+        <v>0.89749999999999996</v>
+      </c>
+      <c r="O45" s="82">
+        <v>0.9032</v>
+      </c>
+      <c r="P45" s="82">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q45" s="82">
+        <v>0.88329999999999997</v>
+      </c>
+      <c r="R45" s="64" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K46" s="87">
+        <v>88.79</v>
+      </c>
+      <c r="L46" s="82">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="M46" s="82">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="N46" s="82">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="O46" s="82">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="P46" s="82">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="Q46" s="82">
+        <v>0.8841</v>
+      </c>
+      <c r="R46" s="64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K47" s="87">
+        <v>87.91</v>
+      </c>
+      <c r="L47" s="82">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="M47" s="82">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="N47" s="82">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="O47" s="82">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="P47" s="82">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="Q47" s="82">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="R47" s="64" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K48" s="87">
+        <v>88.79</v>
+      </c>
+      <c r="L48" s="82">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="M48" s="82">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N48" s="82">
         <v>0.89200000000000002</v>
       </c>
-      <c r="M28" s="43">
+      <c r="O48" s="82">
+        <v>0.878</v>
+      </c>
+      <c r="P48" s="82">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="Q48" s="82">
+        <v>0.88339999999999996</v>
+      </c>
+      <c r="R48" s="64" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A49" s="81" t="s">
+        <v>424</v>
+      </c>
+      <c r="B49" s="80" t="s">
+        <v>66</v>
+      </c>
+      <c r="C49" s="80" t="s">
+        <v>276</v>
+      </c>
+      <c r="D49" s="80">
+        <v>256</v>
+      </c>
+      <c r="E49" s="80" t="s">
+        <v>101</v>
+      </c>
+      <c r="F49" s="80">
+        <v>90</v>
+      </c>
+      <c r="G49" s="80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="80" t="s">
+        <v>277</v>
+      </c>
+      <c r="I49" s="80" t="s">
+        <v>60</v>
+      </c>
+      <c r="J49" s="80" t="s">
+        <v>366</v>
+      </c>
+      <c r="K49" s="66">
+        <v>88.79</v>
+      </c>
+      <c r="L49" s="67">
+        <v>0.87170000000000003</v>
+      </c>
+      <c r="M49" s="67">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="N49" s="67">
+        <v>0.89559999999999995</v>
+      </c>
+      <c r="O49" s="67">
+        <v>0.90790000000000004</v>
+      </c>
+      <c r="P49" s="67">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="Q49" s="67">
+        <v>0.879</v>
+      </c>
+      <c r="R49" s="65" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K50" s="87">
+        <v>88.2</v>
+      </c>
+      <c r="L50" s="82">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="M50" s="82">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N50" s="82">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="O50" s="82">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="P50" s="82">
+        <v>0.9012</v>
+      </c>
+      <c r="Q50" s="82">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="R50" s="64" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K51" s="87">
+        <v>88.5</v>
+      </c>
+      <c r="L51" s="82">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="M51" s="82">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="N51" s="82">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="O51" s="82">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="P51" s="82">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="Q51" s="82">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="R51" s="64" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="K52" s="87">
+        <v>88.79</v>
+      </c>
+      <c r="L52" s="82">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="M52" s="82">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N28" s="43">
-        <v>0.88949999999999996</v>
-      </c>
-      <c r="O28" s="43">
-        <v>0.87729999999999997</v>
-      </c>
-      <c r="P28" s="43">
-        <v>0.88270000000000004</v>
-      </c>
-      <c r="Q28" s="43">
-        <v>0.88</v>
-      </c>
-      <c r="R28" s="37" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K29" s="37">
+      <c r="N52" s="82">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="O52" s="82">
+        <v>0.878</v>
+      </c>
+      <c r="P52" s="82">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="Q52" s="82">
+        <v>0.88339999999999996</v>
+      </c>
+      <c r="R52" s="64" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K53" s="87">
+        <v>89.09</v>
+      </c>
+      <c r="L53" s="82">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="M53" s="82">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N53" s="82">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="O53" s="82">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="P53" s="82">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="Q53" s="82">
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="R53" s="64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A54" s="65" t="s">
+        <v>309</v>
+      </c>
+      <c r="B54" s="72" t="s">
+        <v>66</v>
+      </c>
+      <c r="C54" s="72" t="s">
+        <v>276</v>
+      </c>
+      <c r="D54" s="72">
+        <v>256</v>
+      </c>
+      <c r="E54" s="72" t="s">
+        <v>101</v>
+      </c>
+      <c r="F54" s="72">
+        <v>90</v>
+      </c>
+      <c r="G54" s="72" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="72" t="s">
+        <v>277</v>
+      </c>
+      <c r="I54" s="72" t="s">
+        <v>60</v>
+      </c>
+      <c r="J54" s="72" t="s">
+        <v>366</v>
+      </c>
+      <c r="K54" s="66">
+        <v>86.73</v>
+      </c>
+      <c r="L54" s="67">
+        <v>0.86260000000000003</v>
+      </c>
+      <c r="M54" s="67">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="N54" s="67">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="O54" s="67">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="P54" s="67">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="Q54" s="67">
+        <v>0.8589</v>
+      </c>
+      <c r="R54" s="65" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A55" s="64" t="s">
+        <v>377</v>
+      </c>
+      <c r="B55" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D55" s="37">
+        <v>256</v>
+      </c>
+      <c r="E55" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F55" s="37">
+        <v>90</v>
+      </c>
+      <c r="G55" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H55" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I55" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J55" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K55" s="87">
+        <v>86.73</v>
+      </c>
+      <c r="L55" s="82">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="M55" s="82">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="N55" s="82">
+        <v>0.87319999999999998</v>
+      </c>
+      <c r="O55" s="82">
+        <v>0.86339999999999995</v>
+      </c>
+      <c r="P55" s="82">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Q55" s="82">
+        <v>0.86070000000000002</v>
+      </c>
+      <c r="R55" s="64" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A56" s="64" t="s">
+        <v>409</v>
+      </c>
+      <c r="B56" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" s="37">
+        <v>256</v>
+      </c>
+      <c r="E56" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="37">
+        <v>90</v>
+      </c>
+      <c r="G56" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I56" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K56" s="87">
+        <v>86.43</v>
+      </c>
+      <c r="L56" s="82">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="M56" s="82">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="N56" s="82">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="O56" s="82">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="P56" s="82">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="Q56" s="82">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="R56" s="64" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A57" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B57" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C57" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D57" s="37">
+        <v>256</v>
+      </c>
+      <c r="E57" s="37" t="s">
+        <v>103</v>
+      </c>
+      <c r="F57" s="37">
+        <v>90</v>
+      </c>
+      <c r="G57" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I57" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J57" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K57" s="87">
         <v>87.91</v>
       </c>
-      <c r="L29" s="43">
-        <v>0.89080000000000004</v>
-      </c>
-      <c r="M29" s="43">
-        <v>0.87570000000000003</v>
-      </c>
-      <c r="N29" s="43">
-        <v>0.88319999999999999</v>
-      </c>
-      <c r="O29" s="43">
-        <v>0.86670000000000003</v>
-      </c>
-      <c r="P29" s="43">
-        <v>0.88270000000000004</v>
-      </c>
-      <c r="Q29" s="43">
-        <v>0.87460000000000004</v>
-      </c>
-      <c r="R29" s="37" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K30" s="37">
-        <v>87.91</v>
-      </c>
-      <c r="L30" s="43">
-        <v>0.88200000000000001</v>
-      </c>
-      <c r="M30" s="43">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="N30" s="43">
-        <v>0.88449999999999995</v>
-      </c>
-      <c r="O30" s="43">
-        <v>0.87580000000000002</v>
-      </c>
-      <c r="P30" s="43">
-        <v>0.87039999999999995</v>
-      </c>
-      <c r="Q30" s="43">
-        <v>0.87309999999999999</v>
-      </c>
-      <c r="R30" s="37" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K31" s="37">
-        <v>88.79</v>
-      </c>
-      <c r="L31" s="43">
-        <v>0.90639999999999998</v>
-      </c>
-      <c r="M31" s="43">
-        <v>0.87570000000000003</v>
-      </c>
-      <c r="N31" s="43">
-        <v>0.89080000000000004</v>
-      </c>
-      <c r="O31" s="43">
-        <v>0.86899999999999999</v>
-      </c>
-      <c r="P31" s="43">
-        <v>0.9012</v>
-      </c>
-      <c r="Q31" s="43">
-        <v>0.88480000000000003</v>
-      </c>
-      <c r="R31" s="37" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K32" s="37">
-        <v>88.5</v>
-      </c>
-      <c r="L32" s="43">
-        <v>0.87909999999999999</v>
-      </c>
-      <c r="M32" s="43">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="N32" s="43">
-        <v>0.89139999999999997</v>
-      </c>
-      <c r="O32" s="43">
-        <v>0.89170000000000005</v>
-      </c>
-      <c r="P32" s="43">
+      <c r="L57" s="82">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="M57" s="82">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="N57" s="82">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="O57" s="82">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="P57" s="82">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="Q57" s="82">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="R57" s="64" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A58" s="64" t="s">
+        <v>412</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="37">
+        <v>256</v>
+      </c>
+      <c r="E58" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="37">
+        <v>90</v>
+      </c>
+      <c r="G58" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="37" t="s">
+        <v>277</v>
+      </c>
+      <c r="I58" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="37" t="s">
+        <v>366</v>
+      </c>
+      <c r="K58" s="87">
+        <v>85.84</v>
+      </c>
+      <c r="L58" s="82">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="M58" s="82">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="N58" s="82">
+        <v>0.8629</v>
+      </c>
+      <c r="O58" s="82">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="P58" s="82">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q32" s="43">
-        <v>0.87770000000000004</v>
-      </c>
-      <c r="R32" s="37" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A33" s="37" t="s">
-        <v>309</v>
-      </c>
-      <c r="B33" s="37" t="s">
+      <c r="Q58" s="82">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="R58" s="64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A59" s="64" t="s">
+        <v>415</v>
+      </c>
+      <c r="B59" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C33" s="37" t="s">
+      <c r="C59" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D59" s="37">
         <v>256</v>
       </c>
-      <c r="E33" s="37" t="s">
+      <c r="E59" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F33" s="37">
+      <c r="F59" s="37">
         <v>90</v>
       </c>
-      <c r="G33" s="37" t="b">
+      <c r="G59" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H33" s="37" t="s">
+      <c r="H59" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="I33" s="37" t="s">
+      <c r="I59" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J33" s="37" t="s">
+      <c r="J59" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="K33" s="37">
-        <v>86.73</v>
-      </c>
-      <c r="L33" s="43">
-        <v>0.86260000000000003</v>
-      </c>
-      <c r="M33" s="43">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="N33" s="43">
-        <v>0.87470000000000003</v>
-      </c>
-      <c r="O33" s="43">
-        <v>0.87260000000000004</v>
-      </c>
-      <c r="P33" s="43">
-        <v>0.84570000000000001</v>
-      </c>
-      <c r="Q33" s="43">
-        <v>0.8589</v>
-      </c>
-      <c r="R33" s="37" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A34" s="37" t="s">
-        <v>333</v>
-      </c>
-      <c r="B34" s="37" t="s">
+      <c r="K59" s="87">
+        <v>85.25</v>
+      </c>
+      <c r="L59" s="82">
+        <v>0.8508</v>
+      </c>
+      <c r="M59" s="82">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="N59" s="82">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="O59" s="82">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="P59" s="82">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="Q59" s="82">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="R59" s="64" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
+      <c r="A60" s="64" t="s">
+        <v>433</v>
+      </c>
+      <c r="B60" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="37" t="s">
+      <c r="C60" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D60" s="37">
         <v>256</v>
       </c>
-      <c r="E34" s="37" t="s">
+      <c r="E60" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F34" s="37">
+      <c r="F60" s="37">
         <v>90</v>
       </c>
-      <c r="G34" s="37" t="b">
+      <c r="G60" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H34" s="37" t="s">
+      <c r="H60" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="I34" s="37" t="s">
+      <c r="I60" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J34" s="37" t="s">
+      <c r="J60" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="K34" s="37">
-        <v>88.2</v>
-      </c>
-      <c r="L34" s="43">
-        <v>0.88270000000000004</v>
-      </c>
-      <c r="M34" s="43">
-        <v>0.89270000000000005</v>
-      </c>
-      <c r="N34" s="43">
-        <v>0.88759999999999994</v>
-      </c>
-      <c r="O34" s="43">
-        <v>0.88119999999999998</v>
-      </c>
-      <c r="P34" s="43">
-        <v>0.87039999999999995</v>
-      </c>
-      <c r="Q34" s="43">
-        <v>0.87580000000000002</v>
-      </c>
-      <c r="R34" s="37" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A35" s="36" t="s">
-        <v>380</v>
-      </c>
-      <c r="B35" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D35" s="37">
-        <v>256</v>
-      </c>
-      <c r="E35" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F35" s="37">
-        <v>90</v>
-      </c>
-      <c r="G35" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I35" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K35" s="37">
-        <v>88.5</v>
-      </c>
-      <c r="L35" s="43">
-        <v>0.87909999999999999</v>
-      </c>
-      <c r="M35" s="43">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="N35" s="43">
-        <v>0.89139999999999997</v>
-      </c>
-      <c r="O35" s="43">
-        <v>0.89170000000000005</v>
-      </c>
-      <c r="P35" s="43">
-        <v>0.86419999999999997</v>
-      </c>
-      <c r="Q35" s="43">
-        <v>0.87770000000000004</v>
-      </c>
-      <c r="R35" s="37" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K36" s="37">
-        <v>87.91</v>
-      </c>
-      <c r="L36" s="43">
-        <v>0.87360000000000004</v>
-      </c>
-      <c r="M36" s="43">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="N36" s="43">
-        <v>0.88580000000000003</v>
-      </c>
-      <c r="O36" s="43">
-        <v>0.88539999999999996</v>
-      </c>
-      <c r="P36" s="43">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="Q36" s="43">
-        <v>0.87150000000000005</v>
-      </c>
-      <c r="R36" s="37" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K37" s="37">
-        <v>88.5</v>
-      </c>
-      <c r="L37" s="43">
-        <v>0.87909999999999999</v>
-      </c>
-      <c r="M37" s="43">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="N37" s="43">
-        <v>0.89139999999999997</v>
-      </c>
-      <c r="O37" s="43">
-        <v>0.89170000000000005</v>
-      </c>
-      <c r="P37" s="43">
-        <v>0.86419999999999997</v>
-      </c>
-      <c r="Q37" s="43">
-        <v>0.87770000000000004</v>
-      </c>
-      <c r="R37" s="37" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K38" s="37">
-        <v>88.2</v>
-      </c>
-      <c r="L38" s="43">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="M38" s="43">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="N38" s="43">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="O38" s="43">
-        <v>0.87649999999999995</v>
-      </c>
-      <c r="P38" s="43">
-        <v>0.87649999999999995</v>
-      </c>
-      <c r="Q38" s="43">
-        <v>0.87649999999999995</v>
-      </c>
-      <c r="R38" s="37" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K39" s="37">
-        <v>88.5</v>
-      </c>
-      <c r="L39" s="43">
-        <v>0.87909999999999999</v>
-      </c>
-      <c r="M39" s="43">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="N39" s="43">
-        <v>0.89139999999999997</v>
-      </c>
-      <c r="O39" s="43">
-        <v>0.89170000000000005</v>
-      </c>
-      <c r="P39" s="43">
-        <v>0.86419999999999997</v>
-      </c>
-      <c r="Q39" s="43">
-        <v>0.87770000000000004</v>
-      </c>
-      <c r="R39" s="37" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A40" s="37" t="s">
-        <v>377</v>
-      </c>
-      <c r="B40" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D40" s="37">
-        <v>256</v>
-      </c>
-      <c r="E40" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F40" s="37">
-        <v>90</v>
-      </c>
-      <c r="G40" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H40" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I40" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J40" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K40" s="37">
-        <v>86.73</v>
-      </c>
-      <c r="L40" s="43">
-        <v>0.87080000000000002</v>
-      </c>
-      <c r="M40" s="43">
-        <v>0.87570000000000003</v>
-      </c>
-      <c r="N40" s="43">
-        <v>0.87319999999999998</v>
-      </c>
-      <c r="O40" s="43">
-        <v>0.86339999999999995</v>
-      </c>
-      <c r="P40" s="43">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="Q40" s="43">
-        <v>0.86070000000000002</v>
-      </c>
-      <c r="R40" s="37" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A41" s="37" t="s">
-        <v>409</v>
-      </c>
-      <c r="B41" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C41" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D41" s="37">
-        <v>256</v>
-      </c>
-      <c r="E41" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F41" s="37">
-        <v>90</v>
-      </c>
-      <c r="G41" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H41" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I41" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J41" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K41" s="37">
-        <v>86.43</v>
-      </c>
-      <c r="L41" s="43">
-        <v>0.87860000000000005</v>
-      </c>
-      <c r="M41" s="43">
-        <v>0.85880000000000001</v>
-      </c>
-      <c r="N41" s="43">
-        <v>0.86860000000000004</v>
-      </c>
-      <c r="O41" s="43">
-        <v>0.84940000000000004</v>
-      </c>
-      <c r="P41" s="43">
-        <v>0.87039999999999995</v>
-      </c>
-      <c r="Q41" s="43">
-        <v>0.85980000000000001</v>
-      </c>
-      <c r="R41" s="37" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A42" s="37" t="s">
-        <v>380</v>
-      </c>
-      <c r="B42" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C42" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D42" s="37">
-        <v>256</v>
-      </c>
-      <c r="E42" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="F42" s="37">
-        <v>90</v>
-      </c>
-      <c r="G42" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H42" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I42" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J42" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K42" s="37">
-        <v>87.91</v>
-      </c>
-      <c r="L42" s="43">
-        <v>0.87360000000000004</v>
-      </c>
-      <c r="M42" s="43">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="N42" s="43">
-        <v>0.88580000000000003</v>
-      </c>
-      <c r="O42" s="43">
-        <v>0.88539999999999996</v>
-      </c>
-      <c r="P42" s="43">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="Q42" s="43">
-        <v>0.87150000000000005</v>
-      </c>
-      <c r="R42" s="37" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A43" s="37" t="s">
-        <v>412</v>
-      </c>
-      <c r="B43" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C43" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D43" s="37">
-        <v>256</v>
-      </c>
-      <c r="E43" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F43" s="37">
-        <v>90</v>
-      </c>
-      <c r="G43" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H43" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I43" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J43" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K43" s="37">
-        <v>85.84</v>
-      </c>
-      <c r="L43" s="43">
-        <v>0.87280000000000002</v>
-      </c>
-      <c r="M43" s="43">
-        <v>0.85309999999999997</v>
-      </c>
-      <c r="N43" s="43">
+      <c r="K60" s="87">
+        <v>89.68</v>
+      </c>
+      <c r="L60" s="82">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="M60" s="82">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="N60" s="82">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="O60" s="82">
         <v>0.8629</v>
       </c>
-      <c r="O43" s="43">
-        <v>0.84340000000000004</v>
-      </c>
-      <c r="P43" s="43">
-        <v>0.86419999999999997</v>
-      </c>
-      <c r="Q43" s="43">
-        <v>0.85370000000000001</v>
-      </c>
-      <c r="R43" s="37" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A44" s="37" t="s">
-        <v>415</v>
-      </c>
-      <c r="B44" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C44" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D44" s="37">
-        <v>256</v>
-      </c>
-      <c r="E44" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F44" s="37">
-        <v>90</v>
-      </c>
-      <c r="G44" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I44" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J44" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="R44" s="37" t="s">
-        <v>414</v>
+      <c r="P60" s="82">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="Q60" s="82">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="R60" s="64" t="s">
+        <v>432</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N1:N1048576">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -7756,9 +8606,9 @@
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color theme="0"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>
@@ -7772,430 +8622,538 @@
   <dimension ref="A3:W13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" style="52" customWidth="1"/>
-    <col min="2" max="3" width="14.296875" style="52" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="52" customWidth="1"/>
-    <col min="5" max="5" width="19.296875" style="52" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" style="52" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" style="52" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" style="52" customWidth="1"/>
-    <col min="9" max="9" width="17.296875" style="52" customWidth="1"/>
-    <col min="10" max="10" width="16.59765625" style="52" customWidth="1"/>
-    <col min="11" max="18" width="17.796875" style="52" customWidth="1"/>
-    <col min="19" max="16384" width="8.796875" style="52"/>
+    <col min="1" max="1" width="46.3984375" style="77" customWidth="1"/>
+    <col min="2" max="3" width="14.296875" style="77" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="77" customWidth="1"/>
+    <col min="5" max="5" width="19.296875" style="77" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="77" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" style="77" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" style="77" customWidth="1"/>
+    <col min="9" max="9" width="17.296875" style="77" customWidth="1"/>
+    <col min="10" max="10" width="16.59765625" style="77" customWidth="1"/>
+    <col min="11" max="11" width="17.796875" style="77" customWidth="1"/>
+    <col min="12" max="17" width="17.796875" style="93" customWidth="1"/>
+    <col min="18" max="18" width="17.796875" style="77" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="77"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="50" t="s">
+    <row r="3" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="50" t="s">
+      <c r="B3" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="50" t="s">
+      <c r="D3" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="50" t="s">
+      <c r="E3" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="50" t="s">
+      <c r="F3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="50" t="s">
+      <c r="G3" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="50" t="s">
+      <c r="H3" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="50" t="s">
+      <c r="I3" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="50" t="s">
+      <c r="J3" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="K3" s="50" t="s">
+      <c r="K3" s="75" t="s">
         <v>255</v>
       </c>
-      <c r="L3" s="50" t="s">
+      <c r="L3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="50" t="s">
+      <c r="M3" s="92" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="50" t="s">
+      <c r="N3" s="92" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="50" t="s">
+      <c r="O3" s="92" t="s">
         <v>259</v>
       </c>
-      <c r="P3" s="50" t="s">
+      <c r="P3" s="92" t="s">
         <v>260</v>
       </c>
-      <c r="Q3" s="50" t="s">
+      <c r="Q3" s="92" t="s">
         <v>261</v>
       </c>
-      <c r="R3" s="50" t="s">
+      <c r="R3" s="75" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="52" t="s">
+    <row r="4" spans="1:23" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="53">
+      <c r="D4" s="37">
         <v>256</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="37">
         <v>90</v>
       </c>
-      <c r="G4" s="53" t="b">
+      <c r="G4" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="53" t="s">
+      <c r="H4" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="53" t="s">
+      <c r="I4" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="53" t="s">
+      <c r="J4" s="37" t="s">
         <v>367</v>
       </c>
-      <c r="K4" s="52">
+      <c r="K4" s="77">
         <v>90.71</v>
       </c>
-      <c r="L4" s="52">
+      <c r="L4" s="93">
         <v>0.92369999999999997</v>
       </c>
-      <c r="M4" s="52">
+      <c r="M4" s="93">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N4" s="52">
+      <c r="N4" s="93">
         <v>0.91080000000000005</v>
       </c>
-      <c r="O4" s="52">
+      <c r="O4" s="93">
         <v>0.88949999999999996</v>
       </c>
-      <c r="P4" s="52">
+      <c r="P4" s="93">
         <v>0.91690000000000005</v>
       </c>
-      <c r="Q4" s="52">
+      <c r="Q4" s="93">
         <v>0.90300000000000002</v>
       </c>
-      <c r="R4" s="52" t="s">
+      <c r="R4" s="77" t="s">
         <v>362</v>
       </c>
-      <c r="S4" s="52"/>
-      <c r="T4" s="52"/>
-      <c r="U4" s="52"/>
-      <c r="V4" s="52"/>
-      <c r="W4" s="52"/>
-    </row>
-    <row r="5" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="53" t="s">
+      <c r="S4" s="77"/>
+      <c r="T4" s="77"/>
+      <c r="U4" s="77"/>
+      <c r="V4" s="77"/>
+      <c r="W4" s="77"/>
+    </row>
+    <row r="5" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="53">
+      <c r="D5" s="37">
         <v>256</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="37">
         <v>90</v>
       </c>
-      <c r="G5" s="53" t="b">
+      <c r="G5" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="53" t="s">
+      <c r="H5" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="53" t="s">
+      <c r="I5" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="53" t="s">
+      <c r="J5" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="K5" s="55">
+      <c r="K5" s="79">
         <v>91.93</v>
       </c>
-      <c r="L5" s="55">
+      <c r="L5" s="94">
         <v>0.93169999999999997</v>
       </c>
-      <c r="M5" s="55">
+      <c r="M5" s="94">
         <v>0.91420000000000001</v>
       </c>
-      <c r="N5" s="55">
+      <c r="N5" s="94">
         <v>0.92279999999999995</v>
       </c>
-      <c r="O5" s="55">
+      <c r="O5" s="94">
         <v>0.90590000000000004</v>
       </c>
-      <c r="P5" s="55">
+      <c r="P5" s="94">
         <v>0.92500000000000004</v>
       </c>
-      <c r="Q5" s="55">
+      <c r="Q5" s="94">
         <v>0.91539999999999999</v>
       </c>
-      <c r="R5" s="55" t="s">
+      <c r="R5" s="79" t="s">
         <v>403</v>
       </c>
     </row>
-    <row r="6" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="53" t="s">
+    <row r="6" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="53">
+      <c r="D6" s="37">
         <v>256</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="37">
         <v>90</v>
       </c>
-      <c r="G6" s="53" t="b">
+      <c r="G6" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="53" t="s">
+      <c r="J6" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="53"/>
-      <c r="M6" s="53"/>
-      <c r="N6" s="53"/>
-      <c r="O6" s="53"/>
-      <c r="P6" s="53"/>
-      <c r="Q6" s="53"/>
-      <c r="R6" s="53" t="s">
+      <c r="K6" s="37">
+        <v>92.14</v>
+      </c>
+      <c r="L6" s="86">
+        <v>0.94430000000000003</v>
+      </c>
+      <c r="M6" s="86">
+        <v>0.90459999999999996</v>
+      </c>
+      <c r="N6" s="86">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="O6" s="86">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="P6" s="86">
+        <v>0.94030000000000002</v>
+      </c>
+      <c r="Q6" s="86">
+        <v>0.91859999999999997</v>
+      </c>
+      <c r="R6" s="37" t="s">
         <v>404</v>
       </c>
-      <c r="S6" s="46"/>
-    </row>
-    <row r="7" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="53" t="s">
+      <c r="S6" s="64"/>
+    </row>
+    <row r="7" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="53">
+      <c r="D7" s="37">
         <v>256</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="37">
         <v>90</v>
       </c>
-      <c r="G7" s="53" t="b">
+      <c r="G7" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="I7" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="53" t="s">
+      <c r="J7" s="37" t="s">
         <v>366</v>
       </c>
-      <c r="K7" s="55"/>
-      <c r="L7" s="55"/>
-      <c r="M7" s="55"/>
-      <c r="N7" s="55"/>
-      <c r="O7" s="55"/>
-      <c r="P7" s="55"/>
-      <c r="Q7" s="55"/>
-      <c r="R7" s="55"/>
+      <c r="K7" s="79">
+        <v>92.11</v>
+      </c>
+      <c r="L7" s="94">
+        <v>0.93840000000000001</v>
+      </c>
+      <c r="M7" s="94">
+        <v>0.91039999999999999</v>
+      </c>
+      <c r="N7" s="94">
+        <v>0.92420000000000002</v>
+      </c>
+      <c r="O7" s="94">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="P7" s="94">
+        <v>0.93310000000000004</v>
+      </c>
+      <c r="Q7" s="94">
+        <v>0.91779999999999995</v>
+      </c>
+      <c r="R7" s="79" t="s">
+        <v>416</v>
+      </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
-      <c r="A8" s="56" t="s">
-        <v>296</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C8" s="53" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="53">
+      <c r="A8" s="47" t="s">
+        <v>423</v>
+      </c>
+      <c r="B8" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="37" t="s">
+        <v>276</v>
+      </c>
+      <c r="D8" s="37">
         <v>256</v>
       </c>
-      <c r="E8" s="52" t="s">
+      <c r="E8" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="F8" s="52">
+      <c r="F8" s="77">
         <v>90</v>
       </c>
-      <c r="G8" s="52" t="b">
+      <c r="G8" s="77" t="b">
         <v>0</v>
       </c>
-      <c r="H8" s="52" t="s">
+      <c r="H8" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="J8" s="77" t="s">
         <v>366</v>
       </c>
-    </row>
-    <row r="9" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="53"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="55"/>
-      <c r="L9" s="55"/>
-      <c r="M9" s="55"/>
-      <c r="N9" s="55"/>
-      <c r="O9" s="55"/>
-      <c r="P9" s="55"/>
-      <c r="Q9" s="55"/>
-      <c r="R9" s="55"/>
-    </row>
-    <row r="10" spans="1:23" s="58" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="57"/>
-      <c r="B10" s="57"/>
-      <c r="C10" s="57"/>
-      <c r="D10" s="57"/>
-      <c r="E10" s="57"/>
-      <c r="F10" s="57"/>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="53"/>
-      <c r="L10" s="53"/>
-      <c r="M10" s="53"/>
-      <c r="N10" s="53"/>
-      <c r="O10" s="53"/>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
-      <c r="S10" s="46"/>
-    </row>
-    <row r="11" spans="1:23" s="54" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="52"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53"/>
-      <c r="H11" s="53"/>
-      <c r="I11" s="53"/>
-      <c r="J11" s="53"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
-      <c r="M11" s="52"/>
-      <c r="N11" s="52"/>
-      <c r="O11" s="52"/>
-      <c r="P11" s="52"/>
-      <c r="Q11" s="52"/>
-      <c r="R11" s="52"/>
-      <c r="S11" s="52"/>
-      <c r="T11" s="52"/>
-      <c r="U11" s="52"/>
-      <c r="V11" s="52"/>
-      <c r="W11" s="52"/>
-    </row>
-    <row r="12" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="53"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53"/>
-      <c r="H12" s="53"/>
-      <c r="I12" s="53"/>
-      <c r="J12" s="53"/>
-      <c r="K12" s="55"/>
-      <c r="L12" s="55"/>
-      <c r="M12" s="55"/>
-      <c r="N12" s="55"/>
-      <c r="O12" s="55"/>
-      <c r="P12" s="55"/>
-      <c r="Q12" s="55"/>
-      <c r="R12" s="55"/>
-    </row>
-    <row r="13" spans="1:23" s="51" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="53"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="46"/>
+      <c r="R8" s="77" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="37"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="79"/>
+      <c r="L9" s="94"/>
+      <c r="M9" s="94"/>
+      <c r="N9" s="94"/>
+      <c r="O9" s="94"/>
+      <c r="P9" s="94"/>
+      <c r="Q9" s="94"/>
+      <c r="R9" s="79"/>
+    </row>
+    <row r="10" spans="1:23" s="70" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="37"/>
+      <c r="L10" s="86"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="86"/>
+      <c r="O10" s="86"/>
+      <c r="P10" s="86"/>
+      <c r="Q10" s="86"/>
+      <c r="R10" s="37"/>
+      <c r="S10" s="64"/>
+    </row>
+    <row r="11" spans="1:23" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="77"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="77"/>
+      <c r="L11" s="93"/>
+      <c r="M11" s="93"/>
+      <c r="N11" s="93"/>
+      <c r="O11" s="93"/>
+      <c r="P11" s="93"/>
+      <c r="Q11" s="93"/>
+      <c r="R11" s="77"/>
+      <c r="S11" s="77"/>
+      <c r="T11" s="77"/>
+      <c r="U11" s="77"/>
+      <c r="V11" s="77"/>
+      <c r="W11" s="77"/>
+    </row>
+    <row r="12" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="37"/>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+      <c r="H12" s="37"/>
+      <c r="I12" s="37"/>
+      <c r="J12" s="37"/>
+      <c r="K12" s="79"/>
+      <c r="L12" s="94"/>
+      <c r="M12" s="94"/>
+      <c r="N12" s="94"/>
+      <c r="O12" s="94"/>
+      <c r="P12" s="94"/>
+      <c r="Q12" s="94"/>
+      <c r="R12" s="79"/>
+    </row>
+    <row r="13" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="86"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="37"/>
+      <c r="S13" s="64"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="N1:N1048576">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1:K1048576">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:O1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:P1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:Q1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
         <cfvo type="max"/>
-        <color rgb="FFFFFF00"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FFFF0000"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
       </colorScale>
     </cfRule>
   </conditionalFormatting>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07F62E7C-A6B1-44F5-8860-B6ED680047F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5923BB75-01B7-4C12-A1E3-0191478399E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="660" firstSheet="1" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
+    <workbookView xWindow="11004" yWindow="25788" windowWidth="23304" windowHeight="13944" tabRatio="660" firstSheet="1" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
   <sheets>
     <sheet name="연산량, 데이터셋 비교" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1247" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1405" uniqueCount="498">
   <si>
     <t>모델</t>
   </si>
@@ -1471,103 +1471,308 @@
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_071918</t>
   </si>
   <si>
+    <t>Ours (weight_decay 0.01, ps56, drop0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_075111</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_095755</t>
+  </si>
+  <si>
+    <t>Ours 2 (weight_decay 0.01, ps112, drop0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_112923</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_115250</t>
+  </si>
+  <si>
+    <t>Ours 2 (weight_decay 0.1, ps112, drop0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/Sewer-ML/baseline_mobilenet_v4_20251116_090355</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_112919</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_112927</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_112934</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_112503</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_115427</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.01, ps112, drop0.1, rest_attn)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.1, ps112, drop0.1, res_attn)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_120247</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_120248</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_120249</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_122527</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_123254</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_123335</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_123336</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_125631</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.01, ps224, drop0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_130420</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_130422</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_130423</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.1, ps112, drop0.1, res_attn, emb_dim 36)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.1, ps112, drop0.1, res_attn, emb_dim 48)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_135506</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_135512</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_135528</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_135522</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.15, ps112, drop0.1, res_attn)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_142843</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_142844</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_142845</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_142846</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_020953</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_021033</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_021113</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.15, ps112, drop0.1, res_attn, lr 0.002)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours 초기값: adamaWweight_decay 0.01, drop 0.01, feat2, ps56, res_attn false, layers2, patch1, ff_ratio2, lr0.001, PEtrue</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/Sewer-ML/run_20251116_224104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.1, ps112, drop0.1, res_attn, layers5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_122344</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_122353</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_122414</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_122419</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.1, ps112, drop0.1, layers5)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_125510</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_125511</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_125513</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_125514</t>
+  </si>
+  <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_072026</t>
-  </si>
-  <si>
-    <t>Ours (weight_decay 0.01, ps56, drop0.1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_075111</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_095755</t>
-  </si>
-  <si>
-    <t>Ours 2 (weight_decay 0.01, ps112, drop0.1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_112923</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_115250</t>
-  </si>
-  <si>
-    <t>Ours 2 (weight_decay 0.1, ps112, drop0.1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>log/Sewer-ML/baseline_mobilenet_v4_20251116_090355</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_112919</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_112927</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_112934</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_112503</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_115427</t>
-  </si>
-  <si>
-    <t>Ours (weight_decay 0.01, ps112, drop0.1, rest_attn)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Ours (weight_decay 0.1, ps112, drop0.1, res_attn)</t>
-  </si>
-  <si>
-    <t>Ours (weight_decay 0.1, ps112, drop0.1, res_attn)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_120247</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_120248</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_120249</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_122527</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_123254</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_123335</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_123336</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_125631</t>
-  </si>
-  <si>
-    <t>Ours (weight_decay 0.01, ps224, drop0.1)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_130420</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_130422</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251116_130423</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>log/Sewer-ML/run_20251116_224104</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_134016</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_134020</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_134024</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_134029</t>
+  </si>
+  <si>
+    <t>sgd</t>
+  </si>
+  <si>
+    <t>sgd</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>multisteplr(30,60,80, 0.1)</t>
+  </si>
+  <si>
+    <t>multisteplr(30,60,80, 0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_141202</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.001)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.1)</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, lr 0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_142955</t>
+  </si>
+  <si>
+    <t>multisteplr(30,50,70,80 0.1)</t>
+  </si>
+  <si>
+    <t>multisteplr(30,50,70,80 0.1)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_144506</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_145057</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_145134</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_150009</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min0.0003)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours 초기값: adamaWweight_decay 0.01, drop 0.01, feat2, ps56, res_attn false, layers2, patch1, ff_ratio2, lr0.001, PEtrue, eta_min: 0.000001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_151835</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_152215</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_152240</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min0.0005)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn, eta_min0.0001)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_153225</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_155414</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_155419</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251117_155650</t>
+  </si>
+  <si>
+    <t>log/Sewer-ML/run_20251118_010421</t>
+  </si>
+  <si>
+    <t>Best model's Test ACC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final epoch's train ACC</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1580,7 +1785,7 @@
     <numFmt numFmtId="186" formatCode="0.0000_ "/>
     <numFmt numFmtId="187" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1641,6 +1846,15 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -1807,11 +2021,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1891,6 +2108,9 @@
     <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1900,10 +2120,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1915,13 +2135,13 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1931,9 +2151,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2065,9 +2282,6 @@
     <xf numFmtId="187" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="187" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="187" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2078,9 +2292,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2101,10 +2312,17 @@
     <xf numFmtId="187" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="메모" xfId="1" builtinId="10"/>
     <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="하이퍼링크" xfId="2" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2539,7 +2757,7 @@
       <c r="I3" s="14">
         <v>10.06</v>
       </c>
-      <c r="J3" s="28">
+      <c r="J3" s="29">
         <v>65.77</v>
       </c>
       <c r="K3" s="14" t="s">
@@ -2574,7 +2792,7 @@
       <c r="I4" s="14">
         <v>10.51</v>
       </c>
-      <c r="J4" s="28">
+      <c r="J4" s="29">
         <v>203.42</v>
       </c>
       <c r="K4" s="14" t="s">
@@ -2609,7 +2827,7 @@
       <c r="I5" s="14">
         <v>17.559999999999999</v>
       </c>
-      <c r="J5" s="28">
+      <c r="J5" s="29">
         <v>89.51</v>
       </c>
       <c r="K5" s="14" t="s">
@@ -2644,7 +2862,7 @@
       <c r="I6" s="14">
         <v>8.9600000000000009</v>
       </c>
-      <c r="J6" s="28">
+      <c r="J6" s="29">
         <v>60.28</v>
       </c>
       <c r="K6" s="14" t="s">
@@ -2679,7 +2897,7 @@
       <c r="I7" s="14">
         <v>21.07</v>
       </c>
-      <c r="J7" s="28">
+      <c r="J7" s="29">
         <v>61.07</v>
       </c>
       <c r="K7" s="14" t="s">
@@ -2714,7 +2932,7 @@
       <c r="I8" s="16">
         <v>3.61</v>
       </c>
-      <c r="J8" s="29">
+      <c r="J8" s="30">
         <v>19.38</v>
       </c>
       <c r="K8" s="14" t="s">
@@ -2757,7 +2975,7 @@
       <c r="E15" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="F15" s="27" t="s">
+      <c r="F15" s="28" t="s">
         <v>114</v>
       </c>
     </row>
@@ -2820,31 +3038,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90BF4E89-56A3-4502-BA89-E13C3B2DF54B}">
   <dimension ref="A1:S80"/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="D1" zoomScale="84" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="57.3984375" style="36" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="36" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="36" customWidth="1"/>
-    <col min="4" max="5" width="18.59765625" style="36" customWidth="1"/>
-    <col min="6" max="6" width="8" style="36" customWidth="1"/>
-    <col min="7" max="7" width="13" style="36" customWidth="1"/>
-    <col min="8" max="11" width="18.59765625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="57.3984375" style="37" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="37" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="37" customWidth="1"/>
+    <col min="4" max="5" width="18.59765625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="8" style="37" customWidth="1"/>
+    <col min="7" max="7" width="13" style="37" customWidth="1"/>
+    <col min="8" max="11" width="18.59765625" style="37" customWidth="1"/>
     <col min="12" max="17" width="18.59765625" style="44" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="36"/>
+    <col min="18" max="16384" width="8.796875" style="37"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="37" t="s">
         <v>363</v>
       </c>
     </row>
@@ -2961,7 +3179,7 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K5" s="36">
+      <c r="K5" s="37">
         <v>78.17</v>
       </c>
       <c r="L5" s="44">
@@ -2982,12 +3200,12 @@
       <c r="Q5" s="44">
         <v>0.72989999999999999</v>
       </c>
-      <c r="R5" s="36" t="s">
+      <c r="R5" s="37" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K6" s="36">
+      <c r="K6" s="37">
         <v>84.96</v>
       </c>
       <c r="L6" s="44">
@@ -3008,12 +3226,12 @@
       <c r="Q6" s="44">
         <v>0.84870000000000001</v>
       </c>
-      <c r="R6" s="36" t="s">
+      <c r="R6" s="37" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K7" s="36">
+      <c r="K7" s="37">
         <v>79.650000000000006</v>
       </c>
       <c r="L7" s="44">
@@ -3034,12 +3252,12 @@
       <c r="Q7" s="44">
         <v>0.74909999999999999</v>
       </c>
-      <c r="R7" s="36" t="s">
+      <c r="R7" s="37" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K8" s="36">
+      <c r="K8" s="37">
         <v>84.96</v>
       </c>
       <c r="L8" s="44">
@@ -3060,7 +3278,7 @@
       <c r="Q8" s="44">
         <v>0.84109999999999996</v>
       </c>
-      <c r="R8" s="36" t="s">
+      <c r="R8" s="37" t="s">
         <v>338</v>
       </c>
     </row>
@@ -3121,16 +3339,16 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A10" s="37"/>
-      <c r="B10" s="37"/>
-      <c r="C10" s="37"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="37"/>
-      <c r="G10" s="37"/>
-      <c r="H10" s="37"/>
-      <c r="I10" s="37"/>
-      <c r="J10" s="37"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
       <c r="K10" s="40">
         <v>86.43</v>
       </c>
@@ -3157,16 +3375,16 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
       <c r="K11" s="40">
         <v>87.02</v>
       </c>
@@ -3193,16 +3411,16 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="40">
         <v>87.02</v>
       </c>
@@ -3229,16 +3447,16 @@
       </c>
     </row>
     <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
       <c r="K13" s="40">
         <v>85.84</v>
       </c>
@@ -3321,16 +3539,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A15" s="37"/>
-      <c r="B15" s="37"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
       <c r="K15" s="40">
         <v>89.68</v>
       </c>
@@ -3357,16 +3575,16 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A16" s="37"/>
-      <c r="B16" s="37"/>
-      <c r="C16" s="37"/>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="37"/>
-      <c r="H16" s="37"/>
-      <c r="I16" s="37"/>
-      <c r="J16" s="37"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="38"/>
       <c r="K16" s="40">
         <v>89.09</v>
       </c>
@@ -3414,7 +3632,7 @@
       <c r="Q17" s="44">
         <v>0.87270000000000003</v>
       </c>
-      <c r="R17" s="36" t="s">
+      <c r="R17" s="37" t="s">
         <v>320</v>
       </c>
     </row>
@@ -3440,7 +3658,7 @@
       <c r="Q18" s="44">
         <v>0.87980000000000003</v>
       </c>
-      <c r="R18" s="36" t="s">
+      <c r="R18" s="37" t="s">
         <v>321</v>
       </c>
     </row>
@@ -3558,7 +3776,7 @@
       <c r="Q21" s="44">
         <v>0.85529999999999995</v>
       </c>
-      <c r="R21" s="36" t="s">
+      <c r="R21" s="37" t="s">
         <v>322</v>
       </c>
     </row>
@@ -3584,7 +3802,7 @@
       <c r="Q22" s="44">
         <v>0.82420000000000004</v>
       </c>
-      <c r="R22" s="36" t="s">
+      <c r="R22" s="37" t="s">
         <v>323</v>
       </c>
     </row>
@@ -3610,7 +3828,7 @@
       <c r="Q23" s="44">
         <v>0.83850000000000002</v>
       </c>
-      <c r="R23" s="36" t="s">
+      <c r="R23" s="37" t="s">
         <v>324</v>
       </c>
     </row>
@@ -3707,34 +3925,34 @@
       </c>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A26" s="37" t="s">
+      <c r="A26" s="38" t="s">
         <v>296</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="38">
         <v>256</v>
       </c>
-      <c r="E26" s="37" t="s">
+      <c r="E26" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F26" s="37">
+      <c r="F26" s="38">
         <v>90</v>
       </c>
-      <c r="G26" s="37" t="b">
+      <c r="G26" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H26" s="37" t="s">
+      <c r="H26" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="37" t="s">
+      <c r="I26" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="J26" s="37" t="s">
+      <c r="J26" s="38" t="s">
         <v>258</v>
       </c>
       <c r="K26" s="40">
@@ -4480,13 +4698,13 @@
       <c r="G43" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H43" s="37" t="s">
+      <c r="H43" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I43" s="37" t="s">
+      <c r="I43" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J43" s="37" t="s">
+      <c r="J43" s="38" t="s">
         <v>258</v>
       </c>
       <c r="K43" s="40">
@@ -4536,13 +4754,13 @@
       <c r="G44" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H44" s="37" t="s">
+      <c r="H44" s="38" t="s">
         <v>56</v>
       </c>
       <c r="I44" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="J44" s="37" t="s">
+      <c r="J44" s="38" t="s">
         <v>258</v>
       </c>
       <c r="K44" s="40">
@@ -4571,19 +4789,19 @@
       </c>
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A45" s="37" t="s">
+      <c r="A45" s="38" t="s">
         <v>305</v>
       </c>
-      <c r="B45" s="37" t="s">
+      <c r="B45" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C45" s="37" t="s">
+      <c r="C45" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D45" s="40">
         <v>256</v>
       </c>
-      <c r="E45" s="37" t="s">
+      <c r="E45" s="38" t="s">
         <v>102</v>
       </c>
       <c r="F45" s="40">
@@ -4592,13 +4810,13 @@
       <c r="G45" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H45" s="37" t="s">
+      <c r="H45" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I45" s="37" t="s">
+      <c r="I45" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="37" t="s">
+      <c r="J45" s="38" t="s">
         <v>258</v>
       </c>
       <c r="K45" s="40">
@@ -4663,19 +4881,19 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A47" s="37" t="s">
+      <c r="A47" s="38" t="s">
         <v>299</v>
       </c>
-      <c r="B47" s="37" t="s">
+      <c r="B47" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C47" s="37" t="s">
+      <c r="C47" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D47" s="40">
         <v>256</v>
       </c>
-      <c r="E47" s="37" t="s">
+      <c r="E47" s="38" t="s">
         <v>102</v>
       </c>
       <c r="F47" s="40">
@@ -4684,13 +4902,13 @@
       <c r="G47" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H47" s="37" t="s">
+      <c r="H47" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="I47" s="37" t="s">
+      <c r="I47" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="J47" s="37" t="s">
+      <c r="J47" s="38" t="s">
         <v>258</v>
       </c>
       <c r="K47" s="40">
@@ -4755,19 +4973,19 @@
       </c>
     </row>
     <row r="49" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A49" s="37" t="s">
+      <c r="A49" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="B49" s="37" t="s">
+      <c r="B49" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="37" t="s">
+      <c r="C49" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D49" s="40">
         <v>256</v>
       </c>
-      <c r="E49" s="37" t="s">
+      <c r="E49" s="38" t="s">
         <v>102</v>
       </c>
       <c r="F49" s="40">
@@ -4868,7 +5086,7 @@
       <c r="Q51" s="44">
         <v>0.89359999999999995</v>
       </c>
-      <c r="R51" s="36" t="s">
+      <c r="R51" s="37" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4894,7 +5112,7 @@
       <c r="Q52" s="44">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R52" s="36" t="s">
+      <c r="R52" s="37" t="s">
         <v>313</v>
       </c>
     </row>
@@ -4920,24 +5138,24 @@
       <c r="Q53" s="44">
         <v>0.89629999999999999</v>
       </c>
-      <c r="R53" s="36" t="s">
+      <c r="R53" s="37" t="s">
         <v>314</v>
       </c>
     </row>
     <row r="54" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A54" s="37" t="s">
+      <c r="A54" s="38" t="s">
         <v>309</v>
       </c>
-      <c r="B54" s="37" t="s">
+      <c r="B54" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C54" s="37" t="s">
+      <c r="C54" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D54" s="40">
         <v>256</v>
       </c>
-      <c r="E54" s="37" t="s">
+      <c r="E54" s="38" t="s">
         <v>102</v>
       </c>
       <c r="F54" s="40">
@@ -5017,19 +5235,19 @@
       </c>
     </row>
     <row r="56" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A56" s="37" t="s">
+      <c r="A56" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="B56" s="37" t="s">
+      <c r="B56" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C56" s="37" t="s">
+      <c r="C56" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D56" s="40">
         <v>256</v>
       </c>
-      <c r="E56" s="37" t="s">
+      <c r="E56" s="38" t="s">
         <v>103</v>
       </c>
       <c r="F56" s="40">
@@ -5038,13 +5256,13 @@
       <c r="G56" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H56" s="37" t="s">
+      <c r="H56" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I56" s="37" t="s">
+      <c r="I56" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J56" s="37" t="s">
+      <c r="J56" s="38" t="s">
         <v>258</v>
       </c>
       <c r="K56" s="40">
@@ -5068,7 +5286,7 @@
       <c r="Q56" s="46">
         <v>0.86499999999999999</v>
       </c>
-      <c r="R56" s="36" t="s">
+      <c r="R56" s="37" t="s">
         <v>326</v>
       </c>
     </row>
@@ -5094,24 +5312,24 @@
       <c r="Q57" s="46">
         <v>0.86850000000000005</v>
       </c>
-      <c r="R57" s="36" t="s">
+      <c r="R57" s="37" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="B58" s="37" t="s">
+      <c r="B58" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C58" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D58" s="40">
         <v>256</v>
       </c>
-      <c r="E58" s="37" t="s">
+      <c r="E58" s="38" t="s">
         <v>103</v>
       </c>
       <c r="F58" s="40">
@@ -5120,13 +5338,13 @@
       <c r="G58" s="40" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="H58" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I58" s="37" t="s">
+      <c r="I58" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J58" s="37" t="s">
+      <c r="J58" s="38" t="s">
         <v>258</v>
       </c>
       <c r="K58" s="40">
@@ -5150,7 +5368,7 @@
       <c r="Q58" s="46">
         <v>0.84179999999999999</v>
       </c>
-      <c r="R58" s="36" t="s">
+      <c r="R58" s="37" t="s">
         <v>329</v>
       </c>
     </row>
@@ -5176,42 +5394,42 @@
       <c r="Q59" s="46">
         <v>0.86519999999999997</v>
       </c>
-      <c r="R59" s="36" t="s">
+      <c r="R59" s="37" t="s">
         <v>330</v>
       </c>
     </row>
     <row r="60" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A60" s="36" t="s">
+      <c r="A60" s="37" t="s">
         <v>333</v>
       </c>
-      <c r="B60" s="36" t="s">
+      <c r="B60" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C60" s="36" t="s">
+      <c r="C60" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D60" s="36">
+      <c r="D60" s="37">
         <v>256</v>
       </c>
-      <c r="E60" s="36" t="s">
+      <c r="E60" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F60" s="36">
+      <c r="F60" s="37">
         <v>90</v>
       </c>
-      <c r="G60" s="36" t="b">
+      <c r="G60" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H60" s="36" t="s">
+      <c r="H60" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="I60" s="36" t="s">
+      <c r="I60" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J60" s="36" t="s">
+      <c r="J60" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K60" s="36">
+      <c r="K60" s="37">
         <v>89.68</v>
       </c>
       <c r="L60" s="46">
@@ -5232,12 +5450,12 @@
       <c r="Q60" s="46">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R60" s="36" t="s">
+      <c r="R60" s="37" t="s">
         <v>331</v>
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K61" s="36">
+      <c r="K61" s="37">
         <v>89.68</v>
       </c>
       <c r="L61" s="46">
@@ -5258,24 +5476,24 @@
       <c r="Q61" s="46">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R61" s="36" t="s">
+      <c r="R61" s="37" t="s">
         <v>332</v>
       </c>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A62" s="38" t="s">
+      <c r="A62" s="39" t="s">
         <v>340</v>
       </c>
-      <c r="B62" s="37" t="s">
+      <c r="B62" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C62" s="37" t="s">
+      <c r="C62" s="38" t="s">
         <v>53</v>
       </c>
       <c r="D62" s="40">
         <v>256</v>
       </c>
-      <c r="E62" s="37" t="s">
+      <c r="E62" s="38" t="s">
         <v>102</v>
       </c>
       <c r="F62" s="40">
@@ -5293,7 +5511,7 @@
       <c r="J62" s="40" t="s">
         <v>258</v>
       </c>
-      <c r="K62" s="36">
+      <c r="K62" s="37">
         <v>89.68</v>
       </c>
       <c r="L62" s="44">
@@ -5314,12 +5532,12 @@
       <c r="Q62" s="44">
         <v>0.89300000000000002</v>
       </c>
-      <c r="R62" s="36" t="s">
+      <c r="R62" s="37" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="63" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K63" s="36">
+      <c r="K63" s="37">
         <v>90.27</v>
       </c>
       <c r="L63" s="44">
@@ -5340,12 +5558,12 @@
       <c r="Q63" s="44">
         <v>0.89910000000000001</v>
       </c>
-      <c r="R63" s="36" t="s">
+      <c r="R63" s="37" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="64" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K64" s="36">
+      <c r="K64" s="37">
         <v>89.68</v>
       </c>
       <c r="L64" s="44">
@@ -5366,12 +5584,12 @@
       <c r="Q64" s="44">
         <v>0.89229999999999998</v>
       </c>
-      <c r="R64" s="36" t="s">
+      <c r="R64" s="37" t="s">
         <v>352</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K65" s="36">
+      <c r="K65" s="37">
         <v>89.97</v>
       </c>
       <c r="L65" s="44">
@@ -5392,12 +5610,12 @@
       <c r="Q65" s="44">
         <v>0.89570000000000005</v>
       </c>
-      <c r="R65" s="36" t="s">
+      <c r="R65" s="37" t="s">
         <v>354</v>
       </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K66" s="36">
+      <c r="K66" s="37">
         <v>89.68</v>
       </c>
       <c r="L66" s="44">
@@ -5418,42 +5636,42 @@
       <c r="Q66" s="44">
         <v>0.89229999999999998</v>
       </c>
-      <c r="R66" s="36" t="s">
+      <c r="R66" s="37" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A67" s="36" t="s">
+      <c r="A67" s="37" t="s">
         <v>343</v>
       </c>
-      <c r="B67" s="36" t="s">
+      <c r="B67" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C67" s="36" t="s">
+      <c r="C67" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D67" s="36">
+      <c r="D67" s="37">
         <v>256</v>
       </c>
-      <c r="E67" s="36" t="s">
+      <c r="E67" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F67" s="36">
+      <c r="F67" s="37">
         <v>90</v>
       </c>
-      <c r="G67" s="36" t="b">
+      <c r="G67" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H67" s="36" t="s">
+      <c r="H67" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="I67" s="36" t="s">
+      <c r="I67" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J67" s="36" t="s">
+      <c r="J67" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K67" s="36">
+      <c r="K67" s="37">
         <v>88.2</v>
       </c>
       <c r="L67" s="44">
@@ -5474,12 +5692,12 @@
       <c r="Q67" s="44">
         <v>0.87649999999999995</v>
       </c>
-      <c r="R67" s="36" t="s">
+      <c r="R67" s="37" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K68" s="36">
+      <c r="K68" s="37">
         <v>88.5</v>
       </c>
       <c r="L68" s="44">
@@ -5500,43 +5718,43 @@
       <c r="Q68" s="44">
         <v>0.88149999999999995</v>
       </c>
-      <c r="R68" s="36" t="s">
+      <c r="R68" s="37" t="s">
         <v>345</v>
       </c>
       <c r="S68" s="43"/>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A69" s="36" t="s">
+      <c r="A69" s="37" t="s">
         <v>348</v>
       </c>
-      <c r="B69" s="36" t="s">
+      <c r="B69" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C69" s="36" t="s">
+      <c r="C69" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D69" s="36">
+      <c r="D69" s="37">
         <v>256</v>
       </c>
-      <c r="E69" s="36" t="s">
+      <c r="E69" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F69" s="36">
+      <c r="F69" s="37">
         <v>90</v>
       </c>
-      <c r="G69" s="36" t="b">
+      <c r="G69" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H69" s="36" t="s">
+      <c r="H69" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="I69" s="36" t="s">
+      <c r="I69" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J69" s="36" t="s">
+      <c r="J69" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K69" s="36">
+      <c r="K69" s="37">
         <v>89.09</v>
       </c>
       <c r="L69" s="44">
@@ -5557,12 +5775,12 @@
       <c r="Q69" s="44">
         <v>0.88619999999999999</v>
       </c>
-      <c r="R69" s="36" t="s">
+      <c r="R69" s="37" t="s">
         <v>346</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K70" s="36">
+      <c r="K70" s="37">
         <v>90.27</v>
       </c>
       <c r="L70" s="44">
@@ -5583,12 +5801,12 @@
       <c r="Q70" s="44">
         <v>0.8972</v>
       </c>
-      <c r="R70" s="36" t="s">
+      <c r="R70" s="37" t="s">
         <v>347</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K71" s="36">
+      <c r="K71" s="37">
         <v>90.27</v>
       </c>
       <c r="L71" s="44">
@@ -5609,12 +5827,12 @@
       <c r="Q71" s="44">
         <v>0.8972</v>
       </c>
-      <c r="R71" s="36" t="s">
+      <c r="R71" s="37" t="s">
         <v>355</v>
       </c>
     </row>
     <row r="72" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K72" s="36">
+      <c r="K72" s="37">
         <v>89.09</v>
       </c>
       <c r="L72" s="44">
@@ -5635,12 +5853,12 @@
       <c r="Q72" s="44">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R72" s="36" t="s">
+      <c r="R72" s="37" t="s">
         <v>356</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K73" s="36">
+      <c r="K73" s="37">
         <v>89.38</v>
       </c>
       <c r="L73" s="44">
@@ -5661,42 +5879,42 @@
       <c r="Q73" s="44">
         <v>0.88819999999999999</v>
       </c>
-      <c r="R73" s="36" t="s">
+      <c r="R73" s="37" t="s">
         <v>357</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A74" s="36" t="s">
+      <c r="A74" s="37" t="s">
         <v>349</v>
       </c>
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="36" t="s">
+      <c r="C74" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D74" s="36">
+      <c r="D74" s="37">
         <v>256</v>
       </c>
-      <c r="E74" s="36" t="s">
+      <c r="E74" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F74" s="36">
+      <c r="F74" s="37">
         <v>90</v>
       </c>
-      <c r="G74" s="36" t="b">
+      <c r="G74" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H74" s="36" t="s">
+      <c r="H74" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="I74" s="36" t="s">
+      <c r="I74" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J74" s="36" t="s">
+      <c r="J74" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K74" s="36">
+      <c r="K74" s="37">
         <v>88.5</v>
       </c>
       <c r="L74" s="44">
@@ -5717,12 +5935,12 @@
       <c r="Q74" s="44">
         <v>0.88149999999999995</v>
       </c>
-      <c r="R74" s="36" t="s">
+      <c r="R74" s="37" t="s">
         <v>350</v>
       </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K75" s="36">
+      <c r="K75" s="37">
         <v>88.2</v>
       </c>
       <c r="L75" s="44">
@@ -5743,42 +5961,42 @@
       <c r="Q75" s="44">
         <v>0.878</v>
       </c>
-      <c r="R75" s="36" t="s">
+      <c r="R75" s="37" t="s">
         <v>351</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A76" s="37" t="s">
+      <c r="A76" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="B76" s="36" t="s">
+      <c r="B76" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="C76" s="36" t="s">
+      <c r="C76" s="37" t="s">
         <v>276</v>
       </c>
-      <c r="D76" s="36">
+      <c r="D76" s="37">
         <v>256</v>
       </c>
-      <c r="E76" s="36" t="s">
+      <c r="E76" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="F76" s="36">
+      <c r="F76" s="37">
         <v>90</v>
       </c>
-      <c r="G76" s="36" t="b">
+      <c r="G76" s="37" t="b">
         <v>0</v>
       </c>
-      <c r="H76" s="36" t="s">
+      <c r="H76" s="37" t="s">
         <v>277</v>
       </c>
-      <c r="I76" s="36" t="s">
+      <c r="I76" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="J76" s="36" t="s">
+      <c r="J76" s="37" t="s">
         <v>258</v>
       </c>
-      <c r="K76" s="36">
+      <c r="K76" s="37">
         <v>88.79</v>
       </c>
       <c r="L76" s="44">
@@ -5799,12 +6017,12 @@
       <c r="Q76" s="44">
         <v>0.88049999999999995</v>
       </c>
-      <c r="R76" s="36" t="s">
+      <c r="R76" s="37" t="s">
         <v>359</v>
       </c>
     </row>
     <row r="77" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="K77" s="36">
+      <c r="K77" s="37">
         <v>89.09</v>
       </c>
       <c r="L77" s="44">
@@ -5825,19 +6043,19 @@
       <c r="Q77" s="44">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R77" s="36" t="s">
+      <c r="R77" s="37" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.4">
       <c r="K78" s="40"/>
-      <c r="R78" s="36" t="s">
+      <c r="R78" s="37" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.4">
       <c r="K79" s="40"/>
-      <c r="R79" s="36" t="s">
+      <c r="R79" s="37" t="s">
         <v>395</v>
       </c>
     </row>
@@ -5879,8 +6097,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EEA507-0655-41FB-A354-688C9E608ED4}">
   <dimension ref="A3:W11"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -6286,95 +6504,104 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664B1BB-B301-4653-A064-1D07042E8051}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:S96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A56" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="48.296875" style="64" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="37" customWidth="1"/>
-    <col min="3" max="3" width="18.19921875" style="37" customWidth="1"/>
-    <col min="4" max="4" width="11.59765625" style="37" customWidth="1"/>
-    <col min="5" max="5" width="22.09765625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="8" style="37" customWidth="1"/>
-    <col min="7" max="7" width="13" style="37" customWidth="1"/>
-    <col min="8" max="10" width="18.59765625" style="37" customWidth="1"/>
-    <col min="11" max="11" width="18.59765625" style="87" customWidth="1"/>
-    <col min="12" max="17" width="18.59765625" style="82" customWidth="1"/>
-    <col min="18" max="16384" width="8.796875" style="64"/>
+    <col min="1" max="1" width="59.796875" style="64" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="38" customWidth="1"/>
+    <col min="3" max="3" width="18.19921875" style="38" customWidth="1"/>
+    <col min="4" max="4" width="11.59765625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="24.296875" style="38" customWidth="1"/>
+    <col min="6" max="6" width="9.8984375" style="38" customWidth="1"/>
+    <col min="7" max="7" width="14.09765625" style="38" customWidth="1"/>
+    <col min="8" max="8" width="13.796875" style="38" customWidth="1"/>
+    <col min="9" max="9" width="24.796875" style="38" customWidth="1"/>
+    <col min="10" max="10" width="24.3984375" style="38" customWidth="1"/>
+    <col min="11" max="11" width="23.09765625" style="38" customWidth="1"/>
+    <col min="12" max="12" width="23.19921875" style="86" customWidth="1"/>
+    <col min="13" max="13" width="15.69921875" style="82" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="13" style="82" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="18.59765625" style="82" customWidth="1"/>
+    <col min="16" max="18" width="18.59765625" style="82" hidden="1" customWidth="1"/>
+    <col min="19" max="16384" width="8.796875" style="64"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A1" s="64" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A2" s="64" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="39" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" s="70" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="75" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="75" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="75" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="39" t="s">
+      <c r="E3" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="75" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="39" t="s">
+      <c r="G3" s="75" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="39" t="s">
+      <c r="H3" s="75" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="39" t="s">
+      <c r="I3" s="75" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="39" t="s">
+      <c r="J3" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="K3" s="88" t="s">
-        <v>33</v>
-      </c>
-      <c r="L3" s="83" t="s">
+      <c r="K3" s="75" t="s">
+        <v>497</v>
+      </c>
+      <c r="L3" s="94" t="s">
+        <v>496</v>
+      </c>
+      <c r="M3" s="90" t="s">
         <v>256</v>
       </c>
-      <c r="M3" s="83" t="s">
+      <c r="N3" s="90" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="83" t="s">
+      <c r="O3" s="90" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="83" t="s">
+      <c r="P3" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="P3" s="83" t="s">
+      <c r="Q3" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="Q3" s="83" t="s">
+      <c r="R3" s="90" t="s">
         <v>261</v>
       </c>
-      <c r="R3" s="39" t="s">
+      <c r="S3" s="75" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="74" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:19" s="74" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A4" s="71" t="s">
         <v>65</v>
       </c>
@@ -6400,37 +6627,38 @@
         <v>56</v>
       </c>
       <c r="I4" s="71" t="s">
-        <v>59</v>
+        <v>472</v>
       </c>
       <c r="J4" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="K4" s="89">
+      <c r="K4" s="71"/>
+      <c r="L4" s="87">
         <v>86.14</v>
       </c>
-      <c r="L4" s="84">
+      <c r="M4" s="83">
         <v>0.86519999999999997</v>
       </c>
-      <c r="M4" s="84">
+      <c r="N4" s="83">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N4" s="84">
+      <c r="O4" s="83">
         <v>0.86760000000000004</v>
       </c>
-      <c r="O4" s="84">
+      <c r="P4" s="83">
         <v>0.85709999999999997</v>
       </c>
-      <c r="P4" s="84">
+      <c r="Q4" s="83">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q4" s="84">
+      <c r="R4" s="83">
         <v>0.85450000000000004</v>
       </c>
-      <c r="R4" s="73" t="s">
+      <c r="S4" s="73" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A5" s="69"/>
       <c r="B5" s="68"/>
       <c r="C5" s="68"/>
@@ -6441,32 +6669,33 @@
       <c r="H5" s="68"/>
       <c r="I5" s="68"/>
       <c r="J5" s="68"/>
-      <c r="K5" s="87">
+      <c r="K5" s="68"/>
+      <c r="L5" s="86">
         <v>82.3</v>
       </c>
-      <c r="L5" s="82">
+      <c r="M5" s="82">
         <v>0.82320000000000004</v>
       </c>
-      <c r="M5" s="82">
+      <c r="N5" s="82">
         <v>0.84179999999999999</v>
       </c>
-      <c r="N5" s="82">
+      <c r="O5" s="82">
         <v>0.83240000000000003</v>
       </c>
-      <c r="O5" s="82">
+      <c r="P5" s="82">
         <v>0.82279999999999998</v>
       </c>
-      <c r="P5" s="82">
+      <c r="Q5" s="82">
         <v>0.80249999999999999</v>
       </c>
-      <c r="Q5" s="82">
+      <c r="R5" s="82">
         <v>0.8125</v>
       </c>
-      <c r="R5" s="64" t="s">
+      <c r="S5" s="64" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A6" s="69"/>
       <c r="B6" s="68"/>
       <c r="C6" s="68"/>
@@ -6477,32 +6706,33 @@
       <c r="H6" s="68"/>
       <c r="I6" s="68"/>
       <c r="J6" s="68"/>
-      <c r="K6" s="87">
+      <c r="K6" s="68"/>
+      <c r="L6" s="86">
         <v>83.48</v>
       </c>
-      <c r="L6" s="82">
+      <c r="M6" s="82">
         <v>0.82699999999999996</v>
       </c>
-      <c r="M6" s="82">
+      <c r="N6" s="82">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N6" s="82">
+      <c r="O6" s="82">
         <v>0.84530000000000005</v>
       </c>
-      <c r="O6" s="82">
+      <c r="P6" s="82">
         <v>0.84419999999999995</v>
       </c>
-      <c r="P6" s="82">
+      <c r="Q6" s="82">
         <v>0.80249999999999999</v>
       </c>
-      <c r="Q6" s="82">
+      <c r="R6" s="82">
         <v>0.82279999999999998</v>
       </c>
-      <c r="R6" s="64" t="s">
+      <c r="S6" s="64" t="s">
         <v>397</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A7" s="69"/>
       <c r="B7" s="68"/>
       <c r="C7" s="68"/>
@@ -6513,32 +6743,33 @@
       <c r="H7" s="68"/>
       <c r="I7" s="68"/>
       <c r="J7" s="68"/>
-      <c r="K7" s="87">
+      <c r="K7" s="68"/>
+      <c r="L7" s="86">
         <v>75.52</v>
       </c>
-      <c r="L7" s="82">
+      <c r="M7" s="82">
         <v>0.69750000000000001</v>
       </c>
-      <c r="M7" s="82">
+      <c r="N7" s="82">
         <v>0.93789999999999996</v>
       </c>
-      <c r="N7" s="82">
+      <c r="O7" s="82">
         <v>0.8</v>
       </c>
-      <c r="O7" s="82">
+      <c r="P7" s="82">
         <v>0.8911</v>
       </c>
-      <c r="P7" s="82">
+      <c r="Q7" s="82">
         <v>0.55559999999999998</v>
       </c>
-      <c r="Q7" s="82">
+      <c r="R7" s="82">
         <v>0.68440000000000001</v>
       </c>
-      <c r="R7" s="64" t="s">
+      <c r="S7" s="64" t="s">
         <v>398</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A8" s="69"/>
       <c r="B8" s="68"/>
       <c r="C8" s="68"/>
@@ -6549,32 +6780,33 @@
       <c r="H8" s="68"/>
       <c r="I8" s="68"/>
       <c r="J8" s="68"/>
-      <c r="K8" s="87">
+      <c r="K8" s="68"/>
+      <c r="L8" s="86">
         <v>83.19</v>
       </c>
-      <c r="L8" s="82">
+      <c r="M8" s="82">
         <v>0.81910000000000005</v>
       </c>
-      <c r="M8" s="82">
+      <c r="N8" s="82">
         <v>0.87009999999999998</v>
       </c>
-      <c r="N8" s="82">
+      <c r="O8" s="82">
         <v>0.84379999999999999</v>
       </c>
-      <c r="O8" s="82">
+      <c r="P8" s="82">
         <v>0.84770000000000001</v>
       </c>
-      <c r="P8" s="82">
+      <c r="Q8" s="82">
         <v>0.79010000000000002</v>
       </c>
-      <c r="Q8" s="82">
+      <c r="R8" s="82">
         <v>0.81789999999999996</v>
       </c>
-      <c r="R8" s="64" t="s">
+      <c r="S8" s="64" t="s">
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:19" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A9" s="71" t="s">
         <v>3</v>
       </c>
@@ -6600,37 +6832,38 @@
         <v>56</v>
       </c>
       <c r="I9" s="71" t="s">
-        <v>59</v>
+        <v>471</v>
       </c>
       <c r="J9" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="K9" s="90">
+      <c r="K9" s="71"/>
+      <c r="L9" s="88">
         <v>85.84</v>
       </c>
-      <c r="L9" s="85">
+      <c r="M9" s="84">
         <v>0.88619999999999999</v>
       </c>
-      <c r="M9" s="85">
+      <c r="N9" s="84">
         <v>0.83620000000000005</v>
       </c>
-      <c r="N9" s="85">
+      <c r="O9" s="84">
         <v>0.86050000000000004</v>
       </c>
-      <c r="O9" s="85">
+      <c r="P9" s="84">
         <v>0.83140000000000003</v>
       </c>
-      <c r="P9" s="85">
+      <c r="Q9" s="84">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q9" s="85">
+      <c r="R9" s="84">
         <v>0.85629999999999995</v>
       </c>
-      <c r="R9" s="72" t="s">
+      <c r="S9" s="72" t="s">
         <v>383</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A10" s="68"/>
       <c r="B10" s="68"/>
       <c r="C10" s="68"/>
@@ -6641,32 +6874,33 @@
       <c r="H10" s="68"/>
       <c r="I10" s="68"/>
       <c r="J10" s="68"/>
-      <c r="K10" s="91">
+      <c r="K10" s="68"/>
+      <c r="L10" s="89">
         <v>86.43</v>
       </c>
-      <c r="L10" s="86">
+      <c r="M10" s="85">
         <v>0.84289999999999998</v>
       </c>
-      <c r="M10" s="86">
+      <c r="N10" s="85">
         <v>0.90959999999999996</v>
       </c>
-      <c r="N10" s="86">
+      <c r="O10" s="85">
         <v>0.875</v>
       </c>
-      <c r="O10" s="86">
+      <c r="P10" s="85">
         <v>0.89190000000000003</v>
       </c>
-      <c r="P10" s="86">
+      <c r="Q10" s="85">
         <v>0.81479999999999997</v>
       </c>
-      <c r="Q10" s="86">
+      <c r="R10" s="85">
         <v>0.85160000000000002</v>
       </c>
-      <c r="R10" s="37" t="s">
+      <c r="S10" s="38" t="s">
         <v>384</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="68"/>
       <c r="B11" s="68"/>
       <c r="C11" s="68"/>
@@ -6677,32 +6911,33 @@
       <c r="H11" s="68"/>
       <c r="I11" s="68"/>
       <c r="J11" s="68"/>
-      <c r="K11" s="91">
+      <c r="K11" s="68"/>
+      <c r="L11" s="89">
         <v>86.14</v>
       </c>
-      <c r="L11" s="86">
+      <c r="M11" s="85">
         <v>0.84570000000000001</v>
       </c>
-      <c r="M11" s="86">
+      <c r="N11" s="85">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N11" s="86">
+      <c r="O11" s="85">
         <v>0.87119999999999997</v>
       </c>
-      <c r="O11" s="86">
+      <c r="P11" s="85">
         <v>0.88080000000000003</v>
       </c>
-      <c r="P11" s="86">
+      <c r="Q11" s="85">
         <v>0.82099999999999995</v>
       </c>
-      <c r="Q11" s="86">
+      <c r="R11" s="85">
         <v>0.8498</v>
       </c>
-      <c r="R11" s="37" t="s">
+      <c r="S11" s="38" t="s">
         <v>386</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="68"/>
       <c r="B12" s="68"/>
       <c r="C12" s="68"/>
@@ -6713,32 +6948,33 @@
       <c r="H12" s="68"/>
       <c r="I12" s="68"/>
       <c r="J12" s="68"/>
-      <c r="K12" s="91">
+      <c r="K12" s="68"/>
+      <c r="L12" s="89">
         <v>84.37</v>
       </c>
-      <c r="L12" s="86">
+      <c r="M12" s="85">
         <v>0.83330000000000004</v>
       </c>
-      <c r="M12" s="86">
+      <c r="N12" s="85">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N12" s="86">
+      <c r="O12" s="85">
         <v>0.85399999999999998</v>
       </c>
-      <c r="O12" s="86">
+      <c r="P12" s="85">
         <v>0.85619999999999996</v>
       </c>
-      <c r="P12" s="86">
+      <c r="Q12" s="85">
         <v>0.80859999999999999</v>
       </c>
-      <c r="Q12" s="86">
+      <c r="R12" s="85">
         <v>0.83169999999999999</v>
       </c>
-      <c r="R12" s="37" t="s">
+      <c r="S12" s="38" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="13" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A13" s="68"/>
       <c r="B13" s="68"/>
       <c r="C13" s="68"/>
@@ -6749,32 +6985,33 @@
       <c r="H13" s="68"/>
       <c r="I13" s="68"/>
       <c r="J13" s="68"/>
-      <c r="K13" s="91">
+      <c r="K13" s="68"/>
+      <c r="L13" s="89">
         <v>87.32</v>
       </c>
-      <c r="L13" s="86">
+      <c r="M13" s="85">
         <v>0.86019999999999996</v>
       </c>
-      <c r="M13" s="86">
+      <c r="N13" s="85">
         <v>0.90400000000000003</v>
       </c>
-      <c r="N13" s="86">
+      <c r="O13" s="85">
         <v>0.88149999999999995</v>
       </c>
-      <c r="O13" s="86">
+      <c r="P13" s="85">
         <v>0.88890000000000002</v>
       </c>
-      <c r="P13" s="86">
+      <c r="Q13" s="85">
         <v>0.83950000000000002</v>
       </c>
-      <c r="Q13" s="86">
+      <c r="R13" s="85">
         <v>0.86350000000000005</v>
       </c>
-      <c r="R13" s="37" t="s">
+      <c r="S13" s="38" t="s">
         <v>400</v>
       </c>
     </row>
-    <row r="14" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A14" s="71" t="s">
         <v>4</v>
       </c>
@@ -6800,37 +7037,38 @@
         <v>56</v>
       </c>
       <c r="I14" s="71" t="s">
-        <v>59</v>
+        <v>471</v>
       </c>
       <c r="J14" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="K14" s="90">
+      <c r="K14" s="71"/>
+      <c r="L14" s="88">
         <v>85.55</v>
       </c>
-      <c r="L14" s="85">
+      <c r="M14" s="84">
         <v>0.82989999999999997</v>
       </c>
-      <c r="M14" s="85">
+      <c r="N14" s="84">
         <v>0.90959999999999996</v>
       </c>
-      <c r="N14" s="85">
+      <c r="O14" s="84">
         <v>0.8679</v>
       </c>
-      <c r="O14" s="85">
+      <c r="P14" s="84">
         <v>0.88970000000000005</v>
       </c>
-      <c r="P14" s="85">
+      <c r="Q14" s="84">
         <v>0.79630000000000001</v>
       </c>
-      <c r="Q14" s="85">
+      <c r="R14" s="84">
         <v>0.84040000000000004</v>
       </c>
-      <c r="R14" s="72" t="s">
+      <c r="S14" s="72" t="s">
         <v>388</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A15" s="68"/>
       <c r="B15" s="68"/>
       <c r="C15" s="68"/>
@@ -6841,32 +7079,33 @@
       <c r="H15" s="68"/>
       <c r="I15" s="68"/>
       <c r="J15" s="68"/>
-      <c r="K15" s="91">
+      <c r="K15" s="68"/>
+      <c r="L15" s="89">
         <v>85.25</v>
       </c>
-      <c r="L15" s="86">
+      <c r="M15" s="85">
         <v>0.89439999999999997</v>
       </c>
-      <c r="M15" s="86">
+      <c r="N15" s="85">
         <v>0.81359999999999999</v>
       </c>
-      <c r="N15" s="86">
+      <c r="O15" s="85">
         <v>0.85209999999999997</v>
       </c>
-      <c r="O15" s="86">
+      <c r="P15" s="85">
         <v>0.81459999999999999</v>
       </c>
-      <c r="P15" s="86">
+      <c r="Q15" s="85">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q15" s="86">
+      <c r="R15" s="85">
         <v>0.85289999999999999</v>
       </c>
-      <c r="R15" s="37" t="s">
+      <c r="S15" s="38" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="68"/>
       <c r="B16" s="68"/>
       <c r="C16" s="68"/>
@@ -6877,32 +7116,33 @@
       <c r="H16" s="68"/>
       <c r="I16" s="68"/>
       <c r="J16" s="68"/>
-      <c r="K16" s="91">
+      <c r="K16" s="68"/>
+      <c r="L16" s="89">
         <v>87.61</v>
       </c>
-      <c r="L16" s="86">
+      <c r="M16" s="85">
         <v>0.86099999999999999</v>
       </c>
-      <c r="M16" s="86">
+      <c r="N16" s="85">
         <v>0.90959999999999996</v>
       </c>
-      <c r="N16" s="86">
+      <c r="O16" s="85">
         <v>0.88460000000000005</v>
       </c>
-      <c r="O16" s="86">
+      <c r="P16" s="85">
         <v>0.89470000000000005</v>
       </c>
-      <c r="P16" s="86">
+      <c r="Q16" s="85">
         <v>0.83950000000000002</v>
       </c>
-      <c r="Q16" s="86">
+      <c r="R16" s="85">
         <v>0.86619999999999997</v>
       </c>
-      <c r="R16" s="37" t="s">
+      <c r="S16" s="38" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A17" s="69"/>
       <c r="B17" s="68"/>
       <c r="C17" s="68"/>
@@ -6913,32 +7153,33 @@
       <c r="H17" s="68"/>
       <c r="I17" s="68"/>
       <c r="J17" s="68"/>
-      <c r="K17" s="91">
+      <c r="K17" s="68"/>
+      <c r="L17" s="89">
         <v>86.43</v>
       </c>
-      <c r="L17" s="82">
+      <c r="M17" s="82">
         <v>0.8579</v>
       </c>
-      <c r="M17" s="82">
+      <c r="N17" s="82">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N17" s="82">
+      <c r="O17" s="82">
         <v>0.87219999999999998</v>
       </c>
-      <c r="O17" s="82">
+      <c r="P17" s="82">
         <v>0.87180000000000002</v>
       </c>
-      <c r="P17" s="82">
+      <c r="Q17" s="82">
         <v>0.83950000000000002</v>
       </c>
-      <c r="Q17" s="82">
+      <c r="R17" s="82">
         <v>0.85529999999999995</v>
       </c>
-      <c r="R17" s="64" t="s">
+      <c r="S17" s="64" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A18" s="69"/>
       <c r="B18" s="68"/>
       <c r="C18" s="68"/>
@@ -6949,32 +7190,33 @@
       <c r="H18" s="68"/>
       <c r="I18" s="68"/>
       <c r="J18" s="68"/>
-      <c r="K18" s="91">
+      <c r="K18" s="68"/>
+      <c r="L18" s="89">
         <v>84.96</v>
       </c>
-      <c r="L18" s="82">
+      <c r="M18" s="82">
         <v>0.82809999999999995</v>
       </c>
-      <c r="M18" s="82">
+      <c r="N18" s="82">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N18" s="82">
+      <c r="O18" s="82">
         <v>0.86180000000000001</v>
       </c>
-      <c r="O18" s="82">
+      <c r="P18" s="82">
         <v>0.87760000000000005</v>
       </c>
-      <c r="P18" s="82">
+      <c r="Q18" s="82">
         <v>0.79630000000000001</v>
       </c>
-      <c r="Q18" s="82">
+      <c r="R18" s="82">
         <v>0.83499999999999996</v>
       </c>
-      <c r="R18" s="64" t="s">
+      <c r="S18" s="64" t="s">
         <v>401</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:19" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A19" s="71" t="s">
         <v>6</v>
       </c>
@@ -7000,37 +7242,38 @@
         <v>56</v>
       </c>
       <c r="I19" s="71" t="s">
-        <v>59</v>
+        <v>471</v>
       </c>
       <c r="J19" s="71" t="s">
         <v>366</v>
       </c>
-      <c r="K19" s="90">
+      <c r="K19" s="71"/>
+      <c r="L19" s="88">
         <v>83.19</v>
       </c>
-      <c r="L19" s="85">
+      <c r="M19" s="84">
         <v>0.83709999999999996</v>
       </c>
-      <c r="M19" s="85">
+      <c r="N19" s="84">
         <v>0.84179999999999999</v>
       </c>
-      <c r="N19" s="85">
+      <c r="O19" s="84">
         <v>0.83940000000000003</v>
       </c>
-      <c r="O19" s="85">
+      <c r="P19" s="84">
         <v>0.82609999999999995</v>
       </c>
-      <c r="P19" s="85">
+      <c r="Q19" s="84">
         <v>0.82099999999999995</v>
       </c>
-      <c r="Q19" s="85">
+      <c r="R19" s="84">
         <v>0.82350000000000001</v>
       </c>
-      <c r="R19" s="72" t="s">
+      <c r="S19" s="72" t="s">
         <v>392</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A20" s="68"/>
       <c r="B20" s="68"/>
       <c r="C20" s="68"/>
@@ -7041,32 +7284,33 @@
       <c r="H20" s="68"/>
       <c r="I20" s="68"/>
       <c r="J20" s="68"/>
-      <c r="K20" s="91">
+      <c r="K20" s="68"/>
+      <c r="L20" s="89">
         <v>83.48</v>
       </c>
-      <c r="L20" s="86">
+      <c r="M20" s="85">
         <v>0.82699999999999996</v>
       </c>
-      <c r="M20" s="86">
+      <c r="N20" s="85">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N20" s="86">
+      <c r="O20" s="85">
         <v>0.84530000000000005</v>
       </c>
-      <c r="O20" s="86">
+      <c r="P20" s="85">
         <v>0.84419999999999995</v>
       </c>
-      <c r="P20" s="86">
+      <c r="Q20" s="85">
         <v>0.80249999999999999</v>
       </c>
-      <c r="Q20" s="86">
+      <c r="R20" s="85">
         <v>0.82279999999999998</v>
       </c>
-      <c r="R20" s="37" t="s">
+      <c r="S20" s="38" t="s">
         <v>393</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A21" s="69"/>
       <c r="B21" s="68"/>
       <c r="C21" s="68"/>
@@ -7077,32 +7321,33 @@
       <c r="H21" s="68"/>
       <c r="I21" s="68"/>
       <c r="J21" s="68"/>
-      <c r="K21" s="91">
+      <c r="K21" s="68"/>
+      <c r="L21" s="89">
         <v>84.07</v>
       </c>
-      <c r="L21" s="82">
+      <c r="M21" s="82">
         <v>0.82889999999999997</v>
       </c>
-      <c r="M21" s="82">
+      <c r="N21" s="82">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N21" s="82">
+      <c r="O21" s="82">
         <v>0.85160000000000002</v>
       </c>
-      <c r="O21" s="82">
+      <c r="P21" s="82">
         <v>0.85529999999999995</v>
       </c>
-      <c r="P21" s="82">
+      <c r="Q21" s="82">
         <v>0.80249999999999999</v>
       </c>
-      <c r="Q21" s="82">
+      <c r="R21" s="82">
         <v>0.82799999999999996</v>
       </c>
-      <c r="R21" s="64" t="s">
+      <c r="S21" s="64" t="s">
         <v>394</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A22" s="69"/>
       <c r="B22" s="68"/>
       <c r="C22" s="68"/>
@@ -7113,32 +7358,33 @@
       <c r="H22" s="68"/>
       <c r="I22" s="68"/>
       <c r="J22" s="68"/>
-      <c r="K22" s="91">
+      <c r="K22" s="68"/>
+      <c r="L22" s="89">
         <v>83.48</v>
       </c>
-      <c r="L22" s="82">
+      <c r="M22" s="82">
         <v>0.82699999999999996</v>
       </c>
-      <c r="M22" s="82">
+      <c r="N22" s="82">
         <v>0.86439999999999995</v>
       </c>
-      <c r="N22" s="82">
+      <c r="O22" s="82">
         <v>0.84530000000000005</v>
       </c>
-      <c r="O22" s="82">
+      <c r="P22" s="82">
         <v>0.84419999999999995</v>
       </c>
-      <c r="P22" s="82">
+      <c r="Q22" s="82">
         <v>0.80249999999999999</v>
       </c>
-      <c r="Q22" s="82">
+      <c r="R22" s="82">
         <v>0.82279999999999998</v>
       </c>
-      <c r="R22" s="64" t="s">
+      <c r="S22" s="64" t="s">
         <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A23" s="69"/>
       <c r="B23" s="68"/>
       <c r="C23" s="68"/>
@@ -7149,32 +7395,33 @@
       <c r="H23" s="68"/>
       <c r="I23" s="68"/>
       <c r="J23" s="68"/>
-      <c r="K23" s="91">
+      <c r="K23" s="68"/>
+      <c r="L23" s="89">
         <v>79.650000000000006</v>
       </c>
-      <c r="L23" s="82">
+      <c r="M23" s="82">
         <v>0.88570000000000004</v>
       </c>
-      <c r="M23" s="82">
+      <c r="N23" s="82">
         <v>0.7006</v>
       </c>
-      <c r="N23" s="82">
+      <c r="O23" s="82">
         <v>0.7823</v>
       </c>
-      <c r="O23" s="82">
+      <c r="P23" s="82">
         <v>0.73370000000000002</v>
       </c>
-      <c r="P23" s="82">
+      <c r="Q23" s="82">
         <v>0.9012</v>
       </c>
-      <c r="Q23" s="82">
+      <c r="R23" s="82">
         <v>0.80889999999999995</v>
       </c>
-      <c r="R23" s="64" t="s">
+      <c r="S23" s="64" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:19" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A24" s="65" t="s">
         <v>306</v>
       </c>
@@ -7205,136 +7452,151 @@
       <c r="J24" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="K24" s="66">
+      <c r="K24" s="72">
+        <v>91.33</v>
+      </c>
+      <c r="L24" s="66">
         <v>88.5</v>
       </c>
-      <c r="L24" s="67">
+      <c r="M24" s="67">
         <v>0.89200000000000002</v>
       </c>
-      <c r="M24" s="67">
+      <c r="N24" s="67">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N24" s="67">
+      <c r="O24" s="67">
         <v>0.88949999999999996</v>
       </c>
-      <c r="O24" s="67">
+      <c r="P24" s="67">
         <v>0.87729999999999997</v>
       </c>
-      <c r="P24" s="67">
+      <c r="Q24" s="67">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q24" s="67">
+      <c r="R24" s="67">
         <v>0.88</v>
       </c>
-      <c r="R24" s="65" t="s">
+      <c r="S24" s="65" t="s">
         <v>372</v>
       </c>
     </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K25" s="87">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K25" s="38">
+        <v>90.94</v>
+      </c>
+      <c r="L25" s="86">
         <v>87.91</v>
       </c>
-      <c r="L25" s="82">
+      <c r="M25" s="82">
         <v>0.89080000000000004</v>
       </c>
-      <c r="M25" s="82">
+      <c r="N25" s="82">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N25" s="82">
+      <c r="O25" s="82">
         <v>0.88319999999999999</v>
       </c>
-      <c r="O25" s="82">
+      <c r="P25" s="82">
         <v>0.86670000000000003</v>
       </c>
-      <c r="P25" s="82">
+      <c r="Q25" s="82">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q25" s="82">
+      <c r="R25" s="82">
         <v>0.87460000000000004</v>
       </c>
-      <c r="R25" s="64" t="s">
+      <c r="S25" s="64" t="s">
         <v>373</v>
       </c>
     </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K26" s="87">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K26" s="38">
+        <v>90.62</v>
+      </c>
+      <c r="L26" s="86">
         <v>87.91</v>
       </c>
-      <c r="L26" s="82">
+      <c r="M26" s="82">
         <v>0.88200000000000001</v>
       </c>
-      <c r="M26" s="82">
+      <c r="N26" s="82">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N26" s="82">
+      <c r="O26" s="82">
         <v>0.88449999999999995</v>
       </c>
-      <c r="O26" s="82">
+      <c r="P26" s="82">
         <v>0.87580000000000002</v>
       </c>
-      <c r="P26" s="82">
+      <c r="Q26" s="82">
         <v>0.87039999999999995</v>
       </c>
-      <c r="Q26" s="82">
+      <c r="R26" s="82">
         <v>0.87309999999999999</v>
       </c>
-      <c r="R26" s="64" t="s">
+      <c r="S26" s="64" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="27" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K27" s="87">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K27" s="38">
+        <v>91.17</v>
+      </c>
+      <c r="L27" s="86">
         <v>88.79</v>
       </c>
-      <c r="L27" s="82">
+      <c r="M27" s="82">
         <v>0.90639999999999998</v>
       </c>
-      <c r="M27" s="82">
+      <c r="N27" s="82">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N27" s="82">
+      <c r="O27" s="82">
         <v>0.89080000000000004</v>
       </c>
-      <c r="O27" s="82">
+      <c r="P27" s="82">
         <v>0.86899999999999999</v>
       </c>
-      <c r="P27" s="82">
+      <c r="Q27" s="82">
         <v>0.9012</v>
       </c>
-      <c r="Q27" s="82">
+      <c r="R27" s="82">
         <v>0.88480000000000003</v>
       </c>
-      <c r="R27" s="64" t="s">
+      <c r="S27" s="64" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="28" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K28" s="87">
+    <row r="28" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K28" s="38">
+        <v>90.94</v>
+      </c>
+      <c r="L28" s="86">
         <v>88.5</v>
       </c>
-      <c r="L28" s="82">
+      <c r="M28" s="82">
         <v>0.87909999999999999</v>
       </c>
-      <c r="M28" s="82">
+      <c r="N28" s="82">
         <v>0.90400000000000003</v>
       </c>
-      <c r="N28" s="82">
+      <c r="O28" s="82">
         <v>0.89139999999999997</v>
       </c>
-      <c r="O28" s="82">
+      <c r="P28" s="82">
         <v>0.89170000000000005</v>
       </c>
-      <c r="P28" s="82">
+      <c r="Q28" s="82">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q28" s="82">
+      <c r="R28" s="82">
         <v>0.87770000000000004</v>
       </c>
-      <c r="R28" s="64" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="S28" s="64" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A29" s="65" t="s">
         <v>339</v>
       </c>
@@ -7365,136 +7627,151 @@
       <c r="J29" s="72" t="s">
         <v>367</v>
       </c>
-      <c r="K29" s="66">
+      <c r="K29" s="72">
+        <v>90.7</v>
+      </c>
+      <c r="L29" s="66">
         <v>87.02</v>
       </c>
-      <c r="L29" s="67">
+      <c r="M29" s="67">
         <v>0.84099999999999997</v>
       </c>
-      <c r="M29" s="67">
+      <c r="N29" s="67">
         <v>0.92659999999999998</v>
       </c>
-      <c r="N29" s="67">
+      <c r="O29" s="67">
         <v>0.88170000000000004</v>
       </c>
-      <c r="O29" s="67">
+      <c r="P29" s="67">
         <v>0.90969999999999995</v>
       </c>
-      <c r="P29" s="67">
+      <c r="Q29" s="67">
         <v>0.80859999999999999</v>
       </c>
-      <c r="Q29" s="67">
+      <c r="R29" s="67">
         <v>0.85619999999999996</v>
       </c>
-      <c r="R29" s="65" t="s">
+      <c r="S29" s="65" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="30" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K30" s="87">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K30" s="38">
+        <v>91.09</v>
+      </c>
+      <c r="L30" s="86">
         <v>88.2</v>
       </c>
-      <c r="L30" s="82">
+      <c r="M30" s="82">
         <v>0.86629999999999996</v>
       </c>
-      <c r="M30" s="82">
+      <c r="N30" s="82">
         <v>0.9153</v>
       </c>
-      <c r="N30" s="82">
+      <c r="O30" s="82">
         <v>0.8901</v>
       </c>
-      <c r="O30" s="82">
+      <c r="P30" s="82">
         <v>0.90129999999999999</v>
       </c>
-      <c r="P30" s="82">
+      <c r="Q30" s="82">
         <v>0.84570000000000001</v>
       </c>
-      <c r="Q30" s="82">
+      <c r="R30" s="82">
         <v>0.87260000000000004</v>
       </c>
-      <c r="R30" s="64" t="s">
+      <c r="S30" s="64" t="s">
         <v>369</v>
       </c>
     </row>
-    <row r="31" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K31" s="87">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K31" s="38">
+        <v>91.02</v>
+      </c>
+      <c r="L31" s="86">
         <v>87.91</v>
       </c>
-      <c r="L31" s="82">
+      <c r="M31" s="82">
         <v>0.87360000000000004</v>
       </c>
-      <c r="M31" s="82">
+      <c r="N31" s="82">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N31" s="82">
+      <c r="O31" s="82">
         <v>0.88580000000000003</v>
       </c>
-      <c r="O31" s="82">
+      <c r="P31" s="82">
         <v>0.88539999999999996</v>
       </c>
-      <c r="P31" s="82">
+      <c r="Q31" s="82">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q31" s="82">
+      <c r="R31" s="82">
         <v>0.87150000000000005</v>
       </c>
-      <c r="R31" s="64" t="s">
+      <c r="S31" s="64" t="s">
         <v>370</v>
       </c>
     </row>
-    <row r="32" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K32" s="87">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K32" s="38">
+        <v>91.17</v>
+      </c>
+      <c r="L32" s="86">
         <v>87.02</v>
       </c>
-      <c r="L32" s="82">
+      <c r="M32" s="82">
         <v>0.84460000000000002</v>
       </c>
-      <c r="M32" s="82">
+      <c r="N32" s="82">
         <v>0.92090000000000005</v>
       </c>
-      <c r="N32" s="82">
+      <c r="O32" s="82">
         <v>0.88109999999999999</v>
       </c>
-      <c r="O32" s="82">
+      <c r="P32" s="82">
         <v>0.90410000000000001</v>
       </c>
-      <c r="P32" s="82">
+      <c r="Q32" s="82">
         <v>0.81479999999999997</v>
       </c>
-      <c r="Q32" s="82">
+      <c r="R32" s="82">
         <v>0.85709999999999997</v>
       </c>
-      <c r="R32" s="64" t="s">
+      <c r="S32" s="64" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K33" s="87">
+    <row r="33" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K33" s="38">
+        <v>90.86</v>
+      </c>
+      <c r="L33" s="86">
         <v>89.09</v>
       </c>
-      <c r="L33" s="82">
+      <c r="M33" s="82">
         <v>0.90229999999999999</v>
       </c>
-      <c r="M33" s="82">
+      <c r="N33" s="82">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N33" s="82">
+      <c r="O33" s="82">
         <v>0.89459999999999995</v>
       </c>
-      <c r="O33" s="82">
+      <c r="P33" s="82">
         <v>0.87880000000000003</v>
       </c>
-      <c r="P33" s="82">
+      <c r="Q33" s="82">
         <v>0.89510000000000001</v>
       </c>
-      <c r="Q33" s="82">
+      <c r="R33" s="82">
         <v>0.88690000000000002</v>
       </c>
-      <c r="R33" s="64" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="S33" s="64" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A34" s="65" t="s">
         <v>380</v>
       </c>
@@ -7525,89 +7802,98 @@
       <c r="J34" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="K34" s="66">
+      <c r="K34" s="72">
+        <v>91.02</v>
+      </c>
+      <c r="L34" s="66">
         <v>88.5</v>
       </c>
-      <c r="L34" s="67">
+      <c r="M34" s="67">
         <v>0.87909999999999999</v>
       </c>
-      <c r="M34" s="67">
+      <c r="N34" s="67">
         <v>0.90400000000000003</v>
       </c>
-      <c r="N34" s="67">
+      <c r="O34" s="67">
         <v>0.89139999999999997</v>
       </c>
-      <c r="O34" s="67">
+      <c r="P34" s="67">
         <v>0.89170000000000005</v>
       </c>
-      <c r="P34" s="67">
+      <c r="Q34" s="67">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q34" s="67">
+      <c r="R34" s="67">
         <v>0.87770000000000004</v>
       </c>
-      <c r="R34" s="65" t="s">
+      <c r="S34" s="65" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="35" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K35" s="87">
+    <row r="35" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K35" s="38">
+        <v>91.25</v>
+      </c>
+      <c r="L35" s="86">
         <v>87.91</v>
       </c>
-      <c r="L35" s="82">
+      <c r="M35" s="82">
         <v>0.87360000000000004</v>
       </c>
-      <c r="M35" s="82">
+      <c r="N35" s="82">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N35" s="82">
+      <c r="O35" s="82">
         <v>0.88580000000000003</v>
       </c>
-      <c r="O35" s="82">
+      <c r="P35" s="82">
         <v>0.88539999999999996</v>
       </c>
-      <c r="P35" s="82">
+      <c r="Q35" s="82">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q35" s="82">
+      <c r="R35" s="82">
         <v>0.87150000000000005</v>
       </c>
-      <c r="R35" s="64" t="s">
+      <c r="S35" s="64" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K36" s="87">
+    <row r="36" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K36" s="38">
+        <v>91.02</v>
+      </c>
+      <c r="L36" s="86">
         <v>88.5</v>
       </c>
-      <c r="L36" s="82">
+      <c r="M36" s="82">
         <v>0.87909999999999999</v>
       </c>
-      <c r="M36" s="82">
+      <c r="N36" s="82">
         <v>0.90400000000000003</v>
       </c>
-      <c r="N36" s="82">
+      <c r="O36" s="82">
         <v>0.89139999999999997</v>
       </c>
-      <c r="O36" s="82">
+      <c r="P36" s="82">
         <v>0.89170000000000005</v>
       </c>
-      <c r="P36" s="82">
+      <c r="Q36" s="82">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q36" s="82">
+      <c r="R36" s="82">
         <v>0.87770000000000004</v>
       </c>
-      <c r="R36" s="64" t="s">
+      <c r="S36" s="64" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K37" s="87">
+    <row r="37" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K37" s="38">
+        <v>91.33</v>
+      </c>
+      <c r="L37" s="86">
         <v>88.2</v>
-      </c>
-      <c r="L37" s="82">
-        <v>0.88700000000000001</v>
       </c>
       <c r="M37" s="82">
         <v>0.88700000000000001</v>
@@ -7616,7 +7902,7 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="O37" s="82">
-        <v>0.87649999999999995</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="P37" s="82">
         <v>0.87649999999999995</v>
@@ -7624,39 +7910,45 @@
       <c r="Q37" s="82">
         <v>0.87649999999999995</v>
       </c>
-      <c r="R37" s="64" t="s">
+      <c r="R37" s="82">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="S37" s="64" t="s">
         <v>406</v>
       </c>
     </row>
-    <row r="38" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K38" s="87">
+    <row r="38" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K38" s="38">
+        <v>90.94</v>
+      </c>
+      <c r="L38" s="86">
         <v>88.5</v>
       </c>
-      <c r="L38" s="82">
+      <c r="M38" s="82">
         <v>0.87909999999999999</v>
       </c>
-      <c r="M38" s="82">
+      <c r="N38" s="82">
         <v>0.90400000000000003</v>
       </c>
-      <c r="N38" s="82">
+      <c r="O38" s="82">
         <v>0.89139999999999997</v>
       </c>
-      <c r="O38" s="82">
+      <c r="P38" s="82">
         <v>0.89170000000000005</v>
       </c>
-      <c r="P38" s="82">
+      <c r="Q38" s="82">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q38" s="82">
+      <c r="R38" s="82">
         <v>0.87770000000000004</v>
       </c>
-      <c r="R38" s="64" t="s">
+      <c r="S38" s="64" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:19" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A39" s="65" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B39" s="72" t="s">
         <v>66</v>
@@ -7685,115 +7977,127 @@
       <c r="J39" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="K39" s="66">
+      <c r="K39" s="72">
+        <v>90.86</v>
+      </c>
+      <c r="L39" s="66">
         <v>87.02</v>
       </c>
-      <c r="L39" s="67">
+      <c r="M39" s="67">
         <v>0.84819999999999995</v>
       </c>
-      <c r="M39" s="67">
+      <c r="N39" s="67">
         <v>0.9153</v>
       </c>
-      <c r="N39" s="67">
+      <c r="O39" s="67">
         <v>0.88039999999999996</v>
       </c>
-      <c r="O39" s="67">
+      <c r="P39" s="67">
         <v>0.89859999999999995</v>
       </c>
-      <c r="P39" s="67">
+      <c r="Q39" s="67">
         <v>0.82099999999999995</v>
       </c>
-      <c r="Q39" s="67">
+      <c r="R39" s="67">
         <v>0.85809999999999997</v>
       </c>
-      <c r="R39" s="65" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K40" s="87">
+      <c r="S39" s="65" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K40" s="38">
+        <v>90.78</v>
+      </c>
+      <c r="L40" s="86">
         <v>89.09</v>
       </c>
-      <c r="L40" s="82">
+      <c r="M40" s="82">
         <v>0.89329999999999998</v>
       </c>
-      <c r="M40" s="82">
+      <c r="N40" s="82">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N40" s="82">
+      <c r="O40" s="82">
         <v>0.89580000000000004</v>
       </c>
-      <c r="O40" s="82">
+      <c r="P40" s="82">
         <v>0.88819999999999999</v>
       </c>
-      <c r="P40" s="82">
+      <c r="Q40" s="82">
         <v>0.88270000000000004</v>
       </c>
-      <c r="Q40" s="82">
+      <c r="R40" s="82">
         <v>0.88539999999999996</v>
       </c>
-      <c r="R40" s="64" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K41" s="87">
+      <c r="S40" s="64" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K41" s="38">
+        <v>91.09</v>
+      </c>
+      <c r="L41" s="86">
         <v>87.91</v>
       </c>
-      <c r="L41" s="82">
+      <c r="M41" s="82">
         <v>0.86960000000000004</v>
       </c>
-      <c r="M41" s="82">
+      <c r="N41" s="82">
         <v>0.90400000000000003</v>
       </c>
-      <c r="N41" s="82">
+      <c r="O41" s="82">
         <v>0.88639999999999997</v>
       </c>
-      <c r="O41" s="82">
+      <c r="P41" s="82">
         <v>0.89029999999999998</v>
       </c>
-      <c r="P41" s="82">
+      <c r="Q41" s="82">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q41" s="82">
+      <c r="R41" s="82">
         <v>0.87070000000000003</v>
       </c>
-      <c r="R41" s="64" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="42" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K42" s="87">
+      <c r="S41" s="64" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K42" s="38">
+        <v>91.02</v>
+      </c>
+      <c r="L42" s="86">
         <v>88.79</v>
       </c>
-      <c r="L42" s="82">
+      <c r="M42" s="82">
         <v>0.87170000000000003</v>
       </c>
-      <c r="M42" s="82">
+      <c r="N42" s="82">
         <v>0.92090000000000005</v>
       </c>
-      <c r="N42" s="82">
+      <c r="O42" s="82">
         <v>0.89559999999999995</v>
       </c>
-      <c r="O42" s="82">
+      <c r="P42" s="82">
         <v>0.90790000000000004</v>
       </c>
-      <c r="P42" s="82">
+      <c r="Q42" s="82">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q42" s="82">
+      <c r="R42" s="82">
         <v>0.879</v>
       </c>
-      <c r="R42" s="64" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K43" s="87">
+      <c r="S42" s="64" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K43" s="38">
+        <v>91.09</v>
+      </c>
+      <c r="L43" s="86">
         <v>88.79</v>
-      </c>
-      <c r="L43" s="82">
-        <v>0.89270000000000005</v>
       </c>
       <c r="M43" s="82">
         <v>0.89270000000000005</v>
@@ -7802,7 +8106,7 @@
         <v>0.89270000000000005</v>
       </c>
       <c r="O43" s="82">
-        <v>0.88270000000000004</v>
+        <v>0.89270000000000005</v>
       </c>
       <c r="P43" s="82">
         <v>0.88270000000000004</v>
@@ -7810,11 +8114,14 @@
       <c r="Q43" s="82">
         <v>0.88270000000000004</v>
       </c>
-      <c r="R43" s="64" t="s">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="44" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="R43" s="82">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="S43" s="64" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A44" s="65" t="s">
         <v>333</v>
       </c>
@@ -7845,138 +8152,153 @@
       <c r="J44" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="K44" s="66">
+      <c r="K44" s="72">
+        <v>91.09</v>
+      </c>
+      <c r="L44" s="66">
         <v>88.2</v>
       </c>
-      <c r="L44" s="67">
+      <c r="M44" s="67">
         <v>0.88270000000000004</v>
       </c>
-      <c r="M44" s="67">
+      <c r="N44" s="67">
         <v>0.89270000000000005</v>
       </c>
-      <c r="N44" s="67">
+      <c r="O44" s="67">
         <v>0.88759999999999994</v>
       </c>
-      <c r="O44" s="67">
+      <c r="P44" s="67">
         <v>0.88119999999999998</v>
       </c>
-      <c r="P44" s="67">
+      <c r="Q44" s="67">
         <v>0.87039999999999995</v>
       </c>
-      <c r="Q44" s="67">
+      <c r="R44" s="67">
         <v>0.87580000000000002</v>
       </c>
-      <c r="R44" s="65" t="s">
+      <c r="S44" s="65" t="s">
         <v>379</v>
       </c>
     </row>
-    <row r="45" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K45" s="87">
+    <row r="45" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K45" s="38">
+        <v>91.09</v>
+      </c>
+      <c r="L45" s="86">
         <v>89.09</v>
       </c>
-      <c r="L45" s="82">
+      <c r="M45" s="82">
         <v>0.88039999999999996</v>
       </c>
-      <c r="M45" s="82">
+      <c r="N45" s="82">
         <v>0.9153</v>
       </c>
-      <c r="N45" s="82">
+      <c r="O45" s="82">
         <v>0.89749999999999996</v>
       </c>
-      <c r="O45" s="82">
+      <c r="P45" s="82">
         <v>0.9032</v>
       </c>
-      <c r="P45" s="82">
+      <c r="Q45" s="82">
         <v>0.86419999999999997</v>
       </c>
-      <c r="Q45" s="82">
+      <c r="R45" s="82">
         <v>0.88329999999999997</v>
       </c>
-      <c r="R45" s="64" t="s">
+      <c r="S45" s="64" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K46" s="38">
+        <v>91.09</v>
+      </c>
+      <c r="L46" s="86">
+        <v>88.79</v>
+      </c>
+      <c r="M46" s="82">
+        <v>0.90169999999999995</v>
+      </c>
+      <c r="N46" s="82">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="O46" s="82">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="P46" s="82">
+        <v>0.87350000000000005</v>
+      </c>
+      <c r="Q46" s="82">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="R46" s="82">
+        <v>0.8841</v>
+      </c>
+      <c r="S46" s="64" t="s">
         <v>417</v>
       </c>
     </row>
-    <row r="46" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K46" s="87">
+    <row r="47" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K47" s="38">
+        <v>91.25</v>
+      </c>
+      <c r="L47" s="86">
+        <v>87.91</v>
+      </c>
+      <c r="M47" s="82">
+        <v>0.89529999999999998</v>
+      </c>
+      <c r="N47" s="82">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="O47" s="82">
+        <v>0.88249999999999995</v>
+      </c>
+      <c r="P47" s="82">
+        <v>0.86229999999999996</v>
+      </c>
+      <c r="Q47" s="82">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="R47" s="82">
+        <v>0.87539999999999996</v>
+      </c>
+      <c r="S47" s="64" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K48" s="38">
+        <v>91.25</v>
+      </c>
+      <c r="L48" s="86">
         <v>88.79</v>
       </c>
-      <c r="L46" s="82">
-        <v>0.90169999999999995</v>
-      </c>
-      <c r="M46" s="82">
-        <v>0.88139999999999996</v>
-      </c>
-      <c r="N46" s="82">
-        <v>0.89139999999999997</v>
-      </c>
-      <c r="O46" s="82">
-        <v>0.87350000000000005</v>
-      </c>
-      <c r="P46" s="82">
-        <v>0.89510000000000001</v>
-      </c>
-      <c r="Q46" s="82">
-        <v>0.8841</v>
-      </c>
-      <c r="R46" s="64" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="47" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K47" s="87">
-        <v>87.91</v>
-      </c>
-      <c r="L47" s="82">
-        <v>0.89529999999999998</v>
-      </c>
-      <c r="M47" s="82">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="N47" s="82">
-        <v>0.88249999999999995</v>
-      </c>
-      <c r="O47" s="82">
-        <v>0.86229999999999996</v>
-      </c>
-      <c r="P47" s="82">
+      <c r="M48" s="82">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="N48" s="82">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="O48" s="82">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="P48" s="82">
+        <v>0.878</v>
+      </c>
+      <c r="Q48" s="82">
         <v>0.88890000000000002</v>
       </c>
-      <c r="Q47" s="82">
-        <v>0.87539999999999996</v>
-      </c>
-      <c r="R47" s="64" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K48" s="87">
-        <v>88.79</v>
-      </c>
-      <c r="L48" s="82">
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="M48" s="82">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="N48" s="82">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="O48" s="82">
-        <v>0.878</v>
-      </c>
-      <c r="P48" s="82">
-        <v>0.88890000000000002</v>
-      </c>
-      <c r="Q48" s="82">
+      <c r="R48" s="82">
         <v>0.88339999999999996</v>
       </c>
-      <c r="R48" s="64" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="49" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="S48" s="64" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A49" s="81" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B49" s="80" t="s">
         <v>66</v>
@@ -8005,136 +8327,151 @@
       <c r="J49" s="80" t="s">
         <v>366</v>
       </c>
-      <c r="K49" s="66">
+      <c r="K49" s="72">
+        <v>91.17</v>
+      </c>
+      <c r="L49" s="66">
         <v>88.79</v>
       </c>
-      <c r="L49" s="67">
+      <c r="M49" s="67">
         <v>0.87170000000000003</v>
       </c>
-      <c r="M49" s="67">
+      <c r="N49" s="67">
         <v>0.92090000000000005</v>
       </c>
-      <c r="N49" s="67">
+      <c r="O49" s="67">
         <v>0.89559999999999995</v>
       </c>
-      <c r="O49" s="67">
+      <c r="P49" s="67">
         <v>0.90790000000000004</v>
       </c>
-      <c r="P49" s="67">
+      <c r="Q49" s="67">
         <v>0.85189999999999999</v>
       </c>
-      <c r="Q49" s="67">
+      <c r="R49" s="67">
         <v>0.879</v>
       </c>
-      <c r="R49" s="65" t="s">
+      <c r="S49" s="65" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K50" s="38">
+        <v>90.86</v>
+      </c>
+      <c r="L50" s="86">
+        <v>88.2</v>
+      </c>
+      <c r="M50" s="82">
+        <v>0.90529999999999999</v>
+      </c>
+      <c r="N50" s="82">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="O50" s="82">
+        <v>0.88439999999999996</v>
+      </c>
+      <c r="P50" s="82">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="Q50" s="82">
+        <v>0.9012</v>
+      </c>
+      <c r="R50" s="82">
+        <v>0.87949999999999995</v>
+      </c>
+      <c r="S50" s="64" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K51" s="38">
+        <v>91.02</v>
+      </c>
+      <c r="L51" s="86">
+        <v>88.5</v>
+      </c>
+      <c r="M51" s="82">
+        <v>0.87909999999999999</v>
+      </c>
+      <c r="N51" s="82">
+        <v>0.90400000000000003</v>
+      </c>
+      <c r="O51" s="82">
+        <v>0.89139999999999997</v>
+      </c>
+      <c r="P51" s="82">
+        <v>0.89170000000000005</v>
+      </c>
+      <c r="Q51" s="82">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="R51" s="82">
+        <v>0.87770000000000004</v>
+      </c>
+      <c r="S51" s="64" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="50" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K50" s="87">
-        <v>88.2</v>
-      </c>
-      <c r="L50" s="82">
-        <v>0.90529999999999999</v>
-      </c>
-      <c r="M50" s="82">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="N50" s="82">
-        <v>0.88439999999999996</v>
-      </c>
-      <c r="O50" s="82">
-        <v>0.85880000000000001</v>
-      </c>
-      <c r="P50" s="82">
-        <v>0.9012</v>
-      </c>
-      <c r="Q50" s="82">
-        <v>0.87949999999999995</v>
-      </c>
-      <c r="R50" s="64" t="s">
+    <row r="52" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K52" s="38">
+        <v>91.17</v>
+      </c>
+      <c r="L52" s="86">
+        <v>88.79</v>
+      </c>
+      <c r="M52" s="82">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="N52" s="82">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="O52" s="82">
+        <v>0.89200000000000002</v>
+      </c>
+      <c r="P52" s="82">
+        <v>0.878</v>
+      </c>
+      <c r="Q52" s="82">
+        <v>0.88890000000000002</v>
+      </c>
+      <c r="R52" s="82">
+        <v>0.88339999999999996</v>
+      </c>
+      <c r="S52" s="64" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="51" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K51" s="87">
-        <v>88.5</v>
-      </c>
-      <c r="L51" s="82">
-        <v>0.87909999999999999</v>
-      </c>
-      <c r="M51" s="82">
-        <v>0.90400000000000003</v>
-      </c>
-      <c r="N51" s="82">
-        <v>0.89139999999999997</v>
-      </c>
-      <c r="O51" s="82">
-        <v>0.89170000000000005</v>
-      </c>
-      <c r="P51" s="82">
-        <v>0.86419999999999997</v>
-      </c>
-      <c r="Q51" s="82">
-        <v>0.87770000000000004</v>
-      </c>
-      <c r="R51" s="64" t="s">
+    <row r="53" spans="1:19" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="K53" s="38">
+        <v>91.02</v>
+      </c>
+      <c r="L53" s="86">
+        <v>89.09</v>
+      </c>
+      <c r="M53" s="82">
+        <v>0.91180000000000005</v>
+      </c>
+      <c r="N53" s="82">
+        <v>0.87570000000000003</v>
+      </c>
+      <c r="O53" s="82">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="P53" s="82">
+        <v>0.86980000000000002</v>
+      </c>
+      <c r="Q53" s="82">
+        <v>0.90739999999999998</v>
+      </c>
+      <c r="R53" s="82">
+        <v>0.88819999999999999</v>
+      </c>
+      <c r="S53" s="64" t="s">
         <v>427</v>
       </c>
     </row>
-    <row r="52" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="K52" s="87">
-        <v>88.79</v>
-      </c>
-      <c r="L52" s="82">
-        <v>0.89710000000000001</v>
-      </c>
-      <c r="M52" s="82">
-        <v>0.88700000000000001</v>
-      </c>
-      <c r="N52" s="82">
-        <v>0.89200000000000002</v>
-      </c>
-      <c r="O52" s="82">
-        <v>0.878</v>
-      </c>
-      <c r="P52" s="82">
-        <v>0.88890000000000002</v>
-      </c>
-      <c r="Q52" s="82">
-        <v>0.88339999999999996</v>
-      </c>
-      <c r="R52" s="64" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="K53" s="87">
-        <v>89.09</v>
-      </c>
-      <c r="L53" s="82">
-        <v>0.91180000000000005</v>
-      </c>
-      <c r="M53" s="82">
-        <v>0.87570000000000003</v>
-      </c>
-      <c r="N53" s="82">
-        <v>0.89339999999999997</v>
-      </c>
-      <c r="O53" s="82">
-        <v>0.86980000000000002</v>
-      </c>
-      <c r="P53" s="82">
-        <v>0.90739999999999998</v>
-      </c>
-      <c r="Q53" s="82">
-        <v>0.88819999999999999</v>
-      </c>
-      <c r="R53" s="64" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:19" s="65" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A54" s="65" t="s">
         <v>309</v>
       </c>
@@ -8165,370 +8502,1531 @@
       <c r="J54" s="72" t="s">
         <v>366</v>
       </c>
-      <c r="K54" s="66">
+      <c r="K54" s="72">
+        <v>89.84</v>
+      </c>
+      <c r="L54" s="66">
         <v>86.73</v>
       </c>
-      <c r="L54" s="67">
+      <c r="M54" s="67">
         <v>0.86260000000000003</v>
       </c>
-      <c r="M54" s="67">
+      <c r="N54" s="67">
         <v>0.88700000000000001</v>
       </c>
-      <c r="N54" s="67">
+      <c r="O54" s="67">
         <v>0.87470000000000003</v>
       </c>
-      <c r="O54" s="67">
+      <c r="P54" s="67">
         <v>0.87260000000000004</v>
       </c>
-      <c r="P54" s="67">
+      <c r="Q54" s="67">
         <v>0.84570000000000001</v>
       </c>
-      <c r="Q54" s="67">
+      <c r="R54" s="67">
         <v>0.8589</v>
       </c>
-      <c r="R54" s="65" t="s">
+      <c r="S54" s="65" t="s">
         <v>376</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A55" s="64" t="s">
         <v>377</v>
       </c>
-      <c r="B55" s="37" t="s">
+      <c r="B55" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C55" s="37" t="s">
+      <c r="C55" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="D55" s="37">
+      <c r="D55" s="38">
         <v>256</v>
       </c>
-      <c r="E55" s="37" t="s">
+      <c r="E55" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="F55" s="37">
+      <c r="F55" s="38">
         <v>90</v>
       </c>
-      <c r="G55" s="37" t="b">
+      <c r="G55" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H55" s="37" t="s">
+      <c r="H55" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="I55" s="37" t="s">
+      <c r="I55" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="J55" s="37" t="s">
+      <c r="J55" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="K55" s="87">
+      <c r="K55" s="38">
+        <v>89.84</v>
+      </c>
+      <c r="L55" s="86">
         <v>86.73</v>
       </c>
-      <c r="L55" s="82">
+      <c r="M55" s="82">
         <v>0.87080000000000002</v>
       </c>
-      <c r="M55" s="82">
+      <c r="N55" s="82">
         <v>0.87570000000000003</v>
       </c>
-      <c r="N55" s="82">
+      <c r="O55" s="82">
         <v>0.87319999999999998</v>
       </c>
-      <c r="O55" s="82">
+      <c r="P55" s="82">
         <v>0.86339999999999995</v>
       </c>
-      <c r="P55" s="82">
+      <c r="Q55" s="82">
         <v>0.85799999999999998</v>
       </c>
-      <c r="Q55" s="82">
+      <c r="R55" s="82">
         <v>0.86070000000000002</v>
       </c>
-      <c r="R55" s="64" t="s">
+      <c r="S55" s="64" t="s">
         <v>378</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A56" s="64" t="s">
+        <v>408</v>
+      </c>
+      <c r="B56" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D56" s="38">
+        <v>256</v>
+      </c>
+      <c r="E56" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F56" s="38">
+        <v>90</v>
+      </c>
+      <c r="G56" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H56" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I56" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J56" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K56" s="38">
+        <v>92.5</v>
+      </c>
+      <c r="L56" s="86">
+        <v>86.43</v>
+      </c>
+      <c r="M56" s="82">
+        <v>0.87860000000000005</v>
+      </c>
+      <c r="N56" s="82">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="O56" s="82">
+        <v>0.86860000000000004</v>
+      </c>
+      <c r="P56" s="82">
+        <v>0.84940000000000004</v>
+      </c>
+      <c r="Q56" s="82">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="R56" s="82">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="S56" s="64" t="s">
         <v>409</v>
       </c>
-      <c r="B56" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C56" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D56" s="37">
-        <v>256</v>
-      </c>
-      <c r="E56" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F56" s="37">
-        <v>90</v>
-      </c>
-      <c r="G56" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H56" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I56" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J56" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K56" s="87">
-        <v>86.43</v>
-      </c>
-      <c r="L56" s="82">
-        <v>0.87860000000000005</v>
-      </c>
-      <c r="M56" s="82">
-        <v>0.85880000000000001</v>
-      </c>
-      <c r="N56" s="82">
-        <v>0.86860000000000004</v>
-      </c>
-      <c r="O56" s="82">
-        <v>0.84940000000000004</v>
-      </c>
-      <c r="P56" s="82">
-        <v>0.87039999999999995</v>
-      </c>
-      <c r="Q56" s="82">
-        <v>0.85980000000000001</v>
-      </c>
-      <c r="R56" s="64" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.4">
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A57" s="64" t="s">
         <v>380</v>
       </c>
-      <c r="B57" s="37" t="s">
+      <c r="B57" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="37" t="s">
+      <c r="C57" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="D57" s="37">
+      <c r="D57" s="38">
         <v>256</v>
       </c>
-      <c r="E57" s="37" t="s">
+      <c r="E57" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F57" s="38">
+        <v>90</v>
+      </c>
+      <c r="G57" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H57" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I57" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J57" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K57" s="38">
+        <v>91.41</v>
+      </c>
+      <c r="L57" s="86">
+        <v>87.91</v>
+      </c>
+      <c r="M57" s="82">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="N57" s="82">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="O57" s="82">
+        <v>0.88580000000000003</v>
+      </c>
+      <c r="P57" s="82">
+        <v>0.88539999999999996</v>
+      </c>
+      <c r="Q57" s="82">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="R57" s="82">
+        <v>0.87150000000000005</v>
+      </c>
+      <c r="S57" s="64" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A58" s="64" t="s">
+        <v>411</v>
+      </c>
+      <c r="B58" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C58" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D58" s="38">
+        <v>256</v>
+      </c>
+      <c r="E58" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F58" s="38">
+        <v>90</v>
+      </c>
+      <c r="G58" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H58" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I58" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J58" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K58" s="38">
+        <v>89.61</v>
+      </c>
+      <c r="L58" s="86">
+        <v>85.84</v>
+      </c>
+      <c r="M58" s="82">
+        <v>0.87280000000000002</v>
+      </c>
+      <c r="N58" s="82">
+        <v>0.85309999999999997</v>
+      </c>
+      <c r="O58" s="82">
+        <v>0.8629</v>
+      </c>
+      <c r="P58" s="82">
+        <v>0.84340000000000004</v>
+      </c>
+      <c r="Q58" s="82">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="R58" s="82">
+        <v>0.85370000000000001</v>
+      </c>
+      <c r="S58" s="64" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A59" s="64" t="s">
+        <v>414</v>
+      </c>
+      <c r="B59" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D59" s="38">
+        <v>256</v>
+      </c>
+      <c r="E59" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F59" s="38">
+        <v>90</v>
+      </c>
+      <c r="G59" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H59" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I59" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J59" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K59" s="38">
+        <v>90.31</v>
+      </c>
+      <c r="L59" s="86">
+        <v>85.25</v>
+      </c>
+      <c r="M59" s="82">
+        <v>0.8508</v>
+      </c>
+      <c r="N59" s="82">
+        <v>0.87009999999999998</v>
+      </c>
+      <c r="O59" s="82">
+        <v>0.86029999999999995</v>
+      </c>
+      <c r="P59" s="82">
+        <v>0.85440000000000005</v>
+      </c>
+      <c r="Q59" s="82">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="R59" s="82">
+        <v>0.84379999999999999</v>
+      </c>
+      <c r="S59" s="64" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A60" s="64" t="s">
+        <v>431</v>
+      </c>
+      <c r="B60" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D60" s="38">
+        <v>256</v>
+      </c>
+      <c r="E60" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F60" s="38">
+        <v>90</v>
+      </c>
+      <c r="G60" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H60" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I60" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J60" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K60" s="38">
+        <v>90.94</v>
+      </c>
+      <c r="L60" s="86">
+        <v>89.68</v>
+      </c>
+      <c r="M60" s="82">
+        <v>0.93289999999999995</v>
+      </c>
+      <c r="N60" s="82">
+        <v>0.86439999999999995</v>
+      </c>
+      <c r="O60" s="82">
+        <v>0.89739999999999998</v>
+      </c>
+      <c r="P60" s="82">
+        <v>0.8629</v>
+      </c>
+      <c r="Q60" s="82">
+        <v>0.93210000000000004</v>
+      </c>
+      <c r="R60" s="82">
+        <v>0.89610000000000001</v>
+      </c>
+      <c r="S60" s="64" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A61" s="64" t="s">
+        <v>435</v>
+      </c>
+      <c r="B61" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C61" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D61" s="38">
+        <v>256</v>
+      </c>
+      <c r="E61" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F61" s="38">
+        <v>90</v>
+      </c>
+      <c r="G61" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H61" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I61" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J61" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K61" s="38">
+        <v>91.41</v>
+      </c>
+      <c r="L61" s="86">
+        <v>85.84</v>
+      </c>
+      <c r="M61" s="82">
+        <v>0.85250000000000004</v>
+      </c>
+      <c r="N61" s="82">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="O61" s="82">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="P61" s="82">
+        <v>0.86539999999999995</v>
+      </c>
+      <c r="Q61" s="82">
+        <v>0.83330000000000004</v>
+      </c>
+      <c r="R61" s="82">
+        <v>0.84909999999999997</v>
+      </c>
+      <c r="S61" s="64" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K62" s="38">
+        <v>91.88</v>
+      </c>
+      <c r="L62" s="86">
+        <v>84.96</v>
+      </c>
+      <c r="M62" s="82">
+        <v>0.89380000000000004</v>
+      </c>
+      <c r="N62" s="82">
+        <v>0.80789999999999995</v>
+      </c>
+      <c r="O62" s="82">
+        <v>0.84870000000000001</v>
+      </c>
+      <c r="P62" s="82">
+        <v>0.81010000000000004</v>
+      </c>
+      <c r="Q62" s="82">
+        <v>0.89510000000000001</v>
+      </c>
+      <c r="R62" s="82">
+        <v>0.85040000000000004</v>
+      </c>
+      <c r="S62" s="64" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A63" s="64" t="s">
+        <v>436</v>
+      </c>
+      <c r="B63" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C63" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D63" s="38">
+        <v>256</v>
+      </c>
+      <c r="E63" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F63" s="38">
+        <v>90</v>
+      </c>
+      <c r="G63" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H63" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I63" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J63" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K63" s="38">
+        <v>91.17</v>
+      </c>
+      <c r="L63" s="86">
+        <v>84.37</v>
+      </c>
+      <c r="M63" s="82">
+        <v>0.86899999999999999</v>
+      </c>
+      <c r="N63" s="82">
+        <v>0.82489999999999997</v>
+      </c>
+      <c r="O63" s="82">
+        <v>0.84640000000000004</v>
+      </c>
+      <c r="P63" s="82">
+        <v>0.81869999999999998</v>
+      </c>
+      <c r="Q63" s="82">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="R63" s="82">
+        <v>0.84079999999999999</v>
+      </c>
+      <c r="S63" s="64" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K64" s="38">
+        <v>91.33</v>
+      </c>
+      <c r="L64" s="86">
+        <v>85.25</v>
+      </c>
+      <c r="M64" s="82">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="N64" s="82">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="O64" s="82">
+        <v>0.85880000000000001</v>
+      </c>
+      <c r="P64" s="82">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="Q64" s="82">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="R64" s="82">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="S64" s="64" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A65" s="64" t="s">
+        <v>441</v>
+      </c>
+      <c r="B65" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D65" s="38">
+        <v>256</v>
+      </c>
+      <c r="E65" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F65" s="38">
+        <v>90</v>
+      </c>
+      <c r="G65" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H65" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I65" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J65" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K65" s="38">
+        <v>90.94</v>
+      </c>
+      <c r="L65" s="86">
+        <v>88.2</v>
+      </c>
+      <c r="M65" s="82">
+        <v>0.88270000000000004</v>
+      </c>
+      <c r="N65" s="82">
+        <v>0.89270000000000005</v>
+      </c>
+      <c r="O65" s="82">
+        <v>0.88759999999999994</v>
+      </c>
+      <c r="P65" s="82">
+        <v>0.88119999999999998</v>
+      </c>
+      <c r="Q65" s="82">
+        <v>0.87039999999999995</v>
+      </c>
+      <c r="R65" s="82">
+        <v>0.87580000000000002</v>
+      </c>
+      <c r="S65" s="64" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K66" s="38">
+        <v>90.94</v>
+      </c>
+      <c r="L66" s="86">
+        <v>89.09</v>
+      </c>
+      <c r="M66" s="82">
+        <v>0.90700000000000003</v>
+      </c>
+      <c r="N66" s="82">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="O66" s="82">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="P66" s="82">
+        <v>0.87429999999999997</v>
+      </c>
+      <c r="Q66" s="82">
+        <v>0.9012</v>
+      </c>
+      <c r="R66" s="82">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="S66" s="64" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K67" s="38">
+        <v>90.86</v>
+      </c>
+      <c r="L67" s="86">
+        <v>87.61</v>
+      </c>
+      <c r="M67" s="82">
+        <v>0.85340000000000005</v>
+      </c>
+      <c r="N67" s="82">
+        <v>0.92090000000000005</v>
+      </c>
+      <c r="O67" s="82">
+        <v>0.88590000000000002</v>
+      </c>
+      <c r="P67" s="82">
+        <v>0.90539999999999998</v>
+      </c>
+      <c r="Q67" s="82">
+        <v>0.82720000000000005</v>
+      </c>
+      <c r="R67" s="82">
+        <v>0.86450000000000005</v>
+      </c>
+      <c r="S67" s="64" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K68" s="38">
+        <v>91.09</v>
+      </c>
+      <c r="L68" s="86">
+        <v>88.2</v>
+      </c>
+      <c r="M68" s="82">
+        <v>0.86629999999999996</v>
+      </c>
+      <c r="N68" s="82">
+        <v>0.9153</v>
+      </c>
+      <c r="O68" s="82">
+        <v>0.8901</v>
+      </c>
+      <c r="P68" s="82">
+        <v>0.90129999999999999</v>
+      </c>
+      <c r="Q68" s="82">
+        <v>0.84570000000000001</v>
+      </c>
+      <c r="R68" s="82">
+        <v>0.87260000000000004</v>
+      </c>
+      <c r="S68" s="64" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A69" s="64" t="s">
+        <v>449</v>
+      </c>
+      <c r="B69" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C69" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D69" s="38">
+        <v>256</v>
+      </c>
+      <c r="E69" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F69" s="38">
+        <v>90</v>
+      </c>
+      <c r="G69" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H69" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I69" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J69" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K69" s="38">
+        <v>92.73</v>
+      </c>
+      <c r="L69" s="86">
+        <v>86.73</v>
+      </c>
+      <c r="M69" s="82">
+        <v>0.86670000000000003</v>
+      </c>
+      <c r="N69" s="82">
+        <v>0.88139999999999996</v>
+      </c>
+      <c r="O69" s="82">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="P69" s="82">
+        <v>0.8679</v>
+      </c>
+      <c r="Q69" s="82">
+        <v>0.85189999999999999</v>
+      </c>
+      <c r="R69" s="82">
+        <v>0.85980000000000001</v>
+      </c>
+      <c r="S69" s="64" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K70" s="38">
+        <v>92.81</v>
+      </c>
+      <c r="L70" s="86">
+        <v>87.61</v>
+      </c>
+      <c r="M70" s="82">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="N70" s="82">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="O70" s="82">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="P70" s="82">
+        <v>0.875</v>
+      </c>
+      <c r="Q70" s="82">
+        <v>0.86419999999999997</v>
+      </c>
+      <c r="R70" s="82">
+        <v>0.86960000000000004</v>
+      </c>
+      <c r="S70" s="64" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K71" s="38">
+        <v>93.05</v>
+      </c>
+      <c r="L71" s="86">
+        <v>88.79</v>
+      </c>
+      <c r="M71" s="82">
+        <v>0.88829999999999998</v>
+      </c>
+      <c r="N71" s="82">
+        <v>0.89829999999999999</v>
+      </c>
+      <c r="O71" s="82">
+        <v>0.89329999999999998</v>
+      </c>
+      <c r="P71" s="82">
+        <v>0.88749999999999996</v>
+      </c>
+      <c r="Q71" s="82">
+        <v>0.87649999999999995</v>
+      </c>
+      <c r="R71" s="82">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="S71" s="64" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A72" s="64" t="s">
+        <v>452</v>
+      </c>
+      <c r="B72" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C72" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D72" s="38">
+        <v>256</v>
+      </c>
+      <c r="E72" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F72" s="38">
+        <v>90</v>
+      </c>
+      <c r="G72" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H72" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I72" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J72" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K72" s="38">
+        <v>91.95</v>
+      </c>
+      <c r="L72" s="86">
+        <v>87.61</v>
+      </c>
+      <c r="M72" s="82">
+        <v>0.87709999999999999</v>
+      </c>
+      <c r="N72" s="82">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="O72" s="82">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="S72" s="64" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K73" s="38">
+        <v>91.56</v>
+      </c>
+      <c r="L73" s="86">
+        <v>89.09</v>
+      </c>
+      <c r="O73" s="82">
+        <v>0.89639999999999997</v>
+      </c>
+      <c r="S73" s="64" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K74" s="38">
+        <v>91.64</v>
+      </c>
+      <c r="L74" s="86">
+        <v>86.73</v>
+      </c>
+      <c r="O74" s="82">
+        <v>0.87029999999999996</v>
+      </c>
+      <c r="S74" s="64" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K75" s="38">
+        <v>91.72</v>
+      </c>
+      <c r="L75" s="86">
+        <v>87.61</v>
+      </c>
+      <c r="O75" s="82">
+        <v>0.87929999999999997</v>
+      </c>
+      <c r="S75" s="64" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A76" s="64" t="s">
+        <v>457</v>
+      </c>
+      <c r="B76" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C76" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D76" s="38">
+        <v>256</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="F76" s="38">
+        <v>90</v>
+      </c>
+      <c r="G76" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H76" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I76" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J76" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K76" s="38">
+        <v>91.72</v>
+      </c>
+      <c r="L76" s="86">
+        <v>86.14</v>
+      </c>
+      <c r="O76" s="82">
+        <v>0.86529999999999996</v>
+      </c>
+      <c r="S76" s="64" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K77" s="38">
+        <v>91.72</v>
+      </c>
+      <c r="L77" s="86">
+        <v>86.73</v>
+      </c>
+      <c r="O77" s="82">
+        <v>0.87029999999999996</v>
+      </c>
+      <c r="S77" s="64" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K78" s="38">
+        <v>91.41</v>
+      </c>
+      <c r="L78" s="86">
+        <v>86.43</v>
+      </c>
+      <c r="O78" s="82">
+        <v>0.86780000000000002</v>
+      </c>
+      <c r="S78" s="64" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K79" s="38">
+        <v>91.33</v>
+      </c>
+      <c r="L79" s="86">
+        <v>87.91</v>
+      </c>
+      <c r="O79" s="82">
+        <v>0.88519999999999999</v>
+      </c>
+      <c r="S79" s="64" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A80" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="B80" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C80" s="39" t="s">
+        <v>276</v>
+      </c>
+      <c r="D80" s="39">
+        <v>256</v>
+      </c>
+      <c r="E80" s="39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F80" s="39">
+        <v>90</v>
+      </c>
+      <c r="G80" s="39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="39" t="s">
+        <v>277</v>
+      </c>
+      <c r="I80" s="39" t="s">
+        <v>60</v>
+      </c>
+      <c r="J80" s="39" t="s">
+        <v>366</v>
+      </c>
+      <c r="K80" s="38">
+        <v>90.94</v>
+      </c>
+      <c r="L80" s="86">
+        <v>89.09</v>
+      </c>
+      <c r="O80" s="82">
+        <v>0.89459999999999995</v>
+      </c>
+      <c r="S80" s="64" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="81" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K81" s="38">
+        <v>90.86</v>
+      </c>
+      <c r="L81" s="86">
+        <v>86.73</v>
+      </c>
+      <c r="O81" s="82">
+        <v>0.878</v>
+      </c>
+      <c r="S81" s="64" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K82" s="38">
+        <v>90.94</v>
+      </c>
+      <c r="L82" s="86">
+        <v>89.38</v>
+      </c>
+      <c r="O82" s="82">
+        <v>0.89710000000000001</v>
+      </c>
+      <c r="S82" s="64" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="83" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K83" s="38">
+        <v>90.78</v>
+      </c>
+      <c r="L83" s="86">
+        <v>89.68</v>
+      </c>
+      <c r="O83" s="82">
+        <v>0.89910000000000001</v>
+      </c>
+      <c r="S83" s="64" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="84" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A84" s="64" t="s">
+        <v>474</v>
+      </c>
+      <c r="B84" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C84" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D84" s="38">
+        <v>256</v>
+      </c>
+      <c r="E84" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F84" s="38">
+        <v>90</v>
+      </c>
+      <c r="G84" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H84" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="I84" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="J84" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K84" s="38">
+        <v>75.47</v>
+      </c>
+      <c r="L84" s="86">
+        <v>79.349999999999994</v>
+      </c>
+      <c r="O84" s="82">
+        <v>0.79530000000000001</v>
+      </c>
+      <c r="S84" s="64" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="85" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A85" s="64" t="s">
+        <v>476</v>
+      </c>
+      <c r="B85" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C85" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D85" s="38">
+        <v>256</v>
+      </c>
+      <c r="E85" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="F85" s="38">
+        <v>90</v>
+      </c>
+      <c r="G85" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H85" s="38" t="s">
+        <v>470</v>
+      </c>
+      <c r="I85" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="J85" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K85" s="38">
+        <v>87.58</v>
+      </c>
+      <c r="L85" s="86">
+        <v>86.73</v>
+      </c>
+      <c r="O85" s="82">
+        <v>0.87390000000000001</v>
+      </c>
+      <c r="S85" s="64" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A86" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="B86" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C86" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D86" s="38">
+        <v>256</v>
+      </c>
+      <c r="E86" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F57" s="37">
+      <c r="F86" s="38">
         <v>90</v>
       </c>
-      <c r="G57" s="37" t="b">
+      <c r="G86" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H57" s="37" t="s">
+      <c r="H86" s="38" t="s">
+        <v>469</v>
+      </c>
+      <c r="I86" s="38" t="s">
+        <v>479</v>
+      </c>
+      <c r="J86" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K86" s="38">
+        <v>88.36</v>
+      </c>
+      <c r="L86" s="86">
+        <v>86.73</v>
+      </c>
+      <c r="O86" s="82">
+        <v>0.87470000000000003</v>
+      </c>
+      <c r="S86" s="64" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A87" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="B87" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C87" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D87" s="38">
+        <v>256</v>
+      </c>
+      <c r="E87" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F87" s="38">
+        <v>90</v>
+      </c>
+      <c r="G87" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H87" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="I57" s="37" t="s">
+      <c r="I87" s="38" t="s">
+        <v>478</v>
+      </c>
+      <c r="J87" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K87" s="38">
+        <v>52.34</v>
+      </c>
+      <c r="L87" s="86">
+        <v>52.21</v>
+      </c>
+      <c r="O87" s="82">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="S87" s="64" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A88" s="64" t="s">
+        <v>475</v>
+      </c>
+      <c r="B88" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C88" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D88" s="38">
+        <v>256</v>
+      </c>
+      <c r="E88" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F88" s="38">
+        <v>90</v>
+      </c>
+      <c r="G88" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H88" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I88" s="38" t="s">
+        <v>471</v>
+      </c>
+      <c r="J88" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K88" s="38">
+        <v>52.34</v>
+      </c>
+      <c r="L88" s="86">
+        <v>52.21</v>
+      </c>
+      <c r="O88" s="82">
+        <v>0.68600000000000005</v>
+      </c>
+      <c r="S88" s="64" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="89" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A89" s="64" t="s">
+        <v>463</v>
+      </c>
+      <c r="B89" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C89" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D89" s="38">
+        <v>256</v>
+      </c>
+      <c r="E89" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F89" s="38">
+        <v>90</v>
+      </c>
+      <c r="G89" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H89" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I89" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="J57" s="37" t="s">
+      <c r="J89" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="K57" s="87">
+      <c r="K89" s="38">
+        <v>90.62</v>
+      </c>
+      <c r="L89" s="86">
+        <v>89.09</v>
+      </c>
+      <c r="O89" s="82">
+        <v>0.8992</v>
+      </c>
+      <c r="S89" s="64" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="90" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S90" s="64" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="91" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S91" s="64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="92" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="S92" s="64" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="93" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A93" s="64" t="s">
+        <v>490</v>
+      </c>
+      <c r="B93" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C93" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D93" s="38">
+        <v>256</v>
+      </c>
+      <c r="E93" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F93" s="38">
+        <v>90</v>
+      </c>
+      <c r="G93" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H93" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I93" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J93" s="38" t="s">
+        <v>366</v>
+      </c>
+      <c r="K93" s="38">
+        <v>91.33</v>
+      </c>
+      <c r="L93" s="86">
         <v>87.91</v>
       </c>
-      <c r="L57" s="82">
-        <v>0.87360000000000004</v>
-      </c>
-      <c r="M57" s="82">
-        <v>0.89829999999999999</v>
-      </c>
-      <c r="N57" s="82">
-        <v>0.88580000000000003</v>
-      </c>
-      <c r="O57" s="82">
-        <v>0.88539999999999996</v>
-      </c>
-      <c r="P57" s="82">
-        <v>0.85799999999999998</v>
-      </c>
-      <c r="Q57" s="82">
-        <v>0.87150000000000005</v>
-      </c>
-      <c r="R57" s="64" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A58" s="64" t="s">
-        <v>412</v>
-      </c>
-      <c r="B58" s="37" t="s">
+      <c r="O93" s="82">
+        <v>0.88639999999999997</v>
+      </c>
+      <c r="S93" s="64" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="94" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="K94" s="38">
+        <v>91.09</v>
+      </c>
+      <c r="L94" s="86">
+        <v>86.14</v>
+      </c>
+      <c r="O94" s="82">
+        <v>0.87529999999999997</v>
+      </c>
+      <c r="S94" s="64" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="95" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A95" s="64" t="s">
+        <v>484</v>
+      </c>
+      <c r="B95" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C58" s="37" t="s">
+      <c r="C95" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="D58" s="37">
+      <c r="D95" s="38">
         <v>256</v>
       </c>
-      <c r="E58" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F58" s="37">
+      <c r="E95" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F95" s="38">
         <v>90</v>
       </c>
-      <c r="G58" s="37" t="b">
+      <c r="G95" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H58" s="37" t="s">
+      <c r="H95" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="I58" s="37" t="s">
+      <c r="I95" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="J58" s="37" t="s">
+      <c r="J95" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="K58" s="87">
-        <v>85.84</v>
-      </c>
-      <c r="L58" s="82">
-        <v>0.87280000000000002</v>
-      </c>
-      <c r="M58" s="82">
-        <v>0.85309999999999997</v>
-      </c>
-      <c r="N58" s="82">
-        <v>0.8629</v>
-      </c>
-      <c r="O58" s="82">
-        <v>0.84340000000000004</v>
-      </c>
-      <c r="P58" s="82">
-        <v>0.86419999999999997</v>
-      </c>
-      <c r="Q58" s="82">
-        <v>0.85370000000000001</v>
-      </c>
-      <c r="R58" s="64" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A59" s="64" t="s">
-        <v>415</v>
-      </c>
-      <c r="B59" s="37" t="s">
+      <c r="K95" s="38">
+        <v>91.17</v>
+      </c>
+      <c r="L95" s="86">
+        <v>87.32</v>
+      </c>
+      <c r="O95" s="82">
+        <v>0.8841</v>
+      </c>
+      <c r="S95" s="64" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="96" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A96" s="64" t="s">
+        <v>489</v>
+      </c>
+      <c r="B96" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C59" s="37" t="s">
+      <c r="C96" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="D59" s="37">
+      <c r="D96" s="38">
         <v>256</v>
       </c>
-      <c r="E59" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F59" s="37">
+      <c r="E96" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="F96" s="38">
         <v>90</v>
       </c>
-      <c r="G59" s="37" t="b">
+      <c r="G96" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H59" s="37" t="s">
+      <c r="H96" s="38" t="s">
         <v>277</v>
       </c>
-      <c r="I59" s="37" t="s">
+      <c r="I96" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="J59" s="37" t="s">
+      <c r="J96" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="K59" s="87">
-        <v>85.25</v>
-      </c>
-      <c r="L59" s="82">
-        <v>0.8508</v>
-      </c>
-      <c r="M59" s="82">
-        <v>0.87009999999999998</v>
-      </c>
-      <c r="N59" s="82">
-        <v>0.86029999999999995</v>
-      </c>
-      <c r="O59" s="82">
-        <v>0.85440000000000005</v>
-      </c>
-      <c r="P59" s="82">
-        <v>0.83330000000000004</v>
-      </c>
-      <c r="Q59" s="82">
-        <v>0.84379999999999999</v>
-      </c>
-      <c r="R59" s="64" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.4">
-      <c r="A60" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="B60" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60" s="37" t="s">
-        <v>276</v>
-      </c>
-      <c r="D60" s="37">
-        <v>256</v>
-      </c>
-      <c r="E60" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="F60" s="37">
-        <v>90</v>
-      </c>
-      <c r="G60" s="37" t="b">
-        <v>0</v>
-      </c>
-      <c r="H60" s="37" t="s">
-        <v>277</v>
-      </c>
-      <c r="I60" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="J60" s="37" t="s">
-        <v>366</v>
-      </c>
-      <c r="K60" s="87">
-        <v>89.68</v>
-      </c>
-      <c r="L60" s="82">
-        <v>0.93289999999999995</v>
-      </c>
-      <c r="M60" s="82">
-        <v>0.86439999999999995</v>
-      </c>
-      <c r="N60" s="82">
-        <v>0.89739999999999998</v>
-      </c>
-      <c r="O60" s="82">
-        <v>0.8629</v>
-      </c>
-      <c r="P60" s="82">
-        <v>0.93210000000000004</v>
-      </c>
-      <c r="Q60" s="82">
-        <v>0.89610000000000001</v>
-      </c>
-      <c r="R60" s="64" t="s">
-        <v>432</v>
+      <c r="K96" s="38">
+        <v>91.64</v>
+      </c>
+      <c r="L96" s="86">
+        <v>88.5</v>
+      </c>
+      <c r="O96" s="82">
+        <v>0.89259999999999995</v>
+      </c>
+      <c r="S96" s="64" t="s">
+        <v>487</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="L1:L1048576">
+  <conditionalFormatting sqref="M1:M1048576">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF5A8AC6"/>
+        <color rgb="FFFCFCFF"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1:N1048576">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -8540,7 +10038,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="M1:M1048576">
+  <conditionalFormatting sqref="O1:O1048576">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -8552,7 +10050,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="P1:P1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -8564,7 +10062,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
+  <conditionalFormatting sqref="Q1:Q1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -8576,7 +10074,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
+  <conditionalFormatting sqref="R1:R1048576">
     <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
@@ -8588,20 +10086,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q1:Q1048576">
-    <cfRule type="colorScale" priority="3">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FF5A8AC6"/>
-        <color rgb="FFFCFCFF"/>
-        <color rgb="FFF8696B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K1:K1048576">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="L1:L1048576">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -8619,16 +10105,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817035C0-14C9-45B2-BCCA-0F6EE4603826}">
-  <dimension ref="A3:W13"/>
+  <dimension ref="A2:W13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="I1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
+      <selection pane="bottomLeft" activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="46.3984375" style="77" customWidth="1"/>
+    <col min="1" max="1" width="50.19921875" style="77" customWidth="1"/>
     <col min="2" max="3" width="14.296875" style="77" customWidth="1"/>
     <col min="4" max="4" width="11.5" style="77" customWidth="1"/>
     <col min="5" max="5" width="19.296875" style="77" customWidth="1"/>
@@ -8636,13 +10122,18 @@
     <col min="7" max="7" width="14.296875" style="77" customWidth="1"/>
     <col min="8" max="8" width="16.59765625" style="77" customWidth="1"/>
     <col min="9" max="9" width="17.296875" style="77" customWidth="1"/>
-    <col min="10" max="10" width="16.59765625" style="77" customWidth="1"/>
-    <col min="11" max="11" width="17.796875" style="77" customWidth="1"/>
-    <col min="12" max="17" width="17.796875" style="93" customWidth="1"/>
+    <col min="10" max="10" width="20" style="77" customWidth="1"/>
+    <col min="11" max="11" width="25.296875" style="77" customWidth="1"/>
+    <col min="12" max="17" width="17.796875" style="91" customWidth="1"/>
     <col min="18" max="18" width="17.796875" style="77" customWidth="1"/>
     <col min="19" max="16384" width="8.796875" style="77"/>
   </cols>
   <sheetData>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
+      <c r="A2" s="64" t="s">
+        <v>450</v>
+      </c>
+    </row>
     <row r="3" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="75" t="s">
         <v>63</v>
@@ -8675,24 +10166,24 @@
         <v>364</v>
       </c>
       <c r="K3" s="75" t="s">
-        <v>255</v>
-      </c>
-      <c r="L3" s="92" t="s">
+        <v>496</v>
+      </c>
+      <c r="L3" s="90" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="92" t="s">
+      <c r="M3" s="90" t="s">
         <v>257</v>
       </c>
-      <c r="N3" s="92" t="s">
+      <c r="N3" s="90" t="s">
         <v>258</v>
       </c>
-      <c r="O3" s="92" t="s">
+      <c r="O3" s="90" t="s">
         <v>259</v>
       </c>
-      <c r="P3" s="92" t="s">
+      <c r="P3" s="90" t="s">
         <v>260</v>
       </c>
-      <c r="Q3" s="92" t="s">
+      <c r="Q3" s="90" t="s">
         <v>261</v>
       </c>
       <c r="R3" s="75" t="s">
@@ -8703,52 +10194,52 @@
       <c r="A4" s="77" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="37" t="s">
+      <c r="B4" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="37">
+      <c r="D4" s="38">
         <v>256</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="37">
+      <c r="F4" s="38">
         <v>90</v>
       </c>
-      <c r="G4" s="37" t="b">
+      <c r="G4" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="37" t="s">
+      <c r="I4" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="J4" s="38" t="s">
         <v>367</v>
       </c>
       <c r="K4" s="77">
         <v>90.71</v>
       </c>
-      <c r="L4" s="93">
+      <c r="L4" s="91">
         <v>0.92369999999999997</v>
       </c>
-      <c r="M4" s="93">
+      <c r="M4" s="91">
         <v>0.89829999999999999</v>
       </c>
-      <c r="N4" s="93">
+      <c r="N4" s="91">
         <v>0.91080000000000005</v>
       </c>
-      <c r="O4" s="93">
+      <c r="O4" s="91">
         <v>0.88949999999999996</v>
       </c>
-      <c r="P4" s="93">
+      <c r="P4" s="91">
         <v>0.91690000000000005</v>
       </c>
-      <c r="Q4" s="93">
+      <c r="Q4" s="91">
         <v>0.90300000000000002</v>
       </c>
       <c r="R4" s="77" t="s">
@@ -8761,55 +10252,55 @@
       <c r="W4" s="77"/>
     </row>
     <row r="5" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="37" t="s">
+      <c r="B5" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="37">
+      <c r="D5" s="38">
         <v>256</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="37">
+      <c r="F5" s="38">
         <v>90</v>
       </c>
-      <c r="G5" s="37" t="b">
+      <c r="G5" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H5" s="37" t="s">
+      <c r="H5" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I5" s="37" t="s">
+      <c r="I5" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="38" t="s">
         <v>366</v>
       </c>
       <c r="K5" s="79">
         <v>91.93</v>
       </c>
-      <c r="L5" s="94">
+      <c r="L5" s="92">
         <v>0.93169999999999997</v>
       </c>
-      <c r="M5" s="94">
+      <c r="M5" s="92">
         <v>0.91420000000000001</v>
       </c>
-      <c r="N5" s="94">
+      <c r="N5" s="92">
         <v>0.92279999999999995</v>
       </c>
-      <c r="O5" s="94">
+      <c r="O5" s="92">
         <v>0.90590000000000004</v>
       </c>
-      <c r="P5" s="94">
+      <c r="P5" s="92">
         <v>0.92500000000000004</v>
       </c>
-      <c r="Q5" s="94">
+      <c r="Q5" s="92">
         <v>0.91539999999999999</v>
       </c>
       <c r="R5" s="79" t="s">
@@ -8817,129 +10308,129 @@
       </c>
     </row>
     <row r="6" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="37" t="s">
+      <c r="B6" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="37">
+      <c r="D6" s="38">
         <v>256</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="38" t="s">
         <v>104</v>
       </c>
-      <c r="F6" s="37">
+      <c r="F6" s="38">
         <v>90</v>
       </c>
-      <c r="G6" s="37" t="b">
+      <c r="G6" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H6" s="37" t="s">
+      <c r="H6" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I6" s="37" t="s">
+      <c r="I6" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J6" s="37" t="s">
+      <c r="J6" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="K6" s="37">
+      <c r="K6" s="38">
         <v>92.14</v>
       </c>
-      <c r="L6" s="86">
+      <c r="L6" s="85">
         <v>0.94430000000000003</v>
       </c>
-      <c r="M6" s="86">
+      <c r="M6" s="85">
         <v>0.90459999999999996</v>
       </c>
-      <c r="N6" s="86">
+      <c r="N6" s="85">
         <v>0.92400000000000004</v>
       </c>
-      <c r="O6" s="86">
+      <c r="O6" s="85">
         <v>0.89800000000000002</v>
       </c>
-      <c r="P6" s="86">
+      <c r="P6" s="85">
         <v>0.94030000000000002</v>
       </c>
-      <c r="Q6" s="86">
+      <c r="Q6" s="85">
         <v>0.91859999999999997</v>
       </c>
-      <c r="R6" s="37" t="s">
+      <c r="R6" s="38" t="s">
         <v>404</v>
       </c>
       <c r="S6" s="64"/>
     </row>
     <row r="7" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="C7" s="37" t="s">
+      <c r="C7" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="37">
+      <c r="D7" s="38">
         <v>256</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="38" t="s">
         <v>103</v>
       </c>
-      <c r="F7" s="37">
+      <c r="F7" s="38">
         <v>90</v>
       </c>
-      <c r="G7" s="37" t="b">
+      <c r="G7" s="38" t="b">
         <v>0</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="37" t="s">
+      <c r="I7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="J7" s="37" t="s">
+      <c r="J7" s="38" t="s">
         <v>366</v>
       </c>
       <c r="K7" s="79">
         <v>92.11</v>
       </c>
-      <c r="L7" s="94">
+      <c r="L7" s="92">
         <v>0.93840000000000001</v>
       </c>
-      <c r="M7" s="94">
+      <c r="M7" s="92">
         <v>0.91039999999999999</v>
       </c>
-      <c r="N7" s="94">
+      <c r="N7" s="92">
         <v>0.92420000000000002</v>
       </c>
-      <c r="O7" s="94">
+      <c r="O7" s="92">
         <v>0.90300000000000002</v>
       </c>
-      <c r="P7" s="94">
+      <c r="P7" s="92">
         <v>0.93310000000000004</v>
       </c>
-      <c r="Q7" s="94">
+      <c r="Q7" s="92">
         <v>0.91779999999999995</v>
       </c>
       <c r="R7" s="79" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="47" t="s">
-        <v>423</v>
-      </c>
-      <c r="B8" s="37" t="s">
+        <v>422</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="38" t="s">
         <v>276</v>
       </c>
-      <c r="D8" s="37">
+      <c r="D8" s="38">
         <v>256</v>
       </c>
       <c r="E8" s="77" t="s">
@@ -8960,69 +10451,112 @@
       <c r="J8" s="77" t="s">
         <v>366</v>
       </c>
+      <c r="K8" s="93">
+        <v>90.95</v>
+      </c>
+      <c r="L8" s="91">
+        <v>0.92469999999999997</v>
+      </c>
+      <c r="M8" s="91">
+        <v>0.9022</v>
+      </c>
+      <c r="N8" s="91">
+        <v>0.9133</v>
+      </c>
+      <c r="O8" s="91">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="P8" s="91">
+        <v>0.91769999999999996</v>
+      </c>
+      <c r="Q8" s="91">
+        <v>0.90539999999999998</v>
+      </c>
       <c r="R8" s="77" t="s">
-        <v>437</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="37"/>
-      <c r="B9" s="37"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
+      <c r="A9" s="47" t="s">
+        <v>463</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>66</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="38">
+        <v>256</v>
+      </c>
+      <c r="E9" s="77" t="s">
+        <v>101</v>
+      </c>
+      <c r="F9" s="38">
+        <v>90</v>
+      </c>
+      <c r="G9" s="38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="38" t="s">
+        <v>277</v>
+      </c>
+      <c r="I9" s="38" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" s="38" t="s">
+        <v>366</v>
+      </c>
       <c r="K9" s="79"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="94"/>
-      <c r="Q9" s="94"/>
-      <c r="R9" s="79"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="77" t="s">
+        <v>495</v>
+      </c>
     </row>
     <row r="10" spans="1:23" s="70" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="38"/>
+      <c r="A10" s="47"/>
       <c r="B10" s="38"/>
       <c r="C10" s="38"/>
       <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
+      <c r="E10" s="77"/>
       <c r="F10" s="38"/>
       <c r="G10" s="38"/>
       <c r="H10" s="38"/>
       <c r="I10" s="38"/>
       <c r="J10" s="38"/>
-      <c r="K10" s="37"/>
-      <c r="L10" s="86"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="86"/>
-      <c r="O10" s="86"/>
-      <c r="P10" s="86"/>
-      <c r="Q10" s="86"/>
-      <c r="R10" s="37"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="85"/>
+      <c r="N10" s="85"/>
+      <c r="O10" s="85"/>
+      <c r="P10" s="85"/>
+      <c r="Q10" s="85"/>
+      <c r="R10" s="77"/>
       <c r="S10" s="64"/>
     </row>
     <row r="11" spans="1:23" s="78" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="77"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
       <c r="K11" s="77"/>
-      <c r="L11" s="93"/>
-      <c r="M11" s="93"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="93"/>
-      <c r="P11" s="93"/>
-      <c r="Q11" s="93"/>
+      <c r="L11" s="91"/>
+      <c r="M11" s="91"/>
+      <c r="N11" s="91"/>
+      <c r="O11" s="91"/>
+      <c r="P11" s="91"/>
+      <c r="Q11" s="91"/>
       <c r="R11" s="77"/>
       <c r="S11" s="77"/>
       <c r="T11" s="77"/>
@@ -9031,44 +10565,44 @@
       <c r="W11" s="77"/>
     </row>
     <row r="12" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="37"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
       <c r="K12" s="79"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="94"/>
-      <c r="Q12" s="94"/>
+      <c r="L12" s="92"/>
+      <c r="M12" s="92"/>
+      <c r="N12" s="92"/>
+      <c r="O12" s="92"/>
+      <c r="P12" s="92"/>
+      <c r="Q12" s="92"/>
       <c r="R12" s="79"/>
     </row>
     <row r="13" spans="1:23" s="76" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="86"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="86"/>
-      <c r="O13" s="86"/>
-      <c r="P13" s="86"/>
-      <c r="Q13" s="86"/>
-      <c r="R13" s="37"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="85"/>
+      <c r="N13" s="85"/>
+      <c r="O13" s="85"/>
+      <c r="P13" s="85"/>
+      <c r="Q13" s="85"/>
+      <c r="R13" s="25"/>
       <c r="S13" s="64"/>
     </row>
   </sheetData>
@@ -10400,10 +11934,10 @@
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="B4" s="33">
+      <c r="B4" s="34">
         <v>0.6925</v>
       </c>
       <c r="C4">
@@ -10438,28 +11972,28 @@
       <c r="A5" t="s">
         <v>187</v>
       </c>
-      <c r="B5" s="25">
+      <c r="B5" s="26">
         <v>0.16339999999999999</v>
       </c>
       <c r="C5">
         <v>92.81</v>
       </c>
-      <c r="D5" s="25">
+      <c r="D5" s="26">
         <v>87.61</v>
       </c>
-      <c r="E5" s="25">
+      <c r="E5" s="26">
         <v>9141</v>
       </c>
       <c r="F5">
         <v>8418</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="26">
         <v>8765</v>
       </c>
       <c r="H5">
         <v>8409</v>
       </c>
-      <c r="I5" s="25">
+      <c r="I5" s="26">
         <v>9136</v>
       </c>
       <c r="J5">
@@ -10473,7 +12007,7 @@
       <c r="A6" t="s">
         <v>183</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="26">
         <v>0.15110000000000001</v>
       </c>
       <c r="C6">
@@ -10504,73 +12038,73 @@
         <v>181</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="34" t="s">
+    <row r="7" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="B7" s="35">
+      <c r="B7" s="36">
         <v>0.14729999999999999</v>
       </c>
-      <c r="C7" s="34">
+      <c r="C7" s="35">
         <v>94.84</v>
       </c>
-      <c r="D7" s="35">
+      <c r="D7" s="36">
         <v>88.2</v>
       </c>
-      <c r="E7" s="34">
+      <c r="E7" s="35">
         <v>8914</v>
       </c>
-      <c r="F7" s="35">
+      <c r="F7" s="36">
         <v>8814</v>
       </c>
-      <c r="G7" s="35">
+      <c r="G7" s="36">
         <v>8864</v>
       </c>
-      <c r="H7" s="34">
+      <c r="H7" s="35">
         <v>8720</v>
       </c>
-      <c r="I7" s="34">
+      <c r="I7" s="35">
         <v>8827</v>
       </c>
-      <c r="J7" s="34">
+      <c r="J7" s="35">
         <v>8773</v>
       </c>
-      <c r="K7" s="35" t="s">
+      <c r="K7" s="36" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="34" t="s">
+    <row r="8" spans="1:11" s="35" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B8" s="35">
+      <c r="B8" s="36">
         <v>0.14319999999999999</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="35">
         <v>95</v>
       </c>
-      <c r="D8" s="35">
+      <c r="D8" s="36">
         <v>87.91</v>
       </c>
-      <c r="E8" s="34">
+      <c r="E8" s="35">
         <v>8908</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="35">
         <v>8757</v>
       </c>
-      <c r="G8" s="35">
+      <c r="G8" s="36">
         <v>8832</v>
       </c>
-      <c r="H8" s="34">
+      <c r="H8" s="35">
         <v>8667</v>
       </c>
-      <c r="I8" s="34">
+      <c r="I8" s="35">
         <v>8827</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="35">
         <v>8746</v>
       </c>
-      <c r="K8" s="34" t="s">
+      <c r="K8" s="35" t="s">
         <v>184</v>
       </c>
     </row>
@@ -10578,22 +12112,22 @@
       <c r="A9" t="s">
         <v>192</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="26">
         <v>0.13719999999999999</v>
       </c>
       <c r="C9">
         <v>94.53</v>
       </c>
-      <c r="D9" s="25">
+      <c r="D9" s="26">
         <v>87.32</v>
       </c>
       <c r="E9">
         <v>8722</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="26">
         <v>8870</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="26">
         <v>8796</v>
       </c>
       <c r="H9">
@@ -10610,10 +12144,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="33" t="s">
         <v>190</v>
       </c>
-      <c r="B10" s="33">
+      <c r="B10" s="34">
         <v>0.24879999999999999</v>
       </c>
       <c r="C10">
@@ -10645,25 +12179,25 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A11" s="26" t="s">
+      <c r="A11" s="27" t="s">
         <v>185</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="27">
         <v>0.19850000000000001</v>
       </c>
       <c r="C11">
         <v>91.72</v>
       </c>
-      <c r="D11" s="25">
+      <c r="D11" s="26">
         <v>87.61</v>
       </c>
       <c r="E11">
         <v>8729</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="26">
         <v>8927</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="26">
         <v>8827</v>
       </c>
       <c r="H11">
@@ -10683,13 +12217,13 @@
       <c r="A12" t="s">
         <v>197</v>
       </c>
-      <c r="B12" s="25">
+      <c r="B12" s="26">
         <v>0.15859999999999999</v>
       </c>
       <c r="C12">
         <v>93.91</v>
       </c>
-      <c r="D12" s="25">
+      <c r="D12" s="26">
         <v>86.43</v>
       </c>
       <c r="E12">
@@ -10715,7 +12249,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="33" t="s">
         <v>196</v>
       </c>
       <c r="B13">
@@ -10724,7 +12258,7 @@
       <c r="C13">
         <v>95</v>
       </c>
-      <c r="D13" s="26">
+      <c r="D13" s="27">
         <v>85.55</v>
       </c>
       <c r="E13">
@@ -10759,7 +12293,7 @@
       <c r="C14">
         <v>95</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="26">
         <v>87.32</v>
       </c>
       <c r="E14">
@@ -10785,7 +12319,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.4">
-      <c r="A15" s="26" t="s">
+      <c r="A15" s="27" t="s">
         <v>201</v>
       </c>
       <c r="B15">
@@ -10794,7 +12328,7 @@
       <c r="C15">
         <v>91.72</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="26">
         <v>87.32</v>
       </c>
       <c r="E15">
@@ -10829,7 +12363,7 @@
       <c r="C16">
         <v>94.69</v>
       </c>
-      <c r="D16" s="25">
+      <c r="D16" s="26">
         <v>86.73</v>
       </c>
       <c r="E16">
@@ -10864,7 +12398,7 @@
       <c r="C17">
         <v>94.38</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="26">
         <v>86.73</v>
       </c>
       <c r="E17">
@@ -11090,7 +12624,7 @@
       <c r="F28">
         <v>9040</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="26">
         <v>8864</v>
       </c>
       <c r="H28">
@@ -11287,7 +12821,7 @@
       <c r="C4" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="31">
         <v>64</v>
       </c>
       <c r="E4" s="9" t="s">
@@ -11316,7 +12850,7 @@
       <c r="C5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D5" s="31">
         <v>64</v>
       </c>
       <c r="E5" s="9" t="s">
@@ -11345,7 +12879,7 @@
       <c r="C6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D6" s="31">
         <v>64</v>
       </c>
       <c r="E6" s="9" t="s">
@@ -11374,7 +12908,7 @@
       <c r="C7" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D7" s="31">
         <v>64</v>
       </c>
       <c r="E7" s="9" t="s">
@@ -11394,7 +12928,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="32" t="s">
         <v>143</v>
       </c>
     </row>
@@ -11763,7 +13297,7 @@
       <c r="I24" s="9"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="32" t="s">
         <v>145</v>
       </c>
     </row>

--- a/table.xlsx
+++ b/table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hannibal\Desktop\cau_cats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C53304B-EABF-455E-930E-5743E3A3FA64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A3946EB-0153-414D-B0F3-0200C31DF7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-144" yWindow="-144" windowWidth="23328" windowHeight="13968" tabRatio="660" firstSheet="1" activeTab="3" xr2:uid="{4BF6D8A7-4D2C-4188-8AC2-AA2FABA0E984}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1761" uniqueCount="622">
   <si>
     <t>모델</t>
   </si>
@@ -1651,6 +1651,10 @@
   </si>
   <si>
     <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251115_072026</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.005, ps112, drop0.1, res_attn)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -2584,13 +2588,57 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_043451</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_043454</t>
-  </si>
-  <si>
-    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_043456</t>
+    <t>FocalLoss (0.25, 2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/Sewer-TAPNEW/run_20251119_043451</t>
+  </si>
+  <si>
+    <t>log/Sewer-TAPNEW/run_20251119_043454</t>
+  </si>
+  <si>
+    <t>log/Sewer-TAPNEW/run_20251119_043456</t>
+  </si>
+  <si>
+    <t>FocalLoss (0.5, 2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>FocalLoss (0.1, 2)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>log/Sewer-TAPNEW/run_20251119_051840</t>
+  </si>
+  <si>
+    <t>log/Sewer-TAPNEW/run_20251119_051829</t>
+  </si>
+  <si>
+    <t>log/Sewer-TAPNEW/run_20251119_051835</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_054847</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_054850</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_054901</t>
+  </si>
+  <si>
+    <t>Ours (weight_decay 0.001, ps112, drop0.1, res_attn)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_062019</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_062025</t>
+  </si>
+  <si>
+    <t>/home/cau/workspace/CHOI/cau_cats/log/Sewer-TAPNEW/run_20251119_062034</t>
   </si>
 </sst>
 </file>
@@ -2859,7 +2907,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3068,6 +3116,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
@@ -3972,7 +4023,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="50" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C4" s="50" t="s">
         <v>53</v>
@@ -4132,7 +4183,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C9" s="41" t="s">
         <v>53</v>
@@ -4332,7 +4383,7 @@
         <v>4</v>
       </c>
       <c r="B14" s="41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C14" s="41" t="s">
         <v>53</v>
@@ -4512,7 +4563,7 @@
         <v>6</v>
       </c>
       <c r="B19" s="41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C19" s="41" t="s">
         <v>53</v>
@@ -4682,7 +4733,7 @@
         <v>295</v>
       </c>
       <c r="B24" s="41" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C24" s="41" t="s">
         <v>53</v>
@@ -4774,7 +4825,7 @@
         <v>295</v>
       </c>
       <c r="B26" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C26" s="38" t="s">
         <v>53</v>
@@ -4974,7 +5025,7 @@
         <v>277</v>
       </c>
       <c r="B31" s="40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C31" s="40" t="s">
         <v>275</v>
@@ -5066,7 +5117,7 @@
         <v>280</v>
       </c>
       <c r="B33" s="40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C33" s="40" t="s">
         <v>275</v>
@@ -5158,7 +5209,7 @@
         <v>283</v>
       </c>
       <c r="B35" s="40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C35" s="40" t="s">
         <v>275</v>
@@ -5250,7 +5301,7 @@
         <v>286</v>
       </c>
       <c r="B37" s="40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C37" s="40" t="s">
         <v>275</v>
@@ -5342,7 +5393,7 @@
         <v>289</v>
       </c>
       <c r="B39" s="40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C39" s="40" t="s">
         <v>275</v>
@@ -5434,7 +5485,7 @@
         <v>292</v>
       </c>
       <c r="B41" s="40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C41" s="40" t="s">
         <v>275</v>
@@ -5526,7 +5577,7 @@
         <v>295</v>
       </c>
       <c r="B43" s="40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C43" s="40" t="s">
         <v>275</v>
@@ -5582,7 +5633,7 @@
         <v>295</v>
       </c>
       <c r="B44" s="40" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C44" s="40" t="s">
         <v>275</v>
@@ -5638,7 +5689,7 @@
         <v>304</v>
       </c>
       <c r="B45" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C45" s="38" t="s">
         <v>53</v>
@@ -5730,7 +5781,7 @@
         <v>298</v>
       </c>
       <c r="B47" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C47" s="38" t="s">
         <v>53</v>
@@ -5822,7 +5873,7 @@
         <v>305</v>
       </c>
       <c r="B49" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C49" s="38" t="s">
         <v>53</v>
@@ -5992,7 +6043,7 @@
         <v>308</v>
       </c>
       <c r="B54" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C54" s="38" t="s">
         <v>53</v>
@@ -6084,7 +6135,7 @@
         <v>305</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C56" s="38" t="s">
         <v>53</v>
@@ -6166,7 +6217,7 @@
         <v>327</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C58" s="38" t="s">
         <v>53</v>
@@ -6248,7 +6299,7 @@
         <v>332</v>
       </c>
       <c r="B60" s="37" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C60" s="37" t="s">
         <v>275</v>
@@ -6330,7 +6381,7 @@
         <v>339</v>
       </c>
       <c r="B62" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C62" s="38" t="s">
         <v>53</v>
@@ -6490,7 +6541,7 @@
         <v>342</v>
       </c>
       <c r="B67" s="37" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C67" s="37" t="s">
         <v>275</v>
@@ -6573,7 +6624,7 @@
         <v>347</v>
       </c>
       <c r="B69" s="37" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C69" s="37" t="s">
         <v>275</v>
@@ -6733,7 +6784,7 @@
         <v>348</v>
       </c>
       <c r="B74" s="37" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C74" s="37" t="s">
         <v>275</v>
@@ -6815,7 +6866,7 @@
         <v>357</v>
       </c>
       <c r="B76" s="37" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C76" s="37" t="s">
         <v>275</v>
@@ -7351,9 +7402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664B1BB-B301-4653-A064-1D07042E8051}">
   <dimension ref="A1:AB426"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A137" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P156" sqref="P156"/>
+      <selection pane="bottomLeft" activeCell="M164" sqref="M164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -7370,11 +7421,11 @@
     <col min="10" max="10" width="20.69921875" style="38" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="24.09765625" style="38" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="20.69921875" style="38" customWidth="1"/>
-    <col min="13" max="13" width="23.19921875" style="86" customWidth="1"/>
-    <col min="14" max="14" width="15.69921875" style="82" hidden="1" customWidth="1"/>
-    <col min="15" max="15" width="13" style="82" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="18.59765625" style="82" customWidth="1"/>
-    <col min="17" max="19" width="18.59765625" style="82" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="23.19921875" style="87" customWidth="1"/>
+    <col min="14" max="14" width="15.69921875" style="83" hidden="1" customWidth="1"/>
+    <col min="15" max="15" width="13" style="83" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="18.59765625" style="83" customWidth="1"/>
+    <col min="17" max="19" width="18.59765625" style="83" hidden="1" customWidth="1"/>
     <col min="20" max="26" width="8.796875" style="65"/>
     <col min="27" max="27" width="13.59765625" style="65" customWidth="1"/>
     <col min="28" max="28" width="91.796875" style="65" customWidth="1"/>
@@ -7392,72 +7443,72 @@
     </row>
     <row r="2" spans="1:28" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="65" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="AB2" s="65" t="str">
         <f t="shared" si="0"/>
         <v>Ours 초기값: adamaWweight_decay 0.01, drop 0.01, feat2, ps56, res_attn false, layers2, patch1, ff_ratio2, lr0.001, PEtrue, eta_min: 0.000001, efficientnet_b0 feat2, featured_patch_dim 24, emb_dim 24, decoderlayers2, Tmax90, ffratio 2</v>
       </c>
     </row>
-    <row r="3" spans="1:28" s="71" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:28" s="72" customFormat="1" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="77" t="s">
         <v>364</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="77" t="s">
+        <v>496</v>
+      </c>
+      <c r="L3" s="77" t="s">
+        <v>527</v>
+      </c>
+      <c r="M3" s="95" t="s">
         <v>495</v>
       </c>
-      <c r="L3" s="76" t="s">
-        <v>526</v>
-      </c>
-      <c r="M3" s="94" t="s">
-        <v>494</v>
-      </c>
-      <c r="N3" s="90" t="s">
+      <c r="N3" s="91" t="s">
         <v>255</v>
       </c>
-      <c r="O3" s="90" t="s">
+      <c r="O3" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="P3" s="90" t="s">
+      <c r="P3" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="Q3" s="90" t="s">
+      <c r="Q3" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="R3" s="90" t="s">
+      <c r="R3" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="S3" s="90" t="s">
+      <c r="S3" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="T3" s="76" t="s">
+      <c r="T3" s="77" t="s">
         <v>262</v>
       </c>
       <c r="AB3" s="65" t="str">
@@ -7465,61 +7516,61 @@
         <v>Model</v>
       </c>
     </row>
-    <row r="4" spans="1:28" s="75" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:28" s="76" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B4" s="72" t="s">
+      <c r="B4" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="72" t="s">
+      <c r="C4" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D4" s="72">
+      <c r="D4" s="73">
         <v>256</v>
       </c>
-      <c r="E4" s="72" t="s">
+      <c r="E4" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="F4" s="72">
+      <c r="F4" s="73">
         <v>90</v>
       </c>
-      <c r="G4" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" s="72" t="s">
+      <c r="G4" s="73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="I4" s="72" t="s">
-        <v>471</v>
-      </c>
-      <c r="J4" s="72" t="s">
+      <c r="I4" s="73" t="s">
+        <v>472</v>
+      </c>
+      <c r="J4" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="K4" s="72"/>
-      <c r="L4" s="72"/>
-      <c r="M4" s="87">
+      <c r="K4" s="73"/>
+      <c r="L4" s="73"/>
+      <c r="M4" s="88">
         <v>86.14</v>
       </c>
-      <c r="N4" s="83">
+      <c r="N4" s="84">
         <v>0.86519999999999997</v>
       </c>
-      <c r="O4" s="83">
+      <c r="O4" s="84">
         <v>0.87009999999999998</v>
       </c>
-      <c r="P4" s="83">
+      <c r="P4" s="84">
         <v>0.86760000000000004</v>
       </c>
-      <c r="Q4" s="83">
+      <c r="Q4" s="84">
         <v>0.85709999999999997</v>
       </c>
-      <c r="R4" s="83">
+      <c r="R4" s="84">
         <v>0.85189999999999999</v>
       </c>
-      <c r="S4" s="83">
+      <c r="S4" s="84">
         <v>0.85450000000000004</v>
       </c>
-      <c r="T4" s="74" t="s">
+      <c r="T4" s="75" t="s">
         <v>333</v>
       </c>
       <c r="AB4" s="65" t="str">
@@ -7528,7 +7579,7 @@
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A5" s="70"/>
+      <c r="A5" s="71"/>
       <c r="B5" s="69"/>
       <c r="C5" s="69"/>
       <c r="D5" s="69"/>
@@ -7540,25 +7591,25 @@
       <c r="J5" s="69"/>
       <c r="K5" s="69"/>
       <c r="L5" s="69"/>
-      <c r="M5" s="86">
+      <c r="M5" s="87">
         <v>82.3</v>
       </c>
-      <c r="N5" s="82">
+      <c r="N5" s="83">
         <v>0.82320000000000004</v>
       </c>
-      <c r="O5" s="82">
+      <c r="O5" s="83">
         <v>0.84179999999999999</v>
       </c>
-      <c r="P5" s="82">
+      <c r="P5" s="83">
         <v>0.83240000000000003</v>
       </c>
-      <c r="Q5" s="82">
+      <c r="Q5" s="83">
         <v>0.82279999999999998</v>
       </c>
-      <c r="R5" s="82">
+      <c r="R5" s="83">
         <v>0.80249999999999999</v>
       </c>
-      <c r="S5" s="82">
+      <c r="S5" s="83">
         <v>0.8125</v>
       </c>
       <c r="T5" s="65" t="s">
@@ -7570,7 +7621,7 @@
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A6" s="70"/>
+      <c r="A6" s="71"/>
       <c r="B6" s="69"/>
       <c r="C6" s="69"/>
       <c r="D6" s="69"/>
@@ -7582,25 +7633,25 @@
       <c r="J6" s="69"/>
       <c r="K6" s="69"/>
       <c r="L6" s="69"/>
-      <c r="M6" s="86">
+      <c r="M6" s="87">
         <v>83.48</v>
       </c>
-      <c r="N6" s="82">
+      <c r="N6" s="83">
         <v>0.82699999999999996</v>
       </c>
-      <c r="O6" s="82">
+      <c r="O6" s="83">
         <v>0.86439999999999995</v>
       </c>
-      <c r="P6" s="82">
+      <c r="P6" s="83">
         <v>0.84530000000000005</v>
       </c>
-      <c r="Q6" s="82">
+      <c r="Q6" s="83">
         <v>0.84419999999999995</v>
       </c>
-      <c r="R6" s="82">
+      <c r="R6" s="83">
         <v>0.80249999999999999</v>
       </c>
-      <c r="S6" s="82">
+      <c r="S6" s="83">
         <v>0.82279999999999998</v>
       </c>
       <c r="T6" s="65" t="s">
@@ -7612,7 +7663,7 @@
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A7" s="70"/>
+      <c r="A7" s="71"/>
       <c r="B7" s="69"/>
       <c r="C7" s="69"/>
       <c r="D7" s="69"/>
@@ -7624,25 +7675,25 @@
       <c r="J7" s="69"/>
       <c r="K7" s="69"/>
       <c r="L7" s="69"/>
-      <c r="M7" s="86">
+      <c r="M7" s="87">
         <v>75.52</v>
       </c>
-      <c r="N7" s="82">
+      <c r="N7" s="83">
         <v>0.69750000000000001</v>
       </c>
-      <c r="O7" s="82">
+      <c r="O7" s="83">
         <v>0.93789999999999996</v>
       </c>
-      <c r="P7" s="82">
+      <c r="P7" s="83">
         <v>0.8</v>
       </c>
-      <c r="Q7" s="82">
+      <c r="Q7" s="83">
         <v>0.8911</v>
       </c>
-      <c r="R7" s="82">
+      <c r="R7" s="83">
         <v>0.55559999999999998</v>
       </c>
-      <c r="S7" s="82">
+      <c r="S7" s="83">
         <v>0.68440000000000001</v>
       </c>
       <c r="T7" s="65" t="s">
@@ -7654,7 +7705,7 @@
       </c>
     </row>
     <row r="8" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A8" s="70"/>
+      <c r="A8" s="71"/>
       <c r="B8" s="69"/>
       <c r="C8" s="69"/>
       <c r="D8" s="69"/>
@@ -7666,25 +7717,25 @@
       <c r="J8" s="69"/>
       <c r="K8" s="69"/>
       <c r="L8" s="69"/>
-      <c r="M8" s="86">
+      <c r="M8" s="87">
         <v>83.19</v>
       </c>
-      <c r="N8" s="82">
+      <c r="N8" s="83">
         <v>0.81910000000000005</v>
       </c>
-      <c r="O8" s="82">
+      <c r="O8" s="83">
         <v>0.87009999999999998</v>
       </c>
-      <c r="P8" s="82">
+      <c r="P8" s="83">
         <v>0.84379999999999999</v>
       </c>
-      <c r="Q8" s="82">
+      <c r="Q8" s="83">
         <v>0.84770000000000001</v>
       </c>
-      <c r="R8" s="82">
+      <c r="R8" s="83">
         <v>0.79010000000000002</v>
       </c>
-      <c r="S8" s="82">
+      <c r="S8" s="83">
         <v>0.81789999999999996</v>
       </c>
       <c r="T8" s="65" t="s">
@@ -7696,60 +7747,60 @@
       </c>
     </row>
     <row r="9" spans="1:28" s="66" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="72" t="s">
+      <c r="A9" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="72" t="s">
-        <v>501</v>
-      </c>
-      <c r="C9" s="72" t="s">
+      <c r="B9" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="C9" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="72">
+      <c r="D9" s="73">
         <v>256</v>
       </c>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="73" t="s">
         <v>102</v>
       </c>
-      <c r="F9" s="72">
+      <c r="F9" s="73">
         <v>90</v>
       </c>
-      <c r="G9" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H9" s="72" t="s">
+      <c r="G9" s="73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H9" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="I9" s="72" t="s">
-        <v>470</v>
-      </c>
-      <c r="J9" s="72" t="s">
+      <c r="I9" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="J9" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="88">
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="89">
         <v>85.84</v>
       </c>
-      <c r="N9" s="84">
+      <c r="N9" s="85">
         <v>0.88619999999999999</v>
       </c>
-      <c r="O9" s="84">
+      <c r="O9" s="85">
         <v>0.83620000000000005</v>
       </c>
-      <c r="P9" s="84">
+      <c r="P9" s="85">
         <v>0.86050000000000004</v>
       </c>
-      <c r="Q9" s="84">
+      <c r="Q9" s="85">
         <v>0.83140000000000003</v>
       </c>
-      <c r="R9" s="84">
+      <c r="R9" s="85">
         <v>0.88270000000000004</v>
       </c>
-      <c r="S9" s="84">
+      <c r="S9" s="85">
         <v>0.85629999999999995</v>
       </c>
-      <c r="T9" s="73" t="s">
+      <c r="T9" s="74" t="s">
         <v>382</v>
       </c>
       <c r="AB9" s="65" t="str">
@@ -7770,25 +7821,25 @@
       <c r="J10" s="69"/>
       <c r="K10" s="69"/>
       <c r="L10" s="69"/>
-      <c r="M10" s="89">
+      <c r="M10" s="90">
         <v>86.43</v>
       </c>
-      <c r="N10" s="85">
+      <c r="N10" s="86">
         <v>0.84289999999999998</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O10" s="86">
         <v>0.90959999999999996</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="86">
         <v>0.875</v>
       </c>
-      <c r="Q10" s="85">
+      <c r="Q10" s="86">
         <v>0.89190000000000003</v>
       </c>
-      <c r="R10" s="85">
+      <c r="R10" s="86">
         <v>0.81479999999999997</v>
       </c>
-      <c r="S10" s="85">
+      <c r="S10" s="86">
         <v>0.85160000000000002</v>
       </c>
       <c r="T10" s="38" t="s">
@@ -7812,25 +7863,25 @@
       <c r="J11" s="69"/>
       <c r="K11" s="69"/>
       <c r="L11" s="69"/>
-      <c r="M11" s="89">
+      <c r="M11" s="90">
         <v>86.14</v>
       </c>
-      <c r="N11" s="85">
+      <c r="N11" s="86">
         <v>0.84570000000000001</v>
       </c>
-      <c r="O11" s="85">
+      <c r="O11" s="86">
         <v>0.89829999999999999</v>
       </c>
-      <c r="P11" s="85">
+      <c r="P11" s="86">
         <v>0.87119999999999997</v>
       </c>
-      <c r="Q11" s="85">
+      <c r="Q11" s="86">
         <v>0.88080000000000003</v>
       </c>
-      <c r="R11" s="85">
+      <c r="R11" s="86">
         <v>0.82099999999999995</v>
       </c>
-      <c r="S11" s="85">
+      <c r="S11" s="86">
         <v>0.8498</v>
       </c>
       <c r="T11" s="38" t="s">
@@ -7854,25 +7905,25 @@
       <c r="J12" s="69"/>
       <c r="K12" s="69"/>
       <c r="L12" s="69"/>
-      <c r="M12" s="89">
+      <c r="M12" s="90">
         <v>84.37</v>
       </c>
-      <c r="N12" s="85">
+      <c r="N12" s="86">
         <v>0.83330000000000004</v>
       </c>
-      <c r="O12" s="85">
+      <c r="O12" s="86">
         <v>0.87570000000000003</v>
       </c>
-      <c r="P12" s="85">
+      <c r="P12" s="86">
         <v>0.85399999999999998</v>
       </c>
-      <c r="Q12" s="85">
+      <c r="Q12" s="86">
         <v>0.85619999999999996</v>
       </c>
-      <c r="R12" s="85">
+      <c r="R12" s="86">
         <v>0.80859999999999999</v>
       </c>
-      <c r="S12" s="85">
+      <c r="S12" s="86">
         <v>0.83169999999999999</v>
       </c>
       <c r="T12" s="38" t="s">
@@ -7896,25 +7947,25 @@
       <c r="J13" s="69"/>
       <c r="K13" s="69"/>
       <c r="L13" s="69"/>
-      <c r="M13" s="89">
+      <c r="M13" s="90">
         <v>87.32</v>
       </c>
-      <c r="N13" s="85">
+      <c r="N13" s="86">
         <v>0.86019999999999996</v>
       </c>
-      <c r="O13" s="85">
+      <c r="O13" s="86">
         <v>0.90400000000000003</v>
       </c>
-      <c r="P13" s="85">
+      <c r="P13" s="86">
         <v>0.88149999999999995</v>
       </c>
-      <c r="Q13" s="85">
+      <c r="Q13" s="86">
         <v>0.88890000000000002</v>
       </c>
-      <c r="R13" s="85">
+      <c r="R13" s="86">
         <v>0.83950000000000002</v>
       </c>
-      <c r="S13" s="85">
+      <c r="S13" s="86">
         <v>0.86350000000000005</v>
       </c>
       <c r="T13" s="38" t="s">
@@ -7926,60 +7977,60 @@
       </c>
     </row>
     <row r="14" spans="1:28" s="66" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="72" t="s">
-        <v>501</v>
-      </c>
-      <c r="C14" s="72" t="s">
+      <c r="B14" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="C14" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="72">
+      <c r="D14" s="73">
         <v>256</v>
       </c>
-      <c r="E14" s="72" t="s">
+      <c r="E14" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="F14" s="72">
+      <c r="F14" s="73">
         <v>90</v>
       </c>
-      <c r="G14" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H14" s="72" t="s">
+      <c r="G14" s="73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H14" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="I14" s="72" t="s">
-        <v>470</v>
-      </c>
-      <c r="J14" s="72" t="s">
+      <c r="I14" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="J14" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="K14" s="72"/>
-      <c r="L14" s="72"/>
-      <c r="M14" s="88">
+      <c r="K14" s="73"/>
+      <c r="L14" s="73"/>
+      <c r="M14" s="89">
         <v>85.55</v>
       </c>
-      <c r="N14" s="84">
+      <c r="N14" s="85">
         <v>0.82989999999999997</v>
       </c>
-      <c r="O14" s="84">
+      <c r="O14" s="85">
         <v>0.90959999999999996</v>
       </c>
-      <c r="P14" s="84">
+      <c r="P14" s="85">
         <v>0.8679</v>
       </c>
-      <c r="Q14" s="84">
+      <c r="Q14" s="85">
         <v>0.88970000000000005</v>
       </c>
-      <c r="R14" s="84">
+      <c r="R14" s="85">
         <v>0.79630000000000001</v>
       </c>
-      <c r="S14" s="84">
+      <c r="S14" s="85">
         <v>0.84040000000000004</v>
       </c>
-      <c r="T14" s="73" t="s">
+      <c r="T14" s="74" t="s">
         <v>387</v>
       </c>
       <c r="AB14" s="65" t="str">
@@ -8000,25 +8051,25 @@
       <c r="J15" s="69"/>
       <c r="K15" s="69"/>
       <c r="L15" s="69"/>
-      <c r="M15" s="89">
+      <c r="M15" s="90">
         <v>85.25</v>
       </c>
-      <c r="N15" s="85">
+      <c r="N15" s="86">
         <v>0.89439999999999997</v>
       </c>
-      <c r="O15" s="85">
+      <c r="O15" s="86">
         <v>0.81359999999999999</v>
       </c>
-      <c r="P15" s="85">
+      <c r="P15" s="86">
         <v>0.85209999999999997</v>
       </c>
-      <c r="Q15" s="85">
+      <c r="Q15" s="86">
         <v>0.81459999999999999</v>
       </c>
-      <c r="R15" s="85">
+      <c r="R15" s="86">
         <v>0.89510000000000001</v>
       </c>
-      <c r="S15" s="85">
+      <c r="S15" s="86">
         <v>0.85289999999999999</v>
       </c>
       <c r="T15" s="38" t="s">
@@ -8042,25 +8093,25 @@
       <c r="J16" s="69"/>
       <c r="K16" s="69"/>
       <c r="L16" s="69"/>
-      <c r="M16" s="89">
+      <c r="M16" s="90">
         <v>87.61</v>
       </c>
-      <c r="N16" s="85">
+      <c r="N16" s="86">
         <v>0.86099999999999999</v>
       </c>
-      <c r="O16" s="85">
+      <c r="O16" s="86">
         <v>0.90959999999999996</v>
       </c>
-      <c r="P16" s="85">
+      <c r="P16" s="86">
         <v>0.88460000000000005</v>
       </c>
-      <c r="Q16" s="85">
+      <c r="Q16" s="86">
         <v>0.89470000000000005</v>
       </c>
-      <c r="R16" s="85">
+      <c r="R16" s="86">
         <v>0.83950000000000002</v>
       </c>
-      <c r="S16" s="85">
+      <c r="S16" s="86">
         <v>0.86619999999999997</v>
       </c>
       <c r="T16" s="38" t="s">
@@ -8072,7 +8123,7 @@
       </c>
     </row>
     <row r="17" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A17" s="70"/>
+      <c r="A17" s="71"/>
       <c r="B17" s="69"/>
       <c r="C17" s="69"/>
       <c r="D17" s="69"/>
@@ -8084,25 +8135,25 @@
       <c r="J17" s="69"/>
       <c r="K17" s="69"/>
       <c r="L17" s="69"/>
-      <c r="M17" s="89">
+      <c r="M17" s="90">
         <v>86.43</v>
       </c>
-      <c r="N17" s="82">
+      <c r="N17" s="83">
         <v>0.8579</v>
       </c>
-      <c r="O17" s="82">
+      <c r="O17" s="83">
         <v>0.88700000000000001</v>
       </c>
-      <c r="P17" s="82">
+      <c r="P17" s="83">
         <v>0.87219999999999998</v>
       </c>
-      <c r="Q17" s="82">
+      <c r="Q17" s="83">
         <v>0.87180000000000002</v>
       </c>
-      <c r="R17" s="82">
+      <c r="R17" s="83">
         <v>0.83950000000000002</v>
       </c>
-      <c r="S17" s="82">
+      <c r="S17" s="83">
         <v>0.85529999999999995</v>
       </c>
       <c r="T17" s="65" t="s">
@@ -8114,7 +8165,7 @@
       </c>
     </row>
     <row r="18" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A18" s="70"/>
+      <c r="A18" s="71"/>
       <c r="B18" s="69"/>
       <c r="C18" s="69"/>
       <c r="D18" s="69"/>
@@ -8126,25 +8177,25 @@
       <c r="J18" s="69"/>
       <c r="K18" s="69"/>
       <c r="L18" s="69"/>
-      <c r="M18" s="89">
+      <c r="M18" s="90">
         <v>84.96</v>
       </c>
-      <c r="N18" s="82">
+      <c r="N18" s="83">
         <v>0.82809999999999995</v>
       </c>
-      <c r="O18" s="82">
+      <c r="O18" s="83">
         <v>0.89829999999999999</v>
       </c>
-      <c r="P18" s="82">
+      <c r="P18" s="83">
         <v>0.86180000000000001</v>
       </c>
-      <c r="Q18" s="82">
+      <c r="Q18" s="83">
         <v>0.87760000000000005</v>
       </c>
-      <c r="R18" s="82">
+      <c r="R18" s="83">
         <v>0.79630000000000001</v>
       </c>
-      <c r="S18" s="82">
+      <c r="S18" s="83">
         <v>0.83499999999999996</v>
       </c>
       <c r="T18" s="65" t="s">
@@ -8156,60 +8207,60 @@
       </c>
     </row>
     <row r="19" spans="1:28" s="66" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="72" t="s">
+      <c r="A19" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="72" t="s">
-        <v>501</v>
-      </c>
-      <c r="C19" s="72" t="s">
+      <c r="B19" s="73" t="s">
+        <v>502</v>
+      </c>
+      <c r="C19" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="72">
+      <c r="D19" s="73">
         <v>256</v>
       </c>
-      <c r="E19" s="72" t="s">
+      <c r="E19" s="73" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="73">
         <v>90</v>
       </c>
-      <c r="G19" s="72" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19" s="72" t="s">
+      <c r="G19" s="73" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="I19" s="72" t="s">
-        <v>470</v>
-      </c>
-      <c r="J19" s="72" t="s">
+      <c r="I19" s="73" t="s">
+        <v>471</v>
+      </c>
+      <c r="J19" s="73" t="s">
         <v>365</v>
       </c>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="88">
+      <c r="K19" s="73"/>
+      <c r="L19" s="73"/>
+      <c r="M19" s="89">
         <v>83.19</v>
       </c>
-      <c r="N19" s="84">
+      <c r="N19" s="85">
         <v>0.83709999999999996</v>
       </c>
-      <c r="O19" s="84">
+      <c r="O19" s="85">
         <v>0.84179999999999999</v>
       </c>
-      <c r="P19" s="84">
+      <c r="P19" s="85">
         <v>0.83940000000000003</v>
       </c>
-      <c r="Q19" s="84">
+      <c r="Q19" s="85">
         <v>0.82609999999999995</v>
       </c>
-      <c r="R19" s="84">
+      <c r="R19" s="85">
         <v>0.82099999999999995</v>
       </c>
-      <c r="S19" s="84">
+      <c r="S19" s="85">
         <v>0.82350000000000001</v>
       </c>
-      <c r="T19" s="73" t="s">
+      <c r="T19" s="74" t="s">
         <v>391</v>
       </c>
       <c r="AB19" s="65" t="str">
@@ -8230,25 +8281,25 @@
       <c r="J20" s="69"/>
       <c r="K20" s="69"/>
       <c r="L20" s="69"/>
-      <c r="M20" s="89">
+      <c r="M20" s="90">
         <v>83.48</v>
       </c>
-      <c r="N20" s="85">
+      <c r="N20" s="86">
         <v>0.82699999999999996</v>
       </c>
-      <c r="O20" s="85">
+      <c r="O20" s="86">
         <v>0.86439999999999995</v>
       </c>
-      <c r="P20" s="85">
+      <c r="P20" s="86">
         <v>0.84530000000000005</v>
       </c>
-      <c r="Q20" s="85">
+      <c r="Q20" s="86">
         <v>0.84419999999999995</v>
       </c>
-      <c r="R20" s="85">
+      <c r="R20" s="86">
         <v>0.80249999999999999</v>
       </c>
-      <c r="S20" s="85">
+      <c r="S20" s="86">
         <v>0.82279999999999998</v>
       </c>
       <c r="T20" s="38" t="s">
@@ -8260,7 +8311,7 @@
       </c>
     </row>
     <row r="21" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A21" s="70"/>
+      <c r="A21" s="71"/>
       <c r="B21" s="69"/>
       <c r="C21" s="69"/>
       <c r="D21" s="69"/>
@@ -8272,25 +8323,25 @@
       <c r="J21" s="69"/>
       <c r="K21" s="69"/>
       <c r="L21" s="69"/>
-      <c r="M21" s="89">
+      <c r="M21" s="90">
         <v>84.07</v>
       </c>
-      <c r="N21" s="82">
+      <c r="N21" s="83">
         <v>0.82889999999999997</v>
       </c>
-      <c r="O21" s="82">
+      <c r="O21" s="83">
         <v>0.87570000000000003</v>
       </c>
-      <c r="P21" s="82">
+      <c r="P21" s="83">
         <v>0.85160000000000002</v>
       </c>
-      <c r="Q21" s="82">
+      <c r="Q21" s="83">
         <v>0.85529999999999995</v>
       </c>
-      <c r="R21" s="82">
+      <c r="R21" s="83">
         <v>0.80249999999999999</v>
       </c>
-      <c r="S21" s="82">
+      <c r="S21" s="83">
         <v>0.82799999999999996</v>
       </c>
       <c r="T21" s="65" t="s">
@@ -8302,7 +8353,7 @@
       </c>
     </row>
     <row r="22" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A22" s="70"/>
+      <c r="A22" s="71"/>
       <c r="B22" s="69"/>
       <c r="C22" s="69"/>
       <c r="D22" s="69"/>
@@ -8314,25 +8365,25 @@
       <c r="J22" s="69"/>
       <c r="K22" s="69"/>
       <c r="L22" s="69"/>
-      <c r="M22" s="89">
+      <c r="M22" s="90">
         <v>83.48</v>
       </c>
-      <c r="N22" s="82">
+      <c r="N22" s="83">
         <v>0.82699999999999996</v>
       </c>
-      <c r="O22" s="82">
+      <c r="O22" s="83">
         <v>0.86439999999999995</v>
       </c>
-      <c r="P22" s="82">
+      <c r="P22" s="83">
         <v>0.84530000000000005</v>
       </c>
-      <c r="Q22" s="82">
+      <c r="Q22" s="83">
         <v>0.84419999999999995</v>
       </c>
-      <c r="R22" s="82">
+      <c r="R22" s="83">
         <v>0.80249999999999999</v>
       </c>
-      <c r="S22" s="82">
+      <c r="S22" s="83">
         <v>0.82279999999999998</v>
       </c>
       <c r="T22" s="65" t="s">
@@ -8344,7 +8395,7 @@
       </c>
     </row>
     <row r="23" spans="1:28" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="70"/>
+      <c r="A23" s="71"/>
       <c r="B23" s="69"/>
       <c r="C23" s="69"/>
       <c r="D23" s="69"/>
@@ -8356,25 +8407,25 @@
       <c r="J23" s="69"/>
       <c r="K23" s="69"/>
       <c r="L23" s="69"/>
-      <c r="M23" s="89">
+      <c r="M23" s="90">
         <v>79.650000000000006</v>
       </c>
-      <c r="N23" s="82">
+      <c r="N23" s="83">
         <v>0.88570000000000004</v>
       </c>
-      <c r="O23" s="82">
+      <c r="O23" s="83">
         <v>0.7006</v>
       </c>
-      <c r="P23" s="82">
+      <c r="P23" s="83">
         <v>0.7823</v>
       </c>
-      <c r="Q23" s="82">
+      <c r="Q23" s="83">
         <v>0.73370000000000002</v>
       </c>
-      <c r="R23" s="82">
+      <c r="R23" s="83">
         <v>0.9012</v>
       </c>
-      <c r="S23" s="82">
+      <c r="S23" s="83">
         <v>0.80889999999999995</v>
       </c>
       <c r="T23" s="65" t="s">
@@ -8389,37 +8440,37 @@
       <c r="A24" s="66" t="s">
         <v>305</v>
       </c>
-      <c r="B24" s="73" t="s">
-        <v>501</v>
-      </c>
-      <c r="C24" s="73" t="s">
+      <c r="B24" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="C24" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="D24" s="73">
+      <c r="D24" s="74">
         <v>256</v>
       </c>
-      <c r="E24" s="73" t="s">
+      <c r="E24" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="73">
+      <c r="F24" s="74">
         <v>90</v>
       </c>
-      <c r="G24" s="73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H24" s="73" t="s">
+      <c r="G24" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="I24" s="73" t="s">
+      <c r="I24" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="J24" s="73" t="s">
+      <c r="J24" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="K24" s="73">
+      <c r="K24" s="74">
         <v>91.33</v>
       </c>
-      <c r="L24" s="73"/>
+      <c r="L24" s="74"/>
       <c r="M24" s="67">
         <v>88.5</v>
       </c>
@@ -8453,25 +8504,25 @@
       <c r="K25" s="38">
         <v>90.94</v>
       </c>
-      <c r="M25" s="86">
+      <c r="M25" s="87">
         <v>87.91</v>
       </c>
-      <c r="N25" s="82">
+      <c r="N25" s="83">
         <v>0.89080000000000004</v>
       </c>
-      <c r="O25" s="82">
+      <c r="O25" s="83">
         <v>0.87570000000000003</v>
       </c>
-      <c r="P25" s="82">
+      <c r="P25" s="83">
         <v>0.88319999999999999</v>
       </c>
-      <c r="Q25" s="82">
+      <c r="Q25" s="83">
         <v>0.86670000000000003</v>
       </c>
-      <c r="R25" s="82">
+      <c r="R25" s="83">
         <v>0.88270000000000004</v>
       </c>
-      <c r="S25" s="82">
+      <c r="S25" s="83">
         <v>0.87460000000000004</v>
       </c>
       <c r="T25" s="65" t="s">
@@ -8486,25 +8537,25 @@
       <c r="K26" s="38">
         <v>90.62</v>
       </c>
-      <c r="M26" s="86">
+      <c r="M26" s="87">
         <v>87.91</v>
       </c>
-      <c r="N26" s="82">
+      <c r="N26" s="83">
         <v>0.88200000000000001</v>
       </c>
-      <c r="O26" s="82">
+      <c r="O26" s="83">
         <v>0.88700000000000001</v>
       </c>
-      <c r="P26" s="82">
+      <c r="P26" s="83">
         <v>0.88449999999999995</v>
       </c>
-      <c r="Q26" s="82">
+      <c r="Q26" s="83">
         <v>0.87580000000000002</v>
       </c>
-      <c r="R26" s="82">
+      <c r="R26" s="83">
         <v>0.87039999999999995</v>
       </c>
-      <c r="S26" s="82">
+      <c r="S26" s="83">
         <v>0.87309999999999999</v>
       </c>
       <c r="T26" s="65" t="s">
@@ -8519,25 +8570,25 @@
       <c r="K27" s="38">
         <v>91.17</v>
       </c>
-      <c r="M27" s="86">
+      <c r="M27" s="87">
         <v>88.79</v>
       </c>
-      <c r="N27" s="82">
+      <c r="N27" s="83">
         <v>0.90639999999999998</v>
       </c>
-      <c r="O27" s="82">
+      <c r="O27" s="83">
         <v>0.87570000000000003</v>
       </c>
-      <c r="P27" s="82">
+      <c r="P27" s="83">
         <v>0.89080000000000004</v>
       </c>
-      <c r="Q27" s="82">
+      <c r="Q27" s="83">
         <v>0.86899999999999999</v>
       </c>
-      <c r="R27" s="82">
+      <c r="R27" s="83">
         <v>0.9012</v>
       </c>
-      <c r="S27" s="82">
+      <c r="S27" s="83">
         <v>0.88480000000000003</v>
       </c>
       <c r="T27" s="65" t="s">
@@ -8552,25 +8603,25 @@
       <c r="K28" s="38">
         <v>90.94</v>
       </c>
-      <c r="M28" s="86">
+      <c r="M28" s="87">
         <v>88.5</v>
       </c>
-      <c r="N28" s="82">
+      <c r="N28" s="83">
         <v>0.87909999999999999</v>
       </c>
-      <c r="O28" s="82">
+      <c r="O28" s="83">
         <v>0.90400000000000003</v>
       </c>
-      <c r="P28" s="82">
+      <c r="P28" s="83">
         <v>0.89139999999999997</v>
       </c>
-      <c r="Q28" s="82">
+      <c r="Q28" s="83">
         <v>0.89170000000000005</v>
       </c>
-      <c r="R28" s="82">
+      <c r="R28" s="83">
         <v>0.86419999999999997</v>
       </c>
-      <c r="S28" s="82">
+      <c r="S28" s="83">
         <v>0.87770000000000004</v>
       </c>
       <c r="T28" s="65" t="s">
@@ -8585,37 +8636,37 @@
       <c r="A29" s="66" t="s">
         <v>338</v>
       </c>
-      <c r="B29" s="73" t="s">
-        <v>501</v>
-      </c>
-      <c r="C29" s="73" t="s">
+      <c r="B29" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="C29" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="D29" s="73">
+      <c r="D29" s="74">
         <v>256</v>
       </c>
-      <c r="E29" s="73" t="s">
+      <c r="E29" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="73">
+      <c r="F29" s="74">
         <v>90</v>
       </c>
-      <c r="G29" s="73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H29" s="73" t="s">
+      <c r="G29" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H29" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="I29" s="73" t="s">
+      <c r="I29" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="J29" s="73" t="s">
+      <c r="J29" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="K29" s="73">
+      <c r="K29" s="74">
         <v>90.7</v>
       </c>
-      <c r="L29" s="73"/>
+      <c r="L29" s="74"/>
       <c r="M29" s="67">
         <v>87.02</v>
       </c>
@@ -8649,25 +8700,25 @@
       <c r="K30" s="38">
         <v>91.09</v>
       </c>
-      <c r="M30" s="86">
+      <c r="M30" s="87">
         <v>88.2</v>
       </c>
-      <c r="N30" s="82">
+      <c r="N30" s="83">
         <v>0.86629999999999996</v>
       </c>
-      <c r="O30" s="82">
+      <c r="O30" s="83">
         <v>0.9153</v>
       </c>
-      <c r="P30" s="82">
+      <c r="P30" s="83">
         <v>0.8901</v>
       </c>
-      <c r="Q30" s="82">
+      <c r="Q30" s="83">
         <v>0.90129999999999999</v>
       </c>
-      <c r="R30" s="82">
+      <c r="R30" s="83">
         <v>0.84570000000000001</v>
       </c>
-      <c r="S30" s="82">
+      <c r="S30" s="83">
         <v>0.87260000000000004</v>
       </c>
       <c r="T30" s="65" t="s">
@@ -8682,25 +8733,25 @@
       <c r="K31" s="38">
         <v>91.02</v>
       </c>
-      <c r="M31" s="86">
+      <c r="M31" s="87">
         <v>87.91</v>
       </c>
-      <c r="N31" s="82">
+      <c r="N31" s="83">
         <v>0.87360000000000004</v>
       </c>
-      <c r="O31" s="82">
+      <c r="O31" s="83">
         <v>0.89829999999999999</v>
       </c>
-      <c r="P31" s="82">
+      <c r="P31" s="83">
         <v>0.88580000000000003</v>
       </c>
-      <c r="Q31" s="82">
+      <c r="Q31" s="83">
         <v>0.88539999999999996</v>
       </c>
-      <c r="R31" s="82">
+      <c r="R31" s="83">
         <v>0.85799999999999998</v>
       </c>
-      <c r="S31" s="82">
+      <c r="S31" s="83">
         <v>0.87150000000000005</v>
       </c>
       <c r="T31" s="65" t="s">
@@ -8715,25 +8766,25 @@
       <c r="K32" s="38">
         <v>91.17</v>
       </c>
-      <c r="M32" s="86">
+      <c r="M32" s="87">
         <v>87.02</v>
       </c>
-      <c r="N32" s="82">
+      <c r="N32" s="83">
         <v>0.84460000000000002</v>
       </c>
-      <c r="O32" s="82">
+      <c r="O32" s="83">
         <v>0.92090000000000005</v>
       </c>
-      <c r="P32" s="82">
+      <c r="P32" s="83">
         <v>0.88109999999999999</v>
       </c>
-      <c r="Q32" s="82">
+      <c r="Q32" s="83">
         <v>0.90410000000000001</v>
       </c>
-      <c r="R32" s="82">
+      <c r="R32" s="83">
         <v>0.81479999999999997</v>
       </c>
-      <c r="S32" s="82">
+      <c r="S32" s="83">
         <v>0.85709999999999997</v>
       </c>
       <c r="T32" s="65" t="s">
@@ -8748,25 +8799,25 @@
       <c r="K33" s="38">
         <v>90.86</v>
       </c>
-      <c r="M33" s="86">
+      <c r="M33" s="87">
         <v>89.09</v>
       </c>
-      <c r="N33" s="82">
+      <c r="N33" s="83">
         <v>0.90229999999999999</v>
       </c>
-      <c r="O33" s="82">
+      <c r="O33" s="83">
         <v>0.88700000000000001</v>
       </c>
-      <c r="P33" s="82">
+      <c r="P33" s="83">
         <v>0.89459999999999995</v>
       </c>
-      <c r="Q33" s="82">
+      <c r="Q33" s="83">
         <v>0.87880000000000003</v>
       </c>
-      <c r="R33" s="82">
+      <c r="R33" s="83">
         <v>0.89510000000000001</v>
       </c>
-      <c r="S33" s="82">
+      <c r="S33" s="83">
         <v>0.88690000000000002</v>
       </c>
       <c r="T33" s="65" t="s">
@@ -8781,37 +8832,37 @@
       <c r="A34" s="66" t="s">
         <v>379</v>
       </c>
-      <c r="B34" s="73" t="s">
-        <v>501</v>
-      </c>
-      <c r="C34" s="73" t="s">
+      <c r="B34" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="C34" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="D34" s="73">
+      <c r="D34" s="74">
         <v>256</v>
       </c>
-      <c r="E34" s="73" t="s">
+      <c r="E34" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="F34" s="73">
+      <c r="F34" s="74">
         <v>90</v>
       </c>
-      <c r="G34" s="73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H34" s="73" t="s">
+      <c r="G34" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="I34" s="73" t="s">
+      <c r="I34" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="J34" s="73" t="s">
+      <c r="J34" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="K34" s="73">
+      <c r="K34" s="74">
         <v>91.02</v>
       </c>
-      <c r="L34" s="73"/>
+      <c r="L34" s="74"/>
       <c r="M34" s="67">
         <v>88.5</v>
       </c>
@@ -8845,25 +8896,25 @@
       <c r="K35" s="38">
         <v>91.25</v>
       </c>
-      <c r="M35" s="86">
+      <c r="M35" s="87">
         <v>87.91</v>
       </c>
-      <c r="N35" s="82">
+      <c r="N35" s="83">
         <v>0.87360000000000004</v>
       </c>
-      <c r="O35" s="82">
+      <c r="O35" s="83">
         <v>0.89829999999999999</v>
       </c>
-      <c r="P35" s="82">
+      <c r="P35" s="83">
         <v>0.88580000000000003</v>
       </c>
-      <c r="Q35" s="82">
+      <c r="Q35" s="83">
         <v>0.88539999999999996</v>
       </c>
-      <c r="R35" s="82">
+      <c r="R35" s="83">
         <v>0.85799999999999998</v>
       </c>
-      <c r="S35" s="82">
+      <c r="S35" s="83">
         <v>0.87150000000000005</v>
       </c>
       <c r="T35" s="65" t="s">
@@ -8878,25 +8929,25 @@
       <c r="K36" s="38">
         <v>91.02</v>
       </c>
-      <c r="M36" s="86">
+      <c r="M36" s="87">
         <v>88.5</v>
       </c>
-      <c r="N36" s="82">
+      <c r="N36" s="83">
         <v>0.87909999999999999</v>
       </c>
-      <c r="O36" s="82">
+      <c r="O36" s="83">
         <v>0.90400000000000003</v>
       </c>
-      <c r="P36" s="82">
+      <c r="P36" s="83">
         <v>0.89139999999999997</v>
       </c>
-      <c r="Q36" s="82">
+      <c r="Q36" s="83">
         <v>0.89170000000000005</v>
       </c>
-      <c r="R36" s="82">
+      <c r="R36" s="83">
         <v>0.86419999999999997</v>
       </c>
-      <c r="S36" s="82">
+      <c r="S36" s="83">
         <v>0.87770000000000004</v>
       </c>
       <c r="T36" s="65" t="s">
@@ -8911,25 +8962,25 @@
       <c r="K37" s="38">
         <v>91.33</v>
       </c>
-      <c r="M37" s="86">
+      <c r="M37" s="87">
         <v>88.2</v>
       </c>
-      <c r="N37" s="82">
+      <c r="N37" s="83">
         <v>0.88700000000000001</v>
       </c>
-      <c r="O37" s="82">
+      <c r="O37" s="83">
         <v>0.88700000000000001</v>
       </c>
-      <c r="P37" s="82">
+      <c r="P37" s="83">
         <v>0.88700000000000001</v>
       </c>
-      <c r="Q37" s="82">
+      <c r="Q37" s="83">
         <v>0.87649999999999995</v>
       </c>
-      <c r="R37" s="82">
+      <c r="R37" s="83">
         <v>0.87649999999999995</v>
       </c>
-      <c r="S37" s="82">
+      <c r="S37" s="83">
         <v>0.87649999999999995</v>
       </c>
       <c r="T37" s="65" t="s">
@@ -8944,25 +8995,25 @@
       <c r="K38" s="38">
         <v>90.94</v>
       </c>
-      <c r="M38" s="86">
+      <c r="M38" s="87">
         <v>88.5</v>
       </c>
-      <c r="N38" s="82">
+      <c r="N38" s="83">
         <v>0.87909999999999999</v>
       </c>
-      <c r="O38" s="82">
+      <c r="O38" s="83">
         <v>0.90400000000000003</v>
       </c>
-      <c r="P38" s="82">
+      <c r="P38" s="83">
         <v>0.89139999999999997</v>
       </c>
-      <c r="Q38" s="82">
+      <c r="Q38" s="83">
         <v>0.89170000000000005</v>
       </c>
-      <c r="R38" s="82">
+      <c r="R38" s="83">
         <v>0.86419999999999997</v>
       </c>
-      <c r="S38" s="82">
+      <c r="S38" s="83">
         <v>0.87770000000000004</v>
       </c>
       <c r="T38" s="65" t="s">
@@ -8977,37 +9028,37 @@
       <c r="A39" s="66" t="s">
         <v>420</v>
       </c>
-      <c r="B39" s="73" t="s">
-        <v>501</v>
-      </c>
-      <c r="C39" s="73" t="s">
+      <c r="B39" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="C39" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="D39" s="73">
+      <c r="D39" s="74">
         <v>256</v>
       </c>
-      <c r="E39" s="73" t="s">
+      <c r="E39" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="73">
+      <c r="F39" s="74">
         <v>90</v>
       </c>
-      <c r="G39" s="73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H39" s="73" t="s">
+      <c r="G39" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="I39" s="73" t="s">
+      <c r="I39" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="J39" s="73" t="s">
+      <c r="J39" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="K39" s="73">
+      <c r="K39" s="74">
         <v>90.86</v>
       </c>
-      <c r="L39" s="73"/>
+      <c r="L39" s="74"/>
       <c r="M39" s="67">
         <v>87.02</v>
       </c>
@@ -9041,25 +9092,25 @@
       <c r="K40" s="38">
         <v>90.78</v>
       </c>
-      <c r="M40" s="86">
+      <c r="M40" s="87">
         <v>89.09</v>
       </c>
-      <c r="N40" s="82">
+      <c r="N40" s="83">
         <v>0.89329999999999998</v>
       </c>
-      <c r="O40" s="82">
+      <c r="O40" s="83">
         <v>0.89829999999999999</v>
       </c>
-      <c r="P40" s="82">
+      <c r="P40" s="83">
         <v>0.89580000000000004</v>
       </c>
-      <c r="Q40" s="82">
+      <c r="Q40" s="83">
         <v>0.88819999999999999</v>
       </c>
-      <c r="R40" s="82">
+      <c r="R40" s="83">
         <v>0.88270000000000004</v>
       </c>
-      <c r="S40" s="82">
+      <c r="S40" s="83">
         <v>0.88539999999999996</v>
       </c>
       <c r="T40" s="65" t="s">
@@ -9074,25 +9125,25 @@
       <c r="K41" s="38">
         <v>91.09</v>
       </c>
-      <c r="M41" s="86">
+      <c r="M41" s="87">
         <v>87.91</v>
       </c>
-      <c r="N41" s="82">
+      <c r="N41" s="83">
         <v>0.86960000000000004</v>
       </c>
-      <c r="O41" s="82">
+      <c r="O41" s="83">
         <v>0.90400000000000003</v>
       </c>
-      <c r="P41" s="82">
+      <c r="P41" s="83">
         <v>0.88639999999999997</v>
       </c>
-      <c r="Q41" s="82">
+      <c r="Q41" s="83">
         <v>0.89029999999999998</v>
       </c>
-      <c r="R41" s="82">
+      <c r="R41" s="83">
         <v>0.85189999999999999</v>
       </c>
-      <c r="S41" s="82">
+      <c r="S41" s="83">
         <v>0.87070000000000003</v>
       </c>
       <c r="T41" s="65" t="s">
@@ -9107,25 +9158,25 @@
       <c r="K42" s="38">
         <v>91.02</v>
       </c>
-      <c r="M42" s="86">
+      <c r="M42" s="87">
         <v>88.79</v>
       </c>
-      <c r="N42" s="82">
+      <c r="N42" s="83">
         <v>0.87170000000000003</v>
       </c>
-      <c r="O42" s="82">
+      <c r="O42" s="83">
         <v>0.92090000000000005</v>
       </c>
-      <c r="P42" s="82">
+      <c r="P42" s="83">
         <v>0.89559999999999995</v>
       </c>
-      <c r="Q42" s="82">
+      <c r="Q42" s="83">
         <v>0.90790000000000004</v>
       </c>
-      <c r="R42" s="82">
+      <c r="R42" s="83">
         <v>0.85189999999999999</v>
       </c>
-      <c r="S42" s="82">
+      <c r="S42" s="83">
         <v>0.879</v>
       </c>
       <c r="T42" s="65" t="s">
@@ -9140,25 +9191,25 @@
       <c r="K43" s="38">
         <v>91.09</v>
       </c>
-      <c r="M43" s="86">
+      <c r="M43" s="87">
         <v>88.79</v>
       </c>
-      <c r="N43" s="82">
+      <c r="N43" s="83">
         <v>0.89270000000000005</v>
       </c>
-      <c r="O43" s="82">
+      <c r="O43" s="83">
         <v>0.89270000000000005</v>
       </c>
-      <c r="P43" s="82">
+      <c r="P43" s="83">
         <v>0.89270000000000005</v>
       </c>
-      <c r="Q43" s="82">
+      <c r="Q43" s="83">
         <v>0.88270000000000004</v>
       </c>
-      <c r="R43" s="82">
+      <c r="R43" s="83">
         <v>0.88270000000000004</v>
       </c>
-      <c r="S43" s="82">
+      <c r="S43" s="83">
         <v>0.88270000000000004</v>
       </c>
       <c r="T43" s="65" t="s">
@@ -9173,37 +9224,37 @@
       <c r="A44" s="66" t="s">
         <v>332</v>
       </c>
-      <c r="B44" s="73" t="s">
-        <v>501</v>
-      </c>
-      <c r="C44" s="73" t="s">
+      <c r="B44" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="C44" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="D44" s="73">
+      <c r="D44" s="74">
         <v>256</v>
       </c>
-      <c r="E44" s="73" t="s">
+      <c r="E44" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="73">
+      <c r="F44" s="74">
         <v>90</v>
       </c>
-      <c r="G44" s="73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H44" s="73" t="s">
+      <c r="G44" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H44" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="I44" s="73" t="s">
+      <c r="I44" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="J44" s="73" t="s">
+      <c r="J44" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="K44" s="73">
+      <c r="K44" s="74">
         <v>91.09</v>
       </c>
-      <c r="L44" s="73"/>
+      <c r="L44" s="74"/>
       <c r="M44" s="67">
         <v>88.2</v>
       </c>
@@ -9237,25 +9288,25 @@
       <c r="K45" s="38">
         <v>91.09</v>
       </c>
-      <c r="M45" s="86">
+      <c r="M45" s="87">
         <v>89.09</v>
       </c>
-      <c r="N45" s="82">
+      <c r="N45" s="83">
         <v>0.88039999999999996</v>
       </c>
-      <c r="O45" s="82">
+      <c r="O45" s="83">
         <v>0.9153</v>
       </c>
-      <c r="P45" s="82">
+      <c r="P45" s="83">
         <v>0.89749999999999996</v>
       </c>
-      <c r="Q45" s="82">
+      <c r="Q45" s="83">
         <v>0.9032</v>
       </c>
-      <c r="R45" s="82">
+      <c r="R45" s="83">
         <v>0.86419999999999997</v>
       </c>
-      <c r="S45" s="82">
+      <c r="S45" s="83">
         <v>0.88329999999999997</v>
       </c>
       <c r="T45" s="65" t="s">
@@ -9270,25 +9321,25 @@
       <c r="K46" s="38">
         <v>91.09</v>
       </c>
-      <c r="M46" s="86">
+      <c r="M46" s="87">
         <v>88.79</v>
       </c>
-      <c r="N46" s="82">
+      <c r="N46" s="83">
         <v>0.90169999999999995</v>
       </c>
-      <c r="O46" s="82">
+      <c r="O46" s="83">
         <v>0.88139999999999996</v>
       </c>
-      <c r="P46" s="82">
+      <c r="P46" s="83">
         <v>0.89139999999999997</v>
       </c>
-      <c r="Q46" s="82">
+      <c r="Q46" s="83">
         <v>0.87350000000000005</v>
       </c>
-      <c r="R46" s="82">
+      <c r="R46" s="83">
         <v>0.89510000000000001</v>
       </c>
-      <c r="S46" s="82">
+      <c r="S46" s="83">
         <v>0.8841</v>
       </c>
       <c r="T46" s="65" t="s">
@@ -9303,25 +9354,25 @@
       <c r="K47" s="38">
         <v>91.25</v>
       </c>
-      <c r="M47" s="86">
+      <c r="M47" s="87">
         <v>87.91</v>
       </c>
-      <c r="N47" s="82">
+      <c r="N47" s="83">
         <v>0.89529999999999998</v>
       </c>
-      <c r="O47" s="82">
+      <c r="O47" s="83">
         <v>0.87009999999999998</v>
       </c>
-      <c r="P47" s="82">
+      <c r="P47" s="83">
         <v>0.88249999999999995</v>
       </c>
-      <c r="Q47" s="82">
+      <c r="Q47" s="83">
         <v>0.86229999999999996</v>
       </c>
-      <c r="R47" s="82">
+      <c r="R47" s="83">
         <v>0.88890000000000002</v>
       </c>
-      <c r="S47" s="82">
+      <c r="S47" s="83">
         <v>0.87539999999999996</v>
       </c>
       <c r="T47" s="65" t="s">
@@ -9336,25 +9387,25 @@
       <c r="K48" s="38">
         <v>91.25</v>
       </c>
-      <c r="M48" s="86">
+      <c r="M48" s="87">
         <v>88.79</v>
       </c>
-      <c r="N48" s="82">
+      <c r="N48" s="83">
         <v>0.89710000000000001</v>
       </c>
-      <c r="O48" s="82">
+      <c r="O48" s="83">
         <v>0.88700000000000001</v>
       </c>
-      <c r="P48" s="82">
+      <c r="P48" s="83">
         <v>0.89200000000000002</v>
       </c>
-      <c r="Q48" s="82">
+      <c r="Q48" s="83">
         <v>0.878</v>
       </c>
-      <c r="R48" s="82">
+      <c r="R48" s="83">
         <v>0.88890000000000002</v>
       </c>
-      <c r="S48" s="82">
+      <c r="S48" s="83">
         <v>0.88339999999999996</v>
       </c>
       <c r="T48" s="65" t="s">
@@ -9366,40 +9417,40 @@
       </c>
     </row>
     <row r="49" spans="1:28" s="66" customFormat="1" ht="18" thickTop="1" x14ac:dyDescent="0.4">
-      <c r="A49" s="96" t="s">
+      <c r="A49" s="97" t="s">
         <v>421</v>
       </c>
-      <c r="B49" s="81" t="s">
-        <v>501</v>
-      </c>
-      <c r="C49" s="81" t="s">
+      <c r="B49" s="82" t="s">
+        <v>502</v>
+      </c>
+      <c r="C49" s="82" t="s">
         <v>275</v>
       </c>
-      <c r="D49" s="81">
+      <c r="D49" s="82">
         <v>256</v>
       </c>
-      <c r="E49" s="81" t="s">
+      <c r="E49" s="82" t="s">
         <v>100</v>
       </c>
-      <c r="F49" s="81">
+      <c r="F49" s="82">
         <v>90</v>
       </c>
-      <c r="G49" s="81" t="b">
-        <v>0</v>
-      </c>
-      <c r="H49" s="81" t="s">
+      <c r="G49" s="82" t="b">
+        <v>0</v>
+      </c>
+      <c r="H49" s="82" t="s">
         <v>276</v>
       </c>
-      <c r="I49" s="81" t="s">
+      <c r="I49" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="J49" s="81" t="s">
+      <c r="J49" s="82" t="s">
         <v>365</v>
       </c>
-      <c r="K49" s="73">
+      <c r="K49" s="74">
         <v>91.17</v>
       </c>
-      <c r="L49" s="81"/>
+      <c r="L49" s="82"/>
       <c r="M49" s="67">
         <v>88.79</v>
       </c>
@@ -9433,25 +9484,25 @@
       <c r="K50" s="38">
         <v>90.86</v>
       </c>
-      <c r="M50" s="86">
+      <c r="M50" s="87">
         <v>88.2</v>
       </c>
-      <c r="N50" s="82">
+      <c r="N50" s="83">
         <v>0.90529999999999999</v>
       </c>
-      <c r="O50" s="82">
+      <c r="O50" s="83">
         <v>0.86439999999999995</v>
       </c>
-      <c r="P50" s="82">
+      <c r="P50" s="83">
         <v>0.88439999999999996</v>
       </c>
-      <c r="Q50" s="82">
+      <c r="Q50" s="83">
         <v>0.85880000000000001</v>
       </c>
-      <c r="R50" s="82">
+      <c r="R50" s="83">
         <v>0.9012</v>
       </c>
-      <c r="S50" s="82">
+      <c r="S50" s="83">
         <v>0.87949999999999995</v>
       </c>
       <c r="T50" s="65" t="s">
@@ -9466,25 +9517,25 @@
       <c r="K51" s="38">
         <v>91.02</v>
       </c>
-      <c r="M51" s="86">
+      <c r="M51" s="87">
         <v>88.5</v>
       </c>
-      <c r="N51" s="82">
+      <c r="N51" s="83">
         <v>0.87909999999999999</v>
       </c>
-      <c r="O51" s="82">
+      <c r="O51" s="83">
         <v>0.90400000000000003</v>
       </c>
-      <c r="P51" s="82">
+      <c r="P51" s="83">
         <v>0.89139999999999997</v>
       </c>
-      <c r="Q51" s="82">
+      <c r="Q51" s="83">
         <v>0.89170000000000005</v>
       </c>
-      <c r="R51" s="82">
+      <c r="R51" s="83">
         <v>0.86419999999999997</v>
       </c>
-      <c r="S51" s="82">
+      <c r="S51" s="83">
         <v>0.87770000000000004</v>
       </c>
       <c r="T51" s="65" t="s">
@@ -9499,25 +9550,25 @@
       <c r="K52" s="38">
         <v>91.17</v>
       </c>
-      <c r="M52" s="86">
+      <c r="M52" s="87">
         <v>88.79</v>
       </c>
-      <c r="N52" s="82">
+      <c r="N52" s="83">
         <v>0.89710000000000001</v>
       </c>
-      <c r="O52" s="82">
+      <c r="O52" s="83">
         <v>0.88700000000000001</v>
       </c>
-      <c r="P52" s="82">
+      <c r="P52" s="83">
         <v>0.89200000000000002</v>
       </c>
-      <c r="Q52" s="82">
+      <c r="Q52" s="83">
         <v>0.878</v>
       </c>
-      <c r="R52" s="82">
+      <c r="R52" s="83">
         <v>0.88890000000000002</v>
       </c>
-      <c r="S52" s="82">
+      <c r="S52" s="83">
         <v>0.88339999999999996</v>
       </c>
       <c r="T52" s="65" t="s">
@@ -9532,25 +9583,25 @@
       <c r="K53" s="38">
         <v>91.02</v>
       </c>
-      <c r="M53" s="86">
+      <c r="M53" s="87">
         <v>89.09</v>
       </c>
-      <c r="N53" s="82">
+      <c r="N53" s="83">
         <v>0.91180000000000005</v>
       </c>
-      <c r="O53" s="82">
+      <c r="O53" s="83">
         <v>0.87570000000000003</v>
       </c>
-      <c r="P53" s="82">
+      <c r="P53" s="83">
         <v>0.89339999999999997</v>
       </c>
-      <c r="Q53" s="82">
+      <c r="Q53" s="83">
         <v>0.86980000000000002</v>
       </c>
-      <c r="R53" s="82">
+      <c r="R53" s="83">
         <v>0.90739999999999998</v>
       </c>
-      <c r="S53" s="82">
+      <c r="S53" s="83">
         <v>0.88819999999999999</v>
       </c>
       <c r="T53" s="65" t="s">
@@ -9565,37 +9616,37 @@
       <c r="A54" s="66" t="s">
         <v>308</v>
       </c>
-      <c r="B54" s="73" t="s">
-        <v>501</v>
-      </c>
-      <c r="C54" s="73" t="s">
+      <c r="B54" s="74" t="s">
+        <v>502</v>
+      </c>
+      <c r="C54" s="74" t="s">
         <v>275</v>
       </c>
-      <c r="D54" s="73">
+      <c r="D54" s="74">
         <v>256</v>
       </c>
-      <c r="E54" s="73" t="s">
+      <c r="E54" s="74" t="s">
         <v>100</v>
       </c>
-      <c r="F54" s="73">
+      <c r="F54" s="74">
         <v>90</v>
       </c>
-      <c r="G54" s="73" t="b">
-        <v>0</v>
-      </c>
-      <c r="H54" s="73" t="s">
+      <c r="G54" s="74" t="b">
+        <v>0</v>
+      </c>
+      <c r="H54" s="74" t="s">
         <v>276</v>
       </c>
-      <c r="I54" s="73" t="s">
+      <c r="I54" s="74" t="s">
         <v>60</v>
       </c>
-      <c r="J54" s="73" t="s">
+      <c r="J54" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="K54" s="73">
+      <c r="K54" s="74">
         <v>89.84</v>
       </c>
-      <c r="L54" s="73"/>
+      <c r="L54" s="74"/>
       <c r="M54" s="67">
         <v>86.73</v>
       </c>
@@ -9630,7 +9681,7 @@
         <v>376</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C55" s="38" t="s">
         <v>275</v>
@@ -9659,25 +9710,25 @@
       <c r="K55" s="38">
         <v>89.84</v>
       </c>
-      <c r="M55" s="86">
+      <c r="M55" s="87">
         <v>86.73</v>
       </c>
-      <c r="N55" s="82">
+      <c r="N55" s="83">
         <v>0.87080000000000002</v>
       </c>
-      <c r="O55" s="82">
+      <c r="O55" s="83">
         <v>0.87570000000000003</v>
       </c>
-      <c r="P55" s="82">
+      <c r="P55" s="83">
         <v>0.87319999999999998</v>
       </c>
-      <c r="Q55" s="82">
+      <c r="Q55" s="83">
         <v>0.86339999999999995</v>
       </c>
-      <c r="R55" s="82">
+      <c r="R55" s="83">
         <v>0.85799999999999998</v>
       </c>
-      <c r="S55" s="82">
+      <c r="S55" s="83">
         <v>0.86070000000000002</v>
       </c>
       <c r="T55" s="65" t="s">
@@ -9693,7 +9744,7 @@
         <v>407</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C56" s="38" t="s">
         <v>275</v>
@@ -9722,25 +9773,25 @@
       <c r="K56" s="38">
         <v>92.5</v>
       </c>
-      <c r="M56" s="86">
+      <c r="M56" s="87">
         <v>86.43</v>
       </c>
-      <c r="N56" s="82">
+      <c r="N56" s="83">
         <v>0.87860000000000005</v>
       </c>
-      <c r="O56" s="82">
+      <c r="O56" s="83">
         <v>0.85880000000000001</v>
       </c>
-      <c r="P56" s="82">
+      <c r="P56" s="83">
         <v>0.86860000000000004</v>
       </c>
-      <c r="Q56" s="82">
+      <c r="Q56" s="83">
         <v>0.84940000000000004</v>
       </c>
-      <c r="R56" s="82">
+      <c r="R56" s="83">
         <v>0.87039999999999995</v>
       </c>
-      <c r="S56" s="82">
+      <c r="S56" s="83">
         <v>0.85980000000000001</v>
       </c>
       <c r="T56" s="65" t="s">
@@ -9756,7 +9807,7 @@
         <v>379</v>
       </c>
       <c r="B57" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C57" s="38" t="s">
         <v>275</v>
@@ -9785,25 +9836,25 @@
       <c r="K57" s="38">
         <v>91.41</v>
       </c>
-      <c r="M57" s="86">
+      <c r="M57" s="87">
         <v>87.91</v>
       </c>
-      <c r="N57" s="82">
+      <c r="N57" s="83">
         <v>0.87360000000000004</v>
       </c>
-      <c r="O57" s="82">
+      <c r="O57" s="83">
         <v>0.89829999999999999</v>
       </c>
-      <c r="P57" s="82">
+      <c r="P57" s="83">
         <v>0.88580000000000003</v>
       </c>
-      <c r="Q57" s="82">
+      <c r="Q57" s="83">
         <v>0.88539999999999996</v>
       </c>
-      <c r="R57" s="82">
+      <c r="R57" s="83">
         <v>0.85799999999999998</v>
       </c>
-      <c r="S57" s="82">
+      <c r="S57" s="83">
         <v>0.87150000000000005</v>
       </c>
       <c r="T57" s="65" t="s">
@@ -9819,7 +9870,7 @@
         <v>410</v>
       </c>
       <c r="B58" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C58" s="38" t="s">
         <v>275</v>
@@ -9848,25 +9899,25 @@
       <c r="K58" s="38">
         <v>89.61</v>
       </c>
-      <c r="M58" s="86">
+      <c r="M58" s="87">
         <v>85.84</v>
       </c>
-      <c r="N58" s="82">
+      <c r="N58" s="83">
         <v>0.87280000000000002</v>
       </c>
-      <c r="O58" s="82">
+      <c r="O58" s="83">
         <v>0.85309999999999997</v>
       </c>
-      <c r="P58" s="82">
+      <c r="P58" s="83">
         <v>0.8629</v>
       </c>
-      <c r="Q58" s="82">
+      <c r="Q58" s="83">
         <v>0.84340000000000004</v>
       </c>
-      <c r="R58" s="82">
+      <c r="R58" s="83">
         <v>0.86419999999999997</v>
       </c>
-      <c r="S58" s="82">
+      <c r="S58" s="83">
         <v>0.85370000000000001</v>
       </c>
       <c r="T58" s="65" t="s">
@@ -9882,7 +9933,7 @@
         <v>413</v>
       </c>
       <c r="B59" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C59" s="38" t="s">
         <v>275</v>
@@ -9911,25 +9962,25 @@
       <c r="K59" s="38">
         <v>90.31</v>
       </c>
-      <c r="M59" s="86">
+      <c r="M59" s="87">
         <v>85.25</v>
       </c>
-      <c r="N59" s="82">
+      <c r="N59" s="83">
         <v>0.8508</v>
       </c>
-      <c r="O59" s="82">
+      <c r="O59" s="83">
         <v>0.87009999999999998</v>
       </c>
-      <c r="P59" s="82">
+      <c r="P59" s="83">
         <v>0.86029999999999995</v>
       </c>
-      <c r="Q59" s="82">
+      <c r="Q59" s="83">
         <v>0.85440000000000005</v>
       </c>
-      <c r="R59" s="82">
+      <c r="R59" s="83">
         <v>0.83330000000000004</v>
       </c>
-      <c r="S59" s="82">
+      <c r="S59" s="83">
         <v>0.84379999999999999</v>
       </c>
       <c r="T59" s="65" t="s">
@@ -9945,7 +9996,7 @@
         <v>430</v>
       </c>
       <c r="B60" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C60" s="38" t="s">
         <v>275</v>
@@ -9974,25 +10025,25 @@
       <c r="K60" s="38">
         <v>90.94</v>
       </c>
-      <c r="M60" s="86">
+      <c r="M60" s="87">
         <v>89.68</v>
       </c>
-      <c r="N60" s="82">
+      <c r="N60" s="83">
         <v>0.93289999999999995</v>
       </c>
-      <c r="O60" s="82">
+      <c r="O60" s="83">
         <v>0.86439999999999995</v>
       </c>
-      <c r="P60" s="82">
+      <c r="P60" s="83">
         <v>0.89739999999999998</v>
       </c>
-      <c r="Q60" s="82">
+      <c r="Q60" s="83">
         <v>0.8629</v>
       </c>
-      <c r="R60" s="82">
+      <c r="R60" s="83">
         <v>0.93210000000000004</v>
       </c>
-      <c r="S60" s="82">
+      <c r="S60" s="83">
         <v>0.89610000000000001</v>
       </c>
       <c r="T60" s="65" t="s">
@@ -10008,7 +10059,7 @@
         <v>434</v>
       </c>
       <c r="B61" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C61" s="38" t="s">
         <v>275</v>
@@ -10037,25 +10088,25 @@
       <c r="K61" s="38">
         <v>91.41</v>
       </c>
-      <c r="M61" s="86">
+      <c r="M61" s="87">
         <v>85.84</v>
       </c>
-      <c r="N61" s="82">
+      <c r="N61" s="83">
         <v>0.85250000000000004</v>
       </c>
-      <c r="O61" s="82">
+      <c r="O61" s="83">
         <v>0.88139999999999996</v>
       </c>
-      <c r="P61" s="82">
+      <c r="P61" s="83">
         <v>0.86670000000000003</v>
       </c>
-      <c r="Q61" s="82">
+      <c r="Q61" s="83">
         <v>0.86539999999999995</v>
       </c>
-      <c r="R61" s="82">
+      <c r="R61" s="83">
         <v>0.83330000000000004</v>
       </c>
-      <c r="S61" s="82">
+      <c r="S61" s="83">
         <v>0.84909999999999997</v>
       </c>
       <c r="T61" s="65" t="s">
@@ -10070,25 +10121,25 @@
       <c r="K62" s="38">
         <v>91.88</v>
       </c>
-      <c r="M62" s="86">
+      <c r="M62" s="87">
         <v>84.96</v>
       </c>
-      <c r="N62" s="82">
+      <c r="N62" s="83">
         <v>0.89380000000000004</v>
       </c>
-      <c r="O62" s="82">
+      <c r="O62" s="83">
         <v>0.80789999999999995</v>
       </c>
-      <c r="P62" s="82">
+      <c r="P62" s="83">
         <v>0.84870000000000001</v>
       </c>
-      <c r="Q62" s="82">
+      <c r="Q62" s="83">
         <v>0.81010000000000004</v>
       </c>
-      <c r="R62" s="82">
+      <c r="R62" s="83">
         <v>0.89510000000000001</v>
       </c>
-      <c r="S62" s="82">
+      <c r="S62" s="83">
         <v>0.85040000000000004</v>
       </c>
       <c r="T62" s="65" t="s">
@@ -10104,7 +10155,7 @@
         <v>435</v>
       </c>
       <c r="B63" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C63" s="38" t="s">
         <v>275</v>
@@ -10133,25 +10184,25 @@
       <c r="K63" s="38">
         <v>91.17</v>
       </c>
-      <c r="M63" s="86">
+      <c r="M63" s="87">
         <v>84.37</v>
       </c>
-      <c r="N63" s="82">
+      <c r="N63" s="83">
         <v>0.86899999999999999</v>
       </c>
-      <c r="O63" s="82">
+      <c r="O63" s="83">
         <v>0.82489999999999997</v>
       </c>
-      <c r="P63" s="82">
+      <c r="P63" s="83">
         <v>0.84640000000000004</v>
       </c>
-      <c r="Q63" s="82">
+      <c r="Q63" s="83">
         <v>0.81869999999999998</v>
       </c>
-      <c r="R63" s="82">
+      <c r="R63" s="83">
         <v>0.86419999999999997</v>
       </c>
-      <c r="S63" s="82">
+      <c r="S63" s="83">
         <v>0.84079999999999999</v>
       </c>
       <c r="T63" s="65" t="s">
@@ -10166,25 +10217,25 @@
       <c r="K64" s="38">
         <v>91.33</v>
       </c>
-      <c r="M64" s="86">
+      <c r="M64" s="87">
         <v>85.25</v>
       </c>
-      <c r="N64" s="82">
+      <c r="N64" s="83">
         <v>0.85880000000000001</v>
       </c>
-      <c r="O64" s="82">
+      <c r="O64" s="83">
         <v>0.85880000000000001</v>
       </c>
-      <c r="P64" s="82">
+      <c r="P64" s="83">
         <v>0.85880000000000001</v>
       </c>
-      <c r="Q64" s="82">
+      <c r="Q64" s="83">
         <v>0.84570000000000001</v>
       </c>
-      <c r="R64" s="82">
+      <c r="R64" s="83">
         <v>0.84570000000000001</v>
       </c>
-      <c r="S64" s="82">
+      <c r="S64" s="83">
         <v>0.84570000000000001</v>
       </c>
       <c r="T64" s="65" t="s">
@@ -10200,7 +10251,7 @@
         <v>440</v>
       </c>
       <c r="B65" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C65" s="38" t="s">
         <v>275</v>
@@ -10229,25 +10280,25 @@
       <c r="K65" s="38">
         <v>90.94</v>
       </c>
-      <c r="M65" s="86">
+      <c r="M65" s="87">
         <v>88.2</v>
       </c>
-      <c r="N65" s="82">
+      <c r="N65" s="83">
         <v>0.88270000000000004</v>
       </c>
-      <c r="O65" s="82">
+      <c r="O65" s="83">
         <v>0.89270000000000005</v>
       </c>
-      <c r="P65" s="82">
+      <c r="P65" s="83">
         <v>0.88759999999999994</v>
       </c>
-      <c r="Q65" s="82">
+      <c r="Q65" s="83">
         <v>0.88119999999999998</v>
       </c>
-      <c r="R65" s="82">
+      <c r="R65" s="83">
         <v>0.87039999999999995</v>
       </c>
-      <c r="S65" s="82">
+      <c r="S65" s="83">
         <v>0.87580000000000002</v>
       </c>
       <c r="T65" s="65" t="s">
@@ -10262,25 +10313,25 @@
       <c r="K66" s="38">
         <v>90.94</v>
       </c>
-      <c r="M66" s="86">
+      <c r="M66" s="87">
         <v>89.09</v>
       </c>
-      <c r="N66" s="82">
+      <c r="N66" s="83">
         <v>0.90700000000000003</v>
       </c>
-      <c r="O66" s="82">
+      <c r="O66" s="83">
         <v>0.88139999999999996</v>
       </c>
-      <c r="P66" s="82">
+      <c r="P66" s="83">
         <v>0.89400000000000002</v>
       </c>
-      <c r="Q66" s="82">
+      <c r="Q66" s="83">
         <v>0.87429999999999997</v>
       </c>
-      <c r="R66" s="82">
+      <c r="R66" s="83">
         <v>0.9012</v>
       </c>
-      <c r="S66" s="82">
+      <c r="S66" s="83">
         <v>0.88749999999999996</v>
       </c>
       <c r="T66" s="65" t="s">
@@ -10295,25 +10346,25 @@
       <c r="K67" s="38">
         <v>90.86</v>
       </c>
-      <c r="M67" s="86">
+      <c r="M67" s="87">
         <v>87.61</v>
       </c>
-      <c r="N67" s="82">
+      <c r="N67" s="83">
         <v>0.85340000000000005</v>
       </c>
-      <c r="O67" s="82">
+      <c r="O67" s="83">
         <v>0.92090000000000005</v>
       </c>
-      <c r="P67" s="82">
+      <c r="P67" s="83">
         <v>0.88590000000000002</v>
       </c>
-      <c r="Q67" s="82">
+      <c r="Q67" s="83">
         <v>0.90539999999999998</v>
       </c>
-      <c r="R67" s="82">
+      <c r="R67" s="83">
         <v>0.82720000000000005</v>
       </c>
-      <c r="S67" s="82">
+      <c r="S67" s="83">
         <v>0.86450000000000005</v>
       </c>
       <c r="T67" s="65" t="s">
@@ -10328,25 +10379,25 @@
       <c r="K68" s="38">
         <v>91.09</v>
       </c>
-      <c r="M68" s="86">
+      <c r="M68" s="87">
         <v>88.2</v>
       </c>
-      <c r="N68" s="82">
+      <c r="N68" s="83">
         <v>0.86629999999999996</v>
       </c>
-      <c r="O68" s="82">
+      <c r="O68" s="83">
         <v>0.9153</v>
       </c>
-      <c r="P68" s="82">
+      <c r="P68" s="83">
         <v>0.8901</v>
       </c>
-      <c r="Q68" s="82">
+      <c r="Q68" s="83">
         <v>0.90129999999999999</v>
       </c>
-      <c r="R68" s="82">
+      <c r="R68" s="83">
         <v>0.84570000000000001</v>
       </c>
-      <c r="S68" s="82">
+      <c r="S68" s="83">
         <v>0.87260000000000004</v>
       </c>
       <c r="T68" s="65" t="s">
@@ -10362,7 +10413,7 @@
         <v>448</v>
       </c>
       <c r="B69" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C69" s="38" t="s">
         <v>275</v>
@@ -10391,25 +10442,25 @@
       <c r="K69" s="38">
         <v>92.73</v>
       </c>
-      <c r="M69" s="86">
+      <c r="M69" s="87">
         <v>86.73</v>
       </c>
-      <c r="N69" s="82">
+      <c r="N69" s="83">
         <v>0.86670000000000003</v>
       </c>
-      <c r="O69" s="82">
+      <c r="O69" s="83">
         <v>0.88139999999999996</v>
       </c>
-      <c r="P69" s="82">
+      <c r="P69" s="83">
         <v>0.87390000000000001</v>
       </c>
-      <c r="Q69" s="82">
+      <c r="Q69" s="83">
         <v>0.8679</v>
       </c>
-      <c r="R69" s="82">
+      <c r="R69" s="83">
         <v>0.85189999999999999</v>
       </c>
-      <c r="S69" s="82">
+      <c r="S69" s="83">
         <v>0.85980000000000001</v>
       </c>
       <c r="T69" s="65" t="s">
@@ -10424,25 +10475,25 @@
       <c r="K70" s="38">
         <v>92.81</v>
       </c>
-      <c r="M70" s="86">
+      <c r="M70" s="87">
         <v>87.61</v>
       </c>
-      <c r="N70" s="82">
+      <c r="N70" s="83">
         <v>0.87709999999999999</v>
       </c>
-      <c r="O70" s="82">
+      <c r="O70" s="83">
         <v>0.88700000000000001</v>
       </c>
-      <c r="P70" s="82">
+      <c r="P70" s="83">
         <v>0.88200000000000001</v>
       </c>
-      <c r="Q70" s="82">
+      <c r="Q70" s="83">
         <v>0.875</v>
       </c>
-      <c r="R70" s="82">
+      <c r="R70" s="83">
         <v>0.86419999999999997</v>
       </c>
-      <c r="S70" s="82">
+      <c r="S70" s="83">
         <v>0.86960000000000004</v>
       </c>
       <c r="T70" s="65" t="s">
@@ -10457,25 +10508,25 @@
       <c r="K71" s="38">
         <v>93.05</v>
       </c>
-      <c r="M71" s="86">
+      <c r="M71" s="87">
         <v>88.79</v>
       </c>
-      <c r="N71" s="82">
+      <c r="N71" s="83">
         <v>0.88829999999999998</v>
       </c>
-      <c r="O71" s="82">
+      <c r="O71" s="83">
         <v>0.89829999999999999</v>
       </c>
-      <c r="P71" s="82">
+      <c r="P71" s="83">
         <v>0.89329999999999998</v>
       </c>
-      <c r="Q71" s="82">
+      <c r="Q71" s="83">
         <v>0.88749999999999996</v>
       </c>
-      <c r="R71" s="82">
+      <c r="R71" s="83">
         <v>0.87649999999999995</v>
       </c>
-      <c r="S71" s="82">
+      <c r="S71" s="83">
         <v>0.88200000000000001</v>
       </c>
       <c r="T71" s="65" t="s">
@@ -10491,7 +10542,7 @@
         <v>451</v>
       </c>
       <c r="B72" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C72" s="38" t="s">
         <v>275</v>
@@ -10520,16 +10571,16 @@
       <c r="K72" s="38">
         <v>91.95</v>
       </c>
-      <c r="M72" s="86">
+      <c r="M72" s="87">
         <v>87.61</v>
       </c>
-      <c r="N72" s="82">
+      <c r="N72" s="83">
         <v>0.87709999999999999</v>
       </c>
-      <c r="O72" s="82">
+      <c r="O72" s="83">
         <v>0.88700000000000001</v>
       </c>
-      <c r="P72" s="82">
+      <c r="P72" s="83">
         <v>0.88200000000000001</v>
       </c>
       <c r="T72" s="65" t="s">
@@ -10544,10 +10595,10 @@
       <c r="K73" s="38">
         <v>91.56</v>
       </c>
-      <c r="M73" s="86">
+      <c r="M73" s="87">
         <v>89.09</v>
       </c>
-      <c r="P73" s="82">
+      <c r="P73" s="83">
         <v>0.89639999999999997</v>
       </c>
       <c r="T73" s="65" t="s">
@@ -10562,10 +10613,10 @@
       <c r="K74" s="38">
         <v>91.64</v>
       </c>
-      <c r="M74" s="86">
+      <c r="M74" s="87">
         <v>86.73</v>
       </c>
-      <c r="P74" s="82">
+      <c r="P74" s="83">
         <v>0.87029999999999996</v>
       </c>
       <c r="T74" s="65" t="s">
@@ -10580,10 +10631,10 @@
       <c r="K75" s="38">
         <v>91.72</v>
       </c>
-      <c r="M75" s="86">
+      <c r="M75" s="87">
         <v>87.61</v>
       </c>
-      <c r="P75" s="82">
+      <c r="P75" s="83">
         <v>0.87929999999999997</v>
       </c>
       <c r="T75" s="65" t="s">
@@ -10599,7 +10650,7 @@
         <v>456</v>
       </c>
       <c r="B76" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C76" s="38" t="s">
         <v>275</v>
@@ -10628,10 +10679,10 @@
       <c r="K76" s="38">
         <v>91.72</v>
       </c>
-      <c r="M76" s="86">
+      <c r="M76" s="87">
         <v>86.14</v>
       </c>
-      <c r="P76" s="82">
+      <c r="P76" s="83">
         <v>0.86529999999999996</v>
       </c>
       <c r="T76" s="65" t="s">
@@ -10646,10 +10697,10 @@
       <c r="K77" s="38">
         <v>91.72</v>
       </c>
-      <c r="M77" s="86">
+      <c r="M77" s="87">
         <v>86.73</v>
       </c>
-      <c r="P77" s="82">
+      <c r="P77" s="83">
         <v>0.87029999999999996</v>
       </c>
       <c r="T77" s="65" t="s">
@@ -10664,10 +10715,10 @@
       <c r="K78" s="38">
         <v>91.41</v>
       </c>
-      <c r="M78" s="86">
+      <c r="M78" s="87">
         <v>86.43</v>
       </c>
-      <c r="P78" s="82">
+      <c r="P78" s="83">
         <v>0.86780000000000002</v>
       </c>
       <c r="T78" s="65" t="s">
@@ -10682,10 +10733,10 @@
       <c r="K79" s="38">
         <v>91.33</v>
       </c>
-      <c r="M79" s="86">
+      <c r="M79" s="87">
         <v>87.91</v>
       </c>
-      <c r="P79" s="82">
+      <c r="P79" s="83">
         <v>0.88519999999999999</v>
       </c>
       <c r="T79" s="65" t="s">
@@ -10697,11 +10748,11 @@
       </c>
     </row>
     <row r="80" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A80" s="95" t="s">
-        <v>463</v>
+      <c r="A80" s="96" t="s">
+        <v>464</v>
       </c>
       <c r="B80" s="39" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C80" s="39" t="s">
         <v>275</v>
@@ -10731,14 +10782,14 @@
         <v>90.94</v>
       </c>
       <c r="L80" s="39"/>
-      <c r="M80" s="86">
+      <c r="M80" s="87">
         <v>89.09</v>
       </c>
-      <c r="P80" s="82">
+      <c r="P80" s="83">
         <v>0.89459999999999995</v>
       </c>
       <c r="T80" s="65" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AB80" s="65" t="str">
         <f t="shared" si="1"/>
@@ -10749,14 +10800,14 @@
       <c r="K81" s="38">
         <v>90.86</v>
       </c>
-      <c r="M81" s="86">
+      <c r="M81" s="87">
         <v>86.73</v>
       </c>
-      <c r="P81" s="82">
+      <c r="P81" s="83">
         <v>0.878</v>
       </c>
       <c r="T81" s="65" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="AB81" s="65">
         <f t="shared" si="1"/>
@@ -10767,14 +10818,14 @@
       <c r="K82" s="38">
         <v>90.94</v>
       </c>
-      <c r="M82" s="86">
+      <c r="M82" s="87">
         <v>89.38</v>
       </c>
-      <c r="P82" s="82">
+      <c r="P82" s="83">
         <v>0.89710000000000001</v>
       </c>
       <c r="T82" s="65" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="AB82" s="65">
         <f t="shared" si="1"/>
@@ -10785,14 +10836,14 @@
       <c r="K83" s="38">
         <v>90.78</v>
       </c>
-      <c r="M83" s="86">
+      <c r="M83" s="87">
         <v>89.68</v>
       </c>
-      <c r="P83" s="82">
+      <c r="P83" s="83">
         <v>0.89910000000000001</v>
       </c>
       <c r="T83" s="65" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="AB83" s="65">
         <f t="shared" si="1"/>
@@ -10801,10 +10852,10 @@
     </row>
     <row r="84" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A84" s="65" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B84" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C84" s="38" t="s">
         <v>275</v>
@@ -10822,10 +10873,10 @@
         <v>0</v>
       </c>
       <c r="H84" s="38" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I84" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J84" s="38" t="s">
         <v>365</v>
@@ -10833,14 +10884,14 @@
       <c r="K84" s="38">
         <v>75.47</v>
       </c>
-      <c r="M84" s="86">
+      <c r="M84" s="87">
         <v>79.349999999999994</v>
       </c>
-      <c r="P84" s="82">
+      <c r="P84" s="83">
         <v>0.79530000000000001</v>
       </c>
       <c r="T84" s="65" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AB84" s="65" t="str">
         <f t="shared" si="1"/>
@@ -10849,10 +10900,10 @@
     </row>
     <row r="85" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A85" s="65" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B85" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C85" s="38" t="s">
         <v>275</v>
@@ -10870,10 +10921,10 @@
         <v>0</v>
       </c>
       <c r="H85" s="38" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I85" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J85" s="38" t="s">
         <v>365</v>
@@ -10881,14 +10932,14 @@
       <c r="K85" s="38">
         <v>87.58</v>
       </c>
-      <c r="M85" s="86">
+      <c r="M85" s="87">
         <v>86.73</v>
       </c>
-      <c r="P85" s="82">
+      <c r="P85" s="83">
         <v>0.87390000000000001</v>
       </c>
       <c r="T85" s="65" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AB85" s="65" t="str">
         <f t="shared" si="1"/>
@@ -10897,10 +10948,10 @@
     </row>
     <row r="86" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A86" s="65" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B86" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C86" s="38" t="s">
         <v>275</v>
@@ -10918,10 +10969,10 @@
         <v>0</v>
       </c>
       <c r="H86" s="38" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I86" s="38" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="J86" s="38" t="s">
         <v>365</v>
@@ -10929,14 +10980,14 @@
       <c r="K86" s="38">
         <v>88.36</v>
       </c>
-      <c r="M86" s="86">
+      <c r="M86" s="87">
         <v>86.73</v>
       </c>
-      <c r="P86" s="82">
+      <c r="P86" s="83">
         <v>0.87470000000000003</v>
       </c>
       <c r="T86" s="65" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AB86" s="65" t="str">
         <f t="shared" si="1"/>
@@ -10945,10 +10996,10 @@
     </row>
     <row r="87" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A87" s="65" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B87" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C87" s="38" t="s">
         <v>275</v>
@@ -10969,7 +11020,7 @@
         <v>276</v>
       </c>
       <c r="I87" s="38" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="J87" s="38" t="s">
         <v>365</v>
@@ -10977,14 +11028,14 @@
       <c r="K87" s="38">
         <v>52.34</v>
       </c>
-      <c r="M87" s="86">
+      <c r="M87" s="87">
         <v>52.21</v>
       </c>
-      <c r="P87" s="82">
+      <c r="P87" s="83">
         <v>0.68600000000000005</v>
       </c>
       <c r="T87" s="65" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AB87" s="65" t="str">
         <f t="shared" si="1"/>
@@ -10993,10 +11044,10 @@
     </row>
     <row r="88" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A88" s="65" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B88" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C88" s="38" t="s">
         <v>275</v>
@@ -11017,7 +11068,7 @@
         <v>276</v>
       </c>
       <c r="I88" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J88" s="38" t="s">
         <v>365</v>
@@ -11025,14 +11076,14 @@
       <c r="K88" s="38">
         <v>52.34</v>
       </c>
-      <c r="M88" s="86">
+      <c r="M88" s="87">
         <v>52.21</v>
       </c>
-      <c r="P88" s="82">
+      <c r="P88" s="83">
         <v>0.68600000000000005</v>
       </c>
       <c r="T88" s="65" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AB88" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11041,10 +11092,10 @@
     </row>
     <row r="89" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A89" s="65" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B89" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C89" s="38" t="s">
         <v>275</v>
@@ -11073,14 +11124,14 @@
       <c r="K89" s="38">
         <v>90.62</v>
       </c>
-      <c r="M89" s="86">
+      <c r="M89" s="87">
         <v>89.09</v>
       </c>
-      <c r="P89" s="82">
+      <c r="P89" s="83">
         <v>0.8992</v>
       </c>
       <c r="T89" s="65" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="AB89" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11091,14 +11142,14 @@
       <c r="K90" s="38">
         <v>90.39</v>
       </c>
-      <c r="M90" s="86">
+      <c r="M90" s="87">
         <v>87.61</v>
       </c>
-      <c r="P90" s="82">
+      <c r="P90" s="83">
         <v>0.88519999999999999</v>
       </c>
       <c r="T90" s="65" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AB90" s="65">
         <f t="shared" si="1"/>
@@ -11109,14 +11160,14 @@
       <c r="K91" s="38">
         <v>90.31</v>
       </c>
-      <c r="M91" s="86">
+      <c r="M91" s="87">
         <v>87.91</v>
       </c>
-      <c r="P91" s="82">
+      <c r="P91" s="83">
         <v>0.88639999999999997</v>
       </c>
       <c r="T91" s="65" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="AB91" s="65">
         <f t="shared" si="1"/>
@@ -11127,14 +11178,14 @@
       <c r="K92" s="38">
         <v>90.78</v>
       </c>
-      <c r="M92" s="86">
+      <c r="M92" s="87">
         <v>87.61</v>
       </c>
-      <c r="P92" s="82">
+      <c r="P92" s="83">
         <v>0.88460000000000005</v>
       </c>
       <c r="T92" s="65" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="AB92" s="65">
         <f t="shared" si="1"/>
@@ -11143,10 +11194,10 @@
     </row>
     <row r="93" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A93" s="65" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B93" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C93" s="38" t="s">
         <v>275</v>
@@ -11175,14 +11226,14 @@
       <c r="K93" s="38">
         <v>91.33</v>
       </c>
-      <c r="M93" s="86">
+      <c r="M93" s="87">
         <v>87.91</v>
       </c>
-      <c r="P93" s="82">
+      <c r="P93" s="83">
         <v>0.88639999999999997</v>
       </c>
       <c r="T93" s="65" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="AB93" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11193,14 +11244,14 @@
       <c r="K94" s="38">
         <v>91.09</v>
       </c>
-      <c r="M94" s="86">
+      <c r="M94" s="87">
         <v>86.14</v>
       </c>
-      <c r="P94" s="82">
+      <c r="P94" s="83">
         <v>0.87529999999999997</v>
       </c>
       <c r="T94" s="65" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="AB94" s="65">
         <f t="shared" si="1"/>
@@ -11209,10 +11260,10 @@
     </row>
     <row r="95" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A95" s="65" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B95" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C95" s="38" t="s">
         <v>275</v>
@@ -11241,14 +11292,14 @@
       <c r="K95" s="38">
         <v>91.17</v>
       </c>
-      <c r="M95" s="86">
+      <c r="M95" s="87">
         <v>87.32</v>
       </c>
-      <c r="P95" s="82">
+      <c r="P95" s="83">
         <v>0.8841</v>
       </c>
       <c r="T95" s="65" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="AB95" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11257,10 +11308,10 @@
     </row>
     <row r="96" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A96" s="65" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B96" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C96" s="38" t="s">
         <v>275</v>
@@ -11289,14 +11340,14 @@
       <c r="K96" s="38">
         <v>91.64</v>
       </c>
-      <c r="M96" s="86">
+      <c r="M96" s="87">
         <v>88.5</v>
       </c>
-      <c r="P96" s="82">
+      <c r="P96" s="83">
         <v>0.89259999999999995</v>
       </c>
       <c r="T96" s="65" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AB96" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11304,11 +11355,11 @@
       </c>
     </row>
     <row r="97" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A97" s="95" t="s">
-        <v>496</v>
+      <c r="A97" s="96" t="s">
+        <v>497</v>
       </c>
       <c r="B97" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C97" s="38" t="s">
         <v>275</v>
@@ -11337,14 +11388,14 @@
       <c r="K97" s="38">
         <v>93.91</v>
       </c>
-      <c r="M97" s="86">
+      <c r="M97" s="87">
         <v>85.55</v>
       </c>
-      <c r="P97" s="82">
+      <c r="P97" s="83">
         <v>0.86580000000000001</v>
       </c>
       <c r="T97" s="65" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="AB97" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11355,14 +11406,14 @@
       <c r="K98" s="38">
         <v>93.91</v>
       </c>
-      <c r="M98" s="86">
+      <c r="M98" s="87">
         <v>86.14</v>
       </c>
-      <c r="P98" s="82">
+      <c r="P98" s="83">
         <v>0.86609999999999998</v>
       </c>
       <c r="T98" s="65" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="AB98" s="65">
         <f t="shared" si="1"/>
@@ -11373,14 +11424,14 @@
       <c r="K99" s="38">
         <v>93.91</v>
       </c>
-      <c r="M99" s="86">
+      <c r="M99" s="87">
         <v>86.43</v>
       </c>
-      <c r="P99" s="82">
+      <c r="P99" s="83">
         <v>0.87219999999999998</v>
       </c>
       <c r="T99" s="65" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AB99" s="65">
         <f t="shared" si="1"/>
@@ -11391,14 +11442,14 @@
       <c r="K100" s="38">
         <v>93.12</v>
       </c>
-      <c r="M100" s="86">
+      <c r="M100" s="87">
         <v>85.84</v>
       </c>
-      <c r="P100" s="82">
+      <c r="P100" s="83">
         <v>0.86360000000000003</v>
       </c>
       <c r="T100" s="65" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="AB100" s="65">
         <f t="shared" si="1"/>
@@ -11407,10 +11458,10 @@
     </row>
     <row r="101" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A101" s="65" t="s">
+        <v>504</v>
+      </c>
+      <c r="B101" s="38" t="s">
         <v>503</v>
-      </c>
-      <c r="B101" s="38" t="s">
-        <v>502</v>
       </c>
       <c r="C101" s="38" t="s">
         <v>275</v>
@@ -11439,14 +11490,14 @@
       <c r="K101" s="38">
         <v>91.8</v>
       </c>
-      <c r="M101" s="86">
+      <c r="M101" s="87">
         <v>85.84</v>
       </c>
-      <c r="P101" s="82">
+      <c r="P101" s="83">
         <v>0.86739999999999995</v>
       </c>
       <c r="T101" s="65" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="AB101" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11457,14 +11508,14 @@
       <c r="K102" s="38">
         <v>92.34</v>
       </c>
-      <c r="M102" s="86">
+      <c r="M102" s="87">
         <v>86.14</v>
       </c>
-      <c r="P102" s="82">
+      <c r="P102" s="83">
         <v>0.86980000000000002</v>
       </c>
       <c r="T102" s="65" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="AB102" s="65">
         <f t="shared" si="1"/>
@@ -11475,14 +11526,14 @@
       <c r="K103" s="38">
         <v>92.5</v>
       </c>
-      <c r="M103" s="86">
+      <c r="M103" s="87">
         <v>85.84</v>
       </c>
-      <c r="P103" s="82">
+      <c r="P103" s="83">
         <v>0.86809999999999998</v>
       </c>
       <c r="T103" s="65" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AB103" s="65">
         <f t="shared" si="1"/>
@@ -11493,11 +11544,11 @@
       <c r="K104" s="38">
         <v>91.95</v>
       </c>
-      <c r="P104" s="82">
+      <c r="P104" s="83">
         <v>0.85960000000000003</v>
       </c>
       <c r="T104" s="65" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="AB104" s="65">
         <f t="shared" si="1"/>
@@ -11505,11 +11556,11 @@
       </c>
     </row>
     <row r="105" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A105" s="95" t="s">
-        <v>513</v>
+      <c r="A105" s="96" t="s">
+        <v>514</v>
       </c>
       <c r="B105" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C105" s="38" t="s">
         <v>275</v>
@@ -11538,14 +11589,14 @@
       <c r="K105" s="38">
         <v>90.86</v>
       </c>
-      <c r="M105" s="86">
+      <c r="M105" s="87">
         <v>86.73</v>
       </c>
-      <c r="P105" s="82">
+      <c r="P105" s="83">
         <v>0.87109999999999999</v>
       </c>
       <c r="T105" s="65" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AB105" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11554,10 +11605,10 @@
     </row>
     <row r="106" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A106" s="65" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B106" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C106" s="38" t="s">
         <v>275</v>
@@ -11583,8 +11634,8 @@
       <c r="J106" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="T106" s="98" t="s">
-        <v>516</v>
+      <c r="T106" s="99" t="s">
+        <v>517</v>
       </c>
       <c r="AB106" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11593,10 +11644,10 @@
     </row>
     <row r="107" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A107" s="65" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B107" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C107" s="38" t="s">
         <v>275</v>
@@ -11622,7 +11673,7 @@
       <c r="J107" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="T107" s="98"/>
+      <c r="T107" s="99"/>
       <c r="AB107" s="65" t="str">
         <f t="shared" si="1"/>
         <v>Ours (weight_decay 0.01, ps112, drop0.1, res_attn, stride56, eff_feat3)</v>
@@ -11630,10 +11681,10 @@
     </row>
     <row r="108" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A108" s="65" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B108" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C108" s="38" t="s">
         <v>275</v>
@@ -11662,14 +11713,14 @@
       <c r="K108" s="38">
         <v>99.38</v>
       </c>
-      <c r="M108" s="86">
+      <c r="M108" s="87">
         <v>85.84</v>
       </c>
-      <c r="P108" s="82">
+      <c r="P108" s="83">
         <v>0.86670000000000003</v>
       </c>
       <c r="T108" s="65" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="AB108" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11678,10 +11729,10 @@
     </row>
     <row r="109" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A109" s="65" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="B109" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C109" s="38" t="s">
         <v>275</v>
@@ -11710,14 +11761,14 @@
       <c r="K109" s="38">
         <v>99.14</v>
       </c>
-      <c r="M109" s="86">
+      <c r="M109" s="87">
         <v>85.84</v>
       </c>
-      <c r="P109" s="82">
+      <c r="P109" s="83">
         <v>0.87229999999999996</v>
       </c>
       <c r="T109" s="65" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="AB109" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11725,11 +11776,11 @@
       </c>
     </row>
     <row r="110" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A110" s="71" t="s">
-        <v>519</v>
+      <c r="A110" s="72" t="s">
+        <v>520</v>
       </c>
       <c r="B110" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C110" s="38" t="s">
         <v>275</v>
@@ -11761,14 +11812,14 @@
       <c r="L110" s="38">
         <v>0.64680000000000004</v>
       </c>
-      <c r="M110" s="86">
+      <c r="M110" s="87">
         <v>87.91</v>
       </c>
-      <c r="P110" s="82">
+      <c r="P110" s="83">
         <v>0.88319999999999999</v>
       </c>
       <c r="T110" s="65" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="AB110" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11777,10 +11828,10 @@
     </row>
     <row r="111" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A111" s="65" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B111" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C111" s="38" t="s">
         <v>275</v>
@@ -11812,14 +11863,14 @@
       <c r="L111" s="38">
         <v>0.64049999999999996</v>
       </c>
-      <c r="M111" s="86">
+      <c r="M111" s="87">
         <v>86.14</v>
       </c>
-      <c r="P111" s="82">
+      <c r="P111" s="83">
         <v>0.874</v>
       </c>
       <c r="T111" s="65" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="AB111" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11827,11 +11878,11 @@
       </c>
     </row>
     <row r="112" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A112" s="71" t="s">
-        <v>525</v>
+      <c r="A112" s="72" t="s">
+        <v>526</v>
       </c>
       <c r="B112" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C112" s="38" t="s">
         <v>275</v>
@@ -11863,14 +11914,14 @@
       <c r="L112" s="38">
         <v>0.62070000000000003</v>
       </c>
-      <c r="M112" s="86">
+      <c r="M112" s="87">
         <v>86.43</v>
       </c>
-      <c r="P112" s="82">
+      <c r="P112" s="83">
         <v>0.87080000000000002</v>
       </c>
       <c r="T112" s="65" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="AB112" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11879,10 +11930,10 @@
     </row>
     <row r="113" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A113" s="65" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B113" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C113" s="38" t="s">
         <v>275</v>
@@ -11914,14 +11965,14 @@
       <c r="L113" s="38">
         <v>0.75939999999999996</v>
       </c>
-      <c r="M113" s="86">
+      <c r="M113" s="87">
         <v>87.02</v>
       </c>
-      <c r="P113" s="82">
+      <c r="P113" s="83">
         <v>0.87570000000000003</v>
       </c>
       <c r="T113" s="65" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="AB113" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11930,10 +11981,10 @@
     </row>
     <row r="114" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A114" s="65" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B114" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C114" s="38" t="s">
         <v>275</v>
@@ -11965,14 +12016,14 @@
       <c r="L114" s="38">
         <v>0.72660000000000002</v>
       </c>
-      <c r="M114" s="86">
+      <c r="M114" s="87">
         <v>84.37</v>
       </c>
-      <c r="P114" s="82">
+      <c r="P114" s="83">
         <v>0.8579</v>
       </c>
       <c r="T114" s="65" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="AB114" s="65" t="str">
         <f t="shared" si="1"/>
@@ -11981,10 +12032,10 @@
     </row>
     <row r="115" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A115" s="65" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B115" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C115" s="38" t="s">
         <v>275</v>
@@ -12016,14 +12067,14 @@
       <c r="L115" s="38">
         <v>0.75480000000000003</v>
       </c>
-      <c r="M115" s="86">
+      <c r="M115" s="87">
         <v>86.14</v>
       </c>
-      <c r="P115" s="82">
+      <c r="P115" s="83">
         <v>0.87190000000000001</v>
       </c>
       <c r="T115" s="65" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="AB115" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12032,10 +12083,10 @@
     </row>
     <row r="116" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A116" s="65" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B116" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C116" s="38" t="s">
         <v>275</v>
@@ -12067,14 +12118,14 @@
       <c r="L116" s="38">
         <v>0.80320000000000003</v>
       </c>
-      <c r="M116" s="86">
+      <c r="M116" s="87">
         <v>86.14</v>
       </c>
-      <c r="P116" s="82">
+      <c r="P116" s="83">
         <v>0.87119999999999997</v>
       </c>
       <c r="T116" s="65" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="AB116" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12083,10 +12134,10 @@
     </row>
     <row r="117" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A117" s="65" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B117" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C117" s="38" t="s">
         <v>275</v>
@@ -12113,10 +12164,10 @@
         <v>365</v>
       </c>
       <c r="L117" s="38" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T117" s="65" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AB117" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12125,10 +12176,10 @@
     </row>
     <row r="118" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A118" s="65" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B118" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C118" s="38" t="s">
         <v>275</v>
@@ -12155,10 +12206,10 @@
         <v>365</v>
       </c>
       <c r="L118" s="38" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T118" s="65" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AB118" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12167,10 +12218,10 @@
     </row>
     <row r="119" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A119" s="65" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B119" s="38" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C119" s="38" t="s">
         <v>275</v>
@@ -12197,10 +12248,10 @@
         <v>365</v>
       </c>
       <c r="L119" s="38" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="T119" s="65" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AB119" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12209,10 +12260,10 @@
     </row>
     <row r="120" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A120" s="65" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B120" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C120" s="38" t="s">
         <v>275</v>
@@ -12230,16 +12281,16 @@
         <v>0</v>
       </c>
       <c r="H120" s="38" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I120" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J120" s="38" t="s">
         <v>365</v>
       </c>
       <c r="T120" s="65" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="AB120" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12248,10 +12299,10 @@
     </row>
     <row r="121" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A121" s="65" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B121" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C121" s="38" t="s">
         <v>275</v>
@@ -12269,16 +12320,16 @@
         <v>0</v>
       </c>
       <c r="H121" s="38" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I121" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J121" s="38" t="s">
         <v>365</v>
       </c>
       <c r="T121" s="65" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="AB121" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12286,11 +12337,11 @@
       </c>
     </row>
     <row r="122" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A122" s="71" t="s">
-        <v>550</v>
+      <c r="A122" s="72" t="s">
+        <v>551</v>
       </c>
       <c r="B122" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C122" s="38" t="s">
         <v>275</v>
@@ -12322,14 +12373,14 @@
       <c r="L122" s="38">
         <v>0.39560000000000001</v>
       </c>
-      <c r="M122" s="86">
+      <c r="M122" s="87">
         <v>84.66</v>
       </c>
-      <c r="P122" s="82">
+      <c r="P122" s="83">
         <v>0.85060000000000002</v>
       </c>
       <c r="T122" s="65" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="AB122" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12338,10 +12389,10 @@
     </row>
     <row r="123" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A123" s="65" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B123" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C123" s="38" t="s">
         <v>275</v>
@@ -12373,14 +12424,14 @@
       <c r="L123" s="38">
         <v>0.39560000000000001</v>
       </c>
-      <c r="M123" s="86">
+      <c r="M123" s="87">
         <v>84.96</v>
       </c>
-      <c r="P123" s="82">
+      <c r="P123" s="83">
         <v>0.85299999999999998</v>
       </c>
       <c r="T123" s="65" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="AB123" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12389,10 +12440,10 @@
     </row>
     <row r="124" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A124" s="65" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B124" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C124" s="38" t="s">
         <v>275</v>
@@ -12424,14 +12475,14 @@
       <c r="L124" s="38">
         <v>0.65159999999999996</v>
       </c>
-      <c r="M124" s="86">
+      <c r="M124" s="87">
         <v>85.25</v>
       </c>
-      <c r="P124" s="82">
+      <c r="P124" s="83">
         <v>0.85960000000000003</v>
       </c>
       <c r="T124" s="65" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="AB124" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12440,10 +12491,10 @@
     </row>
     <row r="125" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A125" s="65" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B125" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C125" s="38" t="s">
         <v>275</v>
@@ -12470,10 +12521,10 @@
         <v>365</v>
       </c>
       <c r="L125" s="38" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="T125" s="65" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="AB125" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12482,10 +12533,10 @@
     </row>
     <row r="126" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A126" s="65" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B126" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C126" s="38" t="s">
         <v>275</v>
@@ -12512,10 +12563,10 @@
         <v>365</v>
       </c>
       <c r="L126" s="38" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="T126" s="65" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="AB126" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12524,10 +12575,10 @@
     </row>
     <row r="127" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A127" s="65" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B127" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C127" s="38" t="s">
         <v>275</v>
@@ -12554,10 +12605,10 @@
         <v>365</v>
       </c>
       <c r="L127" s="38" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="T127" s="65" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="AB127" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12566,10 +12617,10 @@
     </row>
     <row r="128" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A128" s="65" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B128" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C128" s="38" t="s">
         <v>275</v>
@@ -12590,7 +12641,7 @@
         <v>276</v>
       </c>
       <c r="I128" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J128" s="38" t="s">
         <v>365</v>
@@ -12601,14 +12652,14 @@
       <c r="L128" s="38">
         <v>0.39050000000000001</v>
       </c>
-      <c r="M128" s="86">
+      <c r="M128" s="87">
         <v>84.66</v>
       </c>
-      <c r="P128" s="82">
+      <c r="P128" s="83">
         <v>0.85060000000000002</v>
       </c>
       <c r="T128" s="65" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="AB128" s="65" t="str">
         <f t="shared" si="1"/>
@@ -12617,10 +12668,10 @@
     </row>
     <row r="129" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A129" s="65" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B129" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C129" s="38" t="s">
         <v>275</v>
@@ -12641,7 +12692,7 @@
         <v>276</v>
       </c>
       <c r="I129" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J129" s="38" t="s">
         <v>365</v>
@@ -12652,14 +12703,14 @@
       <c r="L129" s="38">
         <v>0.3987</v>
       </c>
-      <c r="M129" s="86">
+      <c r="M129" s="87">
         <v>85.25</v>
       </c>
-      <c r="P129" s="82">
+      <c r="P129" s="83">
         <v>0.85029999999999994</v>
       </c>
       <c r="T129" s="65" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="AB129" s="65" t="str">
         <f t="shared" ref="AB129:AB145" si="2">A129</f>
@@ -12668,10 +12719,10 @@
     </row>
     <row r="130" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A130" s="65" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B130" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C130" s="38" t="s">
         <v>275</v>
@@ -12692,7 +12743,7 @@
         <v>276</v>
       </c>
       <c r="I130" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J130" s="38" t="s">
         <v>365</v>
@@ -12703,14 +12754,14 @@
       <c r="L130" s="38">
         <v>0.39400000000000002</v>
       </c>
-      <c r="M130" s="86">
+      <c r="M130" s="87">
         <v>86.14</v>
       </c>
-      <c r="P130" s="82">
+      <c r="P130" s="83">
         <v>0.86460000000000004</v>
       </c>
       <c r="T130" s="65" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="AB130" s="65" t="str">
         <f t="shared" si="2"/>
@@ -12718,11 +12769,11 @@
       </c>
     </row>
     <row r="131" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A131" s="71" t="s">
-        <v>564</v>
+      <c r="A131" s="72" t="s">
+        <v>565</v>
       </c>
       <c r="B131" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C131" s="38" t="s">
         <v>275</v>
@@ -12754,14 +12805,14 @@
       <c r="L131" s="38">
         <v>0.37590000000000001</v>
       </c>
-      <c r="M131" s="86">
+      <c r="M131" s="87">
         <v>88.2</v>
       </c>
-      <c r="P131" s="82">
+      <c r="P131" s="83">
         <v>0.8851</v>
       </c>
       <c r="T131" s="65" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="AB131" s="65" t="str">
         <f t="shared" si="2"/>
@@ -12770,10 +12821,10 @@
     </row>
     <row r="132" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A132" s="65" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B132" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C132" s="38" t="s">
         <v>275</v>
@@ -12805,14 +12856,14 @@
       <c r="L132" s="38">
         <v>0.42659999999999998</v>
       </c>
-      <c r="M132" s="86">
+      <c r="M132" s="87">
         <v>87.61</v>
       </c>
-      <c r="P132" s="82">
+      <c r="P132" s="83">
         <v>0.88400000000000001</v>
       </c>
       <c r="T132" s="65" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="AB132" s="65" t="str">
         <f t="shared" si="2"/>
@@ -12821,7 +12872,7 @@
     </row>
     <row r="133" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A133" s="65" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="AB133" s="65" t="str">
         <f t="shared" si="2"/>
@@ -12830,10 +12881,10 @@
     </row>
     <row r="134" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A134" s="65" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B134" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C134" s="38" t="s">
         <v>275</v>
@@ -12865,14 +12916,14 @@
       <c r="L134" s="38">
         <v>0.33629999999999999</v>
       </c>
-      <c r="M134" s="86">
+      <c r="M134" s="87">
         <v>88.5</v>
       </c>
-      <c r="P134" s="82">
+      <c r="P134" s="83">
         <v>0.89080000000000004</v>
       </c>
       <c r="T134" s="65" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="AB134" s="65" t="str">
         <f t="shared" si="2"/>
@@ -12881,10 +12932,10 @@
     </row>
     <row r="135" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A135" s="65" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B135" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C135" s="38" t="s">
         <v>275</v>
@@ -12916,14 +12967,14 @@
       <c r="L135" s="38">
         <v>0.36930000000000002</v>
       </c>
-      <c r="M135" s="86">
+      <c r="M135" s="87">
         <v>85.84</v>
       </c>
-      <c r="P135" s="82">
+      <c r="P135" s="83">
         <v>0.86439999999999995</v>
       </c>
       <c r="T135" s="65" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="AB135" s="65" t="str">
         <f t="shared" si="2"/>
@@ -12931,8 +12982,8 @@
       </c>
     </row>
     <row r="136" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A136" s="98" t="s">
-        <v>581</v>
+      <c r="A136" s="99" t="s">
+        <v>582</v>
       </c>
       <c r="AB136" s="65" t="str">
         <f t="shared" si="2"/>
@@ -12941,10 +12992,10 @@
     </row>
     <row r="137" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A137" s="65" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B137" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C137" s="38" t="s">
         <v>275</v>
@@ -12976,14 +13027,14 @@
       <c r="L137" s="38">
         <v>0.38629999999999998</v>
       </c>
-      <c r="M137" s="86">
+      <c r="M137" s="87">
         <v>88.2</v>
       </c>
-      <c r="P137" s="82">
+      <c r="P137" s="83">
         <v>0.88890000000000002</v>
       </c>
       <c r="T137" s="65" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="AB137" s="65" t="str">
         <f t="shared" si="2"/>
@@ -12992,10 +13043,10 @@
     </row>
     <row r="138" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A138" s="65" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B138" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C138" s="38" t="s">
         <v>275</v>
@@ -13027,14 +13078,14 @@
       <c r="L138" s="38">
         <v>0.36909999999999998</v>
       </c>
-      <c r="M138" s="86">
+      <c r="M138" s="87">
         <v>88.5</v>
       </c>
-      <c r="P138" s="82">
+      <c r="P138" s="83">
         <v>0.88500000000000001</v>
       </c>
       <c r="T138" s="65" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="AB138" s="65" t="str">
         <f t="shared" si="2"/>
@@ -13043,7 +13094,7 @@
     </row>
     <row r="139" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A139" s="65" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K139" s="38">
         <v>83.67</v>
@@ -13051,14 +13102,14 @@
       <c r="L139" s="38">
         <v>0.4042</v>
       </c>
-      <c r="M139" s="86">
+      <c r="M139" s="87">
         <v>85.84</v>
       </c>
-      <c r="P139" s="82">
+      <c r="P139" s="83">
         <v>0.85960000000000003</v>
       </c>
       <c r="T139" s="65" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="AB139" s="65" t="str">
         <f t="shared" si="2"/>
@@ -13067,7 +13118,7 @@
     </row>
     <row r="140" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A140" s="65" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="AB140" s="65" t="str">
         <f t="shared" si="2"/>
@@ -13076,7 +13127,7 @@
     </row>
     <row r="141" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A141" s="65" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="K141" s="38">
         <v>92.81</v>
@@ -13084,14 +13135,14 @@
       <c r="L141" s="38">
         <v>0.39279999999999998</v>
       </c>
-      <c r="M141" s="86">
+      <c r="M141" s="87">
         <v>86.43</v>
       </c>
-      <c r="P141" s="82">
+      <c r="P141" s="83">
         <v>0.87150000000000005</v>
       </c>
       <c r="T141" s="65" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="AB141" s="65" t="str">
         <f t="shared" si="2"/>
@@ -13099,8 +13150,8 @@
       </c>
     </row>
     <row r="142" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A142" s="71" t="s">
-        <v>508</v>
+      <c r="A142" s="72" t="s">
+        <v>509</v>
       </c>
       <c r="K142" s="38">
         <v>90.62</v>
@@ -13108,14 +13159,14 @@
       <c r="L142" s="38">
         <v>0.36030000000000001</v>
       </c>
-      <c r="M142" s="86">
+      <c r="M142" s="87">
         <v>88.5</v>
       </c>
-      <c r="P142" s="82">
+      <c r="P142" s="83">
         <v>0.89080000000000004</v>
       </c>
       <c r="T142" s="65" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="AB142" s="65" t="str">
         <f t="shared" si="2"/>
@@ -13124,7 +13175,7 @@
     </row>
     <row r="143" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A143" s="65" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K143" s="38">
         <v>83.52</v>
@@ -13132,14 +13183,14 @@
       <c r="L143" s="38">
         <v>0.42659999999999998</v>
       </c>
-      <c r="M143" s="86">
+      <c r="M143" s="87">
         <v>83.19</v>
       </c>
-      <c r="P143" s="82">
+      <c r="P143" s="83">
         <v>0.8357</v>
       </c>
       <c r="T143" s="65" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="AB143" s="65" t="str">
         <f t="shared" si="2"/>
@@ -13148,7 +13199,7 @@
     </row>
     <row r="144" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A144" s="65" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="K144" s="38">
         <v>94.14</v>
@@ -13156,14 +13207,14 @@
       <c r="L144" s="38">
         <v>0.42009999999999997</v>
       </c>
-      <c r="M144" s="86">
+      <c r="M144" s="87">
         <v>83.48</v>
       </c>
-      <c r="P144" s="82">
+      <c r="P144" s="83">
         <v>0.84699999999999998</v>
       </c>
       <c r="T144" s="65" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="AB144" s="65" t="str">
         <f t="shared" si="2"/>
@@ -13172,7 +13223,7 @@
     </row>
     <row r="145" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A145" s="65" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="K145" s="38">
         <v>99.45</v>
@@ -13180,14 +13231,14 @@
       <c r="L145" s="38">
         <v>0.75929999999999997</v>
       </c>
-      <c r="M145" s="86">
+      <c r="M145" s="87">
         <v>86.73</v>
       </c>
-      <c r="P145" s="82">
+      <c r="P145" s="83">
         <v>0.86319999999999997</v>
       </c>
       <c r="T145" s="65" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="AB145" s="65" t="str">
         <f t="shared" si="2"/>
@@ -13196,7 +13247,7 @@
     </row>
     <row r="146" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A146" s="65" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="K146" s="38">
         <v>97.58</v>
@@ -13204,14 +13255,14 @@
       <c r="L146" s="38">
         <v>0.73250000000000004</v>
       </c>
-      <c r="M146" s="86">
+      <c r="M146" s="87">
         <v>84.07</v>
       </c>
-      <c r="P146" s="82">
+      <c r="P146" s="83">
         <v>0.84299999999999997</v>
       </c>
       <c r="T146" s="65" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="AB146" s="65" t="str">
         <f>A146</f>
@@ -13220,7 +13271,7 @@
     </row>
     <row r="147" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A147" s="65" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K147" s="38">
         <v>99.38</v>
@@ -13228,14 +13279,14 @@
       <c r="L147" s="38">
         <v>0.86970000000000003</v>
       </c>
-      <c r="M147" s="86">
+      <c r="M147" s="87">
         <v>84.96</v>
       </c>
-      <c r="P147" s="82">
+      <c r="P147" s="83">
         <v>0.85040000000000004</v>
       </c>
       <c r="T147" s="65" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="AB147" s="65" t="str">
         <f t="shared" ref="AB147:AB210" si="3">A147</f>
@@ -13244,7 +13295,7 @@
     </row>
     <row r="148" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A148" s="65" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K148" s="38">
         <v>99.22</v>
@@ -13252,14 +13303,14 @@
       <c r="L148" s="38">
         <v>0.68269999999999997</v>
       </c>
-      <c r="M148" s="86">
+      <c r="M148" s="87">
         <v>85.25</v>
       </c>
-      <c r="P148" s="82">
+      <c r="P148" s="83">
         <v>0.85629999999999995</v>
       </c>
       <c r="T148" s="65" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="AB148" s="65" t="str">
         <f t="shared" si="3"/>
@@ -13268,13 +13319,13 @@
     </row>
     <row r="149" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A149" s="65" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="L149" s="38" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="T149" s="65" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="AB149" s="65" t="str">
         <f t="shared" si="3"/>
@@ -13283,13 +13334,13 @@
     </row>
     <row r="150" spans="1:28" x14ac:dyDescent="0.4">
       <c r="A150" s="65" t="s">
+        <v>603</v>
+      </c>
+      <c r="L150" s="38" t="s">
+        <v>556</v>
+      </c>
+      <c r="T150" s="65" t="s">
         <v>602</v>
-      </c>
-      <c r="L150" s="38" t="s">
-        <v>555</v>
-      </c>
-      <c r="T150" s="65" t="s">
-        <v>601</v>
       </c>
       <c r="AB150" s="65" t="str">
         <f t="shared" si="3"/>
@@ -13297,11 +13348,23 @@
       </c>
     </row>
     <row r="151" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="A151" s="100" t="s">
-        <v>604</v>
+      <c r="A151" s="101" t="s">
+        <v>605</v>
+      </c>
+      <c r="K151" s="38">
+        <v>92.89</v>
+      </c>
+      <c r="L151" s="38">
+        <v>0.37890000000000001</v>
+      </c>
+      <c r="M151" s="87">
+        <v>88.2</v>
+      </c>
+      <c r="P151" s="83">
+        <v>0.88639999999999997</v>
       </c>
       <c r="T151" s="65" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="AB151" s="65" t="str">
         <f t="shared" si="3"/>
@@ -13309,8 +13372,20 @@
       </c>
     </row>
     <row r="152" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K152" s="38">
+        <v>92.89</v>
+      </c>
+      <c r="L152" s="38">
+        <v>0.38200000000000001</v>
+      </c>
+      <c r="M152" s="87">
+        <v>87.61</v>
+      </c>
+      <c r="P152" s="83">
+        <v>0.88</v>
+      </c>
       <c r="T152" s="65" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="AB152" s="65">
         <f t="shared" si="3"/>
@@ -13318,8 +13393,20 @@
       </c>
     </row>
     <row r="153" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K153" s="38">
+        <v>93.2</v>
+      </c>
+      <c r="L153" s="38">
+        <v>0.38229999999999997</v>
+      </c>
+      <c r="M153" s="87">
+        <v>88.2</v>
+      </c>
+      <c r="P153" s="83">
+        <v>0.8851</v>
+      </c>
       <c r="T153" s="65" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AB153" s="65">
         <f t="shared" si="3"/>
@@ -13327,138 +13414,267 @@
       </c>
     </row>
     <row r="154" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB154" s="65">
+      <c r="A154" s="101" t="s">
+        <v>464</v>
+      </c>
+      <c r="E154" s="38" t="s">
+        <v>606</v>
+      </c>
+      <c r="K154" s="38">
+        <v>90.55</v>
+      </c>
+      <c r="L154" s="38">
+        <v>2.9899999999999999E-2</v>
+      </c>
+      <c r="M154" s="87">
+        <v>86.43</v>
+      </c>
+      <c r="P154" s="83">
+        <v>0.87080000000000002</v>
+      </c>
+      <c r="T154" s="99" t="s">
+        <v>614</v>
+      </c>
+      <c r="AB154" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
     <row r="155" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K155" s="38">
+        <v>90.55</v>
+      </c>
+      <c r="L155" s="38">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="M155" s="87">
+        <v>86.43</v>
+      </c>
+      <c r="P155" s="83">
+        <v>0.87360000000000004</v>
+      </c>
+      <c r="T155" s="65" t="s">
+        <v>613</v>
+      </c>
       <c r="AB155" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K156" s="38">
+        <v>90.55</v>
+      </c>
+      <c r="L156" s="38">
+        <v>2.9399999999999999E-2</v>
+      </c>
+      <c r="M156" s="87">
+        <v>86.14</v>
+      </c>
+      <c r="P156" s="83">
+        <v>0.86829999999999996</v>
+      </c>
+      <c r="T156" s="65" t="s">
+        <v>612</v>
+      </c>
       <c r="AB156" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB157" s="65">
+      <c r="A157" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="E157" s="38" t="s">
+        <v>611</v>
+      </c>
+      <c r="K157" s="38">
+        <v>90.62</v>
+      </c>
+      <c r="L157" s="38">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="M157" s="87">
+        <v>89.09</v>
+      </c>
+      <c r="P157" s="83">
+        <v>0.89339999999999997</v>
+      </c>
+      <c r="T157" s="65" t="s">
+        <v>615</v>
+      </c>
+      <c r="AB157" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
     <row r="158" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="K158" s="38">
+        <v>91.02</v>
+      </c>
+      <c r="L158" s="38">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="M158" s="87">
+        <v>88.79</v>
+      </c>
+      <c r="P158" s="83">
+        <v>0.89390000000000003</v>
+      </c>
+      <c r="T158" s="65" t="s">
+        <v>616</v>
+      </c>
       <c r="AB158" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB159" s="65">
+      <c r="A159" s="70" t="s">
+        <v>464</v>
+      </c>
+      <c r="E159" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="K159" s="38">
+        <v>90.94</v>
+      </c>
+      <c r="L159" s="38">
+        <v>0.38269999999999998</v>
+      </c>
+      <c r="M159" s="87">
+        <v>89.68</v>
+      </c>
+      <c r="P159" s="83">
+        <v>0.90029999999999999</v>
+      </c>
+      <c r="T159" s="65" t="s">
+        <v>617</v>
+      </c>
+      <c r="AB159" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>Ours (weight_decay 0.0001, ps112, drop0.1, res_attn)</v>
       </c>
     </row>
     <row r="160" spans="1:28" x14ac:dyDescent="0.4">
-      <c r="AB160" s="65">
+      <c r="A160" s="70" t="s">
+        <v>618</v>
+      </c>
+      <c r="E160" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="T160" s="65" t="s">
+        <v>619</v>
+      </c>
+      <c r="AB160" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="28:28" x14ac:dyDescent="0.4">
+        <v>Ours (weight_decay 0.001, ps112, drop0.1, res_attn)</v>
+      </c>
+    </row>
+    <row r="161" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="T161" s="65" t="s">
+        <v>620</v>
+      </c>
       <c r="AB161" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="28:28" x14ac:dyDescent="0.4">
-      <c r="AB162" s="65">
+    <row r="162" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="A162" s="70" t="s">
+        <v>462</v>
+      </c>
+      <c r="E162" s="38" t="s">
+        <v>610</v>
+      </c>
+      <c r="T162" s="65" t="s">
+        <v>621</v>
+      </c>
+      <c r="AB162" s="65" t="str">
         <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="28:28" x14ac:dyDescent="0.4">
+        <v>Ours (weight_decay 0.005, ps112, drop0.1, res_attn)</v>
+      </c>
+    </row>
+    <row r="163" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB163" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB164" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB165" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB166" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB167" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB168" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB169" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB170" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB171" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB172" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB173" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB174" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB175" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="28:28" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:28" x14ac:dyDescent="0.4">
       <c r="AB176" s="65">
         <f t="shared" si="3"/>
         <v>0</v>
@@ -14966,7 +15182,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <conditionalFormatting sqref="N1:N1048576">
+  <conditionalFormatting sqref="N1:N153 N155:N1048576">
     <cfRule type="colorScale" priority="10">
       <colorScale>
         <cfvo type="min"/>
@@ -14978,7 +15194,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O1:O1048576">
+  <conditionalFormatting sqref="O1:O153 O155:O1048576">
     <cfRule type="colorScale" priority="9">
       <colorScale>
         <cfvo type="min"/>
@@ -14990,7 +15206,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1:P1048576">
+  <conditionalFormatting sqref="P1:P153 P155:P1048576">
     <cfRule type="colorScale" priority="8">
       <colorScale>
         <cfvo type="min"/>
@@ -15071,28 +15287,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817035C0-14C9-45B2-BCCA-0F6EE4603826}">
   <dimension ref="A2:X14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="55.296875" style="78" customWidth="1"/>
-    <col min="2" max="2" width="14.296875" style="78" customWidth="1"/>
-    <col min="3" max="3" width="44.09765625" style="78" customWidth="1"/>
-    <col min="4" max="4" width="11.5" style="78" customWidth="1"/>
-    <col min="5" max="5" width="48.69921875" style="78" customWidth="1"/>
-    <col min="6" max="6" width="8.3984375" style="78" customWidth="1"/>
-    <col min="7" max="7" width="14.296875" style="78" customWidth="1"/>
-    <col min="8" max="8" width="16.59765625" style="78" customWidth="1"/>
-    <col min="9" max="9" width="22.796875" style="78" customWidth="1"/>
-    <col min="10" max="10" width="20" style="78" customWidth="1"/>
-    <col min="11" max="12" width="21" style="78" customWidth="1"/>
-    <col min="13" max="13" width="25.296875" style="78" customWidth="1"/>
-    <col min="14" max="19" width="17.796875" style="91" customWidth="1"/>
-    <col min="20" max="20" width="17.796875" style="78" customWidth="1"/>
-    <col min="21" max="16384" width="8.796875" style="78"/>
+    <col min="1" max="1" width="55.296875" style="79" customWidth="1"/>
+    <col min="2" max="2" width="14.296875" style="79" customWidth="1"/>
+    <col min="3" max="3" width="44.09765625" style="79" customWidth="1"/>
+    <col min="4" max="4" width="11.5" style="79" customWidth="1"/>
+    <col min="5" max="5" width="48.69921875" style="79" customWidth="1"/>
+    <col min="6" max="6" width="8.3984375" style="79" customWidth="1"/>
+    <col min="7" max="7" width="14.296875" style="79" customWidth="1"/>
+    <col min="8" max="8" width="16.59765625" style="79" customWidth="1"/>
+    <col min="9" max="9" width="22.796875" style="79" customWidth="1"/>
+    <col min="10" max="10" width="20" style="79" customWidth="1"/>
+    <col min="11" max="12" width="21" style="79" customWidth="1"/>
+    <col min="13" max="13" width="25.296875" style="79" customWidth="1"/>
+    <col min="14" max="19" width="17.796875" style="92" customWidth="1"/>
+    <col min="20" max="20" width="17.796875" style="79" customWidth="1"/>
+    <col min="21" max="16384" width="8.796875" style="79"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:24" x14ac:dyDescent="0.4">
@@ -15100,74 +15316,74 @@
         <v>449</v>
       </c>
     </row>
-    <row r="3" spans="1:24" s="77" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="76" t="s">
+    <row r="3" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="77" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="77" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="76" t="s">
+      <c r="C3" s="77" t="s">
         <v>62</v>
       </c>
-      <c r="D3" s="76" t="s">
+      <c r="D3" s="77" t="s">
         <v>61</v>
       </c>
-      <c r="E3" s="76" t="s">
+      <c r="E3" s="77" t="s">
         <v>99</v>
       </c>
-      <c r="F3" s="76" t="s">
+      <c r="F3" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="76" t="s">
+      <c r="G3" s="77" t="s">
         <v>54</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="77" t="s">
         <v>55</v>
       </c>
-      <c r="I3" s="76" t="s">
+      <c r="I3" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="J3" s="76" t="s">
+      <c r="J3" s="77" t="s">
         <v>363</v>
       </c>
-      <c r="K3" s="76" t="s">
+      <c r="K3" s="77" t="s">
+        <v>496</v>
+      </c>
+      <c r="L3" s="77" t="s">
+        <v>527</v>
+      </c>
+      <c r="M3" s="77" t="s">
         <v>495</v>
       </c>
-      <c r="L3" s="76" t="s">
-        <v>526</v>
-      </c>
-      <c r="M3" s="76" t="s">
-        <v>494</v>
-      </c>
-      <c r="N3" s="90" t="s">
+      <c r="N3" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="90" t="s">
+      <c r="O3" s="91" t="s">
         <v>256</v>
       </c>
-      <c r="P3" s="90" t="s">
+      <c r="P3" s="91" t="s">
         <v>257</v>
       </c>
-      <c r="Q3" s="90" t="s">
+      <c r="Q3" s="91" t="s">
         <v>258</v>
       </c>
-      <c r="R3" s="90" t="s">
+      <c r="R3" s="91" t="s">
         <v>259</v>
       </c>
-      <c r="S3" s="90" t="s">
+      <c r="S3" s="91" t="s">
         <v>260</v>
       </c>
-      <c r="T3" s="76" t="s">
+      <c r="T3" s="77" t="s">
         <v>262</v>
       </c>
     </row>
-    <row r="4" spans="1:24" s="79" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="78" t="s">
+    <row r="4" spans="1:24" s="80" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="79" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C4" s="38" t="s">
         <v>53</v>
@@ -15188,52 +15404,52 @@
         <v>56</v>
       </c>
       <c r="I4" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J4" s="38" t="s">
         <v>366</v>
       </c>
-      <c r="K4" s="79" t="s">
+      <c r="K4" s="80" t="s">
         <v>23</v>
       </c>
       <c r="L4" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="78">
+      <c r="M4" s="79">
         <v>90.71</v>
       </c>
-      <c r="N4" s="91">
+      <c r="N4" s="92">
         <v>0.92369999999999997</v>
       </c>
-      <c r="O4" s="91">
+      <c r="O4" s="92">
         <v>0.89829999999999999</v>
       </c>
-      <c r="P4" s="91">
+      <c r="P4" s="92">
         <v>0.91080000000000005</v>
       </c>
-      <c r="Q4" s="91">
+      <c r="Q4" s="92">
         <v>0.88949999999999996</v>
       </c>
-      <c r="R4" s="91">
+      <c r="R4" s="92">
         <v>0.91690000000000005</v>
       </c>
-      <c r="S4" s="91">
+      <c r="S4" s="92">
         <v>0.90300000000000002</v>
       </c>
-      <c r="T4" s="78" t="s">
+      <c r="T4" s="79" t="s">
         <v>361</v>
       </c>
-      <c r="U4" s="78"/>
-      <c r="V4" s="78"/>
-      <c r="W4" s="78"/>
-      <c r="X4" s="78"/>
-    </row>
-    <row r="5" spans="1:24" s="77" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="U4" s="79"/>
+      <c r="V4" s="79"/>
+      <c r="W4" s="79"/>
+      <c r="X4" s="79"/>
+    </row>
+    <row r="5" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="38" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C5" s="38" t="s">
         <v>53</v>
@@ -15254,48 +15470,48 @@
         <v>56</v>
       </c>
       <c r="I5" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J5" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="K5" s="77">
+      <c r="K5" s="78">
         <v>99.97</v>
       </c>
-      <c r="L5" s="77">
+      <c r="L5" s="78">
         <v>0.57930000000000004</v>
       </c>
-      <c r="M5" s="80">
+      <c r="M5" s="81">
         <v>91.93</v>
       </c>
-      <c r="N5" s="92">
+      <c r="N5" s="93">
         <v>0.93169999999999997</v>
       </c>
-      <c r="O5" s="92">
+      <c r="O5" s="93">
         <v>0.91420000000000001</v>
       </c>
-      <c r="P5" s="92">
+      <c r="P5" s="93">
         <v>0.92279999999999995</v>
       </c>
-      <c r="Q5" s="92">
+      <c r="Q5" s="93">
         <v>0.90590000000000004</v>
       </c>
-      <c r="R5" s="92">
+      <c r="R5" s="93">
         <v>0.92500000000000004</v>
       </c>
-      <c r="S5" s="92">
+      <c r="S5" s="93">
         <v>0.91539999999999999</v>
       </c>
-      <c r="T5" s="80" t="s">
+      <c r="T5" s="81" t="s">
         <v>402</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="77" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C6" s="38" t="s">
         <v>53</v>
@@ -15316,36 +15532,36 @@
         <v>56</v>
       </c>
       <c r="I6" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J6" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="K6" s="77">
+      <c r="K6" s="78">
         <v>93.59</v>
       </c>
-      <c r="L6" s="77">
+      <c r="L6" s="78">
         <v>0.2157</v>
       </c>
       <c r="M6" s="38">
         <v>92.14</v>
       </c>
-      <c r="N6" s="85">
+      <c r="N6" s="86">
         <v>0.94430000000000003</v>
       </c>
-      <c r="O6" s="85">
+      <c r="O6" s="86">
         <v>0.90459999999999996</v>
       </c>
-      <c r="P6" s="85">
+      <c r="P6" s="86">
         <v>0.92400000000000004</v>
       </c>
-      <c r="Q6" s="85">
+      <c r="Q6" s="86">
         <v>0.89800000000000002</v>
       </c>
-      <c r="R6" s="85">
+      <c r="R6" s="86">
         <v>0.94030000000000002</v>
       </c>
-      <c r="S6" s="85">
+      <c r="S6" s="86">
         <v>0.91859999999999997</v>
       </c>
       <c r="T6" s="38" t="s">
@@ -15353,12 +15569,12 @@
       </c>
       <c r="U6" s="65"/>
     </row>
-    <row r="7" spans="1:24" s="77" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C7" s="38" t="s">
         <v>53</v>
@@ -15379,48 +15595,48 @@
         <v>56</v>
       </c>
       <c r="I7" s="38" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="J7" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="K7" s="77">
+      <c r="K7" s="78">
         <v>95.09</v>
       </c>
-      <c r="L7" s="77">
+      <c r="L7" s="78">
         <v>0.24110000000000001</v>
       </c>
-      <c r="M7" s="80">
+      <c r="M7" s="81">
         <v>92.11</v>
       </c>
-      <c r="N7" s="92">
+      <c r="N7" s="93">
         <v>0.93840000000000001</v>
       </c>
-      <c r="O7" s="92">
+      <c r="O7" s="93">
         <v>0.91039999999999999</v>
       </c>
-      <c r="P7" s="92">
+      <c r="P7" s="93">
         <v>0.92420000000000002</v>
       </c>
-      <c r="Q7" s="92">
+      <c r="Q7" s="93">
         <v>0.90300000000000002</v>
       </c>
-      <c r="R7" s="92">
+      <c r="R7" s="93">
         <v>0.93310000000000004</v>
       </c>
-      <c r="S7" s="92">
+      <c r="S7" s="93">
         <v>0.91779999999999995</v>
       </c>
-      <c r="T7" s="80" t="s">
+      <c r="T7" s="81" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.4">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="98" t="s">
         <v>421</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C8" s="38" t="s">
         <v>275</v>
@@ -15428,61 +15644,61 @@
       <c r="D8" s="38">
         <v>256</v>
       </c>
-      <c r="E8" s="78" t="s">
+      <c r="E8" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="F8" s="78">
+      <c r="F8" s="79">
         <v>90</v>
       </c>
-      <c r="G8" s="78" t="b">
-        <v>0</v>
-      </c>
-      <c r="H8" s="78" t="s">
+      <c r="G8" s="79" t="b">
+        <v>0</v>
+      </c>
+      <c r="H8" s="79" t="s">
         <v>276</v>
       </c>
-      <c r="I8" s="78" t="s">
+      <c r="I8" s="79" t="s">
         <v>60</v>
       </c>
-      <c r="J8" s="78" t="s">
+      <c r="J8" s="79" t="s">
         <v>365</v>
       </c>
-      <c r="K8" s="99">
+      <c r="K8" s="100">
         <v>90.77</v>
       </c>
-      <c r="L8" s="99">
+      <c r="L8" s="100">
         <v>0.2273</v>
       </c>
-      <c r="M8" s="93">
+      <c r="M8" s="94">
         <v>90.95</v>
       </c>
-      <c r="N8" s="91">
+      <c r="N8" s="92">
         <v>0.92469999999999997</v>
       </c>
-      <c r="O8" s="91">
+      <c r="O8" s="92">
         <v>0.9022</v>
       </c>
-      <c r="P8" s="91">
+      <c r="P8" s="92">
         <v>0.9133</v>
       </c>
-      <c r="Q8" s="91">
+      <c r="Q8" s="92">
         <v>0.89339999999999997</v>
       </c>
-      <c r="R8" s="91">
+      <c r="R8" s="92">
         <v>0.91769999999999996</v>
       </c>
-      <c r="S8" s="91">
+      <c r="S8" s="92">
         <v>0.90539999999999998</v>
       </c>
-      <c r="T8" s="78" t="s">
+      <c r="T8" s="79" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="77" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="97" t="s">
-        <v>462</v>
+    <row r="9" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="98" t="s">
+        <v>463</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C9" s="38" t="s">
         <v>275</v>
@@ -15490,7 +15706,7 @@
       <c r="D9" s="38">
         <v>256</v>
       </c>
-      <c r="E9" s="78" t="s">
+      <c r="E9" s="79" t="s">
         <v>100</v>
       </c>
       <c r="F9" s="38">
@@ -15508,43 +15724,43 @@
       <c r="J9" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="K9" s="99">
+      <c r="K9" s="100">
         <v>90.85</v>
       </c>
-      <c r="L9" s="99">
+      <c r="L9" s="100">
         <v>0.23039999999999999</v>
       </c>
-      <c r="M9" s="80">
+      <c r="M9" s="81">
         <v>90.94</v>
       </c>
-      <c r="N9" s="92">
+      <c r="N9" s="93">
         <v>0.9274</v>
       </c>
-      <c r="O9" s="92">
+      <c r="O9" s="93">
         <v>0.89890000000000003</v>
       </c>
-      <c r="P9" s="92">
+      <c r="P9" s="93">
         <v>0.91290000000000004</v>
       </c>
-      <c r="Q9" s="92">
+      <c r="Q9" s="93">
         <v>0.89059999999999995</v>
       </c>
-      <c r="R9" s="92">
+      <c r="R9" s="93">
         <v>0.92120000000000002</v>
       </c>
-      <c r="S9" s="92">
+      <c r="S9" s="93">
         <v>0.90569999999999995</v>
       </c>
-      <c r="T9" s="78" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="71" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="97" t="s">
-        <v>496</v>
+      <c r="T9" s="79" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="72" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="98" t="s">
+        <v>497</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C10" s="38" t="s">
         <v>275</v>
@@ -15552,7 +15768,7 @@
       <c r="D10" s="38">
         <v>256</v>
       </c>
-      <c r="E10" s="78" t="s">
+      <c r="E10" s="79" t="s">
         <v>100</v>
       </c>
       <c r="F10" s="38">
@@ -15579,35 +15795,35 @@
       <c r="M10" s="38">
         <v>91.06</v>
       </c>
-      <c r="N10" s="85">
+      <c r="N10" s="86">
         <v>0.92689999999999995</v>
       </c>
-      <c r="O10" s="85">
+      <c r="O10" s="86">
         <v>0.90190000000000003</v>
       </c>
-      <c r="P10" s="85">
+      <c r="P10" s="86">
         <v>0.91420000000000001</v>
       </c>
-      <c r="Q10" s="85">
+      <c r="Q10" s="86">
         <v>0.89339999999999997</v>
       </c>
-      <c r="R10" s="85">
+      <c r="R10" s="86">
         <v>0.9204</v>
       </c>
-      <c r="S10" s="85">
+      <c r="S10" s="86">
         <v>0.90669999999999995</v>
       </c>
-      <c r="T10" s="78" t="s">
-        <v>566</v>
+      <c r="T10" s="79" t="s">
+        <v>567</v>
       </c>
       <c r="U10" s="65"/>
     </row>
-    <row r="11" spans="1:24" s="79" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="97" t="s">
-        <v>508</v>
+    <row r="11" spans="1:24" s="80" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="98" t="s">
+        <v>509</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>275</v>
@@ -15615,7 +15831,7 @@
       <c r="D11" s="38">
         <v>256</v>
       </c>
-      <c r="E11" s="78" t="s">
+      <c r="E11" s="79" t="s">
         <v>100</v>
       </c>
       <c r="F11" s="38">
@@ -15633,23 +15849,23 @@
       <c r="J11" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="L11" s="78"/>
-      <c r="M11" s="78"/>
-      <c r="N11" s="91"/>
-      <c r="O11" s="91"/>
-      <c r="P11" s="91"/>
-      <c r="Q11" s="91"/>
-      <c r="R11" s="91"/>
-      <c r="S11" s="91"/>
-      <c r="T11" s="78" t="s">
-        <v>567</v>
-      </c>
-      <c r="U11" s="78"/>
-      <c r="V11" s="78"/>
-      <c r="W11" s="78"/>
-      <c r="X11" s="78"/>
-    </row>
-    <row r="12" spans="1:24" s="77" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="L11" s="79"/>
+      <c r="M11" s="79"/>
+      <c r="N11" s="92"/>
+      <c r="O11" s="92"/>
+      <c r="P11" s="92"/>
+      <c r="Q11" s="92"/>
+      <c r="R11" s="92"/>
+      <c r="S11" s="92"/>
+      <c r="T11" s="79" t="s">
+        <v>568</v>
+      </c>
+      <c r="U11" s="79"/>
+      <c r="V11" s="79"/>
+      <c r="W11" s="79"/>
+      <c r="X11" s="79"/>
+    </row>
+    <row r="12" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="38"/>
       <c r="B12" s="38"/>
       <c r="C12" s="38"/>
@@ -15660,18 +15876,18 @@
       <c r="H12" s="38"/>
       <c r="I12" s="38"/>
       <c r="J12" s="38"/>
-      <c r="M12" s="80"/>
-      <c r="N12" s="92"/>
-      <c r="O12" s="92"/>
-      <c r="P12" s="92"/>
-      <c r="Q12" s="92"/>
-      <c r="R12" s="92"/>
-      <c r="S12" s="92"/>
-      <c r="T12" s="80"/>
-    </row>
-    <row r="13" spans="1:24" s="77" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M12" s="81"/>
+      <c r="N12" s="93"/>
+      <c r="O12" s="93"/>
+      <c r="P12" s="93"/>
+      <c r="Q12" s="93"/>
+      <c r="R12" s="93"/>
+      <c r="S12" s="93"/>
+      <c r="T12" s="81"/>
+    </row>
+    <row r="13" spans="1:24" s="78" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="38" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="B13" s="38"/>
       <c r="C13" s="38"/>
@@ -15683,18 +15899,18 @@
       <c r="I13" s="38"/>
       <c r="J13" s="38"/>
       <c r="M13" s="38"/>
-      <c r="N13" s="85"/>
-      <c r="O13" s="85"/>
-      <c r="P13" s="85"/>
-      <c r="Q13" s="85"/>
-      <c r="R13" s="85"/>
-      <c r="S13" s="85"/>
+      <c r="N13" s="86"/>
+      <c r="O13" s="86"/>
+      <c r="P13" s="86"/>
+      <c r="Q13" s="86"/>
+      <c r="R13" s="86"/>
+      <c r="S13" s="86"/>
       <c r="T13" s="25"/>
       <c r="U13" s="65"/>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.4">
       <c r="A14" s="43" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -15912,7 +16128,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>94</v>
@@ -15953,7 +16169,7 @@
         <v>60</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>95</v>
@@ -15994,7 +16210,7 @@
         <v>60</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>96</v>
@@ -16035,7 +16251,7 @@
         <v>60</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>98</v>
@@ -16161,7 +16377,7 @@
         <v>90</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>160</v>
@@ -16202,7 +16418,7 @@
         <v>90</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>166</v>
@@ -16243,7 +16459,7 @@
         <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>151</v>
@@ -16284,7 +16500,7 @@
         <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>172</v>
@@ -16445,7 +16661,7 @@
         <v>90</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D22" s="1">
         <v>0.30220000000000002</v>
@@ -16486,7 +16702,7 @@
         <v>90</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D23" s="1">
         <v>0.21440000000000001</v>
@@ -16527,7 +16743,7 @@
         <v>90</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>67</v>
@@ -16568,7 +16784,7 @@
         <v>90</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>172</v>
@@ -16729,7 +16945,7 @@
         <v>90</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D31" s="1" t="s">
         <v>127</v>
@@ -16770,7 +16986,7 @@
         <v>90</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>236</v>
@@ -16811,7 +17027,7 @@
         <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>133</v>
@@ -16852,7 +17068,7 @@
         <v>90</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>172</v>
